--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevD\TowerDefense\ExcelToCSV\SrcFolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ejup\Documents\TowerDefense\ExcelToCSV\SrcFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496903FD-9AE8-4992-9DAA-F9109F3F6529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3105" yWindow="1485" windowWidth="24225" windowHeight="13230" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3108" yWindow="1488" windowWidth="24228" windowHeight="13236" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="ObjTable" sheetId="19" r:id="rId1"/>
-    <sheet name="Character" sheetId="22" r:id="rId2"/>
-    <sheet name="SpriteCollection" sheetId="21" r:id="rId3"/>
-    <sheet name="SpriteSheet" sheetId="20" r:id="rId4"/>
+    <sheet name="SpriteCollection" sheetId="21" r:id="rId2"/>
+    <sheet name="SpriteSheet" sheetId="20" r:id="rId3"/>
+    <sheet name="Character" sheetId="22" r:id="rId4"/>
     <sheet name="ConfigTable" sheetId="18" r:id="rId5"/>
     <sheet name="EnumTable" sheetId="17" r:id="rId6"/>
+    <sheet name="Unitinfo" sheetId="23" r:id="rId7"/>
+    <sheet name="UnitGradeInfo" sheetId="25" r:id="rId8"/>
+    <sheet name="ProjectileInfo" sheetId="24" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="182">
   <si>
     <t>type</t>
   </si>
@@ -768,12 +770,151 @@
     <t>characterType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Images/Items_thumb/swordman_thumb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>characterType</t>
+  </si>
+  <si>
+    <t>checkRange</t>
+  </si>
+  <si>
+    <t>aggroOrder</t>
+  </si>
+  <si>
+    <t>defaultGrade</t>
+  </si>
+  <si>
+    <t>thumbnailPath</t>
+  </si>
+  <si>
+    <t>prefabName</t>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>nt</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>nt</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>nt</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>nt</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01_Indian_Archer</t>
+  </si>
+  <si>
+    <t>02_Indian_Shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03_Indian_Spear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04_Indian_Sword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxGrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01_Indian_Archer_Bullet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unitId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>walkSpeed</t>
+  </si>
+  <si>
+    <t>attackDmg</t>
+  </si>
+  <si>
+    <t>attackRange</t>
+  </si>
+  <si>
+    <t>attackSpeed</t>
+  </si>
+  <si>
+    <t>attackCount</t>
+  </si>
+  <si>
+    <t>attackInterval</t>
+  </si>
+  <si>
+    <t>projectileId</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -812,8 +953,19 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -826,8 +978,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -835,11 +993,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -877,6 +1068,28 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1190,24 +1403,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4" tint="0.79998168889431442"/>
+  </sheetPr>
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="13.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="5"/>
+    <col min="2" max="2" width="13.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="5"/>
+    <col min="8" max="8" width="41.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1826,44 +2042,51 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C1AC22-D01C-4C66-A16E-9CBAA96419F5}">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8" s="5" customFormat="1">
       <c r="A1" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>146</v>
+        <v>45</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>145</v>
+        <v>46</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>47</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="5" customFormat="1">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>147</v>
+      <c r="B2" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>10</v>
@@ -1872,10 +2095,16 @@
         <v>10</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="5" customFormat="1">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
@@ -1891,57 +2120,579 @@
       <c r="E3" s="9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="5" customFormat="1">
       <c r="A4" s="5">
-        <v>0</v>
-      </c>
-      <c r="B4" s="5">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4">
+        <v>6</v>
+      </c>
+      <c r="F4" s="4">
+        <v>6</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="5" customFormat="1">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="5">
         <v>5</v>
       </c>
-      <c r="D4" s="4">
-        <v>3</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5">
-        <v>80</v>
-      </c>
-      <c r="D5" s="4">
-        <v>2</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="G5" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="5" customFormat="1">
       <c r="A6" s="5">
-        <v>2</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5">
-        <v>50</v>
-      </c>
-      <c r="D6" s="4">
-        <v>5</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>132</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B6" s="4">
+        <v>7</v>
+      </c>
+      <c r="C6" s="6">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5">
+        <v>9</v>
+      </c>
+      <c r="E6" s="5">
+        <v>10</v>
+      </c>
+      <c r="F6" s="5">
+        <v>11</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="5" customFormat="1">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>25</v>
+      </c>
+      <c r="C7" s="4">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4">
+        <v>25</v>
+      </c>
+      <c r="E7" s="4">
+        <v>25</v>
+      </c>
+      <c r="F7" s="4">
+        <v>25</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="5" customFormat="1">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>20</v>
+      </c>
+      <c r="C8" s="6">
+        <v>21</v>
+      </c>
+      <c r="D8" s="5">
+        <v>22</v>
+      </c>
+      <c r="E8" s="5">
+        <v>23</v>
+      </c>
+      <c r="F8" s="5">
+        <v>24</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="5" customFormat="1">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>26</v>
+      </c>
+      <c r="C9" s="6">
+        <v>27</v>
+      </c>
+      <c r="D9" s="5">
+        <v>28</v>
+      </c>
+      <c r="E9" s="5">
+        <v>29</v>
+      </c>
+      <c r="F9" s="5">
+        <v>30</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="5" customFormat="1">
+      <c r="A10" s="5">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4">
+        <v>40</v>
+      </c>
+      <c r="C10" s="4">
+        <v>40</v>
+      </c>
+      <c r="D10" s="4">
+        <v>40</v>
+      </c>
+      <c r="E10" s="4">
+        <v>40</v>
+      </c>
+      <c r="F10" s="4">
+        <v>40</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="5">
+        <v>1000</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1000</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="5">
+        <v>1001</v>
+      </c>
+      <c r="B12" s="5">
+        <v>1001</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1001</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1001</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1001</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1001</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="5">
+        <v>1002</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1002</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1002</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1002</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1002</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="5">
+        <v>1003</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1003</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1003</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1003</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1003</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1003</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="5">
+        <v>1004</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1004</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1004</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1004</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1004</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1004</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="5">
+        <v>1005</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1005</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1005</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1005</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1005</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1005</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="5">
+        <v>1006</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1006</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1006</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1006</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1006</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1006</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="5">
+        <v>1007</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1007</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1007</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1007</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1007</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1007</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="5">
+        <v>1008</v>
+      </c>
+      <c r="B19" s="5">
+        <v>1008</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1008</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1008</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1008</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1008</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="5">
+        <v>1009</v>
+      </c>
+      <c r="B20" s="5">
+        <v>1009</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1009</v>
+      </c>
+      <c r="D20" s="5">
+        <v>1009</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1009</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1009</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="5">
+        <v>1010</v>
+      </c>
+      <c r="B21" s="5">
+        <v>1010</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1010</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1010</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1010</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1010</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="5">
+        <v>1011</v>
+      </c>
+      <c r="B22" s="5">
+        <v>1011</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1011</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1011</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1011</v>
+      </c>
+      <c r="F22" s="5">
+        <v>1011</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="5">
+        <v>1012</v>
+      </c>
+      <c r="B23" s="5">
+        <v>1012</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1012</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1012</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1012</v>
+      </c>
+      <c r="F23" s="5">
+        <v>1012</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H23" s="11"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="5">
+        <v>1013</v>
+      </c>
+      <c r="B24" s="5">
+        <v>1013</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1013</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1013</v>
+      </c>
+      <c r="E24" s="5">
+        <v>1013</v>
+      </c>
+      <c r="F24" s="5">
+        <v>1013</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" s="11"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="5">
+        <v>1014</v>
+      </c>
+      <c r="B25" s="5">
+        <v>1014</v>
+      </c>
+      <c r="C25" s="5">
+        <v>1014</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1014</v>
+      </c>
+      <c r="E25" s="5">
+        <v>1014</v>
+      </c>
+      <c r="F25" s="5">
+        <v>1014</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="5">
+        <v>1015</v>
+      </c>
+      <c r="B26" s="5">
+        <v>1015</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1015</v>
+      </c>
+      <c r="D26" s="5">
+        <v>1015</v>
+      </c>
+      <c r="E26" s="5">
+        <v>1015</v>
+      </c>
+      <c r="F26" s="5">
+        <v>1015</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H26" s="11"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="5">
+        <v>1016</v>
+      </c>
+      <c r="B27" s="5">
+        <v>1016</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1016</v>
+      </c>
+      <c r="D27" s="5">
+        <v>1016</v>
+      </c>
+      <c r="E27" s="5">
+        <v>1016</v>
+      </c>
+      <c r="F27" s="5">
+        <v>1016</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="H27" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1950,672 +2701,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25CF949-ED7A-4346-8B08-C259885D1663}">
-  <dimension ref="A1:H27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1">
-      <c r="A1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="5" customFormat="1">
-      <c r="A2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="5" customFormat="1">
-      <c r="A3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="5" customFormat="1">
-      <c r="A4" s="5">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4">
-        <v>6</v>
-      </c>
-      <c r="D4" s="4">
-        <v>6</v>
-      </c>
-      <c r="E4" s="4">
-        <v>6</v>
-      </c>
-      <c r="F4" s="4">
-        <v>6</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="5" customFormat="1">
-      <c r="A5" s="5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6">
-        <v>2</v>
-      </c>
-      <c r="D5" s="5">
-        <v>3</v>
-      </c>
-      <c r="E5" s="5">
-        <v>4</v>
-      </c>
-      <c r="F5" s="5">
-        <v>5</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="5" customFormat="1">
-      <c r="A6" s="5">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4">
-        <v>7</v>
-      </c>
-      <c r="C6" s="6">
-        <v>8</v>
-      </c>
-      <c r="D6" s="5">
-        <v>9</v>
-      </c>
-      <c r="E6" s="5">
-        <v>10</v>
-      </c>
-      <c r="F6" s="5">
-        <v>11</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="5" customFormat="1">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4">
-        <v>25</v>
-      </c>
-      <c r="C7" s="4">
-        <v>25</v>
-      </c>
-      <c r="D7" s="4">
-        <v>25</v>
-      </c>
-      <c r="E7" s="4">
-        <v>25</v>
-      </c>
-      <c r="F7" s="4">
-        <v>25</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="5" customFormat="1">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4">
-        <v>20</v>
-      </c>
-      <c r="C8" s="6">
-        <v>21</v>
-      </c>
-      <c r="D8" s="5">
-        <v>22</v>
-      </c>
-      <c r="E8" s="5">
-        <v>23</v>
-      </c>
-      <c r="F8" s="5">
-        <v>24</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="5" customFormat="1">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4">
-        <v>26</v>
-      </c>
-      <c r="C9" s="6">
-        <v>27</v>
-      </c>
-      <c r="D9" s="5">
-        <v>28</v>
-      </c>
-      <c r="E9" s="5">
-        <v>29</v>
-      </c>
-      <c r="F9" s="5">
-        <v>30</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="5" customFormat="1">
-      <c r="A10" s="5">
-        <v>10</v>
-      </c>
-      <c r="B10" s="4">
-        <v>40</v>
-      </c>
-      <c r="C10" s="4">
-        <v>40</v>
-      </c>
-      <c r="D10" s="4">
-        <v>40</v>
-      </c>
-      <c r="E10" s="4">
-        <v>40</v>
-      </c>
-      <c r="F10" s="4">
-        <v>40</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="5">
-        <v>1000</v>
-      </c>
-      <c r="B11" s="5">
-        <v>1000</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1000</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1000</v>
-      </c>
-      <c r="E11" s="5">
-        <v>1000</v>
-      </c>
-      <c r="F11" s="5">
-        <v>1000</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="5">
-        <v>1001</v>
-      </c>
-      <c r="B12" s="5">
-        <v>1001</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1001</v>
-      </c>
-      <c r="D12" s="5">
-        <v>1001</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1001</v>
-      </c>
-      <c r="F12" s="5">
-        <v>1001</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="5">
-        <v>1002</v>
-      </c>
-      <c r="B13" s="5">
-        <v>1002</v>
-      </c>
-      <c r="C13" s="5">
-        <v>1002</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1002</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1002</v>
-      </c>
-      <c r="F13" s="5">
-        <v>1002</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="H13" s="11"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="5">
-        <v>1003</v>
-      </c>
-      <c r="B14" s="5">
-        <v>1003</v>
-      </c>
-      <c r="C14" s="5">
-        <v>1003</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1003</v>
-      </c>
-      <c r="E14" s="5">
-        <v>1003</v>
-      </c>
-      <c r="F14" s="5">
-        <v>1003</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="H14" s="11"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="5">
-        <v>1004</v>
-      </c>
-      <c r="B15" s="5">
-        <v>1004</v>
-      </c>
-      <c r="C15" s="5">
-        <v>1004</v>
-      </c>
-      <c r="D15" s="5">
-        <v>1004</v>
-      </c>
-      <c r="E15" s="5">
-        <v>1004</v>
-      </c>
-      <c r="F15" s="5">
-        <v>1004</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="H15" s="11"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="5">
-        <v>1005</v>
-      </c>
-      <c r="B16" s="5">
-        <v>1005</v>
-      </c>
-      <c r="C16" s="5">
-        <v>1005</v>
-      </c>
-      <c r="D16" s="5">
-        <v>1005</v>
-      </c>
-      <c r="E16" s="5">
-        <v>1005</v>
-      </c>
-      <c r="F16" s="5">
-        <v>1005</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="H16" s="11"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="5">
-        <v>1006</v>
-      </c>
-      <c r="B17" s="5">
-        <v>1006</v>
-      </c>
-      <c r="C17" s="5">
-        <v>1006</v>
-      </c>
-      <c r="D17" s="5">
-        <v>1006</v>
-      </c>
-      <c r="E17" s="5">
-        <v>1006</v>
-      </c>
-      <c r="F17" s="5">
-        <v>1006</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="5">
-        <v>1007</v>
-      </c>
-      <c r="B18" s="5">
-        <v>1007</v>
-      </c>
-      <c r="C18" s="5">
-        <v>1007</v>
-      </c>
-      <c r="D18" s="5">
-        <v>1007</v>
-      </c>
-      <c r="E18" s="5">
-        <v>1007</v>
-      </c>
-      <c r="F18" s="5">
-        <v>1007</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="H18" s="11"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="5">
-        <v>1008</v>
-      </c>
-      <c r="B19" s="5">
-        <v>1008</v>
-      </c>
-      <c r="C19" s="5">
-        <v>1008</v>
-      </c>
-      <c r="D19" s="5">
-        <v>1008</v>
-      </c>
-      <c r="E19" s="5">
-        <v>1008</v>
-      </c>
-      <c r="F19" s="5">
-        <v>1008</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="H19" s="11"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="5">
-        <v>1009</v>
-      </c>
-      <c r="B20" s="5">
-        <v>1009</v>
-      </c>
-      <c r="C20" s="5">
-        <v>1009</v>
-      </c>
-      <c r="D20" s="5">
-        <v>1009</v>
-      </c>
-      <c r="E20" s="5">
-        <v>1009</v>
-      </c>
-      <c r="F20" s="5">
-        <v>1009</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="H20" s="11"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="5">
-        <v>1010</v>
-      </c>
-      <c r="B21" s="5">
-        <v>1010</v>
-      </c>
-      <c r="C21" s="5">
-        <v>1010</v>
-      </c>
-      <c r="D21" s="5">
-        <v>1010</v>
-      </c>
-      <c r="E21" s="5">
-        <v>1010</v>
-      </c>
-      <c r="F21" s="5">
-        <v>1010</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="H21" s="11"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="5">
-        <v>1011</v>
-      </c>
-      <c r="B22" s="5">
-        <v>1011</v>
-      </c>
-      <c r="C22" s="5">
-        <v>1011</v>
-      </c>
-      <c r="D22" s="5">
-        <v>1011</v>
-      </c>
-      <c r="E22" s="5">
-        <v>1011</v>
-      </c>
-      <c r="F22" s="5">
-        <v>1011</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="H22" s="11"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="5">
-        <v>1012</v>
-      </c>
-      <c r="B23" s="5">
-        <v>1012</v>
-      </c>
-      <c r="C23" s="5">
-        <v>1012</v>
-      </c>
-      <c r="D23" s="5">
-        <v>1012</v>
-      </c>
-      <c r="E23" s="5">
-        <v>1012</v>
-      </c>
-      <c r="F23" s="5">
-        <v>1012</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H23" s="11"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="5">
-        <v>1013</v>
-      </c>
-      <c r="B24" s="5">
-        <v>1013</v>
-      </c>
-      <c r="C24" s="5">
-        <v>1013</v>
-      </c>
-      <c r="D24" s="5">
-        <v>1013</v>
-      </c>
-      <c r="E24" s="5">
-        <v>1013</v>
-      </c>
-      <c r="F24" s="5">
-        <v>1013</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="H24" s="11"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="5">
-        <v>1014</v>
-      </c>
-      <c r="B25" s="5">
-        <v>1014</v>
-      </c>
-      <c r="C25" s="5">
-        <v>1014</v>
-      </c>
-      <c r="D25" s="5">
-        <v>1014</v>
-      </c>
-      <c r="E25" s="5">
-        <v>1014</v>
-      </c>
-      <c r="F25" s="5">
-        <v>1014</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="H25" s="11"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="5">
-        <v>1015</v>
-      </c>
-      <c r="B26" s="5">
-        <v>1015</v>
-      </c>
-      <c r="C26" s="5">
-        <v>1015</v>
-      </c>
-      <c r="D26" s="5">
-        <v>1015</v>
-      </c>
-      <c r="E26" s="5">
-        <v>1015</v>
-      </c>
-      <c r="F26" s="5">
-        <v>1015</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="H26" s="11"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="5">
-        <v>1016</v>
-      </c>
-      <c r="B27" s="5">
-        <v>1016</v>
-      </c>
-      <c r="C27" s="5">
-        <v>1016</v>
-      </c>
-      <c r="D27" s="5">
-        <v>1016</v>
-      </c>
-      <c r="E27" s="5">
-        <v>1016</v>
-      </c>
-      <c r="F27" s="5">
-        <v>1016</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="H27" s="11"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D22FD1-6834-4229-9C4F-B7356CE3E15A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4" tint="0.79998168889431442"/>
+  </sheetPr>
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="6" max="6" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3615,19 +3713,211 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="5">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>80</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>50</v>
+      </c>
+      <c r="D6" s="4">
+        <v>5</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="5">
+        <v>1001</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>50</v>
+      </c>
+      <c r="D7" s="4">
+        <v>5</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5">
+        <v>1002</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4">
+        <v>5</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5">
+        <v>1003</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>5</v>
+      </c>
+      <c r="D9" s="4">
+        <v>5</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="5">
+        <v>1004</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>5</v>
+      </c>
+      <c r="D10" s="4">
+        <v>5</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3672,7 +3962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5">
+    <row r="4" spans="1:4" ht="17.399999999999999">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -3686,7 +3976,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5">
+    <row r="5" spans="1:4" ht="17.399999999999999">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -3700,7 +3990,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5">
+    <row r="6" spans="1:4" ht="17.399999999999999">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -3722,19 +4012,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" customWidth="1"/>
+    <col min="5" max="5" width="25.109375" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3841,7 +4131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="15">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -3855,7 +4145,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="15">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -3869,7 +4159,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="15">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -3883,7 +4173,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="15">
       <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
@@ -3897,7 +4187,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="15">
       <c r="A10" s="8" t="s">
         <v>28</v>
       </c>
@@ -3925,7 +4215,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="15">
       <c r="A12" s="2" t="s">
         <v>147</v>
       </c>
@@ -3944,4 +4234,667 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="8" width="15.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="15" customFormat="1">
+      <c r="A1" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="5">
+        <v>1001</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="5">
+        <v>1002</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="5">
+        <v>1003</v>
+      </c>
+      <c r="B6" s="11">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5">
+        <v>2</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="5">
+        <v>1004</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>10</v>
+      </c>
+      <c r="D7" s="5">
+        <v>4</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:K24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="8" width="15.5546875" customWidth="1"/>
+    <col min="9" max="9" width="18.109375" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="15" customFormat="1">
+      <c r="A1" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="5">
+        <v>1001</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>15</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5">
+        <v>5</v>
+      </c>
+      <c r="F4" s="5">
+        <v>5</v>
+      </c>
+      <c r="G4" s="5">
+        <v>2</v>
+      </c>
+      <c r="H4" s="5">
+        <v>2</v>
+      </c>
+      <c r="I4" s="5">
+        <v>100</v>
+      </c>
+      <c r="J4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="5">
+        <v>1002</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5">
+        <v>5</v>
+      </c>
+      <c r="F5" s="5">
+        <v>5</v>
+      </c>
+      <c r="G5" s="5">
+        <v>2</v>
+      </c>
+      <c r="H5" s="11">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="5">
+        <v>1003</v>
+      </c>
+      <c r="B6" s="11">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3</v>
+      </c>
+      <c r="E6" s="5">
+        <v>5</v>
+      </c>
+      <c r="F6" s="5">
+        <v>5</v>
+      </c>
+      <c r="G6" s="5">
+        <v>2</v>
+      </c>
+      <c r="H6" s="11">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="5">
+        <v>1004</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>15</v>
+      </c>
+      <c r="D7" s="5">
+        <v>3</v>
+      </c>
+      <c r="E7" s="5">
+        <v>5</v>
+      </c>
+      <c r="F7" s="5">
+        <v>5</v>
+      </c>
+      <c r="G7" s="5">
+        <v>2</v>
+      </c>
+      <c r="H7" s="11">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="5">
+        <v>1001</v>
+      </c>
+      <c r="B8" s="5">
+        <v>2</v>
+      </c>
+      <c r="C8" s="5">
+        <v>15</v>
+      </c>
+      <c r="D8" s="5">
+        <v>3</v>
+      </c>
+      <c r="E8" s="5">
+        <v>5</v>
+      </c>
+      <c r="F8" s="5">
+        <v>5</v>
+      </c>
+      <c r="G8" s="5">
+        <v>2</v>
+      </c>
+      <c r="H8" s="5">
+        <v>2</v>
+      </c>
+      <c r="I8" s="5">
+        <v>100</v>
+      </c>
+      <c r="J8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="5">
+        <v>1002</v>
+      </c>
+      <c r="B9" s="5">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5">
+        <v>15</v>
+      </c>
+      <c r="D9" s="5">
+        <v>3</v>
+      </c>
+      <c r="E9" s="5">
+        <v>5</v>
+      </c>
+      <c r="F9" s="5">
+        <v>5</v>
+      </c>
+      <c r="G9" s="5">
+        <v>2</v>
+      </c>
+      <c r="H9" s="11">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="5">
+        <v>1003</v>
+      </c>
+      <c r="B10" s="11">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5">
+        <v>15</v>
+      </c>
+      <c r="D10" s="5">
+        <v>3</v>
+      </c>
+      <c r="E10" s="5">
+        <v>5</v>
+      </c>
+      <c r="F10" s="5">
+        <v>5</v>
+      </c>
+      <c r="G10" s="5">
+        <v>2</v>
+      </c>
+      <c r="H10" s="11">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="5">
+        <v>1004</v>
+      </c>
+      <c r="B11" s="5">
+        <v>2</v>
+      </c>
+      <c r="C11" s="5">
+        <v>15</v>
+      </c>
+      <c r="D11" s="5">
+        <v>3</v>
+      </c>
+      <c r="E11" s="5">
+        <v>5</v>
+      </c>
+      <c r="F11" s="5">
+        <v>5</v>
+      </c>
+      <c r="G11" s="5">
+        <v>2</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" thickBot="1"/>
+    <row r="16" spans="1:10" ht="15" thickBot="1">
+      <c r="B16" s="21"/>
+    </row>
+    <row r="17" spans="2:11" ht="15" thickBot="1">
+      <c r="B17" s="22"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+    </row>
+    <row r="18" spans="2:11" ht="15" thickBot="1">
+      <c r="B18" s="22"/>
+    </row>
+    <row r="19" spans="2:11" ht="15" thickBot="1">
+      <c r="B19" s="22"/>
+    </row>
+    <row r="20" spans="2:11" ht="15" thickBot="1">
+      <c r="B20" s="22"/>
+    </row>
+    <row r="21" spans="2:11" ht="15" thickBot="1">
+      <c r="B21" s="22"/>
+    </row>
+    <row r="22" spans="2:11" ht="15" thickBot="1">
+      <c r="B22" s="22"/>
+    </row>
+    <row r="23" spans="2:11" ht="15" thickBot="1">
+      <c r="B23" s="22"/>
+    </row>
+    <row r="24" spans="2:11" ht="15" thickBot="1">
+      <c r="B24" s="22"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="23.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="5">
+        <v>1001</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -1,43 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevD\TowerDefense\ExcelToCSV\SrcFolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이지협\Desktop\df\ExcelToCSV\SrcFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BD3CB4-2F38-4F14-B5A9-AA8B96D15283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F937B7AA-29DE-4304-83F1-573AF33F8DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="1275" windowWidth="24225" windowHeight="13230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="48000" yWindow="825" windowWidth="28800" windowHeight="15435" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ObjTable" sheetId="19" r:id="rId1"/>
-    <sheet name="SpriteSheet" sheetId="20" r:id="rId2"/>
-    <sheet name="SpriteCollection" sheetId="21" r:id="rId3"/>
-    <sheet name="ConfigTable" sheetId="18" r:id="rId4"/>
-    <sheet name="EnumTable" sheetId="17" r:id="rId5"/>
+    <sheet name="SpriteCollection" sheetId="21" r:id="rId2"/>
+    <sheet name="SpriteSheet" sheetId="20" r:id="rId3"/>
+    <sheet name="Character" sheetId="22" r:id="rId4"/>
+    <sheet name="ConfigTable" sheetId="18" r:id="rId5"/>
+    <sheet name="EnumTable" sheetId="17" r:id="rId6"/>
+    <sheet name="Unitinfo" sheetId="23" r:id="rId7"/>
+    <sheet name="UnitGradeInfo" sheetId="25" r:id="rId8"/>
+    <sheet name="ProjectileInfo" sheetId="24" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="182">
   <si>
     <t>type</t>
   </si>
@@ -71,15 +62,6 @@
     <t>is_string</t>
   </si>
   <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>없음</t>
-  </si>
-  <si>
-    <t>item_type</t>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -117,34 +99,6 @@
   </si>
   <si>
     <t>testName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Box</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Expand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coral</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Energy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -359,10 +313,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>swordManIdle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Images/Character/SwordMan/idle/BR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -428,13 +378,531 @@
   <si>
     <t>swordMan_attack</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Idle_CollectionID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Walk_CollectionID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack_CollectionID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Destroyed_CollectionID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SwordMan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>walk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Character/SwordMan/walk/B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Character/SwordMan/walk/BR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Character/SwordMan/walk/R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Character/SwordMan/walk/TR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Character/SwordMan/walk/T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swordMan_walk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thumbnailPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items_thumb/barrack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items_thumb/swordman_thumb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items_thumb/tree1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>camp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>canon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tree1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items_thumb/boat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>builder_hut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items_thumb/camp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elixir_collector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items_thumb/elixir_collector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elixir_storage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items_thumb/elixir_storage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items_thumb/gems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold_mine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items_thumb/gold_mine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold_storage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items_thumb/gold_storage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items_thumb/tower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>town_center</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items_thumb/town_center</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tree2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items_thumb/tree2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items_thumb/wall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wind_mill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items_thumb/wind_mill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items_thumb/builder_hut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items_thumb/cannon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Buildings/boat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Buildings/builder_hut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Buildings/camp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Buildings/elixir_collector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Buildings/elixir_storage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Buildings/gems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Buildings/gold_storage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Buildings/tower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Buildings/town_center</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Buildings/tree1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Buildings/tree2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Buildings/wall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Buildings/wind_mill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cannon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Character/Archer/attack/B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Character/Archer/attack/BR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Character/Archer/attack/R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Character/Archer/attack/TR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Character/Archer/attack/T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Character/Archer/idle/BR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Character/Archer/walk/B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Character/Archer/walk/BR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Character/Archer/walk/R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Character/Archer/walk/TR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Character/Archer/walk/T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>walk</t>
+  </si>
+  <si>
+    <t>archer_idle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>archer_attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>archer_walk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items_thumb/archer_thumb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Buildings/cannon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goldmine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Buildings/goldmine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharacterA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>characterA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Character/A/PLAYER_RUN_NOHAND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Building</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빌딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object_Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tanker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>archer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탱커</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>characterType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Items_thumb/swordman_thumb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>characterType</t>
+  </si>
+  <si>
+    <t>checkRange</t>
+  </si>
+  <si>
+    <t>aggroOrder</t>
+  </si>
+  <si>
+    <t>defaultGrade</t>
+  </si>
+  <si>
+    <t>thumbnailPath</t>
+  </si>
+  <si>
+    <t>prefabName</t>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>nt</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>nt</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>nt</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>nt</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01_Indian_Archer</t>
+  </si>
+  <si>
+    <t>02_Indian_Shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03_Indian_Spear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04_Indian_Sword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxGrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01_Indian_Archer_Bullet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unitId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>walkSpeed</t>
+  </si>
+  <si>
+    <t>attackDmg</t>
+  </si>
+  <si>
+    <t>attackRange</t>
+  </si>
+  <si>
+    <t>attackSpeed</t>
+  </si>
+  <si>
+    <t>attackCount</t>
+  </si>
+  <si>
+    <t>attackInterval</t>
+  </si>
+  <si>
+    <t>projectileId</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -462,8 +930,30 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="돋움"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -476,8 +966,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -485,11 +981,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -509,9 +1038,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -519,6 +1045,38 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -833,159 +1391,636 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="5"/>
-    <col min="3" max="3" width="15" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="9.140625" style="5"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="13.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="5"/>
+    <col min="8" max="8" width="41.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="10" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="D1" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="F1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="5">
         <v>1</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
       </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="D4" s="5">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>3</v>
+      </c>
+      <c r="F4" s="5">
         <v>1</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>62</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="4">
-        <v>2</v>
+      <c r="B5" s="5">
+        <v>1</v>
       </c>
       <c r="C5" s="4">
-        <v>2</v>
-      </c>
-      <c r="D5" s="4">
-        <v>2</v>
-      </c>
-      <c r="E5" s="4">
-        <v>2</v>
-      </c>
-      <c r="F5" s="4">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="D5" s="5">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5">
+        <v>8</v>
+      </c>
+      <c r="F5" s="5">
+        <v>6</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>62</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="4">
-        <v>3</v>
-      </c>
-      <c r="C6" s="6">
-        <v>4</v>
-      </c>
-      <c r="D6" s="5">
-        <v>5</v>
-      </c>
-      <c r="E6" s="5">
-        <v>6</v>
-      </c>
-      <c r="F6" s="5">
-        <v>7</v>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4">
+        <v>10</v>
+      </c>
+      <c r="F6" s="4">
+        <v>10</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>51</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="5">
+        <v>1001</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="5">
+        <v>1002</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1001</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1001</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1001</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1001</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="5">
+        <v>1003</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1002</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1002</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1002</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="5">
+        <v>1004</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1003</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1003</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1003</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1003</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="5">
+        <v>1005</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1004</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1004</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1004</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1004</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="5">
+        <v>1006</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1005</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1005</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1005</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1005</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="5">
+        <v>1007</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1006</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1006</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1006</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1006</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="5">
+        <v>1008</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1007</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1007</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1007</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1007</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="5">
+        <v>1009</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1008</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1008</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1008</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1008</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="5">
+        <v>1010</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1009</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1009</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1009</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1009</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="5">
+        <v>1011</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1010</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1010</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1010</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1010</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="5">
+        <v>1012</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1011</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1011</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1011</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1011</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="5">
+        <v>1013</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1012</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1012</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1012</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1012</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="5">
+        <v>1014</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1013</v>
+      </c>
+      <c r="D20" s="5">
+        <v>1013</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1013</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1013</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="5">
+        <v>1015</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1014</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1014</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1014</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1014</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="5">
+        <v>1016</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1015</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1015</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1015</v>
+      </c>
+      <c r="F22" s="5">
+        <v>1015</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="5">
+        <v>1017</v>
+      </c>
+      <c r="B23" s="5">
+        <v>0</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1016</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1016</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1016</v>
+      </c>
+      <c r="F23" s="5">
+        <v>1016</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="C24" s="4"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="C25" s="4"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -995,285 +2030,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D22FD1-6834-4229-9C4F-B7356CE3E15A}">
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="6" max="6" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="5">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="5">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4">
-        <v>4</v>
-      </c>
-      <c r="C6" s="5">
-        <v>2</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5">
-        <v>8</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="5">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4">
-        <v>4</v>
-      </c>
-      <c r="C7" s="5">
-        <v>2</v>
-      </c>
-      <c r="D7" s="5">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5">
-        <v>8</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="5">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4">
-        <v>4</v>
-      </c>
-      <c r="C8" s="5">
-        <v>2</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5">
-        <v>8</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="5">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4">
-        <v>4</v>
-      </c>
-      <c r="C9" s="5">
-        <v>2</v>
-      </c>
-      <c r="D9" s="5">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5">
-        <v>8</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="5">
-        <v>7</v>
-      </c>
-      <c r="B10" s="4">
-        <v>4</v>
-      </c>
-      <c r="C10" s="5">
-        <v>2</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5">
-        <v>8</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="5">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4">
-        <v>4</v>
-      </c>
-      <c r="C11" s="5">
-        <v>2</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5">
-        <v>8</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25CF949-ED7A-4346-8B08-C259885D1663}">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1282,166 +2046,641 @@
     <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1">
-      <c r="A1" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="10" t="s">
+    <row r="1" spans="1:8" s="5" customFormat="1">
+      <c r="A1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="5" customFormat="1">
+      <c r="A2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="5" customFormat="1">
+      <c r="A3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="5" customFormat="1">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4">
+        <v>6</v>
+      </c>
+      <c r="F4" s="4">
+        <v>6</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="10" t="s">
+    </row>
+    <row r="5" spans="1:8" s="5" customFormat="1">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="5">
+        <v>5</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="5" customFormat="1">
-      <c r="A2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="5" customFormat="1">
-      <c r="A3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="5" customFormat="1">
-      <c r="A4" s="5">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="5" customFormat="1">
-      <c r="A5" s="5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4">
-        <v>2</v>
-      </c>
-      <c r="D5" s="4">
-        <v>2</v>
-      </c>
-      <c r="E5" s="4">
-        <v>2</v>
-      </c>
-      <c r="F5" s="4">
-        <v>2</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="5" customFormat="1">
+    </row>
+    <row r="6" spans="1:8" s="5" customFormat="1">
       <c r="A6" s="5">
         <v>3</v>
       </c>
       <c r="B6" s="4">
+        <v>7</v>
+      </c>
+      <c r="C6" s="6">
         <v>8</v>
       </c>
-      <c r="C6" s="4">
+      <c r="D6" s="5">
+        <v>9</v>
+      </c>
+      <c r="E6" s="5">
+        <v>10</v>
+      </c>
+      <c r="F6" s="5">
+        <v>11</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="5" customFormat="1">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>25</v>
+      </c>
+      <c r="C7" s="4">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4">
+        <v>25</v>
+      </c>
+      <c r="E7" s="4">
+        <v>25</v>
+      </c>
+      <c r="F7" s="4">
+        <v>25</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="5" customFormat="1">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>20</v>
+      </c>
+      <c r="C8" s="6">
+        <v>21</v>
+      </c>
+      <c r="D8" s="5">
+        <v>22</v>
+      </c>
+      <c r="E8" s="5">
+        <v>23</v>
+      </c>
+      <c r="F8" s="5">
+        <v>24</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="5" customFormat="1">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="D6" s="4">
-        <v>8</v>
-      </c>
-      <c r="E6" s="4">
-        <v>8</v>
-      </c>
-      <c r="F6" s="4">
-        <v>8</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="5">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4">
-        <v>3</v>
-      </c>
-      <c r="C7" s="6">
-        <v>4</v>
-      </c>
-      <c r="D7" s="5">
-        <v>5</v>
-      </c>
-      <c r="E7" s="5">
-        <v>6</v>
-      </c>
-      <c r="F7" s="5">
-        <v>7</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>68</v>
-      </c>
+      <c r="B9" s="4">
+        <v>26</v>
+      </c>
+      <c r="C9" s="6">
+        <v>27</v>
+      </c>
+      <c r="D9" s="5">
+        <v>28</v>
+      </c>
+      <c r="E9" s="5">
+        <v>29</v>
+      </c>
+      <c r="F9" s="5">
+        <v>30</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="5" customFormat="1">
+      <c r="A10" s="5">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4">
+        <v>40</v>
+      </c>
+      <c r="C10" s="4">
+        <v>40</v>
+      </c>
+      <c r="D10" s="4">
+        <v>40</v>
+      </c>
+      <c r="E10" s="4">
+        <v>40</v>
+      </c>
+      <c r="F10" s="4">
+        <v>40</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="5">
+        <v>1000</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1000</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="5">
+        <v>1001</v>
+      </c>
+      <c r="B12" s="5">
+        <v>1001</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1001</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1001</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1001</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1001</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="5">
+        <v>1002</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1002</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1002</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1002</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1002</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="5">
+        <v>1003</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1003</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1003</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1003</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1003</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1003</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="5">
+        <v>1004</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1004</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1004</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1004</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1004</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1004</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="5">
+        <v>1005</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1005</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1005</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1005</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1005</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1005</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="5">
+        <v>1006</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1006</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1006</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1006</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1006</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1006</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="5">
+        <v>1007</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1007</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1007</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1007</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1007</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1007</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="5">
+        <v>1008</v>
+      </c>
+      <c r="B19" s="5">
+        <v>1008</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1008</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1008</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1008</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1008</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="5">
+        <v>1009</v>
+      </c>
+      <c r="B20" s="5">
+        <v>1009</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1009</v>
+      </c>
+      <c r="D20" s="5">
+        <v>1009</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1009</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1009</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="5">
+        <v>1010</v>
+      </c>
+      <c r="B21" s="5">
+        <v>1010</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1010</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1010</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1010</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1010</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="5">
+        <v>1011</v>
+      </c>
+      <c r="B22" s="5">
+        <v>1011</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1011</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1011</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1011</v>
+      </c>
+      <c r="F22" s="5">
+        <v>1011</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="5">
+        <v>1012</v>
+      </c>
+      <c r="B23" s="5">
+        <v>1012</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1012</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1012</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1012</v>
+      </c>
+      <c r="F23" s="5">
+        <v>1012</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H23" s="11"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="5">
+        <v>1013</v>
+      </c>
+      <c r="B24" s="5">
+        <v>1013</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1013</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1013</v>
+      </c>
+      <c r="E24" s="5">
+        <v>1013</v>
+      </c>
+      <c r="F24" s="5">
+        <v>1013</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" s="11"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="5">
+        <v>1014</v>
+      </c>
+      <c r="B25" s="5">
+        <v>1014</v>
+      </c>
+      <c r="C25" s="5">
+        <v>1014</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1014</v>
+      </c>
+      <c r="E25" s="5">
+        <v>1014</v>
+      </c>
+      <c r="F25" s="5">
+        <v>1014</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="5">
+        <v>1015</v>
+      </c>
+      <c r="B26" s="5">
+        <v>1015</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1015</v>
+      </c>
+      <c r="D26" s="5">
+        <v>1015</v>
+      </c>
+      <c r="E26" s="5">
+        <v>1015</v>
+      </c>
+      <c r="F26" s="5">
+        <v>1015</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H26" s="11"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="5">
+        <v>1016</v>
+      </c>
+      <c r="B27" s="5">
+        <v>1016</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1016</v>
+      </c>
+      <c r="D27" s="5">
+        <v>1016</v>
+      </c>
+      <c r="E27" s="5">
+        <v>1016</v>
+      </c>
+      <c r="F27" s="5">
+        <v>1016</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="H27" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1449,8 +2688,1213 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:G43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="6" max="6" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5">
+        <v>32</v>
+      </c>
+      <c r="E4" s="11">
+        <v>9</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5">
+        <v>32</v>
+      </c>
+      <c r="E5" s="5">
+        <v>9</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5">
+        <v>3</v>
+      </c>
+      <c r="D6" s="5">
+        <v>32</v>
+      </c>
+      <c r="E6" s="5">
+        <v>9</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5">
+        <v>3</v>
+      </c>
+      <c r="D7" s="5">
+        <v>32</v>
+      </c>
+      <c r="E7" s="5">
+        <v>9</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="5">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5">
+        <v>3</v>
+      </c>
+      <c r="D8" s="5">
+        <v>32</v>
+      </c>
+      <c r="E8" s="5">
+        <v>9</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="5">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4">
+        <v>4</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5">
+        <v>18</v>
+      </c>
+      <c r="E9" s="5">
+        <v>8</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="5">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4">
+        <v>4</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2</v>
+      </c>
+      <c r="D10" s="5">
+        <v>25</v>
+      </c>
+      <c r="E10" s="5">
+        <v>8</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="5">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4">
+        <v>4</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5">
+        <v>25</v>
+      </c>
+      <c r="E11" s="5">
+        <v>8</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="5">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4">
+        <v>4</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2</v>
+      </c>
+      <c r="D12" s="5">
+        <v>25</v>
+      </c>
+      <c r="E12" s="5">
+        <v>8</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="5">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4">
+        <v>4</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2</v>
+      </c>
+      <c r="D13" s="5">
+        <v>25</v>
+      </c>
+      <c r="E13" s="5">
+        <v>8</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="5">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4">
+        <v>4</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2</v>
+      </c>
+      <c r="D14" s="5">
+        <v>25</v>
+      </c>
+      <c r="E14" s="5">
+        <v>8</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="5">
+        <v>20</v>
+      </c>
+      <c r="B15" s="4">
+        <v>4</v>
+      </c>
+      <c r="C15" s="5">
+        <v>3</v>
+      </c>
+      <c r="D15" s="5">
+        <v>17</v>
+      </c>
+      <c r="E15" s="11">
+        <v>12</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="5">
+        <v>21</v>
+      </c>
+      <c r="B16" s="4">
+        <v>4</v>
+      </c>
+      <c r="C16" s="5">
+        <v>3</v>
+      </c>
+      <c r="D16" s="5">
+        <v>17</v>
+      </c>
+      <c r="E16" s="5">
+        <v>12</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="5">
+        <v>22</v>
+      </c>
+      <c r="B17" s="4">
+        <v>4</v>
+      </c>
+      <c r="C17" s="5">
+        <v>3</v>
+      </c>
+      <c r="D17" s="5">
+        <v>17</v>
+      </c>
+      <c r="E17" s="5">
+        <v>12</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="5">
+        <v>23</v>
+      </c>
+      <c r="B18" s="4">
+        <v>4</v>
+      </c>
+      <c r="C18" s="5">
+        <v>3</v>
+      </c>
+      <c r="D18" s="5">
+        <v>17</v>
+      </c>
+      <c r="E18" s="5">
+        <v>12</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="5">
+        <v>24</v>
+      </c>
+      <c r="B19" s="4">
+        <v>4</v>
+      </c>
+      <c r="C19" s="5">
+        <v>3</v>
+      </c>
+      <c r="D19" s="5">
+        <v>17</v>
+      </c>
+      <c r="E19" s="5">
+        <v>12</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="5">
+        <v>25</v>
+      </c>
+      <c r="B20" s="4">
+        <v>4</v>
+      </c>
+      <c r="C20" s="5">
+        <v>3</v>
+      </c>
+      <c r="D20" s="5">
+        <v>16</v>
+      </c>
+      <c r="E20" s="5">
+        <v>12</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="5">
+        <v>26</v>
+      </c>
+      <c r="B21" s="4">
+        <v>4</v>
+      </c>
+      <c r="C21" s="5">
+        <v>3</v>
+      </c>
+      <c r="D21" s="5">
+        <v>17</v>
+      </c>
+      <c r="E21" s="11">
+        <v>12</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="5">
+        <v>27</v>
+      </c>
+      <c r="B22" s="4">
+        <v>4</v>
+      </c>
+      <c r="C22" s="5">
+        <v>3</v>
+      </c>
+      <c r="D22" s="5">
+        <v>17</v>
+      </c>
+      <c r="E22" s="5">
+        <v>12</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="5">
+        <v>28</v>
+      </c>
+      <c r="B23" s="4">
+        <v>4</v>
+      </c>
+      <c r="C23" s="5">
+        <v>3</v>
+      </c>
+      <c r="D23" s="5">
+        <v>17</v>
+      </c>
+      <c r="E23" s="5">
+        <v>12</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="5">
+        <v>29</v>
+      </c>
+      <c r="B24" s="4">
+        <v>4</v>
+      </c>
+      <c r="C24" s="5">
+        <v>3</v>
+      </c>
+      <c r="D24" s="5">
+        <v>17</v>
+      </c>
+      <c r="E24" s="5">
+        <v>12</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="5">
+        <v>30</v>
+      </c>
+      <c r="B25" s="4">
+        <v>4</v>
+      </c>
+      <c r="C25" s="5">
+        <v>3</v>
+      </c>
+      <c r="D25" s="5">
+        <v>17</v>
+      </c>
+      <c r="E25" s="5">
+        <v>12</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="5">
+        <v>40</v>
+      </c>
+      <c r="B26" s="4">
+        <v>4</v>
+      </c>
+      <c r="C26" s="5">
+        <v>2</v>
+      </c>
+      <c r="D26" s="5">
+        <v>30</v>
+      </c>
+      <c r="E26" s="5">
+        <v>8</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="5">
+        <v>1000</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1</v>
+      </c>
+      <c r="D27" s="5">
+        <v>20</v>
+      </c>
+      <c r="E27" s="5">
+        <v>1</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="5">
+        <v>1001</v>
+      </c>
+      <c r="B28" s="4">
+        <v>1</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5">
+        <v>20</v>
+      </c>
+      <c r="E28" s="5">
+        <v>1</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="5">
+        <v>1002</v>
+      </c>
+      <c r="B29" s="4">
+        <v>1</v>
+      </c>
+      <c r="C29" s="4">
+        <v>1</v>
+      </c>
+      <c r="D29" s="5">
+        <v>20</v>
+      </c>
+      <c r="E29" s="4">
+        <v>1</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="5">
+        <v>1003</v>
+      </c>
+      <c r="B30" s="4">
+        <v>1</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1</v>
+      </c>
+      <c r="D30" s="5">
+        <v>20</v>
+      </c>
+      <c r="E30" s="4">
+        <v>1</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="5">
+        <v>1004</v>
+      </c>
+      <c r="B31" s="4">
+        <v>1</v>
+      </c>
+      <c r="C31" s="4">
+        <v>1</v>
+      </c>
+      <c r="D31" s="5">
+        <v>20</v>
+      </c>
+      <c r="E31" s="4">
+        <v>1</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="5">
+        <v>1005</v>
+      </c>
+      <c r="B32" s="4">
+        <v>1</v>
+      </c>
+      <c r="C32" s="4">
+        <v>1</v>
+      </c>
+      <c r="D32" s="5">
+        <v>20</v>
+      </c>
+      <c r="E32" s="4">
+        <v>1</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="5">
+        <v>1006</v>
+      </c>
+      <c r="B33" s="4">
+        <v>1</v>
+      </c>
+      <c r="C33" s="4">
+        <v>1</v>
+      </c>
+      <c r="D33" s="5">
+        <v>20</v>
+      </c>
+      <c r="E33" s="4">
+        <v>1</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="5">
+        <v>1007</v>
+      </c>
+      <c r="B34" s="4">
+        <v>1</v>
+      </c>
+      <c r="C34" s="4">
+        <v>1</v>
+      </c>
+      <c r="D34" s="5">
+        <v>20</v>
+      </c>
+      <c r="E34" s="4">
+        <v>1</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="5">
+        <v>1008</v>
+      </c>
+      <c r="B35" s="4">
+        <v>1</v>
+      </c>
+      <c r="C35" s="4">
+        <v>1</v>
+      </c>
+      <c r="D35" s="5">
+        <v>20</v>
+      </c>
+      <c r="E35" s="4">
+        <v>1</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="5">
+        <v>1009</v>
+      </c>
+      <c r="B36" s="4">
+        <v>1</v>
+      </c>
+      <c r="C36" s="4">
+        <v>1</v>
+      </c>
+      <c r="D36" s="5">
+        <v>20</v>
+      </c>
+      <c r="E36" s="4">
+        <v>1</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="5">
+        <v>1010</v>
+      </c>
+      <c r="B37" s="4">
+        <v>1</v>
+      </c>
+      <c r="C37" s="4">
+        <v>1</v>
+      </c>
+      <c r="D37" s="5">
+        <v>20</v>
+      </c>
+      <c r="E37" s="4">
+        <v>1</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="5">
+        <v>1011</v>
+      </c>
+      <c r="B38" s="4">
+        <v>1</v>
+      </c>
+      <c r="C38" s="4">
+        <v>1</v>
+      </c>
+      <c r="D38" s="5">
+        <v>20</v>
+      </c>
+      <c r="E38" s="4">
+        <v>1</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="5">
+        <v>1012</v>
+      </c>
+      <c r="B39" s="4">
+        <v>1</v>
+      </c>
+      <c r="C39" s="4">
+        <v>1</v>
+      </c>
+      <c r="D39" s="5">
+        <v>20</v>
+      </c>
+      <c r="E39" s="4">
+        <v>1</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="5">
+        <v>1013</v>
+      </c>
+      <c r="B40" s="4">
+        <v>1</v>
+      </c>
+      <c r="C40" s="4">
+        <v>1</v>
+      </c>
+      <c r="D40" s="5">
+        <v>20</v>
+      </c>
+      <c r="E40" s="4">
+        <v>1</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="5">
+        <v>1014</v>
+      </c>
+      <c r="B41" s="4">
+        <v>1</v>
+      </c>
+      <c r="C41" s="4">
+        <v>1</v>
+      </c>
+      <c r="D41" s="5">
+        <v>20</v>
+      </c>
+      <c r="E41" s="4">
+        <v>1</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="5">
+        <v>1015</v>
+      </c>
+      <c r="B42" s="4">
+        <v>1</v>
+      </c>
+      <c r="C42" s="4">
+        <v>1</v>
+      </c>
+      <c r="D42" s="5">
+        <v>20</v>
+      </c>
+      <c r="E42" s="4">
+        <v>1</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="5">
+        <v>1016</v>
+      </c>
+      <c r="B43" s="4">
+        <v>1</v>
+      </c>
+      <c r="C43" s="4">
+        <v>1</v>
+      </c>
+      <c r="D43" s="5">
+        <v>20</v>
+      </c>
+      <c r="E43" s="4">
+        <v>1</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="5">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>80</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>50</v>
+      </c>
+      <c r="D6" s="4">
+        <v>5</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="5">
+        <v>1001</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>50</v>
+      </c>
+      <c r="D7" s="4">
+        <v>5</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5">
+        <v>1002</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4">
+        <v>5</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5">
+        <v>1003</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>5</v>
+      </c>
+      <c r="D9" s="4">
+        <v>5</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="5">
+        <v>1004</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>5</v>
+      </c>
+      <c r="D10" s="4">
+        <v>5</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1466,16 +3910,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1508,44 +3952,44 @@
     </row>
     <row r="4" spans="1:4" ht="16.5">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3">
         <v>5000</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5">
       <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5">
       <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="3">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1555,12 +3999,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:G15"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1603,7 +4047,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
@@ -1638,17 +4082,17 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
+      <c r="A4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="C4" s="4">
         <v>0</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
+      <c r="D4" s="12" t="s">
+        <v>141</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1658,16 +4102,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>140</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>24</v>
+      <c r="D5" s="13" t="s">
+        <v>142</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1677,143 +4121,100 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" s="4">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="4">
-        <v>3</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="4">
-        <v>4</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="C9" s="4">
-        <v>5</v>
-      </c>
-      <c r="D9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>29</v>
+      <c r="B10" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C10" s="4">
-        <v>6</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>29</v>
+        <v>2</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>30</v>
+      <c r="A11" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>33</v>
+        <v>148</v>
       </c>
       <c r="C11" s="4">
         <v>0</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>34</v>
+      <c r="D11" s="14" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
-        <v>30</v>
+      <c r="A12" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>149</v>
       </c>
       <c r="C12" s="4">
         <v>1</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="4">
-        <v>2</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="4">
-        <v>1</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="4">
-        <v>2</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>42</v>
+      <c r="D12" s="7" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1821,4 +4222,667 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="8" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="15" customFormat="1">
+      <c r="A1" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="5">
+        <v>1001</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="5">
+        <v>1002</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="5">
+        <v>1003</v>
+      </c>
+      <c r="B6" s="11">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5">
+        <v>2</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="5">
+        <v>1004</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>10</v>
+      </c>
+      <c r="D7" s="5">
+        <v>4</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:K24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="15" customFormat="1">
+      <c r="A1" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="5">
+        <v>1001</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>15</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5">
+        <v>5</v>
+      </c>
+      <c r="F4" s="5">
+        <v>5</v>
+      </c>
+      <c r="G4" s="5">
+        <v>2</v>
+      </c>
+      <c r="H4" s="5">
+        <v>2</v>
+      </c>
+      <c r="I4" s="5">
+        <v>100</v>
+      </c>
+      <c r="J4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="5">
+        <v>1002</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5">
+        <v>5</v>
+      </c>
+      <c r="F5" s="5">
+        <v>5</v>
+      </c>
+      <c r="G5" s="5">
+        <v>2</v>
+      </c>
+      <c r="H5" s="11">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="5">
+        <v>1003</v>
+      </c>
+      <c r="B6" s="11">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3</v>
+      </c>
+      <c r="E6" s="5">
+        <v>5</v>
+      </c>
+      <c r="F6" s="5">
+        <v>5</v>
+      </c>
+      <c r="G6" s="5">
+        <v>2</v>
+      </c>
+      <c r="H6" s="11">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="5">
+        <v>1004</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>15</v>
+      </c>
+      <c r="D7" s="5">
+        <v>3</v>
+      </c>
+      <c r="E7" s="5">
+        <v>5</v>
+      </c>
+      <c r="F7" s="5">
+        <v>5</v>
+      </c>
+      <c r="G7" s="5">
+        <v>2</v>
+      </c>
+      <c r="H7" s="11">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="5">
+        <v>1001</v>
+      </c>
+      <c r="B8" s="5">
+        <v>2</v>
+      </c>
+      <c r="C8" s="5">
+        <v>15</v>
+      </c>
+      <c r="D8" s="5">
+        <v>3</v>
+      </c>
+      <c r="E8" s="5">
+        <v>5</v>
+      </c>
+      <c r="F8" s="5">
+        <v>5</v>
+      </c>
+      <c r="G8" s="5">
+        <v>2</v>
+      </c>
+      <c r="H8" s="5">
+        <v>2</v>
+      </c>
+      <c r="I8" s="5">
+        <v>100</v>
+      </c>
+      <c r="J8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="5">
+        <v>1002</v>
+      </c>
+      <c r="B9" s="5">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5">
+        <v>15</v>
+      </c>
+      <c r="D9" s="5">
+        <v>3</v>
+      </c>
+      <c r="E9" s="5">
+        <v>5</v>
+      </c>
+      <c r="F9" s="5">
+        <v>5</v>
+      </c>
+      <c r="G9" s="5">
+        <v>2</v>
+      </c>
+      <c r="H9" s="11">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="5">
+        <v>1003</v>
+      </c>
+      <c r="B10" s="11">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5">
+        <v>15</v>
+      </c>
+      <c r="D10" s="5">
+        <v>3</v>
+      </c>
+      <c r="E10" s="5">
+        <v>5</v>
+      </c>
+      <c r="F10" s="5">
+        <v>5</v>
+      </c>
+      <c r="G10" s="5">
+        <v>2</v>
+      </c>
+      <c r="H10" s="11">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="5">
+        <v>1004</v>
+      </c>
+      <c r="B11" s="5">
+        <v>2</v>
+      </c>
+      <c r="C11" s="5">
+        <v>15</v>
+      </c>
+      <c r="D11" s="5">
+        <v>3</v>
+      </c>
+      <c r="E11" s="5">
+        <v>5</v>
+      </c>
+      <c r="F11" s="5">
+        <v>5</v>
+      </c>
+      <c r="G11" s="5">
+        <v>2</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="16" spans="1:10" ht="15.75" thickBot="1">
+      <c r="B16" s="21"/>
+    </row>
+    <row r="17" spans="2:11" ht="15.75" thickBot="1">
+      <c r="B17" s="22"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+    </row>
+    <row r="18" spans="2:11" ht="15.75" thickBot="1">
+      <c r="B18" s="22"/>
+    </row>
+    <row r="19" spans="2:11" ht="15.75" thickBot="1">
+      <c r="B19" s="22"/>
+    </row>
+    <row r="20" spans="2:11" ht="15.75" thickBot="1">
+      <c r="B20" s="22"/>
+    </row>
+    <row r="21" spans="2:11" ht="15.75" thickBot="1">
+      <c r="B21" s="22"/>
+    </row>
+    <row r="22" spans="2:11" ht="15.75" thickBot="1">
+      <c r="B22" s="22"/>
+    </row>
+    <row r="23" spans="2:11" ht="15.75" thickBot="1">
+      <c r="B23" s="22"/>
+    </row>
+    <row r="24" spans="2:11" ht="15.75" thickBot="1">
+      <c r="B24" s="22"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="5">
+        <v>1001</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이지협\Desktop\df\ExcelToCSV\SrcFolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevD\TowerDefense\ExcelToCSV\SrcFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F937B7AA-29DE-4304-83F1-573AF33F8DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F659E3F-7B62-4769-82E0-C63382B6B7AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48000" yWindow="825" windowWidth="28800" windowHeight="15435" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29115" yWindow="2820" windowWidth="24225" windowHeight="13230" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ObjTable" sheetId="19" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="183">
   <si>
     <t>type</t>
   </si>
@@ -766,9 +766,6 @@
     <t>Id</t>
   </si>
   <si>
-    <t>characterType</t>
-  </si>
-  <si>
     <t>checkRange</t>
   </si>
   <si>
@@ -896,6 +893,14 @@
   </si>
   <si>
     <t>projectileId</t>
+  </si>
+  <si>
+    <t>unit_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3706,7 +3711,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B3"/>
+      <selection activeCell="D4" sqref="D4:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4001,10 +4006,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4217,6 +4222,34 @@
         <v>151</v>
       </c>
     </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4229,75 +4262,81 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="8" width="15.5703125" customWidth="1"/>
+    <col min="1" max="9" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="15" customFormat="1">
+    <row r="1" spans="1:9" s="15" customFormat="1">
       <c r="A1" s="16" t="s">
         <v>154</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="G1" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="H1" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="F1" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="G1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="H1" s="16" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="C2" s="19" t="s">
+      <c r="E2" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="F2" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="G2" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="H2" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="G2" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>2</v>
+        <v>145</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>2</v>
@@ -4317,101 +4356,116 @@
       <c r="H3" s="20" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="5">
         <v>1001</v>
       </c>
-      <c r="B4" s="5">
-        <v>1</v>
+      <c r="B4" s="4">
+        <v>3</v>
       </c>
       <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
         <v>10</v>
       </c>
-      <c r="D4" s="5">
-        <v>3</v>
-      </c>
       <c r="E4" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4" s="5">
-        <v>2</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5">
+        <v>2</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="5">
         <v>1002</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5">
         <v>0</v>
       </c>
-      <c r="C5" s="5">
+      <c r="D5" s="5">
         <v>10</v>
       </c>
-      <c r="D5" s="5">
-        <v>2</v>
-      </c>
       <c r="E5" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" s="5">
-        <v>2</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="11" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5">
+        <v>2</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="5">
         <v>1003</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="4">
+        <v>5</v>
+      </c>
+      <c r="C6" s="11">
         <v>0</v>
       </c>
-      <c r="C6" s="5">
+      <c r="D6" s="5">
         <v>10</v>
       </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
       <c r="E6" s="5">
         <v>1</v>
       </c>
       <c r="F6" s="5">
-        <v>2</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="11" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
+        <v>2</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="5">
         <v>1004</v>
       </c>
       <c r="B7" s="5">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5">
         <v>0</v>
       </c>
-      <c r="C7" s="5">
+      <c r="D7" s="5">
         <v>10</v>
       </c>
-      <c r="D7" s="5">
+      <c r="E7" s="5">
         <v>4</v>
       </c>
-      <c r="E7" s="5">
-        <v>1</v>
-      </c>
       <c r="F7" s="5">
-        <v>2</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="11" t="s">
-        <v>169</v>
+        <v>1</v>
+      </c>
+      <c r="G7" s="5">
+        <v>2</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="11" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -4427,8 +4481,8 @@
   </sheetPr>
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4440,34 +4494,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="15" customFormat="1">
       <c r="A1" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>180</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -4854,7 +4908,7 @@
         <v>154</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4862,7 +4916,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4878,7 +4932,7 @@
         <v>1001</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevD\TowerDefense\ExcelToCSV\SrcFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F659E3F-7B62-4769-82E0-C63382B6B7AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C166D1BD-FE02-458F-BA74-556DCF079731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29115" yWindow="2820" windowWidth="24225" windowHeight="13230" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4262,81 +4262,75 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="9" width="15.5703125" customWidth="1"/>
+    <col min="1" max="8" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="15" customFormat="1">
+    <row r="1" spans="1:8" s="15" customFormat="1">
       <c r="A1" s="16" t="s">
         <v>154</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="C1" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>182</v>
+      <c r="C2" s="19" t="s">
+        <v>160</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H2" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="I2" s="19" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>145</v>
+        <v>2</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>2</v>
@@ -4356,115 +4350,100 @@
       <c r="H3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="5">
         <v>1001</v>
       </c>
-      <c r="B4" s="4">
-        <v>3</v>
+      <c r="B4" s="5">
+        <v>1</v>
       </c>
       <c r="C4" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D4" s="5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E4" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4" s="5">
-        <v>1</v>
-      </c>
-      <c r="G4" s="5">
-        <v>2</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:8">
       <c r="A5" s="5">
         <v>1002</v>
       </c>
-      <c r="B5" s="4">
-        <v>2</v>
+      <c r="B5" s="5">
+        <v>0</v>
       </c>
       <c r="C5" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D5" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E5" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5">
-        <v>2</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="11" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:8">
       <c r="A6" s="5">
         <v>1003</v>
       </c>
-      <c r="B6" s="4">
-        <v>5</v>
-      </c>
-      <c r="C6" s="11">
+      <c r="B6" s="11">
         <v>0</v>
       </c>
+      <c r="C6" s="5">
+        <v>10</v>
+      </c>
       <c r="D6" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
       </c>
       <c r="F6" s="5">
-        <v>1</v>
-      </c>
-      <c r="G6" s="5">
-        <v>2</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="11" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:8">
       <c r="A7" s="5">
         <v>1004</v>
       </c>
       <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
         <v>10</v>
       </c>
-      <c r="C7" s="5">
-        <v>0</v>
-      </c>
       <c r="D7" s="5">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E7" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F7" s="5">
-        <v>1</v>
-      </c>
-      <c r="G7" s="5">
-        <v>2</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="11" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4479,52 +4458,55 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="8" width="15.5703125" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" customWidth="1"/>
+    <col min="2" max="9" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="15" customFormat="1">
+    <row r="1" spans="1:11" s="15" customFormat="1">
       <c r="A1" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="K1" s="16" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -4555,8 +4537,11 @@
       <c r="J2" s="17" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
@@ -4587,271 +4572,297 @@
       <c r="J3" s="20" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" s="20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5">
         <v>1001</v>
       </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
       <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
         <v>15</v>
       </c>
-      <c r="D4" s="5">
-        <v>3</v>
-      </c>
       <c r="E4" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F4" s="5">
         <v>5</v>
       </c>
       <c r="G4" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H4" s="5">
         <v>2</v>
       </c>
       <c r="I4" s="5">
+        <v>2</v>
+      </c>
+      <c r="J4" s="5">
         <v>100</v>
       </c>
-      <c r="J4" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5">
         <v>1002</v>
       </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
       <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
         <v>15</v>
       </c>
-      <c r="D5" s="5">
-        <v>3</v>
-      </c>
       <c r="E5" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F5" s="5">
         <v>5</v>
       </c>
       <c r="G5" s="5">
-        <v>2</v>
-      </c>
-      <c r="H5" s="11">
-        <v>1</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="H5" s="5">
+        <v>2</v>
+      </c>
+      <c r="I5" s="11">
+        <v>1</v>
       </c>
       <c r="J5" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5">
         <v>1003</v>
       </c>
-      <c r="B6" s="11">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="C6" s="11">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
         <v>15</v>
       </c>
-      <c r="D6" s="5">
-        <v>3</v>
-      </c>
       <c r="E6" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F6" s="5">
         <v>5</v>
       </c>
       <c r="G6" s="5">
-        <v>2</v>
-      </c>
-      <c r="H6" s="11">
-        <v>1</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="H6" s="5">
+        <v>2</v>
+      </c>
+      <c r="I6" s="11">
+        <v>1</v>
       </c>
       <c r="J6" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5">
         <v>1004</v>
       </c>
-      <c r="B7" s="5">
-        <v>1</v>
-      </c>
       <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
         <v>15</v>
       </c>
-      <c r="D7" s="5">
-        <v>3</v>
-      </c>
       <c r="E7" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F7" s="5">
         <v>5</v>
       </c>
       <c r="G7" s="5">
-        <v>2</v>
-      </c>
-      <c r="H7" s="11">
-        <v>1</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="H7" s="5">
+        <v>2</v>
+      </c>
+      <c r="I7" s="11">
+        <v>1</v>
       </c>
       <c r="J7" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="5">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5">
         <v>1001</v>
       </c>
-      <c r="B8" s="5">
-        <v>2</v>
-      </c>
       <c r="C8" s="5">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5">
         <v>15</v>
       </c>
-      <c r="D8" s="5">
-        <v>3</v>
-      </c>
       <c r="E8" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F8" s="5">
         <v>5</v>
       </c>
       <c r="G8" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H8" s="5">
         <v>2</v>
       </c>
       <c r="I8" s="5">
+        <v>2</v>
+      </c>
+      <c r="J8" s="5">
         <v>100</v>
       </c>
-      <c r="J8" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="5">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5">
         <v>1002</v>
       </c>
-      <c r="B9" s="5">
-        <v>2</v>
-      </c>
       <c r="C9" s="5">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5">
         <v>15</v>
       </c>
-      <c r="D9" s="5">
-        <v>3</v>
-      </c>
       <c r="E9" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F9" s="5">
         <v>5</v>
       </c>
       <c r="G9" s="5">
-        <v>2</v>
-      </c>
-      <c r="H9" s="11">
-        <v>1</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="H9" s="5">
+        <v>2</v>
+      </c>
+      <c r="I9" s="11">
+        <v>1</v>
       </c>
       <c r="J9" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="5">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5">
         <v>1003</v>
       </c>
-      <c r="B10" s="11">
-        <v>2</v>
-      </c>
-      <c r="C10" s="5">
+      <c r="C10" s="11">
+        <v>2</v>
+      </c>
+      <c r="D10" s="5">
         <v>15</v>
       </c>
-      <c r="D10" s="5">
-        <v>3</v>
-      </c>
       <c r="E10" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F10" s="5">
         <v>5</v>
       </c>
       <c r="G10" s="5">
-        <v>2</v>
-      </c>
-      <c r="H10" s="11">
-        <v>1</v>
-      </c>
-      <c r="I10" s="5">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="H10" s="5">
+        <v>2</v>
+      </c>
+      <c r="I10" s="11">
+        <v>1</v>
       </c>
       <c r="J10" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="5">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5">
         <v>1004</v>
       </c>
-      <c r="B11" s="5">
-        <v>2</v>
-      </c>
       <c r="C11" s="5">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5">
         <v>15</v>
       </c>
-      <c r="D11" s="5">
-        <v>3</v>
-      </c>
       <c r="E11" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F11" s="5">
         <v>5</v>
       </c>
       <c r="G11" s="5">
-        <v>2</v>
-      </c>
-      <c r="H11" s="11">
-        <v>1</v>
-      </c>
-      <c r="I11" s="5">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="H11" s="5">
+        <v>2</v>
+      </c>
+      <c r="I11" s="11">
+        <v>1</v>
       </c>
       <c r="J11" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1">
-      <c r="B16" s="21"/>
-    </row>
-    <row r="17" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B17" s="22"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="22"/>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" thickBot="1"/>
+    <row r="16" spans="1:11" ht="15.75" thickBot="1">
+      <c r="C16" s="21"/>
+    </row>
+    <row r="17" spans="3:12" ht="15.75" thickBot="1">
+      <c r="C17" s="22"/>
+      <c r="D17" s="21"/>
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
@@ -4859,27 +4870,28 @@
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
       <c r="K17" s="22"/>
-    </row>
-    <row r="18" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B18" s="22"/>
-    </row>
-    <row r="19" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B19" s="22"/>
-    </row>
-    <row r="20" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B20" s="22"/>
-    </row>
-    <row r="21" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B21" s="22"/>
-    </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B22" s="22"/>
-    </row>
-    <row r="23" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B23" s="22"/>
-    </row>
-    <row r="24" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B24" s="22"/>
+      <c r="L17" s="22"/>
+    </row>
+    <row r="18" spans="3:12" ht="15.75" thickBot="1">
+      <c r="C18" s="22"/>
+    </row>
+    <row r="19" spans="3:12" ht="15.75" thickBot="1">
+      <c r="C19" s="22"/>
+    </row>
+    <row r="20" spans="3:12" ht="15.75" thickBot="1">
+      <c r="C20" s="22"/>
+    </row>
+    <row r="21" spans="3:12" ht="15.75" thickBot="1">
+      <c r="C21" s="22"/>
+    </row>
+    <row r="22" spans="3:12" ht="15.75" thickBot="1">
+      <c r="C22" s="22"/>
+    </row>
+    <row r="23" spans="3:12" ht="15.75" thickBot="1">
+      <c r="C23" s="22"/>
+    </row>
+    <row r="24" spans="3:12" ht="15.75" thickBot="1">
+      <c r="C24" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevD\TowerDefense\ExcelToCSV\SrcFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C166D1BD-FE02-458F-BA74-556DCF079731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB33707-E6B5-47B7-AB9E-2ED33B649C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29115" yWindow="2820" windowWidth="24225" windowHeight="13230" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="182">
   <si>
     <t>type</t>
   </si>
@@ -896,10 +896,6 @@
   </si>
   <si>
     <t>unit_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unit_info</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3903,7 +3899,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4009,7 +4005,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4265,7 +4261,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4278,7 +4274,7 @@
         <v>154</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>155</v>
@@ -4304,7 +4300,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>160</v>

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -8,27 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevD\TowerDefense\ExcelToCSV\SrcFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB33707-E6B5-47B7-AB9E-2ED33B649C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7C576D-981D-475A-BBB8-6C63ECF40B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29115" yWindow="2820" windowWidth="24225" windowHeight="13230" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2895" yWindow="1200" windowWidth="24225" windowHeight="13230" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ObjTable" sheetId="19" r:id="rId1"/>
     <sheet name="SpriteCollection" sheetId="21" r:id="rId2"/>
     <sheet name="SpriteSheet" sheetId="20" r:id="rId3"/>
-    <sheet name="Character" sheetId="22" r:id="rId4"/>
-    <sheet name="ConfigTable" sheetId="18" r:id="rId5"/>
-    <sheet name="EnumTable" sheetId="17" r:id="rId6"/>
-    <sheet name="Unitinfo" sheetId="23" r:id="rId7"/>
-    <sheet name="UnitGradeInfo" sheetId="25" r:id="rId8"/>
-    <sheet name="ProjectileInfo" sheetId="24" r:id="rId9"/>
+    <sheet name="ConfigTable" sheetId="18" r:id="rId4"/>
+    <sheet name="EnumTable" sheetId="17" r:id="rId5"/>
+    <sheet name="Unitinfo" sheetId="23" r:id="rId6"/>
+    <sheet name="UnitGradeInfo" sheetId="25" r:id="rId7"/>
+    <sheet name="ProjectileInfo" sheetId="24" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="177">
   <si>
     <t>type</t>
   </si>
@@ -727,18 +726,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attackRange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>character_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tanker</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -752,14 +739,6 @@
   </si>
   <si>
     <t>궁수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>characterType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Items_thumb/swordman_thumb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3703,203 +3682,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="5">
-        <v>0</v>
-      </c>
-      <c r="B4" s="5">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5">
-        <v>5</v>
-      </c>
-      <c r="D4" s="4">
-        <v>3</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5">
-        <v>80</v>
-      </c>
-      <c r="D5" s="4">
-        <v>2</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="5">
-        <v>2</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5">
-        <v>50</v>
-      </c>
-      <c r="D6" s="4">
-        <v>5</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="5">
-        <v>1001</v>
-      </c>
-      <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5">
-        <v>50</v>
-      </c>
-      <c r="D7" s="4">
-        <v>5</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="5">
-        <v>1002</v>
-      </c>
-      <c r="B8" s="5">
-        <v>0</v>
-      </c>
-      <c r="C8" s="5">
-        <v>5</v>
-      </c>
-      <c r="D8" s="4">
-        <v>5</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="5">
-        <v>1003</v>
-      </c>
-      <c r="B9" s="5">
-        <v>0</v>
-      </c>
-      <c r="C9" s="5">
-        <v>5</v>
-      </c>
-      <c r="D9" s="4">
-        <v>5</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="5">
-        <v>1004</v>
-      </c>
-      <c r="B10" s="5">
-        <v>0</v>
-      </c>
-      <c r="C10" s="5">
-        <v>5</v>
-      </c>
-      <c r="D10" s="4">
-        <v>5</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4000,12 +3787,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4192,58 +3979,30 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C11" s="4">
         <v>0</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C12" s="4">
         <v>1</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B13" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C14" s="4">
-        <v>1</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -4253,14 +4012,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -4271,28 +4030,28 @@
   <sheetData>
     <row r="1" spans="1:8" s="15" customFormat="1">
       <c r="A1" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="H1" s="16" t="s">
         <v>154</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -4300,25 +4059,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4368,7 +4127,7 @@
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4392,7 +4151,7 @@
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="11" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4416,7 +4175,7 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="11" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4440,7 +4199,7 @@
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="11" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -4449,7 +4208,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -4469,37 +4228,37 @@
   <sheetData>
     <row r="1" spans="1:11" s="15" customFormat="1">
       <c r="A1" s="16" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="K1" s="16" t="s">
         <v>175</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -4895,7 +4654,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -4913,10 +4672,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>154</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4924,7 +4683,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4940,7 +4699,7 @@
         <v>1001</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevD\TowerDefense\ExcelToCSV\SrcFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7C576D-981D-475A-BBB8-6C63ECF40B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39C72DF-8905-4587-9B94-F58953DEF845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="1200" windowWidth="24225" windowHeight="13230" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29550" yWindow="3300" windowWidth="24225" windowHeight="13230" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ObjTable" sheetId="19" r:id="rId1"/>
@@ -862,19 +862,21 @@
     <t>attackRange</t>
   </si>
   <si>
-    <t>attackSpeed</t>
-  </si>
-  <si>
     <t>attackCount</t>
   </si>
   <si>
-    <t>attackInterval</t>
-  </si>
-  <si>
     <t>projectileId</t>
   </si>
   <si>
     <t>unit_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackShortDelay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackLongDelay</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3791,7 +3793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -3979,7 +3981,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>145</v>
@@ -3993,7 +3995,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>146</v>
@@ -4020,7 +4022,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4033,7 +4035,7 @@
         <v>149</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>150</v>
@@ -4059,7 +4061,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>155</v>
@@ -4215,8 +4217,8 @@
   </sheetPr>
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4252,13 +4254,13 @@
         <v>172</v>
       </c>
       <c r="I1" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="K1" s="16" t="s">
         <v>173</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -4360,7 +4362,7 @@
         <v>2</v>
       </c>
       <c r="J4" s="5">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K4" s="5">
         <v>1</v>
@@ -4388,14 +4390,14 @@
       <c r="G5" s="5">
         <v>5</v>
       </c>
-      <c r="H5" s="5">
-        <v>2</v>
-      </c>
-      <c r="I5" s="11">
-        <v>1</v>
+      <c r="H5" s="11">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5">
+        <v>2</v>
       </c>
       <c r="J5" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K5" s="5">
         <v>0</v>
@@ -4423,14 +4425,14 @@
       <c r="G6" s="5">
         <v>5</v>
       </c>
-      <c r="H6" s="5">
-        <v>2</v>
-      </c>
-      <c r="I6" s="11">
-        <v>1</v>
+      <c r="H6" s="11">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5">
+        <v>2</v>
       </c>
       <c r="J6" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K6" s="5">
         <v>0</v>
@@ -4458,14 +4460,14 @@
       <c r="G7" s="5">
         <v>5</v>
       </c>
-      <c r="H7" s="5">
-        <v>2</v>
-      </c>
-      <c r="I7" s="11">
-        <v>1</v>
+      <c r="H7" s="11">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5">
+        <v>2</v>
       </c>
       <c r="J7" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K7" s="5">
         <v>0</v>
@@ -4500,7 +4502,7 @@
         <v>2</v>
       </c>
       <c r="J8" s="5">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K8" s="5">
         <v>1</v>
@@ -4528,14 +4530,14 @@
       <c r="G9" s="5">
         <v>5</v>
       </c>
-      <c r="H9" s="5">
-        <v>2</v>
-      </c>
-      <c r="I9" s="11">
-        <v>1</v>
+      <c r="H9" s="11">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5">
+        <v>2</v>
       </c>
       <c r="J9" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K9" s="5">
         <v>0</v>
@@ -4563,14 +4565,14 @@
       <c r="G10" s="5">
         <v>5</v>
       </c>
-      <c r="H10" s="5">
-        <v>2</v>
-      </c>
-      <c r="I10" s="11">
-        <v>1</v>
+      <c r="H10" s="11">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5">
+        <v>2</v>
       </c>
       <c r="J10" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K10" s="5">
         <v>0</v>
@@ -4598,14 +4600,14 @@
       <c r="G11" s="5">
         <v>5</v>
       </c>
-      <c r="H11" s="5">
-        <v>2</v>
-      </c>
-      <c r="I11" s="11">
-        <v>1</v>
+      <c r="H11" s="11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5">
+        <v>2</v>
       </c>
       <c r="J11" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K11" s="5">
         <v>0</v>

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevD\TowerDefense\ExcelToCSV\SrcFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39C72DF-8905-4587-9B94-F58953DEF845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2BE914-4A23-40FD-A1BA-1F187702353D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29550" yWindow="3300" windowWidth="24225" windowHeight="13230" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4022,7 +4022,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B5" sqref="B5:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4218,7 +4218,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4353,7 +4353,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H4" s="5">
         <v>2</v>
@@ -4382,13 +4382,13 @@
         <v>15</v>
       </c>
       <c r="E5" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F5" s="5">
         <v>5</v>
       </c>
       <c r="G5" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H5" s="11">
         <v>1</v>
@@ -4417,13 +4417,13 @@
         <v>15</v>
       </c>
       <c r="E6" s="5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F6" s="5">
         <v>5</v>
       </c>
       <c r="G6" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H6" s="11">
         <v>1</v>
@@ -4452,13 +4452,13 @@
         <v>15</v>
       </c>
       <c r="E7" s="5">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F7" s="5">
         <v>5</v>
       </c>
       <c r="G7" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H7" s="11">
         <v>1</v>
@@ -4493,7 +4493,7 @@
         <v>5</v>
       </c>
       <c r="G8" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H8" s="5">
         <v>2</v>
@@ -4528,7 +4528,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H9" s="11">
         <v>1</v>
@@ -4563,7 +4563,7 @@
         <v>5</v>
       </c>
       <c r="G10" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H10" s="11">
         <v>1</v>
@@ -4598,7 +4598,7 @@
         <v>5</v>
       </c>
       <c r="G11" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H11" s="11">
         <v>1</v>

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevD\TowerDefense\ExcelToCSV\SrcFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2BE914-4A23-40FD-A1BA-1F187702353D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA850826-AD3B-4C73-9238-8037509FDFFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29550" yWindow="3300" windowWidth="24225" windowHeight="13230" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2235" yWindow="2025" windowWidth="24225" windowHeight="13230" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ObjTable" sheetId="19" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="178">
   <si>
     <t>type</t>
   </si>
@@ -878,6 +878,9 @@
   <si>
     <t>attackLongDelay</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectileStraight</t>
   </si>
 </sst>
 </file>
@@ -4217,8 +4220,8 @@
   </sheetPr>
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4661,10 +4664,10 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4698,9 +4701,17 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5">
-        <v>1001</v>
+        <v>0</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>165</v>
       </c>
     </row>

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevD\TowerDefense\ExcelToCSV\SrcFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA850826-AD3B-4C73-9238-8037509FDFFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54693D08-D13C-4987-AEF9-7C6E7D40E13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2235" yWindow="2025" windowWidth="24225" windowHeight="13230" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2235" yWindow="2025" windowWidth="24225" windowHeight="13230" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ObjTable" sheetId="19" r:id="rId1"/>
@@ -4024,8 +4024,8 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4119,7 +4119,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D4" s="5">
         <v>3</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D5" s="5">
         <v>2</v>
@@ -4167,7 +4167,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D7" s="5">
         <v>4</v>
@@ -4666,7 +4666,7 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevD\TowerDefense\ExcelToCSV\SrcFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54693D08-D13C-4987-AEF9-7C6E7D40E13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA9FD69-E15B-4CCA-80DD-DEC995474D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2235" yWindow="2025" windowWidth="24225" windowHeight="13230" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2655" yWindow="1035" windowWidth="24225" windowHeight="13230" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ObjTable" sheetId="19" r:id="rId1"/>
@@ -4024,8 +4024,8 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4220,8 +4220,8 @@
   </sheetPr>
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4350,7 +4350,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F4" s="5">
         <v>5</v>
@@ -4385,7 +4385,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="5">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F5" s="5">
         <v>5</v>
@@ -4420,7 +4420,7 @@
         <v>15</v>
       </c>
       <c r="E6" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F6" s="5">
         <v>5</v>
@@ -4455,7 +4455,7 @@
         <v>15</v>
       </c>
       <c r="E7" s="5">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F7" s="5">
         <v>5</v>
@@ -4490,7 +4490,7 @@
         <v>15</v>
       </c>
       <c r="E8" s="5">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F8" s="5">
         <v>5</v>
@@ -4525,7 +4525,7 @@
         <v>15</v>
       </c>
       <c r="E9" s="5">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F9" s="5">
         <v>5</v>
@@ -4560,7 +4560,7 @@
         <v>15</v>
       </c>
       <c r="E10" s="5">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F10" s="5">
         <v>5</v>
@@ -4595,7 +4595,7 @@
         <v>15</v>
       </c>
       <c r="E11" s="5">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F11" s="5">
         <v>5</v>

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevD\TowerDefense\ExcelToCSV\SrcFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA9FD69-E15B-4CCA-80DD-DEC995474D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B422634D-27E5-4FE4-951F-6B923B4E270F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2655" yWindow="1035" windowWidth="24225" windowHeight="13230" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2655" yWindow="1035" windowWidth="24225" windowHeight="13230" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ObjTable" sheetId="19" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="179">
   <si>
     <t>type</t>
   </si>
@@ -881,6 +881,9 @@
   </si>
   <si>
     <t>ProjectileStraight</t>
+  </si>
+  <si>
+    <t>ProjectileBezier</t>
   </si>
 </sst>
 </file>
@@ -4220,8 +4223,8 @@
   </sheetPr>
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4368,7 +4371,7 @@
         <v>30</v>
       </c>
       <c r="K4" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -4403,7 +4406,7 @@
         <v>30</v>
       </c>
       <c r="K5" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -4438,7 +4441,7 @@
         <v>30</v>
       </c>
       <c r="K6" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -4473,7 +4476,7 @@
         <v>30</v>
       </c>
       <c r="K7" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -4508,7 +4511,7 @@
         <v>30</v>
       </c>
       <c r="K8" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -4543,7 +4546,7 @@
         <v>30</v>
       </c>
       <c r="K9" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -4578,7 +4581,7 @@
         <v>30</v>
       </c>
       <c r="K10" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -4613,7 +4616,7 @@
         <v>30</v>
       </c>
       <c r="K11" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1"/>
@@ -4664,10 +4667,10 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4715,6 +4718,14 @@
         <v>165</v>
       </c>
     </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>178</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevD\TowerDefense\ExcelToCSV\SrcFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B422634D-27E5-4FE4-951F-6B923B4E270F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6931B1D5-7A82-4CEB-B787-803D63498284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2655" yWindow="1035" windowWidth="24225" windowHeight="13230" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2655" yWindow="1035" windowWidth="24225" windowHeight="13230" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ObjTable" sheetId="19" r:id="rId1"/>
@@ -4223,8 +4223,8 @@
   </sheetPr>
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4359,7 +4359,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="5">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="H4" s="5">
         <v>2</v>
@@ -4394,7 +4394,7 @@
         <v>5</v>
       </c>
       <c r="G5" s="5">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H5" s="11">
         <v>1</v>
@@ -4429,7 +4429,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="5">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H6" s="11">
         <v>1</v>
@@ -4464,7 +4464,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="5">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H7" s="11">
         <v>1</v>
@@ -4499,7 +4499,7 @@
         <v>5</v>
       </c>
       <c r="G8" s="5">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="H8" s="5">
         <v>2</v>
@@ -4534,7 +4534,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="5">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H9" s="11">
         <v>1</v>
@@ -4569,7 +4569,7 @@
         <v>5</v>
       </c>
       <c r="G10" s="5">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H10" s="11">
         <v>1</v>
@@ -4604,7 +4604,7 @@
         <v>5</v>
       </c>
       <c r="G11" s="5">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H11" s="11">
         <v>1</v>
@@ -4669,8 +4669,8 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevD\TowerDefense\ExcelToCSV\SrcFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6931B1D5-7A82-4CEB-B787-803D63498284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FAED43-E336-481B-9337-D0E05A471190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2655" yWindow="1035" windowWidth="24225" windowHeight="13230" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30135" yWindow="2355" windowWidth="24225" windowHeight="13230" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ObjTable" sheetId="19" r:id="rId1"/>
@@ -4027,13 +4027,14 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="8" width="15.5703125" customWidth="1"/>
+    <col min="1" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="15" customFormat="1">
@@ -4122,10 +4123,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="5">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="D4" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
@@ -4146,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="5">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D5" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
@@ -4170,10 +4171,10 @@
         <v>0</v>
       </c>
       <c r="C6" s="5">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D6" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
@@ -4194,10 +4195,10 @@
         <v>0</v>
       </c>
       <c r="C7" s="5">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D7" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
@@ -4223,8 +4224,8 @@
   </sheetPr>
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4350,7 +4351,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="5">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="E4" s="5">
         <v>10</v>
@@ -4371,7 +4372,7 @@
         <v>30</v>
       </c>
       <c r="K4" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -4385,7 +4386,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="5">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="E5" s="5">
         <v>15</v>
@@ -4394,7 +4395,7 @@
         <v>5</v>
       </c>
       <c r="G5" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H5" s="11">
         <v>1</v>
@@ -4406,7 +4407,7 @@
         <v>30</v>
       </c>
       <c r="K5" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -4420,7 +4421,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="5">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="E6" s="5">
         <v>20</v>
@@ -4429,7 +4430,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H6" s="11">
         <v>1</v>
@@ -4441,7 +4442,7 @@
         <v>30</v>
       </c>
       <c r="K6" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -4455,7 +4456,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="5">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="E7" s="5">
         <v>20</v>
@@ -4464,7 +4465,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H7" s="11">
         <v>1</v>
@@ -4476,7 +4477,7 @@
         <v>30</v>
       </c>
       <c r="K7" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -4490,7 +4491,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="5">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="E8" s="5">
         <v>20</v>
@@ -4511,7 +4512,7 @@
         <v>30</v>
       </c>
       <c r="K8" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -4525,7 +4526,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="5">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="E9" s="5">
         <v>20</v>
@@ -4534,7 +4535,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H9" s="11">
         <v>1</v>
@@ -4546,7 +4547,7 @@
         <v>30</v>
       </c>
       <c r="K9" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -4560,7 +4561,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="5">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="E10" s="5">
         <v>20</v>
@@ -4569,7 +4570,7 @@
         <v>5</v>
       </c>
       <c r="G10" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H10" s="11">
         <v>1</v>
@@ -4581,7 +4582,7 @@
         <v>30</v>
       </c>
       <c r="K10" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -4595,7 +4596,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="5">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="E11" s="5">
         <v>20</v>
@@ -4604,7 +4605,7 @@
         <v>5</v>
       </c>
       <c r="G11" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H11" s="11">
         <v>1</v>
@@ -4616,7 +4617,7 @@
         <v>30</v>
       </c>
       <c r="K11" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1"/>
@@ -4670,7 +4671,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevD\TowerDefense\ExcelToCSV\SrcFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FAED43-E336-481B-9337-D0E05A471190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B59DD0-29B1-4720-AB02-3D8374CFAC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30135" yWindow="2355" windowWidth="24225" windowHeight="13230" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30135" yWindow="2355" windowWidth="24225" windowHeight="13230" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ObjTable" sheetId="19" r:id="rId1"/>
@@ -4027,8 +4027,8 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4224,8 +4224,8 @@
   </sheetPr>
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4395,7 +4395,7 @@
         <v>5</v>
       </c>
       <c r="G5" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H5" s="11">
         <v>1</v>
@@ -4430,7 +4430,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H6" s="11">
         <v>1</v>
@@ -4465,7 +4465,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H7" s="11">
         <v>1</v>
@@ -4535,7 +4535,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H9" s="11">
         <v>1</v>
@@ -4570,7 +4570,7 @@
         <v>5</v>
       </c>
       <c r="G10" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H10" s="11">
         <v>1</v>
@@ -4605,7 +4605,7 @@
         <v>5</v>
       </c>
       <c r="G11" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H11" s="11">
         <v>1</v>

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevD\TowerDefense\ExcelToCSV\SrcFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B59DD0-29B1-4720-AB02-3D8374CFAC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A1D76B-72A1-4A6C-91A8-5B95E8BCAD8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30135" yWindow="2355" windowWidth="24225" windowHeight="13230" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30135" yWindow="2355" windowWidth="24225" windowHeight="13230" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ObjTable" sheetId="19" r:id="rId1"/>
@@ -839,10 +839,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>01_Indian_Archer_Bullet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>unitId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -880,10 +876,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ProjectileStraight</t>
-  </si>
-  <si>
-    <t>ProjectileBezier</t>
+    <t>Projectile/ProjectileStraight.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Projectile/01_Indian_Archer_Bullet.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Projectile/ProjectileBezier.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3987,7 +3989,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>145</v>
@@ -4001,7 +4003,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>146</v>
@@ -4042,7 +4044,7 @@
         <v>149</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>150</v>
@@ -4068,7 +4070,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>155</v>
@@ -4224,8 +4226,8 @@
   </sheetPr>
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4240,34 +4242,34 @@
         <v>149</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="K1" s="16" t="s">
         <v>172</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -4670,13 +4672,13 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="59.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4708,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4716,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:2">

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevD\TowerDefense\ExcelToCSV\SrcFolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ejup\Desktop\td\ExcelToCSV\SrcFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A1D76B-72A1-4A6C-91A8-5B95E8BCAD8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30135" yWindow="2355" windowWidth="24225" windowHeight="13230" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30132" yWindow="2352" windowWidth="24228" windowHeight="13236" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ObjTable" sheetId="19" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="182">
   <si>
     <t>type</t>
   </si>
@@ -880,18 +879,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Projectile/ProjectileBezier.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Projectile/01_Indian_Archer_Bullet.prefab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Projectile/ProjectileBezier.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Projectile/02_Slime_Archer_Bullet.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01_Slime</t>
+  </si>
+  <si>
+    <t>02_Slime_Archer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -1381,7 +1390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
@@ -1391,17 +1400,17 @@
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="13.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="5"/>
+    <col min="2" max="2" width="13.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="5"/>
+    <col min="8" max="8" width="41.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2020,7 +2029,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
@@ -2030,10 +2039,10 @@
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="5" customFormat="1">
@@ -2679,7 +2688,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
@@ -2689,9 +2698,9 @@
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="6" max="6" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3692,18 +3701,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3748,7 +3757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5">
+    <row r="4" spans="1:4" ht="17.399999999999999">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -3762,7 +3771,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5">
+    <row r="5" spans="1:4" ht="17.399999999999999">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -3776,7 +3785,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5">
+    <row r="6" spans="1:4" ht="17.399999999999999">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -3798,19 +3807,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" customWidth="1"/>
+    <col min="5" max="5" width="25.109375" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3917,7 +3926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="15">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -3931,7 +3940,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="15">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -3945,7 +3954,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="15">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -3959,7 +3968,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="15">
       <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
@@ -3973,7 +3982,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="15">
       <c r="A10" s="8" t="s">
         <v>28</v>
       </c>
@@ -4001,7 +4010,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="15">
       <c r="A12" s="2" t="s">
         <v>173</v>
       </c>
@@ -4023,19 +4032,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="7" width="15.5703125" customWidth="1"/>
+    <col min="1" max="7" width="15.5546875" customWidth="1"/>
     <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4211,6 +4220,52 @@
       <c r="G7" s="5"/>
       <c r="H7" s="11" t="s">
         <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="5">
+        <v>2001</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>30</v>
+      </c>
+      <c r="D8" s="5">
+        <v>4</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="5">
+        <v>2002</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>100</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -4220,21 +4275,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" customWidth="1"/>
+    <col min="2" max="9" width="15.5546875" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="15" customFormat="1">
@@ -4622,11 +4677,81 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1">
+    <row r="12" spans="1:11">
+      <c r="A12" s="5">
+        <v>9</v>
+      </c>
+      <c r="B12" s="5">
+        <v>2001</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5">
+        <v>300</v>
+      </c>
+      <c r="E12" s="5">
+        <v>10</v>
+      </c>
+      <c r="F12" s="5">
+        <v>5</v>
+      </c>
+      <c r="G12" s="5">
+        <v>8</v>
+      </c>
+      <c r="H12" s="5">
+        <v>2</v>
+      </c>
+      <c r="I12" s="5">
+        <v>2</v>
+      </c>
+      <c r="J12" s="5">
+        <v>30</v>
+      </c>
+      <c r="K12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="5">
+        <v>10</v>
+      </c>
+      <c r="B13" s="5">
+        <v>2002</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <v>300</v>
+      </c>
+      <c r="E13" s="5">
+        <v>10</v>
+      </c>
+      <c r="F13" s="5">
+        <v>5</v>
+      </c>
+      <c r="G13" s="5">
+        <v>80</v>
+      </c>
+      <c r="H13" s="5">
+        <v>5</v>
+      </c>
+      <c r="I13" s="5">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5">
+        <v>30</v>
+      </c>
+      <c r="K13" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" thickBot="1"/>
+    <row r="16" spans="1:11" ht="15" thickBot="1">
       <c r="C16" s="21"/>
     </row>
-    <row r="17" spans="3:12" ht="15.75" thickBot="1">
+    <row r="17" spans="3:12" ht="15" thickBot="1">
       <c r="C17" s="22"/>
       <c r="D17" s="21"/>
       <c r="E17" s="22"/>
@@ -4638,25 +4763,25 @@
       <c r="K17" s="22"/>
       <c r="L17" s="22"/>
     </row>
-    <row r="18" spans="3:12" ht="15.75" thickBot="1">
+    <row r="18" spans="3:12" ht="15" thickBot="1">
       <c r="C18" s="22"/>
     </row>
-    <row r="19" spans="3:12" ht="15.75" thickBot="1">
+    <row r="19" spans="3:12" ht="15" thickBot="1">
       <c r="C19" s="22"/>
     </row>
-    <row r="20" spans="3:12" ht="15.75" thickBot="1">
+    <row r="20" spans="3:12" ht="15" thickBot="1">
       <c r="C20" s="22"/>
     </row>
-    <row r="21" spans="3:12" ht="15.75" thickBot="1">
+    <row r="21" spans="3:12" ht="15" thickBot="1">
       <c r="C21" s="22"/>
     </row>
-    <row r="22" spans="3:12" ht="15.75" thickBot="1">
+    <row r="22" spans="3:12" ht="15" thickBot="1">
       <c r="C22" s="22"/>
     </row>
-    <row r="23" spans="3:12" ht="15.75" thickBot="1">
+    <row r="23" spans="3:12" ht="15" thickBot="1">
       <c r="C23" s="22"/>
     </row>
-    <row r="24" spans="3:12" ht="15.75" thickBot="1">
+    <row r="24" spans="3:12" ht="15" thickBot="1">
       <c r="C24" s="22"/>
     </row>
   </sheetData>
@@ -4666,19 +4791,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="59.5703125" customWidth="1"/>
+    <col min="2" max="2" width="59.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4718,7 +4843,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4726,11 +4851,20 @@
         <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="5">
+        <v>3</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ejup\Desktop\td\ExcelToCSV\SrcFolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevD\TowerDefense\ExcelToCSV\SrcFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1C3961-D591-4714-9B4B-C2BC930DBC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30132" yWindow="2352" windowWidth="24228" windowHeight="13236" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="3255" yWindow="2175" windowWidth="24225" windowHeight="13230" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ObjTable" sheetId="19" r:id="rId1"/>
@@ -819,21 +820,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>01_Indian_Archer</t>
-  </si>
-  <si>
-    <t>02_Indian_Shield</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03_Indian_Spear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>04_Indian_Sword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>maxGrade</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -891,16 +877,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>01_Slime</t>
-  </si>
-  <si>
-    <t>02_Slime_Archer</t>
+    <t>Unit/Enemy/Chapter_1/01_Indian_Archer.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit/Enemy/Chapter_1/02_Indian_Shield.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit/Enemy/Chapter_1/03_Indian_Spear.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit/Enemy/Chapter_1/04_Indian_Sword.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit/Hero/01_Slime.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit/Hero/02_Slime_Archer.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -1390,7 +1394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
@@ -1400,17 +1404,17 @@
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="5"/>
-    <col min="2" max="2" width="13.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="13.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="5"/>
+    <col min="8" max="8" width="41.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2029,7 +2033,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
@@ -2039,10 +2043,10 @@
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="5" customFormat="1">
@@ -2688,7 +2692,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
@@ -2698,9 +2702,9 @@
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="40.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3701,18 +3705,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3757,7 +3761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17.399999999999999">
+    <row r="4" spans="1:4" ht="16.5">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -3771,7 +3775,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17.399999999999999">
+    <row r="5" spans="1:4" ht="16.5">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -3785,7 +3789,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17.399999999999999">
+    <row r="6" spans="1:4" ht="16.5">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -3807,19 +3811,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" customWidth="1"/>
-    <col min="5" max="5" width="25.109375" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3926,7 +3930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -3940,7 +3944,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -3954,7 +3958,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15">
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -3968,7 +3972,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15">
+    <row r="9" spans="1:7">
       <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
@@ -3982,7 +3986,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15">
+    <row r="10" spans="1:7">
       <c r="A10" s="8" t="s">
         <v>28</v>
       </c>
@@ -3998,7 +4002,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>145</v>
@@ -4010,9 +4014,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15">
+    <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>146</v>
@@ -4032,20 +4036,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="7" width="15.5546875" customWidth="1"/>
-    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="32.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="15" customFormat="1">
@@ -4053,7 +4057,7 @@
         <v>149</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>150</v>
@@ -4065,7 +4069,7 @@
         <v>152</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G1" s="16" t="s">
         <v>153</v>
@@ -4079,7 +4083,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>155</v>
@@ -4146,8 +4150,8 @@
         <v>2</v>
       </c>
       <c r="G4" s="5"/>
-      <c r="H4" s="5" t="s">
-        <v>160</v>
+      <c r="H4" s="11" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4171,7 +4175,7 @@
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="11" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4195,7 +4199,7 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="11" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4219,7 +4223,7 @@
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="11" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4241,7 +4245,7 @@
       <c r="F8" s="5">
         <v>1</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="11" t="s">
         <v>180</v>
       </c>
     </row>
@@ -4264,7 +4268,7 @@
       <c r="F9" s="5">
         <v>1</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="11" t="s">
         <v>181</v>
       </c>
     </row>
@@ -4275,21 +4279,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="9" width="15.5546875" customWidth="1"/>
-    <col min="10" max="10" width="18.109375" customWidth="1"/>
-    <col min="11" max="11" width="18.6640625" customWidth="1"/>
+    <col min="2" max="9" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="15" customFormat="1">
@@ -4297,34 +4301,34 @@
         <v>149</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="I1" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="K1" s="16" t="s">
         <v>168</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -4747,11 +4751,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" thickBot="1"/>
-    <row r="16" spans="1:11" ht="15" thickBot="1">
+    <row r="15" spans="1:11" ht="15.75" thickBot="1"/>
+    <row r="16" spans="1:11" ht="15.75" thickBot="1">
       <c r="C16" s="21"/>
     </row>
-    <row r="17" spans="3:12" ht="15" thickBot="1">
+    <row r="17" spans="3:12" ht="15.75" thickBot="1">
       <c r="C17" s="22"/>
       <c r="D17" s="21"/>
       <c r="E17" s="22"/>
@@ -4763,25 +4767,25 @@
       <c r="K17" s="22"/>
       <c r="L17" s="22"/>
     </row>
-    <row r="18" spans="3:12" ht="15" thickBot="1">
+    <row r="18" spans="3:12" ht="15.75" thickBot="1">
       <c r="C18" s="22"/>
     </row>
-    <row r="19" spans="3:12" ht="15" thickBot="1">
+    <row r="19" spans="3:12" ht="15.75" thickBot="1">
       <c r="C19" s="22"/>
     </row>
-    <row r="20" spans="3:12" ht="15" thickBot="1">
+    <row r="20" spans="3:12" ht="15.75" thickBot="1">
       <c r="C20" s="22"/>
     </row>
-    <row r="21" spans="3:12" ht="15" thickBot="1">
+    <row r="21" spans="3:12" ht="15.75" thickBot="1">
       <c r="C21" s="22"/>
     </row>
-    <row r="22" spans="3:12" ht="15" thickBot="1">
+    <row r="22" spans="3:12" ht="15.75" thickBot="1">
       <c r="C22" s="22"/>
     </row>
-    <row r="23" spans="3:12" ht="15" thickBot="1">
+    <row r="23" spans="3:12" ht="15.75" thickBot="1">
       <c r="C23" s="22"/>
     </row>
-    <row r="24" spans="3:12" ht="15" thickBot="1">
+    <row r="24" spans="3:12" ht="15.75" thickBot="1">
       <c r="C24" s="22"/>
     </row>
   </sheetData>
@@ -4791,7 +4795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
@@ -4801,9 +4805,9 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="59.5546875" customWidth="1"/>
+    <col min="2" max="2" width="59.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4835,7 +4839,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4843,7 +4847,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4851,7 +4855,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4859,7 +4863,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevD\TowerDefense\ExcelToCSV\SrcFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1C3961-D591-4714-9B4B-C2BC930DBC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DF6B64-DD4D-49A2-832C-A10BDF7D0CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3255" yWindow="2175" windowWidth="24225" windowHeight="13230" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="1500" windowWidth="28035" windowHeight="15600" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ObjTable" sheetId="19" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="187">
   <si>
     <t>type</t>
   </si>
@@ -846,58 +846,79 @@
     <t>attackCount</t>
   </si>
   <si>
+    <t>unit_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackShortDelay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackLongDelay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Projectile/ProjectileStraight.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Projectile/ProjectileBezier.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Projectile/01_Indian_Archer_Bullet.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Projectile/02_Slime_Archer_Bullet.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit/Enemy/Chapter_1/01_Indian_Archer.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit/Enemy/Chapter_1/02_Indian_Shield.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit/Enemy/Chapter_1/03_Indian_Spear.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit/Enemy/Chapter_1/04_Indian_Sword.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit/Hero/01_Slime.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit/Hero/02_Slime_Archer.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>splashDmg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiAttackCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>splashRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>splashEffectPrefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>projectileId</t>
-  </si>
-  <si>
-    <t>unit_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attackShortDelay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attackLongDelay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Projectile/ProjectileStraight.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Projectile/ProjectileBezier.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Projectile/01_Indian_Archer_Bullet.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Projectile/02_Slime_Archer_Bullet.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit/Enemy/Chapter_1/01_Indian_Archer.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit/Enemy/Chapter_1/02_Indian_Shield.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit/Enemy/Chapter_1/03_Indian_Spear.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit/Enemy/Chapter_1/04_Indian_Sword.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit/Hero/01_Slime.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit/Hero/02_Slime_Archer.prefab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4002,7 +4023,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>145</v>
@@ -4016,7 +4037,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>146</v>
@@ -4042,7 +4063,7 @@
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -4057,7 +4078,7 @@
         <v>149</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>150</v>
@@ -4083,7 +4104,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>155</v>
@@ -4151,7 +4172,7 @@
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4175,7 +4196,7 @@
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4199,7 +4220,7 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4223,7 +4244,7 @@
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4246,7 +4267,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4269,7 +4290,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -4283,20 +4304,23 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="9" width="15.5703125" customWidth="1"/>
     <col min="10" max="10" width="18.140625" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" customWidth="1"/>
+    <col min="11" max="12" width="18.7109375" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="15" customFormat="1">
+    <row r="1" spans="1:15" s="15" customFormat="1">
       <c r="A1" s="16" t="s">
         <v>149</v>
       </c>
@@ -4322,16 +4346,28 @@
         <v>167</v>
       </c>
       <c r="I1" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="K1" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="J1" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -4365,8 +4401,20 @@
       <c r="K2" s="17" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
@@ -4400,8 +4448,20 @@
       <c r="K3" s="20" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -4427,16 +4487,28 @@
         <v>2</v>
       </c>
       <c r="I4" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J4" s="5">
+        <v>2</v>
+      </c>
+      <c r="K4" s="5">
         <v>30</v>
       </c>
-      <c r="K4" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4" s="5">
+        <v>1</v>
+      </c>
+      <c r="M4" s="5">
+        <v>1</v>
+      </c>
+      <c r="N4" s="5">
+        <v>3</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -4462,16 +4534,28 @@
         <v>1</v>
       </c>
       <c r="I5" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J5" s="5">
+        <v>2</v>
+      </c>
+      <c r="K5" s="5">
         <v>30</v>
       </c>
-      <c r="K5" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5" s="5">
+        <v>2</v>
+      </c>
+      <c r="M5" s="5">
+        <v>1</v>
+      </c>
+      <c r="N5" s="5">
+        <v>3</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -4497,16 +4581,28 @@
         <v>1</v>
       </c>
       <c r="I6" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J6" s="5">
+        <v>2</v>
+      </c>
+      <c r="K6" s="5">
         <v>30</v>
       </c>
-      <c r="K6" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6" s="5">
+        <v>3</v>
+      </c>
+      <c r="M6" s="5">
+        <v>1</v>
+      </c>
+      <c r="N6" s="5">
+        <v>3</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -4532,16 +4628,28 @@
         <v>1</v>
       </c>
       <c r="I7" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J7" s="5">
+        <v>2</v>
+      </c>
+      <c r="K7" s="5">
         <v>30</v>
       </c>
-      <c r="K7" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7" s="5">
+        <v>4</v>
+      </c>
+      <c r="M7" s="5">
+        <v>1</v>
+      </c>
+      <c r="N7" s="5">
+        <v>3</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -4567,16 +4675,28 @@
         <v>2</v>
       </c>
       <c r="I8" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J8" s="5">
+        <v>2</v>
+      </c>
+      <c r="K8" s="5">
         <v>30</v>
       </c>
-      <c r="K8" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8" s="5">
+        <v>1</v>
+      </c>
+      <c r="M8" s="5">
+        <v>1</v>
+      </c>
+      <c r="N8" s="5">
+        <v>3</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -4602,16 +4722,28 @@
         <v>1</v>
       </c>
       <c r="I9" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J9" s="5">
+        <v>2</v>
+      </c>
+      <c r="K9" s="5">
         <v>30</v>
       </c>
-      <c r="K9" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9" s="5">
+        <v>2</v>
+      </c>
+      <c r="M9" s="5">
+        <v>1</v>
+      </c>
+      <c r="N9" s="5">
+        <v>3</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -4637,16 +4769,28 @@
         <v>1</v>
       </c>
       <c r="I10" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J10" s="5">
+        <v>2</v>
+      </c>
+      <c r="K10" s="5">
         <v>30</v>
       </c>
-      <c r="K10" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10" s="5">
+        <v>3</v>
+      </c>
+      <c r="M10" s="5">
+        <v>1</v>
+      </c>
+      <c r="N10" s="5">
+        <v>3</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -4672,16 +4816,28 @@
         <v>1</v>
       </c>
       <c r="I11" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J11" s="5">
+        <v>2</v>
+      </c>
+      <c r="K11" s="5">
         <v>30</v>
       </c>
-      <c r="K11" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11" s="5">
+        <v>4</v>
+      </c>
+      <c r="M11" s="5">
+        <v>1</v>
+      </c>
+      <c r="N11" s="5">
+        <v>3</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -4707,16 +4863,28 @@
         <v>2</v>
       </c>
       <c r="I12" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J12" s="5">
+        <v>2</v>
+      </c>
+      <c r="K12" s="5">
         <v>30</v>
       </c>
-      <c r="K12" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12" s="5">
+        <v>1</v>
+      </c>
+      <c r="M12" s="5">
+        <v>1</v>
+      </c>
+      <c r="N12" s="5">
+        <v>3</v>
+      </c>
+      <c r="O12" s="11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -4742,20 +4910,32 @@
         <v>5</v>
       </c>
       <c r="I13" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J13" s="5">
+        <v>1</v>
+      </c>
+      <c r="K13" s="5">
         <v>30</v>
       </c>
-      <c r="K13" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1">
+      <c r="L13" s="5">
+        <v>2</v>
+      </c>
+      <c r="M13" s="5">
+        <v>3</v>
+      </c>
+      <c r="N13" s="5">
+        <v>3</v>
+      </c>
+      <c r="O13" s="11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" thickBot="1"/>
+    <row r="16" spans="1:15" ht="15.75" thickBot="1">
       <c r="C16" s="21"/>
     </row>
-    <row r="17" spans="3:12" ht="15.75" thickBot="1">
+    <row r="17" spans="3:13" ht="15.75" thickBot="1">
       <c r="C17" s="22"/>
       <c r="D17" s="21"/>
       <c r="E17" s="22"/>
@@ -4766,26 +4946,27 @@
       <c r="J17" s="22"/>
       <c r="K17" s="22"/>
       <c r="L17" s="22"/>
-    </row>
-    <row r="18" spans="3:12" ht="15.75" thickBot="1">
+      <c r="M17" s="22"/>
+    </row>
+    <row r="18" spans="3:13" ht="15.75" thickBot="1">
       <c r="C18" s="22"/>
     </row>
-    <row r="19" spans="3:12" ht="15.75" thickBot="1">
+    <row r="19" spans="3:13" ht="15.75" thickBot="1">
       <c r="C19" s="22"/>
     </row>
-    <row r="20" spans="3:12" ht="15.75" thickBot="1">
+    <row r="20" spans="3:13" ht="15.75" thickBot="1">
       <c r="C20" s="22"/>
     </row>
-    <row r="21" spans="3:12" ht="15.75" thickBot="1">
+    <row r="21" spans="3:13" ht="15.75" thickBot="1">
       <c r="C21" s="22"/>
     </row>
-    <row r="22" spans="3:12" ht="15.75" thickBot="1">
+    <row r="22" spans="3:13" ht="15.75" thickBot="1">
       <c r="C22" s="22"/>
     </row>
-    <row r="23" spans="3:12" ht="15.75" thickBot="1">
+    <row r="23" spans="3:13" ht="15.75" thickBot="1">
       <c r="C23" s="22"/>
     </row>
-    <row r="24" spans="3:12" ht="15.75" thickBot="1">
+    <row r="24" spans="3:13" ht="15.75" thickBot="1">
       <c r="C24" s="22"/>
     </row>
   </sheetData>
@@ -4802,7 +4983,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4839,7 +5020,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4847,7 +5028,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4855,7 +5036,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4863,7 +5044,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevD\TowerDefense\ExcelToCSV\SrcFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DF6B64-DD4D-49A2-832C-A10BDF7D0CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F8AD38-06AC-4013-A186-89A2F0263B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="1500" windowWidth="28035" windowHeight="15600" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2145" yWindow="1875" windowWidth="24225" windowHeight="13230" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ObjTable" sheetId="19" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="189">
   <si>
     <t>type</t>
   </si>
@@ -910,15 +910,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>splashEffectPrefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aaaa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>projectileId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boomEffectPrefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoomEffect/Boom01.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoomEffect/Boom02.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoomEffect/Boom03.prefab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4307,7 +4315,7 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4355,7 +4363,7 @@
         <v>170</v>
       </c>
       <c r="L1" s="16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M1" s="16" t="s">
         <v>181</v>
@@ -4364,7 +4372,7 @@
         <v>183</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -4505,7 +4513,7 @@
         <v>3</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -4552,7 +4560,7 @@
         <v>3</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -4599,7 +4607,7 @@
         <v>3</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -4646,7 +4654,7 @@
         <v>3</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -4693,7 +4701,7 @@
         <v>3</v>
       </c>
       <c r="O8" s="11" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -4740,7 +4748,7 @@
         <v>3</v>
       </c>
       <c r="O9" s="11" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -4787,7 +4795,7 @@
         <v>3</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -4834,7 +4842,7 @@
         <v>3</v>
       </c>
       <c r="O11" s="11" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -4881,7 +4889,7 @@
         <v>3</v>
       </c>
       <c r="O12" s="11" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -4928,7 +4936,7 @@
         <v>3</v>
       </c>
       <c r="O13" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15.75" thickBot="1"/>

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevD\TowerDefense\ExcelToCSV\SrcFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F8AD38-06AC-4013-A186-89A2F0263B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5E1556-AB0C-4297-BD7C-86115E94367C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2145" yWindow="1875" windowWidth="24225" windowHeight="13230" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30690" yWindow="3225" windowWidth="24225" windowHeight="13230" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ObjTable" sheetId="19" r:id="rId1"/>
@@ -4072,7 +4072,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="A8" sqref="A8:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4314,8 +4314,8 @@
   </sheetPr>
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4930,7 +4930,7 @@
         <v>2</v>
       </c>
       <c r="M13" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N13" s="5">
         <v>3</v>

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevD\TowerDefense\ExcelToCSV\SrcFolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ejup\Desktop\td\ExcelToCSV\SrcFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5E1556-AB0C-4297-BD7C-86115E94367C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30690" yWindow="3225" windowWidth="24225" windowHeight="13230" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30696" yWindow="3228" windowWidth="24228" windowHeight="13236" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="ObjTable" sheetId="19" r:id="rId1"/>
@@ -21,13 +20,61 @@
     <sheet name="Unitinfo" sheetId="23" r:id="rId6"/>
     <sheet name="UnitGradeInfo" sheetId="25" r:id="rId7"/>
     <sheet name="ProjectileInfo" sheetId="24" r:id="rId8"/>
+    <sheet name="StageInfo" sheetId="26" r:id="rId9"/>
+    <sheet name="StageRewardInfo" sheetId="27" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ejup</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>권장</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>전투력</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="205">
   <si>
     <t>type</t>
   </si>
@@ -36,11 +83,11 @@
   </si>
   <si>
     <t>all</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>value</t>
@@ -62,63 +109,63 @@
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>maxItemCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>test01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>maxGold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>aaa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>bbb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ccc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>testName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>item_status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Boxed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SpiderWeb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>none</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -164,7 +211,7 @@
       </rPr>
       <t>거미줄</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -193,11 +240,11 @@
       </rPr>
       <t>있음</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -211,15 +258,15 @@
       </rPr>
       <t>lot_anim_type</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Active</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>UnActive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -248,7 +295,7 @@
       </rPr>
       <t>됨</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -277,469 +324,469 @@
       </rPr>
       <t>됨</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>resPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>culumns</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>rows</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>scale</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>frame</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>barrack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>tree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Images/Character/SwordMan/idle/BR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Images/Object/barrack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Images/Object/tree1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>B_ResID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>BR_ResID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>R_ResID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>TR_ResID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>T_ResID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Images/Character/SwordMan/attack/B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Images/Character/SwordMan/attack/BR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Images/Character/SwordMan/attack/R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Images/Character/SwordMan/attack/TR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Images/Character/SwordMan/attack/T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>attack</t>
   </si>
   <si>
     <t>idle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>swordMan_idle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>swordMan_attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Idle_CollectionID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Walk_CollectionID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Attack_CollectionID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Destroyed_CollectionID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SwordMan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>walk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Images/Character/SwordMan/walk/B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Images/Character/SwordMan/walk/BR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Images/Character/SwordMan/walk/R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Images/Character/SwordMan/walk/TR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Images/Character/SwordMan/walk/T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>swordMan_walk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>thumbnailPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Images/Items_thumb/barrack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Images/Items_thumb/swordman_thumb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Images/Items_thumb/tree1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>boat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>camp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>canon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>tree1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Images/Items_thumb/boat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>builder_hut</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Images/Items_thumb/camp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>elixir_collector</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Images/Items_thumb/elixir_collector</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>elixir_storage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Images/Items_thumb/elixir_storage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>gems</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Images/Items_thumb/gems</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>gold_mine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Images/Items_thumb/gold_mine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>gold_storage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Images/Items_thumb/gold_storage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>tower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Images/Items_thumb/tower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>town_center</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Images/Items_thumb/town_center</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>tree2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Images/Items_thumb/tree2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>wall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Images/Items_thumb/wall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>wind_mill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Images/Items_thumb/wind_mill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Images/Items_thumb/builder_hut</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Images/Items_thumb/cannon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Images/Buildings/boat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Images/Buildings/builder_hut</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Images/Buildings/camp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Images/Buildings/elixir_collector</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Images/Buildings/elixir_storage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Images/Buildings/gems</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Images/Buildings/gold_storage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Images/Buildings/tower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Images/Buildings/town_center</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Images/Buildings/tree1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Images/Buildings/tree2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Images/Buildings/wall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Images/Buildings/wind_mill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>cannon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Images/Character/Archer/attack/B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Images/Character/Archer/attack/BR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Images/Character/Archer/attack/R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Images/Character/Archer/attack/TR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Images/Character/Archer/attack/T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Images/Character/Archer/idle/BR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Images/Character/Archer/walk/B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Images/Character/Archer/walk/BR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Images/Character/Archer/walk/R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Images/Character/Archer/walk/TR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Images/Character/Archer/walk/T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>walk</t>
   </si>
   <si>
     <t>archer_idle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>archer_attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>archer_walk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Images/Items_thumb/archer_thumb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Images/Buildings/cannon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>goldmine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Images/Buildings/goldmine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CharacterA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>characterA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Images/Character/A/PLAYER_RUN_NOHAND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Building</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Character</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>빌딩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>캐릭터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>obj_Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Object_Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>tanker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>archer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>탱커</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>궁수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Id</t>
@@ -771,7 +818,7 @@
       </rPr>
       <t>nt</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -785,7 +832,7 @@
       </rPr>
       <t>nt</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -799,7 +846,7 @@
       </rPr>
       <t>nt</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -813,19 +860,19 @@
       </rPr>
       <t>nt</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>maxGrade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>unitId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Grade</t>
@@ -847,97 +894,319 @@
   </si>
   <si>
     <t>unit_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>attackShortDelay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>attackLongDelay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Projectile/ProjectileStraight.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Projectile/ProjectileBezier.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Projectile/01_Indian_Archer_Bullet.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Projectile/02_Slime_Archer_Bullet.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Unit/Enemy/Chapter_1/01_Indian_Archer.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Unit/Enemy/Chapter_1/02_Indian_Shield.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Unit/Enemy/Chapter_1/03_Indian_Spear.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Unit/Enemy/Chapter_1/04_Indian_Sword.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Unit/Hero/01_Slime.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Unit/Hero/02_Slime_Archer.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>splashDmg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>multiAttackCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>splashRange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>projectileId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>boomEffectPrefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>BoomEffect/Boom01.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>BoomEffect/Boom02.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>BoomEffect/Boom03.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>soul</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>영혼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아이템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>재화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewardType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>eward_type</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewardCount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>order</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stageName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>needCombatPower</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>tage_01_name</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>tage_02_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>tage_03_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>tage_04_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>tage_05_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
@@ -983,6 +1252,21 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1055,10 +1339,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1067,47 +1351,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1423,7 +1707,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
@@ -1433,17 +1717,17 @@
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="13.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="5"/>
+    <col min="2" max="2" width="13.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="5"/>
+    <col min="8" max="8" width="41.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2055,14 +2339,173 @@
       <c r="H25" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="4" width="15.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="5">
+        <v>2</v>
+      </c>
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="5">
+        <v>3</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="5">
+        <v>3</v>
+      </c>
+      <c r="B9" s="5">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="5">
+        <v>3</v>
+      </c>
+      <c r="B10" s="5">
+        <v>3</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
@@ -2072,10 +2515,10 @@
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="5" customFormat="1">
@@ -2715,13 +3158,13 @@
       <c r="H27" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
@@ -2731,9 +3174,9 @@
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="6" max="6" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3727,25 +4170,25 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3790,7 +4233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5">
+    <row r="4" spans="1:4" ht="17.399999999999999">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -3804,7 +4247,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5">
+    <row r="5" spans="1:4" ht="17.399999999999999">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -3818,7 +4261,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5">
+    <row r="6" spans="1:4" ht="17.399999999999999">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -3833,26 +4276,26 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" customWidth="1"/>
+    <col min="5" max="5" width="25.109375" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3959,7 +4402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="15">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -3973,7 +4416,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="15">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -3987,7 +4430,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="15">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -4001,7 +4444,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="15">
       <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
@@ -4015,7 +4458,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="15">
       <c r="A10" s="8" t="s">
         <v>28</v>
       </c>
@@ -4043,7 +4486,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="15">
       <c r="A12" s="2" t="s">
         <v>168</v>
       </c>
@@ -4057,15 +4500,29 @@
         <v>148</v>
       </c>
     </row>
+    <row r="13" spans="1:7" ht="15">
+      <c r="A13" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
@@ -4075,10 +4532,10 @@
       <selection activeCell="A8" sqref="A8:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="32.42578125" customWidth="1"/>
+    <col min="1" max="7" width="15.5546875" customWidth="1"/>
+    <col min="8" max="8" width="32.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="15" customFormat="1">
@@ -4302,30 +4759,30 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" customWidth="1"/>
-    <col min="11" max="12" width="18.7109375" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="15.5546875" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" customWidth="1"/>
+    <col min="11" max="12" width="18.6640625" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="15" customFormat="1">
@@ -4939,11 +5396,11 @@
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" thickBot="1"/>
-    <row r="16" spans="1:15" ht="15.75" thickBot="1">
+    <row r="15" spans="1:15" ht="15" thickBot="1"/>
+    <row r="16" spans="1:15" ht="15" thickBot="1">
       <c r="C16" s="21"/>
     </row>
-    <row r="17" spans="3:13" ht="15.75" thickBot="1">
+    <row r="17" spans="3:13" ht="15" thickBot="1">
       <c r="C17" s="22"/>
       <c r="D17" s="21"/>
       <c r="E17" s="22"/>
@@ -4956,35 +5413,35 @@
       <c r="L17" s="22"/>
       <c r="M17" s="22"/>
     </row>
-    <row r="18" spans="3:13" ht="15.75" thickBot="1">
+    <row r="18" spans="3:13" ht="15" thickBot="1">
       <c r="C18" s="22"/>
     </row>
-    <row r="19" spans="3:13" ht="15.75" thickBot="1">
+    <row r="19" spans="3:13" ht="15" thickBot="1">
       <c r="C19" s="22"/>
     </row>
-    <row r="20" spans="3:13" ht="15.75" thickBot="1">
+    <row r="20" spans="3:13" ht="15" thickBot="1">
       <c r="C20" s="22"/>
     </row>
-    <row r="21" spans="3:13" ht="15.75" thickBot="1">
+    <row r="21" spans="3:13" ht="15" thickBot="1">
       <c r="C21" s="22"/>
     </row>
-    <row r="22" spans="3:13" ht="15.75" thickBot="1">
+    <row r="22" spans="3:13" ht="15" thickBot="1">
       <c r="C22" s="22"/>
     </row>
-    <row r="23" spans="3:13" ht="15.75" thickBot="1">
+    <row r="23" spans="3:13" ht="15" thickBot="1">
       <c r="C23" s="22"/>
     </row>
-    <row r="24" spans="3:13" ht="15.75" thickBot="1">
+    <row r="24" spans="3:13" ht="15" thickBot="1">
       <c r="C24" s="22"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
@@ -4994,9 +5451,9 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="59.5703125" customWidth="1"/>
+    <col min="2" max="2" width="59.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5056,8 +5513,120 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17.399999999999999">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17.399999999999999">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" s="5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17.399999999999999">
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" s="5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17.399999999999999">
+      <c r="A8" s="5">
+        <v>5</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C8" s="5">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="206">
   <si>
     <t>type</t>
   </si>
@@ -1189,6 +1189,10 @@
       </rPr>
       <t/>
     </r>
+  </si>
+  <si>
+    <t>priorStageId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2501,6 +2505,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5524,19 +5529,20 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="15.5546875" customWidth="1"/>
     <col min="3" max="3" width="21.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="16" t="s">
         <v>149</v>
       </c>
@@ -5546,8 +5552,11 @@
       <c r="C1" s="16" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="16" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -5557,8 +5566,11 @@
       <c r="C2" s="18" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="18" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
@@ -5568,8 +5580,11 @@
       <c r="C3" s="20" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -5579,8 +5594,11 @@
       <c r="C4" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="17.399999999999999">
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17.399999999999999">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -5590,8 +5608,11 @@
       <c r="C5" s="5">
         <v>200</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="17.399999999999999">
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17.399999999999999">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -5601,8 +5622,11 @@
       <c r="C6" s="5">
         <v>300</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="17.399999999999999">
+      <c r="D6" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.399999999999999">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -5612,8 +5636,11 @@
       <c r="C7" s="5">
         <v>400</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="17.399999999999999">
+      <c r="D7" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17.399999999999999">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -5622,6 +5649,9 @@
       </c>
       <c r="C8" s="5">
         <v>500</v>
+      </c>
+      <c r="D8" s="5">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ejup\Desktop\td\ExcelToCSV\SrcFolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ejup\Desktop\GameJam\ExcelToCSV\SrcFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="30696" yWindow="3228" windowWidth="24228" windowHeight="13236" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="30696" yWindow="3228" windowWidth="24228" windowHeight="13236" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ObjTable" sheetId="19" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="212">
   <si>
     <t>type</t>
   </si>
@@ -1192,6 +1192,30 @@
   </si>
   <si>
     <t>priorStageId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>all</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unitRarity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unitName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>all</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4531,19 +4555,20 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="7" width="15.5546875" customWidth="1"/>
-    <col min="8" max="8" width="32.44140625" customWidth="1"/>
+    <col min="1" max="8" width="15.5546875" customWidth="1"/>
+    <col min="9" max="9" width="40.21875" customWidth="1"/>
+    <col min="10" max="10" width="32.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="15" customFormat="1">
+    <row r="1" spans="1:10" s="15" customFormat="1">
       <c r="A1" s="16" t="s">
         <v>149</v>
       </c>
@@ -4563,13 +4588,19 @@
         <v>160</v>
       </c>
       <c r="G1" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -4589,13 +4620,19 @@
         <v>158</v>
       </c>
       <c r="G2" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="I2" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="J2" s="19" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10">
       <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
@@ -4615,13 +4652,19 @@
         <v>2</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>211</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="5">
         <v>1001</v>
       </c>
@@ -4640,12 +4683,19 @@
       <c r="F4" s="5">
         <v>2</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="11" t="s">
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+      <c r="H4" s="11" t="str">
+        <f>"name_"&amp;A4</f>
+        <v>name_1001</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="11" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:10">
       <c r="A5" s="5">
         <v>1002</v>
       </c>
@@ -4664,12 +4714,19 @@
       <c r="F5" s="5">
         <v>2</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="11" t="s">
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="11" t="str">
+        <f t="shared" ref="H5:H9" si="0">"name_"&amp;A5</f>
+        <v>name_1002</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="11" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:10">
       <c r="A6" s="5">
         <v>1003</v>
       </c>
@@ -4688,12 +4745,19 @@
       <c r="F6" s="5">
         <v>2</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="11" t="s">
+      <c r="G6" s="5">
+        <v>1</v>
+      </c>
+      <c r="H6" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>name_1003</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="11" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:10">
       <c r="A7" s="5">
         <v>1004</v>
       </c>
@@ -4712,12 +4776,19 @@
       <c r="F7" s="5">
         <v>2</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="11" t="s">
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>name_1004</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="11" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:10">
       <c r="A8" s="5">
         <v>2001</v>
       </c>
@@ -4736,11 +4807,18 @@
       <c r="F8" s="5">
         <v>1</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+      <c r="H8" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>name_2001</v>
+      </c>
+      <c r="J8" s="11" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:10">
       <c r="A9" s="5">
         <v>2002</v>
       </c>
@@ -4759,7 +4837,14 @@
       <c r="F9" s="5">
         <v>1</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="G9" s="5">
+        <v>2</v>
+      </c>
+      <c r="H9" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>name_2002</v>
+      </c>
+      <c r="J9" s="11" t="s">
         <v>180</v>
       </c>
     </row>
@@ -5531,7 +5616,7 @@
   </sheetPr>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevD\TowerDefense\ExcelToCSV\SrcFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9912F0CE-013E-483E-A63F-2238921B5E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7017BEA-57E1-4C81-8B3F-0A796AC6BEFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30690" yWindow="3225" windowWidth="24225" windowHeight="13230" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4470" yWindow="165" windowWidth="24225" windowHeight="13230" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigTable" sheetId="18" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="105">
   <si>
     <t>type</t>
   </si>
@@ -1417,8 +1417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2716,10 +2716,10 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2839,6 +2839,20 @@
       </c>
       <c r="D8" s="5">
         <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.5">
+      <c r="A9" s="5">
+        <v>6</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="5">
+        <v>500</v>
+      </c>
+      <c r="D9" s="5">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevD\TowerDefense\ExcelToCSV\SrcFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7017BEA-57E1-4C81-8B3F-0A796AC6BEFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310B1DA7-4F80-47BB-B822-D62911284676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4470" yWindow="165" windowWidth="24225" windowHeight="13230" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32820" yWindow="1860" windowWidth="24225" windowHeight="13230" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigTable" sheetId="18" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="104">
   <si>
     <t>type</t>
   </si>
@@ -625,20 +625,6 @@
   </si>
   <si>
     <t>rewardType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>eward_type</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1690,10 +1676,10 @@
         <v>53</v>
       </c>
       <c r="G1" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="14" t="s">
         <v>101</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>102</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>46</v>
@@ -1722,10 +1708,10 @@
         <v>51</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I2" s="17" t="s">
         <v>52</v>
@@ -1754,10 +1740,10 @@
         <v>2</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I3" s="18" t="s">
         <v>2</v>
@@ -2718,8 +2704,8 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2734,13 +2720,13 @@
         <v>42</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>90</v>
-      </c>
       <c r="D1" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2748,13 +2734,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2776,7 +2762,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4" s="5">
         <v>100</v>
@@ -2790,7 +2776,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" s="5">
         <v>200</v>
@@ -2804,7 +2790,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6" s="5">
         <v>300</v>
@@ -2818,7 +2804,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" s="5">
         <v>400</v>
@@ -2832,7 +2818,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C8" s="5">
         <v>500</v>
@@ -2846,7 +2832,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C9" s="5">
         <v>500</v>
@@ -2866,8 +2852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2880,13 +2866,13 @@
         <v>42</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>85</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2896,11 +2882,11 @@
       <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>86</v>
+      <c r="C2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevD\TowerDefense\ExcelToCSV\SrcFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310B1DA7-4F80-47BB-B822-D62911284676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DB18EB-4602-481E-9307-42A4317B084E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32820" yWindow="1860" windowWidth="24225" windowHeight="13230" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2955" yWindow="885" windowWidth="24210" windowHeight="13215" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigTable" sheetId="18" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="107">
   <si>
     <t>type</t>
   </si>
@@ -788,6 +788,16 @@
   <si>
     <t>all</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage/Stage01.prefab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage/Stage02.prefab</t>
+  </si>
+  <si>
+    <t>Stage/Stage03.prefab</t>
   </si>
 </sst>
 </file>
@@ -1949,8 +1959,8 @@
   </sheetPr>
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J11:N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2626,7 +2636,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B1" sqref="B1:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2702,10 +2712,10 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2713,9 +2723,10 @@
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="3" max="3" width="21.5703125" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="14" t="s">
         <v>42</v>
       </c>
@@ -2728,8 +2739,11 @@
       <c r="D1" s="14" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -2742,8 +2756,11 @@
       <c r="D2" s="16" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
@@ -2756,8 +2773,11 @@
       <c r="D3" s="18" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -2770,8 +2790,11 @@
       <c r="D4" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.5">
+      <c r="E4" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -2784,8 +2807,11 @@
       <c r="D5" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="16.5">
+      <c r="E5" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -2798,8 +2824,11 @@
       <c r="D6" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="16.5">
+      <c r="E6" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -2812,8 +2841,11 @@
       <c r="D7" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="16.5">
+      <c r="E7" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.5">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -2826,8 +2858,11 @@
       <c r="D8" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="16.5">
+      <c r="E8" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.5">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -2839,6 +2874,9 @@
       </c>
       <c r="D9" s="5">
         <v>5</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2852,7 +2890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevD\TowerDefense\ExcelToCSV\SrcFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DB18EB-4602-481E-9307-42A4317B084E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E7A8D3-1A3E-46FD-BCF1-C04B8DD81C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2955" yWindow="885" windowWidth="24210" windowHeight="13215" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31605" yWindow="3180" windowWidth="24210" windowHeight="13215" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigTable" sheetId="18" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="105">
   <si>
     <t>type</t>
   </si>
@@ -792,12 +792,6 @@
   <si>
     <t>Stage/Stage01.prefab</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stage/Stage02.prefab</t>
-  </si>
-  <si>
-    <t>Stage/Stage03.prefab</t>
   </si>
 </sst>
 </file>
@@ -2715,7 +2709,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2808,7 +2802,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5">
@@ -2825,7 +2819,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5">
@@ -2859,7 +2853,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5">
@@ -2876,7 +2870,7 @@
         <v>5</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevD\TowerDefense\ExcelToCSV\SrcFolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ejup\Desktop\GameJam\ExcelToCSV\SrcFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E7A8D3-1A3E-46FD-BCF1-C04B8DD81C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31605" yWindow="3180" windowWidth="24210" windowHeight="13215" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31608" yWindow="3180" windowWidth="24216" windowHeight="13212" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigTable" sheetId="18" r:id="rId1"/>
@@ -39,12 +38,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ejup</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -85,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="104">
   <si>
     <t>type</t>
   </si>
@@ -491,10 +490,6 @@
   </si>
   <si>
     <t>Projectile/ProjectileStraight.prefab</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Projectile/ProjectileBezier.prefab</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -797,7 +792,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12">
     <font>
       <sz val="11"/>
@@ -1298,18 +1293,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1354,7 +1349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5">
+    <row r="4" spans="1:4" ht="17.399999999999999">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -1368,7 +1363,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5">
+    <row r="5" spans="1:4" ht="17.399999999999999">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1382,7 +1377,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5">
+    <row r="6" spans="1:4" ht="17.399999999999999">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1404,19 +1399,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" customWidth="1"/>
+    <col min="5" max="5" width="25.109375" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1523,7 +1518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="15">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1537,7 +1532,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="15">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1551,7 +1546,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="15">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -1565,7 +1560,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="15">
       <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
@@ -1579,7 +1574,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="15">
       <c r="A10" s="8" t="s">
         <v>28</v>
       </c>
@@ -1607,7 +1602,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="15">
       <c r="A12" s="2" t="s">
         <v>61</v>
       </c>
@@ -1621,18 +1616,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="15">
       <c r="A13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="C13" s="4">
         <v>0</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1643,21 +1638,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="I23" sqref="G23:I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="8" width="15.5703125" customWidth="1"/>
-    <col min="9" max="9" width="40.28515625" customWidth="1"/>
-    <col min="10" max="10" width="32.42578125" customWidth="1"/>
+    <col min="1" max="8" width="15.5546875" customWidth="1"/>
+    <col min="9" max="9" width="40.33203125" customWidth="1"/>
+    <col min="10" max="10" width="32.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="13" customFormat="1">
@@ -1680,10 +1675,10 @@
         <v>53</v>
       </c>
       <c r="G1" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" s="14" t="s">
         <v>100</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>101</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>46</v>
@@ -1712,10 +1707,10 @@
         <v>51</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I2" s="17" t="s">
         <v>52</v>
@@ -1744,10 +1739,10 @@
         <v>2</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I3" s="18" t="s">
         <v>2</v>
@@ -1784,7 +1779,7 @@
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1815,7 +1810,7 @@
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1846,7 +1841,7 @@
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1877,7 +1872,7 @@
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1907,7 +1902,7 @@
         <v>name_2001</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1937,7 +1932,7 @@
         <v>name_2002</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1947,24 +1942,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J11:N12"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" customWidth="1"/>
-    <col min="11" max="12" width="18.7109375" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="15.5546875" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" customWidth="1"/>
+    <col min="11" max="12" width="18.6640625" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="13" customFormat="1">
@@ -1993,7 +1988,7 @@
         <v>60</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J1" s="14" t="s">
         <v>62</v>
@@ -2002,16 +1997,16 @@
         <v>63</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" s="14" t="s">
         <v>77</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -2152,7 +2147,7 @@
         <v>3</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -2199,7 +2194,7 @@
         <v>3</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -2246,7 +2241,7 @@
         <v>3</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -2293,7 +2288,7 @@
         <v>3</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -2340,7 +2335,7 @@
         <v>3</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -2387,7 +2382,7 @@
         <v>3</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -2434,7 +2429,7 @@
         <v>3</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -2481,7 +2476,7 @@
         <v>3</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -2528,7 +2523,7 @@
         <v>3</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -2575,14 +2570,14 @@
         <v>3</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="15.75" thickBot="1"/>
-    <row r="16" spans="1:15" ht="15.75" thickBot="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15" thickBot="1"/>
+    <row r="16" spans="1:15" ht="15" thickBot="1">
       <c r="C16" s="19"/>
     </row>
-    <row r="17" spans="3:13" ht="15.75" thickBot="1">
+    <row r="17" spans="3:13" ht="15" thickBot="1">
       <c r="C17" s="20"/>
       <c r="D17" s="19"/>
       <c r="E17" s="20"/>
@@ -2595,25 +2590,25 @@
       <c r="L17" s="20"/>
       <c r="M17" s="20"/>
     </row>
-    <row r="18" spans="3:13" ht="15.75" thickBot="1">
+    <row r="18" spans="3:13" ht="15" thickBot="1">
       <c r="C18" s="20"/>
     </row>
-    <row r="19" spans="3:13" ht="15.75" thickBot="1">
+    <row r="19" spans="3:13" ht="15" thickBot="1">
       <c r="C19" s="20"/>
     </row>
-    <row r="20" spans="3:13" ht="15.75" thickBot="1">
+    <row r="20" spans="3:13" ht="15" thickBot="1">
       <c r="C20" s="20"/>
     </row>
-    <row r="21" spans="3:13" ht="15.75" thickBot="1">
+    <row r="21" spans="3:13" ht="15" thickBot="1">
       <c r="C21" s="20"/>
     </row>
-    <row r="22" spans="3:13" ht="15.75" thickBot="1">
+    <row r="22" spans="3:13" ht="15" thickBot="1">
       <c r="C22" s="20"/>
     </row>
-    <row r="23" spans="3:13" ht="15.75" thickBot="1">
+    <row r="23" spans="3:13" ht="15" thickBot="1">
       <c r="C23" s="20"/>
     </row>
-    <row r="24" spans="3:13" ht="15.75" thickBot="1">
+    <row r="24" spans="3:13" ht="15" thickBot="1">
       <c r="C24" s="20"/>
     </row>
   </sheetData>
@@ -2623,19 +2618,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="59.5703125" customWidth="1"/>
+    <col min="2" max="2" width="59.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2675,7 +2670,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2683,7 +2678,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2691,7 +2686,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2702,21 +2697,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2725,13 +2720,13 @@
         <v>42</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>89</v>
-      </c>
       <c r="D1" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>47</v>
@@ -2742,13 +2737,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>3</v>
@@ -2776,7 +2771,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" s="5">
         <v>100</v>
@@ -2785,15 +2780,15 @@
         <v>0</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.5">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17.399999999999999">
       <c r="A5" s="5">
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" s="5">
         <v>200</v>
@@ -2802,15 +2797,15 @@
         <v>1</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.5">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17.399999999999999">
       <c r="A6" s="5">
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="5">
         <v>300</v>
@@ -2819,15 +2814,15 @@
         <v>2</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.5">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17.399999999999999">
       <c r="A7" s="5">
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C7" s="5">
         <v>400</v>
@@ -2836,15 +2831,15 @@
         <v>3</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="16.5">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17.399999999999999">
       <c r="A8" s="5">
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C8" s="5">
         <v>500</v>
@@ -2853,15 +2848,15 @@
         <v>4</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="16.5">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17.399999999999999">
       <c r="A9" s="5">
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" s="5">
         <v>500</v>
@@ -2870,7 +2865,7 @@
         <v>5</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2881,16 +2876,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="4" width="15.42578125" customWidth="1"/>
+    <col min="3" max="4" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2898,13 +2893,13 @@
         <v>42</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>85</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:4">

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ejup\Desktop\GameJam\ExcelToCSV\SrcFolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이지협\Desktop\df\ExcelToCSV\SrcFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1F1AFC-58A3-4D53-BB33-2EAC0007CEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31608" yWindow="3180" windowWidth="24216" windowHeight="13212" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigTable" sheetId="18" r:id="rId1"/>
@@ -38,12 +39,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ejup</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -84,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="106">
   <si>
     <t>type</t>
   </si>
@@ -788,11 +789,19 @@
     <t>Stage/Stage01.prefab</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>SummonCnt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit/Hero/03_Skeleton_Sword.prefab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12">
     <font>
       <sz val="11"/>
@@ -926,7 +935,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -979,6 +988,21 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1293,18 +1317,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1349,7 +1373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17.399999999999999">
+    <row r="4" spans="1:4" ht="16.5">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -1363,7 +1387,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17.399999999999999">
+    <row r="5" spans="1:4" ht="16.5">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1377,7 +1401,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17.399999999999999">
+    <row r="6" spans="1:4" ht="16.5">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1399,19 +1423,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" customWidth="1"/>
-    <col min="5" max="5" width="25.109375" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1518,7 +1542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1532,7 +1556,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,7 +1570,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15">
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -1560,7 +1584,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15">
+    <row r="9" spans="1:7">
       <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
@@ -1574,7 +1598,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15">
+    <row r="10" spans="1:7">
       <c r="A10" s="8" t="s">
         <v>28</v>
       </c>
@@ -1602,7 +1626,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15">
+    <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
         <v>61</v>
       </c>
@@ -1616,7 +1640,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15">
+    <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
         <v>81</v>
       </c>
@@ -1638,21 +1662,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="G23:I25"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="8" width="15.5546875" customWidth="1"/>
-    <col min="9" max="9" width="40.33203125" customWidth="1"/>
-    <col min="10" max="10" width="32.44140625" customWidth="1"/>
+    <col min="1" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="40.28515625" customWidth="1"/>
+    <col min="10" max="10" width="32.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="13" customFormat="1">
@@ -1805,7 +1829,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="9" t="str">
-        <f t="shared" ref="H5:H9" si="0">"name_"&amp;A5</f>
+        <f t="shared" ref="H5:H10" si="0">"name_"&amp;A5</f>
         <v>name_1002</v>
       </c>
       <c r="I5" s="5"/>
@@ -1933,6 +1957,36 @@
       </c>
       <c r="J9" s="9" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="5">
+        <v>2003</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>30</v>
+      </c>
+      <c r="D10" s="5">
+        <v>4</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+      <c r="H10" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>name_2003</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1942,27 +1996,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="9" width="15.5546875" customWidth="1"/>
-    <col min="10" max="10" width="18.109375" customWidth="1"/>
-    <col min="11" max="12" width="18.6640625" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" customWidth="1"/>
+    <col min="11" max="12" width="18.7109375" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27" customWidth="1"/>
+    <col min="16" max="16" width="19.28515625" style="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="13" customFormat="1">
+    <row r="1" spans="1:16" s="13" customFormat="1">
       <c r="A1" s="14" t="s">
         <v>42</v>
       </c>
@@ -2006,10 +2061,13 @@
         <v>75</v>
       </c>
       <c r="O1" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="P1" s="21" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -2052,11 +2110,12 @@
       <c r="N2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="O2" s="15"/>
+      <c r="P2" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
@@ -2099,11 +2158,12 @@
       <c r="N3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="O3" s="18"/>
+      <c r="P3" s="23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -2146,11 +2206,14 @@
       <c r="N4" s="5">
         <v>3</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="5">
+        <v>1</v>
+      </c>
+      <c r="P4" s="24" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -2193,11 +2256,14 @@
       <c r="N5" s="5">
         <v>3</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="O5" s="5">
+        <v>1</v>
+      </c>
+      <c r="P5" s="24" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -2240,11 +2306,14 @@
       <c r="N6" s="5">
         <v>3</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="O6" s="5">
+        <v>1</v>
+      </c>
+      <c r="P6" s="24" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:16">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -2287,11 +2356,14 @@
       <c r="N7" s="5">
         <v>3</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="O7" s="5">
+        <v>1</v>
+      </c>
+      <c r="P7" s="24" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -2334,11 +2406,14 @@
       <c r="N8" s="5">
         <v>3</v>
       </c>
-      <c r="O8" s="9" t="s">
+      <c r="O8" s="5">
+        <v>1</v>
+      </c>
+      <c r="P8" s="24" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:16">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -2381,11 +2456,14 @@
       <c r="N9" s="5">
         <v>3</v>
       </c>
-      <c r="O9" s="9" t="s">
+      <c r="O9" s="5">
+        <v>1</v>
+      </c>
+      <c r="P9" s="24" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:16">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -2428,11 +2506,14 @@
       <c r="N10" s="5">
         <v>3</v>
       </c>
-      <c r="O10" s="9" t="s">
+      <c r="O10" s="5">
+        <v>1</v>
+      </c>
+      <c r="P10" s="24" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:16">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -2475,11 +2556,14 @@
       <c r="N11" s="5">
         <v>3</v>
       </c>
-      <c r="O11" s="9" t="s">
+      <c r="O11" s="5">
+        <v>3</v>
+      </c>
+      <c r="P11" s="24" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:16">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -2522,11 +2606,14 @@
       <c r="N12" s="5">
         <v>3</v>
       </c>
-      <c r="O12" s="9" t="s">
+      <c r="O12" s="5">
+        <v>5</v>
+      </c>
+      <c r="P12" s="24" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:16">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -2569,15 +2656,68 @@
       <c r="N13" s="5">
         <v>3</v>
       </c>
-      <c r="O13" s="9" t="s">
+      <c r="O13" s="5">
+        <v>3</v>
+      </c>
+      <c r="P13" s="24" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15" thickBot="1"/>
-    <row r="16" spans="1:15" ht="15" thickBot="1">
+    <row r="14" spans="1:16">
+      <c r="A14" s="5">
+        <v>11</v>
+      </c>
+      <c r="B14" s="5">
+        <v>2003</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
+        <v>300</v>
+      </c>
+      <c r="E14" s="5">
+        <v>10</v>
+      </c>
+      <c r="F14" s="5">
+        <v>5</v>
+      </c>
+      <c r="G14" s="5">
+        <v>80</v>
+      </c>
+      <c r="H14" s="5">
+        <v>5</v>
+      </c>
+      <c r="I14" s="5">
+        <v>5</v>
+      </c>
+      <c r="J14" s="5">
+        <v>1</v>
+      </c>
+      <c r="K14" s="5">
+        <v>30</v>
+      </c>
+      <c r="L14" s="5">
+        <v>2</v>
+      </c>
+      <c r="M14" s="5">
+        <v>1</v>
+      </c>
+      <c r="N14" s="5">
+        <v>3</v>
+      </c>
+      <c r="O14" s="5">
+        <v>10</v>
+      </c>
+      <c r="P14" s="24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" thickBot="1"/>
+    <row r="16" spans="1:16" ht="15.75" thickBot="1">
       <c r="C16" s="19"/>
     </row>
-    <row r="17" spans="3:13" ht="15" thickBot="1">
+    <row r="17" spans="3:13" ht="15.75" thickBot="1">
       <c r="C17" s="20"/>
       <c r="D17" s="19"/>
       <c r="E17" s="20"/>
@@ -2590,25 +2730,25 @@
       <c r="L17" s="20"/>
       <c r="M17" s="20"/>
     </row>
-    <row r="18" spans="3:13" ht="15" thickBot="1">
+    <row r="18" spans="3:13" ht="15.75" thickBot="1">
       <c r="C18" s="20"/>
     </row>
-    <row r="19" spans="3:13" ht="15" thickBot="1">
+    <row r="19" spans="3:13" ht="15.75" thickBot="1">
       <c r="C19" s="20"/>
     </row>
-    <row r="20" spans="3:13" ht="15" thickBot="1">
+    <row r="20" spans="3:13" ht="15.75" thickBot="1">
       <c r="C20" s="20"/>
     </row>
-    <row r="21" spans="3:13" ht="15" thickBot="1">
+    <row r="21" spans="3:13" ht="15.75" thickBot="1">
       <c r="C21" s="20"/>
     </row>
-    <row r="22" spans="3:13" ht="15" thickBot="1">
+    <row r="22" spans="3:13" ht="15.75" thickBot="1">
       <c r="C22" s="20"/>
     </row>
-    <row r="23" spans="3:13" ht="15" thickBot="1">
+    <row r="23" spans="3:13" ht="15.75" thickBot="1">
       <c r="C23" s="20"/>
     </row>
-    <row r="24" spans="3:13" ht="15" thickBot="1">
+    <row r="24" spans="3:13" ht="15.75" thickBot="1">
       <c r="C24" s="20"/>
     </row>
   </sheetData>
@@ -2618,19 +2758,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="59.5546875" customWidth="1"/>
+    <col min="2" max="2" width="59.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2697,21 +2837,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="15.5546875" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2783,7 +2923,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="17.399999999999999">
+    <row r="5" spans="1:5" ht="16.5">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -2800,7 +2940,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="17.399999999999999">
+    <row r="6" spans="1:5" ht="16.5">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -2817,7 +2957,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17.399999999999999">
+    <row r="7" spans="1:5" ht="16.5">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -2834,7 +2974,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="17.399999999999999">
+    <row r="8" spans="1:5" ht="16.5">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -2851,7 +2991,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="17.399999999999999">
+    <row r="9" spans="1:5" ht="16.5">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -2876,16 +3016,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O27" sqref="O26:O27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="4" width="15.44140625" customWidth="1"/>
+    <col min="3" max="4" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이지협\Desktop\df\ExcelToCSV\SrcFolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ejup\Desktop\GameJam\ExcelToCSV\SrcFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1F1AFC-58A3-4D53-BB33-2EAC0007CEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigTable" sheetId="18" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <sheet name="StageInfo" sheetId="26" r:id="rId6"/>
     <sheet name="StageRewardInfo" sheetId="27" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -39,12 +38,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ejup</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -85,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="108">
   <si>
     <t>type</t>
   </si>
@@ -797,11 +796,19 @@
     <t>Unit/Hero/03_Skeleton_Sword.prefab</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Projectile/04_Skeleton_Archer_Bullet.prefab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit/Hero/04_Skeleton_Archer.prefab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12">
     <font>
       <sz val="11"/>
@@ -1317,18 +1324,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1373,7 +1380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5">
+    <row r="4" spans="1:4" ht="17.399999999999999">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -1387,7 +1394,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5">
+    <row r="5" spans="1:4" ht="17.399999999999999">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1401,7 +1408,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5">
+    <row r="6" spans="1:4" ht="17.399999999999999">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1423,19 +1430,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" customWidth="1"/>
+    <col min="5" max="5" width="25.109375" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1542,7 +1549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="15">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1556,7 +1563,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="15">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1570,7 +1577,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="15">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -1584,7 +1591,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="15">
       <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
@@ -1598,7 +1605,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="15">
       <c r="A10" s="8" t="s">
         <v>28</v>
       </c>
@@ -1626,7 +1633,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="15">
       <c r="A12" s="2" t="s">
         <v>61</v>
       </c>
@@ -1640,7 +1647,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="15">
       <c r="A13" s="2" t="s">
         <v>81</v>
       </c>
@@ -1662,21 +1669,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="8" width="15.5703125" customWidth="1"/>
-    <col min="9" max="9" width="40.28515625" customWidth="1"/>
-    <col min="10" max="10" width="32.42578125" customWidth="1"/>
+    <col min="1" max="8" width="15.5546875" customWidth="1"/>
+    <col min="9" max="9" width="40.33203125" customWidth="1"/>
+    <col min="10" max="10" width="32.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="13" customFormat="1">
@@ -1987,6 +1994,36 @@
       </c>
       <c r="J10" s="9" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="5">
+        <v>2004</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
+        <v>100</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5">
+        <v>2</v>
+      </c>
+      <c r="H11" s="9" t="str">
+        <f t="shared" ref="H11" si="1">"name_"&amp;A11</f>
+        <v>name_2004</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1996,25 +2033,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" customWidth="1"/>
-    <col min="11" max="12" width="18.7109375" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="15.5546875" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" customWidth="1"/>
+    <col min="11" max="12" width="18.6640625" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="27" customWidth="1"/>
-    <col min="16" max="16" width="19.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.33203125" style="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="13" customFormat="1">
@@ -2683,7 +2720,7 @@
         <v>5</v>
       </c>
       <c r="G14" s="5">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="H14" s="5">
         <v>5</v>
@@ -2713,11 +2750,60 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.75" thickBot="1"/>
-    <row r="16" spans="1:16" ht="15.75" thickBot="1">
+    <row r="15" spans="1:16" ht="15" thickBot="1">
+      <c r="A15" s="5">
+        <v>12</v>
+      </c>
+      <c r="B15" s="5">
+        <v>2004</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5">
+        <v>300</v>
+      </c>
+      <c r="E15" s="5">
+        <v>10</v>
+      </c>
+      <c r="F15" s="5">
+        <v>5</v>
+      </c>
+      <c r="G15" s="5">
+        <v>80</v>
+      </c>
+      <c r="H15" s="5">
+        <v>5</v>
+      </c>
+      <c r="I15" s="5">
+        <v>5</v>
+      </c>
+      <c r="J15" s="5">
+        <v>1</v>
+      </c>
+      <c r="K15" s="5">
+        <v>30</v>
+      </c>
+      <c r="L15" s="5">
+        <v>3</v>
+      </c>
+      <c r="M15" s="5">
+        <v>1</v>
+      </c>
+      <c r="N15" s="5">
+        <v>3</v>
+      </c>
+      <c r="O15" s="5">
+        <v>3</v>
+      </c>
+      <c r="P15" s="24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15" thickBot="1">
       <c r="C16" s="19"/>
     </row>
-    <row r="17" spans="3:13" ht="15.75" thickBot="1">
+    <row r="17" spans="3:13" ht="15" thickBot="1">
       <c r="C17" s="20"/>
       <c r="D17" s="19"/>
       <c r="E17" s="20"/>
@@ -2730,25 +2816,25 @@
       <c r="L17" s="20"/>
       <c r="M17" s="20"/>
     </row>
-    <row r="18" spans="3:13" ht="15.75" thickBot="1">
+    <row r="18" spans="3:13" ht="15" thickBot="1">
       <c r="C18" s="20"/>
     </row>
-    <row r="19" spans="3:13" ht="15.75" thickBot="1">
+    <row r="19" spans="3:13" ht="15" thickBot="1">
       <c r="C19" s="20"/>
     </row>
-    <row r="20" spans="3:13" ht="15.75" thickBot="1">
+    <row r="20" spans="3:13" ht="15" thickBot="1">
       <c r="C20" s="20"/>
     </row>
-    <row r="21" spans="3:13" ht="15.75" thickBot="1">
+    <row r="21" spans="3:13" ht="15" thickBot="1">
       <c r="C21" s="20"/>
     </row>
-    <row r="22" spans="3:13" ht="15.75" thickBot="1">
+    <row r="22" spans="3:13" ht="15" thickBot="1">
       <c r="C22" s="20"/>
     </row>
-    <row r="23" spans="3:13" ht="15.75" thickBot="1">
+    <row r="23" spans="3:13" ht="15" thickBot="1">
       <c r="C23" s="20"/>
     </row>
-    <row r="24" spans="3:13" ht="15.75" thickBot="1">
+    <row r="24" spans="3:13" ht="15" thickBot="1">
       <c r="C24" s="20"/>
     </row>
   </sheetData>
@@ -2758,19 +2844,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="59.5703125" customWidth="1"/>
+    <col min="2" max="2" width="59.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2826,7 +2912,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2837,7 +2923,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
@@ -2847,11 +2933,11 @@
       <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2923,7 +3009,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.5">
+    <row r="5" spans="1:5" ht="17.399999999999999">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -2940,7 +3026,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.5">
+    <row r="6" spans="1:5" ht="17.399999999999999">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -2957,7 +3043,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.5">
+    <row r="7" spans="1:5" ht="17.399999999999999">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -2974,7 +3060,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.5">
+    <row r="8" spans="1:5" ht="17.399999999999999">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -2991,7 +3077,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.5">
+    <row r="9" spans="1:5" ht="17.399999999999999">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -3016,16 +3102,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O27" sqref="O26:O27"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="4" width="15.42578125" customWidth="1"/>
+    <col min="3" max="4" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigTable" sheetId="18" r:id="rId1"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="109">
   <si>
     <t>type</t>
   </si>
@@ -802,6 +802,10 @@
   </si>
   <si>
     <t>Unit/Hero/04_Skeleton_Archer.prefab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit/Hero/05_Ice_Golem.prefab</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -942,7 +946,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1010,6 +1014,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1673,10 +1680,10 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2019,11 +2026,41 @@
         <v>2</v>
       </c>
       <c r="H11" s="9" t="str">
-        <f t="shared" ref="H11" si="1">"name_"&amp;A11</f>
+        <f t="shared" ref="H11:H12" si="1">"name_"&amp;A11</f>
         <v>name_2004</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="5">
+        <v>2005</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5">
+        <v>30</v>
+      </c>
+      <c r="D12" s="5">
+        <v>4</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1</v>
+      </c>
+      <c r="H12" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>name_2005</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2039,8 +2076,8 @@
   </sheetPr>
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2801,7 +2838,54 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="15" thickBot="1">
-      <c r="C16" s="19"/>
+      <c r="A16" s="5">
+        <v>13</v>
+      </c>
+      <c r="B16" s="5">
+        <v>2005</v>
+      </c>
+      <c r="C16" s="26">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5">
+        <v>300</v>
+      </c>
+      <c r="E16" s="5">
+        <v>10</v>
+      </c>
+      <c r="F16" s="5">
+        <v>5</v>
+      </c>
+      <c r="G16" s="5">
+        <v>8</v>
+      </c>
+      <c r="H16" s="5">
+        <v>5</v>
+      </c>
+      <c r="I16" s="5">
+        <v>5</v>
+      </c>
+      <c r="J16" s="5">
+        <v>1</v>
+      </c>
+      <c r="K16" s="5">
+        <v>30</v>
+      </c>
+      <c r="L16" s="5">
+        <v>2</v>
+      </c>
+      <c r="M16" s="5">
+        <v>1</v>
+      </c>
+      <c r="N16" s="5">
+        <v>3</v>
+      </c>
+      <c r="O16" s="5">
+        <v>1</v>
+      </c>
+      <c r="P16" s="24" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="17" spans="3:13" ht="15" thickBot="1">
       <c r="C17" s="20"/>
@@ -3105,7 +3189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="110">
   <si>
     <t>type</t>
   </si>
@@ -805,7 +805,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Unit/Hero/05_Ice_Golem.prefab</t>
+    <t>Projectile/05_Skeleton_Witch_Bullet.prefab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit/Hero/05_Skeleton_Witch.prefab</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1683,7 +1687,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2038,13 +2042,13 @@
         <v>2005</v>
       </c>
       <c r="B12" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="5">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D12" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E12" s="5">
         <v>1</v>
@@ -2053,14 +2057,14 @@
         <v>1</v>
       </c>
       <c r="G12" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" s="9" t="str">
         <f t="shared" si="1"/>
         <v>name_2005</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2077,7 +2081,7 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2857,7 +2861,7 @@
         <v>5</v>
       </c>
       <c r="G16" s="5">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="H16" s="5">
         <v>5</v>
@@ -2872,7 +2876,7 @@
         <v>30</v>
       </c>
       <c r="L16" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M16" s="5">
         <v>1</v>
@@ -2932,10 +2936,10 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2997,6 +3001,14 @@
       </c>
       <c r="B7" s="9" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="5">
+        <v>4</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3014,7 +3026,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ejup\Desktop\GameJam\ExcelToCSV\SrcFolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이지협\Desktop\df\ExcelToCSV\SrcFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EBBF24-77C1-4F20-A033-03DA71B3534D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigTable" sheetId="18" r:id="rId1"/>
@@ -19,8 +20,9 @@
     <sheet name="ProjectileInfo" sheetId="24" r:id="rId5"/>
     <sheet name="StageInfo" sheetId="26" r:id="rId6"/>
     <sheet name="StageRewardInfo" sheetId="27" r:id="rId7"/>
+    <sheet name="GachaList" sheetId="28" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,12 +40,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ejup</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -84,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="112">
   <si>
     <t>type</t>
   </si>
@@ -812,11 +814,19 @@
     <t>Unit/Hero/05_Skeleton_Witch.prefab</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12">
     <font>
       <sz val="11"/>
@@ -1335,18 +1345,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1391,7 +1401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17.399999999999999">
+    <row r="4" spans="1:4" ht="16.5">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -1405,7 +1415,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17.399999999999999">
+    <row r="5" spans="1:4" ht="16.5">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1419,7 +1429,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17.399999999999999">
+    <row r="6" spans="1:4" ht="16.5">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1441,19 +1451,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" customWidth="1"/>
-    <col min="5" max="5" width="25.109375" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1560,7 +1570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1574,7 +1584,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1588,7 +1598,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15">
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -1602,7 +1612,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15">
+    <row r="9" spans="1:7">
       <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
@@ -1616,7 +1626,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15">
+    <row r="10" spans="1:7">
       <c r="A10" s="8" t="s">
         <v>28</v>
       </c>
@@ -1644,7 +1654,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15">
+    <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
         <v>61</v>
       </c>
@@ -1658,7 +1668,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15">
+    <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
         <v>81</v>
       </c>
@@ -1680,7 +1690,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
@@ -1690,11 +1700,11 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="8" width="15.5546875" customWidth="1"/>
-    <col min="9" max="9" width="40.33203125" customWidth="1"/>
-    <col min="10" max="10" width="32.44140625" customWidth="1"/>
+    <col min="1" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="40.28515625" customWidth="1"/>
+    <col min="10" max="10" width="32.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="13" customFormat="1">
@@ -2074,25 +2084,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="9" width="15.5546875" customWidth="1"/>
-    <col min="10" max="10" width="18.109375" customWidth="1"/>
-    <col min="11" max="12" width="18.6640625" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" customWidth="1"/>
+    <col min="11" max="12" width="18.7109375" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="27" customWidth="1"/>
-    <col min="16" max="16" width="19.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.28515625" style="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="13" customFormat="1">
@@ -2791,7 +2801,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15" thickBot="1">
+    <row r="15" spans="1:16" ht="15.75" thickBot="1">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -2841,7 +2851,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15" thickBot="1">
+    <row r="16" spans="1:16" ht="15.75" thickBot="1">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -2891,7 +2901,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="3:13" ht="15" thickBot="1">
+    <row r="17" spans="3:13" ht="15.75" thickBot="1">
       <c r="C17" s="20"/>
       <c r="D17" s="19"/>
       <c r="E17" s="20"/>
@@ -2904,25 +2914,25 @@
       <c r="L17" s="20"/>
       <c r="M17" s="20"/>
     </row>
-    <row r="18" spans="3:13" ht="15" thickBot="1">
+    <row r="18" spans="3:13" ht="15.75" thickBot="1">
       <c r="C18" s="20"/>
     </row>
-    <row r="19" spans="3:13" ht="15" thickBot="1">
+    <row r="19" spans="3:13" ht="15.75" thickBot="1">
       <c r="C19" s="20"/>
     </row>
-    <row r="20" spans="3:13" ht="15" thickBot="1">
+    <row r="20" spans="3:13" ht="15.75" thickBot="1">
       <c r="C20" s="20"/>
     </row>
-    <row r="21" spans="3:13" ht="15" thickBot="1">
+    <row r="21" spans="3:13" ht="15.75" thickBot="1">
       <c r="C21" s="20"/>
     </row>
-    <row r="22" spans="3:13" ht="15" thickBot="1">
+    <row r="22" spans="3:13" ht="15.75" thickBot="1">
       <c r="C22" s="20"/>
     </row>
-    <row r="23" spans="3:13" ht="15" thickBot="1">
+    <row r="23" spans="3:13" ht="15.75" thickBot="1">
       <c r="C23" s="20"/>
     </row>
-    <row r="24" spans="3:13" ht="15" thickBot="1">
+    <row r="24" spans="3:13" ht="15.75" thickBot="1">
       <c r="C24" s="20"/>
     </row>
   </sheetData>
@@ -2932,7 +2942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
@@ -2942,9 +2952,9 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="59.5546875" customWidth="1"/>
+    <col min="2" max="2" width="59.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3019,21 +3029,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="15.5546875" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3105,7 +3115,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="17.399999999999999">
+    <row r="5" spans="1:5" ht="16.5">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -3122,7 +3132,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="17.399999999999999">
+    <row r="6" spans="1:5" ht="16.5">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -3139,7 +3149,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17.399999999999999">
+    <row r="7" spans="1:5" ht="16.5">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -3156,7 +3166,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="17.399999999999999">
+    <row r="8" spans="1:5" ht="16.5">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -3173,7 +3183,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="17.399999999999999">
+    <row r="9" spans="1:5" ht="16.5">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -3198,16 +3208,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="4" width="15.44140625" customWidth="1"/>
+    <col min="3" max="4" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3355,4 +3365,206 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A188DE49-311E-456C-97A0-C1108F625CC5}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y8" sqref="Y8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2001</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5">
+        <v>2002</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2003</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5">
+        <v>2004</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5">
+        <v>2005</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5">
+        <v>2001</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5">
+        <v>2002</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2</v>
+      </c>
+      <c r="D10" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5">
+        <v>2003</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="5">
+        <v>2004</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2</v>
+      </c>
+      <c r="D12" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="5">
+        <v>2005</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2</v>
+      </c>
+      <c r="D13" s="5">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이지협\Desktop\df\ExcelToCSV\SrcFolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevD\TowerDefense\ExcelToCSV\SrcFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EBBF24-77C1-4F20-A033-03DA71B3534D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B2CA3F-D783-46D6-B3CD-8CE9C9843C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33240" yWindow="3885" windowWidth="24210" windowHeight="13215" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigTable" sheetId="18" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="112">
   <si>
     <t>type</t>
   </si>
@@ -2090,8 +2090,8 @@
   </sheetPr>
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2198,7 +2198,9 @@
       <c r="N2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="15"/>
+      <c r="O2" s="15" t="s">
+        <v>1</v>
+      </c>
       <c r="P2" s="22" t="s">
         <v>3</v>
       </c>
@@ -2246,7 +2248,9 @@
       <c r="N3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="18"/>
+      <c r="O3" s="18" t="s">
+        <v>2</v>
+      </c>
       <c r="P3" s="23" t="s">
         <v>2</v>
       </c>
@@ -3211,8 +3215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T31" sqref="T31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevD\TowerDefense\ExcelToCSV\SrcFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B2CA3F-D783-46D6-B3CD-8CE9C9843C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2509719-478A-49B5-8736-24C9F7D4C556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33240" yWindow="3885" windowWidth="24210" windowHeight="13215" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32130" yWindow="2760" windowWidth="24210" windowHeight="13950" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigTable" sheetId="18" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="116">
   <si>
     <t>type</t>
   </si>
@@ -821,6 +821,19 @@
   <si>
     <t>weight</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>barrack</t>
+  </si>
+  <si>
+    <t>boat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>builder_hut</t>
+  </si>
+  <si>
+    <t>camp</t>
   </si>
 </sst>
 </file>
@@ -1696,8 +1709,8 @@
   </sheetPr>
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1829,7 +1842,9 @@
         <f>"name_"&amp;A4</f>
         <v>name_1001</v>
       </c>
-      <c r="I4" s="5"/>
+      <c r="I4" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="J4" s="9" t="s">
         <v>67</v>
       </c>
@@ -1860,7 +1875,9 @@
         <f t="shared" ref="H5:H10" si="0">"name_"&amp;A5</f>
         <v>name_1002</v>
       </c>
-      <c r="I5" s="5"/>
+      <c r="I5" s="9" t="s">
+        <v>113</v>
+      </c>
       <c r="J5" s="9" t="s">
         <v>68</v>
       </c>
@@ -1891,7 +1908,9 @@
         <f t="shared" si="0"/>
         <v>name_1003</v>
       </c>
-      <c r="I6" s="5"/>
+      <c r="I6" s="5" t="s">
+        <v>114</v>
+      </c>
       <c r="J6" s="9" t="s">
         <v>69</v>
       </c>
@@ -1922,7 +1941,9 @@
         <f t="shared" si="0"/>
         <v>name_1004</v>
       </c>
-      <c r="I7" s="5"/>
+      <c r="I7" s="5" t="s">
+        <v>115</v>
+      </c>
       <c r="J7" s="9" t="s">
         <v>70</v>
       </c>
@@ -1953,6 +1974,9 @@
         <f t="shared" si="0"/>
         <v>name_2001</v>
       </c>
+      <c r="I8" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="J8" s="9" t="s">
         <v>71</v>
       </c>
@@ -1983,6 +2007,9 @@
         <f t="shared" si="0"/>
         <v>name_2002</v>
       </c>
+      <c r="I9" s="9" t="s">
+        <v>113</v>
+      </c>
       <c r="J9" s="9" t="s">
         <v>72</v>
       </c>
@@ -2013,6 +2040,9 @@
         <f t="shared" si="0"/>
         <v>name_2003</v>
       </c>
+      <c r="I10" s="5" t="s">
+        <v>114</v>
+      </c>
       <c r="J10" s="9" t="s">
         <v>105</v>
       </c>
@@ -2043,6 +2073,9 @@
         <f t="shared" ref="H11:H12" si="1">"name_"&amp;A11</f>
         <v>name_2004</v>
       </c>
+      <c r="I11" s="5" t="s">
+        <v>115</v>
+      </c>
       <c r="J11" s="9" t="s">
         <v>107</v>
       </c>
@@ -2072,6 +2105,9 @@
       <c r="H12" s="9" t="str">
         <f t="shared" si="1"/>
         <v>name_2005</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="J12" s="9" t="s">
         <v>109</v>
@@ -2090,7 +2126,7 @@
   </sheetPr>
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevD\TowerDefense\ExcelToCSV\SrcFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2509719-478A-49B5-8736-24C9F7D4C556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F4670F-0C22-4BA8-8EE2-74A655AFBB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32130" yWindow="2760" windowWidth="24210" windowHeight="13950" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29160" yWindow="2235" windowWidth="24210" windowHeight="13950" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigTable" sheetId="18" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="117">
   <si>
     <t>type</t>
   </si>
@@ -834,6 +834,10 @@
   </si>
   <si>
     <t>camp</t>
+  </si>
+  <si>
+    <t>knockback</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1709,8 +1713,8 @@
   </sheetPr>
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15:I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2124,10 +2128,10 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2137,11 +2141,12 @@
     <col min="11" max="12" width="18.7109375" customWidth="1"/>
     <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27" customWidth="1"/>
-    <col min="16" max="16" width="19.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" customWidth="1"/>
+    <col min="16" max="16" width="27" customWidth="1"/>
+    <col min="17" max="17" width="19.28515625" style="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="13" customFormat="1">
+    <row r="1" spans="1:17" s="13" customFormat="1">
       <c r="A1" s="14" t="s">
         <v>42</v>
       </c>
@@ -2185,13 +2190,16 @@
         <v>75</v>
       </c>
       <c r="O1" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="P1" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="Q1" s="21" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -2234,14 +2242,17 @@
       <c r="N2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="P2" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="O2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
@@ -2287,11 +2298,14 @@
       <c r="O3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="P3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -2335,13 +2349,16 @@
         <v>3</v>
       </c>
       <c r="O4" s="5">
-        <v>1</v>
-      </c>
-      <c r="P4" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="24" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:17">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -2385,13 +2402,16 @@
         <v>3</v>
       </c>
       <c r="O5" s="5">
-        <v>1</v>
-      </c>
-      <c r="P5" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="24" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:17">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -2435,13 +2455,16 @@
         <v>3</v>
       </c>
       <c r="O6" s="5">
-        <v>1</v>
-      </c>
-      <c r="P6" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="24" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:17">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -2485,13 +2508,16 @@
         <v>3</v>
       </c>
       <c r="O7" s="5">
-        <v>1</v>
-      </c>
-      <c r="P7" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="24" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:17">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -2535,13 +2561,16 @@
         <v>3</v>
       </c>
       <c r="O8" s="5">
-        <v>1</v>
-      </c>
-      <c r="P8" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="P8" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="24" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:17">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -2585,13 +2614,16 @@
         <v>3</v>
       </c>
       <c r="O9" s="5">
-        <v>1</v>
-      </c>
-      <c r="P9" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="P9" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="24" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:17">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -2635,13 +2667,16 @@
         <v>3</v>
       </c>
       <c r="O10" s="5">
-        <v>1</v>
-      </c>
-      <c r="P10" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="P10" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="24" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:17">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -2685,13 +2720,16 @@
         <v>3</v>
       </c>
       <c r="O11" s="5">
-        <v>3</v>
-      </c>
-      <c r="P11" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="P11" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="24" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:17">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -2735,13 +2773,16 @@
         <v>3</v>
       </c>
       <c r="O12" s="5">
-        <v>5</v>
-      </c>
-      <c r="P12" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="24" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:17">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -2785,13 +2826,16 @@
         <v>3</v>
       </c>
       <c r="O13" s="5">
-        <v>3</v>
-      </c>
-      <c r="P13" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="P13" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="24" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:17">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -2835,13 +2879,16 @@
         <v>3</v>
       </c>
       <c r="O14" s="5">
+        <v>8</v>
+      </c>
+      <c r="P14" s="5">
         <v>10</v>
       </c>
-      <c r="P14" s="24" t="s">
+      <c r="Q14" s="24" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.75" thickBot="1">
+    <row r="15" spans="1:17" ht="15.75" thickBot="1">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -2885,13 +2932,16 @@
         <v>3</v>
       </c>
       <c r="O15" s="5">
-        <v>3</v>
-      </c>
-      <c r="P15" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="P15" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="24" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.75" thickBot="1">
+    <row r="16" spans="1:17" ht="15.75" thickBot="1">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -2935,9 +2985,12 @@
         <v>3</v>
       </c>
       <c r="O16" s="5">
-        <v>1</v>
-      </c>
-      <c r="P16" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="P16" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="24" t="s">
         <v>78</v>
       </c>
     </row>

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevD\TowerDefense\ExcelToCSV\SrcFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F4670F-0C22-4BA8-8EE2-74A655AFBB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB28B68E-FBFD-4374-9BED-E2321948765D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29160" yWindow="2235" windowWidth="24210" windowHeight="13950" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29160" yWindow="2235" windowWidth="24210" windowHeight="13950" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigTable" sheetId="18" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="118">
   <si>
     <t>type</t>
   </si>
@@ -837,6 +837,10 @@
   </si>
   <si>
     <t>knockback</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2130,8 +2134,8 @@
   </sheetPr>
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3039,78 +3043,102 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="59.5703125" customWidth="1"/>
+    <col min="3" max="3" width="59.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="14" t="s">
         <v>42</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="5">
         <v>0</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="5">
+        <v>5</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5">
+        <v>5</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="5">
+        <v>5</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3305,7 +3333,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevD\TowerDefense\ExcelToCSV\SrcFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB28B68E-FBFD-4374-9BED-E2321948765D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06CB87C-9B99-49E0-9BD6-E7FBAD004678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29160" yWindow="2235" windowWidth="24210" windowHeight="13950" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29160" yWindow="2235" windowWidth="24210" windowHeight="13950" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigTable" sheetId="18" r:id="rId1"/>
@@ -18,9 +18,10 @@
     <sheet name="Unitinfo" sheetId="23" r:id="rId3"/>
     <sheet name="UnitGradeInfo" sheetId="25" r:id="rId4"/>
     <sheet name="ProjectileInfo" sheetId="24" r:id="rId5"/>
-    <sheet name="StageInfo" sheetId="26" r:id="rId6"/>
-    <sheet name="StageRewardInfo" sheetId="27" r:id="rId7"/>
-    <sheet name="GachaList" sheetId="28" r:id="rId8"/>
+    <sheet name="Localization" sheetId="29" r:id="rId6"/>
+    <sheet name="StageInfo" sheetId="26" r:id="rId7"/>
+    <sheet name="StageRewardInfo" sheetId="27" r:id="rId8"/>
+    <sheet name="GachaList" sheetId="28" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,6 +41,52 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>ejup</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{4F6D8AB8-5510-4C41-A26D-2C653AC42200}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>권장</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>전투력</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ejup</author>
@@ -86,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="134">
   <si>
     <t>type</t>
   </si>
@@ -843,12 +890,76 @@
     <t>speed</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>kr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>라</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>q</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>w</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ddd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>en</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -921,6 +1032,17 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -981,7 +1103,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1052,6 +1174,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1718,7 +1849,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:J2"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2135,7 +2266,7 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3045,8 +3176,8 @@
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3150,6 +3281,126 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11986222-D907-464F-B7C9-B1AD93C4F08F}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5">
+      <c r="A4" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5">
+      <c r="A5" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5">
+      <c r="A6" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.5">
+      <c r="A7" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="5"/>
@@ -3157,7 +3408,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+      <selection sqref="A1:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3328,7 +3579,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -3488,7 +3739,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A188DE49-311E-456C-97A0-C1108F625CC5}">
   <dimension ref="A1:D13"/>
   <sheetViews>

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevD\TowerDefense\ExcelToCSV\SrcFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06CB87C-9B99-49E0-9BD6-E7FBAD004678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AAC8215-878B-445E-B94E-EA983AA92A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29160" yWindow="2235" windowWidth="24210" windowHeight="13950" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30420" yWindow="2955" windowWidth="24210" windowHeight="13950" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigTable" sheetId="18" r:id="rId1"/>
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="142">
   <si>
     <t>type</t>
   </si>
@@ -891,10 +891,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>kr</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>jp</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -952,6 +948,52 @@
   </si>
   <si>
     <t>en</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ko</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>language_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>de</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ru</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ios_3166-1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>언어코드</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1103,7 +1145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1184,6 +1226,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1604,10 +1647,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1833,6 +1876,116 @@
       <c r="D13" s="8" t="s">
         <v>83</v>
       </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="4">
+        <v>2</v>
+      </c>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="1:4" ht="16.5">
+      <c r="A17" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="4">
+        <v>3</v>
+      </c>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="1:4" ht="16.5">
+      <c r="A18" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="4">
+        <v>4</v>
+      </c>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="4">
+        <v>5</v>
+      </c>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="4">
+        <v>6</v>
+      </c>
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="1:4" ht="16.5">
+      <c r="A21" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" s="4">
+        <v>7</v>
+      </c>
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" spans="1:4" ht="16.5">
+      <c r="A22" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" s="4">
+        <v>8</v>
+      </c>
+      <c r="D22" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3284,8 +3437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11986222-D907-464F-B7C9-B1AD93C4F08F}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3300,13 +3453,13 @@
         <v>42</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>118</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3342,13 +3495,13 @@
         <v>16</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5">
@@ -3356,13 +3509,13 @@
         <v>17</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5">
@@ -3370,27 +3523,27 @@
         <v>18</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5">
       <c r="A7" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevD\TowerDefense\ExcelToCSV\SrcFolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ejup\Desktop\GameJam\ExcelToCSV\SrcFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AAC8215-878B-445E-B94E-EA983AA92A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30420" yWindow="2955" windowWidth="24210" windowHeight="13950" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30420" yWindow="2952" windowWidth="24216" windowHeight="13956" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigTable" sheetId="18" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <sheet name="StageRewardInfo" sheetId="27" r:id="rId8"/>
     <sheet name="GachaList" sheetId="28" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -41,12 +40,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ejup</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{4F6D8AB8-5510-4C41-A26D-2C653AC42200}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -87,12 +86,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ejup</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -133,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="150">
   <si>
     <t>type</t>
   </si>
@@ -838,10 +837,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SummonCnt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Unit/Hero/03_Skeleton_Sword.prefab</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -996,11 +991,57 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Unit/Hero/06_Zombie_Hand.prefab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit/Hero/07_Zombie_Shield.prefab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit/Hero/08_Zombie_Sword.prefab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>combatPower</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>nt</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>all</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>summonCnt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>upgradePieceCnt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>upgradeCostCnt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14">
     <font>
       <sz val="11"/>
@@ -1145,7 +1186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1193,9 +1234,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1227,6 +1265,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1540,18 +1584,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1596,7 +1640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5">
+    <row r="4" spans="1:4" ht="17.399999999999999">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -1610,7 +1654,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5">
+    <row r="5" spans="1:4" ht="17.399999999999999">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1624,7 +1668,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5">
+    <row r="6" spans="1:4" ht="17.399999999999999">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1646,19 +1690,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" customWidth="1"/>
+    <col min="5" max="5" width="25.109375" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1765,7 +1809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="15">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1779,7 +1823,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="15">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1793,7 +1837,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="15">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -1807,7 +1851,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="15">
       <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
@@ -1821,7 +1865,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="15">
       <c r="A10" s="8" t="s">
         <v>28</v>
       </c>
@@ -1849,7 +1893,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="15">
       <c r="A12" s="2" t="s">
         <v>61</v>
       </c>
@@ -1863,7 +1907,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="15">
       <c r="A13" s="2" t="s">
         <v>81</v>
       </c>
@@ -1879,24 +1923,24 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C14" s="4">
         <v>0</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C15" s="4">
         <v>1</v>
@@ -1905,34 +1949,34 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C16" s="4">
         <v>2</v>
       </c>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="1:4" ht="16.5">
+    <row r="17" spans="1:4" ht="17.399999999999999">
       <c r="A17" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>138</v>
+        <v>133</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>137</v>
       </c>
       <c r="C17" s="4">
         <v>3</v>
       </c>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:4" ht="16.5">
+    <row r="18" spans="1:4" ht="17.399999999999999">
       <c r="A18" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" s="29" t="s">
         <v>134</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>135</v>
       </c>
       <c r="C18" s="4">
         <v>4</v>
@@ -1941,10 +1985,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C19" s="4">
         <v>5</v>
@@ -1953,34 +1997,34 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C20" s="4">
         <v>6</v>
       </c>
       <c r="D20" s="8"/>
     </row>
-    <row r="21" spans="1:4" ht="16.5">
+    <row r="21" spans="1:4" ht="17.399999999999999">
       <c r="A21" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>139</v>
+        <v>133</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>138</v>
       </c>
       <c r="C21" s="4">
         <v>7</v>
       </c>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4" ht="16.5">
+    <row r="22" spans="1:4" ht="17.399999999999999">
       <c r="A22" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>140</v>
+        <v>133</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>139</v>
       </c>
       <c r="C22" s="4">
         <v>8</v>
@@ -1995,21 +2039,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="8" width="15.5703125" customWidth="1"/>
-    <col min="9" max="9" width="40.28515625" customWidth="1"/>
-    <col min="10" max="10" width="32.42578125" customWidth="1"/>
+    <col min="1" max="8" width="15.5546875" customWidth="1"/>
+    <col min="9" max="9" width="40.33203125" customWidth="1"/>
+    <col min="10" max="10" width="32.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="13" customFormat="1">
@@ -2135,7 +2179,7 @@
         <v>name_1001</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>67</v>
@@ -2168,7 +2212,7 @@
         <v>name_1002</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>68</v>
@@ -2201,7 +2245,7 @@
         <v>name_1003</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>69</v>
@@ -2234,7 +2278,7 @@
         <v>name_1004</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>70</v>
@@ -2267,7 +2311,7 @@
         <v>name_2001</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>71</v>
@@ -2300,7 +2344,7 @@
         <v>name_2002</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>72</v>
@@ -2333,10 +2377,10 @@
         <v>name_2003</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2362,14 +2406,14 @@
         <v>2</v>
       </c>
       <c r="H11" s="9" t="str">
-        <f t="shared" ref="H11:H12" si="1">"name_"&amp;A11</f>
+        <f t="shared" ref="H11:H15" si="1">"name_"&amp;A11</f>
         <v>name_2004</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2399,10 +2443,109 @@
         <v>name_2005</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="5">
+        <v>2006</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5">
+        <v>30</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5">
+        <v>2</v>
+      </c>
+      <c r="G13" s="5">
+        <v>3</v>
+      </c>
+      <c r="H13" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>name_2006</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="5">
+        <v>2007</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>30</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5">
+        <v>2</v>
+      </c>
+      <c r="G14" s="5">
+        <v>3</v>
+      </c>
+      <c r="H14" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>name_2007</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="5">
+        <v>2008</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>30</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
+        <v>2</v>
+      </c>
+      <c r="G15" s="5">
+        <v>3</v>
+      </c>
+      <c r="H15" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>name_2008</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2412,29 +2555,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" customWidth="1"/>
-    <col min="11" max="12" width="18.7109375" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" customWidth="1"/>
-    <col min="16" max="16" width="27" customWidth="1"/>
-    <col min="17" max="17" width="19.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="15.5546875" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" customWidth="1"/>
+    <col min="12" max="13" width="18.6640625" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" customWidth="1"/>
+    <col min="17" max="17" width="27" customWidth="1"/>
+    <col min="18" max="18" width="31.109375" style="24" customWidth="1"/>
+    <col min="19" max="20" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="13" customFormat="1">
+    <row r="1" spans="1:20" s="13" customFormat="1">
       <c r="A1" s="14" t="s">
         <v>42</v>
       </c>
@@ -2445,49 +2589,58 @@
         <v>55</v>
       </c>
       <c r="D1" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="14" t="s">
-        <v>116</v>
-      </c>
       <c r="P1" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q1" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="R1" s="20" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="S1" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -2497,8 +2650,8 @@
       <c r="C2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>1</v>
+      <c r="D2" s="16" t="s">
+        <v>145</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>1</v>
@@ -2530,17 +2683,26 @@
       <c r="N2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="22" t="s">
+      <c r="O2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" s="21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="S2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
@@ -2551,7 +2713,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>2</v>
+        <v>146</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>2</v>
@@ -2589,11 +2751,20 @@
       <c r="P3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="Q3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="T3" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -2604,49 +2775,58 @@
         <v>1</v>
       </c>
       <c r="D4" s="5">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="E4" s="5">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F4" s="5">
+        <v>10</v>
+      </c>
+      <c r="G4" s="5">
         <v>5</v>
       </c>
-      <c r="G4" s="5">
+      <c r="H4" s="5">
         <v>80</v>
       </c>
-      <c r="H4" s="5">
-        <v>2</v>
-      </c>
       <c r="I4" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J4" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K4" s="5">
+        <v>2</v>
+      </c>
+      <c r="L4" s="5">
         <v>30</v>
       </c>
-      <c r="L4" s="5">
-        <v>1</v>
-      </c>
       <c r="M4" s="5">
         <v>1</v>
       </c>
       <c r="N4" s="5">
+        <v>1</v>
+      </c>
+      <c r="O4" s="5">
         <v>3</v>
       </c>
-      <c r="O4" s="5">
-        <v>0</v>
-      </c>
       <c r="P4" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>1</v>
+      </c>
+      <c r="R4" s="23" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="S4" s="5">
+        <v>2</v>
+      </c>
+      <c r="T4" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -2657,49 +2837,58 @@
         <v>1</v>
       </c>
       <c r="D5" s="5">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="E5" s="5">
+        <v>100</v>
+      </c>
+      <c r="F5" s="5">
         <v>15</v>
       </c>
-      <c r="F5" s="5">
+      <c r="G5" s="5">
         <v>5</v>
       </c>
-      <c r="G5" s="5">
+      <c r="H5" s="5">
         <v>8</v>
       </c>
-      <c r="H5" s="9">
-        <v>1</v>
-      </c>
-      <c r="I5" s="5">
-        <v>5</v>
+      <c r="I5" s="9">
+        <v>1</v>
       </c>
       <c r="J5" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K5" s="5">
+        <v>2</v>
+      </c>
+      <c r="L5" s="5">
         <v>30</v>
       </c>
-      <c r="L5" s="5">
-        <v>2</v>
-      </c>
       <c r="M5" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N5" s="5">
+        <v>1</v>
+      </c>
+      <c r="O5" s="5">
         <v>3</v>
       </c>
-      <c r="O5" s="5">
-        <v>0</v>
-      </c>
       <c r="P5" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>1</v>
+      </c>
+      <c r="R5" s="23" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="S5" s="5">
+        <v>2</v>
+      </c>
+      <c r="T5" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -2709,50 +2898,59 @@
       <c r="C6" s="9">
         <v>1</v>
       </c>
-      <c r="D6" s="5">
-        <v>300</v>
+      <c r="D6" s="9">
+        <v>10</v>
       </c>
       <c r="E6" s="5">
+        <v>100</v>
+      </c>
+      <c r="F6" s="5">
         <v>20</v>
       </c>
-      <c r="F6" s="5">
+      <c r="G6" s="5">
         <v>5</v>
       </c>
-      <c r="G6" s="5">
+      <c r="H6" s="5">
         <v>8</v>
       </c>
-      <c r="H6" s="9">
-        <v>1</v>
-      </c>
-      <c r="I6" s="5">
-        <v>5</v>
+      <c r="I6" s="9">
+        <v>1</v>
       </c>
       <c r="J6" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K6" s="5">
+        <v>2</v>
+      </c>
+      <c r="L6" s="5">
         <v>30</v>
       </c>
-      <c r="L6" s="5">
+      <c r="M6" s="5">
         <v>3</v>
       </c>
-      <c r="M6" s="5">
-        <v>1</v>
-      </c>
       <c r="N6" s="5">
+        <v>1</v>
+      </c>
+      <c r="O6" s="5">
         <v>3</v>
       </c>
-      <c r="O6" s="5">
-        <v>0</v>
-      </c>
       <c r="P6" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>1</v>
+      </c>
+      <c r="R6" s="23" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="S6" s="5">
+        <v>2</v>
+      </c>
+      <c r="T6" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -2763,49 +2961,58 @@
         <v>1</v>
       </c>
       <c r="D7" s="5">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="E7" s="5">
+        <v>100</v>
+      </c>
+      <c r="F7" s="5">
         <v>20</v>
       </c>
-      <c r="F7" s="5">
+      <c r="G7" s="5">
         <v>5</v>
       </c>
-      <c r="G7" s="5">
+      <c r="H7" s="5">
         <v>8</v>
       </c>
-      <c r="H7" s="9">
-        <v>1</v>
-      </c>
-      <c r="I7" s="5">
-        <v>5</v>
+      <c r="I7" s="9">
+        <v>1</v>
       </c>
       <c r="J7" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K7" s="5">
+        <v>2</v>
+      </c>
+      <c r="L7" s="5">
         <v>30</v>
       </c>
-      <c r="L7" s="5">
+      <c r="M7" s="5">
         <v>4</v>
       </c>
-      <c r="M7" s="5">
-        <v>1</v>
-      </c>
       <c r="N7" s="5">
+        <v>1</v>
+      </c>
+      <c r="O7" s="5">
         <v>3</v>
       </c>
-      <c r="O7" s="5">
-        <v>0</v>
-      </c>
       <c r="P7" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>1</v>
+      </c>
+      <c r="R7" s="23" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="S7" s="5">
+        <v>2</v>
+      </c>
+      <c r="T7" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -2816,49 +3023,58 @@
         <v>2</v>
       </c>
       <c r="D8" s="5">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="E8" s="5">
+        <v>100</v>
+      </c>
+      <c r="F8" s="5">
         <v>20</v>
       </c>
-      <c r="F8" s="5">
+      <c r="G8" s="5">
         <v>5</v>
       </c>
-      <c r="G8" s="5">
+      <c r="H8" s="5">
         <v>80</v>
       </c>
-      <c r="H8" s="5">
-        <v>2</v>
-      </c>
       <c r="I8" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J8" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K8" s="5">
+        <v>2</v>
+      </c>
+      <c r="L8" s="5">
         <v>30</v>
       </c>
-      <c r="L8" s="5">
-        <v>1</v>
-      </c>
       <c r="M8" s="5">
         <v>1</v>
       </c>
       <c r="N8" s="5">
+        <v>1</v>
+      </c>
+      <c r="O8" s="5">
         <v>3</v>
       </c>
-      <c r="O8" s="5">
-        <v>0</v>
-      </c>
       <c r="P8" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>1</v>
+      </c>
+      <c r="R8" s="23" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="S8" s="5">
+        <v>2</v>
+      </c>
+      <c r="T8" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -2869,49 +3085,58 @@
         <v>2</v>
       </c>
       <c r="D9" s="5">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="E9" s="5">
+        <v>100</v>
+      </c>
+      <c r="F9" s="5">
         <v>20</v>
       </c>
-      <c r="F9" s="5">
+      <c r="G9" s="5">
         <v>5</v>
       </c>
-      <c r="G9" s="5">
+      <c r="H9" s="5">
         <v>8</v>
       </c>
-      <c r="H9" s="9">
-        <v>1</v>
-      </c>
-      <c r="I9" s="5">
-        <v>5</v>
+      <c r="I9" s="9">
+        <v>1</v>
       </c>
       <c r="J9" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K9" s="5">
+        <v>2</v>
+      </c>
+      <c r="L9" s="5">
         <v>30</v>
       </c>
-      <c r="L9" s="5">
-        <v>2</v>
-      </c>
       <c r="M9" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N9" s="5">
+        <v>1</v>
+      </c>
+      <c r="O9" s="5">
         <v>3</v>
       </c>
-      <c r="O9" s="5">
-        <v>0</v>
-      </c>
       <c r="P9" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>1</v>
+      </c>
+      <c r="R9" s="23" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="S9" s="5">
+        <v>2</v>
+      </c>
+      <c r="T9" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -2921,50 +3146,59 @@
       <c r="C10" s="9">
         <v>2</v>
       </c>
-      <c r="D10" s="5">
-        <v>300</v>
+      <c r="D10" s="9">
+        <v>20</v>
       </c>
       <c r="E10" s="5">
+        <v>100</v>
+      </c>
+      <c r="F10" s="5">
         <v>20</v>
       </c>
-      <c r="F10" s="5">
+      <c r="G10" s="5">
         <v>5</v>
       </c>
-      <c r="G10" s="5">
+      <c r="H10" s="5">
         <v>8</v>
       </c>
-      <c r="H10" s="9">
-        <v>1</v>
-      </c>
-      <c r="I10" s="5">
-        <v>5</v>
+      <c r="I10" s="9">
+        <v>1</v>
       </c>
       <c r="J10" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K10" s="5">
+        <v>2</v>
+      </c>
+      <c r="L10" s="5">
         <v>30</v>
       </c>
-      <c r="L10" s="5">
+      <c r="M10" s="5">
         <v>3</v>
       </c>
-      <c r="M10" s="5">
-        <v>1</v>
-      </c>
       <c r="N10" s="5">
+        <v>1</v>
+      </c>
+      <c r="O10" s="5">
         <v>3</v>
       </c>
-      <c r="O10" s="5">
-        <v>0</v>
-      </c>
       <c r="P10" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>1</v>
+      </c>
+      <c r="R10" s="23" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="S10" s="5">
+        <v>2</v>
+      </c>
+      <c r="T10" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -2975,49 +3209,58 @@
         <v>2</v>
       </c>
       <c r="D11" s="5">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="E11" s="5">
+        <v>100</v>
+      </c>
+      <c r="F11" s="5">
         <v>20</v>
       </c>
-      <c r="F11" s="5">
+      <c r="G11" s="5">
         <v>5</v>
       </c>
-      <c r="G11" s="5">
+      <c r="H11" s="5">
         <v>8</v>
       </c>
-      <c r="H11" s="9">
-        <v>1</v>
-      </c>
-      <c r="I11" s="5">
-        <v>5</v>
+      <c r="I11" s="9">
+        <v>1</v>
       </c>
       <c r="J11" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K11" s="5">
+        <v>2</v>
+      </c>
+      <c r="L11" s="5">
         <v>30</v>
       </c>
-      <c r="L11" s="5">
+      <c r="M11" s="5">
         <v>4</v>
       </c>
-      <c r="M11" s="5">
-        <v>1</v>
-      </c>
       <c r="N11" s="5">
+        <v>1</v>
+      </c>
+      <c r="O11" s="5">
         <v>3</v>
       </c>
-      <c r="O11" s="5">
-        <v>0</v>
-      </c>
       <c r="P11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="5">
         <v>3</v>
       </c>
-      <c r="Q11" s="24" t="s">
+      <c r="R11" s="23" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="S11" s="5">
+        <v>2</v>
+      </c>
+      <c r="T11" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -3028,49 +3271,58 @@
         <v>1</v>
       </c>
       <c r="D12" s="5">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="E12" s="5">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F12" s="5">
+        <v>10</v>
+      </c>
+      <c r="G12" s="5">
         <v>5</v>
       </c>
-      <c r="G12" s="5">
+      <c r="H12" s="5">
         <v>8</v>
       </c>
-      <c r="H12" s="5">
-        <v>2</v>
-      </c>
       <c r="I12" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J12" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K12" s="5">
+        <v>2</v>
+      </c>
+      <c r="L12" s="5">
         <v>30</v>
       </c>
-      <c r="L12" s="5">
-        <v>1</v>
-      </c>
       <c r="M12" s="5">
         <v>1</v>
       </c>
       <c r="N12" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O12" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P12" s="5">
         <v>5</v>
       </c>
-      <c r="Q12" s="24" t="s">
+      <c r="Q12" s="5">
+        <v>5</v>
+      </c>
+      <c r="R12" s="23" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="S12" s="5">
+        <v>2</v>
+      </c>
+      <c r="T12" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -3081,49 +3333,58 @@
         <v>1</v>
       </c>
       <c r="D13" s="5">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="E13" s="5">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F13" s="5">
+        <v>10</v>
+      </c>
+      <c r="G13" s="5">
         <v>5</v>
       </c>
-      <c r="G13" s="5">
+      <c r="H13" s="5">
         <v>80</v>
       </c>
-      <c r="H13" s="5">
+      <c r="I13" s="5">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5">
+        <v>1</v>
+      </c>
+      <c r="K13" s="5">
+        <v>1</v>
+      </c>
+      <c r="L13" s="5">
+        <v>30</v>
+      </c>
+      <c r="M13" s="5">
+        <v>2</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0</v>
+      </c>
+      <c r="O13" s="5">
+        <v>0</v>
+      </c>
+      <c r="P13" s="5">
         <v>5</v>
       </c>
-      <c r="I13" s="5">
-        <v>5</v>
-      </c>
-      <c r="J13" s="5">
-        <v>1</v>
-      </c>
-      <c r="K13" s="5">
-        <v>30</v>
-      </c>
-      <c r="L13" s="5">
-        <v>2</v>
-      </c>
-      <c r="M13" s="5">
-        <v>1</v>
-      </c>
-      <c r="N13" s="5">
+      <c r="Q13" s="5">
         <v>3</v>
       </c>
-      <c r="O13" s="5">
-        <v>8</v>
-      </c>
-      <c r="P13" s="5">
-        <v>3</v>
-      </c>
-      <c r="Q13" s="24" t="s">
+      <c r="R13" s="23" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="S13" s="5">
+        <v>2</v>
+      </c>
+      <c r="T13" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -3134,49 +3395,58 @@
         <v>1</v>
       </c>
       <c r="D14" s="5">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="E14" s="5">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F14" s="5">
+        <v>10</v>
+      </c>
+      <c r="G14" s="5">
         <v>5</v>
       </c>
-      <c r="G14" s="5">
+      <c r="H14" s="5">
         <v>8</v>
       </c>
-      <c r="H14" s="5">
+      <c r="I14" s="5">
+        <v>1</v>
+      </c>
+      <c r="J14" s="5">
+        <v>1</v>
+      </c>
+      <c r="K14" s="5">
+        <v>1</v>
+      </c>
+      <c r="L14" s="5">
+        <v>30</v>
+      </c>
+      <c r="M14" s="5">
+        <v>2</v>
+      </c>
+      <c r="N14" s="5">
+        <v>0</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0</v>
+      </c>
+      <c r="P14" s="5">
         <v>5</v>
       </c>
-      <c r="I14" s="5">
-        <v>5</v>
-      </c>
-      <c r="J14" s="5">
-        <v>1</v>
-      </c>
-      <c r="K14" s="5">
-        <v>30</v>
-      </c>
-      <c r="L14" s="5">
-        <v>2</v>
-      </c>
-      <c r="M14" s="5">
-        <v>1</v>
-      </c>
-      <c r="N14" s="5">
-        <v>3</v>
-      </c>
-      <c r="O14" s="5">
-        <v>8</v>
-      </c>
-      <c r="P14" s="5">
-        <v>10</v>
-      </c>
-      <c r="Q14" s="24" t="s">
+      <c r="Q14" s="5">
+        <v>10</v>
+      </c>
+      <c r="R14" s="23" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" ht="15.75" thickBot="1">
+      <c r="S14" s="5">
+        <v>2</v>
+      </c>
+      <c r="T14" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="15" thickBot="1">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -3187,134 +3457,498 @@
         <v>1</v>
       </c>
       <c r="D15" s="5">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="E15" s="5">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F15" s="5">
+        <v>10</v>
+      </c>
+      <c r="G15" s="5">
         <v>5</v>
       </c>
-      <c r="G15" s="5">
+      <c r="H15" s="5">
         <v>80</v>
       </c>
-      <c r="H15" s="5">
+      <c r="I15" s="5">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5">
+        <v>1</v>
+      </c>
+      <c r="K15" s="5">
+        <v>1</v>
+      </c>
+      <c r="L15" s="5">
+        <v>30</v>
+      </c>
+      <c r="M15" s="5">
+        <v>3</v>
+      </c>
+      <c r="N15" s="5">
+        <v>0</v>
+      </c>
+      <c r="O15" s="5">
+        <v>0</v>
+      </c>
+      <c r="P15" s="5">
         <v>5</v>
       </c>
-      <c r="I15" s="5">
-        <v>5</v>
-      </c>
-      <c r="J15" s="5">
-        <v>1</v>
-      </c>
-      <c r="K15" s="5">
-        <v>30</v>
-      </c>
-      <c r="L15" s="5">
+      <c r="Q15" s="5">
         <v>3</v>
       </c>
-      <c r="M15" s="5">
-        <v>1</v>
-      </c>
-      <c r="N15" s="5">
-        <v>3</v>
-      </c>
-      <c r="O15" s="5">
-        <v>8</v>
-      </c>
-      <c r="P15" s="5">
-        <v>3</v>
-      </c>
-      <c r="Q15" s="24" t="s">
+      <c r="R15" s="23" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" ht="15.75" thickBot="1">
+      <c r="S15" s="5">
+        <v>2</v>
+      </c>
+      <c r="T15" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="15" thickBot="1">
       <c r="A16" s="5">
         <v>13</v>
       </c>
       <c r="B16" s="5">
         <v>2005</v>
       </c>
-      <c r="C16" s="26">
-        <v>1</v>
-      </c>
-      <c r="D16" s="5">
-        <v>300</v>
+      <c r="C16" s="25">
+        <v>1</v>
+      </c>
+      <c r="D16" s="30">
+        <v>10</v>
       </c>
       <c r="E16" s="5">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F16" s="5">
+        <v>10</v>
+      </c>
+      <c r="G16" s="5">
         <v>5</v>
       </c>
-      <c r="G16" s="5">
+      <c r="H16" s="5">
         <v>80</v>
       </c>
-      <c r="H16" s="5">
+      <c r="I16" s="5">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5">
+        <v>1</v>
+      </c>
+      <c r="K16" s="5">
+        <v>1</v>
+      </c>
+      <c r="L16" s="5">
+        <v>30</v>
+      </c>
+      <c r="M16" s="5">
+        <v>4</v>
+      </c>
+      <c r="N16" s="5">
+        <v>0</v>
+      </c>
+      <c r="O16" s="5">
+        <v>0</v>
+      </c>
+      <c r="P16" s="5">
         <v>5</v>
       </c>
-      <c r="I16" s="5">
+      <c r="Q16" s="5">
+        <v>1</v>
+      </c>
+      <c r="R16" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="S16" s="5">
+        <v>2</v>
+      </c>
+      <c r="T16" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="5">
+        <v>14</v>
+      </c>
+      <c r="B17" s="5">
+        <v>2006</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5">
+        <v>10</v>
+      </c>
+      <c r="E17" s="5">
+        <v>100</v>
+      </c>
+      <c r="F17" s="5">
+        <v>10</v>
+      </c>
+      <c r="G17" s="5">
         <v>5</v>
       </c>
-      <c r="J16" s="5">
-        <v>1</v>
-      </c>
-      <c r="K16" s="5">
+      <c r="H17" s="5">
+        <v>8</v>
+      </c>
+      <c r="I17" s="5">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5">
+        <v>1</v>
+      </c>
+      <c r="K17" s="5">
+        <v>1</v>
+      </c>
+      <c r="L17" s="5">
         <v>30</v>
       </c>
-      <c r="L16" s="5">
-        <v>4</v>
-      </c>
-      <c r="M16" s="5">
-        <v>1</v>
-      </c>
-      <c r="N16" s="5">
+      <c r="M17" s="5">
+        <v>0</v>
+      </c>
+      <c r="N17" s="5">
+        <v>0</v>
+      </c>
+      <c r="O17" s="5">
+        <v>0</v>
+      </c>
+      <c r="P17" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>10</v>
+      </c>
+      <c r="R17" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="S17" s="5">
+        <v>2</v>
+      </c>
+      <c r="T17" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="15" thickBot="1">
+      <c r="A18" s="5">
+        <v>15</v>
+      </c>
+      <c r="B18" s="5">
+        <v>2007</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5">
+        <v>10</v>
+      </c>
+      <c r="E18" s="5">
+        <v>100</v>
+      </c>
+      <c r="F18" s="5">
+        <v>10</v>
+      </c>
+      <c r="G18" s="5">
+        <v>5</v>
+      </c>
+      <c r="H18" s="5">
+        <v>80</v>
+      </c>
+      <c r="I18" s="5">
+        <v>1</v>
+      </c>
+      <c r="J18" s="5">
+        <v>1</v>
+      </c>
+      <c r="K18" s="5">
+        <v>1</v>
+      </c>
+      <c r="L18" s="5">
+        <v>30</v>
+      </c>
+      <c r="M18" s="5">
+        <v>0</v>
+      </c>
+      <c r="N18" s="5">
+        <v>0</v>
+      </c>
+      <c r="O18" s="5">
+        <v>0</v>
+      </c>
+      <c r="P18" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="5">
         <v>3</v>
       </c>
-      <c r="O16" s="5">
+      <c r="R18" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="S18" s="5">
+        <v>2</v>
+      </c>
+      <c r="T18" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="15" thickBot="1">
+      <c r="A19" s="5">
+        <v>16</v>
+      </c>
+      <c r="B19" s="5">
+        <v>2008</v>
+      </c>
+      <c r="C19" s="25">
+        <v>1</v>
+      </c>
+      <c r="D19" s="30">
+        <v>10</v>
+      </c>
+      <c r="E19" s="5">
+        <v>100</v>
+      </c>
+      <c r="F19" s="5">
+        <v>10</v>
+      </c>
+      <c r="G19" s="5">
+        <v>5</v>
+      </c>
+      <c r="H19" s="5">
+        <v>80</v>
+      </c>
+      <c r="I19" s="5">
+        <v>1</v>
+      </c>
+      <c r="J19" s="5">
+        <v>1</v>
+      </c>
+      <c r="K19" s="5">
+        <v>1</v>
+      </c>
+      <c r="L19" s="5">
+        <v>30</v>
+      </c>
+      <c r="M19" s="5">
+        <v>0</v>
+      </c>
+      <c r="N19" s="5">
+        <v>0</v>
+      </c>
+      <c r="O19" s="5">
+        <v>0</v>
+      </c>
+      <c r="P19" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>1</v>
+      </c>
+      <c r="R19" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="S19" s="5">
+        <v>2</v>
+      </c>
+      <c r="T19" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="5">
+        <v>14</v>
+      </c>
+      <c r="B20" s="5">
+        <v>2006</v>
+      </c>
+      <c r="C20" s="5">
+        <v>2</v>
+      </c>
+      <c r="D20" s="5">
+        <v>20</v>
+      </c>
+      <c r="E20" s="5">
+        <v>100</v>
+      </c>
+      <c r="F20" s="5">
+        <v>10</v>
+      </c>
+      <c r="G20" s="5">
+        <v>5</v>
+      </c>
+      <c r="H20" s="5">
         <v>8</v>
       </c>
-      <c r="P16" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="24" t="s">
+      <c r="I20" s="5">
+        <v>2</v>
+      </c>
+      <c r="J20" s="5">
+        <v>2</v>
+      </c>
+      <c r="K20" s="5">
+        <v>1</v>
+      </c>
+      <c r="L20" s="5">
+        <v>30</v>
+      </c>
+      <c r="M20" s="5">
+        <v>0</v>
+      </c>
+      <c r="N20" s="5">
+        <v>0</v>
+      </c>
+      <c r="O20" s="5">
+        <v>0</v>
+      </c>
+      <c r="P20" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>10</v>
+      </c>
+      <c r="R20" s="23" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="17" spans="3:13" ht="15.75" thickBot="1">
-      <c r="C17" s="20"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-    </row>
-    <row r="18" spans="3:13" ht="15.75" thickBot="1">
-      <c r="C18" s="20"/>
-    </row>
-    <row r="19" spans="3:13" ht="15.75" thickBot="1">
-      <c r="C19" s="20"/>
-    </row>
-    <row r="20" spans="3:13" ht="15.75" thickBot="1">
-      <c r="C20" s="20"/>
-    </row>
-    <row r="21" spans="3:13" ht="15.75" thickBot="1">
-      <c r="C21" s="20"/>
-    </row>
-    <row r="22" spans="3:13" ht="15.75" thickBot="1">
-      <c r="C22" s="20"/>
-    </row>
-    <row r="23" spans="3:13" ht="15.75" thickBot="1">
-      <c r="C23" s="20"/>
-    </row>
-    <row r="24" spans="3:13" ht="15.75" thickBot="1">
-      <c r="C24" s="20"/>
+      <c r="S20" s="5">
+        <v>2</v>
+      </c>
+      <c r="T20" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="15" thickBot="1">
+      <c r="A21" s="5">
+        <v>15</v>
+      </c>
+      <c r="B21" s="5">
+        <v>2007</v>
+      </c>
+      <c r="C21" s="5">
+        <v>2</v>
+      </c>
+      <c r="D21" s="5">
+        <v>20</v>
+      </c>
+      <c r="E21" s="5">
+        <v>100</v>
+      </c>
+      <c r="F21" s="5">
+        <v>10</v>
+      </c>
+      <c r="G21" s="5">
+        <v>5</v>
+      </c>
+      <c r="H21" s="5">
+        <v>80</v>
+      </c>
+      <c r="I21" s="5">
+        <v>2</v>
+      </c>
+      <c r="J21" s="5">
+        <v>2</v>
+      </c>
+      <c r="K21" s="5">
+        <v>1</v>
+      </c>
+      <c r="L21" s="5">
+        <v>30</v>
+      </c>
+      <c r="M21" s="5">
+        <v>0</v>
+      </c>
+      <c r="N21" s="5">
+        <v>0</v>
+      </c>
+      <c r="O21" s="5">
+        <v>0</v>
+      </c>
+      <c r="P21" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>3</v>
+      </c>
+      <c r="R21" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="S21" s="5">
+        <v>2</v>
+      </c>
+      <c r="T21" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="15" thickBot="1">
+      <c r="A22" s="5">
+        <v>16</v>
+      </c>
+      <c r="B22" s="5">
+        <v>2008</v>
+      </c>
+      <c r="C22" s="25">
+        <v>2</v>
+      </c>
+      <c r="D22" s="30">
+        <v>20</v>
+      </c>
+      <c r="E22" s="5">
+        <v>100</v>
+      </c>
+      <c r="F22" s="5">
+        <v>10</v>
+      </c>
+      <c r="G22" s="5">
+        <v>5</v>
+      </c>
+      <c r="H22" s="5">
+        <v>80</v>
+      </c>
+      <c r="I22" s="5">
+        <v>2</v>
+      </c>
+      <c r="J22" s="5">
+        <v>2</v>
+      </c>
+      <c r="K22" s="5">
+        <v>1</v>
+      </c>
+      <c r="L22" s="5">
+        <v>30</v>
+      </c>
+      <c r="M22" s="5">
+        <v>0</v>
+      </c>
+      <c r="N22" s="5">
+        <v>0</v>
+      </c>
+      <c r="O22" s="5">
+        <v>0</v>
+      </c>
+      <c r="P22" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>1</v>
+      </c>
+      <c r="R22" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="S22" s="5">
+        <v>2</v>
+      </c>
+      <c r="T22" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="15" thickBot="1">
+      <c r="C23" s="19"/>
+      <c r="D23" s="31"/>
+    </row>
+    <row r="24" spans="1:20" ht="15" thickBot="1">
+      <c r="C24" s="19"/>
+      <c r="D24" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3323,7 +3957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
@@ -3333,9 +3967,9 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="59.5703125" customWidth="1"/>
+    <col min="3" max="3" width="59.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3343,7 +3977,7 @@
         <v>42</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>47</v>
@@ -3412,7 +4046,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3423,7 +4057,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3434,18 +4068,18 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11986222-D907-464F-B7C9-B1AD93C4F08F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3453,13 +4087,13 @@
         <v>42</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3490,60 +4124,60 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5">
-      <c r="A4" s="29" t="s">
+    <row r="4" spans="1:4" ht="17.399999999999999">
+      <c r="A4" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17.399999999999999">
+      <c r="A5" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C5" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D5" s="9" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5">
-      <c r="A5" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="27" t="s">
+    <row r="6" spans="1:4" ht="17.399999999999999">
+      <c r="A6" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C6" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5">
-      <c r="A6" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="27" t="s">
+    <row r="7" spans="1:4" ht="17.399999999999999">
+      <c r="A7" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C7" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16.5">
-      <c r="A7" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3554,7 +4188,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
@@ -3564,11 +4198,11 @@
       <selection sqref="A1:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3640,7 +4274,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.5">
+    <row r="5" spans="1:5" ht="17.399999999999999">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -3657,7 +4291,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.5">
+    <row r="6" spans="1:5" ht="17.399999999999999">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -3674,7 +4308,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.5">
+    <row r="7" spans="1:5" ht="17.399999999999999">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -3691,7 +4325,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.5">
+    <row r="8" spans="1:5" ht="17.399999999999999">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -3708,7 +4342,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.5">
+    <row r="9" spans="1:5" ht="17.399999999999999">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -3733,16 +4367,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="4" width="15.42578125" customWidth="1"/>
+    <col min="3" max="4" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3893,17 +4527,17 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A188DE49-311E-456C-97A0-C1108F625CC5}">
-  <dimension ref="A1:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y8" sqref="Y8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="2" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3914,10 +4548,10 @@
         <v>54</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>110</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4088,8 +4722,51 @@
         <v>5</v>
       </c>
     </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" s="5">
+        <v>2006</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" s="5">
+        <v>2007</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" s="5">
+        <v>2008</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="30420" yWindow="2952" windowWidth="24216" windowHeight="13956" activeTab="8"/>
+    <workbookView xWindow="30420" yWindow="2952" windowWidth="24216" windowHeight="13956" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigTable" sheetId="18" r:id="rId1"/>
     <sheet name="EnumTable" sheetId="17" r:id="rId2"/>
-    <sheet name="Unitinfo" sheetId="23" r:id="rId3"/>
-    <sheet name="UnitGradeInfo" sheetId="25" r:id="rId4"/>
+    <sheet name="UnitGradeInfo" sheetId="25" r:id="rId3"/>
+    <sheet name="Unitinfo" sheetId="23" r:id="rId4"/>
     <sheet name="ProjectileInfo" sheetId="24" r:id="rId5"/>
     <sheet name="Localization" sheetId="29" r:id="rId6"/>
     <sheet name="StageInfo" sheetId="26" r:id="rId7"/>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="151">
   <si>
     <t>type</t>
   </si>
@@ -1035,6 +1035,10 @@
   </si>
   <si>
     <t>upgradeCostCnt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoomEffect/Boom01.prefab</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1141,23 +1145,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFD9D9D9"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFD9D9D9"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1186,7 +1179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1231,11 +1224,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1243,7 +1233,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1252,7 +1242,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1267,9 +1257,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1963,7 +1950,7 @@
       <c r="A17" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="28" t="s">
         <v>137</v>
       </c>
       <c r="C17" s="4">
@@ -1975,7 +1962,7 @@
       <c r="A18" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="28" t="s">
         <v>134</v>
       </c>
       <c r="C18" s="4">
@@ -2011,7 +1998,7 @@
       <c r="A21" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="28" t="s">
         <v>138</v>
       </c>
       <c r="C21" s="4">
@@ -2023,7 +2010,7 @@
       <c r="A22" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="28" t="s">
         <v>139</v>
       </c>
       <c r="C22" s="4">
@@ -2043,10 +2030,1404 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
+  <dimension ref="A1:T22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="10" width="15.5546875" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" customWidth="1"/>
+    <col min="12" max="13" width="18.6640625" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" customWidth="1"/>
+    <col min="17" max="17" width="27" customWidth="1"/>
+    <col min="18" max="18" width="31.109375" style="23" customWidth="1"/>
+    <col min="19" max="20" width="16.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="13" customFormat="1">
+      <c r="A1" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="R1" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="T3" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1001</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5">
+        <v>100</v>
+      </c>
+      <c r="F4" s="5">
+        <v>10</v>
+      </c>
+      <c r="G4" s="5">
+        <v>5</v>
+      </c>
+      <c r="H4" s="5">
+        <v>80</v>
+      </c>
+      <c r="I4" s="5">
+        <v>2</v>
+      </c>
+      <c r="J4" s="5">
+        <v>1</v>
+      </c>
+      <c r="K4" s="5">
+        <v>2</v>
+      </c>
+      <c r="L4" s="5">
+        <v>30</v>
+      </c>
+      <c r="M4" s="5">
+        <v>1</v>
+      </c>
+      <c r="N4" s="5">
+        <v>1</v>
+      </c>
+      <c r="O4" s="5">
+        <v>3</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>1</v>
+      </c>
+      <c r="R4" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="S4" s="5">
+        <v>2</v>
+      </c>
+      <c r="T4" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1002</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5">
+        <v>100</v>
+      </c>
+      <c r="F5" s="5">
+        <v>15</v>
+      </c>
+      <c r="G5" s="5">
+        <v>5</v>
+      </c>
+      <c r="H5" s="5">
+        <v>8</v>
+      </c>
+      <c r="I5" s="9">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="5">
+        <v>2</v>
+      </c>
+      <c r="L5" s="5">
+        <v>30</v>
+      </c>
+      <c r="M5" s="5">
+        <v>2</v>
+      </c>
+      <c r="N5" s="5">
+        <v>1</v>
+      </c>
+      <c r="O5" s="5">
+        <v>3</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>1</v>
+      </c>
+      <c r="R5" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="S5" s="5">
+        <v>2</v>
+      </c>
+      <c r="T5" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1003</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9">
+        <v>10</v>
+      </c>
+      <c r="E6" s="5">
+        <v>100</v>
+      </c>
+      <c r="F6" s="5">
+        <v>20</v>
+      </c>
+      <c r="G6" s="5">
+        <v>5</v>
+      </c>
+      <c r="H6" s="5">
+        <v>8</v>
+      </c>
+      <c r="I6" s="9">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5">
+        <v>1</v>
+      </c>
+      <c r="K6" s="5">
+        <v>2</v>
+      </c>
+      <c r="L6" s="5">
+        <v>30</v>
+      </c>
+      <c r="M6" s="5">
+        <v>3</v>
+      </c>
+      <c r="N6" s="5">
+        <v>1</v>
+      </c>
+      <c r="O6" s="5">
+        <v>3</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>1</v>
+      </c>
+      <c r="R6" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="S6" s="5">
+        <v>2</v>
+      </c>
+      <c r="T6" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1004</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>10</v>
+      </c>
+      <c r="E7" s="5">
+        <v>100</v>
+      </c>
+      <c r="F7" s="5">
+        <v>20</v>
+      </c>
+      <c r="G7" s="5">
+        <v>5</v>
+      </c>
+      <c r="H7" s="5">
+        <v>8</v>
+      </c>
+      <c r="I7" s="9">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5">
+        <v>1</v>
+      </c>
+      <c r="K7" s="5">
+        <v>2</v>
+      </c>
+      <c r="L7" s="5">
+        <v>30</v>
+      </c>
+      <c r="M7" s="5">
+        <v>4</v>
+      </c>
+      <c r="N7" s="5">
+        <v>1</v>
+      </c>
+      <c r="O7" s="5">
+        <v>3</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>1</v>
+      </c>
+      <c r="R7" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="S7" s="5">
+        <v>2</v>
+      </c>
+      <c r="T7" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="5">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1001</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5">
+        <v>20</v>
+      </c>
+      <c r="E8" s="5">
+        <v>100</v>
+      </c>
+      <c r="F8" s="5">
+        <v>20</v>
+      </c>
+      <c r="G8" s="5">
+        <v>5</v>
+      </c>
+      <c r="H8" s="5">
+        <v>80</v>
+      </c>
+      <c r="I8" s="5">
+        <v>2</v>
+      </c>
+      <c r="J8" s="5">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5">
+        <v>2</v>
+      </c>
+      <c r="L8" s="5">
+        <v>30</v>
+      </c>
+      <c r="M8" s="5">
+        <v>1</v>
+      </c>
+      <c r="N8" s="5">
+        <v>1</v>
+      </c>
+      <c r="O8" s="5">
+        <v>3</v>
+      </c>
+      <c r="P8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>1</v>
+      </c>
+      <c r="R8" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="S8" s="5">
+        <v>2</v>
+      </c>
+      <c r="T8" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="5">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1002</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5">
+        <v>20</v>
+      </c>
+      <c r="E9" s="5">
+        <v>100</v>
+      </c>
+      <c r="F9" s="5">
+        <v>20</v>
+      </c>
+      <c r="G9" s="5">
+        <v>5</v>
+      </c>
+      <c r="H9" s="5">
+        <v>8</v>
+      </c>
+      <c r="I9" s="9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5">
+        <v>1</v>
+      </c>
+      <c r="K9" s="5">
+        <v>2</v>
+      </c>
+      <c r="L9" s="5">
+        <v>30</v>
+      </c>
+      <c r="M9" s="5">
+        <v>2</v>
+      </c>
+      <c r="N9" s="5">
+        <v>1</v>
+      </c>
+      <c r="O9" s="5">
+        <v>3</v>
+      </c>
+      <c r="P9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>1</v>
+      </c>
+      <c r="R9" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="S9" s="5">
+        <v>2</v>
+      </c>
+      <c r="T9" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="5">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1003</v>
+      </c>
+      <c r="C10" s="9">
+        <v>2</v>
+      </c>
+      <c r="D10" s="9">
+        <v>20</v>
+      </c>
+      <c r="E10" s="5">
+        <v>100</v>
+      </c>
+      <c r="F10" s="5">
+        <v>20</v>
+      </c>
+      <c r="G10" s="5">
+        <v>5</v>
+      </c>
+      <c r="H10" s="5">
+        <v>8</v>
+      </c>
+      <c r="I10" s="9">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5">
+        <v>2</v>
+      </c>
+      <c r="L10" s="5">
+        <v>30</v>
+      </c>
+      <c r="M10" s="5">
+        <v>3</v>
+      </c>
+      <c r="N10" s="5">
+        <v>1</v>
+      </c>
+      <c r="O10" s="5">
+        <v>3</v>
+      </c>
+      <c r="P10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>1</v>
+      </c>
+      <c r="R10" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="S10" s="5">
+        <v>2</v>
+      </c>
+      <c r="T10" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="5">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1004</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5">
+        <v>20</v>
+      </c>
+      <c r="E11" s="5">
+        <v>100</v>
+      </c>
+      <c r="F11" s="5">
+        <v>20</v>
+      </c>
+      <c r="G11" s="5">
+        <v>5</v>
+      </c>
+      <c r="H11" s="5">
+        <v>8</v>
+      </c>
+      <c r="I11" s="9">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5">
+        <v>2</v>
+      </c>
+      <c r="L11" s="5">
+        <v>30</v>
+      </c>
+      <c r="M11" s="5">
+        <v>4</v>
+      </c>
+      <c r="N11" s="5">
+        <v>1</v>
+      </c>
+      <c r="O11" s="5">
+        <v>3</v>
+      </c>
+      <c r="P11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>3</v>
+      </c>
+      <c r="R11" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="S11" s="5">
+        <v>2</v>
+      </c>
+      <c r="T11" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="5">
+        <v>9</v>
+      </c>
+      <c r="B12" s="5">
+        <v>2001</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5">
+        <v>10</v>
+      </c>
+      <c r="E12" s="5">
+        <v>100</v>
+      </c>
+      <c r="F12" s="5">
+        <v>10</v>
+      </c>
+      <c r="G12" s="5">
+        <v>5</v>
+      </c>
+      <c r="H12" s="5">
+        <v>8</v>
+      </c>
+      <c r="I12" s="5">
+        <v>2</v>
+      </c>
+      <c r="J12" s="5">
+        <v>1</v>
+      </c>
+      <c r="K12" s="5">
+        <v>2</v>
+      </c>
+      <c r="L12" s="5">
+        <v>30</v>
+      </c>
+      <c r="M12" s="5">
+        <v>1</v>
+      </c>
+      <c r="N12" s="5">
+        <v>0</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0</v>
+      </c>
+      <c r="P12" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>5</v>
+      </c>
+      <c r="R12" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="S12" s="5">
+        <v>2</v>
+      </c>
+      <c r="T12" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="5">
+        <v>10</v>
+      </c>
+      <c r="B13" s="5">
+        <v>2002</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <v>10</v>
+      </c>
+      <c r="E13" s="5">
+        <v>100</v>
+      </c>
+      <c r="F13" s="5">
+        <v>10</v>
+      </c>
+      <c r="G13" s="5">
+        <v>5</v>
+      </c>
+      <c r="H13" s="5">
+        <v>80</v>
+      </c>
+      <c r="I13" s="5">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5">
+        <v>1</v>
+      </c>
+      <c r="K13" s="5">
+        <v>1</v>
+      </c>
+      <c r="L13" s="5">
+        <v>30</v>
+      </c>
+      <c r="M13" s="5">
+        <v>2</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0</v>
+      </c>
+      <c r="O13" s="5">
+        <v>0</v>
+      </c>
+      <c r="P13" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>3</v>
+      </c>
+      <c r="R13" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="S13" s="5">
+        <v>2</v>
+      </c>
+      <c r="T13" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="5">
+        <v>11</v>
+      </c>
+      <c r="B14" s="5">
+        <v>2003</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
+        <v>10</v>
+      </c>
+      <c r="E14" s="5">
+        <v>100</v>
+      </c>
+      <c r="F14" s="5">
+        <v>10</v>
+      </c>
+      <c r="G14" s="5">
+        <v>5</v>
+      </c>
+      <c r="H14" s="5">
+        <v>8</v>
+      </c>
+      <c r="I14" s="5">
+        <v>1</v>
+      </c>
+      <c r="J14" s="5">
+        <v>1</v>
+      </c>
+      <c r="K14" s="5">
+        <v>1</v>
+      </c>
+      <c r="L14" s="5">
+        <v>30</v>
+      </c>
+      <c r="M14" s="5">
+        <v>2</v>
+      </c>
+      <c r="N14" s="5">
+        <v>0</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0</v>
+      </c>
+      <c r="P14" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>10</v>
+      </c>
+      <c r="R14" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="S14" s="5">
+        <v>2</v>
+      </c>
+      <c r="T14" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="15" thickBot="1">
+      <c r="A15" s="5">
+        <v>12</v>
+      </c>
+      <c r="B15" s="5">
+        <v>2004</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5">
+        <v>10</v>
+      </c>
+      <c r="E15" s="5">
+        <v>100</v>
+      </c>
+      <c r="F15" s="5">
+        <v>10</v>
+      </c>
+      <c r="G15" s="5">
+        <v>5</v>
+      </c>
+      <c r="H15" s="5">
+        <v>80</v>
+      </c>
+      <c r="I15" s="5">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5">
+        <v>1</v>
+      </c>
+      <c r="K15" s="5">
+        <v>1</v>
+      </c>
+      <c r="L15" s="5">
+        <v>30</v>
+      </c>
+      <c r="M15" s="5">
+        <v>3</v>
+      </c>
+      <c r="N15" s="5">
+        <v>0</v>
+      </c>
+      <c r="O15" s="5">
+        <v>0</v>
+      </c>
+      <c r="P15" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>3</v>
+      </c>
+      <c r="R15" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="S15" s="5">
+        <v>2</v>
+      </c>
+      <c r="T15" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="15" thickBot="1">
+      <c r="A16" s="5">
+        <v>13</v>
+      </c>
+      <c r="B16" s="5">
+        <v>2005</v>
+      </c>
+      <c r="C16" s="24">
+        <v>1</v>
+      </c>
+      <c r="D16" s="29">
+        <v>10</v>
+      </c>
+      <c r="E16" s="5">
+        <v>100</v>
+      </c>
+      <c r="F16" s="5">
+        <v>10</v>
+      </c>
+      <c r="G16" s="5">
+        <v>5</v>
+      </c>
+      <c r="H16" s="5">
+        <v>80</v>
+      </c>
+      <c r="I16" s="5">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5">
+        <v>1</v>
+      </c>
+      <c r="K16" s="5">
+        <v>1</v>
+      </c>
+      <c r="L16" s="5">
+        <v>30</v>
+      </c>
+      <c r="M16" s="5">
+        <v>4</v>
+      </c>
+      <c r="N16" s="5">
+        <v>0</v>
+      </c>
+      <c r="O16" s="5">
+        <v>0</v>
+      </c>
+      <c r="P16" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>1</v>
+      </c>
+      <c r="R16" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="S16" s="5">
+        <v>2</v>
+      </c>
+      <c r="T16" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="5">
+        <v>14</v>
+      </c>
+      <c r="B17" s="5">
+        <v>2006</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5">
+        <v>10</v>
+      </c>
+      <c r="E17" s="5">
+        <v>100</v>
+      </c>
+      <c r="F17" s="5">
+        <v>10</v>
+      </c>
+      <c r="G17" s="5">
+        <v>5</v>
+      </c>
+      <c r="H17" s="5">
+        <v>8</v>
+      </c>
+      <c r="I17" s="5">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5">
+        <v>1</v>
+      </c>
+      <c r="K17" s="5">
+        <v>1</v>
+      </c>
+      <c r="L17" s="5">
+        <v>30</v>
+      </c>
+      <c r="M17" s="5">
+        <v>0</v>
+      </c>
+      <c r="N17" s="5">
+        <v>0</v>
+      </c>
+      <c r="O17" s="5">
+        <v>0</v>
+      </c>
+      <c r="P17" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>10</v>
+      </c>
+      <c r="R17" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="S17" s="5">
+        <v>2</v>
+      </c>
+      <c r="T17" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="15" thickBot="1">
+      <c r="A18" s="5">
+        <v>15</v>
+      </c>
+      <c r="B18" s="5">
+        <v>2007</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5">
+        <v>10</v>
+      </c>
+      <c r="E18" s="5">
+        <v>100</v>
+      </c>
+      <c r="F18" s="5">
+        <v>10</v>
+      </c>
+      <c r="G18" s="5">
+        <v>5</v>
+      </c>
+      <c r="H18" s="5">
+        <v>80</v>
+      </c>
+      <c r="I18" s="5">
+        <v>1</v>
+      </c>
+      <c r="J18" s="5">
+        <v>1</v>
+      </c>
+      <c r="K18" s="5">
+        <v>1</v>
+      </c>
+      <c r="L18" s="5">
+        <v>30</v>
+      </c>
+      <c r="M18" s="5">
+        <v>0</v>
+      </c>
+      <c r="N18" s="5">
+        <v>0</v>
+      </c>
+      <c r="O18" s="5">
+        <v>0</v>
+      </c>
+      <c r="P18" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>3</v>
+      </c>
+      <c r="R18" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="S18" s="5">
+        <v>2</v>
+      </c>
+      <c r="T18" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="15" thickBot="1">
+      <c r="A19" s="5">
+        <v>16</v>
+      </c>
+      <c r="B19" s="5">
+        <v>2008</v>
+      </c>
+      <c r="C19" s="24">
+        <v>1</v>
+      </c>
+      <c r="D19" s="29">
+        <v>10</v>
+      </c>
+      <c r="E19" s="5">
+        <v>100</v>
+      </c>
+      <c r="F19" s="5">
+        <v>10</v>
+      </c>
+      <c r="G19" s="5">
+        <v>5</v>
+      </c>
+      <c r="H19" s="5">
+        <v>80</v>
+      </c>
+      <c r="I19" s="5">
+        <v>1</v>
+      </c>
+      <c r="J19" s="5">
+        <v>1</v>
+      </c>
+      <c r="K19" s="5">
+        <v>1</v>
+      </c>
+      <c r="L19" s="5">
+        <v>30</v>
+      </c>
+      <c r="M19" s="5">
+        <v>0</v>
+      </c>
+      <c r="N19" s="5">
+        <v>0</v>
+      </c>
+      <c r="O19" s="5">
+        <v>0</v>
+      </c>
+      <c r="P19" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>1</v>
+      </c>
+      <c r="R19" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="S19" s="5">
+        <v>2</v>
+      </c>
+      <c r="T19" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="5">
+        <v>17</v>
+      </c>
+      <c r="B20" s="5">
+        <v>2006</v>
+      </c>
+      <c r="C20" s="5">
+        <v>2</v>
+      </c>
+      <c r="D20" s="5">
+        <v>20</v>
+      </c>
+      <c r="E20" s="5">
+        <v>100</v>
+      </c>
+      <c r="F20" s="5">
+        <v>10</v>
+      </c>
+      <c r="G20" s="5">
+        <v>5</v>
+      </c>
+      <c r="H20" s="5">
+        <v>8</v>
+      </c>
+      <c r="I20" s="5">
+        <v>2</v>
+      </c>
+      <c r="J20" s="5">
+        <v>2</v>
+      </c>
+      <c r="K20" s="5">
+        <v>1</v>
+      </c>
+      <c r="L20" s="5">
+        <v>30</v>
+      </c>
+      <c r="M20" s="5">
+        <v>0</v>
+      </c>
+      <c r="N20" s="5">
+        <v>0</v>
+      </c>
+      <c r="O20" s="5">
+        <v>0</v>
+      </c>
+      <c r="P20" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>10</v>
+      </c>
+      <c r="R20" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="S20" s="5">
+        <v>2</v>
+      </c>
+      <c r="T20" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="15" thickBot="1">
+      <c r="A21" s="5">
+        <v>18</v>
+      </c>
+      <c r="B21" s="5">
+        <v>2007</v>
+      </c>
+      <c r="C21" s="5">
+        <v>2</v>
+      </c>
+      <c r="D21" s="5">
+        <v>20</v>
+      </c>
+      <c r="E21" s="5">
+        <v>100</v>
+      </c>
+      <c r="F21" s="5">
+        <v>10</v>
+      </c>
+      <c r="G21" s="5">
+        <v>5</v>
+      </c>
+      <c r="H21" s="5">
+        <v>80</v>
+      </c>
+      <c r="I21" s="5">
+        <v>2</v>
+      </c>
+      <c r="J21" s="5">
+        <v>2</v>
+      </c>
+      <c r="K21" s="5">
+        <v>1</v>
+      </c>
+      <c r="L21" s="5">
+        <v>30</v>
+      </c>
+      <c r="M21" s="5">
+        <v>0</v>
+      </c>
+      <c r="N21" s="5">
+        <v>0</v>
+      </c>
+      <c r="O21" s="5">
+        <v>0</v>
+      </c>
+      <c r="P21" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>3</v>
+      </c>
+      <c r="R21" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="S21" s="5">
+        <v>2</v>
+      </c>
+      <c r="T21" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="15" thickBot="1">
+      <c r="A22" s="5">
+        <v>19</v>
+      </c>
+      <c r="B22" s="5">
+        <v>2008</v>
+      </c>
+      <c r="C22" s="24">
+        <v>2</v>
+      </c>
+      <c r="D22" s="29">
+        <v>20</v>
+      </c>
+      <c r="E22" s="5">
+        <v>100</v>
+      </c>
+      <c r="F22" s="5">
+        <v>10</v>
+      </c>
+      <c r="G22" s="5">
+        <v>5</v>
+      </c>
+      <c r="H22" s="5">
+        <v>80</v>
+      </c>
+      <c r="I22" s="5">
+        <v>2</v>
+      </c>
+      <c r="J22" s="5">
+        <v>2</v>
+      </c>
+      <c r="K22" s="5">
+        <v>1</v>
+      </c>
+      <c r="L22" s="5">
+        <v>30</v>
+      </c>
+      <c r="M22" s="5">
+        <v>0</v>
+      </c>
+      <c r="N22" s="5">
+        <v>0</v>
+      </c>
+      <c r="O22" s="5">
+        <v>0</v>
+      </c>
+      <c r="P22" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>1</v>
+      </c>
+      <c r="R22" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="S22" s="5">
+        <v>2</v>
+      </c>
+      <c r="T22" s="5">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2547,1408 +3928,6 @@
       <c r="J15" s="9" t="s">
         <v>143</v>
       </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="7"/>
-  </sheetPr>
-  <dimension ref="A1:T24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="2" max="10" width="15.5546875" customWidth="1"/>
-    <col min="11" max="11" width="18.109375" customWidth="1"/>
-    <col min="12" max="13" width="18.6640625" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" customWidth="1"/>
-    <col min="17" max="17" width="27" customWidth="1"/>
-    <col min="18" max="18" width="31.109375" style="24" customWidth="1"/>
-    <col min="19" max="20" width="16.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" s="13" customFormat="1">
-      <c r="A1" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q1" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="R1" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="S1" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="T1" s="14" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="P2" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="R2" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="S2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="T2" s="15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="N3" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="P3" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="S3" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="T3" s="18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="5">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1001</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5">
-        <v>10</v>
-      </c>
-      <c r="E4" s="5">
-        <v>100</v>
-      </c>
-      <c r="F4" s="5">
-        <v>10</v>
-      </c>
-      <c r="G4" s="5">
-        <v>5</v>
-      </c>
-      <c r="H4" s="5">
-        <v>80</v>
-      </c>
-      <c r="I4" s="5">
-        <v>2</v>
-      </c>
-      <c r="J4" s="5">
-        <v>1</v>
-      </c>
-      <c r="K4" s="5">
-        <v>2</v>
-      </c>
-      <c r="L4" s="5">
-        <v>30</v>
-      </c>
-      <c r="M4" s="5">
-        <v>1</v>
-      </c>
-      <c r="N4" s="5">
-        <v>1</v>
-      </c>
-      <c r="O4" s="5">
-        <v>3</v>
-      </c>
-      <c r="P4" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>1</v>
-      </c>
-      <c r="R4" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="S4" s="5">
-        <v>2</v>
-      </c>
-      <c r="T4" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1002</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5">
-        <v>10</v>
-      </c>
-      <c r="E5" s="5">
-        <v>100</v>
-      </c>
-      <c r="F5" s="5">
-        <v>15</v>
-      </c>
-      <c r="G5" s="5">
-        <v>5</v>
-      </c>
-      <c r="H5" s="5">
-        <v>8</v>
-      </c>
-      <c r="I5" s="9">
-        <v>1</v>
-      </c>
-      <c r="J5" s="5">
-        <v>1</v>
-      </c>
-      <c r="K5" s="5">
-        <v>2</v>
-      </c>
-      <c r="L5" s="5">
-        <v>30</v>
-      </c>
-      <c r="M5" s="5">
-        <v>2</v>
-      </c>
-      <c r="N5" s="5">
-        <v>1</v>
-      </c>
-      <c r="O5" s="5">
-        <v>3</v>
-      </c>
-      <c r="P5" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>1</v>
-      </c>
-      <c r="R5" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="S5" s="5">
-        <v>2</v>
-      </c>
-      <c r="T5" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="5">
-        <v>3</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1003</v>
-      </c>
-      <c r="C6" s="9">
-        <v>1</v>
-      </c>
-      <c r="D6" s="9">
-        <v>10</v>
-      </c>
-      <c r="E6" s="5">
-        <v>100</v>
-      </c>
-      <c r="F6" s="5">
-        <v>20</v>
-      </c>
-      <c r="G6" s="5">
-        <v>5</v>
-      </c>
-      <c r="H6" s="5">
-        <v>8</v>
-      </c>
-      <c r="I6" s="9">
-        <v>1</v>
-      </c>
-      <c r="J6" s="5">
-        <v>1</v>
-      </c>
-      <c r="K6" s="5">
-        <v>2</v>
-      </c>
-      <c r="L6" s="5">
-        <v>30</v>
-      </c>
-      <c r="M6" s="5">
-        <v>3</v>
-      </c>
-      <c r="N6" s="5">
-        <v>1</v>
-      </c>
-      <c r="O6" s="5">
-        <v>3</v>
-      </c>
-      <c r="P6" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>1</v>
-      </c>
-      <c r="R6" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="S6" s="5">
-        <v>2</v>
-      </c>
-      <c r="T6" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="5">
-        <v>4</v>
-      </c>
-      <c r="B7" s="5">
-        <v>1004</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5">
-        <v>10</v>
-      </c>
-      <c r="E7" s="5">
-        <v>100</v>
-      </c>
-      <c r="F7" s="5">
-        <v>20</v>
-      </c>
-      <c r="G7" s="5">
-        <v>5</v>
-      </c>
-      <c r="H7" s="5">
-        <v>8</v>
-      </c>
-      <c r="I7" s="9">
-        <v>1</v>
-      </c>
-      <c r="J7" s="5">
-        <v>1</v>
-      </c>
-      <c r="K7" s="5">
-        <v>2</v>
-      </c>
-      <c r="L7" s="5">
-        <v>30</v>
-      </c>
-      <c r="M7" s="5">
-        <v>4</v>
-      </c>
-      <c r="N7" s="5">
-        <v>1</v>
-      </c>
-      <c r="O7" s="5">
-        <v>3</v>
-      </c>
-      <c r="P7" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>1</v>
-      </c>
-      <c r="R7" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="S7" s="5">
-        <v>2</v>
-      </c>
-      <c r="T7" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="5">
-        <v>5</v>
-      </c>
-      <c r="B8" s="5">
-        <v>1001</v>
-      </c>
-      <c r="C8" s="5">
-        <v>2</v>
-      </c>
-      <c r="D8" s="5">
-        <v>20</v>
-      </c>
-      <c r="E8" s="5">
-        <v>100</v>
-      </c>
-      <c r="F8" s="5">
-        <v>20</v>
-      </c>
-      <c r="G8" s="5">
-        <v>5</v>
-      </c>
-      <c r="H8" s="5">
-        <v>80</v>
-      </c>
-      <c r="I8" s="5">
-        <v>2</v>
-      </c>
-      <c r="J8" s="5">
-        <v>1</v>
-      </c>
-      <c r="K8" s="5">
-        <v>2</v>
-      </c>
-      <c r="L8" s="5">
-        <v>30</v>
-      </c>
-      <c r="M8" s="5">
-        <v>1</v>
-      </c>
-      <c r="N8" s="5">
-        <v>1</v>
-      </c>
-      <c r="O8" s="5">
-        <v>3</v>
-      </c>
-      <c r="P8" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="5">
-        <v>1</v>
-      </c>
-      <c r="R8" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="S8" s="5">
-        <v>2</v>
-      </c>
-      <c r="T8" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="5">
-        <v>6</v>
-      </c>
-      <c r="B9" s="5">
-        <v>1002</v>
-      </c>
-      <c r="C9" s="5">
-        <v>2</v>
-      </c>
-      <c r="D9" s="5">
-        <v>20</v>
-      </c>
-      <c r="E9" s="5">
-        <v>100</v>
-      </c>
-      <c r="F9" s="5">
-        <v>20</v>
-      </c>
-      <c r="G9" s="5">
-        <v>5</v>
-      </c>
-      <c r="H9" s="5">
-        <v>8</v>
-      </c>
-      <c r="I9" s="9">
-        <v>1</v>
-      </c>
-      <c r="J9" s="5">
-        <v>1</v>
-      </c>
-      <c r="K9" s="5">
-        <v>2</v>
-      </c>
-      <c r="L9" s="5">
-        <v>30</v>
-      </c>
-      <c r="M9" s="5">
-        <v>2</v>
-      </c>
-      <c r="N9" s="5">
-        <v>1</v>
-      </c>
-      <c r="O9" s="5">
-        <v>3</v>
-      </c>
-      <c r="P9" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>1</v>
-      </c>
-      <c r="R9" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="S9" s="5">
-        <v>2</v>
-      </c>
-      <c r="T9" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="5">
-        <v>7</v>
-      </c>
-      <c r="B10" s="5">
-        <v>1003</v>
-      </c>
-      <c r="C10" s="9">
-        <v>2</v>
-      </c>
-      <c r="D10" s="9">
-        <v>20</v>
-      </c>
-      <c r="E10" s="5">
-        <v>100</v>
-      </c>
-      <c r="F10" s="5">
-        <v>20</v>
-      </c>
-      <c r="G10" s="5">
-        <v>5</v>
-      </c>
-      <c r="H10" s="5">
-        <v>8</v>
-      </c>
-      <c r="I10" s="9">
-        <v>1</v>
-      </c>
-      <c r="J10" s="5">
-        <v>1</v>
-      </c>
-      <c r="K10" s="5">
-        <v>2</v>
-      </c>
-      <c r="L10" s="5">
-        <v>30</v>
-      </c>
-      <c r="M10" s="5">
-        <v>3</v>
-      </c>
-      <c r="N10" s="5">
-        <v>1</v>
-      </c>
-      <c r="O10" s="5">
-        <v>3</v>
-      </c>
-      <c r="P10" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>1</v>
-      </c>
-      <c r="R10" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="S10" s="5">
-        <v>2</v>
-      </c>
-      <c r="T10" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="5">
-        <v>8</v>
-      </c>
-      <c r="B11" s="5">
-        <v>1004</v>
-      </c>
-      <c r="C11" s="5">
-        <v>2</v>
-      </c>
-      <c r="D11" s="5">
-        <v>20</v>
-      </c>
-      <c r="E11" s="5">
-        <v>100</v>
-      </c>
-      <c r="F11" s="5">
-        <v>20</v>
-      </c>
-      <c r="G11" s="5">
-        <v>5</v>
-      </c>
-      <c r="H11" s="5">
-        <v>8</v>
-      </c>
-      <c r="I11" s="9">
-        <v>1</v>
-      </c>
-      <c r="J11" s="5">
-        <v>1</v>
-      </c>
-      <c r="K11" s="5">
-        <v>2</v>
-      </c>
-      <c r="L11" s="5">
-        <v>30</v>
-      </c>
-      <c r="M11" s="5">
-        <v>4</v>
-      </c>
-      <c r="N11" s="5">
-        <v>1</v>
-      </c>
-      <c r="O11" s="5">
-        <v>3</v>
-      </c>
-      <c r="P11" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="5">
-        <v>3</v>
-      </c>
-      <c r="R11" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="S11" s="5">
-        <v>2</v>
-      </c>
-      <c r="T11" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="5">
-        <v>9</v>
-      </c>
-      <c r="B12" s="5">
-        <v>2001</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1</v>
-      </c>
-      <c r="D12" s="5">
-        <v>10</v>
-      </c>
-      <c r="E12" s="5">
-        <v>100</v>
-      </c>
-      <c r="F12" s="5">
-        <v>10</v>
-      </c>
-      <c r="G12" s="5">
-        <v>5</v>
-      </c>
-      <c r="H12" s="5">
-        <v>8</v>
-      </c>
-      <c r="I12" s="5">
-        <v>2</v>
-      </c>
-      <c r="J12" s="5">
-        <v>1</v>
-      </c>
-      <c r="K12" s="5">
-        <v>2</v>
-      </c>
-      <c r="L12" s="5">
-        <v>30</v>
-      </c>
-      <c r="M12" s="5">
-        <v>1</v>
-      </c>
-      <c r="N12" s="5">
-        <v>0</v>
-      </c>
-      <c r="O12" s="5">
-        <v>0</v>
-      </c>
-      <c r="P12" s="5">
-        <v>5</v>
-      </c>
-      <c r="Q12" s="5">
-        <v>5</v>
-      </c>
-      <c r="R12" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="S12" s="5">
-        <v>2</v>
-      </c>
-      <c r="T12" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="5">
-        <v>10</v>
-      </c>
-      <c r="B13" s="5">
-        <v>2002</v>
-      </c>
-      <c r="C13" s="5">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5">
-        <v>10</v>
-      </c>
-      <c r="E13" s="5">
-        <v>100</v>
-      </c>
-      <c r="F13" s="5">
-        <v>10</v>
-      </c>
-      <c r="G13" s="5">
-        <v>5</v>
-      </c>
-      <c r="H13" s="5">
-        <v>80</v>
-      </c>
-      <c r="I13" s="5">
-        <v>1</v>
-      </c>
-      <c r="J13" s="5">
-        <v>1</v>
-      </c>
-      <c r="K13" s="5">
-        <v>1</v>
-      </c>
-      <c r="L13" s="5">
-        <v>30</v>
-      </c>
-      <c r="M13" s="5">
-        <v>2</v>
-      </c>
-      <c r="N13" s="5">
-        <v>0</v>
-      </c>
-      <c r="O13" s="5">
-        <v>0</v>
-      </c>
-      <c r="P13" s="5">
-        <v>5</v>
-      </c>
-      <c r="Q13" s="5">
-        <v>3</v>
-      </c>
-      <c r="R13" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="S13" s="5">
-        <v>2</v>
-      </c>
-      <c r="T13" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="5">
-        <v>11</v>
-      </c>
-      <c r="B14" s="5">
-        <v>2003</v>
-      </c>
-      <c r="C14" s="5">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5">
-        <v>10</v>
-      </c>
-      <c r="E14" s="5">
-        <v>100</v>
-      </c>
-      <c r="F14" s="5">
-        <v>10</v>
-      </c>
-      <c r="G14" s="5">
-        <v>5</v>
-      </c>
-      <c r="H14" s="5">
-        <v>8</v>
-      </c>
-      <c r="I14" s="5">
-        <v>1</v>
-      </c>
-      <c r="J14" s="5">
-        <v>1</v>
-      </c>
-      <c r="K14" s="5">
-        <v>1</v>
-      </c>
-      <c r="L14" s="5">
-        <v>30</v>
-      </c>
-      <c r="M14" s="5">
-        <v>2</v>
-      </c>
-      <c r="N14" s="5">
-        <v>0</v>
-      </c>
-      <c r="O14" s="5">
-        <v>0</v>
-      </c>
-      <c r="P14" s="5">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="5">
-        <v>10</v>
-      </c>
-      <c r="R14" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="S14" s="5">
-        <v>2</v>
-      </c>
-      <c r="T14" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="15" thickBot="1">
-      <c r="A15" s="5">
-        <v>12</v>
-      </c>
-      <c r="B15" s="5">
-        <v>2004</v>
-      </c>
-      <c r="C15" s="5">
-        <v>1</v>
-      </c>
-      <c r="D15" s="5">
-        <v>10</v>
-      </c>
-      <c r="E15" s="5">
-        <v>100</v>
-      </c>
-      <c r="F15" s="5">
-        <v>10</v>
-      </c>
-      <c r="G15" s="5">
-        <v>5</v>
-      </c>
-      <c r="H15" s="5">
-        <v>80</v>
-      </c>
-      <c r="I15" s="5">
-        <v>1</v>
-      </c>
-      <c r="J15" s="5">
-        <v>1</v>
-      </c>
-      <c r="K15" s="5">
-        <v>1</v>
-      </c>
-      <c r="L15" s="5">
-        <v>30</v>
-      </c>
-      <c r="M15" s="5">
-        <v>3</v>
-      </c>
-      <c r="N15" s="5">
-        <v>0</v>
-      </c>
-      <c r="O15" s="5">
-        <v>0</v>
-      </c>
-      <c r="P15" s="5">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="5">
-        <v>3</v>
-      </c>
-      <c r="R15" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="S15" s="5">
-        <v>2</v>
-      </c>
-      <c r="T15" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="15" thickBot="1">
-      <c r="A16" s="5">
-        <v>13</v>
-      </c>
-      <c r="B16" s="5">
-        <v>2005</v>
-      </c>
-      <c r="C16" s="25">
-        <v>1</v>
-      </c>
-      <c r="D16" s="30">
-        <v>10</v>
-      </c>
-      <c r="E16" s="5">
-        <v>100</v>
-      </c>
-      <c r="F16" s="5">
-        <v>10</v>
-      </c>
-      <c r="G16" s="5">
-        <v>5</v>
-      </c>
-      <c r="H16" s="5">
-        <v>80</v>
-      </c>
-      <c r="I16" s="5">
-        <v>1</v>
-      </c>
-      <c r="J16" s="5">
-        <v>1</v>
-      </c>
-      <c r="K16" s="5">
-        <v>1</v>
-      </c>
-      <c r="L16" s="5">
-        <v>30</v>
-      </c>
-      <c r="M16" s="5">
-        <v>4</v>
-      </c>
-      <c r="N16" s="5">
-        <v>0</v>
-      </c>
-      <c r="O16" s="5">
-        <v>0</v>
-      </c>
-      <c r="P16" s="5">
-        <v>5</v>
-      </c>
-      <c r="Q16" s="5">
-        <v>1</v>
-      </c>
-      <c r="R16" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="S16" s="5">
-        <v>2</v>
-      </c>
-      <c r="T16" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" s="5">
-        <v>14</v>
-      </c>
-      <c r="B17" s="5">
-        <v>2006</v>
-      </c>
-      <c r="C17" s="5">
-        <v>1</v>
-      </c>
-      <c r="D17" s="5">
-        <v>10</v>
-      </c>
-      <c r="E17" s="5">
-        <v>100</v>
-      </c>
-      <c r="F17" s="5">
-        <v>10</v>
-      </c>
-      <c r="G17" s="5">
-        <v>5</v>
-      </c>
-      <c r="H17" s="5">
-        <v>8</v>
-      </c>
-      <c r="I17" s="5">
-        <v>1</v>
-      </c>
-      <c r="J17" s="5">
-        <v>1</v>
-      </c>
-      <c r="K17" s="5">
-        <v>1</v>
-      </c>
-      <c r="L17" s="5">
-        <v>30</v>
-      </c>
-      <c r="M17" s="5">
-        <v>0</v>
-      </c>
-      <c r="N17" s="5">
-        <v>0</v>
-      </c>
-      <c r="O17" s="5">
-        <v>0</v>
-      </c>
-      <c r="P17" s="5">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="5">
-        <v>10</v>
-      </c>
-      <c r="R17" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="S17" s="5">
-        <v>2</v>
-      </c>
-      <c r="T17" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="15" thickBot="1">
-      <c r="A18" s="5">
-        <v>15</v>
-      </c>
-      <c r="B18" s="5">
-        <v>2007</v>
-      </c>
-      <c r="C18" s="5">
-        <v>1</v>
-      </c>
-      <c r="D18" s="5">
-        <v>10</v>
-      </c>
-      <c r="E18" s="5">
-        <v>100</v>
-      </c>
-      <c r="F18" s="5">
-        <v>10</v>
-      </c>
-      <c r="G18" s="5">
-        <v>5</v>
-      </c>
-      <c r="H18" s="5">
-        <v>80</v>
-      </c>
-      <c r="I18" s="5">
-        <v>1</v>
-      </c>
-      <c r="J18" s="5">
-        <v>1</v>
-      </c>
-      <c r="K18" s="5">
-        <v>1</v>
-      </c>
-      <c r="L18" s="5">
-        <v>30</v>
-      </c>
-      <c r="M18" s="5">
-        <v>0</v>
-      </c>
-      <c r="N18" s="5">
-        <v>0</v>
-      </c>
-      <c r="O18" s="5">
-        <v>0</v>
-      </c>
-      <c r="P18" s="5">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="5">
-        <v>3</v>
-      </c>
-      <c r="R18" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="S18" s="5">
-        <v>2</v>
-      </c>
-      <c r="T18" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="15" thickBot="1">
-      <c r="A19" s="5">
-        <v>16</v>
-      </c>
-      <c r="B19" s="5">
-        <v>2008</v>
-      </c>
-      <c r="C19" s="25">
-        <v>1</v>
-      </c>
-      <c r="D19" s="30">
-        <v>10</v>
-      </c>
-      <c r="E19" s="5">
-        <v>100</v>
-      </c>
-      <c r="F19" s="5">
-        <v>10</v>
-      </c>
-      <c r="G19" s="5">
-        <v>5</v>
-      </c>
-      <c r="H19" s="5">
-        <v>80</v>
-      </c>
-      <c r="I19" s="5">
-        <v>1</v>
-      </c>
-      <c r="J19" s="5">
-        <v>1</v>
-      </c>
-      <c r="K19" s="5">
-        <v>1</v>
-      </c>
-      <c r="L19" s="5">
-        <v>30</v>
-      </c>
-      <c r="M19" s="5">
-        <v>0</v>
-      </c>
-      <c r="N19" s="5">
-        <v>0</v>
-      </c>
-      <c r="O19" s="5">
-        <v>0</v>
-      </c>
-      <c r="P19" s="5">
-        <v>5</v>
-      </c>
-      <c r="Q19" s="5">
-        <v>1</v>
-      </c>
-      <c r="R19" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="S19" s="5">
-        <v>2</v>
-      </c>
-      <c r="T19" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" s="5">
-        <v>14</v>
-      </c>
-      <c r="B20" s="5">
-        <v>2006</v>
-      </c>
-      <c r="C20" s="5">
-        <v>2</v>
-      </c>
-      <c r="D20" s="5">
-        <v>20</v>
-      </c>
-      <c r="E20" s="5">
-        <v>100</v>
-      </c>
-      <c r="F20" s="5">
-        <v>10</v>
-      </c>
-      <c r="G20" s="5">
-        <v>5</v>
-      </c>
-      <c r="H20" s="5">
-        <v>8</v>
-      </c>
-      <c r="I20" s="5">
-        <v>2</v>
-      </c>
-      <c r="J20" s="5">
-        <v>2</v>
-      </c>
-      <c r="K20" s="5">
-        <v>1</v>
-      </c>
-      <c r="L20" s="5">
-        <v>30</v>
-      </c>
-      <c r="M20" s="5">
-        <v>0</v>
-      </c>
-      <c r="N20" s="5">
-        <v>0</v>
-      </c>
-      <c r="O20" s="5">
-        <v>0</v>
-      </c>
-      <c r="P20" s="5">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="5">
-        <v>10</v>
-      </c>
-      <c r="R20" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="S20" s="5">
-        <v>2</v>
-      </c>
-      <c r="T20" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="15" thickBot="1">
-      <c r="A21" s="5">
-        <v>15</v>
-      </c>
-      <c r="B21" s="5">
-        <v>2007</v>
-      </c>
-      <c r="C21" s="5">
-        <v>2</v>
-      </c>
-      <c r="D21" s="5">
-        <v>20</v>
-      </c>
-      <c r="E21" s="5">
-        <v>100</v>
-      </c>
-      <c r="F21" s="5">
-        <v>10</v>
-      </c>
-      <c r="G21" s="5">
-        <v>5</v>
-      </c>
-      <c r="H21" s="5">
-        <v>80</v>
-      </c>
-      <c r="I21" s="5">
-        <v>2</v>
-      </c>
-      <c r="J21" s="5">
-        <v>2</v>
-      </c>
-      <c r="K21" s="5">
-        <v>1</v>
-      </c>
-      <c r="L21" s="5">
-        <v>30</v>
-      </c>
-      <c r="M21" s="5">
-        <v>0</v>
-      </c>
-      <c r="N21" s="5">
-        <v>0</v>
-      </c>
-      <c r="O21" s="5">
-        <v>0</v>
-      </c>
-      <c r="P21" s="5">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="5">
-        <v>3</v>
-      </c>
-      <c r="R21" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="S21" s="5">
-        <v>2</v>
-      </c>
-      <c r="T21" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="15" thickBot="1">
-      <c r="A22" s="5">
-        <v>16</v>
-      </c>
-      <c r="B22" s="5">
-        <v>2008</v>
-      </c>
-      <c r="C22" s="25">
-        <v>2</v>
-      </c>
-      <c r="D22" s="30">
-        <v>20</v>
-      </c>
-      <c r="E22" s="5">
-        <v>100</v>
-      </c>
-      <c r="F22" s="5">
-        <v>10</v>
-      </c>
-      <c r="G22" s="5">
-        <v>5</v>
-      </c>
-      <c r="H22" s="5">
-        <v>80</v>
-      </c>
-      <c r="I22" s="5">
-        <v>2</v>
-      </c>
-      <c r="J22" s="5">
-        <v>2</v>
-      </c>
-      <c r="K22" s="5">
-        <v>1</v>
-      </c>
-      <c r="L22" s="5">
-        <v>30</v>
-      </c>
-      <c r="M22" s="5">
-        <v>0</v>
-      </c>
-      <c r="N22" s="5">
-        <v>0</v>
-      </c>
-      <c r="O22" s="5">
-        <v>0</v>
-      </c>
-      <c r="P22" s="5">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="5">
-        <v>1</v>
-      </c>
-      <c r="R22" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="S22" s="5">
-        <v>2</v>
-      </c>
-      <c r="T22" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="15" thickBot="1">
-      <c r="C23" s="19"/>
-      <c r="D23" s="31"/>
-    </row>
-    <row r="24" spans="1:20" ht="15" thickBot="1">
-      <c r="C24" s="19"/>
-      <c r="D24" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3964,7 +3943,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4125,10 +4104,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.399999999999999">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="25" t="s">
         <v>118</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -4139,10 +4118,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.399999999999999">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="25" t="s">
         <v>119</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -4153,10 +4132,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.399999999999999">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="25" t="s">
         <v>120</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -4167,10 +4146,10 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.399999999999999">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="25" t="s">
         <v>121</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -4530,8 +4509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -2033,7 +2033,7 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3126,7 +3126,7 @@
         <v>5</v>
       </c>
       <c r="H18" s="5">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="I18" s="5">
         <v>1</v>
@@ -3188,7 +3188,7 @@
         <v>5</v>
       </c>
       <c r="H19" s="5">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="I19" s="5">
         <v>1</v>
@@ -3312,7 +3312,7 @@
         <v>5</v>
       </c>
       <c r="H21" s="5">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="I21" s="5">
         <v>2</v>
@@ -3374,7 +3374,7 @@
         <v>5</v>
       </c>
       <c r="H22" s="5">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="I22" s="5">
         <v>2</v>

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="30420" yWindow="2952" windowWidth="24216" windowHeight="13956" activeTab="2"/>
+    <workbookView xWindow="30420" yWindow="2952" windowWidth="24216" windowHeight="13956" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigTable" sheetId="18" r:id="rId1"/>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="143">
   <si>
     <t>type</t>
   </si>
@@ -590,18 +590,6 @@
   </si>
   <si>
     <t>boomEffectPrefab</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoomEffect/Boom01.prefab</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoomEffect/Boom02.prefab</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoomEffect/Boom03.prefab</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -865,19 +853,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>barrack</t>
-  </si>
-  <si>
-    <t>boat</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>builder_hut</t>
-  </si>
-  <si>
-    <t>camp</t>
-  </si>
-  <si>
     <t>knockback</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1035,10 +1010,6 @@
   </si>
   <si>
     <t>upgradeCostCnt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoomEffect/Boom01.prefab</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1896,38 +1867,38 @@
     </row>
     <row r="13" spans="1:7" ht="15">
       <c r="A13" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C13" s="4">
         <v>0</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>133</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C15" s="4">
         <v>1</v>
@@ -1936,10 +1907,10 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C16" s="4">
         <v>2</v>
@@ -1948,10 +1919,10 @@
     </row>
     <row r="17" spans="1:4" ht="17.399999999999999">
       <c r="A17" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C17" s="4">
         <v>3</v>
@@ -1960,10 +1931,10 @@
     </row>
     <row r="18" spans="1:4" ht="17.399999999999999">
       <c r="A18" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C18" s="4">
         <v>4</v>
@@ -1972,10 +1943,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C19" s="4">
         <v>5</v>
@@ -1984,10 +1955,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C20" s="4">
         <v>6</v>
@@ -1996,10 +1967,10 @@
     </row>
     <row r="21" spans="1:4" ht="17.399999999999999">
       <c r="A21" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C21" s="4">
         <v>7</v>
@@ -2008,10 +1979,10 @@
     </row>
     <row r="22" spans="1:4" ht="17.399999999999999">
       <c r="A22" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C22" s="4">
         <v>8</v>
@@ -2032,8 +2003,8 @@
   </sheetPr>
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O29" sqref="M29:O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2060,7 +2031,7 @@
         <v>55</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>56</v>
@@ -2096,19 +2067,19 @@
         <v>75</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R1" s="19" t="s">
         <v>77</v>
       </c>
       <c r="S1" s="14" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="T1" s="14" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -2122,7 +2093,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>1</v>
@@ -2184,7 +2155,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>2</v>
@@ -2287,9 +2258,7 @@
       <c r="Q4" s="5">
         <v>1</v>
       </c>
-      <c r="R4" s="22" t="s">
-        <v>78</v>
-      </c>
+      <c r="R4" s="22"/>
       <c r="S4" s="5">
         <v>2</v>
       </c>
@@ -2349,9 +2318,7 @@
       <c r="Q5" s="5">
         <v>1</v>
       </c>
-      <c r="R5" s="22" t="s">
-        <v>79</v>
-      </c>
+      <c r="R5" s="22"/>
       <c r="S5" s="5">
         <v>2</v>
       </c>
@@ -2411,9 +2378,7 @@
       <c r="Q6" s="5">
         <v>1</v>
       </c>
-      <c r="R6" s="22" t="s">
-        <v>80</v>
-      </c>
+      <c r="R6" s="22"/>
       <c r="S6" s="5">
         <v>2</v>
       </c>
@@ -2473,9 +2438,7 @@
       <c r="Q7" s="5">
         <v>1</v>
       </c>
-      <c r="R7" s="22" t="s">
-        <v>78</v>
-      </c>
+      <c r="R7" s="22"/>
       <c r="S7" s="5">
         <v>2</v>
       </c>
@@ -2535,9 +2498,7 @@
       <c r="Q8" s="5">
         <v>1</v>
       </c>
-      <c r="R8" s="22" t="s">
-        <v>79</v>
-      </c>
+      <c r="R8" s="22"/>
       <c r="S8" s="5">
         <v>2</v>
       </c>
@@ -2597,9 +2558,7 @@
       <c r="Q9" s="5">
         <v>1</v>
       </c>
-      <c r="R9" s="22" t="s">
-        <v>80</v>
-      </c>
+      <c r="R9" s="22"/>
       <c r="S9" s="5">
         <v>2</v>
       </c>
@@ -2659,9 +2618,7 @@
       <c r="Q10" s="5">
         <v>1</v>
       </c>
-      <c r="R10" s="22" t="s">
-        <v>78</v>
-      </c>
+      <c r="R10" s="22"/>
       <c r="S10" s="5">
         <v>2</v>
       </c>
@@ -2721,9 +2678,7 @@
       <c r="Q11" s="5">
         <v>3</v>
       </c>
-      <c r="R11" s="22" t="s">
-        <v>79</v>
-      </c>
+      <c r="R11" s="22"/>
       <c r="S11" s="5">
         <v>2</v>
       </c>
@@ -2783,9 +2738,7 @@
       <c r="Q12" s="5">
         <v>5</v>
       </c>
-      <c r="R12" s="22" t="s">
-        <v>80</v>
-      </c>
+      <c r="R12" s="22"/>
       <c r="S12" s="5">
         <v>2</v>
       </c>
@@ -2845,9 +2798,7 @@
       <c r="Q13" s="5">
         <v>3</v>
       </c>
-      <c r="R13" s="22" t="s">
-        <v>78</v>
-      </c>
+      <c r="R13" s="22"/>
       <c r="S13" s="5">
         <v>2</v>
       </c>
@@ -2907,9 +2858,7 @@
       <c r="Q14" s="5">
         <v>10</v>
       </c>
-      <c r="R14" s="22" t="s">
-        <v>78</v>
-      </c>
+      <c r="R14" s="22"/>
       <c r="S14" s="5">
         <v>2</v>
       </c>
@@ -2969,9 +2918,7 @@
       <c r="Q15" s="5">
         <v>3</v>
       </c>
-      <c r="R15" s="22" t="s">
-        <v>78</v>
-      </c>
+      <c r="R15" s="22"/>
       <c r="S15" s="5">
         <v>2</v>
       </c>
@@ -3031,9 +2978,7 @@
       <c r="Q16" s="5">
         <v>1</v>
       </c>
-      <c r="R16" s="22" t="s">
-        <v>78</v>
-      </c>
+      <c r="R16" s="22"/>
       <c r="S16" s="5">
         <v>2</v>
       </c>
@@ -3093,9 +3038,7 @@
       <c r="Q17" s="5">
         <v>10</v>
       </c>
-      <c r="R17" s="22" t="s">
-        <v>78</v>
-      </c>
+      <c r="R17" s="22"/>
       <c r="S17" s="5">
         <v>2</v>
       </c>
@@ -3155,9 +3098,7 @@
       <c r="Q18" s="5">
         <v>3</v>
       </c>
-      <c r="R18" s="22" t="s">
-        <v>78</v>
-      </c>
+      <c r="R18" s="22"/>
       <c r="S18" s="5">
         <v>2</v>
       </c>
@@ -3217,9 +3158,7 @@
       <c r="Q19" s="5">
         <v>1</v>
       </c>
-      <c r="R19" s="22" t="s">
-        <v>78</v>
-      </c>
+      <c r="R19" s="22"/>
       <c r="S19" s="5">
         <v>2</v>
       </c>
@@ -3279,9 +3218,7 @@
       <c r="Q20" s="5">
         <v>10</v>
       </c>
-      <c r="R20" s="22" t="s">
-        <v>150</v>
-      </c>
+      <c r="R20" s="22"/>
       <c r="S20" s="5">
         <v>2</v>
       </c>
@@ -3341,9 +3278,7 @@
       <c r="Q21" s="5">
         <v>3</v>
       </c>
-      <c r="R21" s="22" t="s">
-        <v>78</v>
-      </c>
+      <c r="R21" s="22"/>
       <c r="S21" s="5">
         <v>2</v>
       </c>
@@ -3403,9 +3338,7 @@
       <c r="Q22" s="5">
         <v>1</v>
       </c>
-      <c r="R22" s="22" t="s">
-        <v>78</v>
-      </c>
+      <c r="R22" s="22"/>
       <c r="S22" s="5">
         <v>2</v>
       </c>
@@ -3426,8 +3359,8 @@
   </sheetPr>
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3457,10 +3390,10 @@
         <v>53</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>46</v>
@@ -3489,10 +3422,10 @@
         <v>51</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I2" s="17" t="s">
         <v>52</v>
@@ -3521,10 +3454,10 @@
         <v>2</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I3" s="18" t="s">
         <v>2</v>
@@ -3559,8 +3492,9 @@
         <f>"name_"&amp;A4</f>
         <v>name_1001</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>111</v>
+      <c r="I4" s="5" t="str">
+        <f>"unit_icon_"&amp;A4</f>
+        <v>unit_icon_1001</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>67</v>
@@ -3592,8 +3526,9 @@
         <f t="shared" ref="H5:H10" si="0">"name_"&amp;A5</f>
         <v>name_1002</v>
       </c>
-      <c r="I5" s="9" t="s">
-        <v>112</v>
+      <c r="I5" s="5" t="str">
+        <f t="shared" ref="I5:I15" si="1">"unit_icon_"&amp;A5</f>
+        <v>unit_icon_1002</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>68</v>
@@ -3625,8 +3560,9 @@
         <f t="shared" si="0"/>
         <v>name_1003</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>113</v>
+      <c r="I6" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>unit_icon_1003</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>69</v>
@@ -3658,8 +3594,9 @@
         <f t="shared" si="0"/>
         <v>name_1004</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>114</v>
+      <c r="I7" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>unit_icon_1004</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>70</v>
@@ -3691,8 +3628,9 @@
         <f t="shared" si="0"/>
         <v>name_2001</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>111</v>
+      <c r="I8" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>unit_icon_2001</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>71</v>
@@ -3724,8 +3662,9 @@
         <f t="shared" si="0"/>
         <v>name_2002</v>
       </c>
-      <c r="I9" s="9" t="s">
-        <v>112</v>
+      <c r="I9" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>unit_icon_2002</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>72</v>
@@ -3757,11 +3696,12 @@
         <f t="shared" si="0"/>
         <v>name_2003</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>113</v>
+      <c r="I10" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>unit_icon_2003</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3787,14 +3727,15 @@
         <v>2</v>
       </c>
       <c r="H11" s="9" t="str">
-        <f t="shared" ref="H11:H15" si="1">"name_"&amp;A11</f>
+        <f t="shared" ref="H11:H15" si="2">"name_"&amp;A11</f>
         <v>name_2004</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>114</v>
+      <c r="I11" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>unit_icon_2004</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3820,14 +3761,15 @@
         <v>2</v>
       </c>
       <c r="H12" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>name_2005</v>
+      </c>
+      <c r="I12" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>name_2005</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>113</v>
+        <v>unit_icon_2005</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -3853,14 +3795,15 @@
         <v>3</v>
       </c>
       <c r="H13" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>name_2006</v>
+      </c>
+      <c r="I13" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>name_2006</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>113</v>
+        <v>unit_icon_2006</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3886,14 +3829,15 @@
         <v>3</v>
       </c>
       <c r="H14" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>name_2007</v>
+      </c>
+      <c r="I14" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>name_2007</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>113</v>
+        <v>unit_icon_2007</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -3919,14 +3863,15 @@
         <v>3</v>
       </c>
       <c r="H15" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>name_2008</v>
+      </c>
+      <c r="I15" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>name_2008</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>113</v>
+        <v>unit_icon_2008</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3956,7 +3901,7 @@
         <v>42</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>47</v>
@@ -4025,7 +3970,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4036,7 +3981,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -4066,13 +4011,13 @@
         <v>42</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4108,13 +4053,13 @@
         <v>16</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.399999999999999">
@@ -4122,13 +4067,13 @@
         <v>17</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.399999999999999">
@@ -4136,27 +4081,27 @@
         <v>18</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.399999999999999">
       <c r="A7" s="26" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -4190,13 +4135,13 @@
         <v>42</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>47</v>
@@ -4207,13 +4152,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>3</v>
@@ -4241,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C4" s="5">
         <v>100</v>
@@ -4250,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17.399999999999999">
@@ -4258,7 +4203,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C5" s="5">
         <v>200</v>
@@ -4267,7 +4212,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.399999999999999">
@@ -4275,7 +4220,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C6" s="5">
         <v>300</v>
@@ -4284,7 +4229,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.399999999999999">
@@ -4292,7 +4237,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C7" s="5">
         <v>400</v>
@@ -4301,7 +4246,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.399999999999999">
@@ -4309,7 +4254,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C8" s="5">
         <v>500</v>
@@ -4318,7 +4263,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.399999999999999">
@@ -4326,7 +4271,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C9" s="5">
         <v>500</v>
@@ -4335,7 +4280,7 @@
         <v>5</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -4363,13 +4308,13 @@
         <v>42</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4527,10 +4472,10 @@
         <v>54</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:4">

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="30420" yWindow="2952" windowWidth="24216" windowHeight="13956" activeTab="3"/>
+    <workbookView xWindow="30420" yWindow="2952" windowWidth="24216" windowHeight="13956" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigTable" sheetId="18" r:id="rId1"/>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="144">
   <si>
     <t>type</t>
   </si>
@@ -1011,6 +1011,9 @@
   <si>
     <t>upgradeCostCnt</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoomEffect/Boom01.prefab</t>
   </si>
 </sst>
 </file>
@@ -2003,8 +2006,8 @@
   </sheetPr>
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O29" sqref="M29:O32"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2258,7 +2261,9 @@
       <c r="Q4" s="5">
         <v>1</v>
       </c>
-      <c r="R4" s="22"/>
+      <c r="R4" s="22" t="s">
+        <v>143</v>
+      </c>
       <c r="S4" s="5">
         <v>2</v>
       </c>
@@ -2318,7 +2323,9 @@
       <c r="Q5" s="5">
         <v>1</v>
       </c>
-      <c r="R5" s="22"/>
+      <c r="R5" s="22" t="s">
+        <v>143</v>
+      </c>
       <c r="S5" s="5">
         <v>2</v>
       </c>
@@ -2378,7 +2385,9 @@
       <c r="Q6" s="5">
         <v>1</v>
       </c>
-      <c r="R6" s="22"/>
+      <c r="R6" s="22" t="s">
+        <v>143</v>
+      </c>
       <c r="S6" s="5">
         <v>2</v>
       </c>
@@ -2438,7 +2447,9 @@
       <c r="Q7" s="5">
         <v>1</v>
       </c>
-      <c r="R7" s="22"/>
+      <c r="R7" s="22" t="s">
+        <v>143</v>
+      </c>
       <c r="S7" s="5">
         <v>2</v>
       </c>
@@ -2498,7 +2509,9 @@
       <c r="Q8" s="5">
         <v>1</v>
       </c>
-      <c r="R8" s="22"/>
+      <c r="R8" s="22" t="s">
+        <v>143</v>
+      </c>
       <c r="S8" s="5">
         <v>2</v>
       </c>
@@ -2558,7 +2571,9 @@
       <c r="Q9" s="5">
         <v>1</v>
       </c>
-      <c r="R9" s="22"/>
+      <c r="R9" s="22" t="s">
+        <v>143</v>
+      </c>
       <c r="S9" s="5">
         <v>2</v>
       </c>
@@ -2618,7 +2633,9 @@
       <c r="Q10" s="5">
         <v>1</v>
       </c>
-      <c r="R10" s="22"/>
+      <c r="R10" s="22" t="s">
+        <v>143</v>
+      </c>
       <c r="S10" s="5">
         <v>2</v>
       </c>
@@ -2678,7 +2695,9 @@
       <c r="Q11" s="5">
         <v>3</v>
       </c>
-      <c r="R11" s="22"/>
+      <c r="R11" s="22" t="s">
+        <v>143</v>
+      </c>
       <c r="S11" s="5">
         <v>2</v>
       </c>
@@ -2738,7 +2757,9 @@
       <c r="Q12" s="5">
         <v>5</v>
       </c>
-      <c r="R12" s="22"/>
+      <c r="R12" s="22" t="s">
+        <v>143</v>
+      </c>
       <c r="S12" s="5">
         <v>2</v>
       </c>
@@ -2798,7 +2819,9 @@
       <c r="Q13" s="5">
         <v>3</v>
       </c>
-      <c r="R13" s="22"/>
+      <c r="R13" s="22" t="s">
+        <v>143</v>
+      </c>
       <c r="S13" s="5">
         <v>2</v>
       </c>
@@ -2858,7 +2881,9 @@
       <c r="Q14" s="5">
         <v>10</v>
       </c>
-      <c r="R14" s="22"/>
+      <c r="R14" s="22" t="s">
+        <v>143</v>
+      </c>
       <c r="S14" s="5">
         <v>2</v>
       </c>
@@ -2918,7 +2943,9 @@
       <c r="Q15" s="5">
         <v>3</v>
       </c>
-      <c r="R15" s="22"/>
+      <c r="R15" s="22" t="s">
+        <v>143</v>
+      </c>
       <c r="S15" s="5">
         <v>2</v>
       </c>
@@ -2978,7 +3005,9 @@
       <c r="Q16" s="5">
         <v>1</v>
       </c>
-      <c r="R16" s="22"/>
+      <c r="R16" s="22" t="s">
+        <v>143</v>
+      </c>
       <c r="S16" s="5">
         <v>2</v>
       </c>
@@ -3038,7 +3067,9 @@
       <c r="Q17" s="5">
         <v>10</v>
       </c>
-      <c r="R17" s="22"/>
+      <c r="R17" s="22" t="s">
+        <v>143</v>
+      </c>
       <c r="S17" s="5">
         <v>2</v>
       </c>
@@ -3098,7 +3129,9 @@
       <c r="Q18" s="5">
         <v>3</v>
       </c>
-      <c r="R18" s="22"/>
+      <c r="R18" s="22" t="s">
+        <v>143</v>
+      </c>
       <c r="S18" s="5">
         <v>2</v>
       </c>
@@ -3158,7 +3191,9 @@
       <c r="Q19" s="5">
         <v>1</v>
       </c>
-      <c r="R19" s="22"/>
+      <c r="R19" s="22" t="s">
+        <v>143</v>
+      </c>
       <c r="S19" s="5">
         <v>2</v>
       </c>
@@ -3218,7 +3253,9 @@
       <c r="Q20" s="5">
         <v>10</v>
       </c>
-      <c r="R20" s="22"/>
+      <c r="R20" s="22" t="s">
+        <v>143</v>
+      </c>
       <c r="S20" s="5">
         <v>2</v>
       </c>
@@ -3278,7 +3315,9 @@
       <c r="Q21" s="5">
         <v>3</v>
       </c>
-      <c r="R21" s="22"/>
+      <c r="R21" s="22" t="s">
+        <v>143</v>
+      </c>
       <c r="S21" s="5">
         <v>2</v>
       </c>
@@ -3338,7 +3377,9 @@
       <c r="Q22" s="5">
         <v>1</v>
       </c>
-      <c r="R22" s="22"/>
+      <c r="R22" s="22" t="s">
+        <v>143</v>
+      </c>
       <c r="S22" s="5">
         <v>2</v>
       </c>
@@ -3359,8 +3400,8 @@
   </sheetPr>
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4455,7 +4496,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="30420" yWindow="2952" windowWidth="24216" windowHeight="13956" activeTab="2"/>
+    <workbookView xWindow="30420" yWindow="2952" windowWidth="24216" windowHeight="13956" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigTable" sheetId="18" r:id="rId1"/>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="144">
   <si>
     <t>type</t>
   </si>
@@ -2006,7 +2006,7 @@
   </sheetPr>
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
@@ -4157,10 +4157,10 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4315,7 +4315,7 @@
         <v>92</v>
       </c>
       <c r="C9" s="5">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="D9" s="5">
         <v>5</v>
@@ -4323,6 +4323,259 @@
       <c r="E9" s="9" t="s">
         <v>100</v>
       </c>
+    </row>
+    <row r="10" spans="1:5" ht="17.399999999999999">
+      <c r="A10" s="5">
+        <v>7</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="5">
+        <v>700</v>
+      </c>
+      <c r="D10" s="5">
+        <v>6</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17.399999999999999">
+      <c r="A11" s="5">
+        <v>8</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="5">
+        <v>800</v>
+      </c>
+      <c r="D11" s="5">
+        <v>7</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="17.399999999999999">
+      <c r="A12" s="5">
+        <v>9</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="5">
+        <v>900</v>
+      </c>
+      <c r="D12" s="5">
+        <v>8</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17.399999999999999">
+      <c r="A13" s="5">
+        <v>10</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D13" s="5">
+        <v>9</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17.399999999999999">
+      <c r="A14" s="5">
+        <v>11</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1100</v>
+      </c>
+      <c r="D14" s="5">
+        <v>10</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17.399999999999999">
+      <c r="A15" s="5">
+        <v>12</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1200</v>
+      </c>
+      <c r="D15" s="5">
+        <v>11</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="17.399999999999999">
+      <c r="A16" s="5">
+        <v>13</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1300</v>
+      </c>
+      <c r="D16" s="5">
+        <v>12</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17.399999999999999">
+      <c r="A17" s="5">
+        <v>14</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1400</v>
+      </c>
+      <c r="D17" s="5">
+        <v>13</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="17.399999999999999">
+      <c r="A18" s="5">
+        <v>15</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1500</v>
+      </c>
+      <c r="D18" s="5">
+        <v>14</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17.399999999999999">
+      <c r="A19" s="5">
+        <v>16</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1600</v>
+      </c>
+      <c r="D19" s="5">
+        <v>15</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="17.399999999999999">
+      <c r="A20" s="5">
+        <v>17</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1700</v>
+      </c>
+      <c r="D20" s="5">
+        <v>16</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="17.399999999999999">
+      <c r="A21" s="5">
+        <v>18</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1800</v>
+      </c>
+      <c r="D21" s="5">
+        <v>17</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="17.399999999999999">
+      <c r="A22" s="5">
+        <v>19</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1900</v>
+      </c>
+      <c r="D22" s="5">
+        <v>18</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="17.399999999999999">
+      <c r="A23" s="5">
+        <v>20</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="5">
+        <v>2000</v>
+      </c>
+      <c r="D23" s="5">
+        <v>19</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="5"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="5"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="5"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="5"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ejup\Desktop\GameJam\ExcelToCSV\SrcFolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GameJam\ExcelToCSV\SrcFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F4F9D6-BC9F-4C6F-BB1B-80BE07BF604C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30420" yWindow="2952" windowWidth="24216" windowHeight="13956" activeTab="6"/>
+    <workbookView xWindow="45585" yWindow="5565" windowWidth="28800" windowHeight="15435" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigTable" sheetId="18" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <sheet name="StageRewardInfo" sheetId="27" r:id="rId8"/>
     <sheet name="GachaList" sheetId="28" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -40,12 +41,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ejup</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -86,12 +87,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ejup</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -132,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="145">
   <si>
     <t>type</t>
   </si>
@@ -1015,11 +1016,15 @@
   <si>
     <t>BoomEffect/Boom01.prefab</t>
   </si>
+  <si>
+    <t>stageClearTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14">
     <font>
       <sz val="11"/>
@@ -1229,7 +1234,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1545,18 +1550,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1601,7 +1606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17.399999999999999">
+    <row r="4" spans="1:4" ht="16.5">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -1615,7 +1620,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17.399999999999999">
+    <row r="5" spans="1:4" ht="16.5">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1629,7 +1634,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17.399999999999999">
+    <row r="6" spans="1:4" ht="16.5">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1651,19 +1656,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" customWidth="1"/>
-    <col min="5" max="5" width="25.109375" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1770,7 +1775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1784,7 +1789,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1798,7 +1803,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15">
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -1812,7 +1817,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15">
+    <row r="9" spans="1:7">
       <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
@@ -1826,7 +1831,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15">
+    <row r="10" spans="1:7">
       <c r="A10" s="8" t="s">
         <v>28</v>
       </c>
@@ -1854,7 +1859,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15">
+    <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
         <v>61</v>
       </c>
@@ -1868,7 +1873,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15">
+    <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
         <v>78</v>
       </c>
@@ -1920,7 +1925,7 @@
       </c>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="1:4" ht="17.399999999999999">
+    <row r="17" spans="1:4" ht="16.5">
       <c r="A17" s="2" t="s">
         <v>126</v>
       </c>
@@ -1932,7 +1937,7 @@
       </c>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:4" ht="17.399999999999999">
+    <row r="18" spans="1:4" ht="16.5">
       <c r="A18" s="2" t="s">
         <v>126</v>
       </c>
@@ -1968,7 +1973,7 @@
       </c>
       <c r="D20" s="8"/>
     </row>
-    <row r="21" spans="1:4" ht="17.399999999999999">
+    <row r="21" spans="1:4" ht="16.5">
       <c r="A21" s="2" t="s">
         <v>126</v>
       </c>
@@ -1980,7 +1985,7 @@
       </c>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4" ht="17.399999999999999">
+    <row r="22" spans="1:4" ht="16.5">
       <c r="A22" s="2" t="s">
         <v>126</v>
       </c>
@@ -2000,7 +2005,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
@@ -2010,17 +2015,17 @@
       <selection activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="10" width="15.5546875" customWidth="1"/>
-    <col min="11" max="11" width="18.109375" customWidth="1"/>
-    <col min="12" max="13" width="18.6640625" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" customWidth="1"/>
+    <col min="2" max="10" width="15.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" customWidth="1"/>
+    <col min="12" max="13" width="18.7109375" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" customWidth="1"/>
     <col min="17" max="17" width="27" customWidth="1"/>
-    <col min="18" max="18" width="31.109375" style="23" customWidth="1"/>
-    <col min="19" max="20" width="16.21875" customWidth="1"/>
+    <col min="18" max="18" width="31.140625" style="23" customWidth="1"/>
+    <col min="19" max="20" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="13" customFormat="1">
@@ -2891,7 +2896,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15" thickBot="1">
+    <row r="15" spans="1:20" ht="15.75" thickBot="1">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -2953,7 +2958,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15" thickBot="1">
+    <row r="16" spans="1:20" ht="15.75" thickBot="1">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -3077,7 +3082,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15" thickBot="1">
+    <row r="18" spans="1:20" ht="15.75" thickBot="1">
       <c r="A18" s="5">
         <v>15</v>
       </c>
@@ -3139,7 +3144,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15" thickBot="1">
+    <row r="19" spans="1:20" ht="15.75" thickBot="1">
       <c r="A19" s="5">
         <v>16</v>
       </c>
@@ -3263,7 +3268,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15" thickBot="1">
+    <row r="21" spans="1:20" ht="15.75" thickBot="1">
       <c r="A21" s="5">
         <v>18</v>
       </c>
@@ -3325,7 +3330,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15" thickBot="1">
+    <row r="22" spans="1:20" ht="15.75" thickBot="1">
       <c r="A22" s="5">
         <v>19</v>
       </c>
@@ -3394,7 +3399,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
@@ -3404,11 +3409,11 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="8" width="15.5546875" customWidth="1"/>
-    <col min="9" max="9" width="40.33203125" customWidth="1"/>
-    <col min="10" max="10" width="32.44140625" customWidth="1"/>
+    <col min="1" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="40.28515625" customWidth="1"/>
+    <col min="10" max="10" width="32.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="13" customFormat="1">
@@ -3922,7 +3927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
@@ -3932,9 +3937,9 @@
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="59.5546875" customWidth="1"/>
+    <col min="3" max="3" width="59.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4033,18 +4038,18 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4089,7 +4094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17.399999999999999">
+    <row r="4" spans="1:4" ht="16.5">
       <c r="A4" s="27" t="s">
         <v>16</v>
       </c>
@@ -4103,7 +4108,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17.399999999999999">
+    <row r="5" spans="1:4" ht="16.5">
       <c r="A5" s="26" t="s">
         <v>17</v>
       </c>
@@ -4117,7 +4122,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17.399999999999999">
+    <row r="6" spans="1:4" ht="16.5">
       <c r="A6" s="26" t="s">
         <v>18</v>
       </c>
@@ -4131,7 +4136,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="17.399999999999999">
+    <row r="7" spans="1:4" ht="16.5">
       <c r="A7" s="26" t="s">
         <v>123</v>
       </c>
@@ -4153,25 +4158,25 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="15.5546875" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="14" t="s">
         <v>42</v>
       </c>
@@ -4187,8 +4192,11 @@
       <c r="E1" s="14" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -4204,8 +4212,11 @@
       <c r="E2" s="17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
@@ -4221,8 +4232,11 @@
       <c r="E3" s="18" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -4238,8 +4252,11 @@
       <c r="E4" s="9" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="17.399999999999999">
+      <c r="F4" s="9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -4255,8 +4272,11 @@
       <c r="E5" s="9" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="17.399999999999999">
+      <c r="F5" s="9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -4272,8 +4292,11 @@
       <c r="E6" s="9" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="17.399999999999999">
+      <c r="F6" s="9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -4289,8 +4312,11 @@
       <c r="E7" s="9" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="17.399999999999999">
+      <c r="F7" s="9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -4306,8 +4332,11 @@
       <c r="E8" s="9" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="17.399999999999999">
+      <c r="F8" s="9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.5">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -4323,8 +4352,11 @@
       <c r="E9" s="9" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="17.399999999999999">
+      <c r="F9" s="9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -4340,8 +4372,11 @@
       <c r="E10" s="9" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="17.399999999999999">
+      <c r="F10" s="9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -4357,8 +4392,11 @@
       <c r="E11" s="9" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="17.399999999999999">
+      <c r="F11" s="9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -4374,8 +4412,11 @@
       <c r="E12" s="9" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="17.399999999999999">
+      <c r="F12" s="9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16.5">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -4391,8 +4432,11 @@
       <c r="E13" s="9" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="17.399999999999999">
+      <c r="F13" s="9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -4408,8 +4452,11 @@
       <c r="E14" s="9" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="17.399999999999999">
+      <c r="F14" s="9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16.5">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -4425,8 +4472,11 @@
       <c r="E15" s="9" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="17.399999999999999">
+      <c r="F15" s="9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.5">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -4442,8 +4492,11 @@
       <c r="E16" s="9" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="17.399999999999999">
+      <c r="F16" s="9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16.5">
       <c r="A17" s="5">
         <v>14</v>
       </c>
@@ -4459,8 +4512,11 @@
       <c r="E17" s="9" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="17.399999999999999">
+      <c r="F17" s="9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16.5">
       <c r="A18" s="5">
         <v>15</v>
       </c>
@@ -4476,8 +4532,11 @@
       <c r="E18" s="9" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="17.399999999999999">
+      <c r="F18" s="9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16.5">
       <c r="A19" s="5">
         <v>16</v>
       </c>
@@ -4493,8 +4552,11 @@
       <c r="E19" s="9" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="17.399999999999999">
+      <c r="F19" s="9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16.5">
       <c r="A20" s="5">
         <v>17</v>
       </c>
@@ -4510,8 +4572,11 @@
       <c r="E20" s="9" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="17.399999999999999">
+      <c r="F20" s="9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="16.5">
       <c r="A21" s="5">
         <v>18</v>
       </c>
@@ -4527,8 +4592,11 @@
       <c r="E21" s="9" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="17.399999999999999">
+      <c r="F21" s="9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16.5">
       <c r="A22" s="5">
         <v>19</v>
       </c>
@@ -4544,8 +4612,11 @@
       <c r="E22" s="9" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="17.399999999999999">
+      <c r="F22" s="9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="16.5">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -4561,20 +4632,23 @@
       <c r="E23" s="9" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" s="9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="5"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:6">
       <c r="A25" s="5"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26" s="5"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:6">
       <c r="A27" s="5"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:6">
       <c r="A28" s="5"/>
     </row>
   </sheetData>
@@ -4585,16 +4659,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="4" width="15.44140625" customWidth="1"/>
+    <col min="3" max="4" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4745,17 +4819,17 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="2" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GameJam\ExcelToCSV\SrcFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F4F9D6-BC9F-4C6F-BB1B-80BE07BF604C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC1BE1E-A6B1-4C2A-8A91-ECDB22B2495F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45585" yWindow="5565" windowWidth="28800" windowHeight="15435" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigTable" sheetId="18" r:id="rId1"/>
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="146">
   <si>
     <t>type</t>
   </si>
@@ -1018,6 +1018,10 @@
   </si>
   <si>
     <t>stageClearTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dropGoldCnt</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2009,10 +2013,10 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R34" sqref="R34"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2026,9 +2030,10 @@
     <col min="17" max="17" width="27" customWidth="1"/>
     <col min="18" max="18" width="31.140625" style="23" customWidth="1"/>
     <col min="19" max="20" width="16.28515625" customWidth="1"/>
+    <col min="21" max="21" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="13" customFormat="1">
+    <row r="1" spans="1:21" s="13" customFormat="1">
       <c r="A1" s="14" t="s">
         <v>42</v>
       </c>
@@ -2089,8 +2094,11 @@
       <c r="T1" s="14" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -2151,8 +2159,11 @@
       <c r="T2" s="15" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="U2" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
@@ -2213,8 +2224,11 @@
       <c r="T3" s="18" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="U3" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -2275,8 +2289,11 @@
       <c r="T4" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="U4" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -2337,8 +2354,11 @@
       <c r="T5" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="U5" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -2399,8 +2419,11 @@
       <c r="T6" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="U6" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -2461,8 +2484,11 @@
       <c r="T7" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="U7" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -2523,8 +2549,11 @@
       <c r="T8" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="U8" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -2585,8 +2614,11 @@
       <c r="T9" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="U9" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -2647,8 +2679,11 @@
       <c r="T10" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:20">
+      <c r="U10" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -2709,8 +2744,11 @@
       <c r="T11" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="U11" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -2771,8 +2809,11 @@
       <c r="T12" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:20">
+      <c r="U12" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -2833,8 +2874,11 @@
       <c r="T13" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:20">
+      <c r="U13" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -2895,8 +2939,11 @@
       <c r="T14" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" ht="15.75" thickBot="1">
+      <c r="U14" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="15.75" thickBot="1">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -2957,8 +3004,11 @@
       <c r="T15" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" ht="15.75" thickBot="1">
+      <c r="U15" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="15.75" thickBot="1">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -3019,8 +3069,11 @@
       <c r="T16" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:20">
+      <c r="U16" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" s="5">
         <v>14</v>
       </c>
@@ -3081,8 +3134,11 @@
       <c r="T17" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" ht="15.75" thickBot="1">
+      <c r="U17" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="15.75" thickBot="1">
       <c r="A18" s="5">
         <v>15</v>
       </c>
@@ -3143,8 +3199,11 @@
       <c r="T18" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" ht="15.75" thickBot="1">
+      <c r="U18" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="15.75" thickBot="1">
       <c r="A19" s="5">
         <v>16</v>
       </c>
@@ -3205,8 +3264,11 @@
       <c r="T19" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:20">
+      <c r="U19" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" s="5">
         <v>17</v>
       </c>
@@ -3267,8 +3329,11 @@
       <c r="T20" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" ht="15.75" thickBot="1">
+      <c r="U20" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="15.75" thickBot="1">
       <c r="A21" s="5">
         <v>18</v>
       </c>
@@ -3329,8 +3394,11 @@
       <c r="T21" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" ht="15.75" thickBot="1">
+      <c r="U21" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="15.75" thickBot="1">
       <c r="A22" s="5">
         <v>19</v>
       </c>
@@ -3390,6 +3458,9 @@
       </c>
       <c r="T22" s="5">
         <v>10</v>
+      </c>
+      <c r="U22" s="5">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3406,7 +3477,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4164,8 +4235,8 @@
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M26" sqref="M25:M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GameJam\ExcelToCSV\SrcFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC1BE1E-A6B1-4C2A-8A91-ECDB22B2495F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA1ADBE-6638-4304-87AF-F3F51F877A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39300" yWindow="1890" windowWidth="22680" windowHeight="15435" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigTable" sheetId="18" r:id="rId1"/>
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="148">
   <si>
     <t>type</t>
   </si>
@@ -1022,6 +1022,13 @@
   </si>
   <si>
     <t>dropGoldCnt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_type</t>
+  </si>
+  <si>
+    <t>rewardId</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1664,7 +1671,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2015,8 +2022,8 @@
   </sheetPr>
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3476,8 +3483,8 @@
   </sheetPr>
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4731,18 +4738,19 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="14" t="s">
         <v>42</v>
       </c>
@@ -4753,10 +4761,13 @@
         <v>81</v>
       </c>
       <c r="D1" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -4769,8 +4780,11 @@
       <c r="D2" s="15" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
@@ -4783,102 +4797,126 @@
       <c r="D3" s="18" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="5">
         <v>1</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="5">
-        <v>0</v>
+      <c r="C4" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="D4" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="5">
         <v>1</v>
       </c>
       <c r="B5" s="5">
         <v>2</v>
       </c>
-      <c r="C5" s="5">
-        <v>0</v>
+      <c r="C5" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="D5" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="5">
         <v>2</v>
       </c>
       <c r="B6" s="5">
         <v>1</v>
       </c>
-      <c r="C6" s="5">
-        <v>0</v>
+      <c r="C6" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="D6" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="5">
         <v>2</v>
       </c>
       <c r="B7" s="5">
         <v>2</v>
       </c>
-      <c r="C7" s="5">
-        <v>0</v>
+      <c r="C7" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="D7" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="5">
         <v>3</v>
       </c>
       <c r="B8" s="5">
         <v>1</v>
       </c>
-      <c r="C8" s="5">
-        <v>0</v>
+      <c r="C8" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="D8" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="5">
         <v>3</v>
       </c>
       <c r="B9" s="5">
         <v>2</v>
       </c>
-      <c r="C9" s="5">
-        <v>0</v>
+      <c r="C9" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="D9" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="5">
         <v>3</v>
       </c>
       <c r="B10" s="5">
         <v>3</v>
       </c>
-      <c r="C10" s="5">
-        <v>0</v>
+      <c r="C10" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
         <v>10</v>
       </c>
     </row>

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GameJam\ExcelToCSV\SrcFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA1ADBE-6638-4304-87AF-F3F51F877A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28823370-2626-42F3-8BE3-3EC56201CC74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39300" yWindow="1890" windowWidth="22680" windowHeight="15435" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigTable" sheetId="18" r:id="rId1"/>
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="150">
   <si>
     <t>type</t>
   </si>
@@ -1029,6 +1029,14 @@
   </si>
   <si>
     <t>rewardId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험치</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1169,7 +1177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1248,6 +1256,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1668,10 +1677,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1898,18 +1907,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="16.5">
       <c r="A14" s="2" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="C14" s="4">
-        <v>0</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>133</v>
+        <v>1</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1917,34 +1926,36 @@
         <v>126</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C15" s="4">
-        <v>1</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
         <v>126</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C16" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="1:4" ht="16.5">
+    <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B17" s="28" t="s">
-        <v>130</v>
+      <c r="B17" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="C17" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" s="8"/>
     </row>
@@ -1953,22 +1964,22 @@
         <v>126</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C18" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" ht="16.5">
       <c r="A19" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>128</v>
+      <c r="B19" s="28" t="s">
+        <v>127</v>
       </c>
       <c r="C19" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" s="8"/>
     </row>
@@ -1977,22 +1988,22 @@
         <v>126</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C20" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" s="8"/>
     </row>
-    <row r="21" spans="1:4" ht="16.5">
+    <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B21" s="28" t="s">
-        <v>131</v>
+      <c r="B21" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="C21" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21" s="8"/>
     </row>
@@ -2001,12 +2012,24 @@
         <v>126</v>
       </c>
       <c r="B22" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" s="4">
+        <v>7</v>
+      </c>
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="1:4" ht="16.5">
+      <c r="A23" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C23" s="4">
         <v>8</v>
       </c>
-      <c r="D22" s="8"/>
+      <c r="D23" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3484,7 +3507,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4740,8 +4763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4812,7 +4835,7 @@
         <v>146</v>
       </c>
       <c r="D4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="5">
         <v>10</v>
@@ -4846,7 +4869,7 @@
         <v>146</v>
       </c>
       <c r="D6" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="5">
         <v>10</v>
@@ -4880,7 +4903,7 @@
         <v>146</v>
       </c>
       <c r="D8" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="5">
         <v>10</v>
@@ -4904,21 +4927,11 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="5">
-        <v>3</v>
-      </c>
-      <c r="B10" s="5">
-        <v>3</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5">
-        <v>10</v>
-      </c>
+      <c r="A10" s="9"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GameJam\ExcelToCSV\SrcFolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevD\TowerDefense\ExcelToCSV\SrcFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28823370-2626-42F3-8BE3-3EC56201CC74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0864AB5-72BD-470E-A082-B76A66ABD563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2250" yWindow="735" windowWidth="24195" windowHeight="12150" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigTable" sheetId="18" r:id="rId1"/>
@@ -1679,7 +1679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -4265,8 +4265,8 @@
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M26" sqref="M25:M26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4275,6 +4275,7 @@
     <col min="3" max="3" width="21.5703125" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4354,7 +4355,7 @@
         <v>100</v>
       </c>
       <c r="F4" s="9">
-        <v>300</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5">
@@ -4374,7 +4375,7 @@
         <v>100</v>
       </c>
       <c r="F5" s="9">
-        <v>300</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5">
@@ -4394,7 +4395,7 @@
         <v>100</v>
       </c>
       <c r="F6" s="9">
-        <v>300</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.5">
@@ -4414,7 +4415,7 @@
         <v>100</v>
       </c>
       <c r="F7" s="9">
-        <v>300</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5">
@@ -4434,7 +4435,7 @@
         <v>100</v>
       </c>
       <c r="F8" s="9">
-        <v>300</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5">
@@ -4454,7 +4455,7 @@
         <v>100</v>
       </c>
       <c r="F9" s="9">
-        <v>300</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5">
@@ -4474,7 +4475,7 @@
         <v>100</v>
       </c>
       <c r="F10" s="9">
-        <v>300</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5">
@@ -4494,7 +4495,7 @@
         <v>100</v>
       </c>
       <c r="F11" s="9">
-        <v>300</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.5">
@@ -4514,7 +4515,7 @@
         <v>100</v>
       </c>
       <c r="F12" s="9">
-        <v>300</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16.5">
@@ -4534,7 +4535,7 @@
         <v>100</v>
       </c>
       <c r="F13" s="9">
-        <v>300</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16.5">
@@ -4554,7 +4555,7 @@
         <v>100</v>
       </c>
       <c r="F14" s="9">
-        <v>300</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16.5">
@@ -4574,7 +4575,7 @@
         <v>100</v>
       </c>
       <c r="F15" s="9">
-        <v>300</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16.5">
@@ -4594,7 +4595,7 @@
         <v>100</v>
       </c>
       <c r="F16" s="9">
-        <v>300</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="16.5">
@@ -4614,7 +4615,7 @@
         <v>100</v>
       </c>
       <c r="F17" s="9">
-        <v>300</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5">
@@ -4634,7 +4635,7 @@
         <v>100</v>
       </c>
       <c r="F18" s="9">
-        <v>300</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="16.5">
@@ -4654,7 +4655,7 @@
         <v>100</v>
       </c>
       <c r="F19" s="9">
-        <v>300</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5">
@@ -4674,7 +4675,7 @@
         <v>100</v>
       </c>
       <c r="F20" s="9">
-        <v>300</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5">
@@ -4694,7 +4695,7 @@
         <v>100</v>
       </c>
       <c r="F21" s="9">
-        <v>300</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16.5">
@@ -4714,7 +4715,7 @@
         <v>100</v>
       </c>
       <c r="F22" s="9">
-        <v>300</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="16.5">
@@ -4734,7 +4735,7 @@
         <v>100</v>
       </c>
       <c r="F23" s="9">
-        <v>300</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4764,7 +4765,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E5" sqref="A5:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevD\TowerDefense\ExcelToCSV\SrcFolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ejup\Desktop\GameJam\ExcelToCSV\SrcFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0864AB5-72BD-470E-A082-B76A66ABD563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="735" windowWidth="24195" windowHeight="12150" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2256" yWindow="732" windowWidth="24192" windowHeight="12156" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigTable" sheetId="18" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <sheet name="StageRewardInfo" sheetId="27" r:id="rId8"/>
     <sheet name="GachaList" sheetId="28" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -41,12 +40,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ejup</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -87,12 +86,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ejup</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1043,7 +1042,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14">
     <font>
       <sz val="11"/>
@@ -1570,18 +1569,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1626,7 +1625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5">
+    <row r="4" spans="1:4" ht="17.399999999999999">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -1640,7 +1639,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5">
+    <row r="5" spans="1:4" ht="17.399999999999999">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1654,7 +1653,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5">
+    <row r="6" spans="1:4" ht="17.399999999999999">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1676,19 +1675,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" customWidth="1"/>
+    <col min="5" max="5" width="25.109375" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1795,7 +1794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="15">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1809,7 +1808,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="15">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1823,7 +1822,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="15">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -1837,7 +1836,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="15">
       <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
@@ -1851,7 +1850,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="15">
       <c r="A10" s="8" t="s">
         <v>28</v>
       </c>
@@ -1879,7 +1878,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="15">
       <c r="A12" s="2" t="s">
         <v>61</v>
       </c>
@@ -1893,7 +1892,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="15">
       <c r="A13" s="2" t="s">
         <v>78</v>
       </c>
@@ -1907,7 +1906,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.5">
+    <row r="14" spans="1:7" ht="17.399999999999999">
       <c r="A14" s="2" t="s">
         <v>78</v>
       </c>
@@ -1959,7 +1958,7 @@
       </c>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:4" ht="16.5">
+    <row r="18" spans="1:4" ht="17.399999999999999">
       <c r="A18" s="2" t="s">
         <v>126</v>
       </c>
@@ -1971,7 +1970,7 @@
       </c>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="1:4" ht="16.5">
+    <row r="19" spans="1:4" ht="17.399999999999999">
       <c r="A19" s="2" t="s">
         <v>126</v>
       </c>
@@ -2007,7 +2006,7 @@
       </c>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4" ht="16.5">
+    <row r="22" spans="1:4" ht="17.399999999999999">
       <c r="A22" s="2" t="s">
         <v>126</v>
       </c>
@@ -2019,7 +2018,7 @@
       </c>
       <c r="D22" s="8"/>
     </row>
-    <row r="23" spans="1:4" ht="16.5">
+    <row r="23" spans="1:4" ht="17.399999999999999">
       <c r="A23" s="2" t="s">
         <v>126</v>
       </c>
@@ -2039,28 +2038,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="10" width="15.5703125" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" customWidth="1"/>
-    <col min="12" max="13" width="18.7109375" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" customWidth="1"/>
+    <col min="2" max="10" width="15.5546875" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" customWidth="1"/>
+    <col min="12" max="13" width="18.6640625" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" customWidth="1"/>
     <col min="17" max="17" width="27" customWidth="1"/>
-    <col min="18" max="18" width="31.140625" style="23" customWidth="1"/>
-    <col min="19" max="20" width="16.28515625" customWidth="1"/>
-    <col min="21" max="21" width="19.28515625" customWidth="1"/>
+    <col min="18" max="18" width="31.109375" style="23" customWidth="1"/>
+    <col min="19" max="20" width="16.33203125" customWidth="1"/>
+    <col min="21" max="21" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="13" customFormat="1">
@@ -2973,7 +2972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15.75" thickBot="1">
+    <row r="15" spans="1:21" ht="15" thickBot="1">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -3038,7 +3037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15.75" thickBot="1">
+    <row r="16" spans="1:21" ht="15" thickBot="1">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -3168,7 +3167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15.75" thickBot="1">
+    <row r="18" spans="1:21" ht="15" thickBot="1">
       <c r="A18" s="5">
         <v>15</v>
       </c>
@@ -3233,7 +3232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15.75" thickBot="1">
+    <row r="19" spans="1:21" ht="15" thickBot="1">
       <c r="A19" s="5">
         <v>16</v>
       </c>
@@ -3363,7 +3362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15.75" thickBot="1">
+    <row r="21" spans="1:21" ht="15" thickBot="1">
       <c r="A21" s="5">
         <v>18</v>
       </c>
@@ -3428,7 +3427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15.75" thickBot="1">
+    <row r="22" spans="1:21" ht="15" thickBot="1">
       <c r="A22" s="5">
         <v>19</v>
       </c>
@@ -3500,21 +3499,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="J26" sqref="A26:J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="8" width="15.5703125" customWidth="1"/>
-    <col min="9" max="9" width="40.28515625" customWidth="1"/>
-    <col min="10" max="10" width="32.42578125" customWidth="1"/>
+    <col min="1" max="8" width="15.5546875" customWidth="1"/>
+    <col min="9" max="9" width="40.33203125" customWidth="1"/>
+    <col min="10" max="10" width="32.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="13" customFormat="1">
@@ -4028,7 +4027,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
@@ -4038,9 +4037,9 @@
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="59.5703125" customWidth="1"/>
+    <col min="3" max="3" width="59.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4139,18 +4138,18 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4195,7 +4194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5">
+    <row r="4" spans="1:4" ht="17.399999999999999">
       <c r="A4" s="27" t="s">
         <v>16</v>
       </c>
@@ -4209,7 +4208,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5">
+    <row r="5" spans="1:4" ht="17.399999999999999">
       <c r="A5" s="26" t="s">
         <v>17</v>
       </c>
@@ -4223,7 +4222,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5">
+    <row r="6" spans="1:4" ht="17.399999999999999">
       <c r="A6" s="26" t="s">
         <v>18</v>
       </c>
@@ -4237,7 +4236,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5">
+    <row r="7" spans="1:4" ht="17.399999999999999">
       <c r="A7" s="26" t="s">
         <v>123</v>
       </c>
@@ -4259,23 +4258,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4355,10 +4354,10 @@
         <v>100</v>
       </c>
       <c r="F4" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17.399999999999999">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -4375,10 +4374,10 @@
         <v>100</v>
       </c>
       <c r="F5" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17.399999999999999">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -4395,10 +4394,10 @@
         <v>100</v>
       </c>
       <c r="F6" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="16.5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17.399999999999999">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -4415,10 +4414,10 @@
         <v>100</v>
       </c>
       <c r="F7" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="16.5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17.399999999999999">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -4435,10 +4434,10 @@
         <v>100</v>
       </c>
       <c r="F8" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="16.5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17.399999999999999">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -4455,10 +4454,10 @@
         <v>100</v>
       </c>
       <c r="F9" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="16.5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17.399999999999999">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -4475,10 +4474,10 @@
         <v>100</v>
       </c>
       <c r="F10" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="16.5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17.399999999999999">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -4495,10 +4494,10 @@
         <v>100</v>
       </c>
       <c r="F11" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="16.5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17.399999999999999">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -4515,10 +4514,10 @@
         <v>100</v>
       </c>
       <c r="F12" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="16.5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17.399999999999999">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -4535,10 +4534,10 @@
         <v>100</v>
       </c>
       <c r="F13" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="16.5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17.399999999999999">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -4555,10 +4554,10 @@
         <v>100</v>
       </c>
       <c r="F14" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="16.5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17.399999999999999">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -4575,10 +4574,10 @@
         <v>100</v>
       </c>
       <c r="F15" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="16.5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17.399999999999999">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -4595,10 +4594,10 @@
         <v>100</v>
       </c>
       <c r="F16" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="16.5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17.399999999999999">
       <c r="A17" s="5">
         <v>14</v>
       </c>
@@ -4615,10 +4614,10 @@
         <v>100</v>
       </c>
       <c r="F17" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="16.5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="17.399999999999999">
       <c r="A18" s="5">
         <v>15</v>
       </c>
@@ -4635,10 +4634,10 @@
         <v>100</v>
       </c>
       <c r="F18" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="16.5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="17.399999999999999">
       <c r="A19" s="5">
         <v>16</v>
       </c>
@@ -4655,10 +4654,10 @@
         <v>100</v>
       </c>
       <c r="F19" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="16.5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="17.399999999999999">
       <c r="A20" s="5">
         <v>17</v>
       </c>
@@ -4675,10 +4674,10 @@
         <v>100</v>
       </c>
       <c r="F20" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="16.5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17.399999999999999">
       <c r="A21" s="5">
         <v>18</v>
       </c>
@@ -4695,10 +4694,10 @@
         <v>100</v>
       </c>
       <c r="F21" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="16.5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="17.399999999999999">
       <c r="A22" s="5">
         <v>19</v>
       </c>
@@ -4715,10 +4714,10 @@
         <v>100</v>
       </c>
       <c r="F22" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="16.5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="17.399999999999999">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -4735,7 +4734,7 @@
         <v>100</v>
       </c>
       <c r="F23" s="9">
-        <v>5</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4761,17 +4760,17 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="A5:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="3" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -4942,17 +4941,17 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="2" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="154">
   <si>
     <t>type</t>
   </si>
@@ -1013,29 +1013,46 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>stageClearTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dropGoldCnt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_type</t>
+  </si>
+  <si>
+    <t>rewardId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit/Hero/09_Witch_Fire.prefab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoomEffect/Witch_Fire_Boom_Effect.prefab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Projectile/09_Witch_Fire_Bullet.prefab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>BoomEffect/Boom01.prefab</t>
-  </si>
-  <si>
-    <t>stageClearTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dropGoldCnt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_type</t>
-  </si>
-  <si>
-    <t>rewardId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>exp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>경험치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>splashEffectPrefab</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1176,7 +1193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1256,6 +1273,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1911,13 +1931,13 @@
         <v>78</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="30" t="s">
         <v>148</v>
-      </c>
-      <c r="C14" s="4">
-        <v>1</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2042,10 +2062,10 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2055,14 +2075,15 @@
     <col min="12" max="13" width="18.6640625" customWidth="1"/>
     <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" customWidth="1"/>
-    <col min="17" max="17" width="27" customWidth="1"/>
-    <col min="18" max="18" width="31.109375" style="23" customWidth="1"/>
-    <col min="19" max="20" width="16.33203125" customWidth="1"/>
-    <col min="21" max="21" width="19.33203125" customWidth="1"/>
+    <col min="16" max="16" width="25.5546875" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" customWidth="1"/>
+    <col min="18" max="18" width="27" customWidth="1"/>
+    <col min="19" max="19" width="31.109375" style="23" customWidth="1"/>
+    <col min="20" max="21" width="16.33203125" customWidth="1"/>
+    <col min="22" max="22" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="13" customFormat="1">
+    <row r="1" spans="1:22" s="13" customFormat="1">
       <c r="A1" s="14" t="s">
         <v>42</v>
       </c>
@@ -2109,25 +2130,28 @@
         <v>75</v>
       </c>
       <c r="P1" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q1" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="R1" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="S1" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="T1" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="U1" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="U1" s="14" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="V1" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -2173,17 +2197,17 @@
       <c r="O2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="R2" s="20" t="s">
+      <c r="P2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="15" t="s">
-        <v>1</v>
+      <c r="Q2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" s="20" t="s">
+        <v>3</v>
       </c>
       <c r="T2" s="15" t="s">
         <v>1</v>
@@ -2191,8 +2215,11 @@
       <c r="U2" s="15" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="V2" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
@@ -2238,16 +2265,16 @@
       <c r="O3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="18" t="s">
+      <c r="P3" s="21" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="S3" s="18" t="s">
+      <c r="R3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="21" t="s">
         <v>2</v>
       </c>
       <c r="T3" s="18" t="s">
@@ -2256,8 +2283,11 @@
       <c r="U3" s="18" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:21">
+      <c r="V3" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -2303,26 +2333,29 @@
       <c r="O4" s="5">
         <v>3</v>
       </c>
-      <c r="P4" s="5">
-        <v>0</v>
+      <c r="P4" s="22" t="s">
+        <v>152</v>
       </c>
       <c r="Q4" s="5">
-        <v>1</v>
-      </c>
-      <c r="R4" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="S4" s="5">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="R4" s="5">
+        <v>1</v>
+      </c>
+      <c r="S4" s="22" t="s">
+        <v>152</v>
       </c>
       <c r="T4" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="U4" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V4" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -2368,26 +2401,29 @@
       <c r="O5" s="5">
         <v>3</v>
       </c>
-      <c r="P5" s="5">
-        <v>0</v>
+      <c r="P5" s="22" t="s">
+        <v>152</v>
       </c>
       <c r="Q5" s="5">
-        <v>1</v>
-      </c>
-      <c r="R5" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="S5" s="5">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="R5" s="5">
+        <v>1</v>
+      </c>
+      <c r="S5" s="22" t="s">
+        <v>152</v>
       </c>
       <c r="T5" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="U5" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V5" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -2433,26 +2469,29 @@
       <c r="O6" s="5">
         <v>3</v>
       </c>
-      <c r="P6" s="5">
-        <v>0</v>
+      <c r="P6" s="22" t="s">
+        <v>152</v>
       </c>
       <c r="Q6" s="5">
-        <v>1</v>
-      </c>
-      <c r="R6" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="S6" s="5">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="R6" s="5">
+        <v>1</v>
+      </c>
+      <c r="S6" s="22" t="s">
+        <v>152</v>
       </c>
       <c r="T6" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="U6" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V6" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -2498,26 +2537,29 @@
       <c r="O7" s="5">
         <v>3</v>
       </c>
-      <c r="P7" s="5">
-        <v>0</v>
+      <c r="P7" s="22" t="s">
+        <v>152</v>
       </c>
       <c r="Q7" s="5">
-        <v>1</v>
-      </c>
-      <c r="R7" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="S7" s="5">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="R7" s="5">
+        <v>1</v>
+      </c>
+      <c r="S7" s="22" t="s">
+        <v>152</v>
       </c>
       <c r="T7" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="U7" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V7" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -2563,26 +2605,29 @@
       <c r="O8" s="5">
         <v>3</v>
       </c>
-      <c r="P8" s="5">
-        <v>0</v>
+      <c r="P8" s="22" t="s">
+        <v>152</v>
       </c>
       <c r="Q8" s="5">
-        <v>1</v>
-      </c>
-      <c r="R8" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="S8" s="5">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="R8" s="5">
+        <v>1</v>
+      </c>
+      <c r="S8" s="22" t="s">
+        <v>152</v>
       </c>
       <c r="T8" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="U8" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V8" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -2628,26 +2673,29 @@
       <c r="O9" s="5">
         <v>3</v>
       </c>
-      <c r="P9" s="5">
-        <v>0</v>
+      <c r="P9" s="22" t="s">
+        <v>152</v>
       </c>
       <c r="Q9" s="5">
-        <v>1</v>
-      </c>
-      <c r="R9" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="S9" s="5">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="R9" s="5">
+        <v>1</v>
+      </c>
+      <c r="S9" s="22" t="s">
+        <v>152</v>
       </c>
       <c r="T9" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="U9" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V9" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -2693,26 +2741,29 @@
       <c r="O10" s="5">
         <v>3</v>
       </c>
-      <c r="P10" s="5">
-        <v>0</v>
+      <c r="P10" s="22" t="s">
+        <v>152</v>
       </c>
       <c r="Q10" s="5">
-        <v>1</v>
-      </c>
-      <c r="R10" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="S10" s="5">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="R10" s="5">
+        <v>1</v>
+      </c>
+      <c r="S10" s="22" t="s">
+        <v>152</v>
       </c>
       <c r="T10" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="U10" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V10" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -2758,26 +2809,29 @@
       <c r="O11" s="5">
         <v>3</v>
       </c>
-      <c r="P11" s="5">
-        <v>0</v>
+      <c r="P11" s="22" t="s">
+        <v>152</v>
       </c>
       <c r="Q11" s="5">
+        <v>0</v>
+      </c>
+      <c r="R11" s="5">
         <v>3</v>
       </c>
-      <c r="R11" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="S11" s="5">
-        <v>2</v>
+      <c r="S11" s="22" t="s">
+        <v>152</v>
       </c>
       <c r="T11" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="U11" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V11" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -2823,26 +2877,29 @@
       <c r="O12" s="5">
         <v>0</v>
       </c>
-      <c r="P12" s="5">
-        <v>5</v>
+      <c r="P12" s="22" t="s">
+        <v>152</v>
       </c>
       <c r="Q12" s="5">
         <v>5</v>
       </c>
-      <c r="R12" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="S12" s="5">
-        <v>2</v>
+      <c r="R12" s="5">
+        <v>5</v>
+      </c>
+      <c r="S12" s="22" t="s">
+        <v>152</v>
       </c>
       <c r="T12" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="U12" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V12" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -2888,26 +2945,29 @@
       <c r="O13" s="5">
         <v>0</v>
       </c>
-      <c r="P13" s="5">
+      <c r="P13" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q13" s="5">
         <v>5</v>
       </c>
-      <c r="Q13" s="5">
+      <c r="R13" s="5">
         <v>3</v>
       </c>
-      <c r="R13" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="S13" s="5">
-        <v>2</v>
+      <c r="S13" s="22" t="s">
+        <v>152</v>
       </c>
       <c r="T13" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="U13" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V13" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -2953,26 +3013,29 @@
       <c r="O14" s="5">
         <v>0</v>
       </c>
-      <c r="P14" s="5">
+      <c r="P14" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q14" s="5">
         <v>5</v>
       </c>
-      <c r="Q14" s="5">
-        <v>10</v>
-      </c>
-      <c r="R14" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="S14" s="5">
-        <v>2</v>
+      <c r="R14" s="5">
+        <v>10</v>
+      </c>
+      <c r="S14" s="22" t="s">
+        <v>152</v>
       </c>
       <c r="T14" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="U14" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="15" thickBot="1">
+        <v>10</v>
+      </c>
+      <c r="V14" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="15" thickBot="1">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -3018,26 +3081,29 @@
       <c r="O15" s="5">
         <v>0</v>
       </c>
-      <c r="P15" s="5">
+      <c r="P15" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q15" s="5">
         <v>5</v>
       </c>
-      <c r="Q15" s="5">
+      <c r="R15" s="5">
         <v>3</v>
       </c>
-      <c r="R15" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="S15" s="5">
-        <v>2</v>
+      <c r="S15" s="22" t="s">
+        <v>152</v>
       </c>
       <c r="T15" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="U15" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="15" thickBot="1">
+        <v>10</v>
+      </c>
+      <c r="V15" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="15" thickBot="1">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -3083,26 +3149,29 @@
       <c r="O16" s="5">
         <v>0</v>
       </c>
-      <c r="P16" s="5">
+      <c r="P16" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q16" s="5">
         <v>5</v>
       </c>
-      <c r="Q16" s="5">
-        <v>1</v>
-      </c>
-      <c r="R16" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="S16" s="5">
-        <v>2</v>
+      <c r="R16" s="5">
+        <v>1</v>
+      </c>
+      <c r="S16" s="22" t="s">
+        <v>152</v>
       </c>
       <c r="T16" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="U16" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V16" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="5">
         <v>14</v>
       </c>
@@ -3148,26 +3217,29 @@
       <c r="O17" s="5">
         <v>0</v>
       </c>
-      <c r="P17" s="5">
+      <c r="P17" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q17" s="5">
         <v>5</v>
       </c>
-      <c r="Q17" s="5">
-        <v>10</v>
-      </c>
-      <c r="R17" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="S17" s="5">
-        <v>2</v>
+      <c r="R17" s="5">
+        <v>10</v>
+      </c>
+      <c r="S17" s="22" t="s">
+        <v>152</v>
       </c>
       <c r="T17" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="U17" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="15" thickBot="1">
+        <v>10</v>
+      </c>
+      <c r="V17" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="15" thickBot="1">
       <c r="A18" s="5">
         <v>15</v>
       </c>
@@ -3213,26 +3285,29 @@
       <c r="O18" s="5">
         <v>0</v>
       </c>
-      <c r="P18" s="5">
+      <c r="P18" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q18" s="5">
         <v>5</v>
       </c>
-      <c r="Q18" s="5">
+      <c r="R18" s="5">
         <v>3</v>
       </c>
-      <c r="R18" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="S18" s="5">
-        <v>2</v>
+      <c r="S18" s="22" t="s">
+        <v>152</v>
       </c>
       <c r="T18" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="U18" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="15" thickBot="1">
+        <v>10</v>
+      </c>
+      <c r="V18" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="15" thickBot="1">
       <c r="A19" s="5">
         <v>16</v>
       </c>
@@ -3278,26 +3353,29 @@
       <c r="O19" s="5">
         <v>0</v>
       </c>
-      <c r="P19" s="5">
+      <c r="P19" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q19" s="5">
         <v>5</v>
       </c>
-      <c r="Q19" s="5">
-        <v>1</v>
-      </c>
-      <c r="R19" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="S19" s="5">
-        <v>2</v>
+      <c r="R19" s="5">
+        <v>1</v>
+      </c>
+      <c r="S19" s="22" t="s">
+        <v>152</v>
       </c>
       <c r="T19" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="U19" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V19" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" s="5">
         <v>17</v>
       </c>
@@ -3343,26 +3421,29 @@
       <c r="O20" s="5">
         <v>0</v>
       </c>
-      <c r="P20" s="5">
+      <c r="P20" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q20" s="5">
         <v>5</v>
       </c>
-      <c r="Q20" s="5">
-        <v>10</v>
-      </c>
-      <c r="R20" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="S20" s="5">
-        <v>2</v>
+      <c r="R20" s="5">
+        <v>10</v>
+      </c>
+      <c r="S20" s="22" t="s">
+        <v>152</v>
       </c>
       <c r="T20" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="U20" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="15" thickBot="1">
+        <v>10</v>
+      </c>
+      <c r="V20" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="15" thickBot="1">
       <c r="A21" s="5">
         <v>18</v>
       </c>
@@ -3408,26 +3489,29 @@
       <c r="O21" s="5">
         <v>0</v>
       </c>
-      <c r="P21" s="5">
+      <c r="P21" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q21" s="5">
         <v>5</v>
       </c>
-      <c r="Q21" s="5">
+      <c r="R21" s="5">
         <v>3</v>
       </c>
-      <c r="R21" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="S21" s="5">
-        <v>2</v>
+      <c r="S21" s="22" t="s">
+        <v>152</v>
       </c>
       <c r="T21" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="U21" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="15" thickBot="1">
+        <v>10</v>
+      </c>
+      <c r="V21" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="15" thickBot="1">
       <c r="A22" s="5">
         <v>19</v>
       </c>
@@ -3473,22 +3557,93 @@
       <c r="O22" s="5">
         <v>0</v>
       </c>
-      <c r="P22" s="5">
+      <c r="P22" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q22" s="5">
         <v>5</v>
       </c>
-      <c r="Q22" s="5">
-        <v>1</v>
-      </c>
-      <c r="R22" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="S22" s="5">
-        <v>2</v>
+      <c r="R22" s="5">
+        <v>1</v>
+      </c>
+      <c r="S22" s="22" t="s">
+        <v>152</v>
       </c>
       <c r="T22" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="U22" s="5">
+        <v>10</v>
+      </c>
+      <c r="V22" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23" s="5">
+        <v>20</v>
+      </c>
+      <c r="B23" s="5">
+        <v>2009</v>
+      </c>
+      <c r="C23" s="31">
+        <v>1</v>
+      </c>
+      <c r="D23" s="29">
+        <v>20</v>
+      </c>
+      <c r="E23" s="5">
+        <v>100</v>
+      </c>
+      <c r="F23" s="5">
+        <v>10</v>
+      </c>
+      <c r="G23" s="5">
+        <v>5</v>
+      </c>
+      <c r="H23" s="5">
+        <v>100</v>
+      </c>
+      <c r="I23" s="5">
+        <v>1</v>
+      </c>
+      <c r="J23" s="5">
+        <v>1</v>
+      </c>
+      <c r="K23" s="5">
+        <v>0</v>
+      </c>
+      <c r="L23" s="5">
+        <v>50</v>
+      </c>
+      <c r="M23" s="5">
+        <v>5</v>
+      </c>
+      <c r="N23" s="5">
+        <v>0</v>
+      </c>
+      <c r="O23" s="5">
+        <v>0</v>
+      </c>
+      <c r="P23" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>0</v>
+      </c>
+      <c r="R23" s="5">
+        <v>5</v>
+      </c>
+      <c r="S23" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="T23" s="5">
+        <v>2</v>
+      </c>
+      <c r="U23" s="5">
+        <v>10</v>
+      </c>
+      <c r="V23" s="5">
         <v>2</v>
       </c>
     </row>
@@ -3503,10 +3658,10 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J26" sqref="A26:J27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3673,7 +3828,7 @@
         <v>name_1002</v>
       </c>
       <c r="I5" s="5" t="str">
-        <f t="shared" ref="I5:I15" si="1">"unit_icon_"&amp;A5</f>
+        <f t="shared" ref="I5:I16" si="1">"unit_icon_"&amp;A5</f>
         <v>unit_icon_1002</v>
       </c>
       <c r="J5" s="9" t="s">
@@ -3873,7 +4028,7 @@
         <v>2</v>
       </c>
       <c r="H11" s="9" t="str">
-        <f t="shared" ref="H11:H15" si="2">"name_"&amp;A11</f>
+        <f t="shared" ref="H11:H16" si="2">"name_"&amp;A11</f>
         <v>name_2004</v>
       </c>
       <c r="I11" s="5" t="str">
@@ -4018,6 +4173,40 @@
       </c>
       <c r="J15" s="9" t="s">
         <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="5">
+        <v>2009</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5">
+        <v>100</v>
+      </c>
+      <c r="D16" s="5">
+        <v>4</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5">
+        <v>4</v>
+      </c>
+      <c r="H16" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>name_2009</v>
+      </c>
+      <c r="I16" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>unit_icon_2009</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -4031,10 +4220,10 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4128,6 +4317,17 @@
       </c>
       <c r="C8" s="9" t="s">
         <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="5">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5">
+        <v>5</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -4294,7 +4494,7 @@
         <v>47</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4784,7 +4984,7 @@
         <v>81</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>82</v>
@@ -4832,7 +5032,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
@@ -4849,7 +5049,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D5" s="5">
         <v>0</v>
@@ -4866,7 +5066,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
@@ -4883,7 +5083,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D7" s="5">
         <v>0</v>
@@ -4900,7 +5100,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
@@ -4917,7 +5117,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D9" s="5">
         <v>0</v>
@@ -4942,10 +5142,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5178,6 +5378,20 @@
         <v>20</v>
       </c>
     </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" s="5">
+        <v>2009</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2256" yWindow="732" windowWidth="24192" windowHeight="12156" activeTab="2"/>
+    <workbookView xWindow="2256" yWindow="732" windowWidth="24192" windowHeight="12156" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigTable" sheetId="18" r:id="rId1"/>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="173">
   <si>
     <t>type</t>
   </si>
@@ -821,10 +821,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Stage/Stage01.prefab</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Unit/Hero/03_Skeleton_Sword.prefab</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1054,6 +1050,67 @@
   <si>
     <t>splashEffectPrefab</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage/Stage001.prefab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage/Stage002.prefab</t>
+  </si>
+  <si>
+    <t>Stage/Stage003.prefab</t>
+  </si>
+  <si>
+    <t>Stage/Stage004.prefab</t>
+  </si>
+  <si>
+    <t>Stage/Stage005.prefab</t>
+  </si>
+  <si>
+    <t>Stage/Stage006.prefab</t>
+  </si>
+  <si>
+    <t>Stage/Stage007.prefab</t>
+  </si>
+  <si>
+    <t>Stage/Stage008.prefab</t>
+  </si>
+  <si>
+    <t>Stage/Stage009.prefab</t>
+  </si>
+  <si>
+    <t>Stage/Stage010.prefab</t>
+  </si>
+  <si>
+    <t>Stage/Stage011.prefab</t>
+  </si>
+  <si>
+    <t>Stage/Stage012.prefab</t>
+  </si>
+  <si>
+    <t>Stage/Stage013.prefab</t>
+  </si>
+  <si>
+    <t>Stage/Stage014.prefab</t>
+  </si>
+  <si>
+    <t>Stage/Stage015.prefab</t>
+  </si>
+  <si>
+    <t>Stage/Stage016.prefab</t>
+  </si>
+  <si>
+    <t>Stage/Stage017.prefab</t>
+  </si>
+  <si>
+    <t>Stage/Stage018.prefab</t>
+  </si>
+  <si>
+    <t>Stage/Stage019.prefab</t>
+  </si>
+  <si>
+    <t>Stage/Stage020.prefab</t>
   </si>
 </sst>
 </file>
@@ -1931,35 +1988,35 @@
         <v>78</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="30" t="s">
         <v>147</v>
-      </c>
-      <c r="C14" s="4">
-        <v>1</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C15" s="4">
         <v>0</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C16" s="4">
         <v>1</v>
@@ -1968,10 +2025,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C17" s="4">
         <v>2</v>
@@ -1980,10 +2037,10 @@
     </row>
     <row r="18" spans="1:4" ht="17.399999999999999">
       <c r="A18" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C18" s="4">
         <v>3</v>
@@ -1992,10 +2049,10 @@
     </row>
     <row r="19" spans="1:4" ht="17.399999999999999">
       <c r="A19" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" s="28" t="s">
         <v>126</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>127</v>
       </c>
       <c r="C19" s="4">
         <v>4</v>
@@ -2004,10 +2061,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C20" s="4">
         <v>5</v>
@@ -2016,10 +2073,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C21" s="4">
         <v>6</v>
@@ -2028,10 +2085,10 @@
     </row>
     <row r="22" spans="1:4" ht="17.399999999999999">
       <c r="A22" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C22" s="4">
         <v>7</v>
@@ -2040,10 +2097,10 @@
     </row>
     <row r="23" spans="1:4" ht="17.399999999999999">
       <c r="A23" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C23" s="4">
         <v>8</v>
@@ -2064,7 +2121,7 @@
   </sheetPr>
   <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
@@ -2094,7 +2151,7 @@
         <v>55</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>56</v>
@@ -2130,25 +2187,25 @@
         <v>75</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R1" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S1" s="19" t="s">
         <v>77</v>
       </c>
       <c r="T1" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="U1" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="U1" s="14" t="s">
-        <v>142</v>
-      </c>
       <c r="V1" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:22">
@@ -2162,7 +2219,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>1</v>
@@ -2230,7 +2287,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>2</v>
@@ -2334,7 +2391,7 @@
         <v>3</v>
       </c>
       <c r="P4" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q4" s="5">
         <v>0</v>
@@ -2343,7 +2400,7 @@
         <v>1</v>
       </c>
       <c r="S4" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T4" s="5">
         <v>2</v>
@@ -2402,7 +2459,7 @@
         <v>3</v>
       </c>
       <c r="P5" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q5" s="5">
         <v>0</v>
@@ -2411,7 +2468,7 @@
         <v>1</v>
       </c>
       <c r="S5" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T5" s="5">
         <v>2</v>
@@ -2470,7 +2527,7 @@
         <v>3</v>
       </c>
       <c r="P6" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q6" s="5">
         <v>0</v>
@@ -2479,7 +2536,7 @@
         <v>1</v>
       </c>
       <c r="S6" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T6" s="5">
         <v>2</v>
@@ -2538,7 +2595,7 @@
         <v>3</v>
       </c>
       <c r="P7" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q7" s="5">
         <v>0</v>
@@ -2547,7 +2604,7 @@
         <v>1</v>
       </c>
       <c r="S7" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T7" s="5">
         <v>2</v>
@@ -2606,7 +2663,7 @@
         <v>3</v>
       </c>
       <c r="P8" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q8" s="5">
         <v>0</v>
@@ -2615,7 +2672,7 @@
         <v>1</v>
       </c>
       <c r="S8" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T8" s="5">
         <v>2</v>
@@ -2674,7 +2731,7 @@
         <v>3</v>
       </c>
       <c r="P9" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q9" s="5">
         <v>0</v>
@@ -2683,7 +2740,7 @@
         <v>1</v>
       </c>
       <c r="S9" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T9" s="5">
         <v>2</v>
@@ -2742,7 +2799,7 @@
         <v>3</v>
       </c>
       <c r="P10" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="5">
         <v>0</v>
@@ -2751,7 +2808,7 @@
         <v>1</v>
       </c>
       <c r="S10" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T10" s="5">
         <v>2</v>
@@ -2810,7 +2867,7 @@
         <v>3</v>
       </c>
       <c r="P11" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q11" s="5">
         <v>0</v>
@@ -2819,7 +2876,7 @@
         <v>3</v>
       </c>
       <c r="S11" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T11" s="5">
         <v>2</v>
@@ -2878,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q12" s="5">
         <v>5</v>
@@ -2887,7 +2944,7 @@
         <v>5</v>
       </c>
       <c r="S12" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T12" s="5">
         <v>2</v>
@@ -2946,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q13" s="5">
         <v>5</v>
@@ -2955,7 +3012,7 @@
         <v>3</v>
       </c>
       <c r="S13" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T13" s="5">
         <v>2</v>
@@ -3014,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q14" s="5">
         <v>5</v>
@@ -3023,7 +3080,7 @@
         <v>10</v>
       </c>
       <c r="S14" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T14" s="5">
         <v>2</v>
@@ -3082,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q15" s="5">
         <v>5</v>
@@ -3091,7 +3148,7 @@
         <v>3</v>
       </c>
       <c r="S15" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T15" s="5">
         <v>2</v>
@@ -3150,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q16" s="5">
         <v>5</v>
@@ -3159,7 +3216,7 @@
         <v>1</v>
       </c>
       <c r="S16" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T16" s="5">
         <v>2</v>
@@ -3218,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q17" s="5">
         <v>5</v>
@@ -3227,7 +3284,7 @@
         <v>10</v>
       </c>
       <c r="S17" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T17" s="5">
         <v>2</v>
@@ -3286,7 +3343,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q18" s="5">
         <v>5</v>
@@ -3295,7 +3352,7 @@
         <v>3</v>
       </c>
       <c r="S18" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T18" s="5">
         <v>2</v>
@@ -3354,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q19" s="5">
         <v>5</v>
@@ -3363,7 +3420,7 @@
         <v>1</v>
       </c>
       <c r="S19" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T19" s="5">
         <v>2</v>
@@ -3422,7 +3479,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q20" s="5">
         <v>5</v>
@@ -3431,7 +3488,7 @@
         <v>10</v>
       </c>
       <c r="S20" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T20" s="5">
         <v>2</v>
@@ -3490,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q21" s="5">
         <v>5</v>
@@ -3499,7 +3556,7 @@
         <v>3</v>
       </c>
       <c r="S21" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T21" s="5">
         <v>2</v>
@@ -3558,7 +3615,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q22" s="5">
         <v>5</v>
@@ -3567,7 +3624,7 @@
         <v>1</v>
       </c>
       <c r="S22" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T22" s="5">
         <v>2</v>
@@ -3626,7 +3683,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q23" s="5">
         <v>0</v>
@@ -3635,7 +3692,7 @@
         <v>5</v>
       </c>
       <c r="S23" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T23" s="5">
         <v>2</v>
@@ -4002,7 +4059,7 @@
         <v>unit_icon_2003</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -4036,7 +4093,7 @@
         <v>unit_icon_2004</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4070,7 +4127,7 @@
         <v>unit_icon_2005</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4104,7 +4161,7 @@
         <v>unit_icon_2006</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4138,7 +4195,7 @@
         <v>unit_icon_2007</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4172,7 +4229,7 @@
         <v>unit_icon_2008</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -4206,7 +4263,7 @@
         <v>unit_icon_2009</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -4236,7 +4293,7 @@
         <v>42</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>47</v>
@@ -4305,7 +4362,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4316,7 +4373,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4327,7 +4384,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -4357,13 +4414,13 @@
         <v>42</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4399,13 +4456,13 @@
         <v>16</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.399999999999999">
@@ -4413,13 +4470,13 @@
         <v>17</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.399999999999999">
@@ -4427,27 +4484,27 @@
         <v>18</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.399999999999999">
       <c r="A7" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4464,8 +4521,8 @@
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4494,7 +4551,7 @@
         <v>47</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4551,7 +4608,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="F4" s="9">
         <v>120</v>
@@ -4571,7 +4628,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>100</v>
+        <v>154</v>
       </c>
       <c r="F5" s="9">
         <v>120</v>
@@ -4591,7 +4648,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="F6" s="9">
         <v>120</v>
@@ -4611,7 +4668,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>100</v>
+        <v>156</v>
       </c>
       <c r="F7" s="9">
         <v>120</v>
@@ -4631,7 +4688,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>100</v>
+        <v>157</v>
       </c>
       <c r="F8" s="9">
         <v>120</v>
@@ -4651,7 +4708,7 @@
         <v>5</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="F9" s="9">
         <v>120</v>
@@ -4671,7 +4728,7 @@
         <v>6</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="F10" s="9">
         <v>120</v>
@@ -4691,7 +4748,7 @@
         <v>7</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="F11" s="9">
         <v>120</v>
@@ -4711,7 +4768,7 @@
         <v>8</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>100</v>
+        <v>161</v>
       </c>
       <c r="F12" s="9">
         <v>120</v>
@@ -4731,7 +4788,7 @@
         <v>9</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>100</v>
+        <v>162</v>
       </c>
       <c r="F13" s="9">
         <v>120</v>
@@ -4751,7 +4808,7 @@
         <v>10</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>100</v>
+        <v>163</v>
       </c>
       <c r="F14" s="9">
         <v>120</v>
@@ -4771,7 +4828,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>100</v>
+        <v>164</v>
       </c>
       <c r="F15" s="9">
         <v>120</v>
@@ -4791,7 +4848,7 @@
         <v>12</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="F16" s="9">
         <v>120</v>
@@ -4811,7 +4868,7 @@
         <v>13</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>100</v>
+        <v>166</v>
       </c>
       <c r="F17" s="9">
         <v>120</v>
@@ -4831,7 +4888,7 @@
         <v>14</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>100</v>
+        <v>167</v>
       </c>
       <c r="F18" s="9">
         <v>120</v>
@@ -4851,7 +4908,7 @@
         <v>15</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="F19" s="9">
         <v>120</v>
@@ -4871,7 +4928,7 @@
         <v>16</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="F20" s="9">
         <v>120</v>
@@ -4891,7 +4948,7 @@
         <v>17</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="F21" s="9">
         <v>120</v>
@@ -4911,7 +4968,7 @@
         <v>18</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>100</v>
+        <v>171</v>
       </c>
       <c r="F22" s="9">
         <v>120</v>
@@ -4931,7 +4988,7 @@
         <v>19</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>100</v>
+        <v>172</v>
       </c>
       <c r="F23" s="9">
         <v>120</v>
@@ -4984,7 +5041,7 @@
         <v>81</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>82</v>
@@ -5032,7 +5089,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
@@ -5049,7 +5106,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D5" s="5">
         <v>0</v>
@@ -5066,7 +5123,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
@@ -5083,7 +5140,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D7" s="5">
         <v>0</v>
@@ -5100,7 +5157,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
@@ -5117,7 +5174,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D9" s="5">
         <v>0</v>
@@ -5162,10 +5219,10 @@
         <v>54</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>106</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:4">

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2256" yWindow="732" windowWidth="24192" windowHeight="12156" activeTab="6"/>
+    <workbookView xWindow="2256" yWindow="732" windowWidth="24192" windowHeight="12156" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigTable" sheetId="18" r:id="rId1"/>
@@ -529,10 +529,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>attackShortDelay</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>attackLongDelay</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1111,6 +1107,10 @@
   </si>
   <si>
     <t>Stage/Stage020.prefab</t>
+  </si>
+  <si>
+    <t>attackShortDelay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1202,7 +1202,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1212,6 +1212,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1250,7 +1262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1332,6 +1344,27 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1971,52 +2004,52 @@
     </row>
     <row r="13" spans="1:7" ht="15">
       <c r="A13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17.399999999999999">
       <c r="A14" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="30" t="s">
         <v>146</v>
-      </c>
-      <c r="C14" s="4">
-        <v>1</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C15" s="4">
         <v>0</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C16" s="4">
         <v>1</v>
@@ -2025,10 +2058,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C17" s="4">
         <v>2</v>
@@ -2037,10 +2070,10 @@
     </row>
     <row r="18" spans="1:4" ht="17.399999999999999">
       <c r="A18" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C18" s="4">
         <v>3</v>
@@ -2049,10 +2082,10 @@
     </row>
     <row r="19" spans="1:4" ht="17.399999999999999">
       <c r="A19" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" s="28" t="s">
         <v>125</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>126</v>
       </c>
       <c r="C19" s="4">
         <v>4</v>
@@ -2061,10 +2094,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C20" s="4">
         <v>5</v>
@@ -2073,10 +2106,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C21" s="4">
         <v>6</v>
@@ -2085,10 +2118,10 @@
     </row>
     <row r="22" spans="1:4" ht="17.399999999999999">
       <c r="A22" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C22" s="4">
         <v>7</v>
@@ -2097,10 +2130,10 @@
     </row>
     <row r="23" spans="1:4" ht="17.399999999999999">
       <c r="A23" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C23" s="4">
         <v>8</v>
@@ -2121,8 +2154,8 @@
   </sheetPr>
   <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2151,7 +2184,7 @@
         <v>55</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>56</v>
@@ -2159,53 +2192,53 @@
       <c r="F1" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="N1" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="K1" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="M1" s="14" t="s">
+      <c r="P1" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="S1" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="N1" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q1" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="R1" s="14" t="s">
+      <c r="T1" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="S1" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="T1" s="14" t="s">
+      <c r="U1" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="U1" s="14" t="s">
-        <v>141</v>
-      </c>
       <c r="V1" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:22">
@@ -2219,7 +2252,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>1</v>
@@ -2227,34 +2260,34 @@
       <c r="F2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="15" t="s">
+      <c r="G2" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="37" t="s">
         <v>1</v>
       </c>
       <c r="M2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="P2" s="20" t="s">
+      <c r="N2" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="35" t="s">
         <v>3</v>
       </c>
       <c r="Q2" s="16" t="s">
@@ -2287,7 +2320,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>2</v>
@@ -2295,34 +2328,34 @@
       <c r="F3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="18" t="s">
+      <c r="G3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="38" t="s">
         <v>2</v>
       </c>
       <c r="M3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="P3" s="21" t="s">
+      <c r="N3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="34" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="18" t="s">
@@ -2376,10 +2409,10 @@
         <v>1</v>
       </c>
       <c r="K4" s="5">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="L4" s="5">
-        <v>30</v>
+        <v>5000</v>
       </c>
       <c r="M4" s="5">
         <v>1</v>
@@ -2391,7 +2424,7 @@
         <v>3</v>
       </c>
       <c r="P4" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q4" s="5">
         <v>0</v>
@@ -2400,7 +2433,7 @@
         <v>1</v>
       </c>
       <c r="S4" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T4" s="5">
         <v>2</v>
@@ -2429,7 +2462,7 @@
         <v>100</v>
       </c>
       <c r="F5" s="5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G5" s="5">
         <v>5</v>
@@ -2444,10 +2477,10 @@
         <v>1</v>
       </c>
       <c r="K5" s="5">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="L5" s="5">
-        <v>30</v>
+        <v>5000</v>
       </c>
       <c r="M5" s="5">
         <v>2</v>
@@ -2459,7 +2492,7 @@
         <v>3</v>
       </c>
       <c r="P5" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q5" s="5">
         <v>0</v>
@@ -2468,7 +2501,7 @@
         <v>1</v>
       </c>
       <c r="S5" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T5" s="5">
         <v>2</v>
@@ -2497,7 +2530,7 @@
         <v>100</v>
       </c>
       <c r="F6" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G6" s="5">
         <v>5</v>
@@ -2512,10 +2545,10 @@
         <v>1</v>
       </c>
       <c r="K6" s="5">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="L6" s="5">
-        <v>30</v>
+        <v>5000</v>
       </c>
       <c r="M6" s="5">
         <v>3</v>
@@ -2527,7 +2560,7 @@
         <v>3</v>
       </c>
       <c r="P6" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q6" s="5">
         <v>0</v>
@@ -2536,7 +2569,7 @@
         <v>1</v>
       </c>
       <c r="S6" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T6" s="5">
         <v>2</v>
@@ -2565,7 +2598,7 @@
         <v>100</v>
       </c>
       <c r="F7" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G7" s="5">
         <v>5</v>
@@ -2580,10 +2613,10 @@
         <v>1</v>
       </c>
       <c r="K7" s="5">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="L7" s="5">
-        <v>30</v>
+        <v>5000</v>
       </c>
       <c r="M7" s="5">
         <v>4</v>
@@ -2595,7 +2628,7 @@
         <v>3</v>
       </c>
       <c r="P7" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q7" s="5">
         <v>0</v>
@@ -2604,7 +2637,7 @@
         <v>1</v>
       </c>
       <c r="S7" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T7" s="5">
         <v>2</v>
@@ -2633,7 +2666,7 @@
         <v>100</v>
       </c>
       <c r="F8" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G8" s="5">
         <v>5</v>
@@ -2648,10 +2681,10 @@
         <v>1</v>
       </c>
       <c r="K8" s="5">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="L8" s="5">
-        <v>30</v>
+        <v>5000</v>
       </c>
       <c r="M8" s="5">
         <v>1</v>
@@ -2663,7 +2696,7 @@
         <v>3</v>
       </c>
       <c r="P8" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q8" s="5">
         <v>0</v>
@@ -2672,7 +2705,7 @@
         <v>1</v>
       </c>
       <c r="S8" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T8" s="5">
         <v>2</v>
@@ -2701,7 +2734,7 @@
         <v>100</v>
       </c>
       <c r="F9" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G9" s="5">
         <v>5</v>
@@ -2716,10 +2749,10 @@
         <v>1</v>
       </c>
       <c r="K9" s="5">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="L9" s="5">
-        <v>30</v>
+        <v>5000</v>
       </c>
       <c r="M9" s="5">
         <v>2</v>
@@ -2731,7 +2764,7 @@
         <v>3</v>
       </c>
       <c r="P9" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q9" s="5">
         <v>0</v>
@@ -2740,7 +2773,7 @@
         <v>1</v>
       </c>
       <c r="S9" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T9" s="5">
         <v>2</v>
@@ -2769,7 +2802,7 @@
         <v>100</v>
       </c>
       <c r="F10" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G10" s="5">
         <v>5</v>
@@ -2784,10 +2817,10 @@
         <v>1</v>
       </c>
       <c r="K10" s="5">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="L10" s="5">
-        <v>30</v>
+        <v>5000</v>
       </c>
       <c r="M10" s="5">
         <v>3</v>
@@ -2799,7 +2832,7 @@
         <v>3</v>
       </c>
       <c r="P10" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q10" s="5">
         <v>0</v>
@@ -2808,7 +2841,7 @@
         <v>1</v>
       </c>
       <c r="S10" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T10" s="5">
         <v>2</v>
@@ -2837,7 +2870,7 @@
         <v>100</v>
       </c>
       <c r="F11" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G11" s="5">
         <v>5</v>
@@ -2852,10 +2885,10 @@
         <v>1</v>
       </c>
       <c r="K11" s="5">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="L11" s="5">
-        <v>30</v>
+        <v>5000</v>
       </c>
       <c r="M11" s="5">
         <v>4</v>
@@ -2867,16 +2900,16 @@
         <v>3</v>
       </c>
       <c r="P11" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q11" s="5">
         <v>0</v>
       </c>
       <c r="R11" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S11" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T11" s="5">
         <v>2</v>
@@ -2920,10 +2953,10 @@
         <v>1</v>
       </c>
       <c r="K12" s="5">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="L12" s="5">
-        <v>30</v>
+        <v>5000</v>
       </c>
       <c r="M12" s="5">
         <v>1</v>
@@ -2935,16 +2968,16 @@
         <v>0</v>
       </c>
       <c r="P12" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q12" s="5">
         <v>5</v>
       </c>
       <c r="R12" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S12" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T12" s="5">
         <v>2</v>
@@ -2988,10 +3021,10 @@
         <v>1</v>
       </c>
       <c r="K13" s="5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L13" s="5">
-        <v>30</v>
+        <v>5000</v>
       </c>
       <c r="M13" s="5">
         <v>2</v>
@@ -3003,16 +3036,16 @@
         <v>0</v>
       </c>
       <c r="P13" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="5">
         <v>5</v>
       </c>
       <c r="R13" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S13" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T13" s="5">
         <v>2</v>
@@ -3056,10 +3089,10 @@
         <v>1</v>
       </c>
       <c r="K14" s="5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L14" s="5">
-        <v>30</v>
+        <v>5000</v>
       </c>
       <c r="M14" s="5">
         <v>2</v>
@@ -3071,16 +3104,16 @@
         <v>0</v>
       </c>
       <c r="P14" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q14" s="5">
         <v>5</v>
       </c>
       <c r="R14" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S14" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T14" s="5">
         <v>2</v>
@@ -3124,10 +3157,10 @@
         <v>1</v>
       </c>
       <c r="K15" s="5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L15" s="5">
-        <v>30</v>
+        <v>5000</v>
       </c>
       <c r="M15" s="5">
         <v>3</v>
@@ -3139,16 +3172,16 @@
         <v>0</v>
       </c>
       <c r="P15" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q15" s="5">
         <v>5</v>
       </c>
       <c r="R15" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S15" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T15" s="5">
         <v>2</v>
@@ -3192,10 +3225,10 @@
         <v>1</v>
       </c>
       <c r="K16" s="5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L16" s="5">
-        <v>30</v>
+        <v>5000</v>
       </c>
       <c r="M16" s="5">
         <v>4</v>
@@ -3207,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q16" s="5">
         <v>5</v>
@@ -3216,7 +3249,7 @@
         <v>1</v>
       </c>
       <c r="S16" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T16" s="5">
         <v>2</v>
@@ -3260,10 +3293,10 @@
         <v>1</v>
       </c>
       <c r="K17" s="5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L17" s="5">
-        <v>30</v>
+        <v>5000</v>
       </c>
       <c r="M17" s="5">
         <v>0</v>
@@ -3275,16 +3308,16 @@
         <v>0</v>
       </c>
       <c r="P17" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q17" s="5">
         <v>5</v>
       </c>
       <c r="R17" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S17" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T17" s="5">
         <v>2</v>
@@ -3328,10 +3361,10 @@
         <v>1</v>
       </c>
       <c r="K18" s="5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L18" s="5">
-        <v>30</v>
+        <v>5000</v>
       </c>
       <c r="M18" s="5">
         <v>0</v>
@@ -3343,16 +3376,16 @@
         <v>0</v>
       </c>
       <c r="P18" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q18" s="5">
         <v>5</v>
       </c>
       <c r="R18" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S18" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T18" s="5">
         <v>2</v>
@@ -3396,10 +3429,10 @@
         <v>1</v>
       </c>
       <c r="K19" s="5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L19" s="5">
-        <v>30</v>
+        <v>5000</v>
       </c>
       <c r="M19" s="5">
         <v>0</v>
@@ -3411,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q19" s="5">
         <v>5</v>
@@ -3420,7 +3453,7 @@
         <v>1</v>
       </c>
       <c r="S19" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T19" s="5">
         <v>2</v>
@@ -3464,10 +3497,10 @@
         <v>2</v>
       </c>
       <c r="K20" s="5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L20" s="5">
-        <v>30</v>
+        <v>5000</v>
       </c>
       <c r="M20" s="5">
         <v>0</v>
@@ -3479,16 +3512,16 @@
         <v>0</v>
       </c>
       <c r="P20" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q20" s="5">
         <v>5</v>
       </c>
       <c r="R20" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S20" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T20" s="5">
         <v>2</v>
@@ -3532,10 +3565,10 @@
         <v>2</v>
       </c>
       <c r="K21" s="5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L21" s="5">
-        <v>30</v>
+        <v>5000</v>
       </c>
       <c r="M21" s="5">
         <v>0</v>
@@ -3547,16 +3580,16 @@
         <v>0</v>
       </c>
       <c r="P21" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q21" s="5">
         <v>5</v>
       </c>
       <c r="R21" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S21" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T21" s="5">
         <v>2</v>
@@ -3600,10 +3633,10 @@
         <v>2</v>
       </c>
       <c r="K22" s="5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L22" s="5">
-        <v>30</v>
+        <v>5000</v>
       </c>
       <c r="M22" s="5">
         <v>0</v>
@@ -3615,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q22" s="5">
         <v>5</v>
@@ -3624,7 +3657,7 @@
         <v>1</v>
       </c>
       <c r="S22" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T22" s="5">
         <v>2</v>
@@ -3668,10 +3701,10 @@
         <v>1</v>
       </c>
       <c r="K23" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L23" s="5">
-        <v>50</v>
+        <v>5000</v>
       </c>
       <c r="M23" s="5">
         <v>5</v>
@@ -3683,16 +3716,16 @@
         <v>0</v>
       </c>
       <c r="P23" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q23" s="5">
         <v>0</v>
       </c>
       <c r="R23" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S23" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T23" s="5">
         <v>2</v>
@@ -3718,7 +3751,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3748,10 +3781,10 @@
         <v>53</v>
       </c>
       <c r="G1" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="14" t="s">
         <v>96</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>97</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>46</v>
@@ -3780,10 +3813,10 @@
         <v>51</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I2" s="17" t="s">
         <v>52</v>
@@ -3812,10 +3845,10 @@
         <v>2</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I3" s="18" t="s">
         <v>2</v>
@@ -3855,7 +3888,7 @@
         <v>unit_icon_1001</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3889,7 +3922,7 @@
         <v>unit_icon_1002</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3923,7 +3956,7 @@
         <v>unit_icon_1003</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3957,7 +3990,7 @@
         <v>unit_icon_1004</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3991,7 +4024,7 @@
         <v>unit_icon_2001</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4025,7 +4058,7 @@
         <v>unit_icon_2002</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4059,7 +4092,7 @@
         <v>unit_icon_2003</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -4093,7 +4126,7 @@
         <v>unit_icon_2004</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4127,7 +4160,7 @@
         <v>unit_icon_2005</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4161,7 +4194,7 @@
         <v>unit_icon_2006</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4195,7 +4228,7 @@
         <v>unit_icon_2007</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4229,7 +4262,7 @@
         <v>unit_icon_2008</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -4263,7 +4296,7 @@
         <v>unit_icon_2009</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -4293,7 +4326,7 @@
         <v>42</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>47</v>
@@ -4329,7 +4362,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4340,7 +4373,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4351,7 +4384,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4362,7 +4395,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4373,7 +4406,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4384,7 +4417,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -4414,13 +4447,13 @@
         <v>42</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4456,13 +4489,13 @@
         <v>16</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.399999999999999">
@@ -4470,13 +4503,13 @@
         <v>17</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.399999999999999">
@@ -4484,27 +4517,27 @@
         <v>18</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.399999999999999">
       <c r="A7" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -4521,7 +4554,7 @@
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
@@ -4539,19 +4572,19 @@
         <v>42</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>85</v>
-      </c>
       <c r="D1" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>47</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4559,13 +4592,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>3</v>
@@ -4599,7 +4632,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" s="5">
         <v>100</v>
@@ -4608,7 +4641,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F4" s="9">
         <v>120</v>
@@ -4619,7 +4652,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" s="5">
         <v>200</v>
@@ -4628,7 +4661,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F5" s="9">
         <v>120</v>
@@ -4639,7 +4672,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="5">
         <v>300</v>
@@ -4648,7 +4681,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F6" s="9">
         <v>120</v>
@@ -4659,7 +4692,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7" s="5">
         <v>400</v>
@@ -4668,7 +4701,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F7" s="9">
         <v>120</v>
@@ -4679,7 +4712,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="5">
         <v>500</v>
@@ -4688,7 +4721,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F8" s="9">
         <v>120</v>
@@ -4699,7 +4732,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9" s="5">
         <v>600</v>
@@ -4708,7 +4741,7 @@
         <v>5</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F9" s="9">
         <v>120</v>
@@ -4719,7 +4752,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C10" s="5">
         <v>700</v>
@@ -4728,7 +4761,7 @@
         <v>6</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F10" s="9">
         <v>120</v>
@@ -4739,7 +4772,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="5">
         <v>800</v>
@@ -4748,7 +4781,7 @@
         <v>7</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F11" s="9">
         <v>120</v>
@@ -4759,7 +4792,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" s="5">
         <v>900</v>
@@ -4768,7 +4801,7 @@
         <v>8</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F12" s="9">
         <v>120</v>
@@ -4779,7 +4812,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" s="5">
         <v>1000</v>
@@ -4788,7 +4821,7 @@
         <v>9</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F13" s="9">
         <v>120</v>
@@ -4799,7 +4832,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="5">
         <v>1100</v>
@@ -4808,7 +4841,7 @@
         <v>10</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F14" s="9">
         <v>120</v>
@@ -4819,7 +4852,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15" s="5">
         <v>1200</v>
@@ -4828,7 +4861,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F15" s="9">
         <v>120</v>
@@ -4839,7 +4872,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C16" s="5">
         <v>1300</v>
@@ -4848,7 +4881,7 @@
         <v>12</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F16" s="9">
         <v>120</v>
@@ -4859,7 +4892,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="5">
         <v>1400</v>
@@ -4868,7 +4901,7 @@
         <v>13</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F17" s="9">
         <v>120</v>
@@ -4879,7 +4912,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="5">
         <v>1500</v>
@@ -4888,7 +4921,7 @@
         <v>14</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F18" s="9">
         <v>120</v>
@@ -4899,7 +4932,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C19" s="5">
         <v>1600</v>
@@ -4908,7 +4941,7 @@
         <v>15</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F19" s="9">
         <v>120</v>
@@ -4919,7 +4952,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C20" s="5">
         <v>1700</v>
@@ -4928,7 +4961,7 @@
         <v>16</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F20" s="9">
         <v>120</v>
@@ -4939,7 +4972,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C21" s="5">
         <v>1800</v>
@@ -4948,7 +4981,7 @@
         <v>17</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F21" s="9">
         <v>120</v>
@@ -4959,7 +4992,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C22" s="5">
         <v>1900</v>
@@ -4968,7 +5001,7 @@
         <v>18</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F22" s="9">
         <v>120</v>
@@ -4979,7 +5012,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C23" s="5">
         <v>2000</v>
@@ -4988,7 +5021,7 @@
         <v>19</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F23" s="9">
         <v>120</v>
@@ -5035,16 +5068,16 @@
         <v>42</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>81</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5089,7 +5122,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
@@ -5106,7 +5139,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D5" s="5">
         <v>0</v>
@@ -5123,7 +5156,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
@@ -5140,7 +5173,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D7" s="5">
         <v>0</v>
@@ -5157,7 +5190,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
@@ -5174,7 +5207,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D9" s="5">
         <v>0</v>
@@ -5219,10 +5252,10 @@
         <v>54</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>105</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:4">

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2256" yWindow="732" windowWidth="24192" windowHeight="12156" activeTab="2"/>
+    <workbookView xWindow="2256" yWindow="732" windowWidth="24192" windowHeight="12156" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigTable" sheetId="18" r:id="rId1"/>
     <sheet name="EnumTable" sheetId="17" r:id="rId2"/>
-    <sheet name="UnitGradeInfo" sheetId="25" r:id="rId3"/>
-    <sheet name="Unitinfo" sheetId="23" r:id="rId4"/>
+    <sheet name="Unitinfo" sheetId="23" r:id="rId3"/>
+    <sheet name="UnitGradeInfo" sheetId="25" r:id="rId4"/>
     <sheet name="ProjectileInfo" sheetId="24" r:id="rId5"/>
     <sheet name="Localization" sheetId="29" r:id="rId6"/>
     <sheet name="StageInfo" sheetId="26" r:id="rId7"/>
@@ -45,19 +45,8 @@
     <author>ejup</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>권장</t>
-        </r>
         <r>
           <rPr>
             <b/>
@@ -66,18 +55,37 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> </t>
+          <t>ejup:</t>
         </r>
         <r>
           <rPr>
-            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>전투력</t>
+          <t>기본값</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> : 3
+3 * 20 * 0.1 = 6</t>
         </r>
       </text>
     </comment>
@@ -131,8 +139,54 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ejup</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>권장</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>전투력</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="184">
   <si>
     <t>type</t>
   </si>
@@ -439,62 +493,6 @@
     <t>prefabName</t>
   </si>
   <si>
-    <r>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>nt</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>nt</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>nt</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>nt</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -513,15 +511,9 @@
     <t>hp</t>
   </si>
   <si>
-    <t>walkSpeed</t>
-  </si>
-  <si>
     <t>attackDmg</t>
   </si>
   <si>
-    <t>attackRange</t>
-  </si>
-  <si>
     <t>attackCount</t>
   </si>
   <si>
@@ -542,30 +534,6 @@
   </si>
   <si>
     <t>Projectile/02_Slime_Archer_Bullet.prefab</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit/Enemy/Chapter_1/01_Indian_Archer.prefab</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit/Enemy/Chapter_1/02_Indian_Shield.prefab</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit/Enemy/Chapter_1/03_Indian_Spear.prefab</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit/Enemy/Chapter_1/04_Indian_Sword.prefab</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit/Hero/01_Slime.prefab</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit/Hero/02_Slime_Archer.prefab</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -817,23 +785,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Unit/Hero/03_Skeleton_Sword.prefab</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Projectile/04_Skeleton_Archer_Bullet.prefab</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Unit/Hero/04_Skeleton_Archer.prefab</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Projectile/05_Skeleton_Witch_Bullet.prefab</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit/Hero/05_Skeleton_Witch.prefab</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -959,18 +915,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Unit/Hero/06_Zombie_Hand.prefab</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit/Hero/07_Zombie_Shield.prefab</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit/Hero/08_Zombie_Sword.prefab</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>combatPower</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1028,10 +972,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Unit/Hero/09_Witch_Fire.prefab</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>BoomEffect/Witch_Fire_Boom_Effect.prefab</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1110,6 +1050,127 @@
   </si>
   <si>
     <t>attackShortDelay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>walkSpeed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackRange</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indian_Archer</t>
+  </si>
+  <si>
+    <t>Indian_Shield</t>
+  </si>
+  <si>
+    <t>Indian_Spear</t>
+  </si>
+  <si>
+    <t>Indian_Sword</t>
+  </si>
+  <si>
+    <t>Indian_Mask</t>
+  </si>
+  <si>
+    <t>Indian_Bear</t>
+  </si>
+  <si>
+    <t>Bear</t>
+  </si>
+  <si>
+    <t>Indian_Master</t>
+  </si>
+  <si>
+    <t>Corgi</t>
+  </si>
+  <si>
+    <t>memo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>all</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slime_Archer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Witch_Thunder</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>memo2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skeleton_Archer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zombie_Hand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zombie_Shield</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skeleton_Sword</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zombie_Sword</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Witch_Fire</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skeleton_Witch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>memo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>tring</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>all</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Witch_Poison</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1117,7 +1178,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1201,6 +1262,40 @@
       <name val="Arial Unicode MS"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1262,7 +1357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1310,15 +1405,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1338,13 +1424,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1365,6 +1445,29 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1789,7 +1892,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B11" sqref="B11:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1976,7 +2079,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>38</v>
@@ -1990,7 +2093,7 @@
     </row>
     <row r="12" spans="1:7" ht="15">
       <c r="A12" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>39</v>
@@ -2004,52 +2107,52 @@
     </row>
     <row r="13" spans="1:7" ht="15">
       <c r="A13" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C13" s="4">
         <v>0</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17.399999999999999">
       <c r="A14" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="C14" s="4">
         <v>1</v>
       </c>
-      <c r="D14" s="30" t="s">
-        <v>146</v>
+      <c r="D14" s="26" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C15" s="4">
         <v>0</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="C16" s="4">
         <v>1</v>
@@ -2058,10 +2161,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C17" s="4">
         <v>2</v>
@@ -2070,10 +2173,10 @@
     </row>
     <row r="18" spans="1:4" ht="17.399999999999999">
       <c r="A18" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>128</v>
+        <v>109</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>113</v>
       </c>
       <c r="C18" s="4">
         <v>3</v>
@@ -2082,10 +2185,10 @@
     </row>
     <row r="19" spans="1:4" ht="17.399999999999999">
       <c r="A19" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>125</v>
+        <v>109</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>110</v>
       </c>
       <c r="C19" s="4">
         <v>4</v>
@@ -2094,10 +2197,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="C20" s="4">
         <v>5</v>
@@ -2106,10 +2209,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="C21" s="4">
         <v>6</v>
@@ -2118,10 +2221,10 @@
     </row>
     <row r="22" spans="1:4" ht="17.399999999999999">
       <c r="A22" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>129</v>
+        <v>109</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>114</v>
       </c>
       <c r="C22" s="4">
         <v>7</v>
@@ -2130,10 +2233,10 @@
     </row>
     <row r="23" spans="1:4" ht="17.399999999999999">
       <c r="A23" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>130</v>
+        <v>109</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>115</v>
       </c>
       <c r="C23" s="4">
         <v>8</v>
@@ -2152,1589 +2255,981 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:V23"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="2" max="10" width="15.5546875" customWidth="1"/>
-    <col min="11" max="11" width="18.109375" customWidth="1"/>
-    <col min="12" max="13" width="18.6640625" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.5546875" customWidth="1"/>
-    <col min="17" max="17" width="12.33203125" customWidth="1"/>
-    <col min="18" max="18" width="27" customWidth="1"/>
-    <col min="19" max="19" width="31.109375" style="23" customWidth="1"/>
-    <col min="20" max="21" width="16.33203125" customWidth="1"/>
-    <col min="22" max="22" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12" style="38" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" style="38" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" style="38" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" style="38" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="38" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" style="38" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" style="38" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" style="38" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" style="38" customWidth="1"/>
+    <col min="10" max="10" width="15.5546875" style="38" customWidth="1"/>
+    <col min="11" max="11" width="25.5546875" style="38" customWidth="1"/>
+    <col min="12" max="12" width="45.44140625" style="38" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="13" customFormat="1">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:12" s="35" customFormat="1">
+      <c r="A1" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="14" t="s">
+      <c r="B1" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" s="36" t="s">
+      <c r="E1" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="F2" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="K2" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="J3" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="40">
+        <v>1001</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="41" t="str">
+        <f>IF(D4=1,"(원거리)","(근거리)")&amp;B4</f>
+        <v>(원거리)Indian_Archer</v>
+      </c>
+      <c r="D4" s="40">
+        <v>1</v>
+      </c>
+      <c r="E4" s="40">
+        <v>100</v>
+      </c>
+      <c r="F4" s="40">
+        <v>1</v>
+      </c>
+      <c r="G4" s="40">
+        <v>1</v>
+      </c>
+      <c r="H4" s="40">
+        <v>1</v>
+      </c>
+      <c r="I4" s="40">
+        <v>1</v>
+      </c>
+      <c r="J4" s="40" t="str">
+        <f>"name_"&amp;A4</f>
+        <v>name_1001</v>
+      </c>
+      <c r="K4" s="40" t="str">
+        <f>"unit_icon_"&amp;A4</f>
+        <v>unit_icon_1001</v>
+      </c>
+      <c r="L4" s="41" t="str">
+        <f t="shared" ref="L4:L11" si="0">"Unit/Enemy/Chapter_1/"&amp;A4&amp;"_"&amp;B4&amp;".prefab"</f>
+        <v>Unit/Enemy/Chapter_1/1001_Indian_Archer.prefab</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="40">
+        <v>1002</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="41" t="str">
+        <f t="shared" ref="C5:C23" si="1">IF(D5=1,"(원거리)","(근거리)")&amp;B5</f>
+        <v>(근거리)Indian_Shield</v>
+      </c>
+      <c r="D5" s="40">
+        <v>0</v>
+      </c>
+      <c r="E5" s="40">
+        <v>100</v>
+      </c>
+      <c r="F5" s="40">
+        <v>1</v>
+      </c>
+      <c r="G5" s="40">
+        <v>1</v>
+      </c>
+      <c r="H5" s="40">
+        <v>1</v>
+      </c>
+      <c r="I5" s="40">
+        <v>1</v>
+      </c>
+      <c r="J5" s="40" t="str">
+        <f t="shared" ref="J5:J15" si="2">"name_"&amp;A5</f>
+        <v>name_1002</v>
+      </c>
+      <c r="K5" s="40" t="str">
+        <f t="shared" ref="K5:K23" si="3">"unit_icon_"&amp;A5</f>
+        <v>unit_icon_1002</v>
+      </c>
+      <c r="L5" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>Unit/Enemy/Chapter_1/1002_Indian_Shield.prefab</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="40">
+        <v>1003</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v>(근거리)Indian_Spear</v>
+      </c>
+      <c r="D6" s="40">
+        <v>0</v>
+      </c>
+      <c r="E6" s="40">
+        <v>100</v>
+      </c>
+      <c r="F6" s="40">
+        <v>1</v>
+      </c>
+      <c r="G6" s="40">
+        <v>1</v>
+      </c>
+      <c r="H6" s="40">
+        <v>1</v>
+      </c>
+      <c r="I6" s="40">
+        <v>1</v>
+      </c>
+      <c r="J6" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>name_1003</v>
+      </c>
+      <c r="K6" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v>unit_icon_1003</v>
+      </c>
+      <c r="L6" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>Unit/Enemy/Chapter_1/1003_Indian_Spear.prefab</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="40">
+        <v>1004</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v>(근거리)Indian_Sword</v>
+      </c>
+      <c r="D7" s="40">
+        <v>0</v>
+      </c>
+      <c r="E7" s="40">
+        <v>100</v>
+      </c>
+      <c r="F7" s="40">
+        <v>1</v>
+      </c>
+      <c r="G7" s="40">
+        <v>1</v>
+      </c>
+      <c r="H7" s="40">
+        <v>1</v>
+      </c>
+      <c r="I7" s="40">
+        <v>1</v>
+      </c>
+      <c r="J7" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>name_1004</v>
+      </c>
+      <c r="K7" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v>unit_icon_1004</v>
+      </c>
+      <c r="L7" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>Unit/Enemy/Chapter_1/1004_Indian_Sword.prefab</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="40">
+        <v>1005</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v>(근거리)Indian_Mask</v>
+      </c>
+      <c r="D8" s="40">
+        <v>0</v>
+      </c>
+      <c r="E8" s="40">
+        <v>100</v>
+      </c>
+      <c r="F8" s="40">
+        <v>1</v>
+      </c>
+      <c r="G8" s="40">
+        <v>1</v>
+      </c>
+      <c r="H8" s="40">
+        <v>1</v>
+      </c>
+      <c r="I8" s="40">
+        <v>1</v>
+      </c>
+      <c r="J8" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>name_1005</v>
+      </c>
+      <c r="K8" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v>unit_icon_1005</v>
+      </c>
+      <c r="L8" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>Unit/Enemy/Chapter_1/1005_Indian_Mask.prefab</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="40">
+        <v>1006</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v>(근거리)Indian_Bear</v>
+      </c>
+      <c r="D9" s="40">
+        <v>0</v>
+      </c>
+      <c r="E9" s="40">
+        <v>100</v>
+      </c>
+      <c r="F9" s="40">
+        <v>1</v>
+      </c>
+      <c r="G9" s="40">
+        <v>1</v>
+      </c>
+      <c r="H9" s="40">
+        <v>1</v>
+      </c>
+      <c r="I9" s="40">
+        <v>1</v>
+      </c>
+      <c r="J9" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>name_1006</v>
+      </c>
+      <c r="K9" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v>unit_icon_1006</v>
+      </c>
+      <c r="L9" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>Unit/Enemy/Chapter_1/1006_Indian_Bear.prefab</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="40">
+        <v>1007</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v>(근거리)Bear</v>
+      </c>
+      <c r="D10" s="40">
+        <v>0</v>
+      </c>
+      <c r="E10" s="40">
+        <v>100</v>
+      </c>
+      <c r="F10" s="40">
+        <v>1</v>
+      </c>
+      <c r="G10" s="40">
+        <v>1</v>
+      </c>
+      <c r="H10" s="40">
+        <v>1</v>
+      </c>
+      <c r="I10" s="40">
+        <v>1</v>
+      </c>
+      <c r="J10" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>name_1007</v>
+      </c>
+      <c r="K10" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v>unit_icon_1007</v>
+      </c>
+      <c r="L10" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>Unit/Enemy/Chapter_1/1007_Bear.prefab</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="40">
+        <v>1008</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v>(근거리)Indian_Master</v>
+      </c>
+      <c r="D11" s="40">
+        <v>0</v>
+      </c>
+      <c r="E11" s="40">
+        <v>100</v>
+      </c>
+      <c r="F11" s="40">
+        <v>1</v>
+      </c>
+      <c r="G11" s="40">
+        <v>1</v>
+      </c>
+      <c r="H11" s="40">
+        <v>1</v>
+      </c>
+      <c r="I11" s="40">
+        <v>1</v>
+      </c>
+      <c r="J11" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>name_1008</v>
+      </c>
+      <c r="K11" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v>unit_icon_1008</v>
+      </c>
+      <c r="L11" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>Unit/Enemy/Chapter_1/1008_Indian_Master.prefab</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="40">
+        <v>1009</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v>(근거리)Corgi</v>
+      </c>
+      <c r="D12" s="40">
+        <v>0</v>
+      </c>
+      <c r="E12" s="40">
+        <v>100</v>
+      </c>
+      <c r="F12" s="40">
+        <v>1</v>
+      </c>
+      <c r="G12" s="40">
+        <v>1</v>
+      </c>
+      <c r="H12" s="40">
+        <v>1</v>
+      </c>
+      <c r="I12" s="40">
+        <v>1</v>
+      </c>
+      <c r="J12" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>name_1009</v>
+      </c>
+      <c r="K12" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v>unit_icon_1009</v>
+      </c>
+      <c r="L12" s="41" t="str">
+        <f>"Unit/Enemy/Chapter_1/"&amp;A12&amp;"_"&amp;B12&amp;".prefab"</f>
+        <v>Unit/Enemy/Chapter_1/1009_Corgi.prefab</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="40">
+        <v>2001</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v>(근거리)Slime</v>
+      </c>
+      <c r="D13" s="40">
+        <v>0</v>
+      </c>
+      <c r="E13" s="40">
+        <v>100</v>
+      </c>
+      <c r="F13" s="40">
+        <v>1</v>
+      </c>
+      <c r="G13" s="40">
+        <v>1</v>
+      </c>
+      <c r="H13" s="40">
+        <v>1</v>
+      </c>
+      <c r="I13" s="40">
+        <v>1</v>
+      </c>
+      <c r="J13" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>name_2001</v>
+      </c>
+      <c r="K13" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v>unit_icon_2001</v>
+      </c>
+      <c r="L13" s="41" t="str">
+        <f>"Unit/Hero/"&amp;A13&amp;"_"&amp;B13&amp;".prefab"</f>
+        <v>Unit/Hero/2001_Slime.prefab</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="40">
+        <v>2002</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v>(원거리)Slime_Archer</v>
+      </c>
+      <c r="D14" s="40">
+        <v>1</v>
+      </c>
+      <c r="E14" s="40">
+        <v>100</v>
+      </c>
+      <c r="F14" s="40">
+        <v>1</v>
+      </c>
+      <c r="G14" s="40">
+        <v>1</v>
+      </c>
+      <c r="H14" s="40">
+        <v>1</v>
+      </c>
+      <c r="I14" s="40">
+        <v>1</v>
+      </c>
+      <c r="J14" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>name_2002</v>
+      </c>
+      <c r="K14" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v>unit_icon_2002</v>
+      </c>
+      <c r="L14" s="41" t="str">
+        <f t="shared" ref="L14:L23" si="4">"Unit/Hero/"&amp;A14&amp;"_"&amp;B14&amp;".prefab"</f>
+        <v>Unit/Hero/2002_Slime_Archer.prefab</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="40">
+        <v>2003</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v>(근거리)Skeleton_Sword</v>
+      </c>
+      <c r="D15" s="40">
+        <v>0</v>
+      </c>
+      <c r="E15" s="40">
+        <v>100</v>
+      </c>
+      <c r="F15" s="40">
+        <v>1</v>
+      </c>
+      <c r="G15" s="40">
+        <v>1</v>
+      </c>
+      <c r="H15" s="40">
+        <v>1</v>
+      </c>
+      <c r="I15" s="40">
+        <v>1</v>
+      </c>
+      <c r="J15" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>name_2003</v>
+      </c>
+      <c r="K15" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v>unit_icon_2003</v>
+      </c>
+      <c r="L15" s="41" t="str">
+        <f t="shared" si="4"/>
+        <v>Unit/Hero/2003_Skeleton_Sword.prefab</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="40">
+        <v>2004</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v>(원거리)Skeleton_Archer</v>
+      </c>
+      <c r="D16" s="40">
+        <v>1</v>
+      </c>
+      <c r="E16" s="40">
+        <v>100</v>
+      </c>
+      <c r="F16" s="40">
+        <v>1</v>
+      </c>
+      <c r="G16" s="40">
+        <v>1</v>
+      </c>
+      <c r="H16" s="40">
+        <v>1</v>
+      </c>
+      <c r="I16" s="40">
+        <v>1</v>
+      </c>
+      <c r="J16" s="40" t="str">
+        <f t="shared" ref="J16:J23" si="5">"name_"&amp;A16</f>
+        <v>name_2004</v>
+      </c>
+      <c r="K16" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v>unit_icon_2004</v>
+      </c>
+      <c r="L16" s="41" t="str">
+        <f t="shared" si="4"/>
+        <v>Unit/Hero/2004_Skeleton_Archer.prefab</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="40">
+        <v>2005</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="C17" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v>(원거리)Skeleton_Witch</v>
+      </c>
+      <c r="D17" s="40">
+        <v>1</v>
+      </c>
+      <c r="E17" s="40">
+        <v>100</v>
+      </c>
+      <c r="F17" s="40">
+        <v>1</v>
+      </c>
+      <c r="G17" s="40">
+        <v>1</v>
+      </c>
+      <c r="H17" s="40">
+        <v>1</v>
+      </c>
+      <c r="I17" s="40">
+        <v>1</v>
+      </c>
+      <c r="J17" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>name_2005</v>
+      </c>
+      <c r="K17" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v>unit_icon_2005</v>
+      </c>
+      <c r="L17" s="41" t="str">
+        <f t="shared" si="4"/>
+        <v>Unit/Hero/2005_Skeleton_Witch.prefab</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="40">
+        <v>2006</v>
+      </c>
+      <c r="B18" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="L1" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="N1" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="O1" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="P1" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q1" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="R1" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="T1" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="U1" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="V1" s="14" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="P2" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="R2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="S2" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="T2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="U2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="V2" s="15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
-      <c r="A3" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="P3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="S3" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="T3" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="U3" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="V3" s="18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
-      <c r="A4" s="5">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1001</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5">
-        <v>10</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="C18" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v>(근거리)Zombie_Hand</v>
+      </c>
+      <c r="D18" s="40">
+        <v>0</v>
+      </c>
+      <c r="E18" s="40">
         <v>100</v>
       </c>
-      <c r="F4" s="5">
-        <v>10</v>
-      </c>
-      <c r="G4" s="5">
-        <v>5</v>
-      </c>
-      <c r="H4" s="5">
-        <v>80</v>
-      </c>
-      <c r="I4" s="5">
-        <v>2</v>
-      </c>
-      <c r="J4" s="5">
-        <v>1</v>
-      </c>
-      <c r="K4" s="5">
+      <c r="F18" s="40">
+        <v>1</v>
+      </c>
+      <c r="G18" s="40">
+        <v>1</v>
+      </c>
+      <c r="H18" s="40">
+        <v>1</v>
+      </c>
+      <c r="I18" s="40">
+        <v>1</v>
+      </c>
+      <c r="J18" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>name_2006</v>
+      </c>
+      <c r="K18" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v>unit_icon_2006</v>
+      </c>
+      <c r="L18" s="41" t="str">
+        <f t="shared" si="4"/>
+        <v>Unit/Hero/2006_Zombie_Hand.prefab</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="40">
+        <v>2007</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="C19" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v>(근거리)Zombie_Shield</v>
+      </c>
+      <c r="D19" s="40">
+        <v>0</v>
+      </c>
+      <c r="E19" s="40">
         <v>100</v>
       </c>
-      <c r="L4" s="5">
-        <v>5000</v>
-      </c>
-      <c r="M4" s="5">
-        <v>1</v>
-      </c>
-      <c r="N4" s="5">
-        <v>1</v>
-      </c>
-      <c r="O4" s="5">
-        <v>3</v>
-      </c>
-      <c r="P4" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>0</v>
-      </c>
-      <c r="R4" s="5">
-        <v>1</v>
-      </c>
-      <c r="S4" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="T4" s="5">
-        <v>2</v>
-      </c>
-      <c r="U4" s="5">
-        <v>10</v>
-      </c>
-      <c r="V4" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
-      <c r="A5" s="5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1002</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5">
-        <v>10</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="F19" s="40">
+        <v>1</v>
+      </c>
+      <c r="G19" s="40">
+        <v>1</v>
+      </c>
+      <c r="H19" s="40">
+        <v>1</v>
+      </c>
+      <c r="I19" s="40">
+        <v>1</v>
+      </c>
+      <c r="J19" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>name_2007</v>
+      </c>
+      <c r="K19" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v>unit_icon_2007</v>
+      </c>
+      <c r="L19" s="41" t="str">
+        <f t="shared" si="4"/>
+        <v>Unit/Hero/2007_Zombie_Shield.prefab</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="40">
+        <v>2008</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="C20" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v>(근거리)Zombie_Sword</v>
+      </c>
+      <c r="D20" s="40">
+        <v>0</v>
+      </c>
+      <c r="E20" s="40">
         <v>100</v>
       </c>
-      <c r="F5" s="5">
-        <v>10</v>
-      </c>
-      <c r="G5" s="5">
-        <v>5</v>
-      </c>
-      <c r="H5" s="5">
-        <v>8</v>
-      </c>
-      <c r="I5" s="9">
-        <v>1</v>
-      </c>
-      <c r="J5" s="5">
-        <v>1</v>
-      </c>
-      <c r="K5" s="5">
+      <c r="F20" s="40">
+        <v>1</v>
+      </c>
+      <c r="G20" s="40">
+        <v>1</v>
+      </c>
+      <c r="H20" s="40">
+        <v>1</v>
+      </c>
+      <c r="I20" s="40">
+        <v>1</v>
+      </c>
+      <c r="J20" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>name_2008</v>
+      </c>
+      <c r="K20" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v>unit_icon_2008</v>
+      </c>
+      <c r="L20" s="41" t="str">
+        <f t="shared" si="4"/>
+        <v>Unit/Hero/2008_Zombie_Sword.prefab</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="40">
+        <v>2009</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="C21" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v>(원거리)Witch_Fire</v>
+      </c>
+      <c r="D21" s="40">
+        <v>1</v>
+      </c>
+      <c r="E21" s="40">
         <v>100</v>
       </c>
-      <c r="L5" s="5">
-        <v>5000</v>
-      </c>
-      <c r="M5" s="5">
-        <v>2</v>
-      </c>
-      <c r="N5" s="5">
-        <v>1</v>
-      </c>
-      <c r="O5" s="5">
-        <v>3</v>
-      </c>
-      <c r="P5" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>0</v>
-      </c>
-      <c r="R5" s="5">
-        <v>1</v>
-      </c>
-      <c r="S5" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="T5" s="5">
-        <v>2</v>
-      </c>
-      <c r="U5" s="5">
-        <v>10</v>
-      </c>
-      <c r="V5" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
-      <c r="A6" s="5">
-        <v>3</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1003</v>
-      </c>
-      <c r="C6" s="9">
-        <v>1</v>
-      </c>
-      <c r="D6" s="9">
-        <v>10</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="F21" s="40">
+        <v>1</v>
+      </c>
+      <c r="G21" s="40">
+        <v>1</v>
+      </c>
+      <c r="H21" s="40">
+        <v>1</v>
+      </c>
+      <c r="I21" s="40">
+        <v>1</v>
+      </c>
+      <c r="J21" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>name_2009</v>
+      </c>
+      <c r="K21" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v>unit_icon_2009</v>
+      </c>
+      <c r="L21" s="41" t="str">
+        <f t="shared" si="4"/>
+        <v>Unit/Hero/2009_Witch_Fire.prefab</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="40">
+        <v>2010</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="C22" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v>(원거리)Witch_Thunder</v>
+      </c>
+      <c r="D22" s="40">
+        <v>1</v>
+      </c>
+      <c r="E22" s="40">
         <v>100</v>
       </c>
-      <c r="F6" s="5">
-        <v>10</v>
-      </c>
-      <c r="G6" s="5">
-        <v>5</v>
-      </c>
-      <c r="H6" s="5">
-        <v>8</v>
-      </c>
-      <c r="I6" s="9">
-        <v>1</v>
-      </c>
-      <c r="J6" s="5">
-        <v>1</v>
-      </c>
-      <c r="K6" s="5">
+      <c r="F22" s="40">
+        <v>1</v>
+      </c>
+      <c r="G22" s="40">
+        <v>1</v>
+      </c>
+      <c r="H22" s="40">
+        <v>1</v>
+      </c>
+      <c r="I22" s="40">
+        <v>1</v>
+      </c>
+      <c r="J22" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>name_2010</v>
+      </c>
+      <c r="K22" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v>unit_icon_2010</v>
+      </c>
+      <c r="L22" s="41" t="str">
+        <f>"Unit/Hero/"&amp;A22&amp;"_"&amp;B22&amp;".prefab"</f>
+        <v>Unit/Hero/2010_Witch_Thunder.prefab</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="40">
+        <v>2011</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="C23" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v>(원거리)Witch_Poison</v>
+      </c>
+      <c r="D23" s="40">
+        <v>1</v>
+      </c>
+      <c r="E23" s="40">
         <v>100</v>
       </c>
-      <c r="L6" s="5">
-        <v>5000</v>
-      </c>
-      <c r="M6" s="5">
-        <v>3</v>
-      </c>
-      <c r="N6" s="5">
-        <v>1</v>
-      </c>
-      <c r="O6" s="5">
-        <v>3</v>
-      </c>
-      <c r="P6" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>0</v>
-      </c>
-      <c r="R6" s="5">
-        <v>1</v>
-      </c>
-      <c r="S6" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="T6" s="5">
-        <v>2</v>
-      </c>
-      <c r="U6" s="5">
-        <v>10</v>
-      </c>
-      <c r="V6" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
-      <c r="A7" s="5">
-        <v>4</v>
-      </c>
-      <c r="B7" s="5">
-        <v>1004</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5">
-        <v>10</v>
-      </c>
-      <c r="E7" s="5">
-        <v>100</v>
-      </c>
-      <c r="F7" s="5">
-        <v>10</v>
-      </c>
-      <c r="G7" s="5">
-        <v>5</v>
-      </c>
-      <c r="H7" s="5">
-        <v>8</v>
-      </c>
-      <c r="I7" s="9">
-        <v>1</v>
-      </c>
-      <c r="J7" s="5">
-        <v>1</v>
-      </c>
-      <c r="K7" s="5">
-        <v>100</v>
-      </c>
-      <c r="L7" s="5">
-        <v>5000</v>
-      </c>
-      <c r="M7" s="5">
-        <v>4</v>
-      </c>
-      <c r="N7" s="5">
-        <v>1</v>
-      </c>
-      <c r="O7" s="5">
-        <v>3</v>
-      </c>
-      <c r="P7" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>0</v>
-      </c>
-      <c r="R7" s="5">
-        <v>1</v>
-      </c>
-      <c r="S7" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="T7" s="5">
-        <v>2</v>
-      </c>
-      <c r="U7" s="5">
-        <v>10</v>
-      </c>
-      <c r="V7" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
-      <c r="A8" s="5">
-        <v>5</v>
-      </c>
-      <c r="B8" s="5">
-        <v>1001</v>
-      </c>
-      <c r="C8" s="5">
-        <v>2</v>
-      </c>
-      <c r="D8" s="5">
-        <v>20</v>
-      </c>
-      <c r="E8" s="5">
-        <v>100</v>
-      </c>
-      <c r="F8" s="5">
-        <v>10</v>
-      </c>
-      <c r="G8" s="5">
-        <v>5</v>
-      </c>
-      <c r="H8" s="5">
-        <v>80</v>
-      </c>
-      <c r="I8" s="5">
-        <v>2</v>
-      </c>
-      <c r="J8" s="5">
-        <v>1</v>
-      </c>
-      <c r="K8" s="5">
-        <v>100</v>
-      </c>
-      <c r="L8" s="5">
-        <v>5000</v>
-      </c>
-      <c r="M8" s="5">
-        <v>1</v>
-      </c>
-      <c r="N8" s="5">
-        <v>1</v>
-      </c>
-      <c r="O8" s="5">
-        <v>3</v>
-      </c>
-      <c r="P8" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q8" s="5">
-        <v>0</v>
-      </c>
-      <c r="R8" s="5">
-        <v>1</v>
-      </c>
-      <c r="S8" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="T8" s="5">
-        <v>2</v>
-      </c>
-      <c r="U8" s="5">
-        <v>10</v>
-      </c>
-      <c r="V8" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
-      <c r="A9" s="5">
-        <v>6</v>
-      </c>
-      <c r="B9" s="5">
-        <v>1002</v>
-      </c>
-      <c r="C9" s="5">
-        <v>2</v>
-      </c>
-      <c r="D9" s="5">
-        <v>20</v>
-      </c>
-      <c r="E9" s="5">
-        <v>100</v>
-      </c>
-      <c r="F9" s="5">
-        <v>10</v>
-      </c>
-      <c r="G9" s="5">
-        <v>5</v>
-      </c>
-      <c r="H9" s="5">
-        <v>8</v>
-      </c>
-      <c r="I9" s="9">
-        <v>1</v>
-      </c>
-      <c r="J9" s="5">
-        <v>1</v>
-      </c>
-      <c r="K9" s="5">
-        <v>100</v>
-      </c>
-      <c r="L9" s="5">
-        <v>5000</v>
-      </c>
-      <c r="M9" s="5">
-        <v>2</v>
-      </c>
-      <c r="N9" s="5">
-        <v>1</v>
-      </c>
-      <c r="O9" s="5">
-        <v>3</v>
-      </c>
-      <c r="P9" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>0</v>
-      </c>
-      <c r="R9" s="5">
-        <v>1</v>
-      </c>
-      <c r="S9" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="T9" s="5">
-        <v>2</v>
-      </c>
-      <c r="U9" s="5">
-        <v>10</v>
-      </c>
-      <c r="V9" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
-      <c r="A10" s="5">
-        <v>7</v>
-      </c>
-      <c r="B10" s="5">
-        <v>1003</v>
-      </c>
-      <c r="C10" s="9">
-        <v>2</v>
-      </c>
-      <c r="D10" s="9">
-        <v>20</v>
-      </c>
-      <c r="E10" s="5">
-        <v>100</v>
-      </c>
-      <c r="F10" s="5">
-        <v>10</v>
-      </c>
-      <c r="G10" s="5">
-        <v>5</v>
-      </c>
-      <c r="H10" s="5">
-        <v>8</v>
-      </c>
-      <c r="I10" s="9">
-        <v>1</v>
-      </c>
-      <c r="J10" s="5">
-        <v>1</v>
-      </c>
-      <c r="K10" s="5">
-        <v>100</v>
-      </c>
-      <c r="L10" s="5">
-        <v>5000</v>
-      </c>
-      <c r="M10" s="5">
-        <v>3</v>
-      </c>
-      <c r="N10" s="5">
-        <v>1</v>
-      </c>
-      <c r="O10" s="5">
-        <v>3</v>
-      </c>
-      <c r="P10" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>0</v>
-      </c>
-      <c r="R10" s="5">
-        <v>1</v>
-      </c>
-      <c r="S10" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="T10" s="5">
-        <v>2</v>
-      </c>
-      <c r="U10" s="5">
-        <v>10</v>
-      </c>
-      <c r="V10" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
-      <c r="A11" s="5">
-        <v>8</v>
-      </c>
-      <c r="B11" s="5">
-        <v>1004</v>
-      </c>
-      <c r="C11" s="5">
-        <v>2</v>
-      </c>
-      <c r="D11" s="5">
-        <v>20</v>
-      </c>
-      <c r="E11" s="5">
-        <v>100</v>
-      </c>
-      <c r="F11" s="5">
-        <v>10</v>
-      </c>
-      <c r="G11" s="5">
-        <v>5</v>
-      </c>
-      <c r="H11" s="5">
-        <v>8</v>
-      </c>
-      <c r="I11" s="9">
-        <v>1</v>
-      </c>
-      <c r="J11" s="5">
-        <v>1</v>
-      </c>
-      <c r="K11" s="5">
-        <v>100</v>
-      </c>
-      <c r="L11" s="5">
-        <v>5000</v>
-      </c>
-      <c r="M11" s="5">
-        <v>4</v>
-      </c>
-      <c r="N11" s="5">
-        <v>1</v>
-      </c>
-      <c r="O11" s="5">
-        <v>3</v>
-      </c>
-      <c r="P11" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q11" s="5">
-        <v>0</v>
-      </c>
-      <c r="R11" s="5">
-        <v>1</v>
-      </c>
-      <c r="S11" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="T11" s="5">
-        <v>2</v>
-      </c>
-      <c r="U11" s="5">
-        <v>10</v>
-      </c>
-      <c r="V11" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
-      <c r="A12" s="5">
-        <v>9</v>
-      </c>
-      <c r="B12" s="5">
-        <v>2001</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1</v>
-      </c>
-      <c r="D12" s="5">
-        <v>10</v>
-      </c>
-      <c r="E12" s="5">
-        <v>100</v>
-      </c>
-      <c r="F12" s="5">
-        <v>10</v>
-      </c>
-      <c r="G12" s="5">
-        <v>5</v>
-      </c>
-      <c r="H12" s="5">
-        <v>8</v>
-      </c>
-      <c r="I12" s="5">
-        <v>2</v>
-      </c>
-      <c r="J12" s="5">
-        <v>1</v>
-      </c>
-      <c r="K12" s="5">
-        <v>100</v>
-      </c>
-      <c r="L12" s="5">
-        <v>5000</v>
-      </c>
-      <c r="M12" s="5">
-        <v>1</v>
-      </c>
-      <c r="N12" s="5">
-        <v>0</v>
-      </c>
-      <c r="O12" s="5">
-        <v>0</v>
-      </c>
-      <c r="P12" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q12" s="5">
-        <v>5</v>
-      </c>
-      <c r="R12" s="5">
-        <v>1</v>
-      </c>
-      <c r="S12" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="T12" s="5">
-        <v>2</v>
-      </c>
-      <c r="U12" s="5">
-        <v>10</v>
-      </c>
-      <c r="V12" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
-      <c r="A13" s="5">
-        <v>10</v>
-      </c>
-      <c r="B13" s="5">
-        <v>2002</v>
-      </c>
-      <c r="C13" s="5">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5">
-        <v>10</v>
-      </c>
-      <c r="E13" s="5">
-        <v>100</v>
-      </c>
-      <c r="F13" s="5">
-        <v>10</v>
-      </c>
-      <c r="G13" s="5">
-        <v>5</v>
-      </c>
-      <c r="H13" s="5">
-        <v>80</v>
-      </c>
-      <c r="I13" s="5">
-        <v>1</v>
-      </c>
-      <c r="J13" s="5">
-        <v>1</v>
-      </c>
-      <c r="K13" s="5">
-        <v>100</v>
-      </c>
-      <c r="L13" s="5">
-        <v>5000</v>
-      </c>
-      <c r="M13" s="5">
-        <v>2</v>
-      </c>
-      <c r="N13" s="5">
-        <v>0</v>
-      </c>
-      <c r="O13" s="5">
-        <v>0</v>
-      </c>
-      <c r="P13" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q13" s="5">
-        <v>5</v>
-      </c>
-      <c r="R13" s="5">
-        <v>1</v>
-      </c>
-      <c r="S13" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="T13" s="5">
-        <v>2</v>
-      </c>
-      <c r="U13" s="5">
-        <v>10</v>
-      </c>
-      <c r="V13" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
-      <c r="A14" s="5">
-        <v>11</v>
-      </c>
-      <c r="B14" s="5">
-        <v>2003</v>
-      </c>
-      <c r="C14" s="5">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5">
-        <v>10</v>
-      </c>
-      <c r="E14" s="5">
-        <v>100</v>
-      </c>
-      <c r="F14" s="5">
-        <v>10</v>
-      </c>
-      <c r="G14" s="5">
-        <v>5</v>
-      </c>
-      <c r="H14" s="5">
-        <v>8</v>
-      </c>
-      <c r="I14" s="5">
-        <v>1</v>
-      </c>
-      <c r="J14" s="5">
-        <v>1</v>
-      </c>
-      <c r="K14" s="5">
-        <v>100</v>
-      </c>
-      <c r="L14" s="5">
-        <v>5000</v>
-      </c>
-      <c r="M14" s="5">
-        <v>2</v>
-      </c>
-      <c r="N14" s="5">
-        <v>0</v>
-      </c>
-      <c r="O14" s="5">
-        <v>0</v>
-      </c>
-      <c r="P14" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q14" s="5">
-        <v>5</v>
-      </c>
-      <c r="R14" s="5">
-        <v>1</v>
-      </c>
-      <c r="S14" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="T14" s="5">
-        <v>2</v>
-      </c>
-      <c r="U14" s="5">
-        <v>10</v>
-      </c>
-      <c r="V14" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="15" thickBot="1">
-      <c r="A15" s="5">
-        <v>12</v>
-      </c>
-      <c r="B15" s="5">
-        <v>2004</v>
-      </c>
-      <c r="C15" s="5">
-        <v>1</v>
-      </c>
-      <c r="D15" s="5">
-        <v>10</v>
-      </c>
-      <c r="E15" s="5">
-        <v>100</v>
-      </c>
-      <c r="F15" s="5">
-        <v>10</v>
-      </c>
-      <c r="G15" s="5">
-        <v>5</v>
-      </c>
-      <c r="H15" s="5">
-        <v>80</v>
-      </c>
-      <c r="I15" s="5">
-        <v>1</v>
-      </c>
-      <c r="J15" s="5">
-        <v>1</v>
-      </c>
-      <c r="K15" s="5">
-        <v>100</v>
-      </c>
-      <c r="L15" s="5">
-        <v>5000</v>
-      </c>
-      <c r="M15" s="5">
-        <v>3</v>
-      </c>
-      <c r="N15" s="5">
-        <v>0</v>
-      </c>
-      <c r="O15" s="5">
-        <v>0</v>
-      </c>
-      <c r="P15" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q15" s="5">
-        <v>5</v>
-      </c>
-      <c r="R15" s="5">
-        <v>1</v>
-      </c>
-      <c r="S15" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="T15" s="5">
-        <v>2</v>
-      </c>
-      <c r="U15" s="5">
-        <v>10</v>
-      </c>
-      <c r="V15" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="15" thickBot="1">
-      <c r="A16" s="5">
-        <v>13</v>
-      </c>
-      <c r="B16" s="5">
-        <v>2005</v>
-      </c>
-      <c r="C16" s="24">
-        <v>1</v>
-      </c>
-      <c r="D16" s="29">
-        <v>10</v>
-      </c>
-      <c r="E16" s="5">
-        <v>100</v>
-      </c>
-      <c r="F16" s="5">
-        <v>10</v>
-      </c>
-      <c r="G16" s="5">
-        <v>5</v>
-      </c>
-      <c r="H16" s="5">
-        <v>80</v>
-      </c>
-      <c r="I16" s="5">
-        <v>1</v>
-      </c>
-      <c r="J16" s="5">
-        <v>1</v>
-      </c>
-      <c r="K16" s="5">
-        <v>100</v>
-      </c>
-      <c r="L16" s="5">
-        <v>5000</v>
-      </c>
-      <c r="M16" s="5">
-        <v>4</v>
-      </c>
-      <c r="N16" s="5">
-        <v>0</v>
-      </c>
-      <c r="O16" s="5">
-        <v>0</v>
-      </c>
-      <c r="P16" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q16" s="5">
-        <v>5</v>
-      </c>
-      <c r="R16" s="5">
-        <v>1</v>
-      </c>
-      <c r="S16" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="T16" s="5">
-        <v>2</v>
-      </c>
-      <c r="U16" s="5">
-        <v>10</v>
-      </c>
-      <c r="V16" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22">
-      <c r="A17" s="5">
-        <v>14</v>
-      </c>
-      <c r="B17" s="5">
-        <v>2006</v>
-      </c>
-      <c r="C17" s="5">
-        <v>1</v>
-      </c>
-      <c r="D17" s="5">
-        <v>10</v>
-      </c>
-      <c r="E17" s="5">
-        <v>100</v>
-      </c>
-      <c r="F17" s="5">
-        <v>10</v>
-      </c>
-      <c r="G17" s="5">
-        <v>5</v>
-      </c>
-      <c r="H17" s="5">
-        <v>8</v>
-      </c>
-      <c r="I17" s="5">
-        <v>1</v>
-      </c>
-      <c r="J17" s="5">
-        <v>1</v>
-      </c>
-      <c r="K17" s="5">
-        <v>100</v>
-      </c>
-      <c r="L17" s="5">
-        <v>5000</v>
-      </c>
-      <c r="M17" s="5">
-        <v>0</v>
-      </c>
-      <c r="N17" s="5">
-        <v>0</v>
-      </c>
-      <c r="O17" s="5">
-        <v>0</v>
-      </c>
-      <c r="P17" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q17" s="5">
-        <v>5</v>
-      </c>
-      <c r="R17" s="5">
-        <v>1</v>
-      </c>
-      <c r="S17" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="T17" s="5">
-        <v>2</v>
-      </c>
-      <c r="U17" s="5">
-        <v>10</v>
-      </c>
-      <c r="V17" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="15" thickBot="1">
-      <c r="A18" s="5">
-        <v>15</v>
-      </c>
-      <c r="B18" s="5">
-        <v>2007</v>
-      </c>
-      <c r="C18" s="5">
-        <v>1</v>
-      </c>
-      <c r="D18" s="5">
-        <v>10</v>
-      </c>
-      <c r="E18" s="5">
-        <v>100</v>
-      </c>
-      <c r="F18" s="5">
-        <v>10</v>
-      </c>
-      <c r="G18" s="5">
-        <v>5</v>
-      </c>
-      <c r="H18" s="5">
-        <v>8</v>
-      </c>
-      <c r="I18" s="5">
-        <v>1</v>
-      </c>
-      <c r="J18" s="5">
-        <v>1</v>
-      </c>
-      <c r="K18" s="5">
-        <v>100</v>
-      </c>
-      <c r="L18" s="5">
-        <v>5000</v>
-      </c>
-      <c r="M18" s="5">
-        <v>0</v>
-      </c>
-      <c r="N18" s="5">
-        <v>0</v>
-      </c>
-      <c r="O18" s="5">
-        <v>0</v>
-      </c>
-      <c r="P18" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q18" s="5">
-        <v>5</v>
-      </c>
-      <c r="R18" s="5">
-        <v>1</v>
-      </c>
-      <c r="S18" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="T18" s="5">
-        <v>2</v>
-      </c>
-      <c r="U18" s="5">
-        <v>10</v>
-      </c>
-      <c r="V18" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" ht="15" thickBot="1">
-      <c r="A19" s="5">
-        <v>16</v>
-      </c>
-      <c r="B19" s="5">
-        <v>2008</v>
-      </c>
-      <c r="C19" s="24">
-        <v>1</v>
-      </c>
-      <c r="D19" s="29">
-        <v>10</v>
-      </c>
-      <c r="E19" s="5">
-        <v>100</v>
-      </c>
-      <c r="F19" s="5">
-        <v>10</v>
-      </c>
-      <c r="G19" s="5">
-        <v>5</v>
-      </c>
-      <c r="H19" s="5">
-        <v>8</v>
-      </c>
-      <c r="I19" s="5">
-        <v>1</v>
-      </c>
-      <c r="J19" s="5">
-        <v>1</v>
-      </c>
-      <c r="K19" s="5">
-        <v>100</v>
-      </c>
-      <c r="L19" s="5">
-        <v>5000</v>
-      </c>
-      <c r="M19" s="5">
-        <v>0</v>
-      </c>
-      <c r="N19" s="5">
-        <v>0</v>
-      </c>
-      <c r="O19" s="5">
-        <v>0</v>
-      </c>
-      <c r="P19" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q19" s="5">
-        <v>5</v>
-      </c>
-      <c r="R19" s="5">
-        <v>1</v>
-      </c>
-      <c r="S19" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="T19" s="5">
-        <v>2</v>
-      </c>
-      <c r="U19" s="5">
-        <v>10</v>
-      </c>
-      <c r="V19" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22">
-      <c r="A20" s="5">
-        <v>17</v>
-      </c>
-      <c r="B20" s="5">
-        <v>2006</v>
-      </c>
-      <c r="C20" s="5">
-        <v>2</v>
-      </c>
-      <c r="D20" s="5">
-        <v>20</v>
-      </c>
-      <c r="E20" s="5">
-        <v>100</v>
-      </c>
-      <c r="F20" s="5">
-        <v>10</v>
-      </c>
-      <c r="G20" s="5">
-        <v>5</v>
-      </c>
-      <c r="H20" s="5">
-        <v>8</v>
-      </c>
-      <c r="I20" s="5">
-        <v>2</v>
-      </c>
-      <c r="J20" s="5">
-        <v>2</v>
-      </c>
-      <c r="K20" s="5">
-        <v>100</v>
-      </c>
-      <c r="L20" s="5">
-        <v>5000</v>
-      </c>
-      <c r="M20" s="5">
-        <v>0</v>
-      </c>
-      <c r="N20" s="5">
-        <v>0</v>
-      </c>
-      <c r="O20" s="5">
-        <v>0</v>
-      </c>
-      <c r="P20" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q20" s="5">
-        <v>5</v>
-      </c>
-      <c r="R20" s="5">
-        <v>1</v>
-      </c>
-      <c r="S20" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="T20" s="5">
-        <v>2</v>
-      </c>
-      <c r="U20" s="5">
-        <v>10</v>
-      </c>
-      <c r="V20" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" ht="15" thickBot="1">
-      <c r="A21" s="5">
-        <v>18</v>
-      </c>
-      <c r="B21" s="5">
-        <v>2007</v>
-      </c>
-      <c r="C21" s="5">
-        <v>2</v>
-      </c>
-      <c r="D21" s="5">
-        <v>20</v>
-      </c>
-      <c r="E21" s="5">
-        <v>100</v>
-      </c>
-      <c r="F21" s="5">
-        <v>10</v>
-      </c>
-      <c r="G21" s="5">
-        <v>5</v>
-      </c>
-      <c r="H21" s="5">
-        <v>8</v>
-      </c>
-      <c r="I21" s="5">
-        <v>2</v>
-      </c>
-      <c r="J21" s="5">
-        <v>2</v>
-      </c>
-      <c r="K21" s="5">
-        <v>100</v>
-      </c>
-      <c r="L21" s="5">
-        <v>5000</v>
-      </c>
-      <c r="M21" s="5">
-        <v>0</v>
-      </c>
-      <c r="N21" s="5">
-        <v>0</v>
-      </c>
-      <c r="O21" s="5">
-        <v>0</v>
-      </c>
-      <c r="P21" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q21" s="5">
-        <v>5</v>
-      </c>
-      <c r="R21" s="5">
-        <v>1</v>
-      </c>
-      <c r="S21" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="T21" s="5">
-        <v>2</v>
-      </c>
-      <c r="U21" s="5">
-        <v>10</v>
-      </c>
-      <c r="V21" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" ht="15" thickBot="1">
-      <c r="A22" s="5">
-        <v>19</v>
-      </c>
-      <c r="B22" s="5">
-        <v>2008</v>
-      </c>
-      <c r="C22" s="24">
-        <v>2</v>
-      </c>
-      <c r="D22" s="29">
-        <v>20</v>
-      </c>
-      <c r="E22" s="5">
-        <v>100</v>
-      </c>
-      <c r="F22" s="5">
-        <v>10</v>
-      </c>
-      <c r="G22" s="5">
-        <v>5</v>
-      </c>
-      <c r="H22" s="5">
-        <v>8</v>
-      </c>
-      <c r="I22" s="5">
-        <v>2</v>
-      </c>
-      <c r="J22" s="5">
-        <v>2</v>
-      </c>
-      <c r="K22" s="5">
-        <v>100</v>
-      </c>
-      <c r="L22" s="5">
-        <v>5000</v>
-      </c>
-      <c r="M22" s="5">
-        <v>0</v>
-      </c>
-      <c r="N22" s="5">
-        <v>0</v>
-      </c>
-      <c r="O22" s="5">
-        <v>0</v>
-      </c>
-      <c r="P22" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q22" s="5">
-        <v>5</v>
-      </c>
-      <c r="R22" s="5">
-        <v>1</v>
-      </c>
-      <c r="S22" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="T22" s="5">
-        <v>2</v>
-      </c>
-      <c r="U22" s="5">
-        <v>10</v>
-      </c>
-      <c r="V22" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22">
-      <c r="A23" s="5">
-        <v>20</v>
-      </c>
-      <c r="B23" s="5">
-        <v>2009</v>
-      </c>
-      <c r="C23" s="31">
-        <v>1</v>
-      </c>
-      <c r="D23" s="29">
-        <v>20</v>
-      </c>
-      <c r="E23" s="5">
-        <v>100</v>
-      </c>
-      <c r="F23" s="5">
-        <v>10</v>
-      </c>
-      <c r="G23" s="5">
-        <v>5</v>
-      </c>
-      <c r="H23" s="5">
-        <v>100</v>
-      </c>
-      <c r="I23" s="5">
-        <v>1</v>
-      </c>
-      <c r="J23" s="5">
-        <v>1</v>
-      </c>
-      <c r="K23" s="5">
-        <v>100</v>
-      </c>
-      <c r="L23" s="5">
-        <v>5000</v>
-      </c>
-      <c r="M23" s="5">
-        <v>5</v>
-      </c>
-      <c r="N23" s="5">
-        <v>0</v>
-      </c>
-      <c r="O23" s="5">
-        <v>0</v>
-      </c>
-      <c r="P23" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q23" s="5">
-        <v>0</v>
-      </c>
-      <c r="R23" s="5">
-        <v>1</v>
-      </c>
-      <c r="S23" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="T23" s="5">
-        <v>2</v>
-      </c>
-      <c r="U23" s="5">
-        <v>10</v>
-      </c>
-      <c r="V23" s="5">
-        <v>2</v>
+      <c r="F23" s="40">
+        <v>1</v>
+      </c>
+      <c r="G23" s="40">
+        <v>1</v>
+      </c>
+      <c r="H23" s="40">
+        <v>1</v>
+      </c>
+      <c r="I23" s="40">
+        <v>1</v>
+      </c>
+      <c r="J23" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>name_2011</v>
+      </c>
+      <c r="K23" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v>unit_icon_2011</v>
+      </c>
+      <c r="L23" s="41" t="str">
+        <f t="shared" si="4"/>
+        <v>Unit/Hero/2011_Witch_Poison.prefab</v>
       </c>
     </row>
   </sheetData>
@@ -3744,564 +3239,1792 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:W24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="8" width="15.5546875" customWidth="1"/>
-    <col min="9" max="9" width="40.33203125" customWidth="1"/>
-    <col min="10" max="10" width="32.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+    <col min="9" max="10" width="15.5546875" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" customWidth="1"/>
+    <col min="12" max="12" width="18.109375" customWidth="1"/>
+    <col min="13" max="14" width="18.6640625" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.5546875" customWidth="1"/>
+    <col min="18" max="19" width="12.33203125" customWidth="1"/>
+    <col min="20" max="20" width="27.5546875" style="20" customWidth="1"/>
+    <col min="21" max="22" width="16.33203125" customWidth="1"/>
+    <col min="23" max="23" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="13" customFormat="1">
+    <row r="1" spans="1:23" s="13" customFormat="1">
       <c r="A1" s="14" t="s">
         <v>42</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="L1" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="M1" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="O1" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="P1" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q1" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="17" t="s">
+      <c r="B2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="T3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="V3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="W3" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1001</v>
+      </c>
+      <c r="C4" s="20" t="str">
+        <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B4,Unitinfo!A:A,0))</f>
+        <v>(원거리)Indian_Archer</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5">
+        <v>10</v>
+      </c>
+      <c r="F4" s="5">
+        <v>100</v>
+      </c>
+      <c r="G4" s="5">
+        <v>10</v>
+      </c>
+      <c r="H4" s="5">
+        <v>5</v>
+      </c>
+      <c r="I4" s="42">
         <v>50</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="5">
-        <v>1001</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="J4" s="5">
+        <v>1</v>
+      </c>
+      <c r="K4" s="5">
+        <v>1</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N4" s="5">
+        <v>1</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="R4" s="5">
+        <v>0</v>
+      </c>
+      <c r="S4" s="5">
+        <v>1</v>
+      </c>
+      <c r="T4" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="U4" s="5">
+        <v>2</v>
+      </c>
+      <c r="V4" s="5">
+        <v>10</v>
+      </c>
+      <c r="W4" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1002</v>
+      </c>
+      <c r="C5" s="20" t="str">
+        <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B5,Unitinfo!A:A,0))</f>
+        <v>(근거리)Indian_Shield</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
+        <v>10</v>
+      </c>
+      <c r="F5" s="5">
         <v>100</v>
       </c>
-      <c r="D4" s="5">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5">
-        <v>2</v>
-      </c>
-      <c r="G4" s="5">
-        <v>1</v>
-      </c>
-      <c r="H4" s="9" t="str">
-        <f>"name_"&amp;A4</f>
-        <v>name_1001</v>
-      </c>
-      <c r="I4" s="5" t="str">
-        <f>"unit_icon_"&amp;A4</f>
-        <v>unit_icon_1001</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="5">
-        <v>1002</v>
-      </c>
-      <c r="B5" s="5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5">
-        <v>30</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="G5" s="5">
+        <v>10</v>
+      </c>
+      <c r="H5" s="5">
+        <v>5</v>
+      </c>
+      <c r="I5" s="42">
+        <v>10</v>
+      </c>
+      <c r="J5" s="5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="5">
+        <v>1</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N5" s="5">
+        <v>2</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="R5" s="5">
+        <v>0</v>
+      </c>
+      <c r="S5" s="5">
+        <v>1</v>
+      </c>
+      <c r="T5" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="U5" s="5">
+        <v>2</v>
+      </c>
+      <c r="V5" s="5">
+        <v>10</v>
+      </c>
+      <c r="W5" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1003</v>
+      </c>
+      <c r="C6" s="20" t="str">
+        <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B6,Unitinfo!A:A,0))</f>
+        <v>(근거리)Indian_Spear</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9">
+        <v>10</v>
+      </c>
+      <c r="F6" s="5">
+        <v>100</v>
+      </c>
+      <c r="G6" s="5">
+        <v>10</v>
+      </c>
+      <c r="H6" s="5">
+        <v>5</v>
+      </c>
+      <c r="I6" s="42">
+        <v>10</v>
+      </c>
+      <c r="J6" s="5">
+        <v>1</v>
+      </c>
+      <c r="K6" s="5">
+        <v>1</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N6" s="5">
+        <v>3</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="R6" s="5">
+        <v>0</v>
+      </c>
+      <c r="S6" s="5">
+        <v>1</v>
+      </c>
+      <c r="T6" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="U6" s="5">
+        <v>2</v>
+      </c>
+      <c r="V6" s="5">
+        <v>10</v>
+      </c>
+      <c r="W6" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="E5" s="5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="5">
-        <v>2</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="9" t="str">
-        <f t="shared" ref="H5:H10" si="0">"name_"&amp;A5</f>
-        <v>name_1002</v>
-      </c>
-      <c r="I5" s="5" t="str">
-        <f t="shared" ref="I5:I16" si="1">"unit_icon_"&amp;A5</f>
-        <v>unit_icon_1002</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="5">
-        <v>1003</v>
-      </c>
-      <c r="B6" s="9">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5">
-        <v>30</v>
-      </c>
-      <c r="D6" s="5">
-        <v>2</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5">
-        <v>2</v>
-      </c>
-      <c r="G6" s="5">
-        <v>1</v>
-      </c>
-      <c r="H6" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>name_1003</v>
-      </c>
-      <c r="I6" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>unit_icon_1003</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="5">
+      <c r="B7" s="5">
         <v>1004</v>
       </c>
-      <c r="B7" s="5">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5">
-        <v>30</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="C7" s="20" t="str">
+        <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B7,Unitinfo!A:A,0))</f>
+        <v>(근거리)Indian_Sword</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9">
+        <v>10</v>
+      </c>
+      <c r="F7" s="5">
+        <v>100</v>
+      </c>
+      <c r="G7" s="5">
+        <v>10</v>
+      </c>
+      <c r="H7" s="5">
+        <v>5</v>
+      </c>
+      <c r="I7" s="42">
+        <v>10</v>
+      </c>
+      <c r="J7" s="5">
+        <v>1</v>
+      </c>
+      <c r="K7" s="5">
+        <v>1</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N7" s="5">
+        <v>4</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="R7" s="5">
+        <v>0</v>
+      </c>
+      <c r="S7" s="5">
+        <v>1</v>
+      </c>
+      <c r="T7" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="U7" s="5">
+        <v>2</v>
+      </c>
+      <c r="V7" s="5">
+        <v>10</v>
+      </c>
+      <c r="W7" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="5">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1005</v>
+      </c>
+      <c r="C8" s="20" t="str">
+        <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B8,Unitinfo!A:A,0))</f>
+        <v>(근거리)Indian_Mask</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9">
+        <v>10</v>
+      </c>
+      <c r="F8" s="5">
+        <v>100</v>
+      </c>
+      <c r="G8" s="5">
+        <v>10</v>
+      </c>
+      <c r="H8" s="5">
+        <v>5</v>
+      </c>
+      <c r="I8" s="42">
+        <v>10</v>
+      </c>
+      <c r="J8" s="5">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5">
+        <v>1</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N8" s="5">
+        <v>0</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0</v>
+      </c>
+      <c r="P8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="R8" s="5">
+        <v>0</v>
+      </c>
+      <c r="S8" s="5">
+        <v>1</v>
+      </c>
+      <c r="T8" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="U8" s="5">
+        <v>2</v>
+      </c>
+      <c r="V8" s="5">
+        <v>10</v>
+      </c>
+      <c r="W8" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="5">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1006</v>
+      </c>
+      <c r="C9" s="20" t="str">
+        <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B9,Unitinfo!A:A,0))</f>
+        <v>(근거리)Indian_Bear</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9">
+        <v>10</v>
+      </c>
+      <c r="F9" s="5">
+        <v>100</v>
+      </c>
+      <c r="G9" s="5">
+        <v>10</v>
+      </c>
+      <c r="H9" s="5">
+        <v>5</v>
+      </c>
+      <c r="I9" s="42">
+        <v>10</v>
+      </c>
+      <c r="J9" s="5">
+        <v>1</v>
+      </c>
+      <c r="K9" s="5">
+        <v>1</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0</v>
+      </c>
+      <c r="P9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="R9" s="5">
+        <v>0</v>
+      </c>
+      <c r="S9" s="5">
+        <v>1</v>
+      </c>
+      <c r="T9" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="U9" s="5">
+        <v>2</v>
+      </c>
+      <c r="V9" s="5">
+        <v>10</v>
+      </c>
+      <c r="W9" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="5">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1007</v>
+      </c>
+      <c r="C10" s="20" t="str">
+        <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B10,Unitinfo!A:A,0))</f>
+        <v>(근거리)Bear</v>
+      </c>
+      <c r="D10" s="9">
+        <v>1</v>
+      </c>
+      <c r="E10" s="9">
+        <v>10</v>
+      </c>
+      <c r="F10" s="5">
+        <v>100</v>
+      </c>
+      <c r="G10" s="5">
+        <v>10</v>
+      </c>
+      <c r="H10" s="5">
+        <v>5</v>
+      </c>
+      <c r="I10" s="42">
+        <v>10</v>
+      </c>
+      <c r="J10" s="5">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5">
+        <v>1</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0</v>
+      </c>
+      <c r="P10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="R10" s="5">
+        <v>0</v>
+      </c>
+      <c r="S10" s="5">
+        <v>1</v>
+      </c>
+      <c r="T10" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="U10" s="5">
+        <v>2</v>
+      </c>
+      <c r="V10" s="5">
+        <v>10</v>
+      </c>
+      <c r="W10" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="5">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1008</v>
+      </c>
+      <c r="C11" s="20" t="str">
+        <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B11,Unitinfo!A:A,0))</f>
+        <v>(근거리)Indian_Master</v>
+      </c>
+      <c r="D11" s="9">
+        <v>1</v>
+      </c>
+      <c r="E11" s="9">
+        <v>10</v>
+      </c>
+      <c r="F11" s="5">
+        <v>100</v>
+      </c>
+      <c r="G11" s="5">
+        <v>10</v>
+      </c>
+      <c r="H11" s="5">
+        <v>5</v>
+      </c>
+      <c r="I11" s="42">
+        <v>10</v>
+      </c>
+      <c r="J11" s="5">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5">
+        <v>1</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0</v>
+      </c>
+      <c r="P11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="R11" s="5">
+        <v>0</v>
+      </c>
+      <c r="S11" s="5">
+        <v>1</v>
+      </c>
+      <c r="T11" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="U11" s="5">
+        <v>2</v>
+      </c>
+      <c r="V11" s="5">
+        <v>10</v>
+      </c>
+      <c r="W11" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="5">
+        <v>9</v>
+      </c>
+      <c r="B12" s="5">
+        <v>1009</v>
+      </c>
+      <c r="C12" s="20" t="str">
+        <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B12,Unitinfo!A:A,0))</f>
+        <v>(근거리)Corgi</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9">
+        <v>10</v>
+      </c>
+      <c r="F12" s="5">
+        <v>100</v>
+      </c>
+      <c r="G12" s="5">
+        <v>10</v>
+      </c>
+      <c r="H12" s="5">
+        <v>5</v>
+      </c>
+      <c r="I12" s="42">
+        <v>10</v>
+      </c>
+      <c r="J12" s="5">
+        <v>1</v>
+      </c>
+      <c r="K12" s="5">
+        <v>1</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N12" s="5">
+        <v>0</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0</v>
+      </c>
+      <c r="P12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="R12" s="5">
+        <v>0</v>
+      </c>
+      <c r="S12" s="5">
+        <v>1</v>
+      </c>
+      <c r="T12" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="U12" s="5">
+        <v>2</v>
+      </c>
+      <c r="V12" s="5">
+        <v>10</v>
+      </c>
+      <c r="W12" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" s="5">
+        <v>10</v>
+      </c>
+      <c r="B13" s="5">
+        <v>2001</v>
+      </c>
+      <c r="C13" s="20" t="str">
+        <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B13,Unitinfo!A:A,0))</f>
+        <v>(근거리)Slime</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="9">
+        <v>10</v>
+      </c>
+      <c r="F13" s="5">
+        <v>100</v>
+      </c>
+      <c r="G13" s="5">
+        <v>10</v>
+      </c>
+      <c r="H13" s="5">
+        <v>5</v>
+      </c>
+      <c r="I13" s="42">
+        <v>10</v>
+      </c>
+      <c r="J13" s="5">
+        <v>1</v>
+      </c>
+      <c r="K13" s="5">
+        <v>1</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N13" s="5">
+        <v>1</v>
+      </c>
+      <c r="O13" s="5">
+        <v>0</v>
+      </c>
+      <c r="P13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="R13" s="5">
+        <v>0</v>
+      </c>
+      <c r="S13" s="5">
+        <v>1</v>
+      </c>
+      <c r="T13" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="U13" s="5">
+        <v>2</v>
+      </c>
+      <c r="V13" s="5">
+        <v>10</v>
+      </c>
+      <c r="W13" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="5">
+        <v>11</v>
+      </c>
+      <c r="B14" s="5">
+        <v>2002</v>
+      </c>
+      <c r="C14" s="20" t="str">
+        <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B14,Unitinfo!A:A,0))</f>
+        <v>(원거리)Slime_Archer</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9">
+        <v>10</v>
+      </c>
+      <c r="F14" s="5">
+        <v>100</v>
+      </c>
+      <c r="G14" s="5">
+        <v>10</v>
+      </c>
+      <c r="H14" s="5">
+        <v>5</v>
+      </c>
+      <c r="I14" s="42">
+        <v>50</v>
+      </c>
+      <c r="J14" s="5">
+        <v>1</v>
+      </c>
+      <c r="K14" s="5">
+        <v>1</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N14" s="5">
+        <v>2</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0</v>
+      </c>
+      <c r="P14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="R14" s="5">
+        <v>0</v>
+      </c>
+      <c r="S14" s="5">
+        <v>1</v>
+      </c>
+      <c r="T14" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="U14" s="5">
+        <v>2</v>
+      </c>
+      <c r="V14" s="5">
+        <v>10</v>
+      </c>
+      <c r="W14" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="5">
+        <v>12</v>
+      </c>
+      <c r="B15" s="5">
+        <v>2003</v>
+      </c>
+      <c r="C15" s="20" t="str">
+        <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B15,Unitinfo!A:A,0))</f>
+        <v>(근거리)Skeleton_Sword</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="9">
+        <v>10</v>
+      </c>
+      <c r="F15" s="5">
+        <v>100</v>
+      </c>
+      <c r="G15" s="5">
+        <v>10</v>
+      </c>
+      <c r="H15" s="5">
+        <v>5</v>
+      </c>
+      <c r="I15" s="42">
+        <v>10</v>
+      </c>
+      <c r="J15" s="5">
+        <v>1</v>
+      </c>
+      <c r="K15" s="5">
+        <v>1</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N15" s="5">
+        <v>2</v>
+      </c>
+      <c r="O15" s="5">
+        <v>0</v>
+      </c>
+      <c r="P15" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="R15" s="5">
+        <v>0</v>
+      </c>
+      <c r="S15" s="5">
+        <v>1</v>
+      </c>
+      <c r="T15" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="U15" s="5">
+        <v>2</v>
+      </c>
+      <c r="V15" s="5">
+        <v>10</v>
+      </c>
+      <c r="W15" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="15" thickBot="1">
+      <c r="A16" s="5">
+        <v>13</v>
+      </c>
+      <c r="B16" s="5">
+        <v>2004</v>
+      </c>
+      <c r="C16" s="20" t="str">
+        <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B16,Unitinfo!A:A,0))</f>
+        <v>(원거리)Skeleton_Archer</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="9">
+        <v>10</v>
+      </c>
+      <c r="F16" s="5">
+        <v>100</v>
+      </c>
+      <c r="G16" s="5">
+        <v>10</v>
+      </c>
+      <c r="H16" s="5">
+        <v>5</v>
+      </c>
+      <c r="I16" s="42">
+        <v>50</v>
+      </c>
+      <c r="J16" s="5">
+        <v>1</v>
+      </c>
+      <c r="K16" s="5">
+        <v>1</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N16" s="5">
         <v>3</v>
       </c>
-      <c r="E7" s="5">
-        <v>1</v>
-      </c>
-      <c r="F7" s="5">
-        <v>2</v>
-      </c>
-      <c r="G7" s="5">
-        <v>1</v>
-      </c>
-      <c r="H7" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>name_1004</v>
-      </c>
-      <c r="I7" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>unit_icon_1004</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="5">
-        <v>2001</v>
-      </c>
-      <c r="B8" s="5">
-        <v>0</v>
-      </c>
-      <c r="C8" s="5">
-        <v>30</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="O16" s="5">
+        <v>0</v>
+      </c>
+      <c r="P16" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="R16" s="5">
+        <v>0</v>
+      </c>
+      <c r="S16" s="5">
+        <v>1</v>
+      </c>
+      <c r="T16" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="U16" s="5">
+        <v>2</v>
+      </c>
+      <c r="V16" s="5">
+        <v>10</v>
+      </c>
+      <c r="W16" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="15" thickBot="1">
+      <c r="A17" s="5">
+        <v>14</v>
+      </c>
+      <c r="B17" s="5">
+        <v>2005</v>
+      </c>
+      <c r="C17" s="20" t="str">
+        <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B17,Unitinfo!A:A,0))</f>
+        <v>(원거리)Skeleton_Witch</v>
+      </c>
+      <c r="D17" s="21">
+        <v>1</v>
+      </c>
+      <c r="E17" s="9">
+        <v>10</v>
+      </c>
+      <c r="F17" s="5">
+        <v>100</v>
+      </c>
+      <c r="G17" s="5">
+        <v>10</v>
+      </c>
+      <c r="H17" s="5">
+        <v>5</v>
+      </c>
+      <c r="I17" s="42">
+        <v>50</v>
+      </c>
+      <c r="J17" s="5">
+        <v>1</v>
+      </c>
+      <c r="K17" s="5">
+        <v>1</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0</v>
+      </c>
+      <c r="M17" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N17" s="5">
         <v>4</v>
       </c>
-      <c r="E8" s="5">
-        <v>1</v>
-      </c>
-      <c r="F8" s="5">
-        <v>1</v>
-      </c>
-      <c r="G8" s="5">
-        <v>1</v>
-      </c>
-      <c r="H8" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>name_2001</v>
-      </c>
-      <c r="I8" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>unit_icon_2001</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="5">
-        <v>2002</v>
-      </c>
-      <c r="B9" s="5">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5">
+      <c r="O17" s="5">
+        <v>0</v>
+      </c>
+      <c r="P17" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="R17" s="5">
+        <v>0</v>
+      </c>
+      <c r="S17" s="5">
+        <v>1</v>
+      </c>
+      <c r="T17" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="U17" s="5">
+        <v>2</v>
+      </c>
+      <c r="V17" s="5">
+        <v>10</v>
+      </c>
+      <c r="W17" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" s="5">
+        <v>15</v>
+      </c>
+      <c r="B18" s="5">
+        <v>2006</v>
+      </c>
+      <c r="C18" s="20" t="str">
+        <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B18,Unitinfo!A:A,0))</f>
+        <v>(근거리)Zombie_Hand</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+      <c r="E18" s="9">
+        <v>10</v>
+      </c>
+      <c r="F18" s="5">
         <v>100</v>
       </c>
-      <c r="D9" s="5">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5">
-        <v>1</v>
-      </c>
-      <c r="G9" s="5">
-        <v>2</v>
-      </c>
-      <c r="H9" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>name_2002</v>
-      </c>
-      <c r="I9" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>unit_icon_2002</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="5">
-        <v>2003</v>
-      </c>
-      <c r="B10" s="5">
-        <v>0</v>
-      </c>
-      <c r="C10" s="5">
-        <v>30</v>
-      </c>
-      <c r="D10" s="5">
-        <v>4</v>
-      </c>
-      <c r="E10" s="5">
-        <v>1</v>
-      </c>
-      <c r="F10" s="5">
-        <v>1</v>
-      </c>
-      <c r="G10" s="5">
-        <v>1</v>
-      </c>
-      <c r="H10" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>name_2003</v>
-      </c>
-      <c r="I10" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>unit_icon_2003</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="5">
-        <v>2004</v>
-      </c>
-      <c r="B11" s="5">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5">
+      <c r="G18" s="5">
+        <v>10</v>
+      </c>
+      <c r="H18" s="5">
+        <v>5</v>
+      </c>
+      <c r="I18" s="42">
+        <v>10</v>
+      </c>
+      <c r="J18" s="5">
+        <v>1</v>
+      </c>
+      <c r="K18" s="5">
+        <v>1</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0</v>
+      </c>
+      <c r="M18" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N18" s="5">
+        <v>0</v>
+      </c>
+      <c r="O18" s="5">
+        <v>0</v>
+      </c>
+      <c r="P18" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="R18" s="5">
+        <v>0</v>
+      </c>
+      <c r="S18" s="5">
+        <v>1</v>
+      </c>
+      <c r="T18" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="U18" s="5">
+        <v>2</v>
+      </c>
+      <c r="V18" s="5">
+        <v>10</v>
+      </c>
+      <c r="W18" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="15" thickBot="1">
+      <c r="A19" s="5">
+        <v>16</v>
+      </c>
+      <c r="B19" s="5">
+        <v>2007</v>
+      </c>
+      <c r="C19" s="20" t="str">
+        <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B19,Unitinfo!A:A,0))</f>
+        <v>(근거리)Zombie_Shield</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" s="9">
+        <v>10</v>
+      </c>
+      <c r="F19" s="5">
         <v>100</v>
       </c>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5">
-        <v>1</v>
-      </c>
-      <c r="F11" s="5">
-        <v>1</v>
-      </c>
-      <c r="G11" s="5">
-        <v>2</v>
-      </c>
-      <c r="H11" s="9" t="str">
-        <f t="shared" ref="H11:H16" si="2">"name_"&amp;A11</f>
-        <v>name_2004</v>
-      </c>
-      <c r="I11" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>unit_icon_2004</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="5">
-        <v>2005</v>
-      </c>
-      <c r="B12" s="5">
-        <v>1</v>
-      </c>
-      <c r="C12" s="5">
+      <c r="G19" s="5">
+        <v>10</v>
+      </c>
+      <c r="H19" s="5">
+        <v>5</v>
+      </c>
+      <c r="I19" s="42">
+        <v>10</v>
+      </c>
+      <c r="J19" s="5">
+        <v>1</v>
+      </c>
+      <c r="K19" s="5">
+        <v>1</v>
+      </c>
+      <c r="L19" s="5">
+        <v>0</v>
+      </c>
+      <c r="M19" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N19" s="5">
+        <v>0</v>
+      </c>
+      <c r="O19" s="5">
+        <v>0</v>
+      </c>
+      <c r="P19" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="R19" s="5">
+        <v>0</v>
+      </c>
+      <c r="S19" s="5">
+        <v>1</v>
+      </c>
+      <c r="T19" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="U19" s="5">
+        <v>2</v>
+      </c>
+      <c r="V19" s="5">
+        <v>10</v>
+      </c>
+      <c r="W19" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="15" thickBot="1">
+      <c r="A20" s="5">
+        <v>17</v>
+      </c>
+      <c r="B20" s="5">
+        <v>2008</v>
+      </c>
+      <c r="C20" s="20" t="str">
+        <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B20,Unitinfo!A:A,0))</f>
+        <v>(근거리)Zombie_Sword</v>
+      </c>
+      <c r="D20" s="21">
+        <v>1</v>
+      </c>
+      <c r="E20" s="9">
+        <v>10</v>
+      </c>
+      <c r="F20" s="5">
         <v>100</v>
       </c>
-      <c r="D12" s="5">
-        <v>1</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1</v>
-      </c>
-      <c r="F12" s="5">
-        <v>1</v>
-      </c>
-      <c r="G12" s="5">
-        <v>2</v>
-      </c>
-      <c r="H12" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>name_2005</v>
-      </c>
-      <c r="I12" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>unit_icon_2005</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="5">
+      <c r="G20" s="5">
+        <v>10</v>
+      </c>
+      <c r="H20" s="5">
+        <v>5</v>
+      </c>
+      <c r="I20" s="42">
+        <v>10</v>
+      </c>
+      <c r="J20" s="5">
+        <v>1</v>
+      </c>
+      <c r="K20" s="5">
+        <v>1</v>
+      </c>
+      <c r="L20" s="5">
+        <v>0</v>
+      </c>
+      <c r="M20" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N20" s="5">
+        <v>0</v>
+      </c>
+      <c r="O20" s="5">
+        <v>0</v>
+      </c>
+      <c r="P20" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="R20" s="5">
+        <v>0</v>
+      </c>
+      <c r="S20" s="5">
+        <v>1</v>
+      </c>
+      <c r="T20" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="U20" s="5">
+        <v>2</v>
+      </c>
+      <c r="V20" s="5">
+        <v>10</v>
+      </c>
+      <c r="W20" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="15" thickBot="1">
+      <c r="A21" s="5">
+        <v>18</v>
+      </c>
+      <c r="B21" s="5">
         <v>2006</v>
       </c>
-      <c r="B13" s="5">
-        <v>0</v>
-      </c>
-      <c r="C13" s="5">
-        <v>30</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1</v>
-      </c>
-      <c r="F13" s="5">
-        <v>2</v>
-      </c>
-      <c r="G13" s="5">
-        <v>3</v>
-      </c>
-      <c r="H13" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>name_2006</v>
-      </c>
-      <c r="I13" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>unit_icon_2006</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="5">
+      <c r="C21" s="20" t="str">
+        <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B21,Unitinfo!A:A,0))</f>
+        <v>(근거리)Zombie_Hand</v>
+      </c>
+      <c r="D21" s="21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="9">
+        <v>10</v>
+      </c>
+      <c r="F21" s="5">
+        <v>100</v>
+      </c>
+      <c r="G21" s="5">
+        <v>10</v>
+      </c>
+      <c r="H21" s="5">
+        <v>5</v>
+      </c>
+      <c r="I21" s="42">
+        <v>10</v>
+      </c>
+      <c r="J21" s="5">
+        <v>1</v>
+      </c>
+      <c r="K21" s="5">
+        <v>2</v>
+      </c>
+      <c r="L21" s="5">
+        <v>0</v>
+      </c>
+      <c r="M21" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N21" s="5">
+        <v>0</v>
+      </c>
+      <c r="O21" s="5">
+        <v>0</v>
+      </c>
+      <c r="P21" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="R21" s="5">
+        <v>0</v>
+      </c>
+      <c r="S21" s="5">
+        <v>1</v>
+      </c>
+      <c r="T21" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="U21" s="5">
+        <v>2</v>
+      </c>
+      <c r="V21" s="5">
+        <v>10</v>
+      </c>
+      <c r="W21" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="15" thickBot="1">
+      <c r="A22" s="5">
+        <v>19</v>
+      </c>
+      <c r="B22" s="5">
         <v>2007</v>
       </c>
-      <c r="B14" s="5">
-        <v>0</v>
-      </c>
-      <c r="C14" s="5">
-        <v>30</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
-      <c r="E14" s="5">
-        <v>1</v>
-      </c>
-      <c r="F14" s="5">
-        <v>2</v>
-      </c>
-      <c r="G14" s="5">
-        <v>3</v>
-      </c>
-      <c r="H14" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>name_2007</v>
-      </c>
-      <c r="I14" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>unit_icon_2007</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="5">
+      <c r="C22" s="20" t="str">
+        <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B22,Unitinfo!A:A,0))</f>
+        <v>(근거리)Zombie_Shield</v>
+      </c>
+      <c r="D22" s="21">
+        <v>1</v>
+      </c>
+      <c r="E22" s="9">
+        <v>10</v>
+      </c>
+      <c r="F22" s="5">
+        <v>100</v>
+      </c>
+      <c r="G22" s="5">
+        <v>10</v>
+      </c>
+      <c r="H22" s="5">
+        <v>5</v>
+      </c>
+      <c r="I22" s="42">
+        <v>10</v>
+      </c>
+      <c r="J22" s="5">
+        <v>1</v>
+      </c>
+      <c r="K22" s="5">
+        <v>2</v>
+      </c>
+      <c r="L22" s="5">
+        <v>0</v>
+      </c>
+      <c r="M22" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N22" s="5">
+        <v>0</v>
+      </c>
+      <c r="O22" s="5">
+        <v>0</v>
+      </c>
+      <c r="P22" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="R22" s="5">
+        <v>0</v>
+      </c>
+      <c r="S22" s="5">
+        <v>1</v>
+      </c>
+      <c r="T22" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="U22" s="5">
+        <v>2</v>
+      </c>
+      <c r="V22" s="5">
+        <v>10</v>
+      </c>
+      <c r="W22" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="15" thickBot="1">
+      <c r="A23" s="5">
+        <v>20</v>
+      </c>
+      <c r="B23" s="5">
         <v>2008</v>
       </c>
-      <c r="B15" s="5">
-        <v>0</v>
-      </c>
-      <c r="C15" s="5">
-        <v>30</v>
-      </c>
-      <c r="D15" s="5">
-        <v>1</v>
-      </c>
-      <c r="E15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15" s="5">
-        <v>2</v>
-      </c>
-      <c r="G15" s="5">
-        <v>3</v>
-      </c>
-      <c r="H15" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>name_2008</v>
-      </c>
-      <c r="I15" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>unit_icon_2008</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="5">
+      <c r="C23" s="20" t="str">
+        <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B23,Unitinfo!A:A,0))</f>
+        <v>(근거리)Zombie_Sword</v>
+      </c>
+      <c r="D23" s="21">
+        <v>1</v>
+      </c>
+      <c r="E23" s="9">
+        <v>10</v>
+      </c>
+      <c r="F23" s="5">
+        <v>100</v>
+      </c>
+      <c r="G23" s="5">
+        <v>10</v>
+      </c>
+      <c r="H23" s="5">
+        <v>5</v>
+      </c>
+      <c r="I23" s="42">
+        <v>10</v>
+      </c>
+      <c r="J23" s="5">
+        <v>1</v>
+      </c>
+      <c r="K23" s="5">
+        <v>2</v>
+      </c>
+      <c r="L23" s="5">
+        <v>0</v>
+      </c>
+      <c r="M23" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N23" s="5">
+        <v>0</v>
+      </c>
+      <c r="O23" s="5">
+        <v>0</v>
+      </c>
+      <c r="P23" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="R23" s="5">
+        <v>0</v>
+      </c>
+      <c r="S23" s="5">
+        <v>1</v>
+      </c>
+      <c r="T23" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="U23" s="5">
+        <v>2</v>
+      </c>
+      <c r="V23" s="5">
+        <v>10</v>
+      </c>
+      <c r="W23" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="15" thickBot="1">
+      <c r="A24" s="5">
+        <v>21</v>
+      </c>
+      <c r="B24" s="5">
         <v>2009</v>
       </c>
-      <c r="B16" s="5">
-        <v>1</v>
-      </c>
-      <c r="C16" s="5">
+      <c r="C24" s="20" t="str">
+        <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B24,Unitinfo!A:A,0))</f>
+        <v>(원거리)Witch_Fire</v>
+      </c>
+      <c r="D24" s="21">
+        <v>1</v>
+      </c>
+      <c r="E24" s="9">
+        <v>10</v>
+      </c>
+      <c r="F24" s="5">
         <v>100</v>
       </c>
-      <c r="D16" s="5">
-        <v>4</v>
-      </c>
-      <c r="E16" s="5">
-        <v>1</v>
-      </c>
-      <c r="F16" s="5">
-        <v>1</v>
-      </c>
-      <c r="G16" s="5">
-        <v>4</v>
-      </c>
-      <c r="H16" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>name_2009</v>
-      </c>
-      <c r="I16" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>unit_icon_2009</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>147</v>
+      <c r="G24" s="5">
+        <v>10</v>
+      </c>
+      <c r="H24" s="5">
+        <v>5</v>
+      </c>
+      <c r="I24" s="42">
+        <v>50</v>
+      </c>
+      <c r="J24" s="5">
+        <v>1</v>
+      </c>
+      <c r="K24" s="5">
+        <v>1</v>
+      </c>
+      <c r="L24" s="5">
+        <v>0</v>
+      </c>
+      <c r="M24" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N24" s="5">
+        <v>5</v>
+      </c>
+      <c r="O24" s="5">
+        <v>0</v>
+      </c>
+      <c r="P24" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="R24" s="5">
+        <v>0</v>
+      </c>
+      <c r="S24" s="5">
+        <v>1</v>
+      </c>
+      <c r="T24" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="U24" s="5">
+        <v>2</v>
+      </c>
+      <c r="V24" s="5">
+        <v>10</v>
+      </c>
+      <c r="W24" s="5">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{82858EB1-9C6F-44EC-850D-3E099D960ECC}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>30</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
+              <x14:cfIcon iconSet="4ArrowsGray" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="1"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I4:I24</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4313,7 +5036,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4326,7 +5049,7 @@
         <v>42</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>47</v>
@@ -4340,7 +5063,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4362,7 +5085,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4373,7 +5096,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4384,7 +5107,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4395,7 +5118,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4406,7 +5129,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4417,7 +5140,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -4447,13 +5170,13 @@
         <v>42</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4485,59 +5208,59 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.399999999999999">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>109</v>
+      <c r="B4" s="22" t="s">
+        <v>94</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.399999999999999">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>110</v>
+      <c r="B5" s="22" t="s">
+        <v>95</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.399999999999999">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>111</v>
+      <c r="B6" s="22" t="s">
+        <v>96</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.399999999999999">
-      <c r="A7" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>112</v>
+      <c r="A7" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>97</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -4572,19 +5295,19 @@
         <v>42</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>47</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4592,13 +5315,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>3</v>
@@ -4632,7 +5355,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C4" s="5">
         <v>100</v>
@@ -4641,7 +5364,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="F4" s="9">
         <v>120</v>
@@ -4652,7 +5375,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C5" s="5">
         <v>200</v>
@@ -4661,7 +5384,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="F5" s="9">
         <v>120</v>
@@ -4672,7 +5395,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C6" s="5">
         <v>300</v>
@@ -4681,7 +5404,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="F6" s="9">
         <v>120</v>
@@ -4692,7 +5415,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C7" s="5">
         <v>400</v>
@@ -4701,7 +5424,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="F7" s="9">
         <v>120</v>
@@ -4712,7 +5435,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C8" s="5">
         <v>500</v>
@@ -4721,7 +5444,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="F8" s="9">
         <v>120</v>
@@ -4732,7 +5455,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C9" s="5">
         <v>600</v>
@@ -4741,7 +5464,7 @@
         <v>5</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="F9" s="9">
         <v>120</v>
@@ -4752,7 +5475,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C10" s="5">
         <v>700</v>
@@ -4761,7 +5484,7 @@
         <v>6</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="F10" s="9">
         <v>120</v>
@@ -4772,7 +5495,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C11" s="5">
         <v>800</v>
@@ -4781,7 +5504,7 @@
         <v>7</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="F11" s="9">
         <v>120</v>
@@ -4792,7 +5515,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C12" s="5">
         <v>900</v>
@@ -4801,7 +5524,7 @@
         <v>8</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="F12" s="9">
         <v>120</v>
@@ -4812,7 +5535,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C13" s="5">
         <v>1000</v>
@@ -4821,7 +5544,7 @@
         <v>9</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="F13" s="9">
         <v>120</v>
@@ -4832,7 +5555,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C14" s="5">
         <v>1100</v>
@@ -4841,7 +5564,7 @@
         <v>10</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="F14" s="9">
         <v>120</v>
@@ -4852,7 +5575,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C15" s="5">
         <v>1200</v>
@@ -4861,7 +5584,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="F15" s="9">
         <v>120</v>
@@ -4872,7 +5595,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C16" s="5">
         <v>1300</v>
@@ -4881,7 +5604,7 @@
         <v>12</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="F16" s="9">
         <v>120</v>
@@ -4892,7 +5615,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C17" s="5">
         <v>1400</v>
@@ -4901,7 +5624,7 @@
         <v>13</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="F17" s="9">
         <v>120</v>
@@ -4912,7 +5635,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C18" s="5">
         <v>1500</v>
@@ -4921,7 +5644,7 @@
         <v>14</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="F18" s="9">
         <v>120</v>
@@ -4932,7 +5655,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C19" s="5">
         <v>1600</v>
@@ -4941,7 +5664,7 @@
         <v>15</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="F19" s="9">
         <v>120</v>
@@ -4952,7 +5675,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C20" s="5">
         <v>1700</v>
@@ -4961,7 +5684,7 @@
         <v>16</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="F20" s="9">
         <v>120</v>
@@ -4972,7 +5695,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C21" s="5">
         <v>1800</v>
@@ -4981,7 +5704,7 @@
         <v>17</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="F21" s="9">
         <v>120</v>
@@ -4992,7 +5715,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C22" s="5">
         <v>1900</v>
@@ -5001,7 +5724,7 @@
         <v>18</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="F22" s="9">
         <v>120</v>
@@ -5012,7 +5735,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C23" s="5">
         <v>2000</v>
@@ -5021,7 +5744,7 @@
         <v>19</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="F23" s="9">
         <v>120</v>
@@ -5068,16 +5791,16 @@
         <v>42</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5122,7 +5845,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
@@ -5139,7 +5862,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="D5" s="5">
         <v>0</v>
@@ -5156,7 +5879,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
@@ -5173,7 +5896,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="D7" s="5">
         <v>0</v>
@@ -5190,7 +5913,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
@@ -5207,7 +5930,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="D9" s="5">
         <v>0</v>
@@ -5249,13 +5972,13 @@
         <v>42</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:4">

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2256" yWindow="732" windowWidth="24192" windowHeight="12156" activeTab="3"/>
+    <workbookView xWindow="2256" yWindow="732" windowWidth="24192" windowHeight="12156" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigTable" sheetId="18" r:id="rId1"/>
@@ -2257,8 +2257,8 @@
   </sheetPr>
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -3245,8 +3245,8 @@
   </sheetPr>
   <dimension ref="A1:W24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2256" yWindow="732" windowWidth="24192" windowHeight="12156" activeTab="2"/>
+    <workbookView xWindow="2256" yWindow="732" windowWidth="24192" windowHeight="12156" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigTable" sheetId="18" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="StageInfo" sheetId="26" r:id="rId7"/>
     <sheet name="StageRewardInfo" sheetId="27" r:id="rId8"/>
     <sheet name="GachaList" sheetId="28" r:id="rId9"/>
+    <sheet name="reference" sheetId="31" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -186,7 +187,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="205">
   <si>
     <t>type</t>
   </si>
@@ -1173,12 +1174,80 @@
     <t>Witch_Poison</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>레어리티</t>
+  </si>
+  <si>
+    <t>레어리티 스탯</t>
+  </si>
+  <si>
+    <t>등급 스탯</t>
+  </si>
+  <si>
+    <t>공격력</t>
+  </si>
+  <si>
+    <t>체력</t>
+  </si>
+  <si>
+    <t>공격력 비중</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 비중</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레어리티</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트 1 당</t>
+  </si>
+  <si>
+    <t>근거리</t>
+  </si>
+  <si>
+    <t>원거리</t>
+  </si>
+  <si>
+    <t>공속</t>
+  </si>
+  <si>
+    <t>동시타격</t>
+  </si>
+  <si>
+    <t>이동속도</t>
+  </si>
+  <si>
+    <t>인식범위</t>
+  </si>
+  <si>
+    <t>사거리</t>
+  </si>
+  <si>
+    <t>스플뎀</t>
+  </si>
+  <si>
+    <t>스플범위</t>
+  </si>
+  <si>
+    <t>외형</t>
+  </si>
+  <si>
+    <t>공격력 값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1296,6 +1365,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1323,7 +1398,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1353,11 +1428,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1467,6 +1581,22 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1786,7 +1916,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F33" sqref="C33:F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1879,6 +2009,487 @@
       <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="45"/>
+    <col min="2" max="2" width="16.88671875" style="45" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" style="45" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="45"/>
+    <col min="5" max="7" width="12" style="45" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="45"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="13.8" thickBot="1">
+      <c r="A1" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="13.8" thickBot="1">
+      <c r="A2" s="46">
+        <v>1</v>
+      </c>
+      <c r="B2" s="47">
+        <v>50</v>
+      </c>
+      <c r="C2" s="47">
+        <v>10</v>
+      </c>
+      <c r="E2" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="F2" s="45">
+        <v>3</v>
+      </c>
+      <c r="G2" s="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="13.8" thickBot="1">
+      <c r="A3" s="46">
+        <v>2</v>
+      </c>
+      <c r="B3" s="47">
+        <v>100</v>
+      </c>
+      <c r="C3" s="47">
+        <v>20</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="F3" s="45">
+        <v>100</v>
+      </c>
+      <c r="G3" s="45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="13.8" thickBot="1">
+      <c r="A4" s="46">
+        <v>3</v>
+      </c>
+      <c r="B4" s="47">
+        <v>150</v>
+      </c>
+      <c r="C4" s="47">
+        <v>35</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="F4" s="45">
+        <v>0.2</v>
+      </c>
+      <c r="G4" s="45">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="13.8" thickBot="1">
+      <c r="A5" s="46">
+        <v>4</v>
+      </c>
+      <c r="B5" s="47">
+        <v>200</v>
+      </c>
+      <c r="C5" s="47">
+        <v>55</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>197</v>
+      </c>
+      <c r="F5" s="45">
+        <v>1</v>
+      </c>
+      <c r="G5" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="E6" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="F6" s="45">
+        <v>25</v>
+      </c>
+      <c r="G6" s="45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="E7" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="F7" s="45">
+        <v>5</v>
+      </c>
+      <c r="G7" s="45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="E8" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="F8" s="45">
+        <v>0.2</v>
+      </c>
+      <c r="G8" s="45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="E9" s="45" t="s">
+        <v>200</v>
+      </c>
+      <c r="F9" s="45">
+        <v>1</v>
+      </c>
+      <c r="G9" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="E10" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="F10" s="45">
+        <v>0.2</v>
+      </c>
+      <c r="G10" s="45">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="E11" s="45" t="s">
+        <v>202</v>
+      </c>
+      <c r="F11" s="45">
+        <v>1</v>
+      </c>
+      <c r="G11" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="48"/>
+      <c r="B19" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="D19" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="E19" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="F19" s="48" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="48">
+        <v>2001</v>
+      </c>
+      <c r="B20" s="48">
+        <f>INDEX(Unitinfo!$I$4:$I$23,MATCH(A20,Unitinfo!A4:A23,0))</f>
+        <v>1</v>
+      </c>
+      <c r="C20" s="48">
+        <v>5</v>
+      </c>
+      <c r="D20" s="48">
+        <v>5</v>
+      </c>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="48">
+        <v>2002</v>
+      </c>
+      <c r="B21" s="48">
+        <f>INDEX(Unitinfo!$I$4:$I$23,MATCH(A21,Unitinfo!A5:A24,0))</f>
+        <v>1</v>
+      </c>
+      <c r="C21" s="48">
+        <v>5</v>
+      </c>
+      <c r="D21" s="48">
+        <v>5</v>
+      </c>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="48">
+        <v>2003</v>
+      </c>
+      <c r="B22" s="48">
+        <f>INDEX(Unitinfo!$I$4:$I$23,MATCH(A22,Unitinfo!A6:A25,0))</f>
+        <v>1</v>
+      </c>
+      <c r="C22" s="48">
+        <v>5</v>
+      </c>
+      <c r="D22" s="48">
+        <v>5</v>
+      </c>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="48">
+        <v>2004</v>
+      </c>
+      <c r="B23" s="48">
+        <f>INDEX(Unitinfo!$I$4:$I$23,MATCH(A23,Unitinfo!A7:A26,0))</f>
+        <v>1</v>
+      </c>
+      <c r="C23" s="48">
+        <v>5</v>
+      </c>
+      <c r="D23" s="48">
+        <v>5</v>
+      </c>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="48">
+        <v>2005</v>
+      </c>
+      <c r="B24" s="48">
+        <f>INDEX(Unitinfo!$I$4:$I$23,MATCH(A24,Unitinfo!A8:A27,0))</f>
+        <v>1</v>
+      </c>
+      <c r="C24" s="48">
+        <v>5</v>
+      </c>
+      <c r="D24" s="48">
+        <v>5</v>
+      </c>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="48">
+        <v>2006</v>
+      </c>
+      <c r="B25" s="48">
+        <f>INDEX(Unitinfo!$I$4:$I$23,MATCH(A25,Unitinfo!A9:A28,0))</f>
+        <v>1</v>
+      </c>
+      <c r="C25" s="48">
+        <v>5</v>
+      </c>
+      <c r="D25" s="48">
+        <v>5</v>
+      </c>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="48">
+        <v>2007</v>
+      </c>
+      <c r="B26" s="48">
+        <f>INDEX(Unitinfo!$I$4:$I$23,MATCH(A26,Unitinfo!A10:A29,0))</f>
+        <v>1</v>
+      </c>
+      <c r="C26" s="48">
+        <v>5</v>
+      </c>
+      <c r="D26" s="48">
+        <v>5</v>
+      </c>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="48">
+        <v>2008</v>
+      </c>
+      <c r="B27" s="48">
+        <f>INDEX(Unitinfo!$I$4:$I$23,MATCH(A27,Unitinfo!A11:A30,0))</f>
+        <v>1</v>
+      </c>
+      <c r="C27" s="48">
+        <v>5</v>
+      </c>
+      <c r="D27" s="48">
+        <v>5</v>
+      </c>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="48">
+        <v>2009</v>
+      </c>
+      <c r="B28" s="48">
+        <f>INDEX(Unitinfo!$I$4:$I$23,MATCH(A28,Unitinfo!A12:A31,0))</f>
+        <v>1</v>
+      </c>
+      <c r="C28" s="48">
+        <v>5</v>
+      </c>
+      <c r="D28" s="48">
+        <v>5</v>
+      </c>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="48">
+        <v>2010</v>
+      </c>
+      <c r="B29" s="48">
+        <f>INDEX(Unitinfo!$I$4:$I$23,MATCH(A29,Unitinfo!A13:A32,0))</f>
+        <v>1</v>
+      </c>
+      <c r="C29" s="48">
+        <v>5</v>
+      </c>
+      <c r="D29" s="48">
+        <v>5</v>
+      </c>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="48">
+        <v>2011</v>
+      </c>
+      <c r="B30" s="48">
+        <f>INDEX(Unitinfo!$I$4:$I$23,MATCH(A30,Unitinfo!A14:A33,0))</f>
+        <v>1</v>
+      </c>
+      <c r="C30" s="48">
+        <v>5</v>
+      </c>
+      <c r="D30" s="48">
+        <v>5</v>
+      </c>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="48">
+        <v>2012</v>
+      </c>
+      <c r="B31" s="48" t="e">
+        <f>INDEX(Unitinfo!$I$4:$I$23,MATCH(A31,Unitinfo!A15:A34,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C31" s="48">
+        <v>5</v>
+      </c>
+      <c r="D31" s="48">
+        <v>5</v>
+      </c>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="48">
+        <v>2013</v>
+      </c>
+      <c r="B32" s="48" t="e">
+        <f>INDEX(Unitinfo!$I$4:$I$23,MATCH(A32,Unitinfo!A16:A35,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C32" s="48">
+        <v>5</v>
+      </c>
+      <c r="D32" s="48">
+        <v>5</v>
+      </c>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="48">
+        <v>2014</v>
+      </c>
+      <c r="B33" s="48" t="e">
+        <f>INDEX(Unitinfo!$I$4:$I$23,MATCH(A33,Unitinfo!A17:A36,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C33" s="48">
+        <v>5</v>
+      </c>
+      <c r="D33" s="48">
+        <v>5</v>
+      </c>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="48">
+        <v>2015</v>
+      </c>
+      <c r="B34" s="48" t="e">
+        <f>INDEX(Unitinfo!$I$4:$I$23,MATCH(A34,Unitinfo!A18:A37,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C34" s="48">
+        <v>5</v>
+      </c>
+      <c r="D34" s="48">
+        <v>5</v>
+      </c>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="48">
+        <v>2016</v>
+      </c>
+      <c r="B35" s="48" t="e">
+        <f>INDEX(Unitinfo!$I$4:$I$23,MATCH(A35,Unitinfo!A19:A38,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C35" s="48">
+        <v>5</v>
+      </c>
+      <c r="D35" s="48">
+        <v>5</v>
+      </c>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2257,8 +2868,8 @@
   </sheetPr>
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -3246,7 +3857,7 @@
   <dimension ref="A1:W24"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:J12"/>
+      <selection activeCell="AB52" sqref="A48:AB52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4999,7 +5610,8 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -5278,7 +5890,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5777,7 +6389,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="A5:E8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5958,7 +6570,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2256" yWindow="732" windowWidth="24192" windowHeight="12156" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="2256" yWindow="732" windowWidth="24192" windowHeight="12156" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigTable" sheetId="18" r:id="rId1"/>
@@ -187,7 +187,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="206">
   <si>
     <t>type</t>
   </si>
@@ -523,18 +523,6 @@
   </si>
   <si>
     <t>attackLongDelay</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Projectile/ProjectileStraight.prefab</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Projectile/01_Indian_Archer_Bullet.prefab</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Projectile/02_Slime_Archer_Bullet.prefab</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -786,14 +774,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Projectile/04_Skeleton_Archer_Bullet.prefab</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Projectile/05_Skeleton_Witch_Bullet.prefab</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>count</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -977,10 +957,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Projectile/09_Witch_Fire_Bullet.prefab</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>BoomEffect/Boom01.prefab</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1241,6 +1217,27 @@
   <si>
     <t>체력 값</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indian_Horse_Sword</t>
+  </si>
+  <si>
+    <t>Indian_Horse_Spear</t>
+  </si>
+  <si>
+    <t>Indian_Horse_Archer</t>
+  </si>
+  <si>
+    <t>Chicken_Black</t>
+  </si>
+  <si>
+    <t>Chicken_White</t>
+  </si>
+  <si>
+    <t>Indian_Elephant</t>
+  </si>
+  <si>
+    <t>Indian_Egg</t>
   </si>
 </sst>
 </file>
@@ -2021,8 +2018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2037,22 +2034,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="13.8" thickBot="1">
       <c r="A1" s="43" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C1" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1" s="45" t="s">
         <v>186</v>
       </c>
-      <c r="E1" s="45" t="s">
-        <v>192</v>
-      </c>
       <c r="F1" s="45" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G1" s="45" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="13.8" thickBot="1">
@@ -2066,7 +2063,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="45" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F2" s="45">
         <v>3</v>
@@ -2086,7 +2083,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="45" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F3" s="45">
         <v>100</v>
@@ -2106,7 +2103,7 @@
         <v>35</v>
       </c>
       <c r="E4" s="45" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="F4" s="45">
         <v>0.2</v>
@@ -2126,7 +2123,7 @@
         <v>55</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F5" s="45">
         <v>1</v>
@@ -2137,7 +2134,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="E6" s="45" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F6" s="45">
         <v>25</v>
@@ -2148,7 +2145,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="E7" s="45" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F7" s="45">
         <v>5</v>
@@ -2159,7 +2156,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="E8" s="45" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F8" s="45">
         <v>0.2</v>
@@ -2170,7 +2167,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="E9" s="45" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F9" s="45">
         <v>1</v>
@@ -2181,7 +2178,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="E10" s="45" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F10" s="45">
         <v>0.2</v>
@@ -2192,7 +2189,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="E11" s="45" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F11" s="45">
         <v>1</v>
@@ -2204,19 +2201,19 @@
     <row r="19" spans="1:6">
       <c r="A19" s="48"/>
       <c r="B19" s="45" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C19" s="48" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E19" s="48" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F19" s="48" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2224,7 +2221,7 @@
         <v>2001</v>
       </c>
       <c r="B20" s="48">
-        <f>INDEX(Unitinfo!$I$4:$I$23,MATCH(A20,Unitinfo!A4:A23,0))</f>
+        <f>INDEX(Unitinfo!$I$4:$I$30,MATCH(A20,Unitinfo!A4:A30,0))</f>
         <v>1</v>
       </c>
       <c r="C20" s="48">
@@ -2241,7 +2238,7 @@
         <v>2002</v>
       </c>
       <c r="B21" s="48">
-        <f>INDEX(Unitinfo!$I$4:$I$23,MATCH(A21,Unitinfo!A5:A24,0))</f>
+        <f>INDEX(Unitinfo!$I$4:$I$30,MATCH(A21,Unitinfo!A5:A31,0))</f>
         <v>1</v>
       </c>
       <c r="C21" s="48">
@@ -2258,7 +2255,7 @@
         <v>2003</v>
       </c>
       <c r="B22" s="48">
-        <f>INDEX(Unitinfo!$I$4:$I$23,MATCH(A22,Unitinfo!A6:A25,0))</f>
+        <f>INDEX(Unitinfo!$I$4:$I$30,MATCH(A22,Unitinfo!A6:A32,0))</f>
         <v>1</v>
       </c>
       <c r="C22" s="48">
@@ -2275,7 +2272,7 @@
         <v>2004</v>
       </c>
       <c r="B23" s="48">
-        <f>INDEX(Unitinfo!$I$4:$I$23,MATCH(A23,Unitinfo!A7:A26,0))</f>
+        <f>INDEX(Unitinfo!$I$4:$I$30,MATCH(A23,Unitinfo!A7:A33,0))</f>
         <v>1</v>
       </c>
       <c r="C23" s="48">
@@ -2292,7 +2289,7 @@
         <v>2005</v>
       </c>
       <c r="B24" s="48">
-        <f>INDEX(Unitinfo!$I$4:$I$23,MATCH(A24,Unitinfo!A8:A27,0))</f>
+        <f>INDEX(Unitinfo!$I$4:$I$30,MATCH(A24,Unitinfo!A8:A34,0))</f>
         <v>1</v>
       </c>
       <c r="C24" s="48">
@@ -2309,7 +2306,7 @@
         <v>2006</v>
       </c>
       <c r="B25" s="48">
-        <f>INDEX(Unitinfo!$I$4:$I$23,MATCH(A25,Unitinfo!A9:A28,0))</f>
+        <f>INDEX(Unitinfo!$I$4:$I$30,MATCH(A25,Unitinfo!A9:A35,0))</f>
         <v>1</v>
       </c>
       <c r="C25" s="48">
@@ -2326,7 +2323,7 @@
         <v>2007</v>
       </c>
       <c r="B26" s="48">
-        <f>INDEX(Unitinfo!$I$4:$I$23,MATCH(A26,Unitinfo!A10:A29,0))</f>
+        <f>INDEX(Unitinfo!$I$4:$I$30,MATCH(A26,Unitinfo!A10:A36,0))</f>
         <v>1</v>
       </c>
       <c r="C26" s="48">
@@ -2343,7 +2340,7 @@
         <v>2008</v>
       </c>
       <c r="B27" s="48">
-        <f>INDEX(Unitinfo!$I$4:$I$23,MATCH(A27,Unitinfo!A11:A30,0))</f>
+        <f>INDEX(Unitinfo!$I$4:$I$30,MATCH(A27,Unitinfo!A11:A37,0))</f>
         <v>1</v>
       </c>
       <c r="C27" s="48">
@@ -2360,7 +2357,7 @@
         <v>2009</v>
       </c>
       <c r="B28" s="48">
-        <f>INDEX(Unitinfo!$I$4:$I$23,MATCH(A28,Unitinfo!A12:A31,0))</f>
+        <f>INDEX(Unitinfo!$I$4:$I$30,MATCH(A28,Unitinfo!A12:A38,0))</f>
         <v>1</v>
       </c>
       <c r="C28" s="48">
@@ -2377,7 +2374,7 @@
         <v>2010</v>
       </c>
       <c r="B29" s="48">
-        <f>INDEX(Unitinfo!$I$4:$I$23,MATCH(A29,Unitinfo!A13:A32,0))</f>
+        <f>INDEX(Unitinfo!$I$4:$I$30,MATCH(A29,Unitinfo!A20:A39,0))</f>
         <v>1</v>
       </c>
       <c r="C29" s="48">
@@ -2394,7 +2391,7 @@
         <v>2011</v>
       </c>
       <c r="B30" s="48">
-        <f>INDEX(Unitinfo!$I$4:$I$23,MATCH(A30,Unitinfo!A14:A33,0))</f>
+        <f>INDEX(Unitinfo!$I$4:$I$30,MATCH(A30,Unitinfo!A21:A40,0))</f>
         <v>1</v>
       </c>
       <c r="C30" s="48">
@@ -2411,7 +2408,7 @@
         <v>2012</v>
       </c>
       <c r="B31" s="48" t="e">
-        <f>INDEX(Unitinfo!$I$4:$I$23,MATCH(A31,Unitinfo!A15:A34,0))</f>
+        <f>INDEX(Unitinfo!$I$4:$I$30,MATCH(A31,Unitinfo!A22:A41,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C31" s="48">
@@ -2428,7 +2425,7 @@
         <v>2013</v>
       </c>
       <c r="B32" s="48" t="e">
-        <f>INDEX(Unitinfo!$I$4:$I$23,MATCH(A32,Unitinfo!A16:A35,0))</f>
+        <f>INDEX(Unitinfo!$I$4:$I$30,MATCH(A32,Unitinfo!A23:A42,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C32" s="48">
@@ -2445,7 +2442,7 @@
         <v>2014</v>
       </c>
       <c r="B33" s="48" t="e">
-        <f>INDEX(Unitinfo!$I$4:$I$23,MATCH(A33,Unitinfo!A17:A36,0))</f>
+        <f>INDEX(Unitinfo!$I$4:$I$30,MATCH(A33,Unitinfo!A24:A43,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C33" s="48">
@@ -2462,7 +2459,7 @@
         <v>2015</v>
       </c>
       <c r="B34" s="48" t="e">
-        <f>INDEX(Unitinfo!$I$4:$I$23,MATCH(A34,Unitinfo!A18:A37,0))</f>
+        <f>INDEX(Unitinfo!$I$4:$I$30,MATCH(A34,Unitinfo!A25:A44,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C34" s="48">
@@ -2479,7 +2476,7 @@
         <v>2016</v>
       </c>
       <c r="B35" s="48" t="e">
-        <f>INDEX(Unitinfo!$I$4:$I$23,MATCH(A35,Unitinfo!A19:A38,0))</f>
+        <f>INDEX(Unitinfo!$I$4:$I$30,MATCH(A35,Unitinfo!A26:A45,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C35" s="48">
@@ -2718,52 +2715,52 @@
     </row>
     <row r="13" spans="1:7" ht="15">
       <c r="A13" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C13" s="4">
         <v>0</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17.399999999999999">
       <c r="A14" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C14" s="4">
         <v>1</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C15" s="4">
         <v>0</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C16" s="4">
         <v>1</v>
@@ -2772,10 +2769,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C17" s="4">
         <v>2</v>
@@ -2784,10 +2781,10 @@
     </row>
     <row r="18" spans="1:4" ht="17.399999999999999">
       <c r="A18" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C18" s="4">
         <v>3</v>
@@ -2796,10 +2793,10 @@
     </row>
     <row r="19" spans="1:4" ht="17.399999999999999">
       <c r="A19" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C19" s="4">
         <v>4</v>
@@ -2808,10 +2805,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C20" s="4">
         <v>5</v>
@@ -2820,10 +2817,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C21" s="4">
         <v>6</v>
@@ -2832,10 +2829,10 @@
     </row>
     <row r="22" spans="1:4" ht="17.399999999999999">
       <c r="A22" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" s="25" t="s">
         <v>109</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>114</v>
       </c>
       <c r="C22" s="4">
         <v>7</v>
@@ -2844,10 +2841,10 @@
     </row>
     <row r="23" spans="1:4" ht="17.399999999999999">
       <c r="A23" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C23" s="4">
         <v>8</v>
@@ -2866,16 +2863,16 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="K43" sqref="B40:K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="12" style="38" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" style="38" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" style="38" customWidth="1"/>
     <col min="3" max="3" width="24.77734375" style="38" customWidth="1"/>
     <col min="4" max="4" width="9.88671875" style="38" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="38" customWidth="1"/>
@@ -2894,10 +2891,10 @@
         <v>42</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D1" s="34" t="s">
         <v>55</v>
@@ -2915,10 +2912,10 @@
         <v>49</v>
       </c>
       <c r="I1" s="34" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J1" s="34" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K1" s="34" t="s">
         <v>46</v>
@@ -2932,31 +2929,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D2" s="36" t="s">
         <v>55</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G2" s="37" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I2" s="37" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J2" s="37" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K2" s="37" t="s">
         <v>48</v>
@@ -2970,10 +2967,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D3" s="39" t="s">
         <v>2</v>
@@ -2991,10 +2988,10 @@
         <v>2</v>
       </c>
       <c r="I3" s="39" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J3" s="39" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K3" s="39" t="s">
         <v>2</v>
@@ -3008,7 +3005,7 @@
         <v>1001</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C4" s="41" t="str">
         <f>IF(D4=1,"(원거리)","(근거리)")&amp;B4</f>
@@ -3041,7 +3038,7 @@
         <v>unit_icon_1001</v>
       </c>
       <c r="L4" s="41" t="str">
-        <f t="shared" ref="L4:L11" si="0">"Unit/Enemy/Chapter_1/"&amp;A4&amp;"_"&amp;B4&amp;".prefab"</f>
+        <f t="shared" ref="L4:L19" si="0">"Unit/Enemy/Chapter_1/"&amp;A4&amp;"_"&amp;B4&amp;".prefab"</f>
         <v>Unit/Enemy/Chapter_1/1001_Indian_Archer.prefab</v>
       </c>
     </row>
@@ -3050,10 +3047,10 @@
         <v>1002</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C5" s="41" t="str">
-        <f t="shared" ref="C5:C23" si="1">IF(D5=1,"(원거리)","(근거리)")&amp;B5</f>
+        <f t="shared" ref="C5:C30" si="1">IF(D5=1,"(원거리)","(근거리)")&amp;B5</f>
         <v>(근거리)Indian_Shield</v>
       </c>
       <c r="D5" s="40">
@@ -3075,11 +3072,11 @@
         <v>1</v>
       </c>
       <c r="J5" s="40" t="str">
-        <f t="shared" ref="J5:J15" si="2">"name_"&amp;A5</f>
+        <f t="shared" ref="J5:J22" si="2">"name_"&amp;A5</f>
         <v>name_1002</v>
       </c>
       <c r="K5" s="40" t="str">
-        <f t="shared" ref="K5:K23" si="3">"unit_icon_"&amp;A5</f>
+        <f t="shared" ref="K5:K30" si="3">"unit_icon_"&amp;A5</f>
         <v>unit_icon_1002</v>
       </c>
       <c r="L5" s="41" t="str">
@@ -3092,7 +3089,7 @@
         <v>1003</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C6" s="41" t="str">
         <f t="shared" si="1"/>
@@ -3134,7 +3131,7 @@
         <v>1004</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C7" s="41" t="str">
         <f t="shared" si="1"/>
@@ -3176,7 +3173,7 @@
         <v>1005</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C8" s="41" t="str">
         <f t="shared" si="1"/>
@@ -3218,7 +3215,7 @@
         <v>1006</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C9" s="41" t="str">
         <f t="shared" si="1"/>
@@ -3260,7 +3257,7 @@
         <v>1007</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C10" s="41" t="str">
         <f t="shared" si="1"/>
@@ -3302,7 +3299,7 @@
         <v>1008</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C11" s="41" t="str">
         <f t="shared" si="1"/>
@@ -3344,7 +3341,7 @@
         <v>1009</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C12" s="41" t="str">
         <f t="shared" si="1"/>
@@ -3377,20 +3374,20 @@
         <v>unit_icon_1009</v>
       </c>
       <c r="L12" s="41" t="str">
-        <f>"Unit/Enemy/Chapter_1/"&amp;A12&amp;"_"&amp;B12&amp;".prefab"</f>
+        <f t="shared" si="0"/>
         <v>Unit/Enemy/Chapter_1/1009_Corgi.prefab</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="40">
-        <v>2001</v>
+        <v>1010</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="C13" s="41" t="str">
         <f t="shared" si="1"/>
-        <v>(근거리)Slime</v>
+        <v>(근거리)Indian_Horse_Sword</v>
       </c>
       <c r="D13" s="40">
         <v>0</v>
@@ -3411,435 +3408,729 @@
         <v>1</v>
       </c>
       <c r="J13" s="40" t="str">
+        <f t="shared" ref="J13:J19" si="4">"name_"&amp;A13</f>
+        <v>name_1010</v>
+      </c>
+      <c r="K13" s="40" t="str">
+        <f t="shared" ref="K13:K19" si="5">"unit_icon_"&amp;A13</f>
+        <v>unit_icon_1010</v>
+      </c>
+      <c r="L13" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>Unit/Enemy/Chapter_1/1010_Indian_Horse_Sword.prefab</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="40">
+        <v>1011</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="C14" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v>(근거리)Indian_Horse_Spear</v>
+      </c>
+      <c r="D14" s="40">
+        <v>0</v>
+      </c>
+      <c r="E14" s="40">
+        <v>100</v>
+      </c>
+      <c r="F14" s="40">
+        <v>1</v>
+      </c>
+      <c r="G14" s="40">
+        <v>1</v>
+      </c>
+      <c r="H14" s="40">
+        <v>1</v>
+      </c>
+      <c r="I14" s="40">
+        <v>1</v>
+      </c>
+      <c r="J14" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>name_1011</v>
+      </c>
+      <c r="K14" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>unit_icon_1011</v>
+      </c>
+      <c r="L14" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>Unit/Enemy/Chapter_1/1011_Indian_Horse_Spear.prefab</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="40">
+        <v>1012</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v>(원거리)Indian_Horse_Archer</v>
+      </c>
+      <c r="D15" s="40">
+        <v>1</v>
+      </c>
+      <c r="E15" s="40">
+        <v>100</v>
+      </c>
+      <c r="F15" s="40">
+        <v>1</v>
+      </c>
+      <c r="G15" s="40">
+        <v>1</v>
+      </c>
+      <c r="H15" s="40">
+        <v>1</v>
+      </c>
+      <c r="I15" s="40">
+        <v>1</v>
+      </c>
+      <c r="J15" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>name_1012</v>
+      </c>
+      <c r="K15" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>unit_icon_1012</v>
+      </c>
+      <c r="L15" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>Unit/Enemy/Chapter_1/1012_Indian_Horse_Archer.prefab</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="40">
+        <v>1013</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="C16" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v>(원거리)Chicken_Black</v>
+      </c>
+      <c r="D16" s="40">
+        <v>1</v>
+      </c>
+      <c r="E16" s="40">
+        <v>100</v>
+      </c>
+      <c r="F16" s="40">
+        <v>1</v>
+      </c>
+      <c r="G16" s="40">
+        <v>1</v>
+      </c>
+      <c r="H16" s="40">
+        <v>1</v>
+      </c>
+      <c r="I16" s="40">
+        <v>1</v>
+      </c>
+      <c r="J16" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>name_1013</v>
+      </c>
+      <c r="K16" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>unit_icon_1013</v>
+      </c>
+      <c r="L16" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>Unit/Enemy/Chapter_1/1013_Chicken_Black.prefab</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="40">
+        <v>1014</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="C17" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v>(원거리)Chicken_White</v>
+      </c>
+      <c r="D17" s="40">
+        <v>1</v>
+      </c>
+      <c r="E17" s="40">
+        <v>100</v>
+      </c>
+      <c r="F17" s="40">
+        <v>1</v>
+      </c>
+      <c r="G17" s="40">
+        <v>1</v>
+      </c>
+      <c r="H17" s="40">
+        <v>1</v>
+      </c>
+      <c r="I17" s="40">
+        <v>1</v>
+      </c>
+      <c r="J17" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>name_1014</v>
+      </c>
+      <c r="K17" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>unit_icon_1014</v>
+      </c>
+      <c r="L17" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>Unit/Enemy/Chapter_1/1014_Chicken_White.prefab</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="40">
+        <v>1015</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="C18" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v>(근거리)Indian_Elephant</v>
+      </c>
+      <c r="D18" s="40">
+        <v>0</v>
+      </c>
+      <c r="E18" s="40">
+        <v>100</v>
+      </c>
+      <c r="F18" s="40">
+        <v>1</v>
+      </c>
+      <c r="G18" s="40">
+        <v>1</v>
+      </c>
+      <c r="H18" s="40">
+        <v>1</v>
+      </c>
+      <c r="I18" s="40">
+        <v>1</v>
+      </c>
+      <c r="J18" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>name_1015</v>
+      </c>
+      <c r="K18" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>unit_icon_1015</v>
+      </c>
+      <c r="L18" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>Unit/Enemy/Chapter_1/1015_Indian_Elephant.prefab</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="40">
+        <v>1016</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>205</v>
+      </c>
+      <c r="C19" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v>(원거리)Indian_Egg</v>
+      </c>
+      <c r="D19" s="40">
+        <v>1</v>
+      </c>
+      <c r="E19" s="40">
+        <v>100</v>
+      </c>
+      <c r="F19" s="40">
+        <v>1</v>
+      </c>
+      <c r="G19" s="40">
+        <v>1</v>
+      </c>
+      <c r="H19" s="40">
+        <v>1</v>
+      </c>
+      <c r="I19" s="40">
+        <v>1</v>
+      </c>
+      <c r="J19" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>name_1016</v>
+      </c>
+      <c r="K19" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>unit_icon_1016</v>
+      </c>
+      <c r="L19" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>Unit/Enemy/Chapter_1/1016_Indian_Egg.prefab</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="40">
+        <v>2001</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v>(근거리)Slime</v>
+      </c>
+      <c r="D20" s="40">
+        <v>0</v>
+      </c>
+      <c r="E20" s="40">
+        <v>100</v>
+      </c>
+      <c r="F20" s="40">
+        <v>1</v>
+      </c>
+      <c r="G20" s="40">
+        <v>1</v>
+      </c>
+      <c r="H20" s="40">
+        <v>1</v>
+      </c>
+      <c r="I20" s="40">
+        <v>1</v>
+      </c>
+      <c r="J20" s="40" t="str">
         <f t="shared" si="2"/>
         <v>name_2001</v>
       </c>
-      <c r="K13" s="40" t="str">
+      <c r="K20" s="40" t="str">
         <f t="shared" si="3"/>
         <v>unit_icon_2001</v>
       </c>
-      <c r="L13" s="41" t="str">
-        <f>"Unit/Hero/"&amp;A13&amp;"_"&amp;B13&amp;".prefab"</f>
+      <c r="L20" s="41" t="str">
+        <f>"Unit/Hero/"&amp;A20&amp;"_"&amp;B20&amp;".prefab"</f>
         <v>Unit/Hero/2001_Slime.prefab</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="40">
+    <row r="21" spans="1:12">
+      <c r="A21" s="40">
         <v>2002</v>
       </c>
-      <c r="B14" s="40" t="s">
-        <v>168</v>
-      </c>
-      <c r="C14" s="41" t="str">
+      <c r="B21" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="C21" s="41" t="str">
         <f t="shared" si="1"/>
         <v>(원거리)Slime_Archer</v>
       </c>
-      <c r="D14" s="40">
-        <v>1</v>
-      </c>
-      <c r="E14" s="40">
+      <c r="D21" s="40">
+        <v>1</v>
+      </c>
+      <c r="E21" s="40">
         <v>100</v>
       </c>
-      <c r="F14" s="40">
-        <v>1</v>
-      </c>
-      <c r="G14" s="40">
-        <v>1</v>
-      </c>
-      <c r="H14" s="40">
-        <v>1</v>
-      </c>
-      <c r="I14" s="40">
-        <v>1</v>
-      </c>
-      <c r="J14" s="40" t="str">
+      <c r="F21" s="40">
+        <v>1</v>
+      </c>
+      <c r="G21" s="40">
+        <v>1</v>
+      </c>
+      <c r="H21" s="40">
+        <v>1</v>
+      </c>
+      <c r="I21" s="40">
+        <v>1</v>
+      </c>
+      <c r="J21" s="40" t="str">
         <f t="shared" si="2"/>
         <v>name_2002</v>
       </c>
-      <c r="K14" s="40" t="str">
+      <c r="K21" s="40" t="str">
         <f t="shared" si="3"/>
         <v>unit_icon_2002</v>
       </c>
-      <c r="L14" s="41" t="str">
-        <f t="shared" ref="L14:L23" si="4">"Unit/Hero/"&amp;A14&amp;"_"&amp;B14&amp;".prefab"</f>
+      <c r="L21" s="41" t="str">
+        <f t="shared" ref="L21:L30" si="6">"Unit/Hero/"&amp;A21&amp;"_"&amp;B21&amp;".prefab"</f>
         <v>Unit/Hero/2002_Slime_Archer.prefab</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="40">
+    <row r="22" spans="1:12">
+      <c r="A22" s="40">
         <v>2003</v>
       </c>
-      <c r="B15" s="40" t="s">
-        <v>174</v>
-      </c>
-      <c r="C15" s="41" t="str">
+      <c r="B22" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="C22" s="41" t="str">
         <f t="shared" si="1"/>
         <v>(근거리)Skeleton_Sword</v>
       </c>
-      <c r="D15" s="40">
-        <v>0</v>
-      </c>
-      <c r="E15" s="40">
+      <c r="D22" s="40">
+        <v>0</v>
+      </c>
+      <c r="E22" s="40">
         <v>100</v>
       </c>
-      <c r="F15" s="40">
-        <v>1</v>
-      </c>
-      <c r="G15" s="40">
-        <v>1</v>
-      </c>
-      <c r="H15" s="40">
-        <v>1</v>
-      </c>
-      <c r="I15" s="40">
-        <v>1</v>
-      </c>
-      <c r="J15" s="40" t="str">
+      <c r="F22" s="40">
+        <v>1</v>
+      </c>
+      <c r="G22" s="40">
+        <v>1</v>
+      </c>
+      <c r="H22" s="40">
+        <v>1</v>
+      </c>
+      <c r="I22" s="40">
+        <v>1</v>
+      </c>
+      <c r="J22" s="40" t="str">
         <f t="shared" si="2"/>
         <v>name_2003</v>
       </c>
-      <c r="K15" s="40" t="str">
+      <c r="K22" s="40" t="str">
         <f t="shared" si="3"/>
         <v>unit_icon_2003</v>
       </c>
-      <c r="L15" s="41" t="str">
-        <f t="shared" si="4"/>
+      <c r="L22" s="41" t="str">
+        <f t="shared" si="6"/>
         <v>Unit/Hero/2003_Skeleton_Sword.prefab</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="40">
+    <row r="23" spans="1:12">
+      <c r="A23" s="40">
         <v>2004</v>
       </c>
-      <c r="B16" s="40" t="s">
-        <v>171</v>
-      </c>
-      <c r="C16" s="41" t="str">
+      <c r="B23" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="C23" s="41" t="str">
         <f t="shared" si="1"/>
         <v>(원거리)Skeleton_Archer</v>
       </c>
-      <c r="D16" s="40">
-        <v>1</v>
-      </c>
-      <c r="E16" s="40">
+      <c r="D23" s="40">
+        <v>1</v>
+      </c>
+      <c r="E23" s="40">
         <v>100</v>
       </c>
-      <c r="F16" s="40">
-        <v>1</v>
-      </c>
-      <c r="G16" s="40">
-        <v>1</v>
-      </c>
-      <c r="H16" s="40">
-        <v>1</v>
-      </c>
-      <c r="I16" s="40">
-        <v>1</v>
-      </c>
-      <c r="J16" s="40" t="str">
-        <f t="shared" ref="J16:J23" si="5">"name_"&amp;A16</f>
+      <c r="F23" s="40">
+        <v>1</v>
+      </c>
+      <c r="G23" s="40">
+        <v>1</v>
+      </c>
+      <c r="H23" s="40">
+        <v>1</v>
+      </c>
+      <c r="I23" s="40">
+        <v>1</v>
+      </c>
+      <c r="J23" s="40" t="str">
+        <f t="shared" ref="J23:J30" si="7">"name_"&amp;A23</f>
         <v>name_2004</v>
       </c>
-      <c r="K16" s="40" t="str">
+      <c r="K23" s="40" t="str">
         <f t="shared" si="3"/>
         <v>unit_icon_2004</v>
       </c>
-      <c r="L16" s="41" t="str">
-        <f t="shared" si="4"/>
+      <c r="L23" s="41" t="str">
+        <f t="shared" si="6"/>
         <v>Unit/Hero/2004_Skeleton_Archer.prefab</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="40">
+    <row r="24" spans="1:12">
+      <c r="A24" s="40">
         <v>2005</v>
       </c>
-      <c r="B17" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="C17" s="41" t="str">
+      <c r="B24" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="C24" s="41" t="str">
         <f t="shared" si="1"/>
         <v>(원거리)Skeleton_Witch</v>
       </c>
-      <c r="D17" s="40">
-        <v>1</v>
-      </c>
-      <c r="E17" s="40">
+      <c r="D24" s="40">
+        <v>1</v>
+      </c>
+      <c r="E24" s="40">
         <v>100</v>
       </c>
-      <c r="F17" s="40">
-        <v>1</v>
-      </c>
-      <c r="G17" s="40">
-        <v>1</v>
-      </c>
-      <c r="H17" s="40">
-        <v>1</v>
-      </c>
-      <c r="I17" s="40">
-        <v>1</v>
-      </c>
-      <c r="J17" s="40" t="str">
-        <f t="shared" si="5"/>
+      <c r="F24" s="40">
+        <v>1</v>
+      </c>
+      <c r="G24" s="40">
+        <v>1</v>
+      </c>
+      <c r="H24" s="40">
+        <v>1</v>
+      </c>
+      <c r="I24" s="40">
+        <v>1</v>
+      </c>
+      <c r="J24" s="40" t="str">
+        <f t="shared" si="7"/>
         <v>name_2005</v>
       </c>
-      <c r="K17" s="40" t="str">
+      <c r="K24" s="40" t="str">
         <f t="shared" si="3"/>
         <v>unit_icon_2005</v>
       </c>
-      <c r="L17" s="41" t="str">
-        <f t="shared" si="4"/>
+      <c r="L24" s="41" t="str">
+        <f t="shared" si="6"/>
         <v>Unit/Hero/2005_Skeleton_Witch.prefab</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="40">
+    <row r="25" spans="1:12">
+      <c r="A25" s="40">
         <v>2006</v>
       </c>
-      <c r="B18" s="40" t="s">
-        <v>172</v>
-      </c>
-      <c r="C18" s="41" t="str">
+      <c r="B25" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="C25" s="41" t="str">
         <f t="shared" si="1"/>
         <v>(근거리)Zombie_Hand</v>
       </c>
-      <c r="D18" s="40">
-        <v>0</v>
-      </c>
-      <c r="E18" s="40">
+      <c r="D25" s="40">
+        <v>0</v>
+      </c>
+      <c r="E25" s="40">
         <v>100</v>
       </c>
-      <c r="F18" s="40">
-        <v>1</v>
-      </c>
-      <c r="G18" s="40">
-        <v>1</v>
-      </c>
-      <c r="H18" s="40">
-        <v>1</v>
-      </c>
-      <c r="I18" s="40">
-        <v>1</v>
-      </c>
-      <c r="J18" s="40" t="str">
-        <f t="shared" si="5"/>
+      <c r="F25" s="40">
+        <v>1</v>
+      </c>
+      <c r="G25" s="40">
+        <v>1</v>
+      </c>
+      <c r="H25" s="40">
+        <v>1</v>
+      </c>
+      <c r="I25" s="40">
+        <v>1</v>
+      </c>
+      <c r="J25" s="40" t="str">
+        <f t="shared" si="7"/>
         <v>name_2006</v>
       </c>
-      <c r="K18" s="40" t="str">
+      <c r="K25" s="40" t="str">
         <f t="shared" si="3"/>
         <v>unit_icon_2006</v>
       </c>
-      <c r="L18" s="41" t="str">
-        <f t="shared" si="4"/>
+      <c r="L25" s="41" t="str">
+        <f t="shared" si="6"/>
         <v>Unit/Hero/2006_Zombie_Hand.prefab</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="40">
+    <row r="26" spans="1:12">
+      <c r="A26" s="40">
         <v>2007</v>
       </c>
-      <c r="B19" s="40" t="s">
-        <v>173</v>
-      </c>
-      <c r="C19" s="41" t="str">
+      <c r="B26" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="C26" s="41" t="str">
         <f t="shared" si="1"/>
         <v>(근거리)Zombie_Shield</v>
       </c>
-      <c r="D19" s="40">
-        <v>0</v>
-      </c>
-      <c r="E19" s="40">
+      <c r="D26" s="40">
+        <v>0</v>
+      </c>
+      <c r="E26" s="40">
         <v>100</v>
       </c>
-      <c r="F19" s="40">
-        <v>1</v>
-      </c>
-      <c r="G19" s="40">
-        <v>1</v>
-      </c>
-      <c r="H19" s="40">
-        <v>1</v>
-      </c>
-      <c r="I19" s="40">
-        <v>1</v>
-      </c>
-      <c r="J19" s="40" t="str">
-        <f t="shared" si="5"/>
+      <c r="F26" s="40">
+        <v>1</v>
+      </c>
+      <c r="G26" s="40">
+        <v>1</v>
+      </c>
+      <c r="H26" s="40">
+        <v>1</v>
+      </c>
+      <c r="I26" s="40">
+        <v>1</v>
+      </c>
+      <c r="J26" s="40" t="str">
+        <f t="shared" si="7"/>
         <v>name_2007</v>
       </c>
-      <c r="K19" s="40" t="str">
+      <c r="K26" s="40" t="str">
         <f t="shared" si="3"/>
         <v>unit_icon_2007</v>
       </c>
-      <c r="L19" s="41" t="str">
-        <f t="shared" si="4"/>
+      <c r="L26" s="41" t="str">
+        <f t="shared" si="6"/>
         <v>Unit/Hero/2007_Zombie_Shield.prefab</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="40">
+    <row r="27" spans="1:12">
+      <c r="A27" s="40">
         <v>2008</v>
       </c>
-      <c r="B20" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="C20" s="41" t="str">
+      <c r="B27" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="C27" s="41" t="str">
         <f t="shared" si="1"/>
         <v>(근거리)Zombie_Sword</v>
       </c>
-      <c r="D20" s="40">
-        <v>0</v>
-      </c>
-      <c r="E20" s="40">
+      <c r="D27" s="40">
+        <v>0</v>
+      </c>
+      <c r="E27" s="40">
         <v>100</v>
       </c>
-      <c r="F20" s="40">
-        <v>1</v>
-      </c>
-      <c r="G20" s="40">
-        <v>1</v>
-      </c>
-      <c r="H20" s="40">
-        <v>1</v>
-      </c>
-      <c r="I20" s="40">
-        <v>1</v>
-      </c>
-      <c r="J20" s="40" t="str">
-        <f t="shared" si="5"/>
+      <c r="F27" s="40">
+        <v>1</v>
+      </c>
+      <c r="G27" s="40">
+        <v>1</v>
+      </c>
+      <c r="H27" s="40">
+        <v>1</v>
+      </c>
+      <c r="I27" s="40">
+        <v>1</v>
+      </c>
+      <c r="J27" s="40" t="str">
+        <f t="shared" si="7"/>
         <v>name_2008</v>
       </c>
-      <c r="K20" s="40" t="str">
+      <c r="K27" s="40" t="str">
         <f t="shared" si="3"/>
         <v>unit_icon_2008</v>
       </c>
-      <c r="L20" s="41" t="str">
-        <f t="shared" si="4"/>
+      <c r="L27" s="41" t="str">
+        <f t="shared" si="6"/>
         <v>Unit/Hero/2008_Zombie_Sword.prefab</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="40">
+    <row r="28" spans="1:12">
+      <c r="A28" s="40">
         <v>2009</v>
       </c>
-      <c r="B21" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="C21" s="41" t="str">
+      <c r="B28" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="C28" s="41" t="str">
         <f t="shared" si="1"/>
         <v>(원거리)Witch_Fire</v>
       </c>
-      <c r="D21" s="40">
-        <v>1</v>
-      </c>
-      <c r="E21" s="40">
+      <c r="D28" s="40">
+        <v>1</v>
+      </c>
+      <c r="E28" s="40">
         <v>100</v>
       </c>
-      <c r="F21" s="40">
-        <v>1</v>
-      </c>
-      <c r="G21" s="40">
-        <v>1</v>
-      </c>
-      <c r="H21" s="40">
-        <v>1</v>
-      </c>
-      <c r="I21" s="40">
-        <v>1</v>
-      </c>
-      <c r="J21" s="40" t="str">
-        <f t="shared" si="5"/>
+      <c r="F28" s="40">
+        <v>1</v>
+      </c>
+      <c r="G28" s="40">
+        <v>1</v>
+      </c>
+      <c r="H28" s="40">
+        <v>1</v>
+      </c>
+      <c r="I28" s="40">
+        <v>1</v>
+      </c>
+      <c r="J28" s="40" t="str">
+        <f t="shared" si="7"/>
         <v>name_2009</v>
       </c>
-      <c r="K21" s="40" t="str">
+      <c r="K28" s="40" t="str">
         <f t="shared" si="3"/>
         <v>unit_icon_2009</v>
       </c>
-      <c r="L21" s="41" t="str">
-        <f t="shared" si="4"/>
+      <c r="L28" s="41" t="str">
+        <f t="shared" si="6"/>
         <v>Unit/Hero/2009_Witch_Fire.prefab</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="40">
+    <row r="29" spans="1:12">
+      <c r="A29" s="40">
         <v>2010</v>
       </c>
-      <c r="B22" s="40" t="s">
-        <v>169</v>
-      </c>
-      <c r="C22" s="41" t="str">
+      <c r="B29" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="C29" s="41" t="str">
         <f t="shared" si="1"/>
         <v>(원거리)Witch_Thunder</v>
       </c>
-      <c r="D22" s="40">
-        <v>1</v>
-      </c>
-      <c r="E22" s="40">
+      <c r="D29" s="40">
+        <v>1</v>
+      </c>
+      <c r="E29" s="40">
         <v>100</v>
       </c>
-      <c r="F22" s="40">
-        <v>1</v>
-      </c>
-      <c r="G22" s="40">
-        <v>1</v>
-      </c>
-      <c r="H22" s="40">
-        <v>1</v>
-      </c>
-      <c r="I22" s="40">
-        <v>1</v>
-      </c>
-      <c r="J22" s="40" t="str">
-        <f t="shared" si="5"/>
+      <c r="F29" s="40">
+        <v>1</v>
+      </c>
+      <c r="G29" s="40">
+        <v>1</v>
+      </c>
+      <c r="H29" s="40">
+        <v>1</v>
+      </c>
+      <c r="I29" s="40">
+        <v>1</v>
+      </c>
+      <c r="J29" s="40" t="str">
+        <f t="shared" si="7"/>
         <v>name_2010</v>
       </c>
-      <c r="K22" s="40" t="str">
+      <c r="K29" s="40" t="str">
         <f t="shared" si="3"/>
         <v>unit_icon_2010</v>
       </c>
-      <c r="L22" s="41" t="str">
-        <f>"Unit/Hero/"&amp;A22&amp;"_"&amp;B22&amp;".prefab"</f>
+      <c r="L29" s="41" t="str">
+        <f>"Unit/Hero/"&amp;A29&amp;"_"&amp;B29&amp;".prefab"</f>
         <v>Unit/Hero/2010_Witch_Thunder.prefab</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="40">
+    <row r="30" spans="1:12">
+      <c r="A30" s="40">
         <v>2011</v>
       </c>
-      <c r="B23" s="40" t="s">
-        <v>183</v>
-      </c>
-      <c r="C23" s="41" t="str">
+      <c r="B30" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="C30" s="41" t="str">
         <f t="shared" si="1"/>
         <v>(원거리)Witch_Poison</v>
       </c>
-      <c r="D23" s="40">
-        <v>1</v>
-      </c>
-      <c r="E23" s="40">
+      <c r="D30" s="40">
+        <v>1</v>
+      </c>
+      <c r="E30" s="40">
         <v>100</v>
       </c>
-      <c r="F23" s="40">
-        <v>1</v>
-      </c>
-      <c r="G23" s="40">
-        <v>1</v>
-      </c>
-      <c r="H23" s="40">
-        <v>1</v>
-      </c>
-      <c r="I23" s="40">
-        <v>1</v>
-      </c>
-      <c r="J23" s="40" t="str">
-        <f t="shared" si="5"/>
+      <c r="F30" s="40">
+        <v>1</v>
+      </c>
+      <c r="G30" s="40">
+        <v>1</v>
+      </c>
+      <c r="H30" s="40">
+        <v>1</v>
+      </c>
+      <c r="I30" s="40">
+        <v>1</v>
+      </c>
+      <c r="J30" s="40" t="str">
+        <f t="shared" si="7"/>
         <v>name_2011</v>
       </c>
-      <c r="K23" s="40" t="str">
+      <c r="K30" s="40" t="str">
         <f t="shared" si="3"/>
         <v>unit_icon_2011</v>
       </c>
-      <c r="L23" s="41" t="str">
-        <f t="shared" si="4"/>
+      <c r="L30" s="41" t="str">
+        <f t="shared" si="6"/>
         <v>Unit/Hero/2011_Witch_Poison.prefab</v>
       </c>
     </row>
@@ -3854,10 +4145,10 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:W24"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB52" sqref="A48:AB52"/>
+      <selection activeCell="B31" activeCellId="5" sqref="B15:B17 B4 B19 B21 B23:B24 B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3890,67 +4181,67 @@
         <v>50</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>51</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F1" s="14" t="s">
         <v>52</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H1" s="31" t="s">
         <v>53</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="J1" s="31" t="s">
         <v>54</v>
       </c>
       <c r="K1" s="31" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L1" s="31" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="M1" s="31" t="s">
         <v>56</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O1" s="27" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P1" s="27" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Q1" s="27" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="R1" s="14" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="S1" s="14" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="T1" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="U1" s="14" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="V1" s="14" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -3961,13 +4252,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>1</v>
@@ -4032,13 +4323,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>2</v>
@@ -4137,7 +4428,8 @@
         <v>1000</v>
       </c>
       <c r="N4" s="5">
-        <v>1</v>
+        <f>B4</f>
+        <v>1001</v>
       </c>
       <c r="O4" s="5">
         <v>0</v>
@@ -4146,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="19" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="R4" s="5">
         <v>0</v>
@@ -4155,7 +4447,7 @@
         <v>1</v>
       </c>
       <c r="T4" s="19" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="U4" s="5">
         <v>2</v>
@@ -4169,6 +4461,7 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="5">
+        <f>A4+1</f>
         <v>2</v>
       </c>
       <c r="B5" s="5">
@@ -4209,7 +4502,8 @@
         <v>1000</v>
       </c>
       <c r="N5" s="5">
-        <v>2</v>
+        <f t="shared" ref="N5:N31" si="0">B5</f>
+        <v>1002</v>
       </c>
       <c r="O5" s="5">
         <v>0</v>
@@ -4218,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="Q5" s="19" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="R5" s="5">
         <v>0</v>
@@ -4227,7 +4521,7 @@
         <v>1</v>
       </c>
       <c r="T5" s="19" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="U5" s="5">
         <v>2</v>
@@ -4241,6 +4535,7 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="5">
+        <f t="shared" ref="A6:A31" si="1">A5+1</f>
         <v>3</v>
       </c>
       <c r="B6" s="5">
@@ -4281,7 +4576,8 @@
         <v>1000</v>
       </c>
       <c r="N6" s="5">
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>1003</v>
       </c>
       <c r="O6" s="5">
         <v>0</v>
@@ -4290,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="19" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="R6" s="5">
         <v>0</v>
@@ -4299,7 +4595,7 @@
         <v>1</v>
       </c>
       <c r="T6" s="19" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="U6" s="5">
         <v>2</v>
@@ -4313,6 +4609,7 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="5">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B7" s="5">
@@ -4353,7 +4650,8 @@
         <v>1000</v>
       </c>
       <c r="N7" s="5">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>1004</v>
       </c>
       <c r="O7" s="5">
         <v>0</v>
@@ -4362,7 +4660,7 @@
         <v>0</v>
       </c>
       <c r="Q7" s="19" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="R7" s="5">
         <v>0</v>
@@ -4371,7 +4669,7 @@
         <v>1</v>
       </c>
       <c r="T7" s="19" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="U7" s="5">
         <v>2</v>
@@ -4385,6 +4683,7 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="5">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B8" s="5">
@@ -4425,7 +4724,8 @@
         <v>1000</v>
       </c>
       <c r="N8" s="5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1005</v>
       </c>
       <c r="O8" s="5">
         <v>0</v>
@@ -4434,7 +4734,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="19" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="R8" s="5">
         <v>0</v>
@@ -4443,7 +4743,7 @@
         <v>1</v>
       </c>
       <c r="T8" s="19" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="U8" s="5">
         <v>2</v>
@@ -4457,6 +4757,7 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="5">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B9" s="5">
@@ -4497,7 +4798,8 @@
         <v>1000</v>
       </c>
       <c r="N9" s="5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1006</v>
       </c>
       <c r="O9" s="5">
         <v>0</v>
@@ -4506,7 +4808,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="19" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="R9" s="5">
         <v>0</v>
@@ -4515,7 +4817,7 @@
         <v>1</v>
       </c>
       <c r="T9" s="19" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="U9" s="5">
         <v>2</v>
@@ -4529,6 +4831,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="5">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B10" s="5">
@@ -4569,7 +4872,8 @@
         <v>1000</v>
       </c>
       <c r="N10" s="5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1007</v>
       </c>
       <c r="O10" s="5">
         <v>0</v>
@@ -4578,7 +4882,7 @@
         <v>0</v>
       </c>
       <c r="Q10" s="19" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="R10" s="5">
         <v>0</v>
@@ -4587,7 +4891,7 @@
         <v>1</v>
       </c>
       <c r="T10" s="19" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="U10" s="5">
         <v>2</v>
@@ -4601,6 +4905,7 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="5">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B11" s="5">
@@ -4641,7 +4946,8 @@
         <v>1000</v>
       </c>
       <c r="N11" s="5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1008</v>
       </c>
       <c r="O11" s="5">
         <v>0</v>
@@ -4650,7 +4956,7 @@
         <v>0</v>
       </c>
       <c r="Q11" s="19" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="R11" s="5">
         <v>0</v>
@@ -4659,7 +4965,7 @@
         <v>1</v>
       </c>
       <c r="T11" s="19" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="U11" s="5">
         <v>2</v>
@@ -4673,6 +4979,7 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="5">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B12" s="5">
@@ -4713,7 +5020,8 @@
         <v>1000</v>
       </c>
       <c r="N12" s="5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1009</v>
       </c>
       <c r="O12" s="5">
         <v>0</v>
@@ -4722,7 +5030,7 @@
         <v>0</v>
       </c>
       <c r="Q12" s="19" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="R12" s="5">
         <v>0</v>
@@ -4731,7 +5039,7 @@
         <v>1</v>
       </c>
       <c r="T12" s="19" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="U12" s="5">
         <v>2</v>
@@ -4745,16 +5053,17 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="5">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B13" s="5">
-        <v>2001</v>
+        <v>1010</v>
       </c>
       <c r="C13" s="20" t="str">
         <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B13,Unitinfo!A:A,0))</f>
-        <v>(근거리)Slime</v>
-      </c>
-      <c r="D13" s="5">
+        <v>(근거리)Indian_Horse_Sword</v>
+      </c>
+      <c r="D13" s="9">
         <v>1</v>
       </c>
       <c r="E13" s="9">
@@ -4785,7 +5094,8 @@
         <v>1000</v>
       </c>
       <c r="N13" s="5">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>1010</v>
       </c>
       <c r="O13" s="5">
         <v>0</v>
@@ -4794,7 +5104,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="19" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="R13" s="5">
         <v>0</v>
@@ -4803,7 +5113,7 @@
         <v>1</v>
       </c>
       <c r="T13" s="19" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="U13" s="5">
         <v>2</v>
@@ -4817,16 +5127,17 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="5">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B14" s="5">
-        <v>2002</v>
+        <v>1011</v>
       </c>
       <c r="C14" s="20" t="str">
         <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B14,Unitinfo!A:A,0))</f>
-        <v>(원거리)Slime_Archer</v>
-      </c>
-      <c r="D14" s="5">
+        <v>(근거리)Indian_Horse_Spear</v>
+      </c>
+      <c r="D14" s="9">
         <v>1</v>
       </c>
       <c r="E14" s="9">
@@ -4842,7 +5153,7 @@
         <v>5</v>
       </c>
       <c r="I14" s="42">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J14" s="5">
         <v>1</v>
@@ -4857,7 +5168,8 @@
         <v>1000</v>
       </c>
       <c r="N14" s="5">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1011</v>
       </c>
       <c r="O14" s="5">
         <v>0</v>
@@ -4866,7 +5178,7 @@
         <v>0</v>
       </c>
       <c r="Q14" s="19" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="R14" s="5">
         <v>0</v>
@@ -4875,7 +5187,7 @@
         <v>1</v>
       </c>
       <c r="T14" s="19" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="U14" s="5">
         <v>2</v>
@@ -4889,16 +5201,17 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="5">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B15" s="5">
-        <v>2003</v>
+        <v>1012</v>
       </c>
       <c r="C15" s="20" t="str">
         <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B15,Unitinfo!A:A,0))</f>
-        <v>(근거리)Skeleton_Sword</v>
-      </c>
-      <c r="D15" s="5">
+        <v>(원거리)Indian_Horse_Archer</v>
+      </c>
+      <c r="D15" s="9">
         <v>1</v>
       </c>
       <c r="E15" s="9">
@@ -4914,7 +5227,7 @@
         <v>5</v>
       </c>
       <c r="I15" s="42">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J15" s="5">
         <v>1</v>
@@ -4929,7 +5242,8 @@
         <v>1000</v>
       </c>
       <c r="N15" s="5">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1012</v>
       </c>
       <c r="O15" s="5">
         <v>0</v>
@@ -4938,7 +5252,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="19" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="R15" s="5">
         <v>0</v>
@@ -4947,7 +5261,7 @@
         <v>1</v>
       </c>
       <c r="T15" s="19" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="U15" s="5">
         <v>2</v>
@@ -4959,18 +5273,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="15" thickBot="1">
+    <row r="16" spans="1:23">
       <c r="A16" s="5">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B16" s="5">
-        <v>2004</v>
+        <v>1013</v>
       </c>
       <c r="C16" s="20" t="str">
         <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B16,Unitinfo!A:A,0))</f>
-        <v>(원거리)Skeleton_Archer</v>
-      </c>
-      <c r="D16" s="5">
+        <v>(원거리)Chicken_Black</v>
+      </c>
+      <c r="D16" s="9">
         <v>1</v>
       </c>
       <c r="E16" s="9">
@@ -5001,7 +5316,8 @@
         <v>1000</v>
       </c>
       <c r="N16" s="5">
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>1013</v>
       </c>
       <c r="O16" s="5">
         <v>0</v>
@@ -5010,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="19" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="R16" s="5">
         <v>0</v>
@@ -5019,7 +5335,7 @@
         <v>1</v>
       </c>
       <c r="T16" s="19" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="U16" s="5">
         <v>2</v>
@@ -5031,18 +5347,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="15" thickBot="1">
+    <row r="17" spans="1:23">
       <c r="A17" s="5">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B17" s="5">
-        <v>2005</v>
+        <v>1014</v>
       </c>
       <c r="C17" s="20" t="str">
         <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B17,Unitinfo!A:A,0))</f>
-        <v>(원거리)Skeleton_Witch</v>
-      </c>
-      <c r="D17" s="21">
+        <v>(원거리)Chicken_White</v>
+      </c>
+      <c r="D17" s="9">
         <v>1</v>
       </c>
       <c r="E17" s="9">
@@ -5073,7 +5390,8 @@
         <v>1000</v>
       </c>
       <c r="N17" s="5">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>1014</v>
       </c>
       <c r="O17" s="5">
         <v>0</v>
@@ -5082,7 +5400,7 @@
         <v>0</v>
       </c>
       <c r="Q17" s="19" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="R17" s="5">
         <v>0</v>
@@ -5091,7 +5409,7 @@
         <v>1</v>
       </c>
       <c r="T17" s="19" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="U17" s="5">
         <v>2</v>
@@ -5105,16 +5423,17 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" s="5">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B18" s="5">
-        <v>2006</v>
+        <v>1015</v>
       </c>
       <c r="C18" s="20" t="str">
         <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B18,Unitinfo!A:A,0))</f>
-        <v>(근거리)Zombie_Hand</v>
-      </c>
-      <c r="D18" s="5">
+        <v>(근거리)Indian_Elephant</v>
+      </c>
+      <c r="D18" s="9">
         <v>1</v>
       </c>
       <c r="E18" s="9">
@@ -5145,7 +5464,8 @@
         <v>1000</v>
       </c>
       <c r="N18" s="5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1015</v>
       </c>
       <c r="O18" s="5">
         <v>0</v>
@@ -5154,7 +5474,7 @@
         <v>0</v>
       </c>
       <c r="Q18" s="19" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="R18" s="5">
         <v>0</v>
@@ -5163,7 +5483,7 @@
         <v>1</v>
       </c>
       <c r="T18" s="19" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="U18" s="5">
         <v>2</v>
@@ -5175,18 +5495,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="15" thickBot="1">
+    <row r="19" spans="1:23">
       <c r="A19" s="5">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B19" s="5">
-        <v>2007</v>
+        <v>1016</v>
       </c>
       <c r="C19" s="20" t="str">
         <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B19,Unitinfo!A:A,0))</f>
-        <v>(근거리)Zombie_Shield</v>
-      </c>
-      <c r="D19" s="5">
+        <v>(원거리)Indian_Egg</v>
+      </c>
+      <c r="D19" s="9">
         <v>1</v>
       </c>
       <c r="E19" s="9">
@@ -5202,7 +5523,7 @@
         <v>5</v>
       </c>
       <c r="I19" s="42">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J19" s="5">
         <v>1</v>
@@ -5217,7 +5538,8 @@
         <v>1000</v>
       </c>
       <c r="N19" s="5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1016</v>
       </c>
       <c r="O19" s="5">
         <v>0</v>
@@ -5226,7 +5548,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="19" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="R19" s="5">
         <v>0</v>
@@ -5235,7 +5557,7 @@
         <v>1</v>
       </c>
       <c r="T19" s="19" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="U19" s="5">
         <v>2</v>
@@ -5247,18 +5569,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="15" thickBot="1">
+    <row r="20" spans="1:23">
       <c r="A20" s="5">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="B20" s="5">
-        <v>2008</v>
+        <v>2001</v>
       </c>
       <c r="C20" s="20" t="str">
         <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B20,Unitinfo!A:A,0))</f>
-        <v>(근거리)Zombie_Sword</v>
-      </c>
-      <c r="D20" s="21">
+        <v>(근거리)Slime</v>
+      </c>
+      <c r="D20" s="5">
         <v>1</v>
       </c>
       <c r="E20" s="9">
@@ -5289,7 +5612,8 @@
         <v>1000</v>
       </c>
       <c r="N20" s="5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2001</v>
       </c>
       <c r="O20" s="5">
         <v>0</v>
@@ -5298,7 +5622,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="19" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="R20" s="5">
         <v>0</v>
@@ -5307,7 +5631,7 @@
         <v>1</v>
       </c>
       <c r="T20" s="19" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="U20" s="5">
         <v>2</v>
@@ -5319,18 +5643,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="15" thickBot="1">
+    <row r="21" spans="1:23">
       <c r="A21" s="5">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B21" s="5">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="C21" s="20" t="str">
         <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B21,Unitinfo!A:A,0))</f>
-        <v>(근거리)Zombie_Hand</v>
-      </c>
-      <c r="D21" s="21">
+        <v>(원거리)Slime_Archer</v>
+      </c>
+      <c r="D21" s="5">
         <v>1</v>
       </c>
       <c r="E21" s="9">
@@ -5346,13 +5671,13 @@
         <v>5</v>
       </c>
       <c r="I21" s="42">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J21" s="5">
         <v>1</v>
       </c>
       <c r="K21" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21" s="5">
         <v>0</v>
@@ -5361,7 +5686,8 @@
         <v>1000</v>
       </c>
       <c r="N21" s="5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2002</v>
       </c>
       <c r="O21" s="5">
         <v>0</v>
@@ -5370,7 +5696,7 @@
         <v>0</v>
       </c>
       <c r="Q21" s="19" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="R21" s="5">
         <v>0</v>
@@ -5379,7 +5705,7 @@
         <v>1</v>
       </c>
       <c r="T21" s="19" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="U21" s="5">
         <v>2</v>
@@ -5391,18 +5717,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="15" thickBot="1">
+    <row r="22" spans="1:23">
       <c r="A22" s="5">
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B22" s="5">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="C22" s="20" t="str">
         <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B22,Unitinfo!A:A,0))</f>
-        <v>(근거리)Zombie_Shield</v>
-      </c>
-      <c r="D22" s="21">
+        <v>(근거리)Skeleton_Sword</v>
+      </c>
+      <c r="D22" s="5">
         <v>1</v>
       </c>
       <c r="E22" s="9">
@@ -5424,7 +5751,7 @@
         <v>1</v>
       </c>
       <c r="K22" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L22" s="5">
         <v>0</v>
@@ -5433,7 +5760,8 @@
         <v>1000</v>
       </c>
       <c r="N22" s="5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2003</v>
       </c>
       <c r="O22" s="5">
         <v>0</v>
@@ -5442,7 +5770,7 @@
         <v>0</v>
       </c>
       <c r="Q22" s="19" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="R22" s="5">
         <v>0</v>
@@ -5451,7 +5779,7 @@
         <v>1</v>
       </c>
       <c r="T22" s="19" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="U22" s="5">
         <v>2</v>
@@ -5465,16 +5793,17 @@
     </row>
     <row r="23" spans="1:23" ht="15" thickBot="1">
       <c r="A23" s="5">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B23" s="5">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="C23" s="20" t="str">
         <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B23,Unitinfo!A:A,0))</f>
-        <v>(근거리)Zombie_Sword</v>
-      </c>
-      <c r="D23" s="21">
+        <v>(원거리)Skeleton_Archer</v>
+      </c>
+      <c r="D23" s="5">
         <v>1</v>
       </c>
       <c r="E23" s="9">
@@ -5490,13 +5819,13 @@
         <v>5</v>
       </c>
       <c r="I23" s="42">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J23" s="5">
         <v>1</v>
       </c>
       <c r="K23" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L23" s="5">
         <v>0</v>
@@ -5505,7 +5834,8 @@
         <v>1000</v>
       </c>
       <c r="N23" s="5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2004</v>
       </c>
       <c r="O23" s="5">
         <v>0</v>
@@ -5514,7 +5844,7 @@
         <v>0</v>
       </c>
       <c r="Q23" s="19" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="R23" s="5">
         <v>0</v>
@@ -5523,7 +5853,7 @@
         <v>1</v>
       </c>
       <c r="T23" s="19" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="U23" s="5">
         <v>2</v>
@@ -5537,14 +5867,15 @@
     </row>
     <row r="24" spans="1:23" ht="15" thickBot="1">
       <c r="A24" s="5">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B24" s="5">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="C24" s="20" t="str">
         <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B24,Unitinfo!A:A,0))</f>
-        <v>(원거리)Witch_Fire</v>
+        <v>(원거리)Skeleton_Witch</v>
       </c>
       <c r="D24" s="21">
         <v>1</v>
@@ -5577,7 +5908,8 @@
         <v>1000</v>
       </c>
       <c r="N24" s="5">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>2005</v>
       </c>
       <c r="O24" s="5">
         <v>0</v>
@@ -5586,7 +5918,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="19" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R24" s="5">
         <v>0</v>
@@ -5595,7 +5927,7 @@
         <v>1</v>
       </c>
       <c r="T24" s="19" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="U24" s="5">
         <v>2</v>
@@ -5604,6 +5936,524 @@
         <v>10</v>
       </c>
       <c r="W24" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="5">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B25" s="5">
+        <v>2006</v>
+      </c>
+      <c r="C25" s="20" t="str">
+        <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B25,Unitinfo!A:A,0))</f>
+        <v>(근거리)Zombie_Hand</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1</v>
+      </c>
+      <c r="E25" s="9">
+        <v>10</v>
+      </c>
+      <c r="F25" s="5">
+        <v>100</v>
+      </c>
+      <c r="G25" s="5">
+        <v>10</v>
+      </c>
+      <c r="H25" s="5">
+        <v>5</v>
+      </c>
+      <c r="I25" s="42">
+        <v>10</v>
+      </c>
+      <c r="J25" s="5">
+        <v>1</v>
+      </c>
+      <c r="K25" s="5">
+        <v>1</v>
+      </c>
+      <c r="L25" s="5">
+        <v>0</v>
+      </c>
+      <c r="M25" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N25" s="5">
+        <f t="shared" si="0"/>
+        <v>2006</v>
+      </c>
+      <c r="O25" s="5">
+        <v>0</v>
+      </c>
+      <c r="P25" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="R25" s="5">
+        <v>0</v>
+      </c>
+      <c r="S25" s="5">
+        <v>1</v>
+      </c>
+      <c r="T25" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="U25" s="5">
+        <v>2</v>
+      </c>
+      <c r="V25" s="5">
+        <v>10</v>
+      </c>
+      <c r="W25" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="15" thickBot="1">
+      <c r="A26" s="5">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B26" s="5">
+        <v>2007</v>
+      </c>
+      <c r="C26" s="20" t="str">
+        <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B26,Unitinfo!A:A,0))</f>
+        <v>(근거리)Zombie_Shield</v>
+      </c>
+      <c r="D26" s="5">
+        <v>1</v>
+      </c>
+      <c r="E26" s="9">
+        <v>10</v>
+      </c>
+      <c r="F26" s="5">
+        <v>100</v>
+      </c>
+      <c r="G26" s="5">
+        <v>10</v>
+      </c>
+      <c r="H26" s="5">
+        <v>5</v>
+      </c>
+      <c r="I26" s="42">
+        <v>10</v>
+      </c>
+      <c r="J26" s="5">
+        <v>1</v>
+      </c>
+      <c r="K26" s="5">
+        <v>1</v>
+      </c>
+      <c r="L26" s="5">
+        <v>0</v>
+      </c>
+      <c r="M26" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N26" s="5">
+        <f t="shared" si="0"/>
+        <v>2007</v>
+      </c>
+      <c r="O26" s="5">
+        <v>0</v>
+      </c>
+      <c r="P26" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="R26" s="5">
+        <v>0</v>
+      </c>
+      <c r="S26" s="5">
+        <v>1</v>
+      </c>
+      <c r="T26" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="U26" s="5">
+        <v>2</v>
+      </c>
+      <c r="V26" s="5">
+        <v>10</v>
+      </c>
+      <c r="W26" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="15" thickBot="1">
+      <c r="A27" s="5">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B27" s="5">
+        <v>2008</v>
+      </c>
+      <c r="C27" s="20" t="str">
+        <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B27,Unitinfo!A:A,0))</f>
+        <v>(근거리)Zombie_Sword</v>
+      </c>
+      <c r="D27" s="21">
+        <v>1</v>
+      </c>
+      <c r="E27" s="9">
+        <v>10</v>
+      </c>
+      <c r="F27" s="5">
+        <v>100</v>
+      </c>
+      <c r="G27" s="5">
+        <v>10</v>
+      </c>
+      <c r="H27" s="5">
+        <v>5</v>
+      </c>
+      <c r="I27" s="42">
+        <v>10</v>
+      </c>
+      <c r="J27" s="5">
+        <v>1</v>
+      </c>
+      <c r="K27" s="5">
+        <v>1</v>
+      </c>
+      <c r="L27" s="5">
+        <v>0</v>
+      </c>
+      <c r="M27" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N27" s="5">
+        <f t="shared" si="0"/>
+        <v>2008</v>
+      </c>
+      <c r="O27" s="5">
+        <v>0</v>
+      </c>
+      <c r="P27" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="R27" s="5">
+        <v>0</v>
+      </c>
+      <c r="S27" s="5">
+        <v>1</v>
+      </c>
+      <c r="T27" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="U27" s="5">
+        <v>2</v>
+      </c>
+      <c r="V27" s="5">
+        <v>10</v>
+      </c>
+      <c r="W27" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="15" thickBot="1">
+      <c r="A28" s="5">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B28" s="5">
+        <v>2006</v>
+      </c>
+      <c r="C28" s="20" t="str">
+        <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B28,Unitinfo!A:A,0))</f>
+        <v>(근거리)Zombie_Hand</v>
+      </c>
+      <c r="D28" s="21">
+        <v>1</v>
+      </c>
+      <c r="E28" s="9">
+        <v>10</v>
+      </c>
+      <c r="F28" s="5">
+        <v>100</v>
+      </c>
+      <c r="G28" s="5">
+        <v>10</v>
+      </c>
+      <c r="H28" s="5">
+        <v>5</v>
+      </c>
+      <c r="I28" s="42">
+        <v>10</v>
+      </c>
+      <c r="J28" s="5">
+        <v>1</v>
+      </c>
+      <c r="K28" s="5">
+        <v>2</v>
+      </c>
+      <c r="L28" s="5">
+        <v>0</v>
+      </c>
+      <c r="M28" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N28" s="5">
+        <f t="shared" si="0"/>
+        <v>2006</v>
+      </c>
+      <c r="O28" s="5">
+        <v>0</v>
+      </c>
+      <c r="P28" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="R28" s="5">
+        <v>0</v>
+      </c>
+      <c r="S28" s="5">
+        <v>1</v>
+      </c>
+      <c r="T28" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="U28" s="5">
+        <v>2</v>
+      </c>
+      <c r="V28" s="5">
+        <v>10</v>
+      </c>
+      <c r="W28" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="15" thickBot="1">
+      <c r="A29" s="5">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B29" s="5">
+        <v>2007</v>
+      </c>
+      <c r="C29" s="20" t="str">
+        <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B29,Unitinfo!A:A,0))</f>
+        <v>(근거리)Zombie_Shield</v>
+      </c>
+      <c r="D29" s="21">
+        <v>1</v>
+      </c>
+      <c r="E29" s="9">
+        <v>10</v>
+      </c>
+      <c r="F29" s="5">
+        <v>100</v>
+      </c>
+      <c r="G29" s="5">
+        <v>10</v>
+      </c>
+      <c r="H29" s="5">
+        <v>5</v>
+      </c>
+      <c r="I29" s="42">
+        <v>10</v>
+      </c>
+      <c r="J29" s="5">
+        <v>1</v>
+      </c>
+      <c r="K29" s="5">
+        <v>2</v>
+      </c>
+      <c r="L29" s="5">
+        <v>0</v>
+      </c>
+      <c r="M29" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N29" s="5">
+        <f t="shared" si="0"/>
+        <v>2007</v>
+      </c>
+      <c r="O29" s="5">
+        <v>0</v>
+      </c>
+      <c r="P29" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="R29" s="5">
+        <v>0</v>
+      </c>
+      <c r="S29" s="5">
+        <v>1</v>
+      </c>
+      <c r="T29" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="U29" s="5">
+        <v>2</v>
+      </c>
+      <c r="V29" s="5">
+        <v>10</v>
+      </c>
+      <c r="W29" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="15" thickBot="1">
+      <c r="A30" s="5">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B30" s="5">
+        <v>2008</v>
+      </c>
+      <c r="C30" s="20" t="str">
+        <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B30,Unitinfo!A:A,0))</f>
+        <v>(근거리)Zombie_Sword</v>
+      </c>
+      <c r="D30" s="21">
+        <v>1</v>
+      </c>
+      <c r="E30" s="9">
+        <v>10</v>
+      </c>
+      <c r="F30" s="5">
+        <v>100</v>
+      </c>
+      <c r="G30" s="5">
+        <v>10</v>
+      </c>
+      <c r="H30" s="5">
+        <v>5</v>
+      </c>
+      <c r="I30" s="42">
+        <v>10</v>
+      </c>
+      <c r="J30" s="5">
+        <v>1</v>
+      </c>
+      <c r="K30" s="5">
+        <v>2</v>
+      </c>
+      <c r="L30" s="5">
+        <v>0</v>
+      </c>
+      <c r="M30" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N30" s="5">
+        <f t="shared" si="0"/>
+        <v>2008</v>
+      </c>
+      <c r="O30" s="5">
+        <v>0</v>
+      </c>
+      <c r="P30" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="R30" s="5">
+        <v>0</v>
+      </c>
+      <c r="S30" s="5">
+        <v>1</v>
+      </c>
+      <c r="T30" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="U30" s="5">
+        <v>2</v>
+      </c>
+      <c r="V30" s="5">
+        <v>10</v>
+      </c>
+      <c r="W30" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="15" thickBot="1">
+      <c r="A31" s="5">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B31" s="5">
+        <v>2009</v>
+      </c>
+      <c r="C31" s="20" t="str">
+        <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B31,Unitinfo!A:A,0))</f>
+        <v>(원거리)Witch_Fire</v>
+      </c>
+      <c r="D31" s="21">
+        <v>1</v>
+      </c>
+      <c r="E31" s="9">
+        <v>10</v>
+      </c>
+      <c r="F31" s="5">
+        <v>100</v>
+      </c>
+      <c r="G31" s="5">
+        <v>10</v>
+      </c>
+      <c r="H31" s="5">
+        <v>5</v>
+      </c>
+      <c r="I31" s="42">
+        <v>50</v>
+      </c>
+      <c r="J31" s="5">
+        <v>1</v>
+      </c>
+      <c r="K31" s="5">
+        <v>1</v>
+      </c>
+      <c r="L31" s="5">
+        <v>0</v>
+      </c>
+      <c r="M31" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N31" s="5">
+        <f t="shared" si="0"/>
+        <v>2009</v>
+      </c>
+      <c r="O31" s="5">
+        <v>0</v>
+      </c>
+      <c r="P31" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="R31" s="5">
+        <v>0</v>
+      </c>
+      <c r="S31" s="5">
+        <v>1</v>
+      </c>
+      <c r="T31" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="U31" s="5">
+        <v>2</v>
+      </c>
+      <c r="V31" s="5">
+        <v>10</v>
+      </c>
+      <c r="W31" s="5">
         <v>2</v>
       </c>
     </row>
@@ -5632,7 +6482,7 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="1"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I4:I24</xm:sqref>
+          <xm:sqref>I4:I31</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5645,10 +6495,10 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5661,7 +6511,7 @@
         <v>42</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>47</v>
@@ -5691,69 +6541,143 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="B4" s="5">
         <v>5</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>57</v>
+      <c r="C4" t="str">
+        <f>"Projectile/"&amp;A4&amp;"_"&amp;INDEX(Unitinfo!B:B,MATCH(A4,Unitinfo!A:A,0))&amp;"_Bullet.prefab"</f>
+        <v>Projectile/1001_Indian_Archer_Bullet.prefab</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5">
-        <v>1</v>
+        <v>1012</v>
       </c>
       <c r="B5" s="5">
         <v>5</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>58</v>
+      <c r="C5" t="str">
+        <f>"Projectile/"&amp;A5&amp;"_"&amp;INDEX(Unitinfo!B:B,MATCH(A5,Unitinfo!A:A,0))&amp;"_Bullet.prefab"</f>
+        <v>Projectile/1012_Indian_Horse_Archer_Bullet.prefab</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="5">
-        <v>2</v>
+        <v>1013</v>
       </c>
       <c r="B6" s="5">
         <v>5</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>59</v>
+      <c r="C6" t="str">
+        <f>"Projectile/"&amp;A6&amp;"_"&amp;INDEX(Unitinfo!B:B,MATCH(A6,Unitinfo!A:A,0))&amp;"_Bullet.prefab"</f>
+        <v>Projectile/1013_Chicken_Black_Bullet.prefab</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="5">
-        <v>3</v>
+        <v>1014</v>
       </c>
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>87</v>
+      <c r="C7" t="str">
+        <f>"Projectile/"&amp;A7&amp;"_"&amp;INDEX(Unitinfo!B:B,MATCH(A7,Unitinfo!A:A,0))&amp;"_Bullet.prefab"</f>
+        <v>Projectile/1014_Chicken_White_Bullet.prefab</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="5">
-        <v>4</v>
+        <v>1016</v>
       </c>
       <c r="B8" s="5">
         <v>5</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>88</v>
+      <c r="C8" t="str">
+        <f>"Projectile/"&amp;A8&amp;"_"&amp;INDEX(Unitinfo!B:B,MATCH(A8,Unitinfo!A:A,0))&amp;"_Bullet.prefab"</f>
+        <v>Projectile/1016_Indian_Egg_Bullet.prefab</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="5">
-        <v>5</v>
+        <v>2002</v>
       </c>
       <c r="B9" s="5">
         <v>5</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>130</v>
-      </c>
+      <c r="C9" t="str">
+        <f>"Projectile/"&amp;A9&amp;"_"&amp;INDEX(Unitinfo!B:B,MATCH(A9,Unitinfo!A:A,0))&amp;"_Bullet.prefab"</f>
+        <v>Projectile/2002_Slime_Archer_Bullet.prefab</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5">
+        <v>2004</v>
+      </c>
+      <c r="B10" s="5">
+        <v>5</v>
+      </c>
+      <c r="C10" t="str">
+        <f>"Projectile/"&amp;A10&amp;"_"&amp;INDEX(Unitinfo!B:B,MATCH(A10,Unitinfo!A:A,0))&amp;"_Bullet.prefab"</f>
+        <v>Projectile/2004_Skeleton_Archer_Bullet.prefab</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="5">
+        <v>2005</v>
+      </c>
+      <c r="B11" s="5">
+        <v>5</v>
+      </c>
+      <c r="C11" t="str">
+        <f>"Projectile/"&amp;A11&amp;"_"&amp;INDEX(Unitinfo!B:B,MATCH(A11,Unitinfo!A:A,0))&amp;"_Bullet.prefab"</f>
+        <v>Projectile/2005_Skeleton_Witch_Bullet.prefab</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="5">
+        <v>2009</v>
+      </c>
+      <c r="B12" s="5">
+        <v>5</v>
+      </c>
+      <c r="C12" t="str">
+        <f>"Projectile/"&amp;A12&amp;"_"&amp;INDEX(Unitinfo!B:B,MATCH(A12,Unitinfo!A:A,0))&amp;"_Bullet.prefab"</f>
+        <v>Projectile/2009_Witch_Fire_Bullet.prefab</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5782,13 +6706,13 @@
         <v>42</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5824,13 +6748,13 @@
         <v>16</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.399999999999999">
@@ -5838,13 +6762,13 @@
         <v>17</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.399999999999999">
@@ -5852,27 +6776,27 @@
         <v>18</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.399999999999999">
       <c r="A7" s="23" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -5907,19 +6831,19 @@
         <v>42</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>47</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -5927,13 +6851,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>3</v>
@@ -5967,7 +6891,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C4" s="5">
         <v>100</v>
@@ -5976,7 +6900,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F4" s="9">
         <v>120</v>
@@ -5987,7 +6911,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C5" s="5">
         <v>200</v>
@@ -5996,7 +6920,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F5" s="9">
         <v>120</v>
@@ -6007,7 +6931,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C6" s="5">
         <v>300</v>
@@ -6016,7 +6940,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F6" s="9">
         <v>120</v>
@@ -6027,7 +6951,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C7" s="5">
         <v>400</v>
@@ -6036,7 +6960,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F7" s="9">
         <v>120</v>
@@ -6047,7 +6971,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C8" s="5">
         <v>500</v>
@@ -6056,7 +6980,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F8" s="9">
         <v>120</v>
@@ -6067,7 +6991,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C9" s="5">
         <v>600</v>
@@ -6076,7 +7000,7 @@
         <v>5</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F9" s="9">
         <v>120</v>
@@ -6087,7 +7011,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C10" s="5">
         <v>700</v>
@@ -6096,7 +7020,7 @@
         <v>6</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F10" s="9">
         <v>120</v>
@@ -6107,7 +7031,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C11" s="5">
         <v>800</v>
@@ -6116,7 +7040,7 @@
         <v>7</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F11" s="9">
         <v>120</v>
@@ -6127,7 +7051,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C12" s="5">
         <v>900</v>
@@ -6136,7 +7060,7 @@
         <v>8</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F12" s="9">
         <v>120</v>
@@ -6147,7 +7071,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C13" s="5">
         <v>1000</v>
@@ -6156,7 +7080,7 @@
         <v>9</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F13" s="9">
         <v>120</v>
@@ -6167,7 +7091,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C14" s="5">
         <v>1100</v>
@@ -6176,7 +7100,7 @@
         <v>10</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F14" s="9">
         <v>120</v>
@@ -6187,7 +7111,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C15" s="5">
         <v>1200</v>
@@ -6196,7 +7120,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F15" s="9">
         <v>120</v>
@@ -6207,7 +7131,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C16" s="5">
         <v>1300</v>
@@ -6216,7 +7140,7 @@
         <v>12</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F16" s="9">
         <v>120</v>
@@ -6227,7 +7151,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C17" s="5">
         <v>1400</v>
@@ -6236,7 +7160,7 @@
         <v>13</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F17" s="9">
         <v>120</v>
@@ -6247,7 +7171,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C18" s="5">
         <v>1500</v>
@@ -6256,7 +7180,7 @@
         <v>14</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F18" s="9">
         <v>120</v>
@@ -6267,7 +7191,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C19" s="5">
         <v>1600</v>
@@ -6276,7 +7200,7 @@
         <v>15</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F19" s="9">
         <v>120</v>
@@ -6287,7 +7211,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C20" s="5">
         <v>1700</v>
@@ -6296,7 +7220,7 @@
         <v>16</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F20" s="9">
         <v>120</v>
@@ -6307,7 +7231,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C21" s="5">
         <v>1800</v>
@@ -6316,7 +7240,7 @@
         <v>17</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F21" s="9">
         <v>120</v>
@@ -6327,7 +7251,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C22" s="5">
         <v>1900</v>
@@ -6336,7 +7260,7 @@
         <v>18</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F22" s="9">
         <v>120</v>
@@ -6347,7 +7271,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C23" s="5">
         <v>2000</v>
@@ -6356,7 +7280,7 @@
         <v>19</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F23" s="9">
         <v>120</v>
@@ -6403,16 +7327,16 @@
         <v>42</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6457,7 +7381,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
@@ -6474,7 +7398,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D5" s="5">
         <v>0</v>
@@ -6491,7 +7415,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
@@ -6508,7 +7432,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D7" s="5">
         <v>0</v>
@@ -6525,7 +7449,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
@@ -6542,7 +7466,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D9" s="5">
         <v>0</v>
@@ -6587,10 +7511,10 @@
         <v>50</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:4">

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2256" yWindow="732" windowWidth="24192" windowHeight="12156" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="2256" yWindow="732" windowWidth="24192" windowHeight="12156" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigTable" sheetId="18" r:id="rId1"/>
@@ -187,7 +187,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="213">
   <si>
     <t>type</t>
   </si>
@@ -1238,6 +1238,27 @@
   </si>
   <si>
     <t>Indian_Egg</t>
+  </si>
+  <si>
+    <t>Goblin_Stone</t>
+  </si>
+  <si>
+    <t>Goblin_Club</t>
+  </si>
+  <si>
+    <t>Goblin_Baby</t>
+  </si>
+  <si>
+    <t>Orc_Stone</t>
+  </si>
+  <si>
+    <t>Orc_Club</t>
+  </si>
+  <si>
+    <t>Dragon</t>
+  </si>
+  <si>
+    <t>Dragon_Fire</t>
   </si>
 </sst>
 </file>
@@ -2407,9 +2428,9 @@
       <c r="A31" s="48">
         <v>2012</v>
       </c>
-      <c r="B31" s="48" t="e">
+      <c r="B31" s="48">
         <f>INDEX(Unitinfo!$I$4:$I$30,MATCH(A31,Unitinfo!A22:A41,0))</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="C31" s="48">
         <v>5</v>
@@ -2424,9 +2445,9 @@
       <c r="A32" s="48">
         <v>2013</v>
       </c>
-      <c r="B32" s="48" t="e">
+      <c r="B32" s="48">
         <f>INDEX(Unitinfo!$I$4:$I$30,MATCH(A32,Unitinfo!A23:A42,0))</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="C32" s="48">
         <v>5</v>
@@ -2441,9 +2462,9 @@
       <c r="A33" s="48">
         <v>2014</v>
       </c>
-      <c r="B33" s="48" t="e">
+      <c r="B33" s="48">
         <f>INDEX(Unitinfo!$I$4:$I$30,MATCH(A33,Unitinfo!A24:A43,0))</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="C33" s="48">
         <v>5</v>
@@ -2458,9 +2479,9 @@
       <c r="A34" s="48">
         <v>2015</v>
       </c>
-      <c r="B34" s="48" t="e">
+      <c r="B34" s="48">
         <f>INDEX(Unitinfo!$I$4:$I$30,MATCH(A34,Unitinfo!A25:A44,0))</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="C34" s="48">
         <v>5</v>
@@ -2475,9 +2496,9 @@
       <c r="A35" s="48">
         <v>2016</v>
       </c>
-      <c r="B35" s="48" t="e">
+      <c r="B35" s="48">
         <f>INDEX(Unitinfo!$I$4:$I$30,MATCH(A35,Unitinfo!A26:A45,0))</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="C35" s="48">
         <v>5</v>
@@ -2863,10 +2884,10 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K43" sqref="B40:K43"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -3050,7 +3071,7 @@
         <v>151</v>
       </c>
       <c r="C5" s="41" t="str">
-        <f t="shared" ref="C5:C30" si="1">IF(D5=1,"(원거리)","(근거리)")&amp;B5</f>
+        <f t="shared" ref="C5:C37" si="1">IF(D5=1,"(원거리)","(근거리)")&amp;B5</f>
         <v>(근거리)Indian_Shield</v>
       </c>
       <c r="D5" s="40">
@@ -4133,6 +4154,309 @@
         <f t="shared" si="6"/>
         <v>Unit/Hero/2011_Witch_Poison.prefab</v>
       </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="40">
+        <v>2012</v>
+      </c>
+      <c r="B31" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="C31" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v>(원거리)Goblin_Stone</v>
+      </c>
+      <c r="D31" s="40">
+        <v>1</v>
+      </c>
+      <c r="E31" s="40">
+        <v>100</v>
+      </c>
+      <c r="F31" s="40">
+        <v>1</v>
+      </c>
+      <c r="G31" s="40">
+        <v>1</v>
+      </c>
+      <c r="H31" s="40">
+        <v>1</v>
+      </c>
+      <c r="I31" s="40">
+        <v>1</v>
+      </c>
+      <c r="J31" s="40" t="str">
+        <f t="shared" ref="J31:J37" si="8">"name_"&amp;A31</f>
+        <v>name_2012</v>
+      </c>
+      <c r="K31" s="40" t="str">
+        <f t="shared" ref="K31:K37" si="9">"unit_icon_"&amp;A31</f>
+        <v>unit_icon_2012</v>
+      </c>
+      <c r="L31" s="41" t="str">
+        <f t="shared" ref="L31:L37" si="10">"Unit/Hero/"&amp;A31&amp;"_"&amp;B31&amp;".prefab"</f>
+        <v>Unit/Hero/2012_Goblin_Stone.prefab</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="40">
+        <v>2013</v>
+      </c>
+      <c r="B32" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v>(근거리)Goblin_Club</v>
+      </c>
+      <c r="D32" s="40">
+        <v>0</v>
+      </c>
+      <c r="E32" s="40">
+        <v>100</v>
+      </c>
+      <c r="F32" s="40">
+        <v>1</v>
+      </c>
+      <c r="G32" s="40">
+        <v>1</v>
+      </c>
+      <c r="H32" s="40">
+        <v>1</v>
+      </c>
+      <c r="I32" s="40">
+        <v>1</v>
+      </c>
+      <c r="J32" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>name_2013</v>
+      </c>
+      <c r="K32" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>unit_icon_2013</v>
+      </c>
+      <c r="L32" s="41" t="str">
+        <f t="shared" si="10"/>
+        <v>Unit/Hero/2013_Goblin_Club.prefab</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="40">
+        <v>2014</v>
+      </c>
+      <c r="B33" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="C33" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v>(근거리)Goblin_Baby</v>
+      </c>
+      <c r="D33" s="40">
+        <v>0</v>
+      </c>
+      <c r="E33" s="40">
+        <v>100</v>
+      </c>
+      <c r="F33" s="40">
+        <v>1</v>
+      </c>
+      <c r="G33" s="40">
+        <v>1</v>
+      </c>
+      <c r="H33" s="40">
+        <v>1</v>
+      </c>
+      <c r="I33" s="40">
+        <v>1</v>
+      </c>
+      <c r="J33" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>name_2014</v>
+      </c>
+      <c r="K33" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>unit_icon_2014</v>
+      </c>
+      <c r="L33" s="41" t="str">
+        <f t="shared" si="10"/>
+        <v>Unit/Hero/2014_Goblin_Baby.prefab</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="40">
+        <v>2015</v>
+      </c>
+      <c r="B34" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="C34" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v>(원거리)Orc_Stone</v>
+      </c>
+      <c r="D34" s="40">
+        <v>1</v>
+      </c>
+      <c r="E34" s="40">
+        <v>100</v>
+      </c>
+      <c r="F34" s="40">
+        <v>1</v>
+      </c>
+      <c r="G34" s="40">
+        <v>1</v>
+      </c>
+      <c r="H34" s="40">
+        <v>1</v>
+      </c>
+      <c r="I34" s="40">
+        <v>1</v>
+      </c>
+      <c r="J34" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>name_2015</v>
+      </c>
+      <c r="K34" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>unit_icon_2015</v>
+      </c>
+      <c r="L34" s="41" t="str">
+        <f t="shared" si="10"/>
+        <v>Unit/Hero/2015_Orc_Stone.prefab</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="40">
+        <v>2016</v>
+      </c>
+      <c r="B35" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v>(근거리)Orc_Club</v>
+      </c>
+      <c r="D35" s="40">
+        <v>0</v>
+      </c>
+      <c r="E35" s="40">
+        <v>100</v>
+      </c>
+      <c r="F35" s="40">
+        <v>1</v>
+      </c>
+      <c r="G35" s="40">
+        <v>1</v>
+      </c>
+      <c r="H35" s="40">
+        <v>1</v>
+      </c>
+      <c r="I35" s="40">
+        <v>1</v>
+      </c>
+      <c r="J35" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>name_2016</v>
+      </c>
+      <c r="K35" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>unit_icon_2016</v>
+      </c>
+      <c r="L35" s="41" t="str">
+        <f t="shared" si="10"/>
+        <v>Unit/Hero/2016_Orc_Club.prefab</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="40">
+        <v>2017</v>
+      </c>
+      <c r="B36" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="C36" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v>(근거리)Dragon</v>
+      </c>
+      <c r="D36" s="40">
+        <v>0</v>
+      </c>
+      <c r="E36" s="40">
+        <v>100</v>
+      </c>
+      <c r="F36" s="40">
+        <v>1</v>
+      </c>
+      <c r="G36" s="40">
+        <v>1</v>
+      </c>
+      <c r="H36" s="40">
+        <v>1</v>
+      </c>
+      <c r="I36" s="40">
+        <v>1</v>
+      </c>
+      <c r="J36" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>name_2017</v>
+      </c>
+      <c r="K36" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>unit_icon_2017</v>
+      </c>
+      <c r="L36" s="41" t="str">
+        <f t="shared" si="10"/>
+        <v>Unit/Hero/2017_Dragon.prefab</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="40">
+        <v>2018</v>
+      </c>
+      <c r="B37" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="C37" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v>(원거리)Dragon_Fire</v>
+      </c>
+      <c r="D37" s="40">
+        <v>1</v>
+      </c>
+      <c r="E37" s="40">
+        <v>100</v>
+      </c>
+      <c r="F37" s="40">
+        <v>1</v>
+      </c>
+      <c r="G37" s="40">
+        <v>1</v>
+      </c>
+      <c r="H37" s="40">
+        <v>1</v>
+      </c>
+      <c r="I37" s="40">
+        <v>1</v>
+      </c>
+      <c r="J37" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>name_2018</v>
+      </c>
+      <c r="K37" s="40" t="str">
+        <f t="shared" si="9"/>
+        <v>unit_icon_2018</v>
+      </c>
+      <c r="L37" s="41" t="str">
+        <f t="shared" si="10"/>
+        <v>Unit/Hero/2018_Dragon_Fire.prefab</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="40"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="40"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="40"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4145,10 +4469,10 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:W31"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B31" activeCellId="5" sqref="B15:B17 B4 B19 B21 B23:B24 B31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4535,7 +4859,7 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="5">
-        <f t="shared" ref="A6:A31" si="1">A5+1</f>
+        <f t="shared" ref="A6:A40" si="1">A5+1</f>
         <v>3</v>
       </c>
       <c r="B6" s="5">
@@ -6456,6 +6780,679 @@
       <c r="W31" s="5">
         <v>2</v>
       </c>
+    </row>
+    <row r="32" spans="1:23" ht="15" thickBot="1">
+      <c r="A32" s="5">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="B32" s="5">
+        <v>2010</v>
+      </c>
+      <c r="C32" s="20" t="str">
+        <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B32,Unitinfo!A:A,0))</f>
+        <v>(원거리)Witch_Thunder</v>
+      </c>
+      <c r="D32" s="21">
+        <v>1</v>
+      </c>
+      <c r="E32" s="9">
+        <v>10</v>
+      </c>
+      <c r="F32" s="5">
+        <v>100</v>
+      </c>
+      <c r="G32" s="5">
+        <v>10</v>
+      </c>
+      <c r="H32" s="5">
+        <v>5</v>
+      </c>
+      <c r="I32" s="42">
+        <v>50</v>
+      </c>
+      <c r="J32" s="5">
+        <v>1</v>
+      </c>
+      <c r="K32" s="5">
+        <v>1</v>
+      </c>
+      <c r="L32" s="5">
+        <v>0</v>
+      </c>
+      <c r="M32" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N32" s="5">
+        <f t="shared" ref="N32:N40" si="2">B32</f>
+        <v>2010</v>
+      </c>
+      <c r="O32" s="5">
+        <v>0</v>
+      </c>
+      <c r="P32" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="R32" s="5">
+        <v>0</v>
+      </c>
+      <c r="S32" s="5">
+        <v>1</v>
+      </c>
+      <c r="T32" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="U32" s="5">
+        <v>2</v>
+      </c>
+      <c r="V32" s="5">
+        <v>10</v>
+      </c>
+      <c r="W32" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="15" thickBot="1">
+      <c r="A33" s="5">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B33" s="5">
+        <v>2011</v>
+      </c>
+      <c r="C33" s="20" t="str">
+        <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B33,Unitinfo!A:A,0))</f>
+        <v>(원거리)Witch_Poison</v>
+      </c>
+      <c r="D33" s="21">
+        <v>1</v>
+      </c>
+      <c r="E33" s="9">
+        <v>10</v>
+      </c>
+      <c r="F33" s="5">
+        <v>100</v>
+      </c>
+      <c r="G33" s="5">
+        <v>10</v>
+      </c>
+      <c r="H33" s="5">
+        <v>5</v>
+      </c>
+      <c r="I33" s="42">
+        <v>50</v>
+      </c>
+      <c r="J33" s="5">
+        <v>1</v>
+      </c>
+      <c r="K33" s="5">
+        <v>1</v>
+      </c>
+      <c r="L33" s="5">
+        <v>0</v>
+      </c>
+      <c r="M33" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N33" s="5">
+        <f t="shared" si="2"/>
+        <v>2011</v>
+      </c>
+      <c r="O33" s="5">
+        <v>0</v>
+      </c>
+      <c r="P33" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="R33" s="5">
+        <v>0</v>
+      </c>
+      <c r="S33" s="5">
+        <v>1</v>
+      </c>
+      <c r="T33" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="U33" s="5">
+        <v>2</v>
+      </c>
+      <c r="V33" s="5">
+        <v>10</v>
+      </c>
+      <c r="W33" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" ht="15" thickBot="1">
+      <c r="A34" s="5">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B34" s="5">
+        <v>2012</v>
+      </c>
+      <c r="C34" s="20" t="str">
+        <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B34,Unitinfo!A:A,0))</f>
+        <v>(원거리)Goblin_Stone</v>
+      </c>
+      <c r="D34" s="21">
+        <v>1</v>
+      </c>
+      <c r="E34" s="9">
+        <v>10</v>
+      </c>
+      <c r="F34" s="5">
+        <v>100</v>
+      </c>
+      <c r="G34" s="5">
+        <v>10</v>
+      </c>
+      <c r="H34" s="5">
+        <v>5</v>
+      </c>
+      <c r="I34" s="42">
+        <v>50</v>
+      </c>
+      <c r="J34" s="5">
+        <v>1</v>
+      </c>
+      <c r="K34" s="5">
+        <v>1</v>
+      </c>
+      <c r="L34" s="5">
+        <v>0</v>
+      </c>
+      <c r="M34" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N34" s="5">
+        <f t="shared" si="2"/>
+        <v>2012</v>
+      </c>
+      <c r="O34" s="5">
+        <v>0</v>
+      </c>
+      <c r="P34" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="R34" s="5">
+        <v>0</v>
+      </c>
+      <c r="S34" s="5">
+        <v>1</v>
+      </c>
+      <c r="T34" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="U34" s="5">
+        <v>2</v>
+      </c>
+      <c r="V34" s="5">
+        <v>10</v>
+      </c>
+      <c r="W34" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="15" thickBot="1">
+      <c r="A35" s="5">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B35" s="5">
+        <v>2013</v>
+      </c>
+      <c r="C35" s="20" t="str">
+        <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B35,Unitinfo!A:A,0))</f>
+        <v>(근거리)Goblin_Club</v>
+      </c>
+      <c r="D35" s="21">
+        <v>1</v>
+      </c>
+      <c r="E35" s="9">
+        <v>10</v>
+      </c>
+      <c r="F35" s="5">
+        <v>100</v>
+      </c>
+      <c r="G35" s="5">
+        <v>10</v>
+      </c>
+      <c r="H35" s="5">
+        <v>5</v>
+      </c>
+      <c r="I35" s="42">
+        <v>10</v>
+      </c>
+      <c r="J35" s="5">
+        <v>1</v>
+      </c>
+      <c r="K35" s="5">
+        <v>1</v>
+      </c>
+      <c r="L35" s="5">
+        <v>0</v>
+      </c>
+      <c r="M35" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N35" s="5">
+        <f t="shared" si="2"/>
+        <v>2013</v>
+      </c>
+      <c r="O35" s="5">
+        <v>0</v>
+      </c>
+      <c r="P35" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="R35" s="5">
+        <v>0</v>
+      </c>
+      <c r="S35" s="5">
+        <v>1</v>
+      </c>
+      <c r="T35" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="U35" s="5">
+        <v>2</v>
+      </c>
+      <c r="V35" s="5">
+        <v>10</v>
+      </c>
+      <c r="W35" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="15" thickBot="1">
+      <c r="A36" s="5">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="B36" s="5">
+        <v>2014</v>
+      </c>
+      <c r="C36" s="20" t="str">
+        <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B36,Unitinfo!A:A,0))</f>
+        <v>(근거리)Goblin_Baby</v>
+      </c>
+      <c r="D36" s="21">
+        <v>1</v>
+      </c>
+      <c r="E36" s="9">
+        <v>10</v>
+      </c>
+      <c r="F36" s="5">
+        <v>100</v>
+      </c>
+      <c r="G36" s="5">
+        <v>10</v>
+      </c>
+      <c r="H36" s="5">
+        <v>5</v>
+      </c>
+      <c r="I36" s="42">
+        <v>10</v>
+      </c>
+      <c r="J36" s="5">
+        <v>1</v>
+      </c>
+      <c r="K36" s="5">
+        <v>1</v>
+      </c>
+      <c r="L36" s="5">
+        <v>0</v>
+      </c>
+      <c r="M36" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N36" s="5">
+        <f t="shared" si="2"/>
+        <v>2014</v>
+      </c>
+      <c r="O36" s="5">
+        <v>0</v>
+      </c>
+      <c r="P36" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="R36" s="5">
+        <v>0</v>
+      </c>
+      <c r="S36" s="5">
+        <v>1</v>
+      </c>
+      <c r="T36" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="U36" s="5">
+        <v>2</v>
+      </c>
+      <c r="V36" s="5">
+        <v>10</v>
+      </c>
+      <c r="W36" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="15" thickBot="1">
+      <c r="A37" s="5">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="B37" s="5">
+        <v>2015</v>
+      </c>
+      <c r="C37" s="20" t="str">
+        <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B37,Unitinfo!A:A,0))</f>
+        <v>(원거리)Orc_Stone</v>
+      </c>
+      <c r="D37" s="21">
+        <v>1</v>
+      </c>
+      <c r="E37" s="9">
+        <v>10</v>
+      </c>
+      <c r="F37" s="5">
+        <v>100</v>
+      </c>
+      <c r="G37" s="5">
+        <v>10</v>
+      </c>
+      <c r="H37" s="5">
+        <v>5</v>
+      </c>
+      <c r="I37" s="42">
+        <v>50</v>
+      </c>
+      <c r="J37" s="5">
+        <v>1</v>
+      </c>
+      <c r="K37" s="5">
+        <v>1</v>
+      </c>
+      <c r="L37" s="5">
+        <v>0</v>
+      </c>
+      <c r="M37" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N37" s="5">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="O37" s="5">
+        <v>0</v>
+      </c>
+      <c r="P37" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="R37" s="5">
+        <v>0</v>
+      </c>
+      <c r="S37" s="5">
+        <v>1</v>
+      </c>
+      <c r="T37" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="U37" s="5">
+        <v>2</v>
+      </c>
+      <c r="V37" s="5">
+        <v>10</v>
+      </c>
+      <c r="W37" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="15" thickBot="1">
+      <c r="A38" s="5">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="B38" s="5">
+        <v>2016</v>
+      </c>
+      <c r="C38" s="20" t="str">
+        <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B38,Unitinfo!A:A,0))</f>
+        <v>(근거리)Orc_Club</v>
+      </c>
+      <c r="D38" s="21">
+        <v>1</v>
+      </c>
+      <c r="E38" s="9">
+        <v>10</v>
+      </c>
+      <c r="F38" s="5">
+        <v>100</v>
+      </c>
+      <c r="G38" s="5">
+        <v>10</v>
+      </c>
+      <c r="H38" s="5">
+        <v>5</v>
+      </c>
+      <c r="I38" s="42">
+        <v>10</v>
+      </c>
+      <c r="J38" s="5">
+        <v>1</v>
+      </c>
+      <c r="K38" s="5">
+        <v>1</v>
+      </c>
+      <c r="L38" s="5">
+        <v>0</v>
+      </c>
+      <c r="M38" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N38" s="5">
+        <f t="shared" si="2"/>
+        <v>2016</v>
+      </c>
+      <c r="O38" s="5">
+        <v>0</v>
+      </c>
+      <c r="P38" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="R38" s="5">
+        <v>0</v>
+      </c>
+      <c r="S38" s="5">
+        <v>1</v>
+      </c>
+      <c r="T38" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="U38" s="5">
+        <v>2</v>
+      </c>
+      <c r="V38" s="5">
+        <v>10</v>
+      </c>
+      <c r="W38" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="15" thickBot="1">
+      <c r="A39" s="5">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="B39" s="5">
+        <v>2017</v>
+      </c>
+      <c r="C39" s="20" t="str">
+        <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B39,Unitinfo!A:A,0))</f>
+        <v>(근거리)Dragon</v>
+      </c>
+      <c r="D39" s="21">
+        <v>1</v>
+      </c>
+      <c r="E39" s="9">
+        <v>10</v>
+      </c>
+      <c r="F39" s="5">
+        <v>100</v>
+      </c>
+      <c r="G39" s="5">
+        <v>10</v>
+      </c>
+      <c r="H39" s="5">
+        <v>5</v>
+      </c>
+      <c r="I39" s="42">
+        <v>50</v>
+      </c>
+      <c r="J39" s="5">
+        <v>1</v>
+      </c>
+      <c r="K39" s="5">
+        <v>10</v>
+      </c>
+      <c r="L39" s="5">
+        <v>0</v>
+      </c>
+      <c r="M39" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N39" s="5">
+        <f t="shared" si="2"/>
+        <v>2017</v>
+      </c>
+      <c r="O39" s="5">
+        <v>0</v>
+      </c>
+      <c r="P39" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="R39" s="5">
+        <v>0</v>
+      </c>
+      <c r="S39" s="5">
+        <v>1</v>
+      </c>
+      <c r="T39" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="U39" s="5">
+        <v>2</v>
+      </c>
+      <c r="V39" s="5">
+        <v>10</v>
+      </c>
+      <c r="W39" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="15" thickBot="1">
+      <c r="A40" s="5">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="B40" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C40" s="20" t="str">
+        <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B40,Unitinfo!A:A,0))</f>
+        <v>(원거리)Dragon_Fire</v>
+      </c>
+      <c r="D40" s="21">
+        <v>1</v>
+      </c>
+      <c r="E40" s="9">
+        <v>10</v>
+      </c>
+      <c r="F40" s="5">
+        <v>100</v>
+      </c>
+      <c r="G40" s="5">
+        <v>10</v>
+      </c>
+      <c r="H40" s="5">
+        <v>5</v>
+      </c>
+      <c r="I40" s="42">
+        <v>50</v>
+      </c>
+      <c r="J40" s="5">
+        <v>1</v>
+      </c>
+      <c r="K40" s="5">
+        <v>1</v>
+      </c>
+      <c r="L40" s="5">
+        <v>0</v>
+      </c>
+      <c r="M40" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N40" s="5">
+        <f t="shared" si="2"/>
+        <v>2018</v>
+      </c>
+      <c r="O40" s="5">
+        <v>0</v>
+      </c>
+      <c r="P40" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="R40" s="5">
+        <v>0</v>
+      </c>
+      <c r="S40" s="5">
+        <v>1</v>
+      </c>
+      <c r="T40" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="U40" s="5">
+        <v>2</v>
+      </c>
+      <c r="V40" s="5">
+        <v>10</v>
+      </c>
+      <c r="W40" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -6482,7 +7479,7 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="1"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I4:I31</xm:sqref>
+          <xm:sqref>I4:I40</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -6497,8 +7494,8 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6648,34 +7645,74 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="5">
+        <v>2010</v>
+      </c>
+      <c r="B13" s="5">
+        <v>5</v>
+      </c>
+      <c r="C13" t="str">
+        <f>"Projectile/"&amp;A13&amp;"_"&amp;INDEX(Unitinfo!B:B,MATCH(A13,Unitinfo!A:A,0))&amp;"_Bullet.prefab"</f>
+        <v>Projectile/2010_Witch_Thunder_Bullet.prefab</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
+      <c r="A14" s="5">
+        <v>2011</v>
+      </c>
+      <c r="B14" s="5">
+        <v>5</v>
+      </c>
+      <c r="C14" t="str">
+        <f>"Projectile/"&amp;A14&amp;"_"&amp;INDEX(Unitinfo!B:B,MATCH(A14,Unitinfo!A:A,0))&amp;"_Bullet.prefab"</f>
+        <v>Projectile/2011_Witch_Poison_Bullet.prefab</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
+      <c r="A15" s="5">
+        <v>2012</v>
+      </c>
+      <c r="B15" s="5">
+        <v>5</v>
+      </c>
+      <c r="C15" t="str">
+        <f>"Projectile/"&amp;A15&amp;"_"&amp;INDEX(Unitinfo!B:B,MATCH(A15,Unitinfo!A:A,0))&amp;"_Bullet.prefab"</f>
+        <v>Projectile/2012_Goblin_Stone_Bullet.prefab</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="A16" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B16" s="5">
+        <v>5</v>
+      </c>
+      <c r="C16" t="str">
+        <f>"Projectile/"&amp;A16&amp;"_"&amp;INDEX(Unitinfo!B:B,MATCH(A16,Unitinfo!A:A,0))&amp;"_Bullet.prefab"</f>
+        <v>Projectile/2015_Orc_Stone_Bullet.prefab</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B17" s="5">
+        <v>5</v>
+      </c>
+      <c r="C17" t="str">
+        <f>"Projectile/"&amp;A17&amp;"_"&amp;INDEX(Unitinfo!B:B,MATCH(A17,Unitinfo!A:A,0))&amp;"_Bullet.prefab"</f>
+        <v>Projectile/2018_Dragon_Fire_Bullet.prefab</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:3">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:3">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
     </row>
@@ -7491,10 +8528,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7556,7 +8593,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -7570,7 +8607,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -7584,7 +8621,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -7598,7 +8635,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -7612,7 +8649,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -7626,7 +8663,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -7640,7 +8677,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -7654,7 +8691,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -7668,7 +8705,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -7682,7 +8719,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -7696,7 +8733,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="5">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -7710,7 +8747,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="5">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -7724,7 +8761,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="5">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -7738,7 +8775,133 @@
         <v>1</v>
       </c>
       <c r="D17" s="5">
-        <v>100</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" s="5">
+        <v>2010</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" s="5">
+        <v>2011</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" s="5">
+        <v>2012</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" s="5">
+        <v>2013</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" s="5">
+        <v>2014</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" s="5">
+        <v>2015</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" s="5">
+        <v>2016</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" s="5">
+        <v>2017</v>
+      </c>
+      <c r="C25" s="5">
+        <v>1</v>
+      </c>
+      <c r="D25" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ejup\Desktop\GameJam\ExcelToCSV\SrcFolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GameJam\ExcelToCSV\SrcFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89D7ADE-6CF1-4D8C-A3F4-FBFFC73F8402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2256" yWindow="732" windowWidth="24192" windowHeight="12156" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigTable" sheetId="18" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <sheet name="GachaList" sheetId="28" r:id="rId9"/>
     <sheet name="reference" sheetId="31" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -41,12 +42,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ejup</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -95,12 +96,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ejup</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -141,12 +142,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ejup</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -187,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="215">
   <si>
     <t>type</t>
   </si>
@@ -938,9 +939,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>item_type</t>
-  </si>
-  <si>
     <t>rewardId</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1260,11 +1258,23 @@
   <si>
     <t>Dragon_Fire</t>
   </si>
+  <si>
+    <t>item_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20">
     <font>
       <sz val="11"/>
@@ -1930,18 +1940,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F33" sqref="C33:F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1986,7 +1996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17.399999999999999">
+    <row r="4" spans="1:4" ht="16.5">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -2000,7 +2010,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17.399999999999999">
+    <row r="5" spans="1:4" ht="16.5">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -2014,7 +2024,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17.399999999999999">
+    <row r="6" spans="1:4" ht="16.5">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -2036,44 +2046,44 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="45"/>
-    <col min="2" max="2" width="16.88671875" style="45" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" style="45" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="45"/>
+    <col min="1" max="1" width="8.85546875" style="45"/>
+    <col min="2" max="2" width="16.85546875" style="45" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="45" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="45"/>
     <col min="5" max="7" width="12" style="45" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="45"/>
+    <col min="8" max="16384" width="8.85546875" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.8" thickBot="1">
+    <row r="1" spans="1:7" ht="12.75" thickBot="1">
       <c r="A1" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="44" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="C1" s="44" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="44" t="s">
-        <v>180</v>
-      </c>
       <c r="E1" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1" s="45" t="s">
         <v>186</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="G1" s="45" t="s">
         <v>187</v>
       </c>
-      <c r="G1" s="45" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="13.8" thickBot="1">
+    </row>
+    <row r="2" spans="1:7" ht="12.75" thickBot="1">
       <c r="A2" s="46">
         <v>1</v>
       </c>
@@ -2084,7 +2094,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="45" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F2" s="45">
         <v>3</v>
@@ -2093,7 +2103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13.8" thickBot="1">
+    <row r="3" spans="1:7" ht="12.75" thickBot="1">
       <c r="A3" s="46">
         <v>2</v>
       </c>
@@ -2104,7 +2114,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="45" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F3" s="45">
         <v>100</v>
@@ -2113,7 +2123,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13.8" thickBot="1">
+    <row r="4" spans="1:7" ht="12.75" thickBot="1">
       <c r="A4" s="46">
         <v>3</v>
       </c>
@@ -2124,7 +2134,7 @@
         <v>35</v>
       </c>
       <c r="E4" s="45" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F4" s="45">
         <v>0.2</v>
@@ -2133,7 +2143,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="13.8" thickBot="1">
+    <row r="5" spans="1:7" ht="12.75" thickBot="1">
       <c r="A5" s="46">
         <v>4</v>
       </c>
@@ -2144,7 +2154,7 @@
         <v>55</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F5" s="45">
         <v>1</v>
@@ -2155,7 +2165,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="E6" s="45" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F6" s="45">
         <v>25</v>
@@ -2166,7 +2176,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="E7" s="45" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F7" s="45">
         <v>5</v>
@@ -2177,7 +2187,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="E8" s="45" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F8" s="45">
         <v>0.2</v>
@@ -2188,7 +2198,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="E9" s="45" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F9" s="45">
         <v>1</v>
@@ -2199,7 +2209,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="E10" s="45" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F10" s="45">
         <v>0.2</v>
@@ -2210,7 +2220,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="E11" s="45" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F11" s="45">
         <v>1</v>
@@ -2222,19 +2232,19 @@
     <row r="19" spans="1:6">
       <c r="A19" s="48"/>
       <c r="B19" s="45" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C19" s="48" t="s">
+        <v>182</v>
+      </c>
+      <c r="D19" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="D19" s="48" t="s">
-        <v>184</v>
-      </c>
       <c r="E19" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="F19" s="48" t="s">
         <v>197</v>
-      </c>
-      <c r="F19" s="48" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2517,19 +2527,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B12"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" customWidth="1"/>
-    <col min="5" max="5" width="25.109375" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2636,7 +2646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -2650,7 +2660,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -2664,7 +2674,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15">
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -2678,7 +2688,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15">
+    <row r="9" spans="1:7">
       <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
@@ -2692,7 +2702,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15">
+    <row r="10" spans="1:7">
       <c r="A10" s="8" t="s">
         <v>28</v>
       </c>
@@ -2720,7 +2730,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15">
+    <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
         <v>55</v>
       </c>
@@ -2734,7 +2744,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15">
+    <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
         <v>62</v>
       </c>
@@ -2748,18 +2758,18 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17.399999999999999">
+    <row r="14" spans="1:7" ht="16.5">
       <c r="A14" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="26" t="s">
         <v>122</v>
-      </c>
-      <c r="C14" s="4">
-        <v>1</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2800,7 +2810,7 @@
       </c>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:4" ht="17.399999999999999">
+    <row r="18" spans="1:4" ht="16.5">
       <c r="A18" s="2" t="s">
         <v>104</v>
       </c>
@@ -2812,7 +2822,7 @@
       </c>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="1:4" ht="17.399999999999999">
+    <row r="19" spans="1:4" ht="16.5">
       <c r="A19" s="2" t="s">
         <v>104</v>
       </c>
@@ -2848,7 +2858,7 @@
       </c>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4" ht="17.399999999999999">
+    <row r="22" spans="1:4" ht="16.5">
       <c r="A22" s="2" t="s">
         <v>104</v>
       </c>
@@ -2860,7 +2870,7 @@
       </c>
       <c r="D22" s="8"/>
     </row>
-    <row r="23" spans="1:4" ht="17.399999999999999">
+    <row r="23" spans="1:4" ht="16.5">
       <c r="A23" s="2" t="s">
         <v>104</v>
       </c>
@@ -2880,7 +2890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
@@ -2890,21 +2900,21 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12" style="38" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" style="38" customWidth="1"/>
-    <col min="3" max="3" width="24.77734375" style="38" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" style="38" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="38" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" style="38" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" style="38" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" style="38" customWidth="1"/>
-    <col min="9" max="9" width="12.21875" style="38" customWidth="1"/>
-    <col min="10" max="10" width="15.5546875" style="38" customWidth="1"/>
-    <col min="11" max="11" width="25.5546875" style="38" customWidth="1"/>
-    <col min="12" max="12" width="45.44140625" style="38" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="38"/>
+    <col min="2" max="2" width="24.5703125" style="38" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="38" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="38" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="38" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="38" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="38" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="38" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" style="38" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="38" customWidth="1"/>
+    <col min="11" max="11" width="25.5703125" style="38" customWidth="1"/>
+    <col min="12" max="12" width="45.42578125" style="38" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="35" customFormat="1">
@@ -2912,10 +2922,10 @@
         <v>42</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D1" s="34" t="s">
         <v>55</v>
@@ -2950,10 +2960,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D2" s="36" t="s">
         <v>55</v>
@@ -2988,10 +2998,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D3" s="39" t="s">
         <v>2</v>
@@ -3026,7 +3036,7 @@
         <v>1001</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C4" s="41" t="str">
         <f>IF(D4=1,"(원거리)","(근거리)")&amp;B4</f>
@@ -3068,7 +3078,7 @@
         <v>1002</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C5" s="41" t="str">
         <f t="shared" ref="C5:C37" si="1">IF(D5=1,"(원거리)","(근거리)")&amp;B5</f>
@@ -3110,7 +3120,7 @@
         <v>1003</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C6" s="41" t="str">
         <f t="shared" si="1"/>
@@ -3152,7 +3162,7 @@
         <v>1004</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C7" s="41" t="str">
         <f t="shared" si="1"/>
@@ -3194,7 +3204,7 @@
         <v>1005</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C8" s="41" t="str">
         <f t="shared" si="1"/>
@@ -3236,7 +3246,7 @@
         <v>1006</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C9" s="41" t="str">
         <f t="shared" si="1"/>
@@ -3278,7 +3288,7 @@
         <v>1007</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C10" s="41" t="str">
         <f t="shared" si="1"/>
@@ -3320,7 +3330,7 @@
         <v>1008</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C11" s="41" t="str">
         <f t="shared" si="1"/>
@@ -3362,7 +3372,7 @@
         <v>1009</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C12" s="41" t="str">
         <f t="shared" si="1"/>
@@ -3404,7 +3414,7 @@
         <v>1010</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C13" s="41" t="str">
         <f t="shared" si="1"/>
@@ -3446,7 +3456,7 @@
         <v>1011</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C14" s="41" t="str">
         <f t="shared" si="1"/>
@@ -3488,7 +3498,7 @@
         <v>1012</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C15" s="41" t="str">
         <f t="shared" si="1"/>
@@ -3530,7 +3540,7 @@
         <v>1013</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C16" s="41" t="str">
         <f t="shared" si="1"/>
@@ -3572,7 +3582,7 @@
         <v>1014</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C17" s="41" t="str">
         <f t="shared" si="1"/>
@@ -3614,7 +3624,7 @@
         <v>1015</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C18" s="41" t="str">
         <f t="shared" si="1"/>
@@ -3656,7 +3666,7 @@
         <v>1016</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C19" s="41" t="str">
         <f t="shared" si="1"/>
@@ -3698,7 +3708,7 @@
         <v>2001</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C20" s="41" t="str">
         <f t="shared" si="1"/>
@@ -3740,7 +3750,7 @@
         <v>2002</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C21" s="41" t="str">
         <f t="shared" si="1"/>
@@ -3782,7 +3792,7 @@
         <v>2003</v>
       </c>
       <c r="B22" s="40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C22" s="41" t="str">
         <f t="shared" si="1"/>
@@ -3824,7 +3834,7 @@
         <v>2004</v>
       </c>
       <c r="B23" s="40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C23" s="41" t="str">
         <f t="shared" si="1"/>
@@ -3866,7 +3876,7 @@
         <v>2005</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C24" s="41" t="str">
         <f t="shared" si="1"/>
@@ -3908,7 +3918,7 @@
         <v>2006</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C25" s="41" t="str">
         <f t="shared" si="1"/>
@@ -3950,7 +3960,7 @@
         <v>2007</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C26" s="41" t="str">
         <f t="shared" si="1"/>
@@ -3992,7 +4002,7 @@
         <v>2008</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C27" s="41" t="str">
         <f t="shared" si="1"/>
@@ -4034,7 +4044,7 @@
         <v>2009</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C28" s="41" t="str">
         <f t="shared" si="1"/>
@@ -4076,7 +4086,7 @@
         <v>2010</v>
       </c>
       <c r="B29" s="40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C29" s="41" t="str">
         <f t="shared" si="1"/>
@@ -4118,7 +4128,7 @@
         <v>2011</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C30" s="41" t="str">
         <f t="shared" si="1"/>
@@ -4160,7 +4170,7 @@
         <v>2012</v>
       </c>
       <c r="B31" s="40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C31" s="41" t="str">
         <f t="shared" si="1"/>
@@ -4202,7 +4212,7 @@
         <v>2013</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C32" s="41" t="str">
         <f t="shared" si="1"/>
@@ -4244,7 +4254,7 @@
         <v>2014</v>
       </c>
       <c r="B33" s="40" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C33" s="41" t="str">
         <f t="shared" si="1"/>
@@ -4286,7 +4296,7 @@
         <v>2015</v>
       </c>
       <c r="B34" s="40" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C34" s="41" t="str">
         <f t="shared" si="1"/>
@@ -4328,7 +4338,7 @@
         <v>2016</v>
       </c>
       <c r="B35" s="40" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C35" s="41" t="str">
         <f t="shared" si="1"/>
@@ -4370,7 +4380,7 @@
         <v>2017</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C36" s="41" t="str">
         <f t="shared" si="1"/>
@@ -4412,7 +4422,7 @@
         <v>2018</v>
       </c>
       <c r="B37" s="40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C37" s="41" t="str">
         <f t="shared" si="1"/>
@@ -4465,36 +4475,36 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
   <dimension ref="A1:W42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="15.5546875" customWidth="1"/>
-    <col min="3" max="3" width="23.5546875" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" customWidth="1"/>
-    <col min="9" max="10" width="15.5546875" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" customWidth="1"/>
-    <col min="12" max="12" width="18.109375" customWidth="1"/>
-    <col min="13" max="14" width="18.6640625" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.5546875" customWidth="1"/>
-    <col min="18" max="19" width="12.33203125" customWidth="1"/>
-    <col min="20" max="20" width="27.5546875" style="20" customWidth="1"/>
-    <col min="21" max="22" width="16.33203125" customWidth="1"/>
-    <col min="23" max="23" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="9" max="10" width="15.5703125" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" customWidth="1"/>
+    <col min="13" max="14" width="18.7109375" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.5703125" customWidth="1"/>
+    <col min="18" max="19" width="12.28515625" customWidth="1"/>
+    <col min="20" max="20" width="27.5703125" style="20" customWidth="1"/>
+    <col min="21" max="22" width="16.28515625" customWidth="1"/>
+    <col min="23" max="23" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="13" customFormat="1">
@@ -4505,7 +4515,7 @@
         <v>50</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>51</v>
@@ -4517,13 +4527,13 @@
         <v>52</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H1" s="31" t="s">
         <v>53</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J1" s="31" t="s">
         <v>54</v>
@@ -4532,7 +4542,7 @@
         <v>58</v>
       </c>
       <c r="L1" s="31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M1" s="31" t="s">
         <v>56</v>
@@ -4547,7 +4557,7 @@
         <v>59</v>
       </c>
       <c r="Q1" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R1" s="14" t="s">
         <v>86</v>
@@ -4576,7 +4586,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>1</v>
@@ -4647,7 +4657,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>2</v>
@@ -4762,7 +4772,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R4" s="5">
         <v>0</v>
@@ -4771,7 +4781,7 @@
         <v>1</v>
       </c>
       <c r="T4" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U4" s="5">
         <v>2</v>
@@ -4836,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="Q5" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R5" s="5">
         <v>0</v>
@@ -4845,7 +4855,7 @@
         <v>1</v>
       </c>
       <c r="T5" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U5" s="5">
         <v>2</v>
@@ -4910,7 +4920,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R6" s="5">
         <v>0</v>
@@ -4919,7 +4929,7 @@
         <v>1</v>
       </c>
       <c r="T6" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U6" s="5">
         <v>2</v>
@@ -4984,7 +4994,7 @@
         <v>0</v>
       </c>
       <c r="Q7" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R7" s="5">
         <v>0</v>
@@ -4993,7 +5003,7 @@
         <v>1</v>
       </c>
       <c r="T7" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U7" s="5">
         <v>2</v>
@@ -5058,7 +5068,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R8" s="5">
         <v>0</v>
@@ -5067,7 +5077,7 @@
         <v>1</v>
       </c>
       <c r="T8" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U8" s="5">
         <v>2</v>
@@ -5132,7 +5142,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R9" s="5">
         <v>0</v>
@@ -5141,7 +5151,7 @@
         <v>1</v>
       </c>
       <c r="T9" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U9" s="5">
         <v>2</v>
@@ -5206,7 +5216,7 @@
         <v>0</v>
       </c>
       <c r="Q10" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R10" s="5">
         <v>0</v>
@@ -5215,7 +5225,7 @@
         <v>1</v>
       </c>
       <c r="T10" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U10" s="5">
         <v>2</v>
@@ -5280,7 +5290,7 @@
         <v>0</v>
       </c>
       <c r="Q11" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R11" s="5">
         <v>0</v>
@@ -5289,7 +5299,7 @@
         <v>1</v>
       </c>
       <c r="T11" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U11" s="5">
         <v>2</v>
@@ -5354,7 +5364,7 @@
         <v>0</v>
       </c>
       <c r="Q12" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R12" s="5">
         <v>0</v>
@@ -5363,7 +5373,7 @@
         <v>1</v>
       </c>
       <c r="T12" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U12" s="5">
         <v>2</v>
@@ -5428,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R13" s="5">
         <v>0</v>
@@ -5437,7 +5447,7 @@
         <v>1</v>
       </c>
       <c r="T13" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U13" s="5">
         <v>2</v>
@@ -5502,7 +5512,7 @@
         <v>0</v>
       </c>
       <c r="Q14" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R14" s="5">
         <v>0</v>
@@ -5511,7 +5521,7 @@
         <v>1</v>
       </c>
       <c r="T14" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U14" s="5">
         <v>2</v>
@@ -5576,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R15" s="5">
         <v>0</v>
@@ -5585,7 +5595,7 @@
         <v>1</v>
       </c>
       <c r="T15" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U15" s="5">
         <v>2</v>
@@ -5650,7 +5660,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R16" s="5">
         <v>0</v>
@@ -5659,7 +5669,7 @@
         <v>1</v>
       </c>
       <c r="T16" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U16" s="5">
         <v>2</v>
@@ -5724,7 +5734,7 @@
         <v>0</v>
       </c>
       <c r="Q17" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R17" s="5">
         <v>0</v>
@@ -5733,7 +5743,7 @@
         <v>1</v>
       </c>
       <c r="T17" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U17" s="5">
         <v>2</v>
@@ -5798,7 +5808,7 @@
         <v>0</v>
       </c>
       <c r="Q18" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R18" s="5">
         <v>0</v>
@@ -5807,7 +5817,7 @@
         <v>1</v>
       </c>
       <c r="T18" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U18" s="5">
         <v>2</v>
@@ -5872,7 +5882,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R19" s="5">
         <v>0</v>
@@ -5881,7 +5891,7 @@
         <v>1</v>
       </c>
       <c r="T19" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U19" s="5">
         <v>2</v>
@@ -5946,7 +5956,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R20" s="5">
         <v>0</v>
@@ -5955,7 +5965,7 @@
         <v>1</v>
       </c>
       <c r="T20" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U20" s="5">
         <v>2</v>
@@ -6020,7 +6030,7 @@
         <v>0</v>
       </c>
       <c r="Q21" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R21" s="5">
         <v>0</v>
@@ -6029,7 +6039,7 @@
         <v>1</v>
       </c>
       <c r="T21" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U21" s="5">
         <v>2</v>
@@ -6094,7 +6104,7 @@
         <v>0</v>
       </c>
       <c r="Q22" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R22" s="5">
         <v>0</v>
@@ -6103,7 +6113,7 @@
         <v>1</v>
       </c>
       <c r="T22" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U22" s="5">
         <v>2</v>
@@ -6115,7 +6125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="15" thickBot="1">
+    <row r="23" spans="1:23" ht="15.75" thickBot="1">
       <c r="A23" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -6168,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="Q23" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R23" s="5">
         <v>0</v>
@@ -6177,7 +6187,7 @@
         <v>1</v>
       </c>
       <c r="T23" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U23" s="5">
         <v>2</v>
@@ -6189,7 +6199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="15" thickBot="1">
+    <row r="24" spans="1:23" ht="15.75" thickBot="1">
       <c r="A24" s="5">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -6242,7 +6252,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R24" s="5">
         <v>0</v>
@@ -6251,7 +6261,7 @@
         <v>1</v>
       </c>
       <c r="T24" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U24" s="5">
         <v>2</v>
@@ -6316,7 +6326,7 @@
         <v>0</v>
       </c>
       <c r="Q25" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R25" s="5">
         <v>0</v>
@@ -6325,7 +6335,7 @@
         <v>1</v>
       </c>
       <c r="T25" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U25" s="5">
         <v>2</v>
@@ -6337,7 +6347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="15" thickBot="1">
+    <row r="26" spans="1:23" ht="15.75" thickBot="1">
       <c r="A26" s="5">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -6390,7 +6400,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R26" s="5">
         <v>0</v>
@@ -6399,7 +6409,7 @@
         <v>1</v>
       </c>
       <c r="T26" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U26" s="5">
         <v>2</v>
@@ -6411,7 +6421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="15" thickBot="1">
+    <row r="27" spans="1:23" ht="15.75" thickBot="1">
       <c r="A27" s="5">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -6464,7 +6474,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R27" s="5">
         <v>0</v>
@@ -6473,7 +6483,7 @@
         <v>1</v>
       </c>
       <c r="T27" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U27" s="5">
         <v>2</v>
@@ -6485,7 +6495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="15" thickBot="1">
+    <row r="28" spans="1:23" ht="15.75" thickBot="1">
       <c r="A28" s="5">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -6538,7 +6548,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R28" s="5">
         <v>0</v>
@@ -6547,7 +6557,7 @@
         <v>1</v>
       </c>
       <c r="T28" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U28" s="5">
         <v>2</v>
@@ -6559,7 +6569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="15" thickBot="1">
+    <row r="29" spans="1:23" ht="15.75" thickBot="1">
       <c r="A29" s="5">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -6612,7 +6622,7 @@
         <v>0</v>
       </c>
       <c r="Q29" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R29" s="5">
         <v>0</v>
@@ -6621,7 +6631,7 @@
         <v>1</v>
       </c>
       <c r="T29" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U29" s="5">
         <v>2</v>
@@ -6633,7 +6643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="15" thickBot="1">
+    <row r="30" spans="1:23" ht="15.75" thickBot="1">
       <c r="A30" s="5">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -6686,7 +6696,7 @@
         <v>0</v>
       </c>
       <c r="Q30" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R30" s="5">
         <v>0</v>
@@ -6695,7 +6705,7 @@
         <v>1</v>
       </c>
       <c r="T30" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U30" s="5">
         <v>2</v>
@@ -6707,7 +6717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="15" thickBot="1">
+    <row r="31" spans="1:23" ht="15.75" thickBot="1">
       <c r="A31" s="5">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -6760,17 +6770,17 @@
         <v>0</v>
       </c>
       <c r="Q31" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="R31" s="5">
+        <v>0</v>
+      </c>
+      <c r="S31" s="5">
+        <v>1</v>
+      </c>
+      <c r="T31" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="R31" s="5">
-        <v>0</v>
-      </c>
-      <c r="S31" s="5">
-        <v>1</v>
-      </c>
-      <c r="T31" s="19" t="s">
-        <v>125</v>
-      </c>
       <c r="U31" s="5">
         <v>2</v>
       </c>
@@ -6781,7 +6791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="15" thickBot="1">
+    <row r="32" spans="1:23" ht="15.75" thickBot="1">
       <c r="A32" s="5">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -6834,17 +6844,17 @@
         <v>0</v>
       </c>
       <c r="Q32" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="R32" s="5">
+        <v>0</v>
+      </c>
+      <c r="S32" s="5">
+        <v>1</v>
+      </c>
+      <c r="T32" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="R32" s="5">
-        <v>0</v>
-      </c>
-      <c r="S32" s="5">
-        <v>1</v>
-      </c>
-      <c r="T32" s="19" t="s">
-        <v>125</v>
-      </c>
       <c r="U32" s="5">
         <v>2</v>
       </c>
@@ -6855,7 +6865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="15" thickBot="1">
+    <row r="33" spans="1:23" ht="15.75" thickBot="1">
       <c r="A33" s="5">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -6908,17 +6918,17 @@
         <v>0</v>
       </c>
       <c r="Q33" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="R33" s="5">
+        <v>0</v>
+      </c>
+      <c r="S33" s="5">
+        <v>1</v>
+      </c>
+      <c r="T33" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="R33" s="5">
-        <v>0</v>
-      </c>
-      <c r="S33" s="5">
-        <v>1</v>
-      </c>
-      <c r="T33" s="19" t="s">
-        <v>125</v>
-      </c>
       <c r="U33" s="5">
         <v>2</v>
       </c>
@@ -6929,7 +6939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="15" thickBot="1">
+    <row r="34" spans="1:23" ht="15.75" thickBot="1">
       <c r="A34" s="5">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -6982,17 +6992,17 @@
         <v>0</v>
       </c>
       <c r="Q34" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="R34" s="5">
+        <v>0</v>
+      </c>
+      <c r="S34" s="5">
+        <v>1</v>
+      </c>
+      <c r="T34" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="R34" s="5">
-        <v>0</v>
-      </c>
-      <c r="S34" s="5">
-        <v>1</v>
-      </c>
-      <c r="T34" s="19" t="s">
-        <v>125</v>
-      </c>
       <c r="U34" s="5">
         <v>2</v>
       </c>
@@ -7003,7 +7013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="15" thickBot="1">
+    <row r="35" spans="1:23" ht="15.75" thickBot="1">
       <c r="A35" s="5">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -7056,17 +7066,17 @@
         <v>0</v>
       </c>
       <c r="Q35" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="R35" s="5">
+        <v>0</v>
+      </c>
+      <c r="S35" s="5">
+        <v>1</v>
+      </c>
+      <c r="T35" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="R35" s="5">
-        <v>0</v>
-      </c>
-      <c r="S35" s="5">
-        <v>1</v>
-      </c>
-      <c r="T35" s="19" t="s">
-        <v>125</v>
-      </c>
       <c r="U35" s="5">
         <v>2</v>
       </c>
@@ -7077,7 +7087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="15" thickBot="1">
+    <row r="36" spans="1:23" ht="15.75" thickBot="1">
       <c r="A36" s="5">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -7130,17 +7140,17 @@
         <v>0</v>
       </c>
       <c r="Q36" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="R36" s="5">
+        <v>0</v>
+      </c>
+      <c r="S36" s="5">
+        <v>1</v>
+      </c>
+      <c r="T36" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="R36" s="5">
-        <v>0</v>
-      </c>
-      <c r="S36" s="5">
-        <v>1</v>
-      </c>
-      <c r="T36" s="19" t="s">
-        <v>125</v>
-      </c>
       <c r="U36" s="5">
         <v>2</v>
       </c>
@@ -7151,7 +7161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="15" thickBot="1">
+    <row r="37" spans="1:23" ht="15.75" thickBot="1">
       <c r="A37" s="5">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -7204,17 +7214,17 @@
         <v>0</v>
       </c>
       <c r="Q37" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="R37" s="5">
+        <v>0</v>
+      </c>
+      <c r="S37" s="5">
+        <v>1</v>
+      </c>
+      <c r="T37" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="R37" s="5">
-        <v>0</v>
-      </c>
-      <c r="S37" s="5">
-        <v>1</v>
-      </c>
-      <c r="T37" s="19" t="s">
-        <v>125</v>
-      </c>
       <c r="U37" s="5">
         <v>2</v>
       </c>
@@ -7225,7 +7235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="15" thickBot="1">
+    <row r="38" spans="1:23" ht="15.75" thickBot="1">
       <c r="A38" s="5">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -7278,17 +7288,17 @@
         <v>0</v>
       </c>
       <c r="Q38" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="R38" s="5">
+        <v>0</v>
+      </c>
+      <c r="S38" s="5">
+        <v>1</v>
+      </c>
+      <c r="T38" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="R38" s="5">
-        <v>0</v>
-      </c>
-      <c r="S38" s="5">
-        <v>1</v>
-      </c>
-      <c r="T38" s="19" t="s">
-        <v>125</v>
-      </c>
       <c r="U38" s="5">
         <v>2</v>
       </c>
@@ -7299,7 +7309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="15" thickBot="1">
+    <row r="39" spans="1:23" ht="15.75" thickBot="1">
       <c r="A39" s="5">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -7352,17 +7362,17 @@
         <v>0</v>
       </c>
       <c r="Q39" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="R39" s="5">
+        <v>0</v>
+      </c>
+      <c r="S39" s="5">
+        <v>1</v>
+      </c>
+      <c r="T39" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="R39" s="5">
-        <v>0</v>
-      </c>
-      <c r="S39" s="5">
-        <v>1</v>
-      </c>
-      <c r="T39" s="19" t="s">
-        <v>125</v>
-      </c>
       <c r="U39" s="5">
         <v>2</v>
       </c>
@@ -7373,7 +7383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="15" thickBot="1">
+    <row r="40" spans="1:23" ht="15.75" thickBot="1">
       <c r="A40" s="5">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -7426,16 +7436,16 @@
         <v>0</v>
       </c>
       <c r="Q40" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="R40" s="5">
+        <v>0</v>
+      </c>
+      <c r="S40" s="5">
+        <v>1</v>
+      </c>
+      <c r="T40" s="19" t="s">
         <v>124</v>
-      </c>
-      <c r="R40" s="5">
-        <v>0</v>
-      </c>
-      <c r="S40" s="5">
-        <v>1</v>
-      </c>
-      <c r="T40" s="19" t="s">
-        <v>125</v>
       </c>
       <c r="U40" s="5">
         <v>2</v>
@@ -7488,7 +7498,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
@@ -7498,9 +7508,9 @@
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="59.5546875" customWidth="1"/>
+    <col min="3" max="3" width="59.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -7724,18 +7734,18 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -7780,7 +7790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17.399999999999999">
+    <row r="4" spans="1:4" ht="16.5">
       <c r="A4" s="24" t="s">
         <v>16</v>
       </c>
@@ -7794,7 +7804,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17.399999999999999">
+    <row r="5" spans="1:4" ht="16.5">
       <c r="A5" s="23" t="s">
         <v>17</v>
       </c>
@@ -7808,7 +7818,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17.399999999999999">
+    <row r="6" spans="1:4" ht="16.5">
       <c r="A6" s="23" t="s">
         <v>18</v>
       </c>
@@ -7822,7 +7832,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="17.399999999999999">
+    <row r="7" spans="1:4" ht="16.5">
       <c r="A7" s="23" t="s">
         <v>101</v>
       </c>
@@ -7844,7 +7854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
@@ -7854,13 +7864,13 @@
       <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="15.5546875" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -7937,13 +7947,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F4" s="9">
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17.399999999999999">
+    <row r="5" spans="1:6" ht="16.5">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -7957,13 +7967,13 @@
         <v>1</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F5" s="9">
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17.399999999999999">
+    <row r="6" spans="1:6" ht="16.5">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -7977,13 +7987,13 @@
         <v>2</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F6" s="9">
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17.399999999999999">
+    <row r="7" spans="1:6" ht="16.5">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -7997,13 +8007,13 @@
         <v>3</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F7" s="9">
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17.399999999999999">
+    <row r="8" spans="1:6" ht="16.5">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -8017,13 +8027,13 @@
         <v>4</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F8" s="9">
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="17.399999999999999">
+    <row r="9" spans="1:6" ht="16.5">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -8037,13 +8047,13 @@
         <v>5</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F9" s="9">
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17.399999999999999">
+    <row r="10" spans="1:6" ht="16.5">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -8057,13 +8067,13 @@
         <v>6</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F10" s="9">
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="17.399999999999999">
+    <row r="11" spans="1:6" ht="16.5">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -8077,13 +8087,13 @@
         <v>7</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F11" s="9">
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="17.399999999999999">
+    <row r="12" spans="1:6" ht="16.5">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -8097,13 +8107,13 @@
         <v>8</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F12" s="9">
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="17.399999999999999">
+    <row r="13" spans="1:6" ht="16.5">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -8117,13 +8127,13 @@
         <v>9</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F13" s="9">
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="17.399999999999999">
+    <row r="14" spans="1:6" ht="16.5">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -8137,13 +8147,13 @@
         <v>10</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F14" s="9">
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="17.399999999999999">
+    <row r="15" spans="1:6" ht="16.5">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -8157,13 +8167,13 @@
         <v>11</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F15" s="9">
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="17.399999999999999">
+    <row r="16" spans="1:6" ht="16.5">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -8177,13 +8187,13 @@
         <v>12</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F16" s="9">
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="17.399999999999999">
+    <row r="17" spans="1:6" ht="16.5">
       <c r="A17" s="5">
         <v>14</v>
       </c>
@@ -8197,13 +8207,13 @@
         <v>13</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F17" s="9">
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="17.399999999999999">
+    <row r="18" spans="1:6" ht="16.5">
       <c r="A18" s="5">
         <v>15</v>
       </c>
@@ -8217,13 +8227,13 @@
         <v>14</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F18" s="9">
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="17.399999999999999">
+    <row r="19" spans="1:6" ht="16.5">
       <c r="A19" s="5">
         <v>16</v>
       </c>
@@ -8237,13 +8247,13 @@
         <v>15</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F19" s="9">
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="17.399999999999999">
+    <row r="20" spans="1:6" ht="16.5">
       <c r="A20" s="5">
         <v>17</v>
       </c>
@@ -8257,13 +8267,13 @@
         <v>16</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F20" s="9">
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="17.399999999999999">
+    <row r="21" spans="1:6" ht="16.5">
       <c r="A21" s="5">
         <v>18</v>
       </c>
@@ -8277,13 +8287,13 @@
         <v>17</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F21" s="9">
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="17.399999999999999">
+    <row r="22" spans="1:6" ht="16.5">
       <c r="A22" s="5">
         <v>19</v>
       </c>
@@ -8297,13 +8307,13 @@
         <v>18</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F22" s="9">
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="17.399999999999999">
+    <row r="23" spans="1:6" ht="16.5">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -8317,7 +8327,7 @@
         <v>19</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F23" s="9">
         <v>120</v>
@@ -8346,17 +8356,17 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" customWidth="1"/>
+    <col min="3" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -8370,7 +8380,7 @@
         <v>65</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>66</v>
@@ -8383,8 +8393,8 @@
       <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>1</v>
+      <c r="C2" s="16" t="s">
+        <v>212</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>1</v>
@@ -8417,8 +8427,8 @@
       <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>120</v>
+      <c r="C4" s="9" t="s">
+        <v>214</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
@@ -8434,11 +8444,11 @@
       <c r="B5" s="5">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>120</v>
+      <c r="C5" s="9" t="s">
+        <v>213</v>
       </c>
       <c r="D5" s="5">
-        <v>0</v>
+        <v>2001</v>
       </c>
       <c r="E5" s="5">
         <v>10</v>
@@ -8451,8 +8461,8 @@
       <c r="B6" s="5">
         <v>1</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>120</v>
+      <c r="C6" s="9" t="s">
+        <v>214</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
@@ -8468,11 +8478,11 @@
       <c r="B7" s="5">
         <v>2</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>120</v>
+      <c r="C7" s="9" t="s">
+        <v>213</v>
       </c>
       <c r="D7" s="5">
-        <v>0</v>
+        <v>2001</v>
       </c>
       <c r="E7" s="5">
         <v>10</v>
@@ -8485,8 +8495,8 @@
       <c r="B8" s="5">
         <v>1</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>120</v>
+      <c r="C8" s="9" t="s">
+        <v>214</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
@@ -8502,11 +8512,11 @@
       <c r="B9" s="5">
         <v>2</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>120</v>
+      <c r="C9" s="9" t="s">
+        <v>213</v>
       </c>
       <c r="D9" s="5">
-        <v>0</v>
+        <v>2001</v>
       </c>
       <c r="E9" s="5">
         <v>10</v>
@@ -8527,17 +8537,17 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="2" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GameJam\ExcelToCSV\SrcFolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevD\TowerDefense\ExcelToCSV\SrcFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89D7ADE-6CF1-4D8C-A3F4-FBFFC73F8402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF124A3-2391-48DE-AC63-92CE45378FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32925" yWindow="2865" windowWidth="24195" windowHeight="12150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigTable" sheetId="18" r:id="rId1"/>
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="216">
   <si>
     <t>type</t>
   </si>
@@ -1267,15 +1267,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>exp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>조각</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stageid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1399,6 +1402,12 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1499,7 +1508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1627,6 +1636,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1943,8 +1953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="C33:F35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2528,10 +2538,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D14" sqref="A14:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2749,41 +2759,41 @@
         <v>62</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>63</v>
+        <v>213</v>
       </c>
       <c r="C13" s="4">
         <v>0</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="16.5">
+      <c r="D13" s="49" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16.5">
+      <c r="A15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="4">
-        <v>1</v>
-      </c>
-      <c r="D14" s="26" t="s">
+      <c r="C15" s="4">
+        <v>2</v>
+      </c>
+      <c r="D15" s="26" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2791,34 +2801,36 @@
         <v>104</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C16" s="4">
-        <v>1</v>
-      </c>
-      <c r="D16" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C17" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:4" ht="16.5">
+    <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="25" t="s">
-        <v>108</v>
+      <c r="B18" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="C18" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" s="8"/>
     </row>
@@ -2827,22 +2839,22 @@
         <v>104</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C19" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" s="8"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" ht="16.5">
       <c r="A20" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>106</v>
+      <c r="B20" s="25" t="s">
+        <v>105</v>
       </c>
       <c r="C20" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" s="8"/>
     </row>
@@ -2851,22 +2863,22 @@
         <v>104</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C21" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4" ht="16.5">
+    <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B22" s="25" t="s">
-        <v>109</v>
+      <c r="B22" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="C22" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D22" s="8"/>
     </row>
@@ -2875,12 +2887,24 @@
         <v>104</v>
       </c>
       <c r="B23" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="4">
+        <v>7</v>
+      </c>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="1:4" ht="16.5">
+      <c r="A24" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C24" s="4">
         <v>8</v>
       </c>
-      <c r="D23" s="8"/>
+      <c r="D24" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2897,7 +2921,7 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.5"/>
@@ -8357,53 +8381,59 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="4" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="14" t="s">
         <v>42</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>1</v>
-      </c>
       <c r="E2" s="15" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
@@ -8419,115 +8449,137 @@
       <c r="E3" s="18" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="5">
         <v>1</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1</v>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9">
+        <v>2</v>
       </c>
       <c r="E4" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" s="5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
         <v>2001</v>
       </c>
-      <c r="E5" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9">
+        <v>2</v>
       </c>
       <c r="E6" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" s="5">
         <v>2</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="C7" s="5">
+        <v>2</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
         <v>2001</v>
       </c>
-      <c r="E7" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="5">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5">
         <v>3</v>
       </c>
-      <c r="B8" s="5">
-        <v>1</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1</v>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9">
+        <v>2</v>
       </c>
       <c r="E8" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="5">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5">
         <v>3</v>
       </c>
-      <c r="B9" s="5">
-        <v>2</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="D9" s="5">
+      <c r="C9" s="5">
+        <v>2</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
         <v>2001</v>
       </c>
-      <c r="E9" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="9"/>
-      <c r="B10" s="5"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevD\TowerDefense\ExcelToCSV\SrcFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF124A3-2391-48DE-AC63-92CE45378FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E189F3-82AC-4EC9-81D7-701A500A99FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32925" yWindow="2865" windowWidth="24195" windowHeight="12150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2895" yWindow="540" windowWidth="24195" windowHeight="12150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigTable" sheetId="18" r:id="rId1"/>
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="218">
   <si>
     <t>type</t>
   </si>
@@ -1273,12 +1273,19 @@
   <si>
     <t>stageid</t>
   </si>
+  <si>
+    <t>StageStartCost </t>
+  </si>
+  <si>
+    <t>스테이지 비용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1408,6 +1415,12 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1508,7 +1521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1637,6 +1650,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1951,10 +1965,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2046,6 +2060,20 @@
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.5">
+      <c r="A7" s="50" t="s">
+        <v>216</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -7885,7 +7913,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7965,7 +7993,7 @@
         <v>72</v>
       </c>
       <c r="C4" s="5">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D4" s="5">
         <v>0</v>
@@ -7985,7 +8013,7 @@
         <v>73</v>
       </c>
       <c r="C5" s="5">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
@@ -8005,7 +8033,7 @@
         <v>74</v>
       </c>
       <c r="C6" s="5">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="D6" s="5">
         <v>2</v>
@@ -8025,7 +8053,7 @@
         <v>75</v>
       </c>
       <c r="C7" s="5">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="D7" s="5">
         <v>3</v>
@@ -8045,7 +8073,7 @@
         <v>76</v>
       </c>
       <c r="C8" s="5">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D8" s="5">
         <v>4</v>

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevD\TowerDefense\ExcelToCSV\SrcFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E189F3-82AC-4EC9-81D7-701A500A99FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94AA8DB-EE35-42B9-857F-2A4A70CE7C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="540" windowWidth="24195" windowHeight="12150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31800" yWindow="3720" windowWidth="24195" windowHeight="12150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigTable" sheetId="18" r:id="rId1"/>
@@ -1274,10 +1274,11 @@
     <t>stageid</t>
   </si>
   <si>
-    <t>StageStartCost </t>
-  </si>
-  <si>
     <t>스테이지 비용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>StageStartCost</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1968,12 +1969,12 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.5703125" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2064,16 +2065,16 @@
     </row>
     <row r="7" spans="1:4" ht="16.5">
       <c r="A7" s="50" t="s">
+        <v>217</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>216</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevD\TowerDefense\ExcelToCSV\SrcFolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GameJam\ExcelToCSV\SrcFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94AA8DB-EE35-42B9-857F-2A4A70CE7C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DAD803-4AF0-445D-9121-2834D42FD6F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31800" yWindow="3720" windowWidth="24195" windowHeight="12150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigTable" sheetId="18" r:id="rId1"/>
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="219">
   <si>
     <t>type</t>
   </si>
@@ -1279,6 +1279,10 @@
   </si>
   <si>
     <t>StageStartCost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indian_Wall</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1522,7 +1526,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1652,6 +1656,7 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1968,8 +1973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2949,8 +2954,8 @@
   </sheetPr>
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.5"/>
@@ -3134,7 +3139,7 @@
         <v>150</v>
       </c>
       <c r="C5" s="41" t="str">
-        <f t="shared" ref="C5:C37" si="1">IF(D5=1,"(원거리)","(근거리)")&amp;B5</f>
+        <f t="shared" ref="C5:C38" si="1">IF(D5=1,"(원거리)","(근거리)")&amp;B5</f>
         <v>(근거리)Indian_Shield</v>
       </c>
       <c r="D5" s="40">
@@ -4477,7 +4482,7 @@
       <c r="B37" s="40" t="s">
         <v>211</v>
       </c>
-      <c r="C37" s="41" t="str">
+      <c r="C37" s="51" t="str">
         <f t="shared" si="1"/>
         <v>(원거리)Dragon_Fire</v>
       </c>
@@ -4513,7 +4518,46 @@
       </c>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="40"/>
+      <c r="A38" s="40">
+        <v>11003</v>
+      </c>
+      <c r="B38" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="C38" s="51" t="str">
+        <f t="shared" si="1"/>
+        <v>(근거리)Indian_Wall</v>
+      </c>
+      <c r="D38" s="38">
+        <v>0</v>
+      </c>
+      <c r="E38" s="40">
+        <v>100</v>
+      </c>
+      <c r="F38" s="40">
+        <v>1</v>
+      </c>
+      <c r="G38" s="40">
+        <v>1</v>
+      </c>
+      <c r="H38" s="40">
+        <v>1</v>
+      </c>
+      <c r="I38" s="40">
+        <v>1</v>
+      </c>
+      <c r="J38" s="40" t="str">
+        <f t="shared" ref="J38" si="11">"name_"&amp;A38</f>
+        <v>name_11003</v>
+      </c>
+      <c r="K38" s="40" t="str">
+        <f t="shared" ref="K38" si="12">"unit_icon_"&amp;A38</f>
+        <v>unit_icon_11003</v>
+      </c>
+      <c r="L38" s="41" t="str">
+        <f>"Unit/Enemy/Chapter_1_Object/"&amp;A38&amp;"_"&amp;B38&amp;".prefab"</f>
+        <v>Unit/Enemy/Chapter_1_Object/11003_Indian_Wall.prefab</v>
+      </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="40"/>
@@ -4534,8 +4578,8 @@
   </sheetPr>
   <dimension ref="A1:W42"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4922,7 +4966,7 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="5">
-        <f t="shared" ref="A6:A40" si="1">A5+1</f>
+        <f t="shared" ref="A6:A41" si="1">A5+1</f>
         <v>3</v>
       </c>
       <c r="B6" s="5">
@@ -7470,7 +7514,7 @@
         <v>1</v>
       </c>
       <c r="K40" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L40" s="5">
         <v>0</v>
@@ -7479,7 +7523,7 @@
         <v>1000</v>
       </c>
       <c r="N40" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="N40:N41" si="3">B40</f>
         <v>2018</v>
       </c>
       <c r="O40" s="5">
@@ -7510,9 +7554,79 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:23">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
+    <row r="41" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A41" s="5">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="B41" s="40">
+        <v>11003</v>
+      </c>
+      <c r="C41" s="20" t="str">
+        <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B41,Unitinfo!A:A,0))</f>
+        <v>(근거리)Indian_Wall</v>
+      </c>
+      <c r="D41" s="21">
+        <v>1</v>
+      </c>
+      <c r="E41" s="9">
+        <v>10</v>
+      </c>
+      <c r="F41" s="5">
+        <v>100</v>
+      </c>
+      <c r="G41" s="5">
+        <v>10</v>
+      </c>
+      <c r="H41" s="5">
+        <v>5</v>
+      </c>
+      <c r="I41" s="42">
+        <v>50</v>
+      </c>
+      <c r="J41" s="5">
+        <v>1</v>
+      </c>
+      <c r="K41" s="5">
+        <v>10</v>
+      </c>
+      <c r="L41" s="5">
+        <v>0</v>
+      </c>
+      <c r="M41" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N41" s="5">
+        <f t="shared" si="3"/>
+        <v>11003</v>
+      </c>
+      <c r="O41" s="5">
+        <v>0</v>
+      </c>
+      <c r="P41" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="R41" s="5">
+        <v>0</v>
+      </c>
+      <c r="S41" s="5">
+        <v>1</v>
+      </c>
+      <c r="T41" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="U41" s="5">
+        <v>2</v>
+      </c>
+      <c r="V41" s="5">
+        <v>10</v>
+      </c>
+      <c r="W41" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="42" spans="1:23">
       <c r="A42" s="5"/>
@@ -7542,7 +7656,7 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="1"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I4:I40</xm:sqref>
+          <xm:sqref>I4:I41</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GameJam\ExcelToCSV\SrcFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DAD803-4AF0-445D-9121-2834D42FD6F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1755738-5A1A-4818-B6DC-AF0BB816BA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1526,7 +1526,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1656,7 +1656,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2954,8 +2953,8 @@
   </sheetPr>
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.5"/>
@@ -4482,7 +4481,7 @@
       <c r="B37" s="40" t="s">
         <v>211</v>
       </c>
-      <c r="C37" s="51" t="str">
+      <c r="C37" s="38" t="str">
         <f t="shared" si="1"/>
         <v>(원거리)Dragon_Fire</v>
       </c>
@@ -4524,12 +4523,12 @@
       <c r="B38" s="40" t="s">
         <v>218</v>
       </c>
-      <c r="C38" s="51" t="str">
+      <c r="C38" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>(근거리)Indian_Wall</v>
+        <v>(원거리)Indian_Wall</v>
       </c>
       <c r="D38" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" s="40">
         <v>100</v>
@@ -4579,7 +4578,7 @@
   <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6395,7 +6394,7 @@
         <v>10</v>
       </c>
       <c r="H25" s="5">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I25" s="42">
         <v>10</v>
@@ -6469,7 +6468,7 @@
         <v>10</v>
       </c>
       <c r="H26" s="5">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I26" s="42">
         <v>10</v>
@@ -6543,7 +6542,7 @@
         <v>10</v>
       </c>
       <c r="H27" s="5">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I27" s="42">
         <v>10</v>
@@ -6617,7 +6616,7 @@
         <v>10</v>
       </c>
       <c r="H28" s="5">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I28" s="42">
         <v>10</v>
@@ -6691,7 +6690,7 @@
         <v>10</v>
       </c>
       <c r="H29" s="5">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I29" s="42">
         <v>10</v>
@@ -6765,7 +6764,7 @@
         <v>10</v>
       </c>
       <c r="H30" s="5">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I30" s="42">
         <v>10</v>
@@ -6839,7 +6838,7 @@
         <v>10</v>
       </c>
       <c r="H31" s="5">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I31" s="42">
         <v>50</v>
@@ -6913,7 +6912,7 @@
         <v>10</v>
       </c>
       <c r="H32" s="5">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I32" s="42">
         <v>50</v>
@@ -6931,7 +6930,7 @@
         <v>1000</v>
       </c>
       <c r="N32" s="5">
-        <f t="shared" ref="N32:N40" si="2">B32</f>
+        <f t="shared" ref="N32:N39" si="2">B32</f>
         <v>2010</v>
       </c>
       <c r="O32" s="5">
@@ -6987,7 +6986,7 @@
         <v>10</v>
       </c>
       <c r="H33" s="5">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I33" s="42">
         <v>50</v>
@@ -7061,7 +7060,7 @@
         <v>10</v>
       </c>
       <c r="H34" s="5">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I34" s="42">
         <v>50</v>
@@ -7135,7 +7134,7 @@
         <v>10</v>
       </c>
       <c r="H35" s="5">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I35" s="42">
         <v>10</v>
@@ -7209,7 +7208,7 @@
         <v>10</v>
       </c>
       <c r="H36" s="5">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I36" s="42">
         <v>10</v>
@@ -7283,7 +7282,7 @@
         <v>10</v>
       </c>
       <c r="H37" s="5">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I37" s="42">
         <v>50</v>
@@ -7357,7 +7356,7 @@
         <v>10</v>
       </c>
       <c r="H38" s="5">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I38" s="42">
         <v>10</v>
@@ -7431,7 +7430,7 @@
         <v>10</v>
       </c>
       <c r="H39" s="5">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I39" s="42">
         <v>50</v>
@@ -7505,7 +7504,7 @@
         <v>10</v>
       </c>
       <c r="H40" s="5">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I40" s="42">
         <v>50</v>
@@ -7564,7 +7563,7 @@
       </c>
       <c r="C41" s="20" t="str">
         <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B41,Unitinfo!A:A,0))</f>
-        <v>(근거리)Indian_Wall</v>
+        <v>(원거리)Indian_Wall</v>
       </c>
       <c r="D41" s="21">
         <v>1</v>
@@ -7579,10 +7578,10 @@
         <v>10</v>
       </c>
       <c r="H41" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I41" s="42">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="J41" s="5">
         <v>1</v>

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GameJam\ExcelToCSV\SrcFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1755738-5A1A-4818-B6DC-AF0BB816BA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8848521A-FE1A-4B19-B0AC-CC4A30AA19BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4578,7 +4578,7 @@
   <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+      <selection activeCell="T36" sqref="T36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7168,7 +7168,7 @@
         <v>0</v>
       </c>
       <c r="S35" s="5">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="T35" s="19" t="s">
         <v>124</v>
@@ -7242,7 +7242,7 @@
         <v>0</v>
       </c>
       <c r="S36" s="5">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="T36" s="19" t="s">
         <v>124</v>

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GameJam\ExcelToCSV\SrcFolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevD\TowerDefense\ExcelToCSV\SrcFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8848521A-FE1A-4B19-B0AC-CC4A30AA19BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148453D6-0006-4A52-871E-0EFB1502D522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30690" yWindow="3045" windowWidth="24195" windowHeight="12150" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigTable" sheetId="18" r:id="rId1"/>
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="231">
   <si>
     <t>type</t>
   </si>
@@ -751,10 +751,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>all</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1283,6 +1279,58 @@
   </si>
   <si>
     <t>Indian_Wall</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rarity_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>common</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rare</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>epic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>legendary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rarity_type_common</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rarity_type_rare</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rarity_type_epic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rarity_type_legendary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에픽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레전드</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1526,7 +1574,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1656,6 +1704,9 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2069,7 +2120,7 @@
     </row>
     <row r="7" spans="1:4" ht="16.5">
       <c r="A7" s="50" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>10</v>
@@ -2078,7 +2129,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -2108,22 +2159,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="12.75" thickBot="1">
       <c r="A1" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="44" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="C1" s="44" t="s">
         <v>178</v>
       </c>
-      <c r="C1" s="44" t="s">
-        <v>179</v>
-      </c>
       <c r="E1" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="G1" s="45" t="s">
         <v>186</v>
-      </c>
-      <c r="G1" s="45" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="12.75" thickBot="1">
@@ -2137,7 +2188,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="45" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F2" s="45">
         <v>3</v>
@@ -2157,7 +2208,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="45" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F3" s="45">
         <v>100</v>
@@ -2177,7 +2228,7 @@
         <v>35</v>
       </c>
       <c r="E4" s="45" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F4" s="45">
         <v>0.2</v>
@@ -2197,7 +2248,7 @@
         <v>55</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F5" s="45">
         <v>1</v>
@@ -2208,7 +2259,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="E6" s="45" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F6" s="45">
         <v>25</v>
@@ -2219,7 +2270,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="E7" s="45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F7" s="45">
         <v>5</v>
@@ -2230,7 +2281,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="E8" s="45" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F8" s="45">
         <v>0.2</v>
@@ -2241,7 +2292,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="E9" s="45" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F9" s="45">
         <v>1</v>
@@ -2252,7 +2303,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="E10" s="45" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F10" s="45">
         <v>0.2</v>
@@ -2263,7 +2314,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="E11" s="45" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F11" s="45">
         <v>1</v>
@@ -2275,19 +2326,19 @@
     <row r="19" spans="1:6">
       <c r="A19" s="48"/>
       <c r="B19" s="45" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C19" s="48" t="s">
+        <v>181</v>
+      </c>
+      <c r="D19" s="48" t="s">
         <v>182</v>
       </c>
-      <c r="D19" s="48" t="s">
-        <v>183</v>
-      </c>
       <c r="E19" s="48" t="s">
+        <v>195</v>
+      </c>
+      <c r="F19" s="48" t="s">
         <v>196</v>
-      </c>
-      <c r="F19" s="48" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2571,10 +2622,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D14" sqref="A14:D15"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2792,13 +2843,13 @@
         <v>62</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="49" t="s">
         <v>213</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0</v>
-      </c>
-      <c r="D13" s="49" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2820,124 +2871,172 @@
         <v>62</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2</v>
+      </c>
+      <c r="D15" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="C15" s="4">
-        <v>2</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+    </row>
+    <row r="16" spans="1:7" ht="16.5">
       <c r="A16" s="2" t="s">
-        <v>104</v>
+        <v>218</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>103</v>
+        <v>219</v>
       </c>
       <c r="C16" s="4">
         <v>0</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="D16" s="26"/>
+    </row>
+    <row r="17" spans="1:4" ht="16.5">
       <c r="A17" s="2" t="s">
-        <v>104</v>
+        <v>218</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>102</v>
+        <v>220</v>
       </c>
       <c r="C17" s="4">
         <v>1</v>
       </c>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="D17" s="26"/>
+    </row>
+    <row r="18" spans="1:4" ht="16.5">
       <c r="A18" s="2" t="s">
-        <v>104</v>
+        <v>218</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>88</v>
+        <v>221</v>
       </c>
       <c r="C18" s="4">
         <v>2</v>
       </c>
-      <c r="D18" s="8"/>
+      <c r="D18" s="26"/>
     </row>
     <row r="19" spans="1:4" ht="16.5">
       <c r="A19" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>108</v>
+        <v>218</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="C19" s="4">
         <v>3</v>
       </c>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" spans="1:4" ht="16.5">
+      <c r="D19" s="26"/>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>105</v>
+        <v>103</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="C20" s="4">
-        <v>4</v>
-      </c>
-      <c r="D20" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C21" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C22" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" ht="16.5">
       <c r="A23" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C23" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" ht="16.5">
       <c r="A24" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="B24" s="25" t="s">
-        <v>110</v>
-      </c>
       <c r="C24" s="4">
+        <v>4</v>
+      </c>
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="4">
+        <v>5</v>
+      </c>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="4">
+        <v>6</v>
+      </c>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="1:4" ht="16.5">
+      <c r="A27" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="4">
+        <v>7</v>
+      </c>
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" spans="1:4" ht="16.5">
+      <c r="A28" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="4">
         <v>8</v>
       </c>
-      <c r="D24" s="8"/>
+      <c r="D28" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2953,8 +3052,8 @@
   </sheetPr>
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.5"/>
@@ -2979,10 +3078,10 @@
         <v>42</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D1" s="34" t="s">
         <v>55</v>
@@ -3000,10 +3099,10 @@
         <v>49</v>
       </c>
       <c r="I1" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="34" t="s">
         <v>80</v>
-      </c>
-      <c r="J1" s="34" t="s">
-        <v>81</v>
       </c>
       <c r="K1" s="34" t="s">
         <v>46</v>
@@ -3017,10 +3116,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D2" s="36" t="s">
         <v>55</v>
@@ -3038,10 +3137,10 @@
         <v>70</v>
       </c>
       <c r="I2" s="37" t="s">
-        <v>78</v>
+        <v>218</v>
       </c>
       <c r="J2" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K2" s="37" t="s">
         <v>48</v>
@@ -3055,10 +3154,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D3" s="39" t="s">
         <v>2</v>
@@ -3076,10 +3175,10 @@
         <v>2</v>
       </c>
       <c r="I3" s="39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J3" s="39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K3" s="39" t="s">
         <v>2</v>
@@ -3093,7 +3192,7 @@
         <v>1001</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C4" s="41" t="str">
         <f>IF(D4=1,"(원거리)","(근거리)")&amp;B4</f>
@@ -3115,7 +3214,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="40" t="str">
         <f>"name_"&amp;A4</f>
@@ -3135,7 +3234,7 @@
         <v>1002</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C5" s="41" t="str">
         <f t="shared" ref="C5:C38" si="1">IF(D5=1,"(원거리)","(근거리)")&amp;B5</f>
@@ -3177,7 +3276,7 @@
         <v>1003</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C6" s="41" t="str">
         <f t="shared" si="1"/>
@@ -3219,7 +3318,7 @@
         <v>1004</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C7" s="41" t="str">
         <f t="shared" si="1"/>
@@ -3241,7 +3340,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7" s="40" t="str">
         <f t="shared" si="2"/>
@@ -3261,7 +3360,7 @@
         <v>1005</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C8" s="41" t="str">
         <f t="shared" si="1"/>
@@ -3283,7 +3382,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="40" t="str">
         <f t="shared" si="2"/>
@@ -3303,7 +3402,7 @@
         <v>1006</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C9" s="41" t="str">
         <f t="shared" si="1"/>
@@ -3345,7 +3444,7 @@
         <v>1007</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C10" s="41" t="str">
         <f t="shared" si="1"/>
@@ -3387,7 +3486,7 @@
         <v>1008</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C11" s="41" t="str">
         <f t="shared" si="1"/>
@@ -3409,7 +3508,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J11" s="40" t="str">
         <f t="shared" si="2"/>
@@ -3429,7 +3528,7 @@
         <v>1009</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C12" s="41" t="str">
         <f t="shared" si="1"/>
@@ -3471,7 +3570,7 @@
         <v>1010</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C13" s="41" t="str">
         <f t="shared" si="1"/>
@@ -3513,7 +3612,7 @@
         <v>1011</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C14" s="41" t="str">
         <f t="shared" si="1"/>
@@ -3535,7 +3634,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="40" t="str">
         <f t="shared" si="4"/>
@@ -3555,7 +3654,7 @@
         <v>1012</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C15" s="41" t="str">
         <f t="shared" si="1"/>
@@ -3597,7 +3696,7 @@
         <v>1013</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C16" s="41" t="str">
         <f t="shared" si="1"/>
@@ -3639,7 +3738,7 @@
         <v>1014</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C17" s="41" t="str">
         <f t="shared" si="1"/>
@@ -3661,7 +3760,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J17" s="40" t="str">
         <f t="shared" si="4"/>
@@ -3681,7 +3780,7 @@
         <v>1015</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C18" s="41" t="str">
         <f t="shared" si="1"/>
@@ -3723,7 +3822,7 @@
         <v>1016</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C19" s="41" t="str">
         <f t="shared" si="1"/>
@@ -3765,7 +3864,7 @@
         <v>2001</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C20" s="41" t="str">
         <f t="shared" si="1"/>
@@ -3807,7 +3906,7 @@
         <v>2002</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C21" s="41" t="str">
         <f t="shared" si="1"/>
@@ -3829,7 +3928,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" s="40" t="str">
         <f t="shared" si="2"/>
@@ -3849,7 +3948,7 @@
         <v>2003</v>
       </c>
       <c r="B22" s="40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C22" s="41" t="str">
         <f t="shared" si="1"/>
@@ -3891,7 +3990,7 @@
         <v>2004</v>
       </c>
       <c r="B23" s="40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C23" s="41" t="str">
         <f t="shared" si="1"/>
@@ -3933,7 +4032,7 @@
         <v>2005</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C24" s="41" t="str">
         <f t="shared" si="1"/>
@@ -3955,7 +4054,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J24" s="40" t="str">
         <f t="shared" si="7"/>
@@ -3975,7 +4074,7 @@
         <v>2006</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C25" s="41" t="str">
         <f t="shared" si="1"/>
@@ -4017,7 +4116,7 @@
         <v>2007</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C26" s="41" t="str">
         <f t="shared" si="1"/>
@@ -4059,7 +4158,7 @@
         <v>2008</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C27" s="41" t="str">
         <f t="shared" si="1"/>
@@ -4101,7 +4200,7 @@
         <v>2009</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C28" s="41" t="str">
         <f t="shared" si="1"/>
@@ -4123,7 +4222,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" s="40" t="str">
         <f t="shared" si="7"/>
@@ -4143,7 +4242,7 @@
         <v>2010</v>
       </c>
       <c r="B29" s="40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C29" s="41" t="str">
         <f t="shared" si="1"/>
@@ -4185,7 +4284,7 @@
         <v>2011</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C30" s="41" t="str">
         <f t="shared" si="1"/>
@@ -4227,7 +4326,7 @@
         <v>2012</v>
       </c>
       <c r="B31" s="40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C31" s="41" t="str">
         <f t="shared" si="1"/>
@@ -4249,7 +4348,7 @@
         <v>1</v>
       </c>
       <c r="I31" s="40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J31" s="40" t="str">
         <f t="shared" ref="J31:J37" si="8">"name_"&amp;A31</f>
@@ -4269,7 +4368,7 @@
         <v>2013</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C32" s="41" t="str">
         <f t="shared" si="1"/>
@@ -4311,7 +4410,7 @@
         <v>2014</v>
       </c>
       <c r="B33" s="40" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C33" s="41" t="str">
         <f t="shared" si="1"/>
@@ -4333,7 +4432,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" s="40" t="str">
         <f t="shared" si="8"/>
@@ -4353,7 +4452,7 @@
         <v>2015</v>
       </c>
       <c r="B34" s="40" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C34" s="41" t="str">
         <f t="shared" si="1"/>
@@ -4395,7 +4494,7 @@
         <v>2016</v>
       </c>
       <c r="B35" s="40" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C35" s="41" t="str">
         <f t="shared" si="1"/>
@@ -4437,7 +4536,7 @@
         <v>2017</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C36" s="41" t="str">
         <f t="shared" si="1"/>
@@ -4459,7 +4558,7 @@
         <v>1</v>
       </c>
       <c r="I36" s="40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J36" s="40" t="str">
         <f t="shared" si="8"/>
@@ -4479,7 +4578,7 @@
         <v>2018</v>
       </c>
       <c r="B37" s="40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C37" s="38" t="str">
         <f t="shared" si="1"/>
@@ -4521,7 +4620,7 @@
         <v>11003</v>
       </c>
       <c r="B38" s="40" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C38" s="38" t="str">
         <f t="shared" si="1"/>
@@ -4577,7 +4676,7 @@
   </sheetPr>
   <dimension ref="A1:W42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="T36" sqref="T36"/>
     </sheetView>
   </sheetViews>
@@ -4611,25 +4710,25 @@
         <v>50</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>51</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F1" s="14" t="s">
         <v>52</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H1" s="31" t="s">
         <v>53</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J1" s="31" t="s">
         <v>54</v>
@@ -4638,7 +4737,7 @@
         <v>58</v>
       </c>
       <c r="L1" s="31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M1" s="31" t="s">
         <v>56</v>
@@ -4653,25 +4752,25 @@
         <v>59</v>
       </c>
       <c r="Q1" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R1" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S1" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T1" s="14" t="s">
         <v>61</v>
       </c>
       <c r="U1" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="V1" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="V1" s="14" t="s">
-        <v>117</v>
-      </c>
       <c r="W1" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -4682,13 +4781,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>1</v>
@@ -4753,13 +4852,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>2</v>
@@ -4868,7 +4967,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R4" s="5">
         <v>0</v>
@@ -4877,7 +4976,7 @@
         <v>1</v>
       </c>
       <c r="T4" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U4" s="5">
         <v>2</v>
@@ -4942,7 +5041,7 @@
         <v>0</v>
       </c>
       <c r="Q5" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R5" s="5">
         <v>0</v>
@@ -4951,7 +5050,7 @@
         <v>1</v>
       </c>
       <c r="T5" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U5" s="5">
         <v>2</v>
@@ -5016,7 +5115,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R6" s="5">
         <v>0</v>
@@ -5025,7 +5124,7 @@
         <v>1</v>
       </c>
       <c r="T6" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U6" s="5">
         <v>2</v>
@@ -5090,7 +5189,7 @@
         <v>0</v>
       </c>
       <c r="Q7" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R7" s="5">
         <v>0</v>
@@ -5099,7 +5198,7 @@
         <v>1</v>
       </c>
       <c r="T7" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U7" s="5">
         <v>2</v>
@@ -5164,7 +5263,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R8" s="5">
         <v>0</v>
@@ -5173,7 +5272,7 @@
         <v>1</v>
       </c>
       <c r="T8" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U8" s="5">
         <v>2</v>
@@ -5238,7 +5337,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R9" s="5">
         <v>0</v>
@@ -5247,7 +5346,7 @@
         <v>1</v>
       </c>
       <c r="T9" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U9" s="5">
         <v>2</v>
@@ -5312,7 +5411,7 @@
         <v>0</v>
       </c>
       <c r="Q10" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R10" s="5">
         <v>0</v>
@@ -5321,7 +5420,7 @@
         <v>1</v>
       </c>
       <c r="T10" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U10" s="5">
         <v>2</v>
@@ -5386,7 +5485,7 @@
         <v>0</v>
       </c>
       <c r="Q11" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R11" s="5">
         <v>0</v>
@@ -5395,7 +5494,7 @@
         <v>1</v>
       </c>
       <c r="T11" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U11" s="5">
         <v>2</v>
@@ -5460,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="Q12" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R12" s="5">
         <v>0</v>
@@ -5469,7 +5568,7 @@
         <v>1</v>
       </c>
       <c r="T12" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U12" s="5">
         <v>2</v>
@@ -5534,7 +5633,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R13" s="5">
         <v>0</v>
@@ -5543,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="T13" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U13" s="5">
         <v>2</v>
@@ -5608,7 +5707,7 @@
         <v>0</v>
       </c>
       <c r="Q14" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R14" s="5">
         <v>0</v>
@@ -5617,7 +5716,7 @@
         <v>1</v>
       </c>
       <c r="T14" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U14" s="5">
         <v>2</v>
@@ -5682,7 +5781,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R15" s="5">
         <v>0</v>
@@ -5691,7 +5790,7 @@
         <v>1</v>
       </c>
       <c r="T15" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U15" s="5">
         <v>2</v>
@@ -5756,7 +5855,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R16" s="5">
         <v>0</v>
@@ -5765,7 +5864,7 @@
         <v>1</v>
       </c>
       <c r="T16" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U16" s="5">
         <v>2</v>
@@ -5830,7 +5929,7 @@
         <v>0</v>
       </c>
       <c r="Q17" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R17" s="5">
         <v>0</v>
@@ -5839,7 +5938,7 @@
         <v>1</v>
       </c>
       <c r="T17" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U17" s="5">
         <v>2</v>
@@ -5904,7 +6003,7 @@
         <v>0</v>
       </c>
       <c r="Q18" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R18" s="5">
         <v>0</v>
@@ -5913,7 +6012,7 @@
         <v>1</v>
       </c>
       <c r="T18" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U18" s="5">
         <v>2</v>
@@ -5978,7 +6077,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R19" s="5">
         <v>0</v>
@@ -5987,7 +6086,7 @@
         <v>1</v>
       </c>
       <c r="T19" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U19" s="5">
         <v>2</v>
@@ -6052,7 +6151,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R20" s="5">
         <v>0</v>
@@ -6061,7 +6160,7 @@
         <v>1</v>
       </c>
       <c r="T20" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U20" s="5">
         <v>2</v>
@@ -6126,7 +6225,7 @@
         <v>0</v>
       </c>
       <c r="Q21" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R21" s="5">
         <v>0</v>
@@ -6135,7 +6234,7 @@
         <v>1</v>
       </c>
       <c r="T21" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U21" s="5">
         <v>2</v>
@@ -6200,7 +6299,7 @@
         <v>0</v>
       </c>
       <c r="Q22" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R22" s="5">
         <v>0</v>
@@ -6209,7 +6308,7 @@
         <v>1</v>
       </c>
       <c r="T22" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U22" s="5">
         <v>2</v>
@@ -6274,7 +6373,7 @@
         <v>0</v>
       </c>
       <c r="Q23" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R23" s="5">
         <v>0</v>
@@ -6283,7 +6382,7 @@
         <v>1</v>
       </c>
       <c r="T23" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U23" s="5">
         <v>2</v>
@@ -6348,7 +6447,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R24" s="5">
         <v>0</v>
@@ -6357,7 +6456,7 @@
         <v>1</v>
       </c>
       <c r="T24" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U24" s="5">
         <v>2</v>
@@ -6422,7 +6521,7 @@
         <v>0</v>
       </c>
       <c r="Q25" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R25" s="5">
         <v>0</v>
@@ -6431,7 +6530,7 @@
         <v>1</v>
       </c>
       <c r="T25" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U25" s="5">
         <v>2</v>
@@ -6496,7 +6595,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R26" s="5">
         <v>0</v>
@@ -6505,7 +6604,7 @@
         <v>1</v>
       </c>
       <c r="T26" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U26" s="5">
         <v>2</v>
@@ -6570,7 +6669,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R27" s="5">
         <v>0</v>
@@ -6579,7 +6678,7 @@
         <v>1</v>
       </c>
       <c r="T27" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U27" s="5">
         <v>2</v>
@@ -6644,7 +6743,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R28" s="5">
         <v>0</v>
@@ -6653,7 +6752,7 @@
         <v>1</v>
       </c>
       <c r="T28" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U28" s="5">
         <v>2</v>
@@ -6718,7 +6817,7 @@
         <v>0</v>
       </c>
       <c r="Q29" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R29" s="5">
         <v>0</v>
@@ -6727,7 +6826,7 @@
         <v>1</v>
       </c>
       <c r="T29" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U29" s="5">
         <v>2</v>
@@ -6792,7 +6891,7 @@
         <v>0</v>
       </c>
       <c r="Q30" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R30" s="5">
         <v>0</v>
@@ -6801,7 +6900,7 @@
         <v>1</v>
       </c>
       <c r="T30" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U30" s="5">
         <v>2</v>
@@ -6866,16 +6965,16 @@
         <v>0</v>
       </c>
       <c r="Q31" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="R31" s="5">
+        <v>0</v>
+      </c>
+      <c r="S31" s="5">
+        <v>1</v>
+      </c>
+      <c r="T31" s="19" t="s">
         <v>123</v>
-      </c>
-      <c r="R31" s="5">
-        <v>0</v>
-      </c>
-      <c r="S31" s="5">
-        <v>1</v>
-      </c>
-      <c r="T31" s="19" t="s">
-        <v>124</v>
       </c>
       <c r="U31" s="5">
         <v>2</v>
@@ -6940,16 +7039,16 @@
         <v>0</v>
       </c>
       <c r="Q32" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="R32" s="5">
+        <v>0</v>
+      </c>
+      <c r="S32" s="5">
+        <v>1</v>
+      </c>
+      <c r="T32" s="19" t="s">
         <v>123</v>
-      </c>
-      <c r="R32" s="5">
-        <v>0</v>
-      </c>
-      <c r="S32" s="5">
-        <v>1</v>
-      </c>
-      <c r="T32" s="19" t="s">
-        <v>124</v>
       </c>
       <c r="U32" s="5">
         <v>2</v>
@@ -7014,16 +7113,16 @@
         <v>0</v>
       </c>
       <c r="Q33" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="R33" s="5">
+        <v>0</v>
+      </c>
+      <c r="S33" s="5">
+        <v>1</v>
+      </c>
+      <c r="T33" s="19" t="s">
         <v>123</v>
-      </c>
-      <c r="R33" s="5">
-        <v>0</v>
-      </c>
-      <c r="S33" s="5">
-        <v>1</v>
-      </c>
-      <c r="T33" s="19" t="s">
-        <v>124</v>
       </c>
       <c r="U33" s="5">
         <v>2</v>
@@ -7088,16 +7187,16 @@
         <v>0</v>
       </c>
       <c r="Q34" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="R34" s="5">
+        <v>0</v>
+      </c>
+      <c r="S34" s="5">
+        <v>1</v>
+      </c>
+      <c r="T34" s="19" t="s">
         <v>123</v>
-      </c>
-      <c r="R34" s="5">
-        <v>0</v>
-      </c>
-      <c r="S34" s="5">
-        <v>1</v>
-      </c>
-      <c r="T34" s="19" t="s">
-        <v>124</v>
       </c>
       <c r="U34" s="5">
         <v>2</v>
@@ -7162,7 +7261,7 @@
         <v>0</v>
       </c>
       <c r="Q35" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R35" s="5">
         <v>0</v>
@@ -7171,7 +7270,7 @@
         <v>20</v>
       </c>
       <c r="T35" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U35" s="5">
         <v>2</v>
@@ -7236,7 +7335,7 @@
         <v>0</v>
       </c>
       <c r="Q36" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R36" s="5">
         <v>0</v>
@@ -7245,7 +7344,7 @@
         <v>20</v>
       </c>
       <c r="T36" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U36" s="5">
         <v>2</v>
@@ -7310,16 +7409,16 @@
         <v>0</v>
       </c>
       <c r="Q37" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="R37" s="5">
+        <v>0</v>
+      </c>
+      <c r="S37" s="5">
+        <v>1</v>
+      </c>
+      <c r="T37" s="19" t="s">
         <v>123</v>
-      </c>
-      <c r="R37" s="5">
-        <v>0</v>
-      </c>
-      <c r="S37" s="5">
-        <v>1</v>
-      </c>
-      <c r="T37" s="19" t="s">
-        <v>124</v>
       </c>
       <c r="U37" s="5">
         <v>2</v>
@@ -7384,16 +7483,16 @@
         <v>0</v>
       </c>
       <c r="Q38" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="R38" s="5">
+        <v>0</v>
+      </c>
+      <c r="S38" s="5">
+        <v>1</v>
+      </c>
+      <c r="T38" s="19" t="s">
         <v>123</v>
-      </c>
-      <c r="R38" s="5">
-        <v>0</v>
-      </c>
-      <c r="S38" s="5">
-        <v>1</v>
-      </c>
-      <c r="T38" s="19" t="s">
-        <v>124</v>
       </c>
       <c r="U38" s="5">
         <v>2</v>
@@ -7458,16 +7557,16 @@
         <v>0</v>
       </c>
       <c r="Q39" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="R39" s="5">
+        <v>0</v>
+      </c>
+      <c r="S39" s="5">
+        <v>1</v>
+      </c>
+      <c r="T39" s="19" t="s">
         <v>123</v>
-      </c>
-      <c r="R39" s="5">
-        <v>0</v>
-      </c>
-      <c r="S39" s="5">
-        <v>1</v>
-      </c>
-      <c r="T39" s="19" t="s">
-        <v>124</v>
       </c>
       <c r="U39" s="5">
         <v>2</v>
@@ -7532,16 +7631,16 @@
         <v>0</v>
       </c>
       <c r="Q40" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="R40" s="5">
+        <v>0</v>
+      </c>
+      <c r="S40" s="5">
+        <v>1</v>
+      </c>
+      <c r="T40" s="19" t="s">
         <v>123</v>
-      </c>
-      <c r="R40" s="5">
-        <v>0</v>
-      </c>
-      <c r="S40" s="5">
-        <v>1</v>
-      </c>
-      <c r="T40" s="19" t="s">
-        <v>124</v>
       </c>
       <c r="U40" s="5">
         <v>2</v>
@@ -7606,16 +7705,16 @@
         <v>0</v>
       </c>
       <c r="Q41" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="R41" s="5">
+        <v>0</v>
+      </c>
+      <c r="S41" s="5">
+        <v>1</v>
+      </c>
+      <c r="T41" s="19" t="s">
         <v>123</v>
-      </c>
-      <c r="R41" s="5">
-        <v>0</v>
-      </c>
-      <c r="S41" s="5">
-        <v>1</v>
-      </c>
-      <c r="T41" s="19" t="s">
-        <v>124</v>
       </c>
       <c r="U41" s="5">
         <v>2</v>
@@ -7684,7 +7783,7 @@
         <v>42</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>47</v>
@@ -7901,10 +8000,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7919,13 +8018,13 @@
         <v>42</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -7961,13 +8060,13 @@
         <v>16</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5">
@@ -7975,13 +8074,13 @@
         <v>17</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5">
@@ -7989,27 +8088,83 @@
         <v>18</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5">
       <c r="A7" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B8" s="51" t="s">
+        <v>227</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -8056,7 +8211,7 @@
         <v>47</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -8113,7 +8268,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F4" s="9">
         <v>120</v>
@@ -8133,7 +8288,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F5" s="9">
         <v>120</v>
@@ -8153,7 +8308,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F6" s="9">
         <v>120</v>
@@ -8173,7 +8328,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F7" s="9">
         <v>120</v>
@@ -8193,7 +8348,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F8" s="9">
         <v>120</v>
@@ -8213,7 +8368,7 @@
         <v>5</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F9" s="9">
         <v>120</v>
@@ -8233,7 +8388,7 @@
         <v>6</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F10" s="9">
         <v>120</v>
@@ -8253,7 +8408,7 @@
         <v>7</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F11" s="9">
         <v>120</v>
@@ -8273,7 +8428,7 @@
         <v>8</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F12" s="9">
         <v>120</v>
@@ -8293,7 +8448,7 @@
         <v>9</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F13" s="9">
         <v>120</v>
@@ -8313,7 +8468,7 @@
         <v>10</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F14" s="9">
         <v>120</v>
@@ -8333,7 +8488,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F15" s="9">
         <v>120</v>
@@ -8353,7 +8508,7 @@
         <v>12</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F16" s="9">
         <v>120</v>
@@ -8373,7 +8528,7 @@
         <v>13</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F17" s="9">
         <v>120</v>
@@ -8393,7 +8548,7 @@
         <v>14</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F18" s="9">
         <v>120</v>
@@ -8413,7 +8568,7 @@
         <v>15</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F19" s="9">
         <v>120</v>
@@ -8433,7 +8588,7 @@
         <v>16</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F20" s="9">
         <v>120</v>
@@ -8453,7 +8608,7 @@
         <v>17</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F21" s="9">
         <v>120</v>
@@ -8473,7 +8628,7 @@
         <v>18</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F22" s="9">
         <v>120</v>
@@ -8493,7 +8648,7 @@
         <v>19</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F23" s="9">
         <v>120</v>
@@ -8540,7 +8695,7 @@
         <v>42</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>67</v>
@@ -8549,7 +8704,7 @@
         <v>65</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F1" s="14" t="s">
         <v>66</v>
@@ -8566,7 +8721,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>1</v>
@@ -8752,10 +8907,10 @@
         <v>50</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>84</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:4">

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevD\TowerDefense\ExcelToCSV\SrcFolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GameJam\ExcelToCSV\SrcFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148453D6-0006-4A52-871E-0EFB1502D522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC2074B-FC81-4F3B-8E54-B51E315120E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30690" yWindow="3045" windowWidth="24195" windowHeight="12150" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigTable" sheetId="18" r:id="rId1"/>
@@ -24,6 +24,9 @@
     <sheet name="GachaList" sheetId="28" r:id="rId9"/>
     <sheet name="reference" sheetId="31" r:id="rId10"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId11"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -188,7 +191,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="238">
   <si>
     <t>type</t>
   </si>
@@ -1331,6 +1334,34 @@
   </si>
   <si>
     <t>레전드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indian_Wagon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indian_Catapult</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indian_Watchtower</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indian_Chicken_House</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indian_Jar_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indian_Jar_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indian_Straw</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1574,7 +1605,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1707,6 +1738,9 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1722,6 +1756,442 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="ConfigTable"/>
+      <sheetName val="EnumTable"/>
+      <sheetName val="Unitinfo"/>
+      <sheetName val="UnitGradeInfo"/>
+      <sheetName val="ProjectileInfo"/>
+      <sheetName val="Localization"/>
+      <sheetName val="StageInfo"/>
+      <sheetName val="StageRewardInfo"/>
+      <sheetName val="GachaList"/>
+      <sheetName val="reference"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Id</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>memo2</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>int</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>string</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>all</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>all</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>1001</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>(원거리)Indian_Archer</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>1002</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>(근거리)Indian_Shield</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>1003</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>(근거리)Indian_Spear</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>1004</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>(근거리)Indian_Sword</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>1005</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>(근거리)Indian_Mask</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>1006</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>(근거리)Indian_Bear</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>1007</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>(근거리)Bear</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>1008</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>(근거리)Indian_Master</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>1009</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>(근거리)Corgi</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>1010</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>(근거리)Indian_Horse_Sword</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>1011</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>(근거리)Indian_Horse_Spear</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>1012</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>(원거리)Indian_Horse_Archer</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>1013</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>(원거리)Chicken_Black</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>1014</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v>(원거리)Chicken_White</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>1015</v>
+          </cell>
+          <cell r="C18" t="str">
+            <v>(근거리)Indian_Elephant</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>1016</v>
+          </cell>
+          <cell r="C19" t="str">
+            <v>(원거리)Indian_Egg</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>2001</v>
+          </cell>
+          <cell r="C20" t="str">
+            <v>(근거리)Slime</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>2002</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v>(원거리)Slime_Archer</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>2003</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v>(근거리)Skeleton_Sword</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>2004</v>
+          </cell>
+          <cell r="C23" t="str">
+            <v>(원거리)Skeleton_Archer</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>2005</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>(원거리)Skeleton_Witch</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>2006</v>
+          </cell>
+          <cell r="C25" t="str">
+            <v>(근거리)Zombie_Hand</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>2007</v>
+          </cell>
+          <cell r="C26" t="str">
+            <v>(근거리)Zombie_Shield</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>2008</v>
+          </cell>
+          <cell r="C27" t="str">
+            <v>(근거리)Zombie_Sword</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>2009</v>
+          </cell>
+          <cell r="C28" t="str">
+            <v>(원거리)Witch_Fire</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>2010</v>
+          </cell>
+          <cell r="C29" t="str">
+            <v>(원거리)Witch_Thunder</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>2011</v>
+          </cell>
+          <cell r="C30" t="str">
+            <v>(원거리)Witch_Poison</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>2012</v>
+          </cell>
+          <cell r="C31" t="str">
+            <v>(원거리)Goblin_Stone</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>2013</v>
+          </cell>
+          <cell r="C32" t="str">
+            <v>(근거리)Goblin_Club</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>2014</v>
+          </cell>
+          <cell r="C33" t="str">
+            <v>(근거리)Goblin_Baby</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>2015</v>
+          </cell>
+          <cell r="C34" t="str">
+            <v>(원거리)Orc_Stone</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>2016</v>
+          </cell>
+          <cell r="C35" t="str">
+            <v>(근거리)Orc_Club</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>2017</v>
+          </cell>
+          <cell r="C36" t="str">
+            <v>(근거리)Dragon</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>2018</v>
+          </cell>
+          <cell r="C37" t="str">
+            <v>(원거리)Dragon_Fire</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>11001</v>
+          </cell>
+          <cell r="C38" t="str">
+            <v>(원거리)Indian_Wagon</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>11002</v>
+          </cell>
+          <cell r="C39" t="str">
+            <v>(원거리)Indian_Catapult</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>11003</v>
+          </cell>
+          <cell r="C40" t="str">
+            <v>(원거리)Indian_Wall</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>11004</v>
+          </cell>
+          <cell r="C41" t="str">
+            <v>(원거리)Indian_Watchtower</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>11005</v>
+          </cell>
+          <cell r="C42" t="str">
+            <v>(원거리)Indian_Chicken_House</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>11006</v>
+          </cell>
+          <cell r="C43" t="str">
+            <v>(원거리)Indian_Jar_1</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44">
+            <v>11007</v>
+          </cell>
+          <cell r="C44" t="str">
+            <v>(원거리)Indian_Jar_2</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45">
+            <v>11008</v>
+          </cell>
+          <cell r="C45" t="str">
+            <v>(원거리)Indian_Straw</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="41">
+          <cell r="B41">
+            <v>11001</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42">
+            <v>11002</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43">
+            <v>11003</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44">
+            <v>11004</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45">
+            <v>11005</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46">
+            <v>11006</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47">
+            <v>11007</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48">
+            <v>11008</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3050,10 +3520,10 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.5"/>
@@ -3224,8 +3694,8 @@
         <f>"unit_icon_"&amp;A4</f>
         <v>unit_icon_1001</v>
       </c>
-      <c r="L4" s="41" t="str">
-        <f t="shared" ref="L4:L19" si="0">"Unit/Enemy/Chapter_1/"&amp;A4&amp;"_"&amp;B4&amp;".prefab"</f>
+      <c r="L4" s="52" t="str">
+        <f>IF(A4&lt;1999,"Unit/Enemy/Chapter_1/"&amp;A4&amp;"_"&amp;B4&amp;".prefab",IF(A4&lt;2999,"Unit/Hero/"&amp;A4&amp;"_"&amp;B4&amp;".prefab","Unit/Enemy/Chapter_1_Object/"&amp;A4&amp;"_"&amp;B4&amp;".prefab"))</f>
         <v>Unit/Enemy/Chapter_1/1001_Indian_Archer.prefab</v>
       </c>
     </row>
@@ -3237,7 +3707,7 @@
         <v>149</v>
       </c>
       <c r="C5" s="41" t="str">
-        <f t="shared" ref="C5:C38" si="1">IF(D5=1,"(원거리)","(근거리)")&amp;B5</f>
+        <f t="shared" ref="C5:C45" si="0">IF(D5=1,"(원거리)","(근거리)")&amp;B5</f>
         <v>(근거리)Indian_Shield</v>
       </c>
       <c r="D5" s="40">
@@ -3259,15 +3729,15 @@
         <v>1</v>
       </c>
       <c r="J5" s="40" t="str">
-        <f t="shared" ref="J5:J22" si="2">"name_"&amp;A5</f>
+        <f t="shared" ref="J5:J22" si="1">"name_"&amp;A5</f>
         <v>name_1002</v>
       </c>
       <c r="K5" s="40" t="str">
-        <f t="shared" ref="K5:K30" si="3">"unit_icon_"&amp;A5</f>
+        <f t="shared" ref="K5:K30" si="2">"unit_icon_"&amp;A5</f>
         <v>unit_icon_1002</v>
       </c>
-      <c r="L5" s="41" t="str">
-        <f t="shared" si="0"/>
+      <c r="L5" s="52" t="str">
+        <f t="shared" ref="L5:L45" si="3">IF(A5&lt;1999,"Unit/Enemy/Chapter_1/"&amp;A5&amp;"_"&amp;B5&amp;".prefab",IF(A5&lt;2999,"Unit/Hero/"&amp;A5&amp;"_"&amp;B5&amp;".prefab","Unit/Enemy/Chapter_1_Object/"&amp;A5&amp;"_"&amp;B5&amp;".prefab"))</f>
         <v>Unit/Enemy/Chapter_1/1002_Indian_Shield.prefab</v>
       </c>
     </row>
@@ -3279,7 +3749,7 @@
         <v>150</v>
       </c>
       <c r="C6" s="41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(근거리)Indian_Spear</v>
       </c>
       <c r="D6" s="40">
@@ -3301,15 +3771,15 @@
         <v>1</v>
       </c>
       <c r="J6" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>name_1003</v>
+      </c>
+      <c r="K6" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>name_1003</v>
-      </c>
-      <c r="K6" s="40" t="str">
+        <v>unit_icon_1003</v>
+      </c>
+      <c r="L6" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>unit_icon_1003</v>
-      </c>
-      <c r="L6" s="41" t="str">
-        <f t="shared" si="0"/>
         <v>Unit/Enemy/Chapter_1/1003_Indian_Spear.prefab</v>
       </c>
     </row>
@@ -3321,7 +3791,7 @@
         <v>151</v>
       </c>
       <c r="C7" s="41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(근거리)Indian_Sword</v>
       </c>
       <c r="D7" s="40">
@@ -3343,15 +3813,15 @@
         <v>3</v>
       </c>
       <c r="J7" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>name_1004</v>
+      </c>
+      <c r="K7" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>name_1004</v>
-      </c>
-      <c r="K7" s="40" t="str">
+        <v>unit_icon_1004</v>
+      </c>
+      <c r="L7" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>unit_icon_1004</v>
-      </c>
-      <c r="L7" s="41" t="str">
-        <f t="shared" si="0"/>
         <v>Unit/Enemy/Chapter_1/1004_Indian_Sword.prefab</v>
       </c>
     </row>
@@ -3363,7 +3833,7 @@
         <v>152</v>
       </c>
       <c r="C8" s="41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(근거리)Indian_Mask</v>
       </c>
       <c r="D8" s="40">
@@ -3385,15 +3855,15 @@
         <v>0</v>
       </c>
       <c r="J8" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>name_1005</v>
+      </c>
+      <c r="K8" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>name_1005</v>
-      </c>
-      <c r="K8" s="40" t="str">
+        <v>unit_icon_1005</v>
+      </c>
+      <c r="L8" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>unit_icon_1005</v>
-      </c>
-      <c r="L8" s="41" t="str">
-        <f t="shared" si="0"/>
         <v>Unit/Enemy/Chapter_1/1005_Indian_Mask.prefab</v>
       </c>
     </row>
@@ -3405,7 +3875,7 @@
         <v>153</v>
       </c>
       <c r="C9" s="41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(근거리)Indian_Bear</v>
       </c>
       <c r="D9" s="40">
@@ -3427,15 +3897,15 @@
         <v>1</v>
       </c>
       <c r="J9" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>name_1006</v>
+      </c>
+      <c r="K9" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>name_1006</v>
-      </c>
-      <c r="K9" s="40" t="str">
+        <v>unit_icon_1006</v>
+      </c>
+      <c r="L9" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>unit_icon_1006</v>
-      </c>
-      <c r="L9" s="41" t="str">
-        <f t="shared" si="0"/>
         <v>Unit/Enemy/Chapter_1/1006_Indian_Bear.prefab</v>
       </c>
     </row>
@@ -3447,7 +3917,7 @@
         <v>154</v>
       </c>
       <c r="C10" s="41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(근거리)Bear</v>
       </c>
       <c r="D10" s="40">
@@ -3469,15 +3939,15 @@
         <v>1</v>
       </c>
       <c r="J10" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>name_1007</v>
+      </c>
+      <c r="K10" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>name_1007</v>
-      </c>
-      <c r="K10" s="40" t="str">
+        <v>unit_icon_1007</v>
+      </c>
+      <c r="L10" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>unit_icon_1007</v>
-      </c>
-      <c r="L10" s="41" t="str">
-        <f t="shared" si="0"/>
         <v>Unit/Enemy/Chapter_1/1007_Bear.prefab</v>
       </c>
     </row>
@@ -3489,7 +3959,7 @@
         <v>155</v>
       </c>
       <c r="C11" s="41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(근거리)Indian_Master</v>
       </c>
       <c r="D11" s="40">
@@ -3511,15 +3981,15 @@
         <v>3</v>
       </c>
       <c r="J11" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>name_1008</v>
+      </c>
+      <c r="K11" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>name_1008</v>
-      </c>
-      <c r="K11" s="40" t="str">
+        <v>unit_icon_1008</v>
+      </c>
+      <c r="L11" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>unit_icon_1008</v>
-      </c>
-      <c r="L11" s="41" t="str">
-        <f t="shared" si="0"/>
         <v>Unit/Enemy/Chapter_1/1008_Indian_Master.prefab</v>
       </c>
     </row>
@@ -3531,7 +4001,7 @@
         <v>156</v>
       </c>
       <c r="C12" s="41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(근거리)Corgi</v>
       </c>
       <c r="D12" s="40">
@@ -3553,15 +4023,15 @@
         <v>1</v>
       </c>
       <c r="J12" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>name_1009</v>
+      </c>
+      <c r="K12" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>name_1009</v>
-      </c>
-      <c r="K12" s="40" t="str">
+        <v>unit_icon_1009</v>
+      </c>
+      <c r="L12" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>unit_icon_1009</v>
-      </c>
-      <c r="L12" s="41" t="str">
-        <f t="shared" si="0"/>
         <v>Unit/Enemy/Chapter_1/1009_Corgi.prefab</v>
       </c>
     </row>
@@ -3573,7 +4043,7 @@
         <v>197</v>
       </c>
       <c r="C13" s="41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(근거리)Indian_Horse_Sword</v>
       </c>
       <c r="D13" s="40">
@@ -3602,8 +4072,8 @@
         <f t="shared" ref="K13:K19" si="5">"unit_icon_"&amp;A13</f>
         <v>unit_icon_1010</v>
       </c>
-      <c r="L13" s="41" t="str">
-        <f t="shared" si="0"/>
+      <c r="L13" s="52" t="str">
+        <f t="shared" si="3"/>
         <v>Unit/Enemy/Chapter_1/1010_Indian_Horse_Sword.prefab</v>
       </c>
     </row>
@@ -3615,7 +4085,7 @@
         <v>198</v>
       </c>
       <c r="C14" s="41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(근거리)Indian_Horse_Spear</v>
       </c>
       <c r="D14" s="40">
@@ -3644,8 +4114,8 @@
         <f t="shared" si="5"/>
         <v>unit_icon_1011</v>
       </c>
-      <c r="L14" s="41" t="str">
-        <f t="shared" si="0"/>
+      <c r="L14" s="52" t="str">
+        <f t="shared" si="3"/>
         <v>Unit/Enemy/Chapter_1/1011_Indian_Horse_Spear.prefab</v>
       </c>
     </row>
@@ -3657,7 +4127,7 @@
         <v>199</v>
       </c>
       <c r="C15" s="41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(원거리)Indian_Horse_Archer</v>
       </c>
       <c r="D15" s="40">
@@ -3686,8 +4156,8 @@
         <f t="shared" si="5"/>
         <v>unit_icon_1012</v>
       </c>
-      <c r="L15" s="41" t="str">
-        <f t="shared" si="0"/>
+      <c r="L15" s="52" t="str">
+        <f t="shared" si="3"/>
         <v>Unit/Enemy/Chapter_1/1012_Indian_Horse_Archer.prefab</v>
       </c>
     </row>
@@ -3699,7 +4169,7 @@
         <v>200</v>
       </c>
       <c r="C16" s="41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(원거리)Chicken_Black</v>
       </c>
       <c r="D16" s="40">
@@ -3728,8 +4198,8 @@
         <f t="shared" si="5"/>
         <v>unit_icon_1013</v>
       </c>
-      <c r="L16" s="41" t="str">
-        <f t="shared" si="0"/>
+      <c r="L16" s="52" t="str">
+        <f t="shared" si="3"/>
         <v>Unit/Enemy/Chapter_1/1013_Chicken_Black.prefab</v>
       </c>
     </row>
@@ -3741,7 +4211,7 @@
         <v>201</v>
       </c>
       <c r="C17" s="41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(원거리)Chicken_White</v>
       </c>
       <c r="D17" s="40">
@@ -3770,8 +4240,8 @@
         <f t="shared" si="5"/>
         <v>unit_icon_1014</v>
       </c>
-      <c r="L17" s="41" t="str">
-        <f t="shared" si="0"/>
+      <c r="L17" s="52" t="str">
+        <f t="shared" si="3"/>
         <v>Unit/Enemy/Chapter_1/1014_Chicken_White.prefab</v>
       </c>
     </row>
@@ -3783,7 +4253,7 @@
         <v>202</v>
       </c>
       <c r="C18" s="41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(근거리)Indian_Elephant</v>
       </c>
       <c r="D18" s="40">
@@ -3812,8 +4282,8 @@
         <f t="shared" si="5"/>
         <v>unit_icon_1015</v>
       </c>
-      <c r="L18" s="41" t="str">
-        <f t="shared" si="0"/>
+      <c r="L18" s="52" t="str">
+        <f t="shared" si="3"/>
         <v>Unit/Enemy/Chapter_1/1015_Indian_Elephant.prefab</v>
       </c>
     </row>
@@ -3825,7 +4295,7 @@
         <v>203</v>
       </c>
       <c r="C19" s="41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(원거리)Indian_Egg</v>
       </c>
       <c r="D19" s="40">
@@ -3854,8 +4324,8 @@
         <f t="shared" si="5"/>
         <v>unit_icon_1016</v>
       </c>
-      <c r="L19" s="41" t="str">
-        <f t="shared" si="0"/>
+      <c r="L19" s="52" t="str">
+        <f t="shared" si="3"/>
         <v>Unit/Enemy/Chapter_1/1016_Indian_Egg.prefab</v>
       </c>
     </row>
@@ -3867,7 +4337,7 @@
         <v>159</v>
       </c>
       <c r="C20" s="41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(근거리)Slime</v>
       </c>
       <c r="D20" s="40">
@@ -3889,15 +4359,15 @@
         <v>1</v>
       </c>
       <c r="J20" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>name_2001</v>
+      </c>
+      <c r="K20" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>name_2001</v>
-      </c>
-      <c r="K20" s="40" t="str">
+        <v>unit_icon_2001</v>
+      </c>
+      <c r="L20" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>unit_icon_2001</v>
-      </c>
-      <c r="L20" s="41" t="str">
-        <f>"Unit/Hero/"&amp;A20&amp;"_"&amp;B20&amp;".prefab"</f>
         <v>Unit/Hero/2001_Slime.prefab</v>
       </c>
     </row>
@@ -3909,7 +4379,7 @@
         <v>160</v>
       </c>
       <c r="C21" s="41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(원거리)Slime_Archer</v>
       </c>
       <c r="D21" s="40">
@@ -3931,15 +4401,15 @@
         <v>0</v>
       </c>
       <c r="J21" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>name_2002</v>
+      </c>
+      <c r="K21" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>name_2002</v>
-      </c>
-      <c r="K21" s="40" t="str">
+        <v>unit_icon_2002</v>
+      </c>
+      <c r="L21" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>unit_icon_2002</v>
-      </c>
-      <c r="L21" s="41" t="str">
-        <f t="shared" ref="L21:L30" si="6">"Unit/Hero/"&amp;A21&amp;"_"&amp;B21&amp;".prefab"</f>
         <v>Unit/Hero/2002_Slime_Archer.prefab</v>
       </c>
     </row>
@@ -3951,7 +4421,7 @@
         <v>166</v>
       </c>
       <c r="C22" s="41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(근거리)Skeleton_Sword</v>
       </c>
       <c r="D22" s="40">
@@ -3973,15 +4443,15 @@
         <v>1</v>
       </c>
       <c r="J22" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>name_2003</v>
+      </c>
+      <c r="K22" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>name_2003</v>
-      </c>
-      <c r="K22" s="40" t="str">
+        <v>unit_icon_2003</v>
+      </c>
+      <c r="L22" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>unit_icon_2003</v>
-      </c>
-      <c r="L22" s="41" t="str">
-        <f t="shared" si="6"/>
         <v>Unit/Hero/2003_Skeleton_Sword.prefab</v>
       </c>
     </row>
@@ -3993,7 +4463,7 @@
         <v>163</v>
       </c>
       <c r="C23" s="41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(원거리)Skeleton_Archer</v>
       </c>
       <c r="D23" s="40">
@@ -4015,15 +4485,15 @@
         <v>1</v>
       </c>
       <c r="J23" s="40" t="str">
-        <f t="shared" ref="J23:J30" si="7">"name_"&amp;A23</f>
+        <f t="shared" ref="J23:J30" si="6">"name_"&amp;A23</f>
         <v>name_2004</v>
       </c>
       <c r="K23" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>unit_icon_2004</v>
+      </c>
+      <c r="L23" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>unit_icon_2004</v>
-      </c>
-      <c r="L23" s="41" t="str">
-        <f t="shared" si="6"/>
         <v>Unit/Hero/2004_Skeleton_Archer.prefab</v>
       </c>
     </row>
@@ -4035,7 +4505,7 @@
         <v>169</v>
       </c>
       <c r="C24" s="41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(원거리)Skeleton_Witch</v>
       </c>
       <c r="D24" s="40">
@@ -4057,15 +4527,15 @@
         <v>3</v>
       </c>
       <c r="J24" s="40" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>name_2005</v>
       </c>
       <c r="K24" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>unit_icon_2005</v>
+      </c>
+      <c r="L24" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>unit_icon_2005</v>
-      </c>
-      <c r="L24" s="41" t="str">
-        <f t="shared" si="6"/>
         <v>Unit/Hero/2005_Skeleton_Witch.prefab</v>
       </c>
     </row>
@@ -4077,7 +4547,7 @@
         <v>164</v>
       </c>
       <c r="C25" s="41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(근거리)Zombie_Hand</v>
       </c>
       <c r="D25" s="40">
@@ -4099,15 +4569,15 @@
         <v>1</v>
       </c>
       <c r="J25" s="40" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>name_2006</v>
       </c>
       <c r="K25" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>unit_icon_2006</v>
+      </c>
+      <c r="L25" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>unit_icon_2006</v>
-      </c>
-      <c r="L25" s="41" t="str">
-        <f t="shared" si="6"/>
         <v>Unit/Hero/2006_Zombie_Hand.prefab</v>
       </c>
     </row>
@@ -4119,7 +4589,7 @@
         <v>165</v>
       </c>
       <c r="C26" s="41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(근거리)Zombie_Shield</v>
       </c>
       <c r="D26" s="40">
@@ -4141,15 +4611,15 @@
         <v>1</v>
       </c>
       <c r="J26" s="40" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>name_2007</v>
       </c>
       <c r="K26" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>unit_icon_2007</v>
+      </c>
+      <c r="L26" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>unit_icon_2007</v>
-      </c>
-      <c r="L26" s="41" t="str">
-        <f t="shared" si="6"/>
         <v>Unit/Hero/2007_Zombie_Shield.prefab</v>
       </c>
     </row>
@@ -4161,7 +4631,7 @@
         <v>167</v>
       </c>
       <c r="C27" s="41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(근거리)Zombie_Sword</v>
       </c>
       <c r="D27" s="40">
@@ -4183,15 +4653,15 @@
         <v>1</v>
       </c>
       <c r="J27" s="40" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>name_2008</v>
       </c>
       <c r="K27" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>unit_icon_2008</v>
+      </c>
+      <c r="L27" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>unit_icon_2008</v>
-      </c>
-      <c r="L27" s="41" t="str">
-        <f t="shared" si="6"/>
         <v>Unit/Hero/2008_Zombie_Sword.prefab</v>
       </c>
     </row>
@@ -4203,7 +4673,7 @@
         <v>168</v>
       </c>
       <c r="C28" s="41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(원거리)Witch_Fire</v>
       </c>
       <c r="D28" s="40">
@@ -4225,15 +4695,15 @@
         <v>0</v>
       </c>
       <c r="J28" s="40" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>name_2009</v>
       </c>
       <c r="K28" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>unit_icon_2009</v>
+      </c>
+      <c r="L28" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>unit_icon_2009</v>
-      </c>
-      <c r="L28" s="41" t="str">
-        <f t="shared" si="6"/>
         <v>Unit/Hero/2009_Witch_Fire.prefab</v>
       </c>
     </row>
@@ -4245,7 +4715,7 @@
         <v>161</v>
       </c>
       <c r="C29" s="41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(원거리)Witch_Thunder</v>
       </c>
       <c r="D29" s="40">
@@ -4267,15 +4737,15 @@
         <v>1</v>
       </c>
       <c r="J29" s="40" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>name_2010</v>
       </c>
       <c r="K29" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>unit_icon_2010</v>
+      </c>
+      <c r="L29" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>unit_icon_2010</v>
-      </c>
-      <c r="L29" s="41" t="str">
-        <f>"Unit/Hero/"&amp;A29&amp;"_"&amp;B29&amp;".prefab"</f>
         <v>Unit/Hero/2010_Witch_Thunder.prefab</v>
       </c>
     </row>
@@ -4287,7 +4757,7 @@
         <v>175</v>
       </c>
       <c r="C30" s="41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(원거리)Witch_Poison</v>
       </c>
       <c r="D30" s="40">
@@ -4309,15 +4779,15 @@
         <v>1</v>
       </c>
       <c r="J30" s="40" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>name_2011</v>
       </c>
       <c r="K30" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>unit_icon_2011</v>
+      </c>
+      <c r="L30" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>unit_icon_2011</v>
-      </c>
-      <c r="L30" s="41" t="str">
-        <f t="shared" si="6"/>
         <v>Unit/Hero/2011_Witch_Poison.prefab</v>
       </c>
     </row>
@@ -4329,7 +4799,7 @@
         <v>204</v>
       </c>
       <c r="C31" s="41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(원거리)Goblin_Stone</v>
       </c>
       <c r="D31" s="40">
@@ -4351,15 +4821,15 @@
         <v>3</v>
       </c>
       <c r="J31" s="40" t="str">
-        <f t="shared" ref="J31:J37" si="8">"name_"&amp;A31</f>
+        <f t="shared" ref="J31:J45" si="7">"name_"&amp;A31</f>
         <v>name_2012</v>
       </c>
       <c r="K31" s="40" t="str">
-        <f t="shared" ref="K31:K37" si="9">"unit_icon_"&amp;A31</f>
+        <f t="shared" ref="K31:K45" si="8">"unit_icon_"&amp;A31</f>
         <v>unit_icon_2012</v>
       </c>
-      <c r="L31" s="41" t="str">
-        <f t="shared" ref="L31:L37" si="10">"Unit/Hero/"&amp;A31&amp;"_"&amp;B31&amp;".prefab"</f>
+      <c r="L31" s="52" t="str">
+        <f t="shared" si="3"/>
         <v>Unit/Hero/2012_Goblin_Stone.prefab</v>
       </c>
     </row>
@@ -4371,7 +4841,7 @@
         <v>205</v>
       </c>
       <c r="C32" s="41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(근거리)Goblin_Club</v>
       </c>
       <c r="D32" s="40">
@@ -4393,15 +4863,15 @@
         <v>1</v>
       </c>
       <c r="J32" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>name_2013</v>
+      </c>
+      <c r="K32" s="40" t="str">
         <f t="shared" si="8"/>
-        <v>name_2013</v>
-      </c>
-      <c r="K32" s="40" t="str">
-        <f t="shared" si="9"/>
         <v>unit_icon_2013</v>
       </c>
-      <c r="L32" s="41" t="str">
-        <f t="shared" si="10"/>
+      <c r="L32" s="52" t="str">
+        <f t="shared" si="3"/>
         <v>Unit/Hero/2013_Goblin_Club.prefab</v>
       </c>
     </row>
@@ -4413,7 +4883,7 @@
         <v>206</v>
       </c>
       <c r="C33" s="41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(근거리)Goblin_Baby</v>
       </c>
       <c r="D33" s="40">
@@ -4435,15 +4905,15 @@
         <v>0</v>
       </c>
       <c r="J33" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>name_2014</v>
+      </c>
+      <c r="K33" s="40" t="str">
         <f t="shared" si="8"/>
-        <v>name_2014</v>
-      </c>
-      <c r="K33" s="40" t="str">
-        <f t="shared" si="9"/>
         <v>unit_icon_2014</v>
       </c>
-      <c r="L33" s="41" t="str">
-        <f t="shared" si="10"/>
+      <c r="L33" s="52" t="str">
+        <f t="shared" si="3"/>
         <v>Unit/Hero/2014_Goblin_Baby.prefab</v>
       </c>
     </row>
@@ -4455,7 +4925,7 @@
         <v>207</v>
       </c>
       <c r="C34" s="41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(원거리)Orc_Stone</v>
       </c>
       <c r="D34" s="40">
@@ -4477,15 +4947,15 @@
         <v>1</v>
       </c>
       <c r="J34" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>name_2015</v>
+      </c>
+      <c r="K34" s="40" t="str">
         <f t="shared" si="8"/>
-        <v>name_2015</v>
-      </c>
-      <c r="K34" s="40" t="str">
-        <f t="shared" si="9"/>
         <v>unit_icon_2015</v>
       </c>
-      <c r="L34" s="41" t="str">
-        <f t="shared" si="10"/>
+      <c r="L34" s="52" t="str">
+        <f t="shared" si="3"/>
         <v>Unit/Hero/2015_Orc_Stone.prefab</v>
       </c>
     </row>
@@ -4497,7 +4967,7 @@
         <v>208</v>
       </c>
       <c r="C35" s="41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(근거리)Orc_Club</v>
       </c>
       <c r="D35" s="40">
@@ -4519,15 +4989,15 @@
         <v>1</v>
       </c>
       <c r="J35" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>name_2016</v>
+      </c>
+      <c r="K35" s="40" t="str">
         <f t="shared" si="8"/>
-        <v>name_2016</v>
-      </c>
-      <c r="K35" s="40" t="str">
-        <f t="shared" si="9"/>
         <v>unit_icon_2016</v>
       </c>
-      <c r="L35" s="41" t="str">
-        <f t="shared" si="10"/>
+      <c r="L35" s="52" t="str">
+        <f t="shared" si="3"/>
         <v>Unit/Hero/2016_Orc_Club.prefab</v>
       </c>
     </row>
@@ -4539,7 +5009,7 @@
         <v>209</v>
       </c>
       <c r="C36" s="41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(근거리)Dragon</v>
       </c>
       <c r="D36" s="40">
@@ -4561,15 +5031,15 @@
         <v>3</v>
       </c>
       <c r="J36" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>name_2017</v>
+      </c>
+      <c r="K36" s="40" t="str">
         <f t="shared" si="8"/>
-        <v>name_2017</v>
-      </c>
-      <c r="K36" s="40" t="str">
-        <f t="shared" si="9"/>
         <v>unit_icon_2017</v>
       </c>
-      <c r="L36" s="41" t="str">
-        <f t="shared" si="10"/>
+      <c r="L36" s="52" t="str">
+        <f t="shared" si="3"/>
         <v>Unit/Hero/2017_Dragon.prefab</v>
       </c>
     </row>
@@ -4581,7 +5051,7 @@
         <v>210</v>
       </c>
       <c r="C37" s="38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(원거리)Dragon_Fire</v>
       </c>
       <c r="D37" s="40">
@@ -4603,30 +5073,30 @@
         <v>1</v>
       </c>
       <c r="J37" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>name_2018</v>
+      </c>
+      <c r="K37" s="40" t="str">
         <f t="shared" si="8"/>
-        <v>name_2018</v>
-      </c>
-      <c r="K37" s="40" t="str">
-        <f t="shared" si="9"/>
         <v>unit_icon_2018</v>
       </c>
-      <c r="L37" s="41" t="str">
-        <f t="shared" si="10"/>
+      <c r="L37" s="52" t="str">
+        <f t="shared" si="3"/>
         <v>Unit/Hero/2018_Dragon_Fire.prefab</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="40">
-        <v>11003</v>
-      </c>
-      <c r="B38" s="40" t="s">
-        <v>217</v>
-      </c>
-      <c r="C38" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v>(원거리)Indian_Wall</v>
-      </c>
-      <c r="D38" s="38">
+        <v>11001</v>
+      </c>
+      <c r="B38" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="C38" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>(원거리)Indian_Wagon</v>
+      </c>
+      <c r="D38" s="40">
         <v>1</v>
       </c>
       <c r="E38" s="40">
@@ -4645,23 +5115,311 @@
         <v>1</v>
       </c>
       <c r="J38" s="40" t="str">
-        <f t="shared" ref="J38" si="11">"name_"&amp;A38</f>
+        <f t="shared" si="7"/>
+        <v>name_11001</v>
+      </c>
+      <c r="K38" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>unit_icon_11001</v>
+      </c>
+      <c r="L38" s="52" t="str">
+        <f t="shared" si="3"/>
+        <v>Unit/Enemy/Chapter_1_Object/11001_Indian_Wagon.prefab</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="40">
+        <v>11002</v>
+      </c>
+      <c r="B39" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="C39" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>(원거리)Indian_Catapult</v>
+      </c>
+      <c r="D39" s="40">
+        <v>1</v>
+      </c>
+      <c r="E39" s="40">
+        <v>100</v>
+      </c>
+      <c r="F39" s="40">
+        <v>1</v>
+      </c>
+      <c r="G39" s="40">
+        <v>1</v>
+      </c>
+      <c r="H39" s="40">
+        <v>1</v>
+      </c>
+      <c r="I39" s="40">
+        <v>1</v>
+      </c>
+      <c r="J39" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>name_11002</v>
+      </c>
+      <c r="K39" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>unit_icon_11002</v>
+      </c>
+      <c r="L39" s="52" t="str">
+        <f t="shared" si="3"/>
+        <v>Unit/Enemy/Chapter_1_Object/11002_Indian_Catapult.prefab</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="40">
+        <v>11003</v>
+      </c>
+      <c r="B40" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="C40" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>(원거리)Indian_Wall</v>
+      </c>
+      <c r="D40" s="40">
+        <v>1</v>
+      </c>
+      <c r="E40" s="40">
+        <v>100</v>
+      </c>
+      <c r="F40" s="40">
+        <v>1</v>
+      </c>
+      <c r="G40" s="40">
+        <v>1</v>
+      </c>
+      <c r="H40" s="40">
+        <v>1</v>
+      </c>
+      <c r="I40" s="40">
+        <v>1</v>
+      </c>
+      <c r="J40" s="40" t="str">
+        <f t="shared" si="7"/>
         <v>name_11003</v>
       </c>
-      <c r="K38" s="40" t="str">
-        <f t="shared" ref="K38" si="12">"unit_icon_"&amp;A38</f>
+      <c r="K40" s="40" t="str">
+        <f t="shared" si="8"/>
         <v>unit_icon_11003</v>
       </c>
-      <c r="L38" s="41" t="str">
-        <f>"Unit/Enemy/Chapter_1_Object/"&amp;A38&amp;"_"&amp;B38&amp;".prefab"</f>
+      <c r="L40" s="52" t="str">
+        <f t="shared" si="3"/>
         <v>Unit/Enemy/Chapter_1_Object/11003_Indian_Wall.prefab</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="40"/>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="40"/>
+    <row r="41" spans="1:12">
+      <c r="A41" s="40">
+        <v>11004</v>
+      </c>
+      <c r="B41" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="C41" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>(원거리)Indian_Watchtower</v>
+      </c>
+      <c r="D41" s="40">
+        <v>1</v>
+      </c>
+      <c r="E41" s="40">
+        <v>100</v>
+      </c>
+      <c r="F41" s="40">
+        <v>1</v>
+      </c>
+      <c r="G41" s="40">
+        <v>1</v>
+      </c>
+      <c r="H41" s="40">
+        <v>1</v>
+      </c>
+      <c r="I41" s="40">
+        <v>1</v>
+      </c>
+      <c r="J41" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>name_11004</v>
+      </c>
+      <c r="K41" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>unit_icon_11004</v>
+      </c>
+      <c r="L41" s="52" t="str">
+        <f t="shared" si="3"/>
+        <v>Unit/Enemy/Chapter_1_Object/11004_Indian_Watchtower.prefab</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="40">
+        <v>11005</v>
+      </c>
+      <c r="B42" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="C42" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>(원거리)Indian_Chicken_House</v>
+      </c>
+      <c r="D42" s="40">
+        <v>1</v>
+      </c>
+      <c r="E42" s="40">
+        <v>100</v>
+      </c>
+      <c r="F42" s="40">
+        <v>1</v>
+      </c>
+      <c r="G42" s="40">
+        <v>1</v>
+      </c>
+      <c r="H42" s="40">
+        <v>1</v>
+      </c>
+      <c r="I42" s="40">
+        <v>1</v>
+      </c>
+      <c r="J42" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>name_11005</v>
+      </c>
+      <c r="K42" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>unit_icon_11005</v>
+      </c>
+      <c r="L42" s="52" t="str">
+        <f t="shared" si="3"/>
+        <v>Unit/Enemy/Chapter_1_Object/11005_Indian_Chicken_House.prefab</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="40">
+        <v>11006</v>
+      </c>
+      <c r="B43" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="C43" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>(원거리)Indian_Jar_1</v>
+      </c>
+      <c r="D43" s="40">
+        <v>1</v>
+      </c>
+      <c r="E43" s="40">
+        <v>100</v>
+      </c>
+      <c r="F43" s="40">
+        <v>1</v>
+      </c>
+      <c r="G43" s="40">
+        <v>1</v>
+      </c>
+      <c r="H43" s="40">
+        <v>1</v>
+      </c>
+      <c r="I43" s="40">
+        <v>1</v>
+      </c>
+      <c r="J43" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>name_11006</v>
+      </c>
+      <c r="K43" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>unit_icon_11006</v>
+      </c>
+      <c r="L43" s="52" t="str">
+        <f t="shared" si="3"/>
+        <v>Unit/Enemy/Chapter_1_Object/11006_Indian_Jar_1.prefab</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="40">
+        <v>11007</v>
+      </c>
+      <c r="B44" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="C44" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>(원거리)Indian_Jar_2</v>
+      </c>
+      <c r="D44" s="40">
+        <v>1</v>
+      </c>
+      <c r="E44" s="40">
+        <v>100</v>
+      </c>
+      <c r="F44" s="40">
+        <v>1</v>
+      </c>
+      <c r="G44" s="40">
+        <v>1</v>
+      </c>
+      <c r="H44" s="40">
+        <v>1</v>
+      </c>
+      <c r="I44" s="40">
+        <v>1</v>
+      </c>
+      <c r="J44" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>name_11007</v>
+      </c>
+      <c r="K44" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>unit_icon_11007</v>
+      </c>
+      <c r="L44" s="52" t="str">
+        <f t="shared" si="3"/>
+        <v>Unit/Enemy/Chapter_1_Object/11007_Indian_Jar_2.prefab</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="40">
+        <v>11008</v>
+      </c>
+      <c r="B45" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="C45" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>(원거리)Indian_Straw</v>
+      </c>
+      <c r="D45" s="40">
+        <v>1</v>
+      </c>
+      <c r="E45" s="40">
+        <v>100</v>
+      </c>
+      <c r="F45" s="40">
+        <v>1</v>
+      </c>
+      <c r="G45" s="40">
+        <v>1</v>
+      </c>
+      <c r="H45" s="40">
+        <v>1</v>
+      </c>
+      <c r="I45" s="40">
+        <v>1</v>
+      </c>
+      <c r="J45" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>name_11008</v>
+      </c>
+      <c r="K45" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v>unit_icon_11008</v>
+      </c>
+      <c r="L45" s="52" t="str">
+        <f t="shared" si="3"/>
+        <v>Unit/Enemy/Chapter_1_Object/11008_Indian_Straw.prefab</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4674,10 +5432,10 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:W42"/>
+  <dimension ref="A1:W48"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T36" sqref="T36"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5064,7 +5822,7 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="5">
-        <f t="shared" ref="A6:A41" si="1">A5+1</f>
+        <f t="shared" ref="A6:A48" si="1">A5+1</f>
         <v>3</v>
       </c>
       <c r="B6" s="5">
@@ -7621,7 +8379,7 @@
         <v>1000</v>
       </c>
       <c r="N40" s="5">
-        <f t="shared" ref="N40:N41" si="3">B40</f>
+        <f t="shared" ref="N40:N48" si="3">B40</f>
         <v>2018</v>
       </c>
       <c r="O40" s="5">
@@ -7658,11 +8416,11 @@
         <v>38</v>
       </c>
       <c r="B41" s="40">
-        <v>11003</v>
+        <v>11001</v>
       </c>
       <c r="C41" s="20" t="str">
-        <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B41,Unitinfo!A:A,0))</f>
-        <v>(원거리)Indian_Wall</v>
+        <f>INDEX([1]Unitinfo!C:C,MATCH([1]UnitGradeInfo!B41,[1]Unitinfo!A:A,0))</f>
+        <v>(원거리)Indian_Wagon</v>
       </c>
       <c r="D41" s="21">
         <v>1</v>
@@ -7696,7 +8454,7 @@
       </c>
       <c r="N41" s="5">
         <f t="shared" si="3"/>
-        <v>11003</v>
+        <v>11001</v>
       </c>
       <c r="O41" s="5">
         <v>0</v>
@@ -7726,8 +8484,523 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:23">
-      <c r="A42" s="5"/>
+    <row r="42" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A42" s="5">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="B42" s="40">
+        <v>11002</v>
+      </c>
+      <c r="C42" s="20" t="str">
+        <f>INDEX([1]Unitinfo!C:C,MATCH([1]UnitGradeInfo!B42,[1]Unitinfo!A:A,0))</f>
+        <v>(원거리)Indian_Catapult</v>
+      </c>
+      <c r="D42" s="21">
+        <v>1</v>
+      </c>
+      <c r="E42" s="9">
+        <v>10</v>
+      </c>
+      <c r="F42" s="5">
+        <v>100</v>
+      </c>
+      <c r="G42" s="5">
+        <v>10</v>
+      </c>
+      <c r="H42" s="5">
+        <v>0</v>
+      </c>
+      <c r="I42" s="42">
+        <v>1000</v>
+      </c>
+      <c r="J42" s="5">
+        <v>1</v>
+      </c>
+      <c r="K42" s="5">
+        <v>10</v>
+      </c>
+      <c r="L42" s="5">
+        <v>0</v>
+      </c>
+      <c r="M42" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N42" s="5">
+        <f t="shared" si="3"/>
+        <v>11002</v>
+      </c>
+      <c r="O42" s="5">
+        <v>0</v>
+      </c>
+      <c r="P42" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="R42" s="5">
+        <v>0</v>
+      </c>
+      <c r="S42" s="5">
+        <v>1</v>
+      </c>
+      <c r="T42" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="U42" s="5">
+        <v>2</v>
+      </c>
+      <c r="V42" s="5">
+        <v>10</v>
+      </c>
+      <c r="W42" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A43" s="5">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="B43" s="40">
+        <v>11003</v>
+      </c>
+      <c r="C43" s="20" t="str">
+        <f>INDEX([1]Unitinfo!C:C,MATCH([1]UnitGradeInfo!B43,[1]Unitinfo!A:A,0))</f>
+        <v>(원거리)Indian_Wall</v>
+      </c>
+      <c r="D43" s="21">
+        <v>1</v>
+      </c>
+      <c r="E43" s="9">
+        <v>10</v>
+      </c>
+      <c r="F43" s="5">
+        <v>100</v>
+      </c>
+      <c r="G43" s="5">
+        <v>10</v>
+      </c>
+      <c r="H43" s="5">
+        <v>0</v>
+      </c>
+      <c r="I43" s="42">
+        <v>1000</v>
+      </c>
+      <c r="J43" s="5">
+        <v>1</v>
+      </c>
+      <c r="K43" s="5">
+        <v>10</v>
+      </c>
+      <c r="L43" s="5">
+        <v>0</v>
+      </c>
+      <c r="M43" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N43" s="5">
+        <f t="shared" si="3"/>
+        <v>11003</v>
+      </c>
+      <c r="O43" s="5">
+        <v>0</v>
+      </c>
+      <c r="P43" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="R43" s="5">
+        <v>0</v>
+      </c>
+      <c r="S43" s="5">
+        <v>1</v>
+      </c>
+      <c r="T43" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="U43" s="5">
+        <v>2</v>
+      </c>
+      <c r="V43" s="5">
+        <v>10</v>
+      </c>
+      <c r="W43" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A44" s="5">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="B44" s="40">
+        <v>11004</v>
+      </c>
+      <c r="C44" s="20" t="str">
+        <f>INDEX([1]Unitinfo!C:C,MATCH([1]UnitGradeInfo!B44,[1]Unitinfo!A:A,0))</f>
+        <v>(원거리)Indian_Watchtower</v>
+      </c>
+      <c r="D44" s="21">
+        <v>1</v>
+      </c>
+      <c r="E44" s="9">
+        <v>10</v>
+      </c>
+      <c r="F44" s="5">
+        <v>100</v>
+      </c>
+      <c r="G44" s="5">
+        <v>10</v>
+      </c>
+      <c r="H44" s="5">
+        <v>0</v>
+      </c>
+      <c r="I44" s="42">
+        <v>1000</v>
+      </c>
+      <c r="J44" s="5">
+        <v>1</v>
+      </c>
+      <c r="K44" s="5">
+        <v>10</v>
+      </c>
+      <c r="L44" s="5">
+        <v>0</v>
+      </c>
+      <c r="M44" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N44" s="5">
+        <f t="shared" si="3"/>
+        <v>11004</v>
+      </c>
+      <c r="O44" s="5">
+        <v>0</v>
+      </c>
+      <c r="P44" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="R44" s="5">
+        <v>0</v>
+      </c>
+      <c r="S44" s="5">
+        <v>1</v>
+      </c>
+      <c r="T44" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="U44" s="5">
+        <v>2</v>
+      </c>
+      <c r="V44" s="5">
+        <v>10</v>
+      </c>
+      <c r="W44" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A45" s="5">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="B45" s="40">
+        <v>11005</v>
+      </c>
+      <c r="C45" s="20" t="str">
+        <f>INDEX([1]Unitinfo!C:C,MATCH([1]UnitGradeInfo!B45,[1]Unitinfo!A:A,0))</f>
+        <v>(원거리)Indian_Chicken_House</v>
+      </c>
+      <c r="D45" s="21">
+        <v>1</v>
+      </c>
+      <c r="E45" s="9">
+        <v>10</v>
+      </c>
+      <c r="F45" s="5">
+        <v>100</v>
+      </c>
+      <c r="G45" s="5">
+        <v>10</v>
+      </c>
+      <c r="H45" s="5">
+        <v>0</v>
+      </c>
+      <c r="I45" s="42">
+        <v>1000</v>
+      </c>
+      <c r="J45" s="5">
+        <v>1</v>
+      </c>
+      <c r="K45" s="5">
+        <v>10</v>
+      </c>
+      <c r="L45" s="5">
+        <v>0</v>
+      </c>
+      <c r="M45" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N45" s="5">
+        <f t="shared" si="3"/>
+        <v>11005</v>
+      </c>
+      <c r="O45" s="5">
+        <v>0</v>
+      </c>
+      <c r="P45" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="R45" s="5">
+        <v>0</v>
+      </c>
+      <c r="S45" s="5">
+        <v>1</v>
+      </c>
+      <c r="T45" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="U45" s="5">
+        <v>2</v>
+      </c>
+      <c r="V45" s="5">
+        <v>10</v>
+      </c>
+      <c r="W45" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A46" s="5">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="B46" s="40">
+        <v>11006</v>
+      </c>
+      <c r="C46" s="20" t="str">
+        <f>INDEX([1]Unitinfo!C:C,MATCH([1]UnitGradeInfo!B46,[1]Unitinfo!A:A,0))</f>
+        <v>(원거리)Indian_Jar_1</v>
+      </c>
+      <c r="D46" s="21">
+        <v>1</v>
+      </c>
+      <c r="E46" s="9">
+        <v>10</v>
+      </c>
+      <c r="F46" s="5">
+        <v>100</v>
+      </c>
+      <c r="G46" s="5">
+        <v>10</v>
+      </c>
+      <c r="H46" s="5">
+        <v>0</v>
+      </c>
+      <c r="I46" s="42">
+        <v>1000</v>
+      </c>
+      <c r="J46" s="5">
+        <v>1</v>
+      </c>
+      <c r="K46" s="5">
+        <v>10</v>
+      </c>
+      <c r="L46" s="5">
+        <v>0</v>
+      </c>
+      <c r="M46" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N46" s="5">
+        <f t="shared" si="3"/>
+        <v>11006</v>
+      </c>
+      <c r="O46" s="5">
+        <v>0</v>
+      </c>
+      <c r="P46" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="R46" s="5">
+        <v>0</v>
+      </c>
+      <c r="S46" s="5">
+        <v>1</v>
+      </c>
+      <c r="T46" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="U46" s="5">
+        <v>2</v>
+      </c>
+      <c r="V46" s="5">
+        <v>10</v>
+      </c>
+      <c r="W46" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A47" s="5">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="B47" s="40">
+        <v>11007</v>
+      </c>
+      <c r="C47" s="20" t="str">
+        <f>INDEX([1]Unitinfo!C:C,MATCH([1]UnitGradeInfo!B47,[1]Unitinfo!A:A,0))</f>
+        <v>(원거리)Indian_Jar_2</v>
+      </c>
+      <c r="D47" s="21">
+        <v>1</v>
+      </c>
+      <c r="E47" s="9">
+        <v>10</v>
+      </c>
+      <c r="F47" s="5">
+        <v>100</v>
+      </c>
+      <c r="G47" s="5">
+        <v>10</v>
+      </c>
+      <c r="H47" s="5">
+        <v>0</v>
+      </c>
+      <c r="I47" s="42">
+        <v>1000</v>
+      </c>
+      <c r="J47" s="5">
+        <v>1</v>
+      </c>
+      <c r="K47" s="5">
+        <v>10</v>
+      </c>
+      <c r="L47" s="5">
+        <v>0</v>
+      </c>
+      <c r="M47" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N47" s="5">
+        <f t="shared" si="3"/>
+        <v>11007</v>
+      </c>
+      <c r="O47" s="5">
+        <v>0</v>
+      </c>
+      <c r="P47" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="R47" s="5">
+        <v>0</v>
+      </c>
+      <c r="S47" s="5">
+        <v>1</v>
+      </c>
+      <c r="T47" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="U47" s="5">
+        <v>2</v>
+      </c>
+      <c r="V47" s="5">
+        <v>10</v>
+      </c>
+      <c r="W47" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A48" s="5">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="B48" s="40">
+        <v>11008</v>
+      </c>
+      <c r="C48" s="20" t="str">
+        <f>INDEX([1]Unitinfo!C:C,MATCH([1]UnitGradeInfo!B48,[1]Unitinfo!A:A,0))</f>
+        <v>(원거리)Indian_Straw</v>
+      </c>
+      <c r="D48" s="21">
+        <v>1</v>
+      </c>
+      <c r="E48" s="9">
+        <v>10</v>
+      </c>
+      <c r="F48" s="5">
+        <v>100</v>
+      </c>
+      <c r="G48" s="5">
+        <v>10</v>
+      </c>
+      <c r="H48" s="5">
+        <v>0</v>
+      </c>
+      <c r="I48" s="42">
+        <v>1000</v>
+      </c>
+      <c r="J48" s="5">
+        <v>1</v>
+      </c>
+      <c r="K48" s="5">
+        <v>10</v>
+      </c>
+      <c r="L48" s="5">
+        <v>0</v>
+      </c>
+      <c r="M48" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N48" s="5">
+        <f t="shared" si="3"/>
+        <v>11008</v>
+      </c>
+      <c r="O48" s="5">
+        <v>0</v>
+      </c>
+      <c r="P48" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="R48" s="5">
+        <v>0</v>
+      </c>
+      <c r="S48" s="5">
+        <v>1</v>
+      </c>
+      <c r="T48" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="U48" s="5">
+        <v>2</v>
+      </c>
+      <c r="V48" s="5">
+        <v>10</v>
+      </c>
+      <c r="W48" s="5">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -7738,7 +9011,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{82858EB1-9C6F-44EC-850D-3E099D960ECC}">
+          <x14:cfRule type="iconSet" priority="2" id="{82858EB1-9C6F-44EC-850D-3E099D960ECC}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7754,7 +9027,26 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="1"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I4:I41</xm:sqref>
+          <xm:sqref>I4:I40</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{37C117B6-05B2-42D6-83F7-394FB76FAE50}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>30</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
+              <x14:cfIcon iconSet="4ArrowsGray" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="1"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I41:I48</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GameJam\ExcelToCSV\SrcFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC2074B-FC81-4F3B-8E54-B51E315120E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62942D07-2143-492A-82BC-FCFA0594A4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5435,7 +5435,7 @@
   <dimension ref="A1:W48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5774,7 +5774,7 @@
         <v>5</v>
       </c>
       <c r="I5" s="42">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J5" s="5">
         <v>1</v>
@@ -5848,7 +5848,7 @@
         <v>5</v>
       </c>
       <c r="I6" s="42">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J6" s="5">
         <v>1</v>
@@ -5922,7 +5922,7 @@
         <v>5</v>
       </c>
       <c r="I7" s="42">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J7" s="5">
         <v>1</v>
@@ -5996,7 +5996,7 @@
         <v>5</v>
       </c>
       <c r="I8" s="42">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J8" s="5">
         <v>1</v>
@@ -6070,7 +6070,7 @@
         <v>5</v>
       </c>
       <c r="I9" s="42">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J9" s="5">
         <v>1</v>
@@ -6144,7 +6144,7 @@
         <v>5</v>
       </c>
       <c r="I10" s="42">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J10" s="5">
         <v>1</v>
@@ -6218,7 +6218,7 @@
         <v>5</v>
       </c>
       <c r="I11" s="42">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J11" s="5">
         <v>1</v>
@@ -6292,7 +6292,7 @@
         <v>5</v>
       </c>
       <c r="I12" s="42">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J12" s="5">
         <v>1</v>
@@ -6366,7 +6366,7 @@
         <v>5</v>
       </c>
       <c r="I13" s="42">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J13" s="5">
         <v>1</v>
@@ -6440,7 +6440,7 @@
         <v>5</v>
       </c>
       <c r="I14" s="42">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J14" s="5">
         <v>1</v>
@@ -6736,7 +6736,7 @@
         <v>5</v>
       </c>
       <c r="I18" s="42">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J18" s="5">
         <v>1</v>
@@ -6884,7 +6884,7 @@
         <v>5</v>
       </c>
       <c r="I20" s="42">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J20" s="5">
         <v>1</v>
@@ -7032,7 +7032,7 @@
         <v>5</v>
       </c>
       <c r="I22" s="42">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J22" s="5">
         <v>1</v>
@@ -7254,7 +7254,7 @@
         <v>30</v>
       </c>
       <c r="I25" s="42">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J25" s="5">
         <v>1</v>
@@ -7328,7 +7328,7 @@
         <v>30</v>
       </c>
       <c r="I26" s="42">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J26" s="5">
         <v>1</v>
@@ -7402,7 +7402,7 @@
         <v>30</v>
       </c>
       <c r="I27" s="42">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J27" s="5">
         <v>1</v>
@@ -7476,7 +7476,7 @@
         <v>30</v>
       </c>
       <c r="I28" s="42">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J28" s="5">
         <v>1</v>
@@ -7550,7 +7550,7 @@
         <v>30</v>
       </c>
       <c r="I29" s="42">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J29" s="5">
         <v>1</v>
@@ -7624,7 +7624,7 @@
         <v>30</v>
       </c>
       <c r="I30" s="42">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J30" s="5">
         <v>1</v>
@@ -7994,7 +7994,7 @@
         <v>30</v>
       </c>
       <c r="I35" s="42">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J35" s="5">
         <v>1</v>
@@ -8068,7 +8068,7 @@
         <v>30</v>
       </c>
       <c r="I36" s="42">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J36" s="5">
         <v>1</v>
@@ -8216,7 +8216,7 @@
         <v>30</v>
       </c>
       <c r="I38" s="42">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J38" s="5">
         <v>1</v>

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GameJam\ExcelToCSV\SrcFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62942D07-2143-492A-82BC-FCFA0594A4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05C598F-692D-49C1-B184-A13F771F1FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5435,7 +5435,7 @@
   <dimension ref="A1:W48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="S40" sqref="S40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6915,7 +6915,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T20" s="19" t="s">
         <v>123</v>
@@ -6989,7 +6989,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T21" s="19" t="s">
         <v>123</v>
@@ -7063,7 +7063,7 @@
         <v>0</v>
       </c>
       <c r="S22" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T22" s="19" t="s">
         <v>123</v>
@@ -7137,7 +7137,7 @@
         <v>0</v>
       </c>
       <c r="S23" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T23" s="19" t="s">
         <v>123</v>
@@ -7211,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="S24" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T24" s="19" t="s">
         <v>123</v>
@@ -7285,7 +7285,7 @@
         <v>0</v>
       </c>
       <c r="S25" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T25" s="19" t="s">
         <v>123</v>
@@ -7359,7 +7359,7 @@
         <v>0</v>
       </c>
       <c r="S26" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T26" s="19" t="s">
         <v>123</v>
@@ -7433,7 +7433,7 @@
         <v>0</v>
       </c>
       <c r="S27" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T27" s="19" t="s">
         <v>123</v>
@@ -7507,7 +7507,7 @@
         <v>0</v>
       </c>
       <c r="S28" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T28" s="19" t="s">
         <v>123</v>
@@ -7581,7 +7581,7 @@
         <v>0</v>
       </c>
       <c r="S29" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T29" s="19" t="s">
         <v>123</v>
@@ -7655,7 +7655,7 @@
         <v>0</v>
       </c>
       <c r="S30" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T30" s="19" t="s">
         <v>123</v>
@@ -7729,7 +7729,7 @@
         <v>0</v>
       </c>
       <c r="S31" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T31" s="19" t="s">
         <v>123</v>
@@ -7803,7 +7803,7 @@
         <v>0</v>
       </c>
       <c r="S32" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T32" s="19" t="s">
         <v>123</v>
@@ -7877,7 +7877,7 @@
         <v>0</v>
       </c>
       <c r="S33" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T33" s="19" t="s">
         <v>123</v>
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="S34" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T34" s="19" t="s">
         <v>123</v>
@@ -8025,7 +8025,7 @@
         <v>0</v>
       </c>
       <c r="S35" s="5">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="T35" s="19" t="s">
         <v>123</v>
@@ -8099,7 +8099,7 @@
         <v>0</v>
       </c>
       <c r="S36" s="5">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="T36" s="19" t="s">
         <v>123</v>
@@ -8173,7 +8173,7 @@
         <v>0</v>
       </c>
       <c r="S37" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T37" s="19" t="s">
         <v>123</v>
@@ -8247,7 +8247,7 @@
         <v>0</v>
       </c>
       <c r="S38" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T38" s="19" t="s">
         <v>123</v>
@@ -8321,7 +8321,7 @@
         <v>0</v>
       </c>
       <c r="S39" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T39" s="19" t="s">
         <v>123</v>
@@ -8395,7 +8395,7 @@
         <v>0</v>
       </c>
       <c r="S40" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T40" s="19" t="s">
         <v>123</v>

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GameJam\ExcelToCSV\SrcFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05C598F-692D-49C1-B184-A13F771F1FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B3268C-2312-4679-B525-382B9160C4D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigTable" sheetId="18" r:id="rId1"/>
@@ -3523,7 +3523,7 @@
   <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.5"/>
@@ -5434,8 +5434,8 @@
   </sheetPr>
   <dimension ref="A1:W48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S40" sqref="S40"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8657,7 +8657,7 @@
         <v>10</v>
       </c>
       <c r="H44" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I44" s="42">
         <v>1000</v>
@@ -9061,8 +9061,8 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9272,8 +9272,16 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
+      <c r="A18" s="5">
+        <v>11004</v>
+      </c>
+      <c r="B18" s="5">
+        <v>5</v>
+      </c>
+      <c r="C18" t="str">
+        <f>"Projectile/"&amp;A18&amp;"_"&amp;INDEX(Unitinfo!B:B,MATCH(A18,Unitinfo!A:A,0))&amp;"_Bullet.prefab"</f>
+        <v>Projectile/11004_Indian_Watchtower_Bullet.prefab</v>
+      </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="5"/>

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GameJam\ExcelToCSV\SrcFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B3268C-2312-4679-B525-382B9160C4D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1555A662-34AB-49F4-86D1-BA66D2193E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigTable" sheetId="18" r:id="rId1"/>
@@ -191,7 +191,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="240">
   <si>
     <t>type</t>
   </si>
@@ -1363,6 +1363,13 @@
   <si>
     <t>Indian_Straw</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deathEffect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/03_Prefabs/InGame/Particle/Enemy_Die_Effect.prefab</t>
   </si>
 </sst>
 </file>
@@ -3520,10 +3527,10 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.5"/>
@@ -3540,10 +3547,11 @@
     <col min="10" max="10" width="15.5703125" style="38" customWidth="1"/>
     <col min="11" max="11" width="25.5703125" style="38" customWidth="1"/>
     <col min="12" max="12" width="45.42578125" style="38" customWidth="1"/>
-    <col min="13" max="16384" width="8.85546875" style="38"/>
+    <col min="13" max="13" width="31" style="38" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="35" customFormat="1">
+    <row r="1" spans="1:13" s="35" customFormat="1">
       <c r="A1" s="34" t="s">
         <v>42</v>
       </c>
@@ -3580,8 +3588,11 @@
       <c r="L1" s="34" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="34" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
@@ -3618,8 +3629,11 @@
       <c r="L2" s="37" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="39" t="s">
         <v>2</v>
       </c>
@@ -3656,8 +3670,11 @@
       <c r="L3" s="39" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3" s="39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="40">
         <v>1001</v>
       </c>
@@ -3698,8 +3715,11 @@
         <f>IF(A4&lt;1999,"Unit/Enemy/Chapter_1/"&amp;A4&amp;"_"&amp;B4&amp;".prefab",IF(A4&lt;2999,"Unit/Hero/"&amp;A4&amp;"_"&amp;B4&amp;".prefab","Unit/Enemy/Chapter_1_Object/"&amp;A4&amp;"_"&amp;B4&amp;".prefab"))</f>
         <v>Unit/Enemy/Chapter_1/1001_Indian_Archer.prefab</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="40">
         <v>1002</v>
       </c>
@@ -3740,8 +3760,11 @@
         <f t="shared" ref="L5:L45" si="3">IF(A5&lt;1999,"Unit/Enemy/Chapter_1/"&amp;A5&amp;"_"&amp;B5&amp;".prefab",IF(A5&lt;2999,"Unit/Hero/"&amp;A5&amp;"_"&amp;B5&amp;".prefab","Unit/Enemy/Chapter_1_Object/"&amp;A5&amp;"_"&amp;B5&amp;".prefab"))</f>
         <v>Unit/Enemy/Chapter_1/1002_Indian_Shield.prefab</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="40">
         <v>1003</v>
       </c>
@@ -3782,8 +3805,11 @@
         <f t="shared" si="3"/>
         <v>Unit/Enemy/Chapter_1/1003_Indian_Spear.prefab</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="40">
         <v>1004</v>
       </c>
@@ -3824,8 +3850,11 @@
         <f t="shared" si="3"/>
         <v>Unit/Enemy/Chapter_1/1004_Indian_Sword.prefab</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="40">
         <v>1005</v>
       </c>
@@ -3866,8 +3895,11 @@
         <f t="shared" si="3"/>
         <v>Unit/Enemy/Chapter_1/1005_Indian_Mask.prefab</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="40">
         <v>1006</v>
       </c>
@@ -3908,8 +3940,11 @@
         <f t="shared" si="3"/>
         <v>Unit/Enemy/Chapter_1/1006_Indian_Bear.prefab</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="40">
         <v>1007</v>
       </c>
@@ -3950,8 +3985,11 @@
         <f t="shared" si="3"/>
         <v>Unit/Enemy/Chapter_1/1007_Bear.prefab</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="40">
         <v>1008</v>
       </c>
@@ -3992,8 +4030,11 @@
         <f t="shared" si="3"/>
         <v>Unit/Enemy/Chapter_1/1008_Indian_Master.prefab</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="40">
         <v>1009</v>
       </c>
@@ -4034,8 +4075,11 @@
         <f t="shared" si="3"/>
         <v>Unit/Enemy/Chapter_1/1009_Corgi.prefab</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="40">
         <v>1010</v>
       </c>
@@ -4076,8 +4120,11 @@
         <f t="shared" si="3"/>
         <v>Unit/Enemy/Chapter_1/1010_Indian_Horse_Sword.prefab</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="40">
         <v>1011</v>
       </c>
@@ -4118,8 +4165,11 @@
         <f t="shared" si="3"/>
         <v>Unit/Enemy/Chapter_1/1011_Indian_Horse_Spear.prefab</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="40">
         <v>1012</v>
       </c>
@@ -4160,8 +4210,11 @@
         <f t="shared" si="3"/>
         <v>Unit/Enemy/Chapter_1/1012_Indian_Horse_Archer.prefab</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="40">
         <v>1013</v>
       </c>
@@ -4202,8 +4255,11 @@
         <f t="shared" si="3"/>
         <v>Unit/Enemy/Chapter_1/1013_Chicken_Black.prefab</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="40">
         <v>1014</v>
       </c>
@@ -4244,8 +4300,11 @@
         <f t="shared" si="3"/>
         <v>Unit/Enemy/Chapter_1/1014_Chicken_White.prefab</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="40">
         <v>1015</v>
       </c>
@@ -4286,8 +4345,11 @@
         <f t="shared" si="3"/>
         <v>Unit/Enemy/Chapter_1/1015_Indian_Elephant.prefab</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="40">
         <v>1016</v>
       </c>
@@ -4328,8 +4390,11 @@
         <f t="shared" si="3"/>
         <v>Unit/Enemy/Chapter_1/1016_Indian_Egg.prefab</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="40">
         <v>2001</v>
       </c>
@@ -4370,8 +4435,11 @@
         <f t="shared" si="3"/>
         <v>Unit/Hero/2001_Slime.prefab</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="40">
         <v>2002</v>
       </c>
@@ -4412,8 +4480,11 @@
         <f t="shared" si="3"/>
         <v>Unit/Hero/2002_Slime_Archer.prefab</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="40">
         <v>2003</v>
       </c>
@@ -4454,8 +4525,11 @@
         <f t="shared" si="3"/>
         <v>Unit/Hero/2003_Skeleton_Sword.prefab</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="40">
         <v>2004</v>
       </c>
@@ -4496,8 +4570,11 @@
         <f t="shared" si="3"/>
         <v>Unit/Hero/2004_Skeleton_Archer.prefab</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="40">
         <v>2005</v>
       </c>
@@ -4538,8 +4615,11 @@
         <f t="shared" si="3"/>
         <v>Unit/Hero/2005_Skeleton_Witch.prefab</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="40">
         <v>2006</v>
       </c>
@@ -4580,8 +4660,11 @@
         <f t="shared" si="3"/>
         <v>Unit/Hero/2006_Zombie_Hand.prefab</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="M25" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="40">
         <v>2007</v>
       </c>
@@ -4622,8 +4705,11 @@
         <f t="shared" si="3"/>
         <v>Unit/Hero/2007_Zombie_Shield.prefab</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="M26" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="40">
         <v>2008</v>
       </c>
@@ -4664,8 +4750,11 @@
         <f t="shared" si="3"/>
         <v>Unit/Hero/2008_Zombie_Sword.prefab</v>
       </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="M27" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="40">
         <v>2009</v>
       </c>
@@ -4706,8 +4795,11 @@
         <f t="shared" si="3"/>
         <v>Unit/Hero/2009_Witch_Fire.prefab</v>
       </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="M28" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="40">
         <v>2010</v>
       </c>
@@ -4748,8 +4840,11 @@
         <f t="shared" si="3"/>
         <v>Unit/Hero/2010_Witch_Thunder.prefab</v>
       </c>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="M29" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="40">
         <v>2011</v>
       </c>
@@ -4790,8 +4885,11 @@
         <f t="shared" si="3"/>
         <v>Unit/Hero/2011_Witch_Poison.prefab</v>
       </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="M30" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="40">
         <v>2012</v>
       </c>
@@ -4832,8 +4930,11 @@
         <f t="shared" si="3"/>
         <v>Unit/Hero/2012_Goblin_Stone.prefab</v>
       </c>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="M31" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="40">
         <v>2013</v>
       </c>
@@ -4874,8 +4975,11 @@
         <f t="shared" si="3"/>
         <v>Unit/Hero/2013_Goblin_Club.prefab</v>
       </c>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="M32" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="40">
         <v>2014</v>
       </c>
@@ -4916,8 +5020,11 @@
         <f t="shared" si="3"/>
         <v>Unit/Hero/2014_Goblin_Baby.prefab</v>
       </c>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="M33" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="40">
         <v>2015</v>
       </c>
@@ -4958,8 +5065,11 @@
         <f t="shared" si="3"/>
         <v>Unit/Hero/2015_Orc_Stone.prefab</v>
       </c>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="M34" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="40">
         <v>2016</v>
       </c>
@@ -5000,8 +5110,11 @@
         <f t="shared" si="3"/>
         <v>Unit/Hero/2016_Orc_Club.prefab</v>
       </c>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="M35" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="40">
         <v>2017</v>
       </c>
@@ -5042,8 +5155,11 @@
         <f t="shared" si="3"/>
         <v>Unit/Hero/2017_Dragon.prefab</v>
       </c>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="M36" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="40">
         <v>2018</v>
       </c>
@@ -5084,8 +5200,11 @@
         <f t="shared" si="3"/>
         <v>Unit/Hero/2018_Dragon_Fire.prefab</v>
       </c>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="M37" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="40">
         <v>11001</v>
       </c>
@@ -5126,8 +5245,11 @@
         <f t="shared" si="3"/>
         <v>Unit/Enemy/Chapter_1_Object/11001_Indian_Wagon.prefab</v>
       </c>
-    </row>
-    <row r="39" spans="1:12">
+      <c r="M38" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="40">
         <v>11002</v>
       </c>
@@ -5168,8 +5290,11 @@
         <f t="shared" si="3"/>
         <v>Unit/Enemy/Chapter_1_Object/11002_Indian_Catapult.prefab</v>
       </c>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="M39" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="40">
         <v>11003</v>
       </c>
@@ -5210,8 +5335,11 @@
         <f t="shared" si="3"/>
         <v>Unit/Enemy/Chapter_1_Object/11003_Indian_Wall.prefab</v>
       </c>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="M40" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="40">
         <v>11004</v>
       </c>
@@ -5252,8 +5380,11 @@
         <f t="shared" si="3"/>
         <v>Unit/Enemy/Chapter_1_Object/11004_Indian_Watchtower.prefab</v>
       </c>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="M41" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="40">
         <v>11005</v>
       </c>
@@ -5294,8 +5425,11 @@
         <f t="shared" si="3"/>
         <v>Unit/Enemy/Chapter_1_Object/11005_Indian_Chicken_House.prefab</v>
       </c>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="M42" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="40">
         <v>11006</v>
       </c>
@@ -5336,8 +5470,11 @@
         <f t="shared" si="3"/>
         <v>Unit/Enemy/Chapter_1_Object/11006_Indian_Jar_1.prefab</v>
       </c>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="M43" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="40">
         <v>11007</v>
       </c>
@@ -5378,8 +5515,11 @@
         <f t="shared" si="3"/>
         <v>Unit/Enemy/Chapter_1_Object/11007_Indian_Jar_2.prefab</v>
       </c>
-    </row>
-    <row r="45" spans="1:12">
+      <c r="M44" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="40">
         <v>11008</v>
       </c>
@@ -5419,6 +5559,9 @@
       <c r="L45" s="52" t="str">
         <f t="shared" si="3"/>
         <v>Unit/Enemy/Chapter_1_Object/11008_Indian_Straw.prefab</v>
+      </c>
+      <c r="M45" s="38" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -9061,8 +9204,8 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GameJam\ExcelToCSV\SrcFolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevD\TowerDefense\ExcelToCSV\SrcFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1555A662-34AB-49F4-86D1-BA66D2193E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DEE0B1-3371-49A8-A6E7-DB0FC463AEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="165" yWindow="720" windowWidth="26610" windowHeight="12150" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigTable" sheetId="18" r:id="rId1"/>
@@ -191,7 +191,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="241">
   <si>
     <t>type</t>
   </si>
@@ -1369,7 +1369,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/03_Prefabs/InGame/Particle/Enemy_Die_Effect.prefab</t>
+    <t>Prefabs/Particle/Enemy_Die_Effect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Particle/StrongEffect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3529,8 +3534,8 @@
   </sheetPr>
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S31" sqref="S31"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.5"/>
@@ -4616,7 +4621,7 @@
         <v>Unit/Hero/2005_Skeleton_Witch.prefab</v>
       </c>
       <c r="M24" s="38" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -4661,7 +4666,7 @@
         <v>Unit/Hero/2006_Zombie_Hand.prefab</v>
       </c>
       <c r="M25" s="38" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -4706,7 +4711,7 @@
         <v>Unit/Hero/2007_Zombie_Shield.prefab</v>
       </c>
       <c r="M26" s="38" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -4751,7 +4756,7 @@
         <v>Unit/Hero/2008_Zombie_Sword.prefab</v>
       </c>
       <c r="M27" s="38" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -4796,7 +4801,7 @@
         <v>Unit/Hero/2009_Witch_Fire.prefab</v>
       </c>
       <c r="M28" s="38" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -4841,7 +4846,7 @@
         <v>Unit/Hero/2010_Witch_Thunder.prefab</v>
       </c>
       <c r="M29" s="38" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -4886,7 +4891,7 @@
         <v>Unit/Hero/2011_Witch_Poison.prefab</v>
       </c>
       <c r="M30" s="38" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -4931,7 +4936,7 @@
         <v>Unit/Hero/2012_Goblin_Stone.prefab</v>
       </c>
       <c r="M31" s="38" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -4976,7 +4981,7 @@
         <v>Unit/Hero/2013_Goblin_Club.prefab</v>
       </c>
       <c r="M32" s="38" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -5021,7 +5026,7 @@
         <v>Unit/Hero/2014_Goblin_Baby.prefab</v>
       </c>
       <c r="M33" s="38" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -5066,7 +5071,7 @@
         <v>Unit/Hero/2015_Orc_Stone.prefab</v>
       </c>
       <c r="M34" s="38" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -5111,7 +5116,7 @@
         <v>Unit/Hero/2016_Orc_Club.prefab</v>
       </c>
       <c r="M35" s="38" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -5156,7 +5161,7 @@
         <v>Unit/Hero/2017_Dragon.prefab</v>
       </c>
       <c r="M36" s="38" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -5201,7 +5206,7 @@
         <v>Unit/Hero/2018_Dragon_Fire.prefab</v>
       </c>
       <c r="M37" s="38" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -5246,7 +5251,7 @@
         <v>Unit/Enemy/Chapter_1_Object/11001_Indian_Wagon.prefab</v>
       </c>
       <c r="M38" s="38" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -5291,7 +5296,7 @@
         <v>Unit/Enemy/Chapter_1_Object/11002_Indian_Catapult.prefab</v>
       </c>
       <c r="M39" s="38" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -5336,7 +5341,7 @@
         <v>Unit/Enemy/Chapter_1_Object/11003_Indian_Wall.prefab</v>
       </c>
       <c r="M40" s="38" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -5381,7 +5386,7 @@
         <v>Unit/Enemy/Chapter_1_Object/11004_Indian_Watchtower.prefab</v>
       </c>
       <c r="M41" s="38" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -5426,7 +5431,7 @@
         <v>Unit/Enemy/Chapter_1_Object/11005_Indian_Chicken_House.prefab</v>
       </c>
       <c r="M42" s="38" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -5471,7 +5476,7 @@
         <v>Unit/Enemy/Chapter_1_Object/11006_Indian_Jar_1.prefab</v>
       </c>
       <c r="M43" s="38" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -5516,7 +5521,7 @@
         <v>Unit/Enemy/Chapter_1_Object/11007_Indian_Jar_2.prefab</v>
       </c>
       <c r="M44" s="38" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -5561,7 +5566,7 @@
         <v>Unit/Enemy/Chapter_1_Object/11008_Indian_Straw.prefab</v>
       </c>
       <c r="M45" s="38" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevD\TowerDefense\ExcelToCSV\SrcFolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GameJam\ExcelToCSV\SrcFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DEE0B1-3371-49A8-A6E7-DB0FC463AEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A61746-27CD-41BF-915C-C5EE3B868491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="720" windowWidth="26610" windowHeight="12150" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigTable" sheetId="18" r:id="rId1"/>
@@ -3534,8 +3534,8 @@
   </sheetPr>
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z23" sqref="Z23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.5"/>
@@ -5582,8 +5582,8 @@
   </sheetPr>
   <dimension ref="A1:W48"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8805,7 +8805,7 @@
         <v>10</v>
       </c>
       <c r="H44" s="5">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="I44" s="42">
         <v>1000</v>

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GameJam\ExcelToCSV\SrcFolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ejup\Desktop\GameJam\ExcelToCSV\SrcFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A61746-27CD-41BF-915C-C5EE3B868491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigTable" sheetId="18" r:id="rId1"/>
@@ -24,10 +23,7 @@
     <sheet name="GachaList" sheetId="28" r:id="rId9"/>
     <sheet name="reference" sheetId="31" r:id="rId10"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId11"/>
-  </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -45,12 +41,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ejup</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -99,12 +95,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ejup</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -145,12 +141,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ejup</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -191,7 +187,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="244">
   <si>
     <t>type</t>
   </si>
@@ -1376,11 +1372,21 @@
     <t>Prefabs/Particle/StrongEffect</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Indian_Flag_Alter</t>
+  </si>
+  <si>
+    <t>BoomEffect/Boom01.prefab</t>
+  </si>
+  <si>
+    <t>Prefabs/Particle/Flag_Change_Effect_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="22">
     <font>
       <sz val="11"/>
@@ -1770,442 +1776,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="ConfigTable"/>
-      <sheetName val="EnumTable"/>
-      <sheetName val="Unitinfo"/>
-      <sheetName val="UnitGradeInfo"/>
-      <sheetName val="ProjectileInfo"/>
-      <sheetName val="Localization"/>
-      <sheetName val="StageInfo"/>
-      <sheetName val="StageRewardInfo"/>
-      <sheetName val="GachaList"/>
-      <sheetName val="reference"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>Id</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>memo2</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>int</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v>string</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>all</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>all</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>1001</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>(원거리)Indian_Archer</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>1002</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>(근거리)Indian_Shield</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>1003</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>(근거리)Indian_Spear</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>1004</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>(근거리)Indian_Sword</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>1005</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v>(근거리)Indian_Mask</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>1006</v>
-          </cell>
-          <cell r="C9" t="str">
-            <v>(근거리)Indian_Bear</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>1007</v>
-          </cell>
-          <cell r="C10" t="str">
-            <v>(근거리)Bear</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>1008</v>
-          </cell>
-          <cell r="C11" t="str">
-            <v>(근거리)Indian_Master</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>1009</v>
-          </cell>
-          <cell r="C12" t="str">
-            <v>(근거리)Corgi</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>1010</v>
-          </cell>
-          <cell r="C13" t="str">
-            <v>(근거리)Indian_Horse_Sword</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>1011</v>
-          </cell>
-          <cell r="C14" t="str">
-            <v>(근거리)Indian_Horse_Spear</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>1012</v>
-          </cell>
-          <cell r="C15" t="str">
-            <v>(원거리)Indian_Horse_Archer</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>1013</v>
-          </cell>
-          <cell r="C16" t="str">
-            <v>(원거리)Chicken_Black</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>1014</v>
-          </cell>
-          <cell r="C17" t="str">
-            <v>(원거리)Chicken_White</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>1015</v>
-          </cell>
-          <cell r="C18" t="str">
-            <v>(근거리)Indian_Elephant</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>1016</v>
-          </cell>
-          <cell r="C19" t="str">
-            <v>(원거리)Indian_Egg</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>2001</v>
-          </cell>
-          <cell r="C20" t="str">
-            <v>(근거리)Slime</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>2002</v>
-          </cell>
-          <cell r="C21" t="str">
-            <v>(원거리)Slime_Archer</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>2003</v>
-          </cell>
-          <cell r="C22" t="str">
-            <v>(근거리)Skeleton_Sword</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>2004</v>
-          </cell>
-          <cell r="C23" t="str">
-            <v>(원거리)Skeleton_Archer</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>2005</v>
-          </cell>
-          <cell r="C24" t="str">
-            <v>(원거리)Skeleton_Witch</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>2006</v>
-          </cell>
-          <cell r="C25" t="str">
-            <v>(근거리)Zombie_Hand</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>2007</v>
-          </cell>
-          <cell r="C26" t="str">
-            <v>(근거리)Zombie_Shield</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>2008</v>
-          </cell>
-          <cell r="C27" t="str">
-            <v>(근거리)Zombie_Sword</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>2009</v>
-          </cell>
-          <cell r="C28" t="str">
-            <v>(원거리)Witch_Fire</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>2010</v>
-          </cell>
-          <cell r="C29" t="str">
-            <v>(원거리)Witch_Thunder</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>2011</v>
-          </cell>
-          <cell r="C30" t="str">
-            <v>(원거리)Witch_Poison</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>2012</v>
-          </cell>
-          <cell r="C31" t="str">
-            <v>(원거리)Goblin_Stone</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>2013</v>
-          </cell>
-          <cell r="C32" t="str">
-            <v>(근거리)Goblin_Club</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>2014</v>
-          </cell>
-          <cell r="C33" t="str">
-            <v>(근거리)Goblin_Baby</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>2015</v>
-          </cell>
-          <cell r="C34" t="str">
-            <v>(원거리)Orc_Stone</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>2016</v>
-          </cell>
-          <cell r="C35" t="str">
-            <v>(근거리)Orc_Club</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>2017</v>
-          </cell>
-          <cell r="C36" t="str">
-            <v>(근거리)Dragon</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>2018</v>
-          </cell>
-          <cell r="C37" t="str">
-            <v>(원거리)Dragon_Fire</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>11001</v>
-          </cell>
-          <cell r="C38" t="str">
-            <v>(원거리)Indian_Wagon</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>11002</v>
-          </cell>
-          <cell r="C39" t="str">
-            <v>(원거리)Indian_Catapult</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>11003</v>
-          </cell>
-          <cell r="C40" t="str">
-            <v>(원거리)Indian_Wall</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>11004</v>
-          </cell>
-          <cell r="C41" t="str">
-            <v>(원거리)Indian_Watchtower</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42">
-            <v>11005</v>
-          </cell>
-          <cell r="C42" t="str">
-            <v>(원거리)Indian_Chicken_House</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43">
-            <v>11006</v>
-          </cell>
-          <cell r="C43" t="str">
-            <v>(원거리)Indian_Jar_1</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44">
-            <v>11007</v>
-          </cell>
-          <cell r="C44" t="str">
-            <v>(원거리)Indian_Jar_2</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45">
-            <v>11008</v>
-          </cell>
-          <cell r="C45" t="str">
-            <v>(원거리)Indian_Straw</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="41">
-          <cell r="B41">
-            <v>11001</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42">
-            <v>11002</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43">
-            <v>11003</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44">
-            <v>11004</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45">
-            <v>11005</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="B46">
-            <v>11006</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="B47">
-            <v>11007</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="B48">
-            <v>11008</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -2502,18 +2072,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2558,7 +2128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5">
+    <row r="4" spans="1:4" ht="17.399999999999999">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -2572,7 +2142,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5">
+    <row r="5" spans="1:4" ht="17.399999999999999">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -2586,7 +2156,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5">
+    <row r="6" spans="1:4" ht="17.399999999999999">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -2600,7 +2170,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5">
+    <row r="7" spans="1:4" ht="17.399999999999999">
       <c r="A7" s="50" t="s">
         <v>216</v>
       </c>
@@ -2622,24 +2192,24 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="45"/>
-    <col min="2" max="2" width="16.85546875" style="45" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="45" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="45"/>
+    <col min="1" max="1" width="8.88671875" style="45"/>
+    <col min="2" max="2" width="16.88671875" style="45" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" style="45" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="45"/>
     <col min="5" max="7" width="12" style="45" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="45"/>
+    <col min="8" max="16384" width="8.88671875" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.75" thickBot="1">
+    <row r="1" spans="1:7" ht="13.8" thickBot="1">
       <c r="A1" s="43" t="s">
         <v>176</v>
       </c>
@@ -2659,7 +2229,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="12.75" thickBot="1">
+    <row r="2" spans="1:7" ht="13.8" thickBot="1">
       <c r="A2" s="46">
         <v>1</v>
       </c>
@@ -2679,7 +2249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="12.75" thickBot="1">
+    <row r="3" spans="1:7" ht="13.8" thickBot="1">
       <c r="A3" s="46">
         <v>2</v>
       </c>
@@ -2699,7 +2269,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="12.75" thickBot="1">
+    <row r="4" spans="1:7" ht="13.8" thickBot="1">
       <c r="A4" s="46">
         <v>3</v>
       </c>
@@ -2719,7 +2289,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="12.75" thickBot="1">
+    <row r="5" spans="1:7" ht="13.8" thickBot="1">
       <c r="A5" s="46">
         <v>4</v>
       </c>
@@ -3103,19 +2673,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" customWidth="1"/>
+    <col min="5" max="5" width="25.109375" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3222,7 +2792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="15">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -3236,7 +2806,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="15">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -3250,7 +2820,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="15">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -3264,7 +2834,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="15">
       <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
@@ -3278,7 +2848,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="15">
       <c r="A10" s="8" t="s">
         <v>28</v>
       </c>
@@ -3306,7 +2876,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="15">
       <c r="A12" s="2" t="s">
         <v>55</v>
       </c>
@@ -3334,7 +2904,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="15">
       <c r="A14" s="2" t="s">
         <v>62</v>
       </c>
@@ -3348,7 +2918,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.5">
+    <row r="15" spans="1:7" ht="17.399999999999999">
       <c r="A15" s="2" t="s">
         <v>62</v>
       </c>
@@ -3362,7 +2932,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16.5">
+    <row r="16" spans="1:7" ht="17.399999999999999">
       <c r="A16" s="2" t="s">
         <v>218</v>
       </c>
@@ -3374,7 +2944,7 @@
       </c>
       <c r="D16" s="26"/>
     </row>
-    <row r="17" spans="1:4" ht="16.5">
+    <row r="17" spans="1:4" ht="17.399999999999999">
       <c r="A17" s="2" t="s">
         <v>218</v>
       </c>
@@ -3386,7 +2956,7 @@
       </c>
       <c r="D17" s="26"/>
     </row>
-    <row r="18" spans="1:4" ht="16.5">
+    <row r="18" spans="1:4" ht="17.399999999999999">
       <c r="A18" s="2" t="s">
         <v>218</v>
       </c>
@@ -3398,7 +2968,7 @@
       </c>
       <c r="D18" s="26"/>
     </row>
-    <row r="19" spans="1:4" ht="16.5">
+    <row r="19" spans="1:4" ht="17.399999999999999">
       <c r="A19" s="2" t="s">
         <v>218</v>
       </c>
@@ -3448,7 +3018,7 @@
       </c>
       <c r="D22" s="8"/>
     </row>
-    <row r="23" spans="1:4" ht="16.5">
+    <row r="23" spans="1:4" ht="17.399999999999999">
       <c r="A23" s="2" t="s">
         <v>103</v>
       </c>
@@ -3460,7 +3030,7 @@
       </c>
       <c r="D23" s="8"/>
     </row>
-    <row r="24" spans="1:4" ht="16.5">
+    <row r="24" spans="1:4" ht="17.399999999999999">
       <c r="A24" s="2" t="s">
         <v>103</v>
       </c>
@@ -3496,7 +3066,7 @@
       </c>
       <c r="D26" s="8"/>
     </row>
-    <row r="27" spans="1:4" ht="16.5">
+    <row r="27" spans="1:4" ht="17.399999999999999">
       <c r="A27" s="2" t="s">
         <v>103</v>
       </c>
@@ -3508,7 +3078,7 @@
       </c>
       <c r="D27" s="8"/>
     </row>
-    <row r="28" spans="1:4" ht="16.5">
+    <row r="28" spans="1:4" ht="17.399999999999999">
       <c r="A28" s="2" t="s">
         <v>103</v>
       </c>
@@ -3528,32 +3098,32 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z23" sqref="Z23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="12" style="38" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="38" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="38" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="38" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="38" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="38" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="38" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="38" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="38" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" style="38" customWidth="1"/>
-    <col min="11" max="11" width="25.5703125" style="38" customWidth="1"/>
-    <col min="12" max="12" width="45.42578125" style="38" customWidth="1"/>
-    <col min="13" max="13" width="31" style="38" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="38"/>
+    <col min="2" max="2" width="24.5546875" style="38" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" style="38" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" style="38" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="38" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" style="38" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="38" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" style="38" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" style="38" customWidth="1"/>
+    <col min="10" max="10" width="15.5546875" style="38" customWidth="1"/>
+    <col min="11" max="11" width="25.5546875" style="38" customWidth="1"/>
+    <col min="12" max="12" width="45.44140625" style="38" customWidth="1"/>
+    <col min="13" max="13" width="50.44140625" style="38" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="35" customFormat="1">
@@ -5567,6 +5137,51 @@
       </c>
       <c r="M45" s="38" t="s">
         <v>240</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="40">
+        <v>11009</v>
+      </c>
+      <c r="B46" s="38" t="s">
+        <v>241</v>
+      </c>
+      <c r="C46" s="41" t="str">
+        <f t="shared" ref="C46" si="9">IF(D46=1,"(원거리)","(근거리)")&amp;B46</f>
+        <v>(원거리)Indian_Flag_Alter</v>
+      </c>
+      <c r="D46" s="40">
+        <v>1</v>
+      </c>
+      <c r="E46" s="40">
+        <v>100</v>
+      </c>
+      <c r="F46" s="40">
+        <v>1</v>
+      </c>
+      <c r="G46" s="40">
+        <v>1</v>
+      </c>
+      <c r="H46" s="40">
+        <v>1</v>
+      </c>
+      <c r="I46" s="40">
+        <v>1</v>
+      </c>
+      <c r="J46" s="40" t="str">
+        <f t="shared" ref="J46" si="10">"name_"&amp;A46</f>
+        <v>name_11009</v>
+      </c>
+      <c r="K46" s="40" t="str">
+        <f t="shared" ref="K46" si="11">"unit_icon_"&amp;A46</f>
+        <v>unit_icon_11009</v>
+      </c>
+      <c r="L46" s="52" t="str">
+        <f t="shared" ref="L46" si="12">IF(A46&lt;1999,"Unit/Enemy/Chapter_1/"&amp;A46&amp;"_"&amp;B46&amp;".prefab",IF(A46&lt;2999,"Unit/Hero/"&amp;A46&amp;"_"&amp;B46&amp;".prefab","Unit/Enemy/Chapter_1_Object/"&amp;A46&amp;"_"&amp;B46&amp;".prefab"))</f>
+        <v>Unit/Enemy/Chapter_1_Object/11009_Indian_Flag_Alter.prefab</v>
+      </c>
+      <c r="M46" s="38" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -5576,36 +5191,36 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:W48"/>
+  <dimension ref="A1:W49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
+    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" customWidth="1"/>
-    <col min="9" max="10" width="15.5703125" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" customWidth="1"/>
-    <col min="13" max="14" width="18.7109375" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.5703125" customWidth="1"/>
-    <col min="18" max="19" width="12.28515625" customWidth="1"/>
-    <col min="20" max="20" width="27.5703125" style="20" customWidth="1"/>
-    <col min="21" max="22" width="16.28515625" customWidth="1"/>
-    <col min="23" max="23" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+    <col min="9" max="10" width="15.5546875" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" customWidth="1"/>
+    <col min="12" max="12" width="18.109375" customWidth="1"/>
+    <col min="13" max="14" width="18.6640625" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.5546875" customWidth="1"/>
+    <col min="18" max="19" width="12.33203125" customWidth="1"/>
+    <col min="20" max="20" width="27.5546875" style="20" customWidth="1"/>
+    <col min="21" max="22" width="16.33203125" customWidth="1"/>
+    <col min="23" max="23" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="13" customFormat="1">
@@ -5970,7 +5585,7 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="5">
-        <f t="shared" ref="A6:A48" si="1">A5+1</f>
+        <f t="shared" ref="A6:A49" si="1">A5+1</f>
         <v>3</v>
       </c>
       <c r="B6" s="5">
@@ -7226,7 +6841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="15.75" thickBot="1">
+    <row r="23" spans="1:23" ht="15" thickBot="1">
       <c r="A23" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -7300,7 +6915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="15.75" thickBot="1">
+    <row r="24" spans="1:23" ht="15" thickBot="1">
       <c r="A24" s="5">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -7448,7 +7063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="15.75" thickBot="1">
+    <row r="26" spans="1:23" ht="15" thickBot="1">
       <c r="A26" s="5">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -7522,7 +7137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="15.75" thickBot="1">
+    <row r="27" spans="1:23" ht="15" thickBot="1">
       <c r="A27" s="5">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -7596,7 +7211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="15.75" thickBot="1">
+    <row r="28" spans="1:23" ht="15" thickBot="1">
       <c r="A28" s="5">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -7670,7 +7285,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="15.75" thickBot="1">
+    <row r="29" spans="1:23" ht="15" thickBot="1">
       <c r="A29" s="5">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -7744,7 +7359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="15.75" thickBot="1">
+    <row r="30" spans="1:23" ht="15" thickBot="1">
       <c r="A30" s="5">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -7818,7 +7433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="15.75" thickBot="1">
+    <row r="31" spans="1:23" ht="15" thickBot="1">
       <c r="A31" s="5">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -7892,7 +7507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="15.75" thickBot="1">
+    <row r="32" spans="1:23" ht="15" thickBot="1">
       <c r="A32" s="5">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -7966,7 +7581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="15.75" thickBot="1">
+    <row r="33" spans="1:23" ht="15" thickBot="1">
       <c r="A33" s="5">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -8040,7 +7655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="15.75" thickBot="1">
+    <row r="34" spans="1:23" ht="15" thickBot="1">
       <c r="A34" s="5">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -8114,7 +7729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="15.75" thickBot="1">
+    <row r="35" spans="1:23" ht="15" thickBot="1">
       <c r="A35" s="5">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -8188,7 +7803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="15.75" thickBot="1">
+    <row r="36" spans="1:23" ht="15" thickBot="1">
       <c r="A36" s="5">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -8262,7 +7877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="15.75" thickBot="1">
+    <row r="37" spans="1:23" ht="15" thickBot="1">
       <c r="A37" s="5">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -8336,7 +7951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="15.75" thickBot="1">
+    <row r="38" spans="1:23" ht="15" thickBot="1">
       <c r="A38" s="5">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -8410,7 +8025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="15.75" thickBot="1">
+    <row r="39" spans="1:23" ht="15" thickBot="1">
       <c r="A39" s="5">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -8484,7 +8099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="15.75" thickBot="1">
+    <row r="40" spans="1:23" ht="15" thickBot="1">
       <c r="A40" s="5">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -8558,7 +8173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="15.75" thickBot="1">
+    <row r="41" spans="1:23" ht="16.2" thickBot="1">
       <c r="A41" s="5">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -8567,7 +8182,7 @@
         <v>11001</v>
       </c>
       <c r="C41" s="20" t="str">
-        <f>INDEX([1]Unitinfo!C:C,MATCH([1]UnitGradeInfo!B41,[1]Unitinfo!A:A,0))</f>
+        <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B41,Unitinfo!A:A,0))</f>
         <v>(원거리)Indian_Wagon</v>
       </c>
       <c r="D41" s="21">
@@ -8632,7 +8247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="15.75" thickBot="1">
+    <row r="42" spans="1:23" ht="16.2" thickBot="1">
       <c r="A42" s="5">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -8641,7 +8256,7 @@
         <v>11002</v>
       </c>
       <c r="C42" s="20" t="str">
-        <f>INDEX([1]Unitinfo!C:C,MATCH([1]UnitGradeInfo!B42,[1]Unitinfo!A:A,0))</f>
+        <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B42,Unitinfo!A:A,0))</f>
         <v>(원거리)Indian_Catapult</v>
       </c>
       <c r="D42" s="21">
@@ -8706,7 +8321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="15.75" thickBot="1">
+    <row r="43" spans="1:23" ht="16.2" thickBot="1">
       <c r="A43" s="5">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -8715,7 +8330,7 @@
         <v>11003</v>
       </c>
       <c r="C43" s="20" t="str">
-        <f>INDEX([1]Unitinfo!C:C,MATCH([1]UnitGradeInfo!B43,[1]Unitinfo!A:A,0))</f>
+        <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B43,Unitinfo!A:A,0))</f>
         <v>(원거리)Indian_Wall</v>
       </c>
       <c r="D43" s="21">
@@ -8780,7 +8395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="15.75" thickBot="1">
+    <row r="44" spans="1:23" ht="16.2" thickBot="1">
       <c r="A44" s="5">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -8789,7 +8404,7 @@
         <v>11004</v>
       </c>
       <c r="C44" s="20" t="str">
-        <f>INDEX([1]Unitinfo!C:C,MATCH([1]UnitGradeInfo!B44,[1]Unitinfo!A:A,0))</f>
+        <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B44,Unitinfo!A:A,0))</f>
         <v>(원거리)Indian_Watchtower</v>
       </c>
       <c r="D44" s="21">
@@ -8854,7 +8469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="15.75" thickBot="1">
+    <row r="45" spans="1:23" ht="16.2" thickBot="1">
       <c r="A45" s="5">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -8863,7 +8478,7 @@
         <v>11005</v>
       </c>
       <c r="C45" s="20" t="str">
-        <f>INDEX([1]Unitinfo!C:C,MATCH([1]UnitGradeInfo!B45,[1]Unitinfo!A:A,0))</f>
+        <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B45,Unitinfo!A:A,0))</f>
         <v>(원거리)Indian_Chicken_House</v>
       </c>
       <c r="D45" s="21">
@@ -8928,7 +8543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="15.75" thickBot="1">
+    <row r="46" spans="1:23" ht="16.2" thickBot="1">
       <c r="A46" s="5">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -8937,7 +8552,7 @@
         <v>11006</v>
       </c>
       <c r="C46" s="20" t="str">
-        <f>INDEX([1]Unitinfo!C:C,MATCH([1]UnitGradeInfo!B46,[1]Unitinfo!A:A,0))</f>
+        <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B46,Unitinfo!A:A,0))</f>
         <v>(원거리)Indian_Jar_1</v>
       </c>
       <c r="D46" s="21">
@@ -9002,7 +8617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="15.75" thickBot="1">
+    <row r="47" spans="1:23" ht="16.2" thickBot="1">
       <c r="A47" s="5">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -9011,7 +8626,7 @@
         <v>11007</v>
       </c>
       <c r="C47" s="20" t="str">
-        <f>INDEX([1]Unitinfo!C:C,MATCH([1]UnitGradeInfo!B47,[1]Unitinfo!A:A,0))</f>
+        <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B47,Unitinfo!A:A,0))</f>
         <v>(원거리)Indian_Jar_2</v>
       </c>
       <c r="D47" s="21">
@@ -9076,7 +8691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="15.75" thickBot="1">
+    <row r="48" spans="1:23" ht="16.2" thickBot="1">
       <c r="A48" s="5">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -9085,7 +8700,7 @@
         <v>11008</v>
       </c>
       <c r="C48" s="20" t="str">
-        <f>INDEX([1]Unitinfo!C:C,MATCH([1]UnitGradeInfo!B48,[1]Unitinfo!A:A,0))</f>
+        <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B48,Unitinfo!A:A,0))</f>
         <v>(원거리)Indian_Straw</v>
       </c>
       <c r="D48" s="21">
@@ -9147,6 +8762,80 @@
         <v>10</v>
       </c>
       <c r="W48" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" ht="16.2" thickBot="1">
+      <c r="A49" s="5">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="B49" s="40">
+        <v>11009</v>
+      </c>
+      <c r="C49" s="20" t="str">
+        <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B49,Unitinfo!A:A,0))</f>
+        <v>(원거리)Indian_Flag_Alter</v>
+      </c>
+      <c r="D49" s="21">
+        <v>1</v>
+      </c>
+      <c r="E49" s="9">
+        <v>10</v>
+      </c>
+      <c r="F49" s="5">
+        <v>100</v>
+      </c>
+      <c r="G49" s="5">
+        <v>10</v>
+      </c>
+      <c r="H49" s="5">
+        <v>0</v>
+      </c>
+      <c r="I49" s="42">
+        <v>1000</v>
+      </c>
+      <c r="J49" s="5">
+        <v>1</v>
+      </c>
+      <c r="K49" s="5">
+        <v>10</v>
+      </c>
+      <c r="L49" s="5">
+        <v>0</v>
+      </c>
+      <c r="M49" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N49" s="5">
+        <f t="shared" ref="N49" si="4">B49</f>
+        <v>11009</v>
+      </c>
+      <c r="O49" s="5">
+        <v>0</v>
+      </c>
+      <c r="P49" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="R49" s="5">
+        <v>0</v>
+      </c>
+      <c r="S49" s="5">
+        <v>1</v>
+      </c>
+      <c r="T49" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="U49" s="5">
+        <v>2</v>
+      </c>
+      <c r="V49" s="5">
+        <v>10</v>
+      </c>
+      <c r="W49" s="5">
         <v>2</v>
       </c>
     </row>
@@ -9194,7 +8883,7 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="1"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I41:I48</xm:sqref>
+          <xm:sqref>I41:I49</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -9203,7 +8892,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
@@ -9213,9 +8902,9 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="59.5703125" customWidth="1"/>
+    <col min="3" max="3" width="59.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -9447,18 +9136,18 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -9503,7 +9192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5">
+    <row r="4" spans="1:4" ht="17.399999999999999">
       <c r="A4" s="24" t="s">
         <v>16</v>
       </c>
@@ -9517,7 +9206,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5">
+    <row r="5" spans="1:4" ht="17.399999999999999">
       <c r="A5" s="23" t="s">
         <v>17</v>
       </c>
@@ -9531,7 +9220,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5">
+    <row r="6" spans="1:4" ht="17.399999999999999">
       <c r="A6" s="23" t="s">
         <v>18</v>
       </c>
@@ -9545,7 +9234,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5">
+    <row r="7" spans="1:4" ht="17.399999999999999">
       <c r="A7" s="23" t="s">
         <v>100</v>
       </c>
@@ -9623,7 +9312,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
@@ -9633,13 +9322,13 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -9722,7 +9411,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.5">
+    <row r="5" spans="1:6" ht="17.399999999999999">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -9742,7 +9431,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.5">
+    <row r="6" spans="1:6" ht="17.399999999999999">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -9762,7 +9451,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16.5">
+    <row r="7" spans="1:6" ht="17.399999999999999">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -9782,7 +9471,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16.5">
+    <row r="8" spans="1:6" ht="17.399999999999999">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -9802,7 +9491,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.5">
+    <row r="9" spans="1:6" ht="17.399999999999999">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -9822,7 +9511,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16.5">
+    <row r="10" spans="1:6" ht="17.399999999999999">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -9842,7 +9531,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16.5">
+    <row r="11" spans="1:6" ht="17.399999999999999">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -9862,7 +9551,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16.5">
+    <row r="12" spans="1:6" ht="17.399999999999999">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -9882,7 +9571,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16.5">
+    <row r="13" spans="1:6" ht="17.399999999999999">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -9902,7 +9591,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16.5">
+    <row r="14" spans="1:6" ht="17.399999999999999">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -9922,7 +9611,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16.5">
+    <row r="15" spans="1:6" ht="17.399999999999999">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -9942,7 +9631,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16.5">
+    <row r="16" spans="1:6" ht="17.399999999999999">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -9962,7 +9651,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16.5">
+    <row r="17" spans="1:6" ht="17.399999999999999">
       <c r="A17" s="5">
         <v>14</v>
       </c>
@@ -9982,7 +9671,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="16.5">
+    <row r="18" spans="1:6" ht="17.399999999999999">
       <c r="A18" s="5">
         <v>15</v>
       </c>
@@ -10002,7 +9691,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="16.5">
+    <row r="19" spans="1:6" ht="17.399999999999999">
       <c r="A19" s="5">
         <v>16</v>
       </c>
@@ -10022,7 +9711,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="16.5">
+    <row r="20" spans="1:6" ht="17.399999999999999">
       <c r="A20" s="5">
         <v>17</v>
       </c>
@@ -10042,7 +9731,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="16.5">
+    <row r="21" spans="1:6" ht="17.399999999999999">
       <c r="A21" s="5">
         <v>18</v>
       </c>
@@ -10062,7 +9751,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="16.5">
+    <row r="22" spans="1:6" ht="17.399999999999999">
       <c r="A22" s="5">
         <v>19</v>
       </c>
@@ -10082,7 +9771,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="16.5">
+    <row r="23" spans="1:6" ht="17.399999999999999">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -10125,17 +9814,17 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="4" max="5" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -10334,17 +10023,17 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="2" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -187,7 +187,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="247">
   <si>
     <t>type</t>
   </si>
@@ -1369,10 +1369,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Prefabs/Particle/StrongEffect</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Indian_Flag_Alter</t>
   </si>
   <si>
@@ -1380,6 +1376,22 @@
   </si>
   <si>
     <t>Prefabs/Particle/Flag_Change_Effect_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Particle/Building_Destory_Effect_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Particle/Building_Destory_Effect_02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Particle/Building_Destory_Effect_02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Particle/Building_Destory_Effect_02</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3105,7 +3117,7 @@
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M49" sqref="M49"/>
+      <selection activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6"/>
@@ -4191,7 +4203,7 @@
         <v>Unit/Hero/2005_Skeleton_Witch.prefab</v>
       </c>
       <c r="M24" s="38" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -4236,7 +4248,7 @@
         <v>Unit/Hero/2006_Zombie_Hand.prefab</v>
       </c>
       <c r="M25" s="38" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -4281,7 +4293,7 @@
         <v>Unit/Hero/2007_Zombie_Shield.prefab</v>
       </c>
       <c r="M26" s="38" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -4326,7 +4338,7 @@
         <v>Unit/Hero/2008_Zombie_Sword.prefab</v>
       </c>
       <c r="M27" s="38" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -4371,7 +4383,7 @@
         <v>Unit/Hero/2009_Witch_Fire.prefab</v>
       </c>
       <c r="M28" s="38" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -4416,7 +4428,7 @@
         <v>Unit/Hero/2010_Witch_Thunder.prefab</v>
       </c>
       <c r="M29" s="38" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -4461,7 +4473,7 @@
         <v>Unit/Hero/2011_Witch_Poison.prefab</v>
       </c>
       <c r="M30" s="38" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -4506,7 +4518,7 @@
         <v>Unit/Hero/2012_Goblin_Stone.prefab</v>
       </c>
       <c r="M31" s="38" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -4551,7 +4563,7 @@
         <v>Unit/Hero/2013_Goblin_Club.prefab</v>
       </c>
       <c r="M32" s="38" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -4596,7 +4608,7 @@
         <v>Unit/Hero/2014_Goblin_Baby.prefab</v>
       </c>
       <c r="M33" s="38" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -4641,7 +4653,7 @@
         <v>Unit/Hero/2015_Orc_Stone.prefab</v>
       </c>
       <c r="M34" s="38" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -4686,7 +4698,7 @@
         <v>Unit/Hero/2016_Orc_Club.prefab</v>
       </c>
       <c r="M35" s="38" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -4731,7 +4743,7 @@
         <v>Unit/Hero/2017_Dragon.prefab</v>
       </c>
       <c r="M36" s="38" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -4776,7 +4788,7 @@
         <v>Unit/Hero/2018_Dragon_Fire.prefab</v>
       </c>
       <c r="M37" s="38" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -4821,7 +4833,7 @@
         <v>Unit/Enemy/Chapter_1_Object/11001_Indian_Wagon.prefab</v>
       </c>
       <c r="M38" s="38" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -4866,7 +4878,7 @@
         <v>Unit/Enemy/Chapter_1_Object/11002_Indian_Catapult.prefab</v>
       </c>
       <c r="M39" s="38" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -4911,7 +4923,7 @@
         <v>Unit/Enemy/Chapter_1_Object/11003_Indian_Wall.prefab</v>
       </c>
       <c r="M40" s="38" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -4956,7 +4968,7 @@
         <v>Unit/Enemy/Chapter_1_Object/11004_Indian_Watchtower.prefab</v>
       </c>
       <c r="M41" s="38" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -5001,7 +5013,7 @@
         <v>Unit/Enemy/Chapter_1_Object/11005_Indian_Chicken_House.prefab</v>
       </c>
       <c r="M42" s="38" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -5046,7 +5058,7 @@
         <v>Unit/Enemy/Chapter_1_Object/11006_Indian_Jar_1.prefab</v>
       </c>
       <c r="M43" s="38" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -5091,7 +5103,7 @@
         <v>Unit/Enemy/Chapter_1_Object/11007_Indian_Jar_2.prefab</v>
       </c>
       <c r="M44" s="38" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -5136,7 +5148,7 @@
         <v>Unit/Enemy/Chapter_1_Object/11008_Indian_Straw.prefab</v>
       </c>
       <c r="M45" s="38" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -5144,7 +5156,7 @@
         <v>11009</v>
       </c>
       <c r="B46" s="38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C46" s="41" t="str">
         <f t="shared" ref="C46" si="9">IF(D46=1,"(원거리)","(근거리)")&amp;B46</f>
@@ -5181,7 +5193,7 @@
         <v>Unit/Enemy/Chapter_1_Object/11009_Indian_Flag_Alter.prefab</v>
       </c>
       <c r="M46" s="38" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -8827,7 +8839,7 @@
         <v>1</v>
       </c>
       <c r="T49" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="U49" s="5">
         <v>2</v>
@@ -9319,7 +9331,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigTable" sheetId="18" r:id="rId1"/>
@@ -3116,7 +3116,7 @@
   </sheetPr>
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
@@ -5209,8 +5209,8 @@
   </sheetPr>
   <dimension ref="A1:W49"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8065,7 +8065,7 @@
         <v>30</v>
       </c>
       <c r="I39" s="42">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="J39" s="5">
         <v>1</v>

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigTable" sheetId="18" r:id="rId1"/>
@@ -187,7 +187,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="248">
   <si>
     <t>type</t>
   </si>
@@ -1372,9 +1372,6 @@
     <t>Indian_Flag_Alter</t>
   </si>
   <si>
-    <t>BoomEffect/Boom01.prefab</t>
-  </si>
-  <si>
     <t>Prefabs/Particle/Flag_Change_Effect_01</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1392,6 +1389,14 @@
   </si>
   <si>
     <t>Prefabs/Particle/Building_Destory_Effect_02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indian_House</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indian_Fire</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3114,10 +3119,10 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M47" sqref="M47"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6"/>
@@ -3133,7 +3138,7 @@
     <col min="9" max="9" width="12.33203125" style="38" customWidth="1"/>
     <col min="10" max="10" width="15.5546875" style="38" customWidth="1"/>
     <col min="11" max="11" width="25.5546875" style="38" customWidth="1"/>
-    <col min="12" max="12" width="45.44140625" style="38" customWidth="1"/>
+    <col min="12" max="12" width="59.5546875" style="38" customWidth="1"/>
     <col min="13" max="13" width="50.44140625" style="38" customWidth="1"/>
     <col min="14" max="16384" width="8.88671875" style="38"/>
   </cols>
@@ -4833,7 +4838,7 @@
         <v>Unit/Enemy/Chapter_1_Object/11001_Indian_Wagon.prefab</v>
       </c>
       <c r="M38" s="38" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -4878,7 +4883,7 @@
         <v>Unit/Enemy/Chapter_1_Object/11002_Indian_Catapult.prefab</v>
       </c>
       <c r="M39" s="38" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -4923,7 +4928,7 @@
         <v>Unit/Enemy/Chapter_1_Object/11003_Indian_Wall.prefab</v>
       </c>
       <c r="M40" s="38" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -4968,7 +4973,7 @@
         <v>Unit/Enemy/Chapter_1_Object/11004_Indian_Watchtower.prefab</v>
       </c>
       <c r="M41" s="38" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -5013,7 +5018,7 @@
         <v>Unit/Enemy/Chapter_1_Object/11005_Indian_Chicken_House.prefab</v>
       </c>
       <c r="M42" s="38" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -5058,7 +5063,7 @@
         <v>Unit/Enemy/Chapter_1_Object/11006_Indian_Jar_1.prefab</v>
       </c>
       <c r="M43" s="38" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -5103,7 +5108,7 @@
         <v>Unit/Enemy/Chapter_1_Object/11007_Indian_Jar_2.prefab</v>
       </c>
       <c r="M44" s="38" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -5148,7 +5153,7 @@
         <v>Unit/Enemy/Chapter_1_Object/11008_Indian_Straw.prefab</v>
       </c>
       <c r="M45" s="38" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -5193,6 +5198,96 @@
         <v>Unit/Enemy/Chapter_1_Object/11009_Indian_Flag_Alter.prefab</v>
       </c>
       <c r="M46" s="38" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="40">
+        <v>11010</v>
+      </c>
+      <c r="B47" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="C47" s="41" t="str">
+        <f t="shared" ref="C47:C48" si="13">IF(D47=1,"(원거리)","(근거리)")&amp;B47</f>
+        <v>(원거리)Indian_House</v>
+      </c>
+      <c r="D47" s="40">
+        <v>1</v>
+      </c>
+      <c r="E47" s="40">
+        <v>100</v>
+      </c>
+      <c r="F47" s="40">
+        <v>1</v>
+      </c>
+      <c r="G47" s="40">
+        <v>1</v>
+      </c>
+      <c r="H47" s="40">
+        <v>1</v>
+      </c>
+      <c r="I47" s="40">
+        <v>1</v>
+      </c>
+      <c r="J47" s="40" t="str">
+        <f t="shared" ref="J47:J48" si="14">"name_"&amp;A47</f>
+        <v>name_11010</v>
+      </c>
+      <c r="K47" s="40" t="str">
+        <f t="shared" ref="K47:K48" si="15">"unit_icon_"&amp;A47</f>
+        <v>unit_icon_11010</v>
+      </c>
+      <c r="L47" s="52" t="str">
+        <f t="shared" ref="L47:L48" si="16">IF(A47&lt;1999,"Unit/Enemy/Chapter_1/"&amp;A47&amp;"_"&amp;B47&amp;".prefab",IF(A47&lt;2999,"Unit/Hero/"&amp;A47&amp;"_"&amp;B47&amp;".prefab","Unit/Enemy/Chapter_1_Object/"&amp;A47&amp;"_"&amp;B47&amp;".prefab"))</f>
+        <v>Unit/Enemy/Chapter_1_Object/11010_Indian_House.prefab</v>
+      </c>
+      <c r="M47" s="38" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="40">
+        <v>11011</v>
+      </c>
+      <c r="B48" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="C48" s="41" t="str">
+        <f t="shared" si="13"/>
+        <v>(원거리)Indian_Fire</v>
+      </c>
+      <c r="D48" s="40">
+        <v>1</v>
+      </c>
+      <c r="E48" s="40">
+        <v>100</v>
+      </c>
+      <c r="F48" s="40">
+        <v>1</v>
+      </c>
+      <c r="G48" s="40">
+        <v>1</v>
+      </c>
+      <c r="H48" s="40">
+        <v>1</v>
+      </c>
+      <c r="I48" s="40">
+        <v>1</v>
+      </c>
+      <c r="J48" s="40" t="str">
+        <f t="shared" si="14"/>
+        <v>name_11011</v>
+      </c>
+      <c r="K48" s="40" t="str">
+        <f t="shared" si="15"/>
+        <v>unit_icon_11011</v>
+      </c>
+      <c r="L48" s="52" t="str">
+        <f>IF(A48&lt;1999,"Unit/Enemy/Chapter_1/"&amp;A48&amp;"_"&amp;B48&amp;".prefab",IF(A48&lt;2999,"Unit/Hero/"&amp;A48&amp;"_"&amp;B48&amp;".prefab","Unit/Enemy/Chapter_1_Object/"&amp;A48&amp;"_"&amp;B48&amp;".prefab"))</f>
+        <v>Unit/Enemy/Chapter_1_Object/11011_Indian_Fire.prefab</v>
+      </c>
+      <c r="M48" s="38" t="s">
         <v>242</v>
       </c>
     </row>
@@ -5207,10 +5302,10 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:W49"/>
+  <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5597,7 +5692,7 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="5">
-        <f t="shared" ref="A6:A49" si="1">A5+1</f>
+        <f t="shared" ref="A6:A51" si="1">A5+1</f>
         <v>3</v>
       </c>
       <c r="B6" s="5">
@@ -8820,7 +8915,7 @@
         <v>1000</v>
       </c>
       <c r="N49" s="5">
-        <f t="shared" ref="N49" si="4">B49</f>
+        <f t="shared" ref="N49:N51" si="4">B49</f>
         <v>11009</v>
       </c>
       <c r="O49" s="5">
@@ -8839,7 +8934,7 @@
         <v>1</v>
       </c>
       <c r="T49" s="19" t="s">
-        <v>241</v>
+        <v>123</v>
       </c>
       <c r="U49" s="5">
         <v>2</v>
@@ -8848,6 +8943,154 @@
         <v>10</v>
       </c>
       <c r="W49" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" ht="16.2" thickBot="1">
+      <c r="A50" s="5">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="B50" s="40">
+        <v>11010</v>
+      </c>
+      <c r="C50" s="20" t="str">
+        <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B50,Unitinfo!A:A,0))</f>
+        <v>(원거리)Indian_House</v>
+      </c>
+      <c r="D50" s="21">
+        <v>1</v>
+      </c>
+      <c r="E50" s="9">
+        <v>10</v>
+      </c>
+      <c r="F50" s="5">
+        <v>100</v>
+      </c>
+      <c r="G50" s="5">
+        <v>10</v>
+      </c>
+      <c r="H50" s="5">
+        <v>0</v>
+      </c>
+      <c r="I50" s="42">
+        <v>1000</v>
+      </c>
+      <c r="J50" s="5">
+        <v>1</v>
+      </c>
+      <c r="K50" s="5">
+        <v>10</v>
+      </c>
+      <c r="L50" s="5">
+        <v>0</v>
+      </c>
+      <c r="M50" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N50" s="5">
+        <f t="shared" si="4"/>
+        <v>11010</v>
+      </c>
+      <c r="O50" s="5">
+        <v>0</v>
+      </c>
+      <c r="P50" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="R50" s="5">
+        <v>0</v>
+      </c>
+      <c r="S50" s="5">
+        <v>1</v>
+      </c>
+      <c r="T50" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="U50" s="5">
+        <v>2</v>
+      </c>
+      <c r="V50" s="5">
+        <v>10</v>
+      </c>
+      <c r="W50" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" ht="16.2" thickBot="1">
+      <c r="A51" s="5">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="B51" s="40">
+        <v>11011</v>
+      </c>
+      <c r="C51" s="20" t="str">
+        <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B51,Unitinfo!A:A,0))</f>
+        <v>(원거리)Indian_Fire</v>
+      </c>
+      <c r="D51" s="21">
+        <v>1</v>
+      </c>
+      <c r="E51" s="9">
+        <v>10</v>
+      </c>
+      <c r="F51" s="5">
+        <v>100</v>
+      </c>
+      <c r="G51" s="5">
+        <v>10</v>
+      </c>
+      <c r="H51" s="5">
+        <v>0</v>
+      </c>
+      <c r="I51" s="42">
+        <v>1000</v>
+      </c>
+      <c r="J51" s="5">
+        <v>1</v>
+      </c>
+      <c r="K51" s="5">
+        <v>10</v>
+      </c>
+      <c r="L51" s="5">
+        <v>0</v>
+      </c>
+      <c r="M51" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N51" s="5">
+        <f t="shared" si="4"/>
+        <v>11011</v>
+      </c>
+      <c r="O51" s="5">
+        <v>0</v>
+      </c>
+      <c r="P51" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="R51" s="5">
+        <v>0</v>
+      </c>
+      <c r="S51" s="5">
+        <v>1</v>
+      </c>
+      <c r="T51" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="U51" s="5">
+        <v>2</v>
+      </c>
+      <c r="V51" s="5">
+        <v>10</v>
+      </c>
+      <c r="W51" s="5">
         <v>2</v>
       </c>
     </row>
@@ -8895,7 +9138,7 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="1"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I41:I49</xm:sqref>
+          <xm:sqref>I41:I51</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigTable" sheetId="18" r:id="rId1"/>
@@ -187,7 +187,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="264">
   <si>
     <t>type</t>
   </si>
@@ -1398,6 +1398,54 @@
   <si>
     <t>Indian_Fire</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indian_Archer_2</t>
+  </si>
+  <si>
+    <t>Indian_Shield_2</t>
+  </si>
+  <si>
+    <t>Indian_Spear_2</t>
+  </si>
+  <si>
+    <t>Indian_Sword_2</t>
+  </si>
+  <si>
+    <t>Indian_Mask_2</t>
+  </si>
+  <si>
+    <t>Indian_Bear_2</t>
+  </si>
+  <si>
+    <t>Bear_2</t>
+  </si>
+  <si>
+    <t>Indian_Master_2</t>
+  </si>
+  <si>
+    <t>Corgi_2</t>
+  </si>
+  <si>
+    <t>Indian_Horse_Sword_2</t>
+  </si>
+  <si>
+    <t>Indian_Horse_Spear_2</t>
+  </si>
+  <si>
+    <t>Indian_Horse_Archer_2</t>
+  </si>
+  <si>
+    <t>Chicken_Black_2</t>
+  </si>
+  <si>
+    <t>Chicken_White_2</t>
+  </si>
+  <si>
+    <t>Indian_Elephant_2</t>
+  </si>
+  <si>
+    <t>Indian_Egg_2</t>
   </si>
 </sst>
 </file>
@@ -2415,7 +2463,7 @@
         <v>2001</v>
       </c>
       <c r="B20" s="48">
-        <f>INDEX(Unitinfo!$I$4:$I$30,MATCH(A20,Unitinfo!A4:A30,0))</f>
+        <f>INDEX(Unitinfo!$I$4:$I$46,MATCH(A20,Unitinfo!A4:A46,0))</f>
         <v>1</v>
       </c>
       <c r="C20" s="48">
@@ -2432,7 +2480,7 @@
         <v>2002</v>
       </c>
       <c r="B21" s="48">
-        <f>INDEX(Unitinfo!$I$4:$I$30,MATCH(A21,Unitinfo!A5:A31,0))</f>
+        <f>INDEX(Unitinfo!$I$4:$I$46,MATCH(A21,Unitinfo!A5:A47,0))</f>
         <v>1</v>
       </c>
       <c r="C21" s="48">
@@ -2449,7 +2497,7 @@
         <v>2003</v>
       </c>
       <c r="B22" s="48">
-        <f>INDEX(Unitinfo!$I$4:$I$30,MATCH(A22,Unitinfo!A6:A32,0))</f>
+        <f>INDEX(Unitinfo!$I$4:$I$46,MATCH(A22,Unitinfo!A6:A48,0))</f>
         <v>1</v>
       </c>
       <c r="C22" s="48">
@@ -2466,7 +2514,7 @@
         <v>2004</v>
       </c>
       <c r="B23" s="48">
-        <f>INDEX(Unitinfo!$I$4:$I$30,MATCH(A23,Unitinfo!A7:A33,0))</f>
+        <f>INDEX(Unitinfo!$I$4:$I$46,MATCH(A23,Unitinfo!A7:A49,0))</f>
         <v>1</v>
       </c>
       <c r="C23" s="48">
@@ -2483,7 +2531,7 @@
         <v>2005</v>
       </c>
       <c r="B24" s="48">
-        <f>INDEX(Unitinfo!$I$4:$I$30,MATCH(A24,Unitinfo!A8:A34,0))</f>
+        <f>INDEX(Unitinfo!$I$4:$I$46,MATCH(A24,Unitinfo!A8:A50,0))</f>
         <v>1</v>
       </c>
       <c r="C24" s="48">
@@ -2500,7 +2548,7 @@
         <v>2006</v>
       </c>
       <c r="B25" s="48">
-        <f>INDEX(Unitinfo!$I$4:$I$30,MATCH(A25,Unitinfo!A9:A35,0))</f>
+        <f>INDEX(Unitinfo!$I$4:$I$46,MATCH(A25,Unitinfo!A9:A51,0))</f>
         <v>1</v>
       </c>
       <c r="C25" s="48">
@@ -2517,7 +2565,7 @@
         <v>2007</v>
       </c>
       <c r="B26" s="48">
-        <f>INDEX(Unitinfo!$I$4:$I$30,MATCH(A26,Unitinfo!A10:A36,0))</f>
+        <f>INDEX(Unitinfo!$I$4:$I$46,MATCH(A26,Unitinfo!A10:A52,0))</f>
         <v>1</v>
       </c>
       <c r="C26" s="48">
@@ -2534,7 +2582,7 @@
         <v>2008</v>
       </c>
       <c r="B27" s="48">
-        <f>INDEX(Unitinfo!$I$4:$I$30,MATCH(A27,Unitinfo!A11:A37,0))</f>
+        <f>INDEX(Unitinfo!$I$4:$I$46,MATCH(A27,Unitinfo!A11:A53,0))</f>
         <v>1</v>
       </c>
       <c r="C27" s="48">
@@ -2551,7 +2599,7 @@
         <v>2009</v>
       </c>
       <c r="B28" s="48">
-        <f>INDEX(Unitinfo!$I$4:$I$30,MATCH(A28,Unitinfo!A12:A38,0))</f>
+        <f>INDEX(Unitinfo!$I$4:$I$46,MATCH(A28,Unitinfo!A12:A54,0))</f>
         <v>1</v>
       </c>
       <c r="C28" s="48">
@@ -2568,7 +2616,7 @@
         <v>2010</v>
       </c>
       <c r="B29" s="48">
-        <f>INDEX(Unitinfo!$I$4:$I$30,MATCH(A29,Unitinfo!A20:A39,0))</f>
+        <f>INDEX(Unitinfo!$I$4:$I$46,MATCH(A29,Unitinfo!A36:A55,0))</f>
         <v>1</v>
       </c>
       <c r="C29" s="48">
@@ -2585,7 +2633,7 @@
         <v>2011</v>
       </c>
       <c r="B30" s="48">
-        <f>INDEX(Unitinfo!$I$4:$I$30,MATCH(A30,Unitinfo!A21:A40,0))</f>
+        <f>INDEX(Unitinfo!$I$4:$I$46,MATCH(A30,Unitinfo!A37:A56,0))</f>
         <v>1</v>
       </c>
       <c r="C30" s="48">
@@ -2602,7 +2650,7 @@
         <v>2012</v>
       </c>
       <c r="B31" s="48">
-        <f>INDEX(Unitinfo!$I$4:$I$30,MATCH(A31,Unitinfo!A22:A41,0))</f>
+        <f>INDEX(Unitinfo!$I$4:$I$46,MATCH(A31,Unitinfo!A38:A57,0))</f>
         <v>1</v>
       </c>
       <c r="C31" s="48">
@@ -2619,7 +2667,7 @@
         <v>2013</v>
       </c>
       <c r="B32" s="48">
-        <f>INDEX(Unitinfo!$I$4:$I$30,MATCH(A32,Unitinfo!A23:A42,0))</f>
+        <f>INDEX(Unitinfo!$I$4:$I$46,MATCH(A32,Unitinfo!A39:A58,0))</f>
         <v>1</v>
       </c>
       <c r="C32" s="48">
@@ -2636,7 +2684,7 @@
         <v>2014</v>
       </c>
       <c r="B33" s="48">
-        <f>INDEX(Unitinfo!$I$4:$I$30,MATCH(A33,Unitinfo!A24:A43,0))</f>
+        <f>INDEX(Unitinfo!$I$4:$I$46,MATCH(A33,Unitinfo!A40:A59,0))</f>
         <v>1</v>
       </c>
       <c r="C33" s="48">
@@ -2653,7 +2701,7 @@
         <v>2015</v>
       </c>
       <c r="B34" s="48">
-        <f>INDEX(Unitinfo!$I$4:$I$30,MATCH(A34,Unitinfo!A25:A44,0))</f>
+        <f>INDEX(Unitinfo!$I$4:$I$46,MATCH(A34,Unitinfo!A41:A60,0))</f>
         <v>1</v>
       </c>
       <c r="C34" s="48">
@@ -2670,7 +2718,7 @@
         <v>2016</v>
       </c>
       <c r="B35" s="48">
-        <f>INDEX(Unitinfo!$I$4:$I$30,MATCH(A35,Unitinfo!A26:A45,0))</f>
+        <f>INDEX(Unitinfo!$I$4:$I$46,MATCH(A35,Unitinfo!A42:A61,0))</f>
         <v>1</v>
       </c>
       <c r="C35" s="48">
@@ -3119,10 +3167,10 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L53" sqref="L53"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F57" sqref="A57:F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6"/>
@@ -3281,7 +3329,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="40">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F4" s="40">
         <v>1</v>
@@ -3293,7 +3341,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="40" t="str">
         <f>"name_"&amp;A4</f>
@@ -3319,14 +3367,14 @@
         <v>149</v>
       </c>
       <c r="C5" s="41" t="str">
-        <f t="shared" ref="C5:C45" si="0">IF(D5=1,"(원거리)","(근거리)")&amp;B5</f>
+        <f t="shared" ref="C5:C61" si="0">IF(D5=1,"(원거리)","(근거리)")&amp;B5</f>
         <v>(근거리)Indian_Shield</v>
       </c>
       <c r="D5" s="40">
         <v>0</v>
       </c>
       <c r="E5" s="40">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F5" s="40">
         <v>1</v>
@@ -3341,15 +3389,15 @@
         <v>1</v>
       </c>
       <c r="J5" s="40" t="str">
-        <f t="shared" ref="J5:J22" si="1">"name_"&amp;A5</f>
+        <f t="shared" ref="J5:J38" si="1">"name_"&amp;A5</f>
         <v>name_1002</v>
       </c>
       <c r="K5" s="40" t="str">
-        <f t="shared" ref="K5:K30" si="2">"unit_icon_"&amp;A5</f>
+        <f t="shared" ref="K5:K46" si="2">"unit_icon_"&amp;A5</f>
         <v>unit_icon_1002</v>
       </c>
       <c r="L5" s="52" t="str">
-        <f t="shared" ref="L5:L45" si="3">IF(A5&lt;1999,"Unit/Enemy/Chapter_1/"&amp;A5&amp;"_"&amp;B5&amp;".prefab",IF(A5&lt;2999,"Unit/Hero/"&amp;A5&amp;"_"&amp;B5&amp;".prefab","Unit/Enemy/Chapter_1_Object/"&amp;A5&amp;"_"&amp;B5&amp;".prefab"))</f>
+        <f t="shared" ref="L5:L61" si="3">IF(A5&lt;1999,"Unit/Enemy/Chapter_1/"&amp;A5&amp;"_"&amp;B5&amp;".prefab",IF(A5&lt;2999,"Unit/Hero/"&amp;A5&amp;"_"&amp;B5&amp;".prefab","Unit/Enemy/Chapter_1_Object/"&amp;A5&amp;"_"&amp;B5&amp;".prefab"))</f>
         <v>Unit/Enemy/Chapter_1/1002_Indian_Shield.prefab</v>
       </c>
       <c r="M5" s="38" t="s">
@@ -3371,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="40">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F6" s="40">
         <v>1</v>
@@ -3416,7 +3464,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="40">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F7" s="40">
         <v>1</v>
@@ -3428,7 +3476,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7" s="40" t="str">
         <f t="shared" si="1"/>
@@ -3461,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="40">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F8" s="40">
         <v>1</v>
@@ -3473,7 +3521,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="40" t="str">
         <f t="shared" si="1"/>
@@ -3506,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="40">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F9" s="40">
         <v>1</v>
@@ -3551,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="40">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F10" s="40">
         <v>1</v>
@@ -3596,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="40">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F11" s="40">
         <v>1</v>
@@ -3608,7 +3656,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J11" s="40" t="str">
         <f t="shared" si="1"/>
@@ -3641,7 +3689,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="40">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F12" s="40">
         <v>1</v>
@@ -3686,7 +3734,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="40">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F13" s="40">
         <v>1</v>
@@ -3731,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="40">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F14" s="40">
         <v>1</v>
@@ -3743,7 +3791,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="40" t="str">
         <f t="shared" si="4"/>
@@ -3776,7 +3824,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="40">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F15" s="40">
         <v>1</v>
@@ -3821,7 +3869,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="40">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F16" s="40">
         <v>1</v>
@@ -3866,7 +3914,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="40">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F17" s="40">
         <v>1</v>
@@ -3878,7 +3926,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J17" s="40" t="str">
         <f t="shared" si="4"/>
@@ -3911,7 +3959,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="40">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F18" s="40">
         <v>1</v>
@@ -3956,7 +4004,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="40">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F19" s="40">
         <v>1</v>
@@ -3988,1306 +4036,2026 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="40">
-        <v>2001</v>
+        <v>1051</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>159</v>
+        <v>248</v>
       </c>
       <c r="C20" s="41" t="str">
         <f t="shared" si="0"/>
+        <v>(원거리)Indian_Archer_2</v>
+      </c>
+      <c r="D20" s="40">
+        <v>1</v>
+      </c>
+      <c r="E20" s="40">
+        <v>70</v>
+      </c>
+      <c r="F20" s="40">
+        <v>1</v>
+      </c>
+      <c r="G20" s="40">
+        <v>1</v>
+      </c>
+      <c r="H20" s="40">
+        <v>1</v>
+      </c>
+      <c r="I20" s="40">
+        <v>1</v>
+      </c>
+      <c r="J20" s="40" t="str">
+        <f t="shared" ref="J20:J35" si="6">"name_"&amp;A20</f>
+        <v>name_1051</v>
+      </c>
+      <c r="K20" s="40" t="str">
+        <f t="shared" ref="K20:K35" si="7">"unit_icon_"&amp;A20</f>
+        <v>unit_icon_1051</v>
+      </c>
+      <c r="L20" s="52" t="str">
+        <f t="shared" ref="L20:L35" si="8">IF(A20&lt;1999,"Unit/Enemy/Chapter_1/"&amp;A20&amp;"_"&amp;B20&amp;".prefab",IF(A20&lt;2999,"Unit/Hero/"&amp;A20&amp;"_"&amp;B20&amp;".prefab","Unit/Enemy/Chapter_1_Object/"&amp;A20&amp;"_"&amp;B20&amp;".prefab"))</f>
+        <v>Unit/Enemy/Chapter_1/1051_Indian_Archer_2.prefab</v>
+      </c>
+      <c r="M20" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="40">
+        <v>1052</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="C21" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>(근거리)Indian_Shield_2</v>
+      </c>
+      <c r="D21" s="40">
+        <v>0</v>
+      </c>
+      <c r="E21" s="40">
+        <v>70</v>
+      </c>
+      <c r="F21" s="40">
+        <v>1</v>
+      </c>
+      <c r="G21" s="40">
+        <v>1</v>
+      </c>
+      <c r="H21" s="40">
+        <v>1</v>
+      </c>
+      <c r="I21" s="40">
+        <v>1</v>
+      </c>
+      <c r="J21" s="40" t="str">
+        <f t="shared" si="6"/>
+        <v>name_1052</v>
+      </c>
+      <c r="K21" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>unit_icon_1052</v>
+      </c>
+      <c r="L21" s="52" t="str">
+        <f t="shared" si="8"/>
+        <v>Unit/Enemy/Chapter_1/1052_Indian_Shield_2.prefab</v>
+      </c>
+      <c r="M21" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="40">
+        <v>1053</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>250</v>
+      </c>
+      <c r="C22" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>(근거리)Indian_Spear_2</v>
+      </c>
+      <c r="D22" s="40">
+        <v>0</v>
+      </c>
+      <c r="E22" s="40">
+        <v>70</v>
+      </c>
+      <c r="F22" s="40">
+        <v>1</v>
+      </c>
+      <c r="G22" s="40">
+        <v>1</v>
+      </c>
+      <c r="H22" s="40">
+        <v>1</v>
+      </c>
+      <c r="I22" s="40">
+        <v>1</v>
+      </c>
+      <c r="J22" s="40" t="str">
+        <f t="shared" si="6"/>
+        <v>name_1053</v>
+      </c>
+      <c r="K22" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>unit_icon_1053</v>
+      </c>
+      <c r="L22" s="52" t="str">
+        <f t="shared" si="8"/>
+        <v>Unit/Enemy/Chapter_1/1053_Indian_Spear_2.prefab</v>
+      </c>
+      <c r="M22" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="40">
+        <v>1054</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>251</v>
+      </c>
+      <c r="C23" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>(근거리)Indian_Sword_2</v>
+      </c>
+      <c r="D23" s="40">
+        <v>0</v>
+      </c>
+      <c r="E23" s="40">
+        <v>70</v>
+      </c>
+      <c r="F23" s="40">
+        <v>1</v>
+      </c>
+      <c r="G23" s="40">
+        <v>1</v>
+      </c>
+      <c r="H23" s="40">
+        <v>1</v>
+      </c>
+      <c r="I23" s="40">
+        <v>1</v>
+      </c>
+      <c r="J23" s="40" t="str">
+        <f t="shared" si="6"/>
+        <v>name_1054</v>
+      </c>
+      <c r="K23" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>unit_icon_1054</v>
+      </c>
+      <c r="L23" s="52" t="str">
+        <f t="shared" si="8"/>
+        <v>Unit/Enemy/Chapter_1/1054_Indian_Sword_2.prefab</v>
+      </c>
+      <c r="M23" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="40">
+        <v>1055</v>
+      </c>
+      <c r="B24" s="40" t="s">
+        <v>252</v>
+      </c>
+      <c r="C24" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>(근거리)Indian_Mask_2</v>
+      </c>
+      <c r="D24" s="40">
+        <v>0</v>
+      </c>
+      <c r="E24" s="40">
+        <v>70</v>
+      </c>
+      <c r="F24" s="40">
+        <v>1</v>
+      </c>
+      <c r="G24" s="40">
+        <v>1</v>
+      </c>
+      <c r="H24" s="40">
+        <v>1</v>
+      </c>
+      <c r="I24" s="40">
+        <v>1</v>
+      </c>
+      <c r="J24" s="40" t="str">
+        <f t="shared" si="6"/>
+        <v>name_1055</v>
+      </c>
+      <c r="K24" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>unit_icon_1055</v>
+      </c>
+      <c r="L24" s="52" t="str">
+        <f t="shared" si="8"/>
+        <v>Unit/Enemy/Chapter_1/1055_Indian_Mask_2.prefab</v>
+      </c>
+      <c r="M24" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="40">
+        <v>1056</v>
+      </c>
+      <c r="B25" s="40" t="s">
+        <v>253</v>
+      </c>
+      <c r="C25" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>(근거리)Indian_Bear_2</v>
+      </c>
+      <c r="D25" s="40">
+        <v>0</v>
+      </c>
+      <c r="E25" s="40">
+        <v>70</v>
+      </c>
+      <c r="F25" s="40">
+        <v>1</v>
+      </c>
+      <c r="G25" s="40">
+        <v>1</v>
+      </c>
+      <c r="H25" s="40">
+        <v>1</v>
+      </c>
+      <c r="I25" s="40">
+        <v>1</v>
+      </c>
+      <c r="J25" s="40" t="str">
+        <f t="shared" si="6"/>
+        <v>name_1056</v>
+      </c>
+      <c r="K25" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>unit_icon_1056</v>
+      </c>
+      <c r="L25" s="52" t="str">
+        <f t="shared" si="8"/>
+        <v>Unit/Enemy/Chapter_1/1056_Indian_Bear_2.prefab</v>
+      </c>
+      <c r="M25" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="40">
+        <v>1057</v>
+      </c>
+      <c r="B26" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="C26" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>(근거리)Bear_2</v>
+      </c>
+      <c r="D26" s="40">
+        <v>0</v>
+      </c>
+      <c r="E26" s="40">
+        <v>70</v>
+      </c>
+      <c r="F26" s="40">
+        <v>1</v>
+      </c>
+      <c r="G26" s="40">
+        <v>1</v>
+      </c>
+      <c r="H26" s="40">
+        <v>1</v>
+      </c>
+      <c r="I26" s="40">
+        <v>1</v>
+      </c>
+      <c r="J26" s="40" t="str">
+        <f t="shared" si="6"/>
+        <v>name_1057</v>
+      </c>
+      <c r="K26" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>unit_icon_1057</v>
+      </c>
+      <c r="L26" s="52" t="str">
+        <f t="shared" si="8"/>
+        <v>Unit/Enemy/Chapter_1/1057_Bear_2.prefab</v>
+      </c>
+      <c r="M26" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="40">
+        <v>1058</v>
+      </c>
+      <c r="B27" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="C27" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>(근거리)Indian_Master_2</v>
+      </c>
+      <c r="D27" s="40">
+        <v>0</v>
+      </c>
+      <c r="E27" s="40">
+        <v>70</v>
+      </c>
+      <c r="F27" s="40">
+        <v>1</v>
+      </c>
+      <c r="G27" s="40">
+        <v>1</v>
+      </c>
+      <c r="H27" s="40">
+        <v>1</v>
+      </c>
+      <c r="I27" s="40">
+        <v>1</v>
+      </c>
+      <c r="J27" s="40" t="str">
+        <f t="shared" si="6"/>
+        <v>name_1058</v>
+      </c>
+      <c r="K27" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>unit_icon_1058</v>
+      </c>
+      <c r="L27" s="52" t="str">
+        <f t="shared" si="8"/>
+        <v>Unit/Enemy/Chapter_1/1058_Indian_Master_2.prefab</v>
+      </c>
+      <c r="M27" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="40">
+        <v>1059</v>
+      </c>
+      <c r="B28" s="40" t="s">
+        <v>256</v>
+      </c>
+      <c r="C28" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>(근거리)Corgi_2</v>
+      </c>
+      <c r="D28" s="40">
+        <v>0</v>
+      </c>
+      <c r="E28" s="40">
+        <v>70</v>
+      </c>
+      <c r="F28" s="40">
+        <v>1</v>
+      </c>
+      <c r="G28" s="40">
+        <v>1</v>
+      </c>
+      <c r="H28" s="40">
+        <v>1</v>
+      </c>
+      <c r="I28" s="40">
+        <v>1</v>
+      </c>
+      <c r="J28" s="40" t="str">
+        <f t="shared" si="6"/>
+        <v>name_1059</v>
+      </c>
+      <c r="K28" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>unit_icon_1059</v>
+      </c>
+      <c r="L28" s="52" t="str">
+        <f t="shared" si="8"/>
+        <v>Unit/Enemy/Chapter_1/1059_Corgi_2.prefab</v>
+      </c>
+      <c r="M28" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="40">
+        <v>1060</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="C29" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>(근거리)Indian_Horse_Sword_2</v>
+      </c>
+      <c r="D29" s="40">
+        <v>0</v>
+      </c>
+      <c r="E29" s="40">
+        <v>70</v>
+      </c>
+      <c r="F29" s="40">
+        <v>1</v>
+      </c>
+      <c r="G29" s="40">
+        <v>1</v>
+      </c>
+      <c r="H29" s="40">
+        <v>1</v>
+      </c>
+      <c r="I29" s="40">
+        <v>1</v>
+      </c>
+      <c r="J29" s="40" t="str">
+        <f t="shared" si="6"/>
+        <v>name_1060</v>
+      </c>
+      <c r="K29" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>unit_icon_1060</v>
+      </c>
+      <c r="L29" s="52" t="str">
+        <f t="shared" si="8"/>
+        <v>Unit/Enemy/Chapter_1/1060_Indian_Horse_Sword_2.prefab</v>
+      </c>
+      <c r="M29" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="40">
+        <v>1061</v>
+      </c>
+      <c r="B30" s="40" t="s">
+        <v>258</v>
+      </c>
+      <c r="C30" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>(근거리)Indian_Horse_Spear_2</v>
+      </c>
+      <c r="D30" s="40">
+        <v>0</v>
+      </c>
+      <c r="E30" s="40">
+        <v>70</v>
+      </c>
+      <c r="F30" s="40">
+        <v>1</v>
+      </c>
+      <c r="G30" s="40">
+        <v>1</v>
+      </c>
+      <c r="H30" s="40">
+        <v>1</v>
+      </c>
+      <c r="I30" s="40">
+        <v>1</v>
+      </c>
+      <c r="J30" s="40" t="str">
+        <f t="shared" si="6"/>
+        <v>name_1061</v>
+      </c>
+      <c r="K30" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>unit_icon_1061</v>
+      </c>
+      <c r="L30" s="52" t="str">
+        <f t="shared" si="8"/>
+        <v>Unit/Enemy/Chapter_1/1061_Indian_Horse_Spear_2.prefab</v>
+      </c>
+      <c r="M30" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="40">
+        <v>1062</v>
+      </c>
+      <c r="B31" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="C31" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>(원거리)Indian_Horse_Archer_2</v>
+      </c>
+      <c r="D31" s="40">
+        <v>1</v>
+      </c>
+      <c r="E31" s="40">
+        <v>70</v>
+      </c>
+      <c r="F31" s="40">
+        <v>1</v>
+      </c>
+      <c r="G31" s="40">
+        <v>1</v>
+      </c>
+      <c r="H31" s="40">
+        <v>1</v>
+      </c>
+      <c r="I31" s="40">
+        <v>1</v>
+      </c>
+      <c r="J31" s="40" t="str">
+        <f t="shared" si="6"/>
+        <v>name_1062</v>
+      </c>
+      <c r="K31" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>unit_icon_1062</v>
+      </c>
+      <c r="L31" s="52" t="str">
+        <f t="shared" si="8"/>
+        <v>Unit/Enemy/Chapter_1/1062_Indian_Horse_Archer_2.prefab</v>
+      </c>
+      <c r="M31" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="40">
+        <v>1063</v>
+      </c>
+      <c r="B32" s="40" t="s">
+        <v>260</v>
+      </c>
+      <c r="C32" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>(원거리)Chicken_Black_2</v>
+      </c>
+      <c r="D32" s="40">
+        <v>1</v>
+      </c>
+      <c r="E32" s="40">
+        <v>70</v>
+      </c>
+      <c r="F32" s="40">
+        <v>1</v>
+      </c>
+      <c r="G32" s="40">
+        <v>1</v>
+      </c>
+      <c r="H32" s="40">
+        <v>1</v>
+      </c>
+      <c r="I32" s="40">
+        <v>1</v>
+      </c>
+      <c r="J32" s="40" t="str">
+        <f t="shared" si="6"/>
+        <v>name_1063</v>
+      </c>
+      <c r="K32" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>unit_icon_1063</v>
+      </c>
+      <c r="L32" s="52" t="str">
+        <f t="shared" si="8"/>
+        <v>Unit/Enemy/Chapter_1/1063_Chicken_Black_2.prefab</v>
+      </c>
+      <c r="M32" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="40">
+        <v>1064</v>
+      </c>
+      <c r="B33" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="C33" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>(원거리)Chicken_White_2</v>
+      </c>
+      <c r="D33" s="40">
+        <v>1</v>
+      </c>
+      <c r="E33" s="40">
+        <v>70</v>
+      </c>
+      <c r="F33" s="40">
+        <v>1</v>
+      </c>
+      <c r="G33" s="40">
+        <v>1</v>
+      </c>
+      <c r="H33" s="40">
+        <v>1</v>
+      </c>
+      <c r="I33" s="40">
+        <v>1</v>
+      </c>
+      <c r="J33" s="40" t="str">
+        <f t="shared" si="6"/>
+        <v>name_1064</v>
+      </c>
+      <c r="K33" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>unit_icon_1064</v>
+      </c>
+      <c r="L33" s="52" t="str">
+        <f t="shared" si="8"/>
+        <v>Unit/Enemy/Chapter_1/1064_Chicken_White_2.prefab</v>
+      </c>
+      <c r="M33" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="40">
+        <v>1065</v>
+      </c>
+      <c r="B34" s="40" t="s">
+        <v>262</v>
+      </c>
+      <c r="C34" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>(근거리)Indian_Elephant_2</v>
+      </c>
+      <c r="D34" s="40">
+        <v>0</v>
+      </c>
+      <c r="E34" s="40">
+        <v>70</v>
+      </c>
+      <c r="F34" s="40">
+        <v>1</v>
+      </c>
+      <c r="G34" s="40">
+        <v>1</v>
+      </c>
+      <c r="H34" s="40">
+        <v>1</v>
+      </c>
+      <c r="I34" s="40">
+        <v>1</v>
+      </c>
+      <c r="J34" s="40" t="str">
+        <f t="shared" si="6"/>
+        <v>name_1065</v>
+      </c>
+      <c r="K34" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>unit_icon_1065</v>
+      </c>
+      <c r="L34" s="52" t="str">
+        <f t="shared" si="8"/>
+        <v>Unit/Enemy/Chapter_1/1065_Indian_Elephant_2.prefab</v>
+      </c>
+      <c r="M34" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="40">
+        <v>1066</v>
+      </c>
+      <c r="B35" s="40" t="s">
+        <v>263</v>
+      </c>
+      <c r="C35" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>(원거리)Indian_Egg_2</v>
+      </c>
+      <c r="D35" s="40">
+        <v>1</v>
+      </c>
+      <c r="E35" s="40">
+        <v>70</v>
+      </c>
+      <c r="F35" s="40">
+        <v>1</v>
+      </c>
+      <c r="G35" s="40">
+        <v>1</v>
+      </c>
+      <c r="H35" s="40">
+        <v>1</v>
+      </c>
+      <c r="I35" s="40">
+        <v>1</v>
+      </c>
+      <c r="J35" s="40" t="str">
+        <f t="shared" si="6"/>
+        <v>name_1066</v>
+      </c>
+      <c r="K35" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>unit_icon_1066</v>
+      </c>
+      <c r="L35" s="52" t="str">
+        <f t="shared" si="8"/>
+        <v>Unit/Enemy/Chapter_1/1066_Indian_Egg_2.prefab</v>
+      </c>
+      <c r="M35" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="40">
+        <v>2001</v>
+      </c>
+      <c r="B36" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="C36" s="41" t="str">
+        <f t="shared" si="0"/>
         <v>(근거리)Slime</v>
       </c>
-      <c r="D20" s="40">
-        <v>0</v>
-      </c>
-      <c r="E20" s="40">
-        <v>100</v>
-      </c>
-      <c r="F20" s="40">
-        <v>1</v>
-      </c>
-      <c r="G20" s="40">
-        <v>1</v>
-      </c>
-      <c r="H20" s="40">
-        <v>1</v>
-      </c>
-      <c r="I20" s="40">
-        <v>1</v>
-      </c>
-      <c r="J20" s="40" t="str">
+      <c r="D36" s="40">
+        <v>0</v>
+      </c>
+      <c r="E36" s="40">
+        <v>70</v>
+      </c>
+      <c r="F36" s="40">
+        <v>1</v>
+      </c>
+      <c r="G36" s="40">
+        <v>1</v>
+      </c>
+      <c r="H36" s="40">
+        <v>1</v>
+      </c>
+      <c r="I36" s="40">
+        <v>1</v>
+      </c>
+      <c r="J36" s="40" t="str">
         <f t="shared" si="1"/>
         <v>name_2001</v>
       </c>
-      <c r="K20" s="40" t="str">
+      <c r="K36" s="40" t="str">
         <f t="shared" si="2"/>
         <v>unit_icon_2001</v>
       </c>
-      <c r="L20" s="52" t="str">
+      <c r="L36" s="52" t="str">
         <f t="shared" si="3"/>
         <v>Unit/Hero/2001_Slime.prefab</v>
       </c>
-      <c r="M20" s="38" t="s">
+      <c r="M36" s="38" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="40">
+    <row r="37" spans="1:13">
+      <c r="A37" s="40">
         <v>2002</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B37" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="C21" s="41" t="str">
+      <c r="C37" s="41" t="str">
         <f t="shared" si="0"/>
         <v>(원거리)Slime_Archer</v>
       </c>
-      <c r="D21" s="40">
-        <v>1</v>
-      </c>
-      <c r="E21" s="40">
-        <v>100</v>
-      </c>
-      <c r="F21" s="40">
-        <v>1</v>
-      </c>
-      <c r="G21" s="40">
-        <v>1</v>
-      </c>
-      <c r="H21" s="40">
-        <v>1</v>
-      </c>
-      <c r="I21" s="40">
-        <v>0</v>
-      </c>
-      <c r="J21" s="40" t="str">
+      <c r="D37" s="40">
+        <v>1</v>
+      </c>
+      <c r="E37" s="40">
+        <v>70</v>
+      </c>
+      <c r="F37" s="40">
+        <v>1</v>
+      </c>
+      <c r="G37" s="40">
+        <v>1</v>
+      </c>
+      <c r="H37" s="40">
+        <v>1</v>
+      </c>
+      <c r="I37" s="40">
+        <v>1</v>
+      </c>
+      <c r="J37" s="40" t="str">
         <f t="shared" si="1"/>
         <v>name_2002</v>
       </c>
-      <c r="K21" s="40" t="str">
+      <c r="K37" s="40" t="str">
         <f t="shared" si="2"/>
         <v>unit_icon_2002</v>
       </c>
-      <c r="L21" s="52" t="str">
+      <c r="L37" s="52" t="str">
         <f t="shared" si="3"/>
         <v>Unit/Hero/2002_Slime_Archer.prefab</v>
       </c>
-      <c r="M21" s="38" t="s">
+      <c r="M37" s="38" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="40">
+    <row r="38" spans="1:13">
+      <c r="A38" s="40">
         <v>2003</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B38" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="C22" s="41" t="str">
+      <c r="C38" s="41" t="str">
         <f t="shared" si="0"/>
         <v>(근거리)Skeleton_Sword</v>
       </c>
-      <c r="D22" s="40">
-        <v>0</v>
-      </c>
-      <c r="E22" s="40">
-        <v>100</v>
-      </c>
-      <c r="F22" s="40">
-        <v>1</v>
-      </c>
-      <c r="G22" s="40">
-        <v>1</v>
-      </c>
-      <c r="H22" s="40">
-        <v>1</v>
-      </c>
-      <c r="I22" s="40">
-        <v>1</v>
-      </c>
-      <c r="J22" s="40" t="str">
+      <c r="D38" s="40">
+        <v>0</v>
+      </c>
+      <c r="E38" s="40">
+        <v>70</v>
+      </c>
+      <c r="F38" s="40">
+        <v>1</v>
+      </c>
+      <c r="G38" s="40">
+        <v>1</v>
+      </c>
+      <c r="H38" s="40">
+        <v>1</v>
+      </c>
+      <c r="I38" s="40">
+        <v>1</v>
+      </c>
+      <c r="J38" s="40" t="str">
         <f t="shared" si="1"/>
         <v>name_2003</v>
       </c>
-      <c r="K22" s="40" t="str">
+      <c r="K38" s="40" t="str">
         <f t="shared" si="2"/>
         <v>unit_icon_2003</v>
       </c>
-      <c r="L22" s="52" t="str">
+      <c r="L38" s="52" t="str">
         <f t="shared" si="3"/>
         <v>Unit/Hero/2003_Skeleton_Sword.prefab</v>
       </c>
-      <c r="M22" s="38" t="s">
+      <c r="M38" s="38" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="40">
+    <row r="39" spans="1:13">
+      <c r="A39" s="40">
         <v>2004</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B39" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="C23" s="41" t="str">
+      <c r="C39" s="41" t="str">
         <f t="shared" si="0"/>
         <v>(원거리)Skeleton_Archer</v>
       </c>
-      <c r="D23" s="40">
-        <v>1</v>
-      </c>
-      <c r="E23" s="40">
-        <v>100</v>
-      </c>
-      <c r="F23" s="40">
-        <v>1</v>
-      </c>
-      <c r="G23" s="40">
-        <v>1</v>
-      </c>
-      <c r="H23" s="40">
-        <v>1</v>
-      </c>
-      <c r="I23" s="40">
-        <v>1</v>
-      </c>
-      <c r="J23" s="40" t="str">
-        <f t="shared" ref="J23:J30" si="6">"name_"&amp;A23</f>
+      <c r="D39" s="40">
+        <v>1</v>
+      </c>
+      <c r="E39" s="40">
+        <v>70</v>
+      </c>
+      <c r="F39" s="40">
+        <v>1</v>
+      </c>
+      <c r="G39" s="40">
+        <v>1</v>
+      </c>
+      <c r="H39" s="40">
+        <v>1</v>
+      </c>
+      <c r="I39" s="40">
+        <v>1</v>
+      </c>
+      <c r="J39" s="40" t="str">
+        <f t="shared" ref="J39:J46" si="9">"name_"&amp;A39</f>
         <v>name_2004</v>
       </c>
-      <c r="K23" s="40" t="str">
+      <c r="K39" s="40" t="str">
         <f t="shared" si="2"/>
         <v>unit_icon_2004</v>
       </c>
-      <c r="L23" s="52" t="str">
+      <c r="L39" s="52" t="str">
         <f t="shared" si="3"/>
         <v>Unit/Hero/2004_Skeleton_Archer.prefab</v>
       </c>
-      <c r="M23" s="38" t="s">
+      <c r="M39" s="38" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="40">
+    <row r="40" spans="1:13">
+      <c r="A40" s="40">
         <v>2005</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B40" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="C24" s="41" t="str">
+      <c r="C40" s="41" t="str">
         <f t="shared" si="0"/>
         <v>(원거리)Skeleton_Witch</v>
       </c>
-      <c r="D24" s="40">
-        <v>1</v>
-      </c>
-      <c r="E24" s="40">
-        <v>100</v>
-      </c>
-      <c r="F24" s="40">
-        <v>1</v>
-      </c>
-      <c r="G24" s="40">
-        <v>1</v>
-      </c>
-      <c r="H24" s="40">
-        <v>1</v>
-      </c>
-      <c r="I24" s="40">
-        <v>3</v>
-      </c>
-      <c r="J24" s="40" t="str">
-        <f t="shared" si="6"/>
+      <c r="D40" s="40">
+        <v>1</v>
+      </c>
+      <c r="E40" s="40">
+        <v>70</v>
+      </c>
+      <c r="F40" s="40">
+        <v>1</v>
+      </c>
+      <c r="G40" s="40">
+        <v>1</v>
+      </c>
+      <c r="H40" s="40">
+        <v>1</v>
+      </c>
+      <c r="I40" s="40">
+        <v>1</v>
+      </c>
+      <c r="J40" s="40" t="str">
+        <f t="shared" si="9"/>
         <v>name_2005</v>
       </c>
-      <c r="K24" s="40" t="str">
+      <c r="K40" s="40" t="str">
         <f t="shared" si="2"/>
         <v>unit_icon_2005</v>
       </c>
-      <c r="L24" s="52" t="str">
+      <c r="L40" s="52" t="str">
         <f t="shared" si="3"/>
         <v>Unit/Hero/2005_Skeleton_Witch.prefab</v>
       </c>
-      <c r="M24" s="38" t="s">
+      <c r="M40" s="38" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="40">
+    <row r="41" spans="1:13">
+      <c r="A41" s="40">
         <v>2006</v>
       </c>
-      <c r="B25" s="40" t="s">
+      <c r="B41" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="C25" s="41" t="str">
+      <c r="C41" s="41" t="str">
         <f t="shared" si="0"/>
         <v>(근거리)Zombie_Hand</v>
       </c>
-      <c r="D25" s="40">
-        <v>0</v>
-      </c>
-      <c r="E25" s="40">
-        <v>100</v>
-      </c>
-      <c r="F25" s="40">
-        <v>1</v>
-      </c>
-      <c r="G25" s="40">
-        <v>1</v>
-      </c>
-      <c r="H25" s="40">
-        <v>1</v>
-      </c>
-      <c r="I25" s="40">
-        <v>1</v>
-      </c>
-      <c r="J25" s="40" t="str">
-        <f t="shared" si="6"/>
+      <c r="D41" s="40">
+        <v>0</v>
+      </c>
+      <c r="E41" s="40">
+        <v>70</v>
+      </c>
+      <c r="F41" s="40">
+        <v>1</v>
+      </c>
+      <c r="G41" s="40">
+        <v>1</v>
+      </c>
+      <c r="H41" s="40">
+        <v>1</v>
+      </c>
+      <c r="I41" s="40">
+        <v>2</v>
+      </c>
+      <c r="J41" s="40" t="str">
+        <f t="shared" si="9"/>
         <v>name_2006</v>
       </c>
-      <c r="K25" s="40" t="str">
+      <c r="K41" s="40" t="str">
         <f t="shared" si="2"/>
         <v>unit_icon_2006</v>
       </c>
-      <c r="L25" s="52" t="str">
+      <c r="L41" s="52" t="str">
         <f t="shared" si="3"/>
         <v>Unit/Hero/2006_Zombie_Hand.prefab</v>
       </c>
-      <c r="M25" s="38" t="s">
+      <c r="M41" s="38" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="40">
+    <row r="42" spans="1:13">
+      <c r="A42" s="40">
         <v>2007</v>
       </c>
-      <c r="B26" s="40" t="s">
+      <c r="B42" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="C26" s="41" t="str">
+      <c r="C42" s="41" t="str">
         <f t="shared" si="0"/>
         <v>(근거리)Zombie_Shield</v>
       </c>
-      <c r="D26" s="40">
-        <v>0</v>
-      </c>
-      <c r="E26" s="40">
-        <v>100</v>
-      </c>
-      <c r="F26" s="40">
-        <v>1</v>
-      </c>
-      <c r="G26" s="40">
-        <v>1</v>
-      </c>
-      <c r="H26" s="40">
-        <v>1</v>
-      </c>
-      <c r="I26" s="40">
-        <v>1</v>
-      </c>
-      <c r="J26" s="40" t="str">
-        <f t="shared" si="6"/>
+      <c r="D42" s="40">
+        <v>0</v>
+      </c>
+      <c r="E42" s="40">
+        <v>70</v>
+      </c>
+      <c r="F42" s="40">
+        <v>1</v>
+      </c>
+      <c r="G42" s="40">
+        <v>1</v>
+      </c>
+      <c r="H42" s="40">
+        <v>1</v>
+      </c>
+      <c r="I42" s="40">
+        <v>2</v>
+      </c>
+      <c r="J42" s="40" t="str">
+        <f t="shared" si="9"/>
         <v>name_2007</v>
       </c>
-      <c r="K26" s="40" t="str">
+      <c r="K42" s="40" t="str">
         <f t="shared" si="2"/>
         <v>unit_icon_2007</v>
       </c>
-      <c r="L26" s="52" t="str">
+      <c r="L42" s="52" t="str">
         <f t="shared" si="3"/>
         <v>Unit/Hero/2007_Zombie_Shield.prefab</v>
       </c>
-      <c r="M26" s="38" t="s">
+      <c r="M42" s="38" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="40">
+    <row r="43" spans="1:13">
+      <c r="A43" s="40">
         <v>2008</v>
       </c>
-      <c r="B27" s="40" t="s">
+      <c r="B43" s="40" t="s">
         <v>167</v>
       </c>
-      <c r="C27" s="41" t="str">
+      <c r="C43" s="41" t="str">
         <f t="shared" si="0"/>
         <v>(근거리)Zombie_Sword</v>
       </c>
-      <c r="D27" s="40">
-        <v>0</v>
-      </c>
-      <c r="E27" s="40">
-        <v>100</v>
-      </c>
-      <c r="F27" s="40">
-        <v>1</v>
-      </c>
-      <c r="G27" s="40">
-        <v>1</v>
-      </c>
-      <c r="H27" s="40">
-        <v>1</v>
-      </c>
-      <c r="I27" s="40">
-        <v>1</v>
-      </c>
-      <c r="J27" s="40" t="str">
-        <f t="shared" si="6"/>
+      <c r="D43" s="40">
+        <v>0</v>
+      </c>
+      <c r="E43" s="40">
+        <v>70</v>
+      </c>
+      <c r="F43" s="40">
+        <v>1</v>
+      </c>
+      <c r="G43" s="40">
+        <v>1</v>
+      </c>
+      <c r="H43" s="40">
+        <v>1</v>
+      </c>
+      <c r="I43" s="40">
+        <v>2</v>
+      </c>
+      <c r="J43" s="40" t="str">
+        <f t="shared" si="9"/>
         <v>name_2008</v>
       </c>
-      <c r="K27" s="40" t="str">
+      <c r="K43" s="40" t="str">
         <f t="shared" si="2"/>
         <v>unit_icon_2008</v>
       </c>
-      <c r="L27" s="52" t="str">
+      <c r="L43" s="52" t="str">
         <f t="shared" si="3"/>
         <v>Unit/Hero/2008_Zombie_Sword.prefab</v>
       </c>
-      <c r="M27" s="38" t="s">
+      <c r="M43" s="38" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="40">
+    <row r="44" spans="1:13">
+      <c r="A44" s="40">
         <v>2009</v>
       </c>
-      <c r="B28" s="40" t="s">
+      <c r="B44" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="C28" s="41" t="str">
+      <c r="C44" s="41" t="str">
         <f t="shared" si="0"/>
         <v>(원거리)Witch_Fire</v>
       </c>
-      <c r="D28" s="40">
-        <v>1</v>
-      </c>
-      <c r="E28" s="40">
-        <v>100</v>
-      </c>
-      <c r="F28" s="40">
-        <v>1</v>
-      </c>
-      <c r="G28" s="40">
-        <v>1</v>
-      </c>
-      <c r="H28" s="40">
-        <v>1</v>
-      </c>
-      <c r="I28" s="40">
-        <v>0</v>
-      </c>
-      <c r="J28" s="40" t="str">
-        <f t="shared" si="6"/>
+      <c r="D44" s="40">
+        <v>1</v>
+      </c>
+      <c r="E44" s="40">
+        <v>70</v>
+      </c>
+      <c r="F44" s="40">
+        <v>1</v>
+      </c>
+      <c r="G44" s="40">
+        <v>1</v>
+      </c>
+      <c r="H44" s="40">
+        <v>1</v>
+      </c>
+      <c r="I44" s="40">
+        <v>3</v>
+      </c>
+      <c r="J44" s="40" t="str">
+        <f t="shared" si="9"/>
         <v>name_2009</v>
       </c>
-      <c r="K28" s="40" t="str">
+      <c r="K44" s="40" t="str">
         <f t="shared" si="2"/>
         <v>unit_icon_2009</v>
       </c>
-      <c r="L28" s="52" t="str">
+      <c r="L44" s="52" t="str">
         <f t="shared" si="3"/>
         <v>Unit/Hero/2009_Witch_Fire.prefab</v>
       </c>
-      <c r="M28" s="38" t="s">
+      <c r="M44" s="38" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="40">
+    <row r="45" spans="1:13">
+      <c r="A45" s="40">
         <v>2010</v>
       </c>
-      <c r="B29" s="40" t="s">
+      <c r="B45" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="C29" s="41" t="str">
+      <c r="C45" s="41" t="str">
         <f t="shared" si="0"/>
         <v>(원거리)Witch_Thunder</v>
       </c>
-      <c r="D29" s="40">
-        <v>1</v>
-      </c>
-      <c r="E29" s="40">
-        <v>100</v>
-      </c>
-      <c r="F29" s="40">
-        <v>1</v>
-      </c>
-      <c r="G29" s="40">
-        <v>1</v>
-      </c>
-      <c r="H29" s="40">
-        <v>1</v>
-      </c>
-      <c r="I29" s="40">
-        <v>1</v>
-      </c>
-      <c r="J29" s="40" t="str">
-        <f t="shared" si="6"/>
+      <c r="D45" s="40">
+        <v>1</v>
+      </c>
+      <c r="E45" s="40">
+        <v>70</v>
+      </c>
+      <c r="F45" s="40">
+        <v>1</v>
+      </c>
+      <c r="G45" s="40">
+        <v>1</v>
+      </c>
+      <c r="H45" s="40">
+        <v>1</v>
+      </c>
+      <c r="I45" s="40">
+        <v>3</v>
+      </c>
+      <c r="J45" s="40" t="str">
+        <f t="shared" si="9"/>
         <v>name_2010</v>
       </c>
-      <c r="K29" s="40" t="str">
+      <c r="K45" s="40" t="str">
         <f t="shared" si="2"/>
         <v>unit_icon_2010</v>
       </c>
-      <c r="L29" s="52" t="str">
+      <c r="L45" s="52" t="str">
         <f t="shared" si="3"/>
         <v>Unit/Hero/2010_Witch_Thunder.prefab</v>
       </c>
-      <c r="M29" s="38" t="s">
+      <c r="M45" s="38" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="40">
+    <row r="46" spans="1:13">
+      <c r="A46" s="40">
         <v>2011</v>
       </c>
-      <c r="B30" s="40" t="s">
+      <c r="B46" s="40" t="s">
         <v>175</v>
       </c>
-      <c r="C30" s="41" t="str">
+      <c r="C46" s="41" t="str">
         <f t="shared" si="0"/>
         <v>(원거리)Witch_Poison</v>
       </c>
-      <c r="D30" s="40">
-        <v>1</v>
-      </c>
-      <c r="E30" s="40">
-        <v>100</v>
-      </c>
-      <c r="F30" s="40">
-        <v>1</v>
-      </c>
-      <c r="G30" s="40">
-        <v>1</v>
-      </c>
-      <c r="H30" s="40">
-        <v>1</v>
-      </c>
-      <c r="I30" s="40">
-        <v>1</v>
-      </c>
-      <c r="J30" s="40" t="str">
-        <f t="shared" si="6"/>
+      <c r="D46" s="40">
+        <v>1</v>
+      </c>
+      <c r="E46" s="40">
+        <v>70</v>
+      </c>
+      <c r="F46" s="40">
+        <v>1</v>
+      </c>
+      <c r="G46" s="40">
+        <v>1</v>
+      </c>
+      <c r="H46" s="40">
+        <v>1</v>
+      </c>
+      <c r="I46" s="40">
+        <v>3</v>
+      </c>
+      <c r="J46" s="40" t="str">
+        <f t="shared" si="9"/>
         <v>name_2011</v>
       </c>
-      <c r="K30" s="40" t="str">
+      <c r="K46" s="40" t="str">
         <f t="shared" si="2"/>
         <v>unit_icon_2011</v>
       </c>
-      <c r="L30" s="52" t="str">
+      <c r="L46" s="52" t="str">
         <f t="shared" si="3"/>
         <v>Unit/Hero/2011_Witch_Poison.prefab</v>
       </c>
-      <c r="M30" s="38" t="s">
+      <c r="M46" s="38" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="40">
+    <row r="47" spans="1:13">
+      <c r="A47" s="40">
         <v>2012</v>
       </c>
-      <c r="B31" s="40" t="s">
+      <c r="B47" s="40" t="s">
         <v>204</v>
       </c>
-      <c r="C31" s="41" t="str">
+      <c r="C47" s="41" t="str">
         <f t="shared" si="0"/>
         <v>(원거리)Goblin_Stone</v>
       </c>
-      <c r="D31" s="40">
-        <v>1</v>
-      </c>
-      <c r="E31" s="40">
-        <v>100</v>
-      </c>
-      <c r="F31" s="40">
-        <v>1</v>
-      </c>
-      <c r="G31" s="40">
-        <v>1</v>
-      </c>
-      <c r="H31" s="40">
-        <v>1</v>
-      </c>
-      <c r="I31" s="40">
-        <v>3</v>
-      </c>
-      <c r="J31" s="40" t="str">
-        <f t="shared" ref="J31:J45" si="7">"name_"&amp;A31</f>
+      <c r="D47" s="40">
+        <v>1</v>
+      </c>
+      <c r="E47" s="40">
+        <v>70</v>
+      </c>
+      <c r="F47" s="40">
+        <v>1</v>
+      </c>
+      <c r="G47" s="40">
+        <v>1</v>
+      </c>
+      <c r="H47" s="40">
+        <v>1</v>
+      </c>
+      <c r="I47" s="40">
+        <v>2</v>
+      </c>
+      <c r="J47" s="40" t="str">
+        <f t="shared" ref="J47:J61" si="10">"name_"&amp;A47</f>
         <v>name_2012</v>
       </c>
-      <c r="K31" s="40" t="str">
-        <f t="shared" ref="K31:K45" si="8">"unit_icon_"&amp;A31</f>
+      <c r="K47" s="40" t="str">
+        <f t="shared" ref="K47:K61" si="11">"unit_icon_"&amp;A47</f>
         <v>unit_icon_2012</v>
       </c>
-      <c r="L31" s="52" t="str">
+      <c r="L47" s="52" t="str">
         <f t="shared" si="3"/>
         <v>Unit/Hero/2012_Goblin_Stone.prefab</v>
       </c>
-      <c r="M31" s="38" t="s">
+      <c r="M47" s="38" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="40">
+    <row r="48" spans="1:13">
+      <c r="A48" s="40">
         <v>2013</v>
       </c>
-      <c r="B32" s="40" t="s">
+      <c r="B48" s="40" t="s">
         <v>205</v>
       </c>
-      <c r="C32" s="41" t="str">
+      <c r="C48" s="41" t="str">
         <f t="shared" si="0"/>
         <v>(근거리)Goblin_Club</v>
       </c>
-      <c r="D32" s="40">
-        <v>0</v>
-      </c>
-      <c r="E32" s="40">
-        <v>100</v>
-      </c>
-      <c r="F32" s="40">
-        <v>1</v>
-      </c>
-      <c r="G32" s="40">
-        <v>1</v>
-      </c>
-      <c r="H32" s="40">
-        <v>1</v>
-      </c>
-      <c r="I32" s="40">
-        <v>1</v>
-      </c>
-      <c r="J32" s="40" t="str">
-        <f t="shared" si="7"/>
+      <c r="D48" s="40">
+        <v>0</v>
+      </c>
+      <c r="E48" s="40">
+        <v>70</v>
+      </c>
+      <c r="F48" s="40">
+        <v>1</v>
+      </c>
+      <c r="G48" s="40">
+        <v>1</v>
+      </c>
+      <c r="H48" s="40">
+        <v>1</v>
+      </c>
+      <c r="I48" s="40">
+        <v>2</v>
+      </c>
+      <c r="J48" s="40" t="str">
+        <f t="shared" si="10"/>
         <v>name_2013</v>
       </c>
-      <c r="K32" s="40" t="str">
-        <f t="shared" si="8"/>
+      <c r="K48" s="40" t="str">
+        <f t="shared" si="11"/>
         <v>unit_icon_2013</v>
       </c>
-      <c r="L32" s="52" t="str">
+      <c r="L48" s="52" t="str">
         <f t="shared" si="3"/>
         <v>Unit/Hero/2013_Goblin_Club.prefab</v>
       </c>
-      <c r="M32" s="38" t="s">
+      <c r="M48" s="38" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="40">
+    <row r="49" spans="1:13">
+      <c r="A49" s="40">
         <v>2014</v>
       </c>
-      <c r="B33" s="40" t="s">
+      <c r="B49" s="40" t="s">
         <v>206</v>
       </c>
-      <c r="C33" s="41" t="str">
+      <c r="C49" s="41" t="str">
         <f t="shared" si="0"/>
         <v>(근거리)Goblin_Baby</v>
       </c>
-      <c r="D33" s="40">
-        <v>0</v>
-      </c>
-      <c r="E33" s="40">
-        <v>100</v>
-      </c>
-      <c r="F33" s="40">
-        <v>1</v>
-      </c>
-      <c r="G33" s="40">
-        <v>1</v>
-      </c>
-      <c r="H33" s="40">
-        <v>1</v>
-      </c>
-      <c r="I33" s="40">
-        <v>0</v>
-      </c>
-      <c r="J33" s="40" t="str">
-        <f t="shared" si="7"/>
+      <c r="D49" s="40">
+        <v>0</v>
+      </c>
+      <c r="E49" s="40">
+        <v>70</v>
+      </c>
+      <c r="F49" s="40">
+        <v>1</v>
+      </c>
+      <c r="G49" s="40">
+        <v>1</v>
+      </c>
+      <c r="H49" s="40">
+        <v>1</v>
+      </c>
+      <c r="I49" s="40">
+        <v>3</v>
+      </c>
+      <c r="J49" s="40" t="str">
+        <f t="shared" si="10"/>
         <v>name_2014</v>
       </c>
-      <c r="K33" s="40" t="str">
-        <f t="shared" si="8"/>
+      <c r="K49" s="40" t="str">
+        <f t="shared" si="11"/>
         <v>unit_icon_2014</v>
       </c>
-      <c r="L33" s="52" t="str">
+      <c r="L49" s="52" t="str">
         <f t="shared" si="3"/>
         <v>Unit/Hero/2014_Goblin_Baby.prefab</v>
       </c>
-      <c r="M33" s="38" t="s">
+      <c r="M49" s="38" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="40">
+    <row r="50" spans="1:13">
+      <c r="A50" s="40">
         <v>2015</v>
       </c>
-      <c r="B34" s="40" t="s">
+      <c r="B50" s="40" t="s">
         <v>207</v>
       </c>
-      <c r="C34" s="41" t="str">
+      <c r="C50" s="41" t="str">
         <f t="shared" si="0"/>
         <v>(원거리)Orc_Stone</v>
       </c>
-      <c r="D34" s="40">
-        <v>1</v>
-      </c>
-      <c r="E34" s="40">
-        <v>100</v>
-      </c>
-      <c r="F34" s="40">
-        <v>1</v>
-      </c>
-      <c r="G34" s="40">
-        <v>1</v>
-      </c>
-      <c r="H34" s="40">
-        <v>1</v>
-      </c>
-      <c r="I34" s="40">
-        <v>1</v>
-      </c>
-      <c r="J34" s="40" t="str">
-        <f t="shared" si="7"/>
+      <c r="D50" s="40">
+        <v>1</v>
+      </c>
+      <c r="E50" s="40">
+        <v>70</v>
+      </c>
+      <c r="F50" s="40">
+        <v>1</v>
+      </c>
+      <c r="G50" s="40">
+        <v>1</v>
+      </c>
+      <c r="H50" s="40">
+        <v>1</v>
+      </c>
+      <c r="I50" s="40">
+        <v>3</v>
+      </c>
+      <c r="J50" s="40" t="str">
+        <f t="shared" si="10"/>
         <v>name_2015</v>
       </c>
-      <c r="K34" s="40" t="str">
-        <f t="shared" si="8"/>
+      <c r="K50" s="40" t="str">
+        <f t="shared" si="11"/>
         <v>unit_icon_2015</v>
       </c>
-      <c r="L34" s="52" t="str">
+      <c r="L50" s="52" t="str">
         <f t="shared" si="3"/>
         <v>Unit/Hero/2015_Orc_Stone.prefab</v>
       </c>
-      <c r="M34" s="38" t="s">
+      <c r="M50" s="38" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="40">
+    <row r="51" spans="1:13">
+      <c r="A51" s="40">
         <v>2016</v>
       </c>
-      <c r="B35" s="40" t="s">
+      <c r="B51" s="40" t="s">
         <v>208</v>
       </c>
-      <c r="C35" s="41" t="str">
+      <c r="C51" s="41" t="str">
         <f t="shared" si="0"/>
         <v>(근거리)Orc_Club</v>
       </c>
-      <c r="D35" s="40">
-        <v>0</v>
-      </c>
-      <c r="E35" s="40">
-        <v>100</v>
-      </c>
-      <c r="F35" s="40">
-        <v>1</v>
-      </c>
-      <c r="G35" s="40">
-        <v>1</v>
-      </c>
-      <c r="H35" s="40">
-        <v>1</v>
-      </c>
-      <c r="I35" s="40">
-        <v>1</v>
-      </c>
-      <c r="J35" s="40" t="str">
-        <f t="shared" si="7"/>
+      <c r="D51" s="40">
+        <v>0</v>
+      </c>
+      <c r="E51" s="40">
+        <v>70</v>
+      </c>
+      <c r="F51" s="40">
+        <v>1</v>
+      </c>
+      <c r="G51" s="40">
+        <v>1</v>
+      </c>
+      <c r="H51" s="40">
+        <v>1</v>
+      </c>
+      <c r="I51" s="40">
+        <v>3</v>
+      </c>
+      <c r="J51" s="40" t="str">
+        <f t="shared" si="10"/>
         <v>name_2016</v>
       </c>
-      <c r="K35" s="40" t="str">
-        <f t="shared" si="8"/>
+      <c r="K51" s="40" t="str">
+        <f t="shared" si="11"/>
         <v>unit_icon_2016</v>
       </c>
-      <c r="L35" s="52" t="str">
+      <c r="L51" s="52" t="str">
         <f t="shared" si="3"/>
         <v>Unit/Hero/2016_Orc_Club.prefab</v>
       </c>
-      <c r="M35" s="38" t="s">
+      <c r="M51" s="38" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="40">
+    <row r="52" spans="1:13">
+      <c r="A52" s="40">
         <v>2017</v>
       </c>
-      <c r="B36" s="40" t="s">
+      <c r="B52" s="40" t="s">
         <v>209</v>
       </c>
-      <c r="C36" s="41" t="str">
+      <c r="C52" s="41" t="str">
         <f t="shared" si="0"/>
         <v>(근거리)Dragon</v>
       </c>
-      <c r="D36" s="40">
-        <v>0</v>
-      </c>
-      <c r="E36" s="40">
-        <v>100</v>
-      </c>
-      <c r="F36" s="40">
-        <v>1</v>
-      </c>
-      <c r="G36" s="40">
-        <v>1</v>
-      </c>
-      <c r="H36" s="40">
-        <v>1</v>
-      </c>
-      <c r="I36" s="40">
-        <v>3</v>
-      </c>
-      <c r="J36" s="40" t="str">
-        <f t="shared" si="7"/>
+      <c r="D52" s="40">
+        <v>0</v>
+      </c>
+      <c r="E52" s="40">
+        <v>70</v>
+      </c>
+      <c r="F52" s="40">
+        <v>1</v>
+      </c>
+      <c r="G52" s="40">
+        <v>1</v>
+      </c>
+      <c r="H52" s="40">
+        <v>1</v>
+      </c>
+      <c r="I52" s="40">
+        <v>4</v>
+      </c>
+      <c r="J52" s="40" t="str">
+        <f t="shared" si="10"/>
         <v>name_2017</v>
       </c>
-      <c r="K36" s="40" t="str">
-        <f t="shared" si="8"/>
+      <c r="K52" s="40" t="str">
+        <f t="shared" si="11"/>
         <v>unit_icon_2017</v>
       </c>
-      <c r="L36" s="52" t="str">
+      <c r="L52" s="52" t="str">
         <f t="shared" si="3"/>
         <v>Unit/Hero/2017_Dragon.prefab</v>
       </c>
-      <c r="M36" s="38" t="s">
+      <c r="M52" s="38" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="40">
+    <row r="53" spans="1:13">
+      <c r="A53" s="40">
         <v>2018</v>
       </c>
-      <c r="B37" s="40" t="s">
+      <c r="B53" s="40" t="s">
         <v>210</v>
       </c>
-      <c r="C37" s="38" t="str">
+      <c r="C53" s="38" t="str">
         <f t="shared" si="0"/>
         <v>(원거리)Dragon_Fire</v>
       </c>
-      <c r="D37" s="40">
-        <v>1</v>
-      </c>
-      <c r="E37" s="40">
-        <v>100</v>
-      </c>
-      <c r="F37" s="40">
-        <v>1</v>
-      </c>
-      <c r="G37" s="40">
-        <v>1</v>
-      </c>
-      <c r="H37" s="40">
-        <v>1</v>
-      </c>
-      <c r="I37" s="40">
-        <v>1</v>
-      </c>
-      <c r="J37" s="40" t="str">
-        <f t="shared" si="7"/>
+      <c r="D53" s="40">
+        <v>1</v>
+      </c>
+      <c r="E53" s="40">
+        <v>70</v>
+      </c>
+      <c r="F53" s="40">
+        <v>1</v>
+      </c>
+      <c r="G53" s="40">
+        <v>1</v>
+      </c>
+      <c r="H53" s="40">
+        <v>1</v>
+      </c>
+      <c r="I53" s="40">
+        <v>4</v>
+      </c>
+      <c r="J53" s="40" t="str">
+        <f t="shared" si="10"/>
         <v>name_2018</v>
       </c>
-      <c r="K37" s="40" t="str">
-        <f t="shared" si="8"/>
+      <c r="K53" s="40" t="str">
+        <f t="shared" si="11"/>
         <v>unit_icon_2018</v>
       </c>
-      <c r="L37" s="52" t="str">
+      <c r="L53" s="52" t="str">
         <f t="shared" si="3"/>
         <v>Unit/Hero/2018_Dragon_Fire.prefab</v>
       </c>
-      <c r="M37" s="38" t="s">
+      <c r="M53" s="38" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="40">
+    <row r="54" spans="1:13">
+      <c r="A54" s="40">
         <v>11001</v>
       </c>
-      <c r="B38" s="41" t="s">
+      <c r="B54" s="41" t="s">
         <v>231</v>
       </c>
-      <c r="C38" s="41" t="str">
+      <c r="C54" s="41" t="str">
         <f t="shared" si="0"/>
         <v>(원거리)Indian_Wagon</v>
       </c>
-      <c r="D38" s="40">
-        <v>1</v>
-      </c>
-      <c r="E38" s="40">
-        <v>100</v>
-      </c>
-      <c r="F38" s="40">
-        <v>1</v>
-      </c>
-      <c r="G38" s="40">
-        <v>1</v>
-      </c>
-      <c r="H38" s="40">
-        <v>1</v>
-      </c>
-      <c r="I38" s="40">
-        <v>1</v>
-      </c>
-      <c r="J38" s="40" t="str">
-        <f t="shared" si="7"/>
+      <c r="D54" s="40">
+        <v>1</v>
+      </c>
+      <c r="E54" s="40">
+        <v>70</v>
+      </c>
+      <c r="F54" s="40">
+        <v>1</v>
+      </c>
+      <c r="G54" s="40">
+        <v>1</v>
+      </c>
+      <c r="H54" s="40">
+        <v>1</v>
+      </c>
+      <c r="I54" s="40">
+        <v>1</v>
+      </c>
+      <c r="J54" s="40" t="str">
+        <f t="shared" si="10"/>
         <v>name_11001</v>
       </c>
-      <c r="K38" s="40" t="str">
-        <f t="shared" si="8"/>
+      <c r="K54" s="40" t="str">
+        <f t="shared" si="11"/>
         <v>unit_icon_11001</v>
       </c>
-      <c r="L38" s="52" t="str">
+      <c r="L54" s="52" t="str">
         <f t="shared" si="3"/>
         <v>Unit/Enemy/Chapter_1_Object/11001_Indian_Wagon.prefab</v>
       </c>
-      <c r="M38" s="38" t="s">
+      <c r="M54" s="38" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="40">
+    <row r="55" spans="1:13">
+      <c r="A55" s="40">
         <v>11002</v>
       </c>
-      <c r="B39" s="41" t="s">
+      <c r="B55" s="41" t="s">
         <v>232</v>
       </c>
-      <c r="C39" s="41" t="str">
+      <c r="C55" s="41" t="str">
         <f t="shared" si="0"/>
         <v>(원거리)Indian_Catapult</v>
       </c>
-      <c r="D39" s="40">
-        <v>1</v>
-      </c>
-      <c r="E39" s="40">
-        <v>100</v>
-      </c>
-      <c r="F39" s="40">
-        <v>1</v>
-      </c>
-      <c r="G39" s="40">
-        <v>1</v>
-      </c>
-      <c r="H39" s="40">
-        <v>1</v>
-      </c>
-      <c r="I39" s="40">
-        <v>1</v>
-      </c>
-      <c r="J39" s="40" t="str">
-        <f t="shared" si="7"/>
+      <c r="D55" s="40">
+        <v>1</v>
+      </c>
+      <c r="E55" s="40">
+        <v>70</v>
+      </c>
+      <c r="F55" s="40">
+        <v>1</v>
+      </c>
+      <c r="G55" s="40">
+        <v>1</v>
+      </c>
+      <c r="H55" s="40">
+        <v>1</v>
+      </c>
+      <c r="I55" s="40">
+        <v>1</v>
+      </c>
+      <c r="J55" s="40" t="str">
+        <f t="shared" si="10"/>
         <v>name_11002</v>
       </c>
-      <c r="K39" s="40" t="str">
-        <f t="shared" si="8"/>
+      <c r="K55" s="40" t="str">
+        <f t="shared" si="11"/>
         <v>unit_icon_11002</v>
       </c>
-      <c r="L39" s="52" t="str">
+      <c r="L55" s="52" t="str">
         <f t="shared" si="3"/>
         <v>Unit/Enemy/Chapter_1_Object/11002_Indian_Catapult.prefab</v>
       </c>
-      <c r="M39" s="38" t="s">
+      <c r="M55" s="38" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="40">
+    <row r="56" spans="1:13">
+      <c r="A56" s="40">
         <v>11003</v>
       </c>
-      <c r="B40" s="41" t="s">
+      <c r="B56" s="41" t="s">
         <v>217</v>
       </c>
-      <c r="C40" s="41" t="str">
+      <c r="C56" s="41" t="str">
         <f t="shared" si="0"/>
         <v>(원거리)Indian_Wall</v>
       </c>
-      <c r="D40" s="40">
-        <v>1</v>
-      </c>
-      <c r="E40" s="40">
-        <v>100</v>
-      </c>
-      <c r="F40" s="40">
-        <v>1</v>
-      </c>
-      <c r="G40" s="40">
-        <v>1</v>
-      </c>
-      <c r="H40" s="40">
-        <v>1</v>
-      </c>
-      <c r="I40" s="40">
-        <v>1</v>
-      </c>
-      <c r="J40" s="40" t="str">
-        <f t="shared" si="7"/>
+      <c r="D56" s="40">
+        <v>1</v>
+      </c>
+      <c r="E56" s="40">
+        <v>70</v>
+      </c>
+      <c r="F56" s="40">
+        <v>1</v>
+      </c>
+      <c r="G56" s="40">
+        <v>1</v>
+      </c>
+      <c r="H56" s="40">
+        <v>1</v>
+      </c>
+      <c r="I56" s="40">
+        <v>1</v>
+      </c>
+      <c r="J56" s="40" t="str">
+        <f t="shared" si="10"/>
         <v>name_11003</v>
       </c>
-      <c r="K40" s="40" t="str">
-        <f t="shared" si="8"/>
+      <c r="K56" s="40" t="str">
+        <f t="shared" si="11"/>
         <v>unit_icon_11003</v>
       </c>
-      <c r="L40" s="52" t="str">
+      <c r="L56" s="52" t="str">
         <f t="shared" si="3"/>
         <v>Unit/Enemy/Chapter_1_Object/11003_Indian_Wall.prefab</v>
       </c>
-      <c r="M40" s="38" t="s">
+      <c r="M56" s="38" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="40">
+    <row r="57" spans="1:13">
+      <c r="A57" s="40">
         <v>11004</v>
       </c>
-      <c r="B41" s="41" t="s">
+      <c r="B57" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="C41" s="41" t="str">
+      <c r="C57" s="41" t="str">
         <f t="shared" si="0"/>
         <v>(원거리)Indian_Watchtower</v>
       </c>
-      <c r="D41" s="40">
-        <v>1</v>
-      </c>
-      <c r="E41" s="40">
-        <v>100</v>
-      </c>
-      <c r="F41" s="40">
-        <v>1</v>
-      </c>
-      <c r="G41" s="40">
-        <v>1</v>
-      </c>
-      <c r="H41" s="40">
-        <v>1</v>
-      </c>
-      <c r="I41" s="40">
-        <v>1</v>
-      </c>
-      <c r="J41" s="40" t="str">
-        <f t="shared" si="7"/>
+      <c r="D57" s="40">
+        <v>1</v>
+      </c>
+      <c r="E57" s="40">
+        <v>70</v>
+      </c>
+      <c r="F57" s="40">
+        <v>1</v>
+      </c>
+      <c r="G57" s="40">
+        <v>1</v>
+      </c>
+      <c r="H57" s="40">
+        <v>1</v>
+      </c>
+      <c r="I57" s="40">
+        <v>1</v>
+      </c>
+      <c r="J57" s="40" t="str">
+        <f t="shared" si="10"/>
         <v>name_11004</v>
       </c>
-      <c r="K41" s="40" t="str">
-        <f t="shared" si="8"/>
+      <c r="K57" s="40" t="str">
+        <f t="shared" si="11"/>
         <v>unit_icon_11004</v>
       </c>
-      <c r="L41" s="52" t="str">
+      <c r="L57" s="52" t="str">
         <f t="shared" si="3"/>
         <v>Unit/Enemy/Chapter_1_Object/11004_Indian_Watchtower.prefab</v>
       </c>
-      <c r="M41" s="38" t="s">
+      <c r="M57" s="38" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="40">
+    <row r="58" spans="1:13">
+      <c r="A58" s="40">
         <v>11005</v>
       </c>
-      <c r="B42" s="41" t="s">
+      <c r="B58" s="41" t="s">
         <v>234</v>
       </c>
-      <c r="C42" s="41" t="str">
+      <c r="C58" s="41" t="str">
         <f t="shared" si="0"/>
         <v>(원거리)Indian_Chicken_House</v>
       </c>
-      <c r="D42" s="40">
-        <v>1</v>
-      </c>
-      <c r="E42" s="40">
-        <v>100</v>
-      </c>
-      <c r="F42" s="40">
-        <v>1</v>
-      </c>
-      <c r="G42" s="40">
-        <v>1</v>
-      </c>
-      <c r="H42" s="40">
-        <v>1</v>
-      </c>
-      <c r="I42" s="40">
-        <v>1</v>
-      </c>
-      <c r="J42" s="40" t="str">
-        <f t="shared" si="7"/>
+      <c r="D58" s="40">
+        <v>1</v>
+      </c>
+      <c r="E58" s="40">
+        <v>70</v>
+      </c>
+      <c r="F58" s="40">
+        <v>1</v>
+      </c>
+      <c r="G58" s="40">
+        <v>1</v>
+      </c>
+      <c r="H58" s="40">
+        <v>1</v>
+      </c>
+      <c r="I58" s="40">
+        <v>1</v>
+      </c>
+      <c r="J58" s="40" t="str">
+        <f t="shared" si="10"/>
         <v>name_11005</v>
       </c>
-      <c r="K42" s="40" t="str">
-        <f t="shared" si="8"/>
+      <c r="K58" s="40" t="str">
+        <f t="shared" si="11"/>
         <v>unit_icon_11005</v>
       </c>
-      <c r="L42" s="52" t="str">
+      <c r="L58" s="52" t="str">
         <f t="shared" si="3"/>
         <v>Unit/Enemy/Chapter_1_Object/11005_Indian_Chicken_House.prefab</v>
       </c>
-      <c r="M42" s="38" t="s">
+      <c r="M58" s="38" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
-      <c r="A43" s="40">
+    <row r="59" spans="1:13">
+      <c r="A59" s="40">
         <v>11006</v>
       </c>
-      <c r="B43" s="41" t="s">
+      <c r="B59" s="41" t="s">
         <v>235</v>
       </c>
-      <c r="C43" s="41" t="str">
+      <c r="C59" s="41" t="str">
         <f t="shared" si="0"/>
         <v>(원거리)Indian_Jar_1</v>
       </c>
-      <c r="D43" s="40">
-        <v>1</v>
-      </c>
-      <c r="E43" s="40">
-        <v>100</v>
-      </c>
-      <c r="F43" s="40">
-        <v>1</v>
-      </c>
-      <c r="G43" s="40">
-        <v>1</v>
-      </c>
-      <c r="H43" s="40">
-        <v>1</v>
-      </c>
-      <c r="I43" s="40">
-        <v>1</v>
-      </c>
-      <c r="J43" s="40" t="str">
-        <f t="shared" si="7"/>
+      <c r="D59" s="40">
+        <v>1</v>
+      </c>
+      <c r="E59" s="40">
+        <v>70</v>
+      </c>
+      <c r="F59" s="40">
+        <v>1</v>
+      </c>
+      <c r="G59" s="40">
+        <v>1</v>
+      </c>
+      <c r="H59" s="40">
+        <v>1</v>
+      </c>
+      <c r="I59" s="40">
+        <v>1</v>
+      </c>
+      <c r="J59" s="40" t="str">
+        <f t="shared" si="10"/>
         <v>name_11006</v>
       </c>
-      <c r="K43" s="40" t="str">
-        <f t="shared" si="8"/>
+      <c r="K59" s="40" t="str">
+        <f t="shared" si="11"/>
         <v>unit_icon_11006</v>
       </c>
-      <c r="L43" s="52" t="str">
+      <c r="L59" s="52" t="str">
         <f t="shared" si="3"/>
         <v>Unit/Enemy/Chapter_1_Object/11006_Indian_Jar_1.prefab</v>
       </c>
-      <c r="M43" s="38" t="s">
+      <c r="M59" s="38" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
-      <c r="A44" s="40">
+    <row r="60" spans="1:13">
+      <c r="A60" s="40">
         <v>11007</v>
       </c>
-      <c r="B44" s="41" t="s">
+      <c r="B60" s="41" t="s">
         <v>236</v>
       </c>
-      <c r="C44" s="41" t="str">
+      <c r="C60" s="41" t="str">
         <f t="shared" si="0"/>
         <v>(원거리)Indian_Jar_2</v>
       </c>
-      <c r="D44" s="40">
-        <v>1</v>
-      </c>
-      <c r="E44" s="40">
-        <v>100</v>
-      </c>
-      <c r="F44" s="40">
-        <v>1</v>
-      </c>
-      <c r="G44" s="40">
-        <v>1</v>
-      </c>
-      <c r="H44" s="40">
-        <v>1</v>
-      </c>
-      <c r="I44" s="40">
-        <v>1</v>
-      </c>
-      <c r="J44" s="40" t="str">
-        <f t="shared" si="7"/>
+      <c r="D60" s="40">
+        <v>1</v>
+      </c>
+      <c r="E60" s="40">
+        <v>70</v>
+      </c>
+      <c r="F60" s="40">
+        <v>1</v>
+      </c>
+      <c r="G60" s="40">
+        <v>1</v>
+      </c>
+      <c r="H60" s="40">
+        <v>1</v>
+      </c>
+      <c r="I60" s="40">
+        <v>1</v>
+      </c>
+      <c r="J60" s="40" t="str">
+        <f t="shared" si="10"/>
         <v>name_11007</v>
       </c>
-      <c r="K44" s="40" t="str">
-        <f t="shared" si="8"/>
+      <c r="K60" s="40" t="str">
+        <f t="shared" si="11"/>
         <v>unit_icon_11007</v>
       </c>
-      <c r="L44" s="52" t="str">
+      <c r="L60" s="52" t="str">
         <f t="shared" si="3"/>
         <v>Unit/Enemy/Chapter_1_Object/11007_Indian_Jar_2.prefab</v>
       </c>
-      <c r="M44" s="38" t="s">
+      <c r="M60" s="38" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
-      <c r="A45" s="40">
+    <row r="61" spans="1:13">
+      <c r="A61" s="40">
         <v>11008</v>
       </c>
-      <c r="B45" s="41" t="s">
+      <c r="B61" s="41" t="s">
         <v>237</v>
       </c>
-      <c r="C45" s="41" t="str">
+      <c r="C61" s="41" t="str">
         <f t="shared" si="0"/>
         <v>(원거리)Indian_Straw</v>
       </c>
-      <c r="D45" s="40">
-        <v>1</v>
-      </c>
-      <c r="E45" s="40">
-        <v>100</v>
-      </c>
-      <c r="F45" s="40">
-        <v>1</v>
-      </c>
-      <c r="G45" s="40">
-        <v>1</v>
-      </c>
-      <c r="H45" s="40">
-        <v>1</v>
-      </c>
-      <c r="I45" s="40">
-        <v>1</v>
-      </c>
-      <c r="J45" s="40" t="str">
-        <f t="shared" si="7"/>
+      <c r="D61" s="40">
+        <v>1</v>
+      </c>
+      <c r="E61" s="40">
+        <v>70</v>
+      </c>
+      <c r="F61" s="40">
+        <v>1</v>
+      </c>
+      <c r="G61" s="40">
+        <v>1</v>
+      </c>
+      <c r="H61" s="40">
+        <v>1</v>
+      </c>
+      <c r="I61" s="40">
+        <v>1</v>
+      </c>
+      <c r="J61" s="40" t="str">
+        <f t="shared" si="10"/>
         <v>name_11008</v>
       </c>
-      <c r="K45" s="40" t="str">
-        <f t="shared" si="8"/>
+      <c r="K61" s="40" t="str">
+        <f t="shared" si="11"/>
         <v>unit_icon_11008</v>
       </c>
-      <c r="L45" s="52" t="str">
+      <c r="L61" s="52" t="str">
         <f t="shared" si="3"/>
         <v>Unit/Enemy/Chapter_1_Object/11008_Indian_Straw.prefab</v>
       </c>
-      <c r="M45" s="38" t="s">
+      <c r="M61" s="38" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
-      <c r="A46" s="40">
+    <row r="62" spans="1:13">
+      <c r="A62" s="40">
         <v>11009</v>
       </c>
-      <c r="B46" s="38" t="s">
+      <c r="B62" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="C46" s="41" t="str">
-        <f t="shared" ref="C46" si="9">IF(D46=1,"(원거리)","(근거리)")&amp;B46</f>
+      <c r="C62" s="41" t="str">
+        <f t="shared" ref="C62" si="12">IF(D62=1,"(원거리)","(근거리)")&amp;B62</f>
         <v>(원거리)Indian_Flag_Alter</v>
       </c>
-      <c r="D46" s="40">
-        <v>1</v>
-      </c>
-      <c r="E46" s="40">
-        <v>100</v>
-      </c>
-      <c r="F46" s="40">
-        <v>1</v>
-      </c>
-      <c r="G46" s="40">
-        <v>1</v>
-      </c>
-      <c r="H46" s="40">
-        <v>1</v>
-      </c>
-      <c r="I46" s="40">
-        <v>1</v>
-      </c>
-      <c r="J46" s="40" t="str">
-        <f t="shared" ref="J46" si="10">"name_"&amp;A46</f>
+      <c r="D62" s="40">
+        <v>1</v>
+      </c>
+      <c r="E62" s="40">
+        <v>70</v>
+      </c>
+      <c r="F62" s="40">
+        <v>1</v>
+      </c>
+      <c r="G62" s="40">
+        <v>1</v>
+      </c>
+      <c r="H62" s="40">
+        <v>1</v>
+      </c>
+      <c r="I62" s="40">
+        <v>1</v>
+      </c>
+      <c r="J62" s="40" t="str">
+        <f t="shared" ref="J62" si="13">"name_"&amp;A62</f>
         <v>name_11009</v>
       </c>
-      <c r="K46" s="40" t="str">
-        <f t="shared" ref="K46" si="11">"unit_icon_"&amp;A46</f>
+      <c r="K62" s="40" t="str">
+        <f t="shared" ref="K62" si="14">"unit_icon_"&amp;A62</f>
         <v>unit_icon_11009</v>
       </c>
-      <c r="L46" s="52" t="str">
-        <f t="shared" ref="L46" si="12">IF(A46&lt;1999,"Unit/Enemy/Chapter_1/"&amp;A46&amp;"_"&amp;B46&amp;".prefab",IF(A46&lt;2999,"Unit/Hero/"&amp;A46&amp;"_"&amp;B46&amp;".prefab","Unit/Enemy/Chapter_1_Object/"&amp;A46&amp;"_"&amp;B46&amp;".prefab"))</f>
+      <c r="L62" s="52" t="str">
+        <f t="shared" ref="L62" si="15">IF(A62&lt;1999,"Unit/Enemy/Chapter_1/"&amp;A62&amp;"_"&amp;B62&amp;".prefab",IF(A62&lt;2999,"Unit/Hero/"&amp;A62&amp;"_"&amp;B62&amp;".prefab","Unit/Enemy/Chapter_1_Object/"&amp;A62&amp;"_"&amp;B62&amp;".prefab"))</f>
         <v>Unit/Enemy/Chapter_1_Object/11009_Indian_Flag_Alter.prefab</v>
       </c>
-      <c r="M46" s="38" t="s">
+      <c r="M62" s="38" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
-      <c r="A47" s="40">
+    <row r="63" spans="1:13">
+      <c r="A63" s="40">
         <v>11010</v>
       </c>
-      <c r="B47" s="38" t="s">
+      <c r="B63" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="C47" s="41" t="str">
-        <f t="shared" ref="C47:C48" si="13">IF(D47=1,"(원거리)","(근거리)")&amp;B47</f>
+      <c r="C63" s="41" t="str">
+        <f t="shared" ref="C63:C64" si="16">IF(D63=1,"(원거리)","(근거리)")&amp;B63</f>
         <v>(원거리)Indian_House</v>
       </c>
-      <c r="D47" s="40">
-        <v>1</v>
-      </c>
-      <c r="E47" s="40">
-        <v>100</v>
-      </c>
-      <c r="F47" s="40">
-        <v>1</v>
-      </c>
-      <c r="G47" s="40">
-        <v>1</v>
-      </c>
-      <c r="H47" s="40">
-        <v>1</v>
-      </c>
-      <c r="I47" s="40">
-        <v>1</v>
-      </c>
-      <c r="J47" s="40" t="str">
-        <f t="shared" ref="J47:J48" si="14">"name_"&amp;A47</f>
+      <c r="D63" s="40">
+        <v>1</v>
+      </c>
+      <c r="E63" s="40">
+        <v>70</v>
+      </c>
+      <c r="F63" s="40">
+        <v>1</v>
+      </c>
+      <c r="G63" s="40">
+        <v>1</v>
+      </c>
+      <c r="H63" s="40">
+        <v>1</v>
+      </c>
+      <c r="I63" s="40">
+        <v>1</v>
+      </c>
+      <c r="J63" s="40" t="str">
+        <f t="shared" ref="J63:J64" si="17">"name_"&amp;A63</f>
         <v>name_11010</v>
       </c>
-      <c r="K47" s="40" t="str">
-        <f t="shared" ref="K47:K48" si="15">"unit_icon_"&amp;A47</f>
+      <c r="K63" s="40" t="str">
+        <f t="shared" ref="K63:K64" si="18">"unit_icon_"&amp;A63</f>
         <v>unit_icon_11010</v>
       </c>
-      <c r="L47" s="52" t="str">
-        <f t="shared" ref="L47:L48" si="16">IF(A47&lt;1999,"Unit/Enemy/Chapter_1/"&amp;A47&amp;"_"&amp;B47&amp;".prefab",IF(A47&lt;2999,"Unit/Hero/"&amp;A47&amp;"_"&amp;B47&amp;".prefab","Unit/Enemy/Chapter_1_Object/"&amp;A47&amp;"_"&amp;B47&amp;".prefab"))</f>
+      <c r="L63" s="52" t="str">
+        <f t="shared" ref="L63" si="19">IF(A63&lt;1999,"Unit/Enemy/Chapter_1/"&amp;A63&amp;"_"&amp;B63&amp;".prefab",IF(A63&lt;2999,"Unit/Hero/"&amp;A63&amp;"_"&amp;B63&amp;".prefab","Unit/Enemy/Chapter_1_Object/"&amp;A63&amp;"_"&amp;B63&amp;".prefab"))</f>
         <v>Unit/Enemy/Chapter_1_Object/11010_Indian_House.prefab</v>
       </c>
-      <c r="M47" s="38" t="s">
+      <c r="M63" s="38" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
-      <c r="A48" s="40">
+    <row r="64" spans="1:13">
+      <c r="A64" s="40">
         <v>11011</v>
       </c>
-      <c r="B48" s="38" t="s">
+      <c r="B64" s="38" t="s">
         <v>247</v>
       </c>
-      <c r="C48" s="41" t="str">
-        <f t="shared" si="13"/>
+      <c r="C64" s="41" t="str">
+        <f t="shared" si="16"/>
         <v>(원거리)Indian_Fire</v>
       </c>
-      <c r="D48" s="40">
-        <v>1</v>
-      </c>
-      <c r="E48" s="40">
-        <v>100</v>
-      </c>
-      <c r="F48" s="40">
-        <v>1</v>
-      </c>
-      <c r="G48" s="40">
-        <v>1</v>
-      </c>
-      <c r="H48" s="40">
-        <v>1</v>
-      </c>
-      <c r="I48" s="40">
-        <v>1</v>
-      </c>
-      <c r="J48" s="40" t="str">
-        <f t="shared" si="14"/>
+      <c r="D64" s="40">
+        <v>1</v>
+      </c>
+      <c r="E64" s="40">
+        <v>70</v>
+      </c>
+      <c r="F64" s="40">
+        <v>1</v>
+      </c>
+      <c r="G64" s="40">
+        <v>1</v>
+      </c>
+      <c r="H64" s="40">
+        <v>1</v>
+      </c>
+      <c r="I64" s="40">
+        <v>1</v>
+      </c>
+      <c r="J64" s="40" t="str">
+        <f t="shared" si="17"/>
         <v>name_11011</v>
       </c>
-      <c r="K48" s="40" t="str">
-        <f t="shared" si="15"/>
+      <c r="K64" s="40" t="str">
+        <f t="shared" si="18"/>
         <v>unit_icon_11011</v>
       </c>
-      <c r="L48" s="52" t="str">
-        <f>IF(A48&lt;1999,"Unit/Enemy/Chapter_1/"&amp;A48&amp;"_"&amp;B48&amp;".prefab",IF(A48&lt;2999,"Unit/Hero/"&amp;A48&amp;"_"&amp;B48&amp;".prefab","Unit/Enemy/Chapter_1_Object/"&amp;A48&amp;"_"&amp;B48&amp;".prefab"))</f>
+      <c r="L64" s="52" t="str">
+        <f>IF(A64&lt;1999,"Unit/Enemy/Chapter_1/"&amp;A64&amp;"_"&amp;B64&amp;".prefab",IF(A64&lt;2999,"Unit/Hero/"&amp;A64&amp;"_"&amp;B64&amp;".prefab","Unit/Enemy/Chapter_1_Object/"&amp;A64&amp;"_"&amp;B64&amp;".prefab"))</f>
         <v>Unit/Enemy/Chapter_1_Object/11011_Indian_Fire.prefab</v>
       </c>
-      <c r="M48" s="38" t="s">
+      <c r="M64" s="38" t="s">
         <v>242</v>
       </c>
     </row>
@@ -5302,10 +6070,10 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:W51"/>
+  <dimension ref="A1:W64"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L49" sqref="L49"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q24" sqref="A24:Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5558,18 +6326,19 @@
         <v>1</v>
       </c>
       <c r="E4" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F4" s="5">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G4" s="5">
         <v>10</v>
       </c>
       <c r="H4" s="5">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I4" s="42">
+        <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B4,Unitinfo!A:A,0))=1,50,5)</f>
         <v>50</v>
       </c>
       <c r="J4" s="5">
@@ -5632,20 +6401,21 @@
         <v>1</v>
       </c>
       <c r="E5" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F5" s="5">
-        <v>100</v>
+        <v>750</v>
       </c>
       <c r="G5" s="5">
         <v>10</v>
       </c>
       <c r="H5" s="5">
+        <v>45</v>
+      </c>
+      <c r="I5" s="42">
+        <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B5,Unitinfo!A:A,0))=1,50,5)</f>
         <v>5</v>
       </c>
-      <c r="I5" s="42">
-        <v>5</v>
-      </c>
       <c r="J5" s="5">
         <v>1</v>
       </c>
@@ -5656,10 +6426,10 @@
         <v>0</v>
       </c>
       <c r="M5" s="5">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="N5" s="5">
-        <f t="shared" ref="N5:N31" si="0">B5</f>
+        <f t="shared" ref="N5:N44" si="0">B5</f>
         <v>1002</v>
       </c>
       <c r="O5" s="5">
@@ -5692,7 +6462,7 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="5">
-        <f t="shared" ref="A6:A51" si="1">A5+1</f>
+        <f t="shared" ref="A6:A64" si="1">A5+1</f>
         <v>3</v>
       </c>
       <c r="B6" s="5">
@@ -5706,31 +6476,32 @@
         <v>1</v>
       </c>
       <c r="E6" s="9">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F6" s="5">
-        <v>100</v>
+        <v>575</v>
       </c>
       <c r="G6" s="5">
         <v>10</v>
       </c>
       <c r="H6" s="5">
+        <v>60</v>
+      </c>
+      <c r="I6" s="42">
+        <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B6,Unitinfo!A:A,0))=1,50,5)</f>
         <v>5</v>
       </c>
-      <c r="I6" s="42">
-        <v>5</v>
-      </c>
       <c r="J6" s="5">
         <v>1</v>
       </c>
       <c r="K6" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6" s="5">
         <v>0</v>
       </c>
       <c r="M6" s="5">
-        <v>1000</v>
+        <v>1429</v>
       </c>
       <c r="N6" s="5">
         <f t="shared" si="0"/>
@@ -5780,20 +6551,21 @@
         <v>1</v>
       </c>
       <c r="E7" s="9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F7" s="5">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G7" s="5">
         <v>10</v>
       </c>
       <c r="H7" s="5">
+        <v>45</v>
+      </c>
+      <c r="I7" s="42">
+        <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B7,Unitinfo!A:A,0))=1,50,5)</f>
         <v>5</v>
       </c>
-      <c r="I7" s="42">
-        <v>5</v>
-      </c>
       <c r="J7" s="5">
         <v>1</v>
       </c>
@@ -5804,7 +6576,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="N7" s="5">
         <f t="shared" si="0"/>
@@ -5854,20 +6626,21 @@
         <v>1</v>
       </c>
       <c r="E8" s="9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F8" s="5">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G8" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H8" s="5">
+        <v>45</v>
+      </c>
+      <c r="I8" s="42">
+        <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B8,Unitinfo!A:A,0))=1,50,5)</f>
         <v>5</v>
       </c>
-      <c r="I8" s="42">
-        <v>5</v>
-      </c>
       <c r="J8" s="5">
         <v>1</v>
       </c>
@@ -5878,7 +6651,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5">
-        <v>1000</v>
+        <v>334</v>
       </c>
       <c r="N8" s="5">
         <f t="shared" si="0"/>
@@ -5928,20 +6701,21 @@
         <v>1</v>
       </c>
       <c r="E9" s="9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F9" s="5">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G9" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H9" s="5">
+        <v>60</v>
+      </c>
+      <c r="I9" s="42">
+        <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B9,Unitinfo!A:A,0))=1,50,5)</f>
         <v>5</v>
       </c>
-      <c r="I9" s="42">
-        <v>5</v>
-      </c>
       <c r="J9" s="5">
         <v>1</v>
       </c>
@@ -5952,7 +6726,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="N9" s="5">
         <f t="shared" si="0"/>
@@ -6002,31 +6776,32 @@
         <v>1</v>
       </c>
       <c r="E10" s="9">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F10" s="5">
-        <v>100</v>
+        <v>925</v>
       </c>
       <c r="G10" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H10" s="5">
+        <v>90</v>
+      </c>
+      <c r="I10" s="42">
+        <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B10,Unitinfo!A:A,0))=1,50,5)</f>
         <v>5</v>
       </c>
-      <c r="I10" s="42">
-        <v>5</v>
-      </c>
       <c r="J10" s="5">
         <v>1</v>
       </c>
       <c r="K10" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10" s="5">
         <v>0</v>
       </c>
       <c r="M10" s="5">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="N10" s="5">
         <f t="shared" si="0"/>
@@ -6076,25 +6851,26 @@
         <v>1</v>
       </c>
       <c r="E11" s="9">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F11" s="5">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G11" s="5">
         <v>10</v>
       </c>
       <c r="H11" s="5">
+        <v>90</v>
+      </c>
+      <c r="I11" s="42">
+        <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B11,Unitinfo!A:A,0))=1,50,5)</f>
         <v>5</v>
       </c>
-      <c r="I11" s="42">
+      <c r="J11" s="5">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5">
         <v>5</v>
-      </c>
-      <c r="J11" s="5">
-        <v>1</v>
-      </c>
-      <c r="K11" s="5">
-        <v>1</v>
       </c>
       <c r="L11" s="5">
         <v>0</v>
@@ -6150,20 +6926,21 @@
         <v>1</v>
       </c>
       <c r="E12" s="9">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F12" s="5">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G12" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H12" s="5">
+        <v>45</v>
+      </c>
+      <c r="I12" s="42">
+        <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B12,Unitinfo!A:A,0))=1,50,5)</f>
         <v>5</v>
       </c>
-      <c r="I12" s="42">
-        <v>5</v>
-      </c>
       <c r="J12" s="5">
         <v>1</v>
       </c>
@@ -6174,7 +6951,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5">
-        <v>1000</v>
+        <v>223</v>
       </c>
       <c r="N12" s="5">
         <f t="shared" si="0"/>
@@ -6224,20 +7001,21 @@
         <v>1</v>
       </c>
       <c r="E13" s="9">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F13" s="5">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G13" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H13" s="5">
+        <v>120</v>
+      </c>
+      <c r="I13" s="42">
+        <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B13,Unitinfo!A:A,0))=1,50,5)</f>
         <v>5</v>
       </c>
-      <c r="I13" s="42">
-        <v>5</v>
-      </c>
       <c r="J13" s="5">
         <v>1</v>
       </c>
@@ -6248,7 +7026,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N13" s="5">
         <f t="shared" si="0"/>
@@ -6298,18 +7076,19 @@
         <v>1</v>
       </c>
       <c r="E14" s="9">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="F14" s="5">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G14" s="5">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H14" s="5">
-        <v>5</v>
+        <v>195</v>
       </c>
       <c r="I14" s="42">
+        <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B14,Unitinfo!A:A,0))=1,50,5)</f>
         <v>5</v>
       </c>
       <c r="J14" s="5">
@@ -6372,18 +7151,19 @@
         <v>1</v>
       </c>
       <c r="E15" s="9">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="F15" s="5">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="G15" s="5">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H15" s="5">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="I15" s="42">
+        <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B15,Unitinfo!A:A,0))=1,50,5)</f>
         <v>50</v>
       </c>
       <c r="J15" s="5">
@@ -6396,7 +7176,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5">
-        <v>1000</v>
+        <v>334</v>
       </c>
       <c r="N15" s="5">
         <f t="shared" si="0"/>
@@ -6446,18 +7226,19 @@
         <v>1</v>
       </c>
       <c r="E16" s="9">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F16" s="5">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="G16" s="5">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H16" s="5">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="I16" s="42">
+        <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B16,Unitinfo!A:A,0))=1,50,5)</f>
         <v>50</v>
       </c>
       <c r="J16" s="5">
@@ -6470,7 +7251,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5">
-        <v>1000</v>
+        <v>223</v>
       </c>
       <c r="N16" s="5">
         <f t="shared" si="0"/>
@@ -6520,18 +7301,19 @@
         <v>1</v>
       </c>
       <c r="E17" s="9">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F17" s="5">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="G17" s="5">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H17" s="5">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="I17" s="42">
+        <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B17,Unitinfo!A:A,0))=1,50,5)</f>
         <v>50</v>
       </c>
       <c r="J17" s="5">
@@ -6544,7 +7326,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5">
-        <v>1000</v>
+        <v>223</v>
       </c>
       <c r="N17" s="5">
         <f t="shared" si="0"/>
@@ -6594,20 +7376,21 @@
         <v>1</v>
       </c>
       <c r="E18" s="9">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="F18" s="5">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="G18" s="5">
         <v>10</v>
       </c>
       <c r="H18" s="5">
+        <v>210</v>
+      </c>
+      <c r="I18" s="42">
+        <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B18,Unitinfo!A:A,0))=1,50,5)</f>
         <v>5</v>
       </c>
-      <c r="I18" s="42">
-        <v>5</v>
-      </c>
       <c r="J18" s="5">
         <v>1</v>
       </c>
@@ -6618,7 +7401,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N18" s="5">
         <f t="shared" si="0"/>
@@ -6668,18 +7451,19 @@
         <v>1</v>
       </c>
       <c r="E19" s="9">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F19" s="5">
+        <v>1200</v>
+      </c>
+      <c r="G19" s="5">
+        <v>10</v>
+      </c>
+      <c r="H19" s="5">
         <v>100</v>
       </c>
-      <c r="G19" s="5">
-        <v>10</v>
-      </c>
-      <c r="H19" s="5">
-        <v>5</v>
-      </c>
       <c r="I19" s="42">
+        <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B19,Unitinfo!A:A,0))=1,50,5)</f>
         <v>50</v>
       </c>
       <c r="J19" s="5">
@@ -6692,7 +7476,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="N19" s="5">
         <f t="shared" si="0"/>
@@ -6732,29 +7516,30 @@
         <v>17</v>
       </c>
       <c r="B20" s="5">
-        <v>2001</v>
+        <v>1051</v>
       </c>
       <c r="C20" s="20" t="str">
         <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B20,Unitinfo!A:A,0))</f>
-        <v>(근거리)Slime</v>
-      </c>
-      <c r="D20" s="5">
+        <v>(원거리)Indian_Archer_2</v>
+      </c>
+      <c r="D20" s="9">
         <v>1</v>
       </c>
       <c r="E20" s="9">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F20" s="5">
-        <v>100</v>
+        <v>1300</v>
       </c>
       <c r="G20" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H20" s="5">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="I20" s="42">
-        <v>5</v>
+        <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B20,Unitinfo!A:A,0))=1,50,5)</f>
+        <v>50</v>
       </c>
       <c r="J20" s="5">
         <v>1</v>
@@ -6766,11 +7551,11 @@
         <v>0</v>
       </c>
       <c r="M20" s="5">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="N20" s="5">
         <f t="shared" si="0"/>
-        <v>2001</v>
+        <v>1051</v>
       </c>
       <c r="O20" s="5">
         <v>0</v>
@@ -6785,7 +7570,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T20" s="19" t="s">
         <v>123</v>
@@ -6806,30 +7591,31 @@
         <v>18</v>
       </c>
       <c r="B21" s="5">
-        <v>2002</v>
+        <v>1052</v>
       </c>
       <c r="C21" s="20" t="str">
         <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B21,Unitinfo!A:A,0))</f>
-        <v>(원거리)Slime_Archer</v>
-      </c>
-      <c r="D21" s="5">
+        <v>(근거리)Indian_Shield_2</v>
+      </c>
+      <c r="D21" s="9">
         <v>1</v>
       </c>
       <c r="E21" s="9">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="F21" s="5">
-        <v>100</v>
+        <v>2500</v>
       </c>
       <c r="G21" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H21" s="5">
+        <v>90</v>
+      </c>
+      <c r="I21" s="42">
+        <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B21,Unitinfo!A:A,0))=1,50,5)</f>
         <v>5</v>
       </c>
-      <c r="I21" s="42">
-        <v>50</v>
-      </c>
       <c r="J21" s="5">
         <v>1</v>
       </c>
@@ -6840,11 +7626,11 @@
         <v>0</v>
       </c>
       <c r="M21" s="5">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="N21" s="5">
         <f t="shared" si="0"/>
-        <v>2002</v>
+        <v>1052</v>
       </c>
       <c r="O21" s="5">
         <v>0</v>
@@ -6859,7 +7645,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T21" s="19" t="s">
         <v>123</v>
@@ -6880,30 +7666,31 @@
         <v>19</v>
       </c>
       <c r="B22" s="5">
-        <v>2003</v>
+        <v>1053</v>
       </c>
       <c r="C22" s="20" t="str">
         <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B22,Unitinfo!A:A,0))</f>
-        <v>(근거리)Skeleton_Sword</v>
-      </c>
-      <c r="D22" s="5">
+        <v>(근거리)Indian_Spear_2</v>
+      </c>
+      <c r="D22" s="9">
         <v>1</v>
       </c>
       <c r="E22" s="9">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="F22" s="5">
-        <v>100</v>
+        <v>2500</v>
       </c>
       <c r="G22" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H22" s="5">
+        <v>195</v>
+      </c>
+      <c r="I22" s="42">
+        <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B22,Unitinfo!A:A,0))=1,50,5)</f>
         <v>5</v>
       </c>
-      <c r="I22" s="42">
-        <v>5</v>
-      </c>
       <c r="J22" s="5">
         <v>1</v>
       </c>
@@ -6914,11 +7701,11 @@
         <v>0</v>
       </c>
       <c r="M22" s="5">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="N22" s="5">
         <f t="shared" si="0"/>
-        <v>2003</v>
+        <v>1053</v>
       </c>
       <c r="O22" s="5">
         <v>0</v>
@@ -6933,7 +7720,7 @@
         <v>0</v>
       </c>
       <c r="S22" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T22" s="19" t="s">
         <v>123</v>
@@ -6948,36 +7735,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="15" thickBot="1">
+    <row r="23" spans="1:23">
       <c r="A23" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B23" s="5">
-        <v>2004</v>
+        <v>1054</v>
       </c>
       <c r="C23" s="20" t="str">
         <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B23,Unitinfo!A:A,0))</f>
-        <v>(원거리)Skeleton_Archer</v>
-      </c>
-      <c r="D23" s="5">
+        <v>(근거리)Indian_Sword_2</v>
+      </c>
+      <c r="D23" s="9">
         <v>1</v>
       </c>
       <c r="E23" s="9">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="F23" s="5">
-        <v>100</v>
+        <v>2250</v>
       </c>
       <c r="G23" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H23" s="5">
+        <v>120</v>
+      </c>
+      <c r="I23" s="42">
+        <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B23,Unitinfo!A:A,0))=1,50,5)</f>
         <v>5</v>
       </c>
-      <c r="I23" s="42">
-        <v>50</v>
-      </c>
       <c r="J23" s="5">
         <v>1</v>
       </c>
@@ -6988,11 +7776,11 @@
         <v>0</v>
       </c>
       <c r="M23" s="5">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="N23" s="5">
         <f t="shared" si="0"/>
-        <v>2004</v>
+        <v>1054</v>
       </c>
       <c r="O23" s="5">
         <v>0</v>
@@ -7007,7 +7795,7 @@
         <v>0</v>
       </c>
       <c r="S23" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T23" s="19" t="s">
         <v>123</v>
@@ -7022,36 +7810,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="15" thickBot="1">
+    <row r="24" spans="1:23">
       <c r="A24" s="5">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B24" s="5">
-        <v>2005</v>
+        <v>1055</v>
       </c>
       <c r="C24" s="20" t="str">
         <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B24,Unitinfo!A:A,0))</f>
-        <v>(원거리)Skeleton_Witch</v>
-      </c>
-      <c r="D24" s="21">
+        <v>(근거리)Indian_Mask_2</v>
+      </c>
+      <c r="D24" s="9">
         <v>1</v>
       </c>
       <c r="E24" s="9">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="F24" s="5">
-        <v>100</v>
+        <v>2750</v>
       </c>
       <c r="G24" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H24" s="5">
+        <v>270</v>
+      </c>
+      <c r="I24" s="42">
+        <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B24,Unitinfo!A:A,0))=1,50,5)</f>
         <v>5</v>
       </c>
-      <c r="I24" s="42">
-        <v>50</v>
-      </c>
       <c r="J24" s="5">
         <v>1</v>
       </c>
@@ -7062,11 +7851,11 @@
         <v>0</v>
       </c>
       <c r="M24" s="5">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="N24" s="5">
         <f t="shared" si="0"/>
-        <v>2005</v>
+        <v>1055</v>
       </c>
       <c r="O24" s="5">
         <v>0</v>
@@ -7081,7 +7870,7 @@
         <v>0</v>
       </c>
       <c r="S24" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T24" s="19" t="s">
         <v>123</v>
@@ -7102,28 +7891,29 @@
         <v>22</v>
       </c>
       <c r="B25" s="5">
-        <v>2006</v>
+        <v>1056</v>
       </c>
       <c r="C25" s="20" t="str">
         <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B25,Unitinfo!A:A,0))</f>
-        <v>(근거리)Zombie_Hand</v>
-      </c>
-      <c r="D25" s="5">
+        <v>(근거리)Indian_Bear_2</v>
+      </c>
+      <c r="D25" s="9">
         <v>1</v>
       </c>
       <c r="E25" s="9">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="F25" s="5">
-        <v>100</v>
+        <v>2750</v>
       </c>
       <c r="G25" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H25" s="5">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="I25" s="42">
+        <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B25,Unitinfo!A:A,0))=1,50,5)</f>
         <v>5</v>
       </c>
       <c r="J25" s="5">
@@ -7136,11 +7926,11 @@
         <v>0</v>
       </c>
       <c r="M25" s="5">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="N25" s="5">
         <f t="shared" si="0"/>
-        <v>2006</v>
+        <v>1056</v>
       </c>
       <c r="O25" s="5">
         <v>0</v>
@@ -7155,7 +7945,7 @@
         <v>0</v>
       </c>
       <c r="S25" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T25" s="19" t="s">
         <v>123</v>
@@ -7170,51 +7960,52 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="15" thickBot="1">
+    <row r="26" spans="1:23">
       <c r="A26" s="5">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="B26" s="5">
-        <v>2007</v>
+        <v>1057</v>
       </c>
       <c r="C26" s="20" t="str">
         <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B26,Unitinfo!A:A,0))</f>
-        <v>(근거리)Zombie_Shield</v>
-      </c>
-      <c r="D26" s="5">
+        <v>(근거리)Bear_2</v>
+      </c>
+      <c r="D26" s="9">
         <v>1</v>
       </c>
       <c r="E26" s="9">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="F26" s="5">
-        <v>100</v>
+        <v>2750</v>
       </c>
       <c r="G26" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H26" s="5">
-        <v>30</v>
+        <v>285</v>
       </c>
       <c r="I26" s="42">
+        <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B26,Unitinfo!A:A,0))=1,50,5)</f>
         <v>5</v>
       </c>
       <c r="J26" s="5">
         <v>1</v>
       </c>
       <c r="K26" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L26" s="5">
         <v>0</v>
       </c>
       <c r="M26" s="5">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="N26" s="5">
         <f t="shared" si="0"/>
-        <v>2007</v>
+        <v>1057</v>
       </c>
       <c r="O26" s="5">
         <v>0</v>
@@ -7229,7 +8020,7 @@
         <v>0</v>
       </c>
       <c r="S26" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T26" s="19" t="s">
         <v>123</v>
@@ -7244,51 +8035,52 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="15" thickBot="1">
+    <row r="27" spans="1:23">
       <c r="A27" s="5">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="B27" s="5">
-        <v>2008</v>
+        <v>1058</v>
       </c>
       <c r="C27" s="20" t="str">
         <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B27,Unitinfo!A:A,0))</f>
-        <v>(근거리)Zombie_Sword</v>
-      </c>
-      <c r="D27" s="21">
+        <v>(근거리)Indian_Master_2</v>
+      </c>
+      <c r="D27" s="9">
         <v>1</v>
       </c>
       <c r="E27" s="9">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="F27" s="5">
-        <v>100</v>
+        <v>2375</v>
       </c>
       <c r="G27" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H27" s="5">
-        <v>30</v>
+        <v>270</v>
       </c>
       <c r="I27" s="42">
+        <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B27,Unitinfo!A:A,0))=1,50,5)</f>
         <v>5</v>
       </c>
       <c r="J27" s="5">
         <v>1</v>
       </c>
       <c r="K27" s="5">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L27" s="5">
         <v>0</v>
       </c>
       <c r="M27" s="5">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="N27" s="5">
         <f t="shared" si="0"/>
-        <v>2008</v>
+        <v>1058</v>
       </c>
       <c r="O27" s="5">
         <v>0</v>
@@ -7303,7 +8095,7 @@
         <v>0</v>
       </c>
       <c r="S27" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T27" s="19" t="s">
         <v>123</v>
@@ -7318,51 +8110,52 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="15" thickBot="1">
+    <row r="28" spans="1:23">
       <c r="A28" s="5">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B28" s="5">
-        <v>2006</v>
+        <v>1059</v>
       </c>
       <c r="C28" s="20" t="str">
         <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B28,Unitinfo!A:A,0))</f>
-        <v>(근거리)Zombie_Hand</v>
-      </c>
-      <c r="D28" s="21">
+        <v>(근거리)Corgi_2</v>
+      </c>
+      <c r="D28" s="9">
         <v>1</v>
       </c>
       <c r="E28" s="9">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="F28" s="5">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="G28" s="5">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H28" s="5">
-        <v>30</v>
+        <v>345</v>
       </c>
       <c r="I28" s="42">
+        <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B28,Unitinfo!A:A,0))=1,50,5)</f>
         <v>5</v>
       </c>
       <c r="J28" s="5">
         <v>1</v>
       </c>
       <c r="K28" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L28" s="5">
         <v>0</v>
       </c>
       <c r="M28" s="5">
-        <v>1000</v>
+        <v>167</v>
       </c>
       <c r="N28" s="5">
         <f t="shared" si="0"/>
-        <v>2006</v>
+        <v>1059</v>
       </c>
       <c r="O28" s="5">
         <v>0</v>
@@ -7377,7 +8170,7 @@
         <v>0</v>
       </c>
       <c r="S28" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T28" s="19" t="s">
         <v>123</v>
@@ -7392,51 +8185,52 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="15" thickBot="1">
+    <row r="29" spans="1:23">
       <c r="A29" s="5">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B29" s="5">
-        <v>2007</v>
+        <v>1060</v>
       </c>
       <c r="C29" s="20" t="str">
         <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B29,Unitinfo!A:A,0))</f>
-        <v>(근거리)Zombie_Shield</v>
-      </c>
-      <c r="D29" s="21">
+        <v>(근거리)Indian_Horse_Sword_2</v>
+      </c>
+      <c r="D29" s="9">
         <v>1</v>
       </c>
       <c r="E29" s="9">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="F29" s="5">
-        <v>100</v>
+        <v>2250</v>
       </c>
       <c r="G29" s="5">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H29" s="5">
-        <v>30</v>
+        <v>225</v>
       </c>
       <c r="I29" s="42">
+        <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B29,Unitinfo!A:A,0))=1,50,5)</f>
         <v>5</v>
       </c>
       <c r="J29" s="5">
         <v>1</v>
       </c>
       <c r="K29" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L29" s="5">
         <v>0</v>
       </c>
       <c r="M29" s="5">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="N29" s="5">
         <f t="shared" si="0"/>
-        <v>2007</v>
+        <v>1060</v>
       </c>
       <c r="O29" s="5">
         <v>0</v>
@@ -7451,7 +8245,7 @@
         <v>0</v>
       </c>
       <c r="S29" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T29" s="19" t="s">
         <v>123</v>
@@ -7466,51 +8260,52 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="15" thickBot="1">
+    <row r="30" spans="1:23">
       <c r="A30" s="5">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B30" s="5">
-        <v>2008</v>
+        <v>1061</v>
       </c>
       <c r="C30" s="20" t="str">
         <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B30,Unitinfo!A:A,0))</f>
-        <v>(근거리)Zombie_Sword</v>
-      </c>
-      <c r="D30" s="21">
+        <v>(근거리)Indian_Horse_Spear_2</v>
+      </c>
+      <c r="D30" s="9">
         <v>1</v>
       </c>
       <c r="E30" s="9">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="F30" s="5">
-        <v>100</v>
+        <v>3250</v>
       </c>
       <c r="G30" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H30" s="5">
-        <v>30</v>
+        <v>315</v>
       </c>
       <c r="I30" s="42">
+        <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B30,Unitinfo!A:A,0))=1,50,5)</f>
         <v>5</v>
       </c>
       <c r="J30" s="5">
         <v>1</v>
       </c>
       <c r="K30" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L30" s="5">
         <v>0</v>
       </c>
       <c r="M30" s="5">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="N30" s="5">
         <f t="shared" si="0"/>
-        <v>2008</v>
+        <v>1061</v>
       </c>
       <c r="O30" s="5">
         <v>0</v>
@@ -7525,7 +8320,7 @@
         <v>0</v>
       </c>
       <c r="S30" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T30" s="19" t="s">
         <v>123</v>
@@ -7540,51 +8335,52 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="15" thickBot="1">
+    <row r="31" spans="1:23">
       <c r="A31" s="5">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B31" s="5">
-        <v>2009</v>
+        <v>1062</v>
       </c>
       <c r="C31" s="20" t="str">
         <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B31,Unitinfo!A:A,0))</f>
-        <v>(원거리)Witch_Fire</v>
-      </c>
-      <c r="D31" s="21">
+        <v>(원거리)Indian_Horse_Archer_2</v>
+      </c>
+      <c r="D31" s="9">
         <v>1</v>
       </c>
       <c r="E31" s="9">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="F31" s="5">
-        <v>100</v>
+        <v>2200</v>
       </c>
       <c r="G31" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H31" s="5">
-        <v>30</v>
+        <v>250</v>
       </c>
       <c r="I31" s="42">
+        <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B31,Unitinfo!A:A,0))=1,50,5)</f>
         <v>50</v>
       </c>
       <c r="J31" s="5">
         <v>1</v>
       </c>
       <c r="K31" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31" s="5">
         <v>0</v>
       </c>
       <c r="M31" s="5">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="N31" s="5">
         <f t="shared" si="0"/>
-        <v>2009</v>
+        <v>1062</v>
       </c>
       <c r="O31" s="5">
         <v>0</v>
@@ -7593,13 +8389,13 @@
         <v>0</v>
       </c>
       <c r="Q31" s="19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="R31" s="5">
         <v>0</v>
       </c>
       <c r="S31" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T31" s="19" t="s">
         <v>123</v>
@@ -7614,34 +8410,35 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="15" thickBot="1">
+    <row r="32" spans="1:23">
       <c r="A32" s="5">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="B32" s="5">
-        <v>2010</v>
+        <v>1063</v>
       </c>
       <c r="C32" s="20" t="str">
         <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B32,Unitinfo!A:A,0))</f>
-        <v>(원거리)Witch_Thunder</v>
-      </c>
-      <c r="D32" s="21">
+        <v>(원거리)Chicken_Black_2</v>
+      </c>
+      <c r="D32" s="9">
         <v>1</v>
       </c>
       <c r="E32" s="9">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="F32" s="5">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="G32" s="5">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H32" s="5">
-        <v>30</v>
+        <v>290</v>
       </c>
       <c r="I32" s="42">
+        <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B32,Unitinfo!A:A,0))=1,50,5)</f>
         <v>50</v>
       </c>
       <c r="J32" s="5">
@@ -7654,11 +8451,11 @@
         <v>0</v>
       </c>
       <c r="M32" s="5">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="N32" s="5">
-        <f t="shared" ref="N32:N39" si="2">B32</f>
-        <v>2010</v>
+        <f t="shared" si="0"/>
+        <v>1063</v>
       </c>
       <c r="O32" s="5">
         <v>0</v>
@@ -7667,13 +8464,13 @@
         <v>0</v>
       </c>
       <c r="Q32" s="19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="R32" s="5">
         <v>0</v>
       </c>
       <c r="S32" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T32" s="19" t="s">
         <v>123</v>
@@ -7688,34 +8485,35 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="15" thickBot="1">
+    <row r="33" spans="1:23">
       <c r="A33" s="5">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="B33" s="5">
-        <v>2011</v>
+        <v>1064</v>
       </c>
       <c r="C33" s="20" t="str">
         <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B33,Unitinfo!A:A,0))</f>
-        <v>(원거리)Witch_Poison</v>
-      </c>
-      <c r="D33" s="21">
+        <v>(원거리)Chicken_White_2</v>
+      </c>
+      <c r="D33" s="9">
         <v>1</v>
       </c>
       <c r="E33" s="9">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="F33" s="5">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="G33" s="5">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H33" s="5">
-        <v>30</v>
+        <v>290</v>
       </c>
       <c r="I33" s="42">
+        <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B33,Unitinfo!A:A,0))=1,50,5)</f>
         <v>50</v>
       </c>
       <c r="J33" s="5">
@@ -7728,11 +8526,11 @@
         <v>0</v>
       </c>
       <c r="M33" s="5">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="N33" s="5">
-        <f t="shared" si="2"/>
-        <v>2011</v>
+        <f t="shared" si="0"/>
+        <v>1064</v>
       </c>
       <c r="O33" s="5">
         <v>0</v>
@@ -7741,13 +8539,13 @@
         <v>0</v>
       </c>
       <c r="Q33" s="19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="R33" s="5">
         <v>0</v>
       </c>
       <c r="S33" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T33" s="19" t="s">
         <v>123</v>
@@ -7762,41 +8560,42 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="15" thickBot="1">
+    <row r="34" spans="1:23">
       <c r="A34" s="5">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="B34" s="5">
-        <v>2012</v>
+        <v>1065</v>
       </c>
       <c r="C34" s="20" t="str">
         <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B34,Unitinfo!A:A,0))</f>
-        <v>(원거리)Goblin_Stone</v>
-      </c>
-      <c r="D34" s="21">
+        <v>(근거리)Indian_Elephant_2</v>
+      </c>
+      <c r="D34" s="9">
         <v>1</v>
       </c>
       <c r="E34" s="9">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="F34" s="5">
-        <v>100</v>
+        <v>4125</v>
       </c>
       <c r="G34" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H34" s="5">
-        <v>30</v>
+        <v>600</v>
       </c>
       <c r="I34" s="42">
-        <v>50</v>
+        <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B34,Unitinfo!A:A,0))=1,50,5)</f>
+        <v>5</v>
       </c>
       <c r="J34" s="5">
         <v>1</v>
       </c>
       <c r="K34" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L34" s="5">
         <v>0</v>
@@ -7805,8 +8604,8 @@
         <v>1000</v>
       </c>
       <c r="N34" s="5">
-        <f t="shared" si="2"/>
-        <v>2012</v>
+        <f t="shared" si="0"/>
+        <v>1065</v>
       </c>
       <c r="O34" s="5">
         <v>0</v>
@@ -7815,13 +8614,13 @@
         <v>0</v>
       </c>
       <c r="Q34" s="19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="R34" s="5">
         <v>0</v>
       </c>
       <c r="S34" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T34" s="19" t="s">
         <v>123</v>
@@ -7836,35 +8635,36 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="15" thickBot="1">
+    <row r="35" spans="1:23">
       <c r="A35" s="5">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="B35" s="5">
-        <v>2013</v>
+        <v>1066</v>
       </c>
       <c r="C35" s="20" t="str">
         <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B35,Unitinfo!A:A,0))</f>
-        <v>(근거리)Goblin_Club</v>
-      </c>
-      <c r="D35" s="21">
+        <v>(원거리)Indian_Egg_2</v>
+      </c>
+      <c r="D35" s="9">
         <v>1</v>
       </c>
       <c r="E35" s="9">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="F35" s="5">
-        <v>100</v>
+        <v>5375</v>
       </c>
       <c r="G35" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H35" s="5">
-        <v>30</v>
+        <v>465</v>
       </c>
       <c r="I35" s="42">
-        <v>5</v>
+        <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B35,Unitinfo!A:A,0))=1,50,5)</f>
+        <v>50</v>
       </c>
       <c r="J35" s="5">
         <v>1</v>
@@ -7876,11 +8676,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="5">
-        <v>1000</v>
+        <v>334</v>
       </c>
       <c r="N35" s="5">
-        <f t="shared" si="2"/>
-        <v>2013</v>
+        <f t="shared" si="0"/>
+        <v>1066</v>
       </c>
       <c r="O35" s="5">
         <v>0</v>
@@ -7889,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="Q35" s="19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="R35" s="5">
         <v>0</v>
       </c>
       <c r="S35" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T35" s="19" t="s">
         <v>123</v>
@@ -7910,26 +8710,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="15" thickBot="1">
+    <row r="36" spans="1:23">
       <c r="A36" s="5">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="B36" s="5">
-        <v>2014</v>
+        <v>2001</v>
       </c>
       <c r="C36" s="20" t="str">
         <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B36,Unitinfo!A:A,0))</f>
-        <v>(근거리)Goblin_Baby</v>
-      </c>
-      <c r="D36" s="21">
+        <v>(근거리)Slime</v>
+      </c>
+      <c r="D36" s="5">
         <v>1</v>
       </c>
       <c r="E36" s="9">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F36" s="5">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="G36" s="5">
         <v>10</v>
@@ -7938,13 +8738,14 @@
         <v>30</v>
       </c>
       <c r="I36" s="42">
+        <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B36,Unitinfo!A:A,0))=1,50,5)</f>
         <v>5</v>
       </c>
       <c r="J36" s="5">
         <v>1</v>
       </c>
       <c r="K36" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36" s="5">
         <v>0</v>
@@ -7953,8 +8754,8 @@
         <v>1000</v>
       </c>
       <c r="N36" s="5">
-        <f t="shared" si="2"/>
-        <v>2014</v>
+        <f t="shared" si="0"/>
+        <v>2001</v>
       </c>
       <c r="O36" s="5">
         <v>0</v>
@@ -7963,13 +8764,13 @@
         <v>0</v>
       </c>
       <c r="Q36" s="19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="R36" s="5">
         <v>0</v>
       </c>
       <c r="S36" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T36" s="19" t="s">
         <v>123</v>
@@ -7984,34 +8785,35 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="15" thickBot="1">
+    <row r="37" spans="1:23">
       <c r="A37" s="5">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="B37" s="5">
-        <v>2015</v>
+        <v>2002</v>
       </c>
       <c r="C37" s="20" t="str">
         <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B37,Unitinfo!A:A,0))</f>
-        <v>(원거리)Orc_Stone</v>
-      </c>
-      <c r="D37" s="21">
+        <v>(원거리)Slime_Archer</v>
+      </c>
+      <c r="D37" s="5">
         <v>1</v>
       </c>
       <c r="E37" s="9">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F37" s="5">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G37" s="5">
         <v>10</v>
       </c>
       <c r="H37" s="5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I37" s="42">
+        <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B37,Unitinfo!A:A,0))=1,50,5)</f>
         <v>50</v>
       </c>
       <c r="J37" s="5">
@@ -8024,11 +8826,11 @@
         <v>0</v>
       </c>
       <c r="M37" s="5">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N37" s="5">
-        <f t="shared" si="2"/>
-        <v>2015</v>
+        <f t="shared" si="0"/>
+        <v>2002</v>
       </c>
       <c r="O37" s="5">
         <v>0</v>
@@ -8037,13 +8839,13 @@
         <v>0</v>
       </c>
       <c r="Q37" s="19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="R37" s="5">
         <v>0</v>
       </c>
       <c r="S37" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T37" s="19" t="s">
         <v>123</v>
@@ -8058,26 +8860,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="15" thickBot="1">
+    <row r="38" spans="1:23">
       <c r="A38" s="5">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B38" s="5">
-        <v>2016</v>
+        <v>2003</v>
       </c>
       <c r="C38" s="20" t="str">
         <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B38,Unitinfo!A:A,0))</f>
-        <v>(근거리)Orc_Club</v>
-      </c>
-      <c r="D38" s="21">
+        <v>(근거리)Skeleton_Sword</v>
+      </c>
+      <c r="D38" s="5">
         <v>1</v>
       </c>
       <c r="E38" s="9">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F38" s="5">
-        <v>100</v>
+        <v>375</v>
       </c>
       <c r="G38" s="5">
         <v>10</v>
@@ -8086,6 +8888,7 @@
         <v>30</v>
       </c>
       <c r="I38" s="42">
+        <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B38,Unitinfo!A:A,0))=1,50,5)</f>
         <v>5</v>
       </c>
       <c r="J38" s="5">
@@ -8098,11 +8901,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="5">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="N38" s="5">
-        <f t="shared" si="2"/>
-        <v>2016</v>
+        <f t="shared" si="0"/>
+        <v>2003</v>
       </c>
       <c r="O38" s="5">
         <v>0</v>
@@ -8111,13 +8914,13 @@
         <v>0</v>
       </c>
       <c r="Q38" s="19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="R38" s="5">
         <v>0</v>
       </c>
       <c r="S38" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T38" s="19" t="s">
         <v>123</v>
@@ -8138,20 +8941,20 @@
         <v>36</v>
       </c>
       <c r="B39" s="5">
-        <v>2017</v>
+        <v>2004</v>
       </c>
       <c r="C39" s="20" t="str">
         <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B39,Unitinfo!A:A,0))</f>
-        <v>(근거리)Dragon</v>
-      </c>
-      <c r="D39" s="21">
+        <v>(원거리)Skeleton_Archer</v>
+      </c>
+      <c r="D39" s="5">
         <v>1</v>
       </c>
       <c r="E39" s="9">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F39" s="5">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G39" s="5">
         <v>10</v>
@@ -8160,23 +8963,24 @@
         <v>30</v>
       </c>
       <c r="I39" s="42">
-        <v>5</v>
+        <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B39,Unitinfo!A:A,0))=1,50,5)</f>
+        <v>50</v>
       </c>
       <c r="J39" s="5">
         <v>1</v>
       </c>
       <c r="K39" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L39" s="5">
         <v>0</v>
       </c>
       <c r="M39" s="5">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="N39" s="5">
-        <f t="shared" si="2"/>
-        <v>2017</v>
+        <f t="shared" si="0"/>
+        <v>2004</v>
       </c>
       <c r="O39" s="5">
         <v>0</v>
@@ -8185,13 +8989,13 @@
         <v>0</v>
       </c>
       <c r="Q39" s="19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="R39" s="5">
         <v>0</v>
       </c>
       <c r="S39" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T39" s="19" t="s">
         <v>123</v>
@@ -8212,35 +9016,36 @@
         <v>37</v>
       </c>
       <c r="B40" s="5">
-        <v>2018</v>
+        <v>2005</v>
       </c>
       <c r="C40" s="20" t="str">
         <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B40,Unitinfo!A:A,0))</f>
-        <v>(원거리)Dragon_Fire</v>
+        <v>(원거리)Skeleton_Witch</v>
       </c>
       <c r="D40" s="21">
         <v>1</v>
       </c>
       <c r="E40" s="9">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F40" s="5">
-        <v>100</v>
+        <v>375</v>
       </c>
       <c r="G40" s="5">
         <v>10</v>
       </c>
       <c r="H40" s="5">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I40" s="42">
+        <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B40,Unitinfo!A:A,0))=1,50,5)</f>
         <v>50</v>
       </c>
       <c r="J40" s="5">
         <v>1</v>
       </c>
       <c r="K40" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L40" s="5">
         <v>0</v>
@@ -8249,8 +9054,8 @@
         <v>1000</v>
       </c>
       <c r="N40" s="5">
-        <f t="shared" ref="N40:N48" si="3">B40</f>
-        <v>2018</v>
+        <f t="shared" si="0"/>
+        <v>2005</v>
       </c>
       <c r="O40" s="5">
         <v>0</v>
@@ -8259,13 +9064,13 @@
         <v>0</v>
       </c>
       <c r="Q40" s="19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="R40" s="5">
         <v>0</v>
       </c>
       <c r="S40" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T40" s="19" t="s">
         <v>123</v>
@@ -8280,41 +9085,42 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="16.2" thickBot="1">
+    <row r="41" spans="1:23">
       <c r="A41" s="5">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B41" s="40">
-        <v>11001</v>
+      <c r="B41" s="5">
+        <v>2006</v>
       </c>
       <c r="C41" s="20" t="str">
         <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B41,Unitinfo!A:A,0))</f>
-        <v>(원거리)Indian_Wagon</v>
-      </c>
-      <c r="D41" s="21">
+        <v>(근거리)Zombie_Hand</v>
+      </c>
+      <c r="D41" s="5">
         <v>1</v>
       </c>
       <c r="E41" s="9">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F41" s="5">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G41" s="5">
         <v>10</v>
       </c>
       <c r="H41" s="5">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I41" s="42">
-        <v>1000</v>
+        <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B41,Unitinfo!A:A,0))=1,50,5)</f>
+        <v>5</v>
       </c>
       <c r="J41" s="5">
         <v>1</v>
       </c>
       <c r="K41" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L41" s="5">
         <v>0</v>
@@ -8323,8 +9129,8 @@
         <v>1000</v>
       </c>
       <c r="N41" s="5">
-        <f t="shared" si="3"/>
-        <v>11001</v>
+        <f t="shared" si="0"/>
+        <v>2006</v>
       </c>
       <c r="O41" s="5">
         <v>0</v>
@@ -8333,13 +9139,13 @@
         <v>0</v>
       </c>
       <c r="Q41" s="19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="R41" s="5">
         <v>0</v>
       </c>
       <c r="S41" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T41" s="19" t="s">
         <v>123</v>
@@ -8354,51 +9160,52 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="16.2" thickBot="1">
+    <row r="42" spans="1:23" ht="15" thickBot="1">
       <c r="A42" s="5">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B42" s="40">
-        <v>11002</v>
+      <c r="B42" s="5">
+        <v>2007</v>
       </c>
       <c r="C42" s="20" t="str">
         <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B42,Unitinfo!A:A,0))</f>
-        <v>(원거리)Indian_Catapult</v>
-      </c>
-      <c r="D42" s="21">
+        <v>(근거리)Zombie_Shield</v>
+      </c>
+      <c r="D42" s="5">
         <v>1</v>
       </c>
       <c r="E42" s="9">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F42" s="5">
-        <v>100</v>
+        <v>1375</v>
       </c>
       <c r="G42" s="5">
         <v>10</v>
       </c>
       <c r="H42" s="5">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I42" s="42">
-        <v>1000</v>
+        <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B42,Unitinfo!A:A,0))=1,50,5)</f>
+        <v>5</v>
       </c>
       <c r="J42" s="5">
         <v>1</v>
       </c>
       <c r="K42" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L42" s="5">
         <v>0</v>
       </c>
       <c r="M42" s="5">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="N42" s="5">
-        <f t="shared" si="3"/>
-        <v>11002</v>
+        <f t="shared" si="0"/>
+        <v>2007</v>
       </c>
       <c r="O42" s="5">
         <v>0</v>
@@ -8407,13 +9214,13 @@
         <v>0</v>
       </c>
       <c r="Q42" s="19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="R42" s="5">
         <v>0</v>
       </c>
       <c r="S42" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T42" s="19" t="s">
         <v>123</v>
@@ -8428,51 +9235,52 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="16.2" thickBot="1">
+    <row r="43" spans="1:23" ht="15" thickBot="1">
       <c r="A43" s="5">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B43" s="40">
-        <v>11003</v>
+      <c r="B43" s="5">
+        <v>2008</v>
       </c>
       <c r="C43" s="20" t="str">
         <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B43,Unitinfo!A:A,0))</f>
-        <v>(원거리)Indian_Wall</v>
+        <v>(근거리)Zombie_Sword</v>
       </c>
       <c r="D43" s="21">
         <v>1</v>
       </c>
       <c r="E43" s="9">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F43" s="5">
-        <v>100</v>
+        <v>750</v>
       </c>
       <c r="G43" s="5">
         <v>10</v>
       </c>
       <c r="H43" s="5">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I43" s="42">
-        <v>1000</v>
+        <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B43,Unitinfo!A:A,0))=1,50,5)</f>
+        <v>5</v>
       </c>
       <c r="J43" s="5">
         <v>1</v>
       </c>
       <c r="K43" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L43" s="5">
         <v>0</v>
       </c>
       <c r="M43" s="5">
-        <v>1000</v>
+        <v>334</v>
       </c>
       <c r="N43" s="5">
-        <f t="shared" si="3"/>
-        <v>11003</v>
+        <f t="shared" si="0"/>
+        <v>2008</v>
       </c>
       <c r="O43" s="5">
         <v>0</v>
@@ -8481,13 +9289,13 @@
         <v>0</v>
       </c>
       <c r="Q43" s="19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="R43" s="5">
         <v>0</v>
       </c>
       <c r="S43" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T43" s="19" t="s">
         <v>123</v>
@@ -8502,51 +9310,52 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="16.2" thickBot="1">
+    <row r="44" spans="1:23" ht="15" thickBot="1">
       <c r="A44" s="5">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="B44" s="40">
-        <v>11004</v>
+      <c r="B44" s="5">
+        <v>2009</v>
       </c>
       <c r="C44" s="20" t="str">
         <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B44,Unitinfo!A:A,0))</f>
-        <v>(원거리)Indian_Watchtower</v>
+        <v>(원거리)Witch_Fire</v>
       </c>
       <c r="D44" s="21">
         <v>1</v>
       </c>
       <c r="E44" s="9">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="F44" s="5">
-        <v>100</v>
+        <v>2200</v>
       </c>
       <c r="G44" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H44" s="5">
-        <v>20</v>
+        <v>400</v>
       </c>
       <c r="I44" s="42">
-        <v>1000</v>
+        <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B44,Unitinfo!A:A,0))=1,50,5)</f>
+        <v>50</v>
       </c>
       <c r="J44" s="5">
         <v>1</v>
       </c>
       <c r="K44" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L44" s="5">
         <v>0</v>
       </c>
       <c r="M44" s="5">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="N44" s="5">
-        <f t="shared" si="3"/>
-        <v>11004</v>
+        <f t="shared" si="0"/>
+        <v>2009</v>
       </c>
       <c r="O44" s="5">
         <v>0</v>
@@ -8576,51 +9385,52 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="16.2" thickBot="1">
+    <row r="45" spans="1:23" ht="15" thickBot="1">
       <c r="A45" s="5">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="B45" s="40">
-        <v>11005</v>
+      <c r="B45" s="5">
+        <v>2010</v>
       </c>
       <c r="C45" s="20" t="str">
         <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B45,Unitinfo!A:A,0))</f>
-        <v>(원거리)Indian_Chicken_House</v>
+        <v>(원거리)Witch_Thunder</v>
       </c>
       <c r="D45" s="21">
         <v>1</v>
       </c>
       <c r="E45" s="9">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="F45" s="5">
-        <v>100</v>
+        <v>2200</v>
       </c>
       <c r="G45" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H45" s="5">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I45" s="42">
-        <v>1000</v>
+        <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B45,Unitinfo!A:A,0))=1,50,5)</f>
+        <v>50</v>
       </c>
       <c r="J45" s="5">
         <v>1</v>
       </c>
       <c r="K45" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L45" s="5">
         <v>0</v>
       </c>
       <c r="M45" s="5">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="N45" s="5">
-        <f t="shared" si="3"/>
-        <v>11005</v>
+        <f t="shared" ref="N45:N52" si="2">B45</f>
+        <v>2010</v>
       </c>
       <c r="O45" s="5">
         <v>0</v>
@@ -8650,51 +9460,52 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="16.2" thickBot="1">
+    <row r="46" spans="1:23" ht="15" thickBot="1">
       <c r="A46" s="5">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="B46" s="40">
-        <v>11006</v>
+      <c r="B46" s="5">
+        <v>2011</v>
       </c>
       <c r="C46" s="20" t="str">
         <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B46,Unitinfo!A:A,0))</f>
-        <v>(원거리)Indian_Jar_1</v>
+        <v>(원거리)Witch_Poison</v>
       </c>
       <c r="D46" s="21">
         <v>1</v>
       </c>
       <c r="E46" s="9">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="F46" s="5">
-        <v>100</v>
+        <v>2200</v>
       </c>
       <c r="G46" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H46" s="5">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I46" s="42">
-        <v>1000</v>
+        <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B46,Unitinfo!A:A,0))=1,50,5)</f>
+        <v>50</v>
       </c>
       <c r="J46" s="5">
         <v>1</v>
       </c>
       <c r="K46" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L46" s="5">
         <v>0</v>
       </c>
       <c r="M46" s="5">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="N46" s="5">
-        <f t="shared" si="3"/>
-        <v>11006</v>
+        <f t="shared" si="2"/>
+        <v>2011</v>
       </c>
       <c r="O46" s="5">
         <v>0</v>
@@ -8724,41 +9535,42 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="16.2" thickBot="1">
+    <row r="47" spans="1:23" ht="15" thickBot="1">
       <c r="A47" s="5">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="B47" s="40">
-        <v>11007</v>
+      <c r="B47" s="5">
+        <v>2012</v>
       </c>
       <c r="C47" s="20" t="str">
         <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B47,Unitinfo!A:A,0))</f>
-        <v>(원거리)Indian_Jar_2</v>
+        <v>(원거리)Goblin_Stone</v>
       </c>
       <c r="D47" s="21">
         <v>1</v>
       </c>
       <c r="E47" s="9">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F47" s="5">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="G47" s="5">
         <v>10</v>
       </c>
       <c r="H47" s="5">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I47" s="42">
-        <v>1000</v>
+        <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B47,Unitinfo!A:A,0))=1,50,5)</f>
+        <v>50</v>
       </c>
       <c r="J47" s="5">
         <v>1</v>
       </c>
       <c r="K47" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L47" s="5">
         <v>0</v>
@@ -8767,8 +9579,8 @@
         <v>1000</v>
       </c>
       <c r="N47" s="5">
-        <f t="shared" si="3"/>
-        <v>11007</v>
+        <f t="shared" si="2"/>
+        <v>2012</v>
       </c>
       <c r="O47" s="5">
         <v>0</v>
@@ -8783,7 +9595,7 @@
         <v>0</v>
       </c>
       <c r="S47" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T47" s="19" t="s">
         <v>123</v>
@@ -8798,51 +9610,52 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="16.2" thickBot="1">
+    <row r="48" spans="1:23" ht="15" thickBot="1">
       <c r="A48" s="5">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="B48" s="40">
-        <v>11008</v>
+      <c r="B48" s="5">
+        <v>2013</v>
       </c>
       <c r="C48" s="20" t="str">
         <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B48,Unitinfo!A:A,0))</f>
-        <v>(원거리)Indian_Straw</v>
+        <v>(근거리)Goblin_Club</v>
       </c>
       <c r="D48" s="21">
         <v>1</v>
       </c>
       <c r="E48" s="9">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F48" s="5">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G48" s="5">
         <v>10</v>
       </c>
       <c r="H48" s="5">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="I48" s="42">
-        <v>1000</v>
+        <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B48,Unitinfo!A:A,0))=1,50,5)</f>
+        <v>5</v>
       </c>
       <c r="J48" s="5">
         <v>1</v>
       </c>
       <c r="K48" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L48" s="5">
         <v>0</v>
       </c>
       <c r="M48" s="5">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="N48" s="5">
-        <f t="shared" si="3"/>
-        <v>11008</v>
+        <f t="shared" si="2"/>
+        <v>2013</v>
       </c>
       <c r="O48" s="5">
         <v>0</v>
@@ -8857,7 +9670,7 @@
         <v>0</v>
       </c>
       <c r="S48" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T48" s="19" t="s">
         <v>123</v>
@@ -8872,51 +9685,52 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="16.2" thickBot="1">
+    <row r="49" spans="1:23" ht="15" thickBot="1">
       <c r="A49" s="5">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="B49" s="40">
-        <v>11009</v>
+      <c r="B49" s="5">
+        <v>2014</v>
       </c>
       <c r="C49" s="20" t="str">
         <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B49,Unitinfo!A:A,0))</f>
-        <v>(원거리)Indian_Flag_Alter</v>
+        <v>(근거리)Goblin_Baby</v>
       </c>
       <c r="D49" s="21">
         <v>1</v>
       </c>
       <c r="E49" s="9">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="F49" s="5">
-        <v>100</v>
+        <v>550</v>
       </c>
       <c r="G49" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H49" s="5">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I49" s="42">
-        <v>1000</v>
+        <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B49,Unitinfo!A:A,0))=1,50,5)</f>
+        <v>5</v>
       </c>
       <c r="J49" s="5">
         <v>1</v>
       </c>
       <c r="K49" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L49" s="5">
         <v>0</v>
       </c>
       <c r="M49" s="5">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="N49" s="5">
-        <f t="shared" ref="N49:N51" si="4">B49</f>
-        <v>11009</v>
+        <f t="shared" si="2"/>
+        <v>2014</v>
       </c>
       <c r="O49" s="5">
         <v>0</v>
@@ -8931,7 +9745,7 @@
         <v>0</v>
       </c>
       <c r="S49" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T49" s="19" t="s">
         <v>123</v>
@@ -8946,51 +9760,52 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="16.2" thickBot="1">
+    <row r="50" spans="1:23" ht="15" thickBot="1">
       <c r="A50" s="5">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="B50" s="40">
-        <v>11010</v>
+      <c r="B50" s="5">
+        <v>2015</v>
       </c>
       <c r="C50" s="20" t="str">
         <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B50,Unitinfo!A:A,0))</f>
-        <v>(원거리)Indian_House</v>
+        <v>(원거리)Orc_Stone</v>
       </c>
       <c r="D50" s="21">
         <v>1</v>
       </c>
       <c r="E50" s="9">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="F50" s="5">
-        <v>100</v>
+        <v>5100</v>
       </c>
       <c r="G50" s="5">
         <v>10</v>
       </c>
       <c r="H50" s="5">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I50" s="42">
-        <v>1000</v>
+        <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B50,Unitinfo!A:A,0))=1,50,5)</f>
+        <v>50</v>
       </c>
       <c r="J50" s="5">
         <v>1</v>
       </c>
       <c r="K50" s="5">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L50" s="5">
         <v>0</v>
       </c>
       <c r="M50" s="5">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="N50" s="5">
-        <f t="shared" si="4"/>
-        <v>11010</v>
+        <f t="shared" si="2"/>
+        <v>2015</v>
       </c>
       <c r="O50" s="5">
         <v>0</v>
@@ -9020,77 +9835,1053 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="16.2" thickBot="1">
+    <row r="51" spans="1:23" ht="15" thickBot="1">
       <c r="A51" s="5">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="B51" s="40">
-        <v>11011</v>
+      <c r="B51" s="5">
+        <v>2016</v>
       </c>
       <c r="C51" s="20" t="str">
         <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B51,Unitinfo!A:A,0))</f>
+        <v>(근거리)Orc_Club</v>
+      </c>
+      <c r="D51" s="21">
+        <v>1</v>
+      </c>
+      <c r="E51" s="9">
+        <v>113</v>
+      </c>
+      <c r="F51" s="5">
+        <v>5125</v>
+      </c>
+      <c r="G51" s="5">
+        <v>10</v>
+      </c>
+      <c r="H51" s="5">
+        <v>600</v>
+      </c>
+      <c r="I51" s="42">
+        <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B51,Unitinfo!A:A,0))=1,50,5)</f>
+        <v>5</v>
+      </c>
+      <c r="J51" s="5">
+        <v>1</v>
+      </c>
+      <c r="K51" s="5">
+        <v>7</v>
+      </c>
+      <c r="L51" s="5">
+        <v>0</v>
+      </c>
+      <c r="M51" s="5">
+        <v>2000</v>
+      </c>
+      <c r="N51" s="5">
+        <f t="shared" si="2"/>
+        <v>2016</v>
+      </c>
+      <c r="O51" s="5">
+        <v>0</v>
+      </c>
+      <c r="P51" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="R51" s="5">
+        <v>0</v>
+      </c>
+      <c r="S51" s="5">
+        <v>1</v>
+      </c>
+      <c r="T51" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="U51" s="5">
+        <v>2</v>
+      </c>
+      <c r="V51" s="5">
+        <v>10</v>
+      </c>
+      <c r="W51" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" ht="15" thickBot="1">
+      <c r="A52" s="5">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="B52" s="5">
+        <v>2017</v>
+      </c>
+      <c r="C52" s="20" t="str">
+        <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B52,Unitinfo!A:A,0))</f>
+        <v>(근거리)Dragon</v>
+      </c>
+      <c r="D52" s="21">
+        <v>1</v>
+      </c>
+      <c r="E52" s="9">
+        <v>150</v>
+      </c>
+      <c r="F52" s="5">
+        <v>7500</v>
+      </c>
+      <c r="G52" s="5">
+        <v>10</v>
+      </c>
+      <c r="H52" s="5">
+        <v>555</v>
+      </c>
+      <c r="I52" s="42">
+        <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B52,Unitinfo!A:A,0))=1,50,5)</f>
+        <v>5</v>
+      </c>
+      <c r="J52" s="5">
+        <v>1</v>
+      </c>
+      <c r="K52" s="5">
+        <v>21</v>
+      </c>
+      <c r="L52" s="5">
+        <v>0</v>
+      </c>
+      <c r="M52" s="5">
+        <v>2000</v>
+      </c>
+      <c r="N52" s="5">
+        <f t="shared" si="2"/>
+        <v>2017</v>
+      </c>
+      <c r="O52" s="5">
+        <v>0</v>
+      </c>
+      <c r="P52" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="R52" s="5">
+        <v>0</v>
+      </c>
+      <c r="S52" s="5">
+        <v>1</v>
+      </c>
+      <c r="T52" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="U52" s="5">
+        <v>2</v>
+      </c>
+      <c r="V52" s="5">
+        <v>10</v>
+      </c>
+      <c r="W52" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" ht="15" thickBot="1">
+      <c r="A53" s="5">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="B53" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C53" s="20" t="str">
+        <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B53,Unitinfo!A:A,0))</f>
+        <v>(원거리)Dragon_Fire</v>
+      </c>
+      <c r="D53" s="21">
+        <v>1</v>
+      </c>
+      <c r="E53" s="9">
+        <v>150</v>
+      </c>
+      <c r="F53" s="5">
+        <v>6000</v>
+      </c>
+      <c r="G53" s="5">
+        <v>20</v>
+      </c>
+      <c r="H53" s="5">
+        <v>750</v>
+      </c>
+      <c r="I53" s="42">
+        <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B53,Unitinfo!A:A,0))=1,50,5)</f>
+        <v>50</v>
+      </c>
+      <c r="J53" s="5">
+        <v>1</v>
+      </c>
+      <c r="K53" s="5">
+        <v>11</v>
+      </c>
+      <c r="L53" s="5">
+        <v>0</v>
+      </c>
+      <c r="M53" s="5">
+        <v>250</v>
+      </c>
+      <c r="N53" s="5">
+        <f t="shared" ref="N53:N61" si="3">B53</f>
+        <v>2018</v>
+      </c>
+      <c r="O53" s="5">
+        <v>0</v>
+      </c>
+      <c r="P53" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="R53" s="5">
+        <v>0</v>
+      </c>
+      <c r="S53" s="5">
+        <v>1</v>
+      </c>
+      <c r="T53" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="U53" s="5">
+        <v>2</v>
+      </c>
+      <c r="V53" s="5">
+        <v>10</v>
+      </c>
+      <c r="W53" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" ht="16.2" thickBot="1">
+      <c r="A54" s="5">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="B54" s="40">
+        <v>11001</v>
+      </c>
+      <c r="C54" s="20" t="str">
+        <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B54,Unitinfo!A:A,0))</f>
+        <v>(원거리)Indian_Wagon</v>
+      </c>
+      <c r="D54" s="21">
+        <v>1</v>
+      </c>
+      <c r="E54" s="9">
+        <v>10</v>
+      </c>
+      <c r="F54" s="5">
+        <v>100</v>
+      </c>
+      <c r="G54" s="5">
+        <v>10</v>
+      </c>
+      <c r="H54" s="5">
+        <v>0</v>
+      </c>
+      <c r="I54" s="42">
+        <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B54,Unitinfo!A:A,0))=1,50,5)</f>
+        <v>50</v>
+      </c>
+      <c r="J54" s="5">
+        <v>1</v>
+      </c>
+      <c r="K54" s="5">
+        <v>10</v>
+      </c>
+      <c r="L54" s="5">
+        <v>0</v>
+      </c>
+      <c r="M54" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N54" s="5">
+        <f t="shared" si="3"/>
+        <v>11001</v>
+      </c>
+      <c r="O54" s="5">
+        <v>0</v>
+      </c>
+      <c r="P54" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="R54" s="5">
+        <v>0</v>
+      </c>
+      <c r="S54" s="5">
+        <v>1</v>
+      </c>
+      <c r="T54" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="U54" s="5">
+        <v>2</v>
+      </c>
+      <c r="V54" s="5">
+        <v>10</v>
+      </c>
+      <c r="W54" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" ht="16.2" thickBot="1">
+      <c r="A55" s="5">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="B55" s="40">
+        <v>11002</v>
+      </c>
+      <c r="C55" s="20" t="str">
+        <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B55,Unitinfo!A:A,0))</f>
+        <v>(원거리)Indian_Catapult</v>
+      </c>
+      <c r="D55" s="21">
+        <v>1</v>
+      </c>
+      <c r="E55" s="9">
+        <v>10</v>
+      </c>
+      <c r="F55" s="5">
+        <v>100</v>
+      </c>
+      <c r="G55" s="5">
+        <v>10</v>
+      </c>
+      <c r="H55" s="5">
+        <v>0</v>
+      </c>
+      <c r="I55" s="42">
+        <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B55,Unitinfo!A:A,0))=1,50,5)</f>
+        <v>50</v>
+      </c>
+      <c r="J55" s="5">
+        <v>1</v>
+      </c>
+      <c r="K55" s="5">
+        <v>10</v>
+      </c>
+      <c r="L55" s="5">
+        <v>0</v>
+      </c>
+      <c r="M55" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N55" s="5">
+        <f t="shared" si="3"/>
+        <v>11002</v>
+      </c>
+      <c r="O55" s="5">
+        <v>0</v>
+      </c>
+      <c r="P55" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="R55" s="5">
+        <v>0</v>
+      </c>
+      <c r="S55" s="5">
+        <v>1</v>
+      </c>
+      <c r="T55" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="U55" s="5">
+        <v>2</v>
+      </c>
+      <c r="V55" s="5">
+        <v>10</v>
+      </c>
+      <c r="W55" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" ht="16.2" thickBot="1">
+      <c r="A56" s="5">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="B56" s="40">
+        <v>11003</v>
+      </c>
+      <c r="C56" s="20" t="str">
+        <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B56,Unitinfo!A:A,0))</f>
+        <v>(원거리)Indian_Wall</v>
+      </c>
+      <c r="D56" s="21">
+        <v>1</v>
+      </c>
+      <c r="E56" s="9">
+        <v>10</v>
+      </c>
+      <c r="F56" s="5">
+        <v>100</v>
+      </c>
+      <c r="G56" s="5">
+        <v>10</v>
+      </c>
+      <c r="H56" s="5">
+        <v>0</v>
+      </c>
+      <c r="I56" s="42">
+        <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B56,Unitinfo!A:A,0))=1,50,5)</f>
+        <v>50</v>
+      </c>
+      <c r="J56" s="5">
+        <v>1</v>
+      </c>
+      <c r="K56" s="5">
+        <v>10</v>
+      </c>
+      <c r="L56" s="5">
+        <v>0</v>
+      </c>
+      <c r="M56" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N56" s="5">
+        <f t="shared" si="3"/>
+        <v>11003</v>
+      </c>
+      <c r="O56" s="5">
+        <v>0</v>
+      </c>
+      <c r="P56" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="R56" s="5">
+        <v>0</v>
+      </c>
+      <c r="S56" s="5">
+        <v>1</v>
+      </c>
+      <c r="T56" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="U56" s="5">
+        <v>2</v>
+      </c>
+      <c r="V56" s="5">
+        <v>10</v>
+      </c>
+      <c r="W56" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" ht="16.2" thickBot="1">
+      <c r="A57" s="5">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="B57" s="40">
+        <v>11004</v>
+      </c>
+      <c r="C57" s="20" t="str">
+        <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B57,Unitinfo!A:A,0))</f>
+        <v>(원거리)Indian_Watchtower</v>
+      </c>
+      <c r="D57" s="21">
+        <v>1</v>
+      </c>
+      <c r="E57" s="9">
+        <v>10</v>
+      </c>
+      <c r="F57" s="5">
+        <v>100</v>
+      </c>
+      <c r="G57" s="5">
+        <v>10</v>
+      </c>
+      <c r="H57" s="5">
+        <v>20</v>
+      </c>
+      <c r="I57" s="42">
+        <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B57,Unitinfo!A:A,0))=1,50,5)</f>
+        <v>50</v>
+      </c>
+      <c r="J57" s="5">
+        <v>1</v>
+      </c>
+      <c r="K57" s="5">
+        <v>10</v>
+      </c>
+      <c r="L57" s="5">
+        <v>0</v>
+      </c>
+      <c r="M57" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N57" s="5">
+        <f t="shared" si="3"/>
+        <v>11004</v>
+      </c>
+      <c r="O57" s="5">
+        <v>0</v>
+      </c>
+      <c r="P57" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="R57" s="5">
+        <v>0</v>
+      </c>
+      <c r="S57" s="5">
+        <v>1</v>
+      </c>
+      <c r="T57" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="U57" s="5">
+        <v>2</v>
+      </c>
+      <c r="V57" s="5">
+        <v>10</v>
+      </c>
+      <c r="W57" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" ht="16.2" thickBot="1">
+      <c r="A58" s="5">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="B58" s="40">
+        <v>11005</v>
+      </c>
+      <c r="C58" s="20" t="str">
+        <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B58,Unitinfo!A:A,0))</f>
+        <v>(원거리)Indian_Chicken_House</v>
+      </c>
+      <c r="D58" s="21">
+        <v>1</v>
+      </c>
+      <c r="E58" s="9">
+        <v>10</v>
+      </c>
+      <c r="F58" s="5">
+        <v>100</v>
+      </c>
+      <c r="G58" s="5">
+        <v>10</v>
+      </c>
+      <c r="H58" s="5">
+        <v>0</v>
+      </c>
+      <c r="I58" s="42">
+        <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B58,Unitinfo!A:A,0))=1,50,5)</f>
+        <v>50</v>
+      </c>
+      <c r="J58" s="5">
+        <v>1</v>
+      </c>
+      <c r="K58" s="5">
+        <v>10</v>
+      </c>
+      <c r="L58" s="5">
+        <v>0</v>
+      </c>
+      <c r="M58" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N58" s="5">
+        <f t="shared" si="3"/>
+        <v>11005</v>
+      </c>
+      <c r="O58" s="5">
+        <v>0</v>
+      </c>
+      <c r="P58" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="R58" s="5">
+        <v>0</v>
+      </c>
+      <c r="S58" s="5">
+        <v>1</v>
+      </c>
+      <c r="T58" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="U58" s="5">
+        <v>2</v>
+      </c>
+      <c r="V58" s="5">
+        <v>10</v>
+      </c>
+      <c r="W58" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" ht="16.2" thickBot="1">
+      <c r="A59" s="5">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="B59" s="40">
+        <v>11006</v>
+      </c>
+      <c r="C59" s="20" t="str">
+        <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B59,Unitinfo!A:A,0))</f>
+        <v>(원거리)Indian_Jar_1</v>
+      </c>
+      <c r="D59" s="21">
+        <v>1</v>
+      </c>
+      <c r="E59" s="9">
+        <v>10</v>
+      </c>
+      <c r="F59" s="5">
+        <v>100</v>
+      </c>
+      <c r="G59" s="5">
+        <v>10</v>
+      </c>
+      <c r="H59" s="5">
+        <v>0</v>
+      </c>
+      <c r="I59" s="42">
+        <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B59,Unitinfo!A:A,0))=1,50,5)</f>
+        <v>50</v>
+      </c>
+      <c r="J59" s="5">
+        <v>1</v>
+      </c>
+      <c r="K59" s="5">
+        <v>10</v>
+      </c>
+      <c r="L59" s="5">
+        <v>0</v>
+      </c>
+      <c r="M59" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N59" s="5">
+        <f t="shared" si="3"/>
+        <v>11006</v>
+      </c>
+      <c r="O59" s="5">
+        <v>0</v>
+      </c>
+      <c r="P59" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="R59" s="5">
+        <v>0</v>
+      </c>
+      <c r="S59" s="5">
+        <v>1</v>
+      </c>
+      <c r="T59" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="U59" s="5">
+        <v>2</v>
+      </c>
+      <c r="V59" s="5">
+        <v>10</v>
+      </c>
+      <c r="W59" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" ht="16.2" thickBot="1">
+      <c r="A60" s="5">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="B60" s="40">
+        <v>11007</v>
+      </c>
+      <c r="C60" s="20" t="str">
+        <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B60,Unitinfo!A:A,0))</f>
+        <v>(원거리)Indian_Jar_2</v>
+      </c>
+      <c r="D60" s="21">
+        <v>1</v>
+      </c>
+      <c r="E60" s="9">
+        <v>10</v>
+      </c>
+      <c r="F60" s="5">
+        <v>100</v>
+      </c>
+      <c r="G60" s="5">
+        <v>10</v>
+      </c>
+      <c r="H60" s="5">
+        <v>0</v>
+      </c>
+      <c r="I60" s="42">
+        <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B60,Unitinfo!A:A,0))=1,50,5)</f>
+        <v>50</v>
+      </c>
+      <c r="J60" s="5">
+        <v>1</v>
+      </c>
+      <c r="K60" s="5">
+        <v>10</v>
+      </c>
+      <c r="L60" s="5">
+        <v>0</v>
+      </c>
+      <c r="M60" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N60" s="5">
+        <f t="shared" si="3"/>
+        <v>11007</v>
+      </c>
+      <c r="O60" s="5">
+        <v>0</v>
+      </c>
+      <c r="P60" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="R60" s="5">
+        <v>0</v>
+      </c>
+      <c r="S60" s="5">
+        <v>1</v>
+      </c>
+      <c r="T60" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="U60" s="5">
+        <v>2</v>
+      </c>
+      <c r="V60" s="5">
+        <v>10</v>
+      </c>
+      <c r="W60" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" ht="16.2" thickBot="1">
+      <c r="A61" s="5">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="B61" s="40">
+        <v>11008</v>
+      </c>
+      <c r="C61" s="20" t="str">
+        <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B61,Unitinfo!A:A,0))</f>
+        <v>(원거리)Indian_Straw</v>
+      </c>
+      <c r="D61" s="21">
+        <v>1</v>
+      </c>
+      <c r="E61" s="9">
+        <v>10</v>
+      </c>
+      <c r="F61" s="5">
+        <v>100</v>
+      </c>
+      <c r="G61" s="5">
+        <v>10</v>
+      </c>
+      <c r="H61" s="5">
+        <v>0</v>
+      </c>
+      <c r="I61" s="42">
+        <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B61,Unitinfo!A:A,0))=1,50,5)</f>
+        <v>50</v>
+      </c>
+      <c r="J61" s="5">
+        <v>1</v>
+      </c>
+      <c r="K61" s="5">
+        <v>10</v>
+      </c>
+      <c r="L61" s="5">
+        <v>0</v>
+      </c>
+      <c r="M61" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N61" s="5">
+        <f t="shared" si="3"/>
+        <v>11008</v>
+      </c>
+      <c r="O61" s="5">
+        <v>0</v>
+      </c>
+      <c r="P61" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="R61" s="5">
+        <v>0</v>
+      </c>
+      <c r="S61" s="5">
+        <v>1</v>
+      </c>
+      <c r="T61" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="U61" s="5">
+        <v>2</v>
+      </c>
+      <c r="V61" s="5">
+        <v>10</v>
+      </c>
+      <c r="W61" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" ht="16.2" thickBot="1">
+      <c r="A62" s="5">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="B62" s="40">
+        <v>11009</v>
+      </c>
+      <c r="C62" s="20" t="str">
+        <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B62,Unitinfo!A:A,0))</f>
+        <v>(원거리)Indian_Flag_Alter</v>
+      </c>
+      <c r="D62" s="21">
+        <v>1</v>
+      </c>
+      <c r="E62" s="9">
+        <v>10</v>
+      </c>
+      <c r="F62" s="5">
+        <v>100</v>
+      </c>
+      <c r="G62" s="5">
+        <v>10</v>
+      </c>
+      <c r="H62" s="5">
+        <v>0</v>
+      </c>
+      <c r="I62" s="42">
+        <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B62,Unitinfo!A:A,0))=1,50,5)</f>
+        <v>50</v>
+      </c>
+      <c r="J62" s="5">
+        <v>1</v>
+      </c>
+      <c r="K62" s="5">
+        <v>10</v>
+      </c>
+      <c r="L62" s="5">
+        <v>0</v>
+      </c>
+      <c r="M62" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N62" s="5">
+        <f t="shared" ref="N62:N64" si="4">B62</f>
+        <v>11009</v>
+      </c>
+      <c r="O62" s="5">
+        <v>0</v>
+      </c>
+      <c r="P62" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="R62" s="5">
+        <v>0</v>
+      </c>
+      <c r="S62" s="5">
+        <v>1</v>
+      </c>
+      <c r="T62" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="U62" s="5">
+        <v>2</v>
+      </c>
+      <c r="V62" s="5">
+        <v>10</v>
+      </c>
+      <c r="W62" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" ht="16.2" thickBot="1">
+      <c r="A63" s="5">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="B63" s="40">
+        <v>11010</v>
+      </c>
+      <c r="C63" s="20" t="str">
+        <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B63,Unitinfo!A:A,0))</f>
+        <v>(원거리)Indian_House</v>
+      </c>
+      <c r="D63" s="21">
+        <v>1</v>
+      </c>
+      <c r="E63" s="9">
+        <v>10</v>
+      </c>
+      <c r="F63" s="5">
+        <v>100</v>
+      </c>
+      <c r="G63" s="5">
+        <v>10</v>
+      </c>
+      <c r="H63" s="5">
+        <v>0</v>
+      </c>
+      <c r="I63" s="42">
+        <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B63,Unitinfo!A:A,0))=1,50,5)</f>
+        <v>50</v>
+      </c>
+      <c r="J63" s="5">
+        <v>1</v>
+      </c>
+      <c r="K63" s="5">
+        <v>10</v>
+      </c>
+      <c r="L63" s="5">
+        <v>0</v>
+      </c>
+      <c r="M63" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N63" s="5">
+        <f t="shared" si="4"/>
+        <v>11010</v>
+      </c>
+      <c r="O63" s="5">
+        <v>0</v>
+      </c>
+      <c r="P63" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="R63" s="5">
+        <v>0</v>
+      </c>
+      <c r="S63" s="5">
+        <v>1</v>
+      </c>
+      <c r="T63" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="U63" s="5">
+        <v>2</v>
+      </c>
+      <c r="V63" s="5">
+        <v>10</v>
+      </c>
+      <c r="W63" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" ht="16.2" thickBot="1">
+      <c r="A64" s="5">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="B64" s="40">
+        <v>11011</v>
+      </c>
+      <c r="C64" s="20" t="str">
+        <f>INDEX(Unitinfo!C:C,MATCH(UnitGradeInfo!B64,Unitinfo!A:A,0))</f>
         <v>(원거리)Indian_Fire</v>
       </c>
-      <c r="D51" s="21">
-        <v>1</v>
-      </c>
-      <c r="E51" s="9">
-        <v>10</v>
-      </c>
-      <c r="F51" s="5">
+      <c r="D64" s="21">
+        <v>1</v>
+      </c>
+      <c r="E64" s="9">
+        <v>10</v>
+      </c>
+      <c r="F64" s="5">
         <v>100</v>
       </c>
-      <c r="G51" s="5">
-        <v>10</v>
-      </c>
-      <c r="H51" s="5">
-        <v>0</v>
-      </c>
-      <c r="I51" s="42">
+      <c r="G64" s="5">
+        <v>10</v>
+      </c>
+      <c r="H64" s="5">
+        <v>0</v>
+      </c>
+      <c r="I64" s="42">
+        <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B64,Unitinfo!A:A,0))=1,50,5)</f>
+        <v>50</v>
+      </c>
+      <c r="J64" s="5">
+        <v>1</v>
+      </c>
+      <c r="K64" s="5">
+        <v>10</v>
+      </c>
+      <c r="L64" s="5">
+        <v>0</v>
+      </c>
+      <c r="M64" s="5">
         <v>1000</v>
       </c>
-      <c r="J51" s="5">
-        <v>1</v>
-      </c>
-      <c r="K51" s="5">
-        <v>10</v>
-      </c>
-      <c r="L51" s="5">
-        <v>0</v>
-      </c>
-      <c r="M51" s="5">
-        <v>1000</v>
-      </c>
-      <c r="N51" s="5">
+      <c r="N64" s="5">
         <f t="shared" si="4"/>
         <v>11011</v>
       </c>
-      <c r="O51" s="5">
-        <v>0</v>
-      </c>
-      <c r="P51" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="19" t="s">
+      <c r="O64" s="5">
+        <v>0</v>
+      </c>
+      <c r="P64" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="R51" s="5">
-        <v>0</v>
-      </c>
-      <c r="S51" s="5">
-        <v>1</v>
-      </c>
-      <c r="T51" s="19" t="s">
+      <c r="R64" s="5">
+        <v>0</v>
+      </c>
+      <c r="S64" s="5">
+        <v>1</v>
+      </c>
+      <c r="T64" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="U51" s="5">
-        <v>2</v>
-      </c>
-      <c r="V51" s="5">
-        <v>10</v>
-      </c>
-      <c r="W51" s="5">
+      <c r="U64" s="5">
+        <v>2</v>
+      </c>
+      <c r="V64" s="5">
+        <v>10</v>
+      </c>
+      <c r="W64" s="5">
         <v>2</v>
       </c>
     </row>
@@ -9103,7 +10894,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{82858EB1-9C6F-44EC-850D-3E099D960ECC}">
+          <x14:cfRule type="iconSet" priority="3" id="{82858EB1-9C6F-44EC-850D-3E099D960ECC}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9119,26 +10910,7 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="1"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I4:I40</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{37C117B6-05B2-42D6-83F7-394FB76FAE50}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="percent">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="percent">
-                <xm:f>30</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
-              <x14:cfIcon iconSet="4ArrowsGray" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="1"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I41:I51</xm:sqref>
+          <xm:sqref>I4:I64</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -6072,8 +6072,9 @@
   </sheetPr>
   <dimension ref="A1:W64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q24" sqref="A24:Q26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8729,13 +8730,13 @@
         <v>13</v>
       </c>
       <c r="F36" s="5">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="G36" s="5">
         <v>10</v>
       </c>
       <c r="H36" s="5">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I36" s="42">
         <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B36,Unitinfo!A:A,0))=1,50,5)</f>
@@ -8745,13 +8746,13 @@
         <v>1</v>
       </c>
       <c r="K36" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L36" s="5">
         <v>0</v>
       </c>
       <c r="M36" s="5">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N36" s="5">
         <f t="shared" si="0"/>
@@ -8804,13 +8805,13 @@
         <v>13</v>
       </c>
       <c r="F37" s="5">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="G37" s="5">
         <v>10</v>
       </c>
       <c r="H37" s="5">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I37" s="42">
         <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B37,Unitinfo!A:A,0))=1,50,5)</f>
@@ -8826,7 +8827,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="5">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="N37" s="5">
         <f t="shared" si="0"/>
@@ -8879,13 +8880,13 @@
         <v>13</v>
       </c>
       <c r="F38" s="5">
-        <v>375</v>
+        <v>1000</v>
       </c>
       <c r="G38" s="5">
         <v>10</v>
       </c>
       <c r="H38" s="5">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I38" s="42">
         <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B38,Unitinfo!A:A,0))=1,50,5)</f>
@@ -8901,7 +8902,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="5">
-        <v>667</v>
+        <v>334</v>
       </c>
       <c r="N38" s="5">
         <f t="shared" si="0"/>
@@ -8954,13 +8955,13 @@
         <v>13</v>
       </c>
       <c r="F39" s="5">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="G39" s="5">
         <v>10</v>
       </c>
       <c r="H39" s="5">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I39" s="42">
         <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B39,Unitinfo!A:A,0))=1,50,5)</f>
@@ -8976,7 +8977,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="5">
-        <v>667</v>
+        <v>334</v>
       </c>
       <c r="N39" s="5">
         <f t="shared" si="0"/>
@@ -9029,13 +9030,13 @@
         <v>13</v>
       </c>
       <c r="F40" s="5">
-        <v>375</v>
+        <v>1000</v>
       </c>
       <c r="G40" s="5">
         <v>10</v>
       </c>
       <c r="H40" s="5">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="I40" s="42">
         <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B40,Unitinfo!A:A,0))=1,50,5)</f>
@@ -9051,7 +9052,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="5">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N40" s="5">
         <f t="shared" si="0"/>
@@ -9104,13 +9105,13 @@
         <v>25</v>
       </c>
       <c r="F41" s="5">
-        <v>1000</v>
+        <v>2250</v>
       </c>
       <c r="G41" s="5">
         <v>10</v>
       </c>
       <c r="H41" s="5">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="I41" s="42">
         <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B41,Unitinfo!A:A,0))=1,50,5)</f>
@@ -9126,7 +9127,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="5">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N41" s="5">
         <f t="shared" si="0"/>
@@ -9179,13 +9180,13 @@
         <v>25</v>
       </c>
       <c r="F42" s="5">
-        <v>1375</v>
+        <v>3000</v>
       </c>
       <c r="G42" s="5">
         <v>10</v>
       </c>
       <c r="H42" s="5">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="I42" s="42">
         <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B42,Unitinfo!A:A,0))=1,50,5)</f>
@@ -9195,13 +9196,13 @@
         <v>1</v>
       </c>
       <c r="K42" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L42" s="5">
         <v>0</v>
       </c>
       <c r="M42" s="5">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="N42" s="5">
         <f t="shared" si="0"/>
@@ -9254,13 +9255,13 @@
         <v>25</v>
       </c>
       <c r="F43" s="5">
-        <v>750</v>
+        <v>1750</v>
       </c>
       <c r="G43" s="5">
         <v>10</v>
       </c>
       <c r="H43" s="5">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="I43" s="42">
         <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B43,Unitinfo!A:A,0))=1,50,5)</f>
@@ -9276,7 +9277,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="5">
-        <v>334</v>
+        <v>167</v>
       </c>
       <c r="N43" s="5">
         <f t="shared" si="0"/>
@@ -9329,13 +9330,13 @@
         <v>113</v>
       </c>
       <c r="F44" s="5">
-        <v>2200</v>
+        <v>4700</v>
       </c>
       <c r="G44" s="5">
         <v>15</v>
       </c>
       <c r="H44" s="5">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="I44" s="42">
         <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B44,Unitinfo!A:A,0))=1,50,5)</f>
@@ -9351,7 +9352,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="5">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="N44" s="5">
         <f t="shared" si="0"/>
@@ -9404,13 +9405,13 @@
         <v>113</v>
       </c>
       <c r="F45" s="5">
-        <v>2200</v>
+        <v>4700</v>
       </c>
       <c r="G45" s="5">
         <v>15</v>
       </c>
       <c r="H45" s="5">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="I45" s="42">
         <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B45,Unitinfo!A:A,0))=1,50,5)</f>
@@ -9426,7 +9427,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="5">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="N45" s="5">
         <f t="shared" ref="N45:N52" si="2">B45</f>
@@ -9479,13 +9480,13 @@
         <v>113</v>
       </c>
       <c r="F46" s="5">
-        <v>2200</v>
+        <v>4700</v>
       </c>
       <c r="G46" s="5">
         <v>15</v>
       </c>
       <c r="H46" s="5">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="I46" s="42">
         <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B46,Unitinfo!A:A,0))=1,50,5)</f>
@@ -9501,7 +9502,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="5">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="N46" s="5">
         <f t="shared" si="2"/>
@@ -9554,13 +9555,13 @@
         <v>25</v>
       </c>
       <c r="F47" s="5">
-        <v>800</v>
+        <v>1800</v>
       </c>
       <c r="G47" s="5">
         <v>10</v>
       </c>
       <c r="H47" s="5">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="I47" s="42">
         <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B47,Unitinfo!A:A,0))=1,50,5)</f>
@@ -9576,7 +9577,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="5">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N47" s="5">
         <f t="shared" si="2"/>
@@ -9629,13 +9630,13 @@
         <v>25</v>
       </c>
       <c r="F48" s="5">
-        <v>1000</v>
+        <v>2250</v>
       </c>
       <c r="G48" s="5">
         <v>10</v>
       </c>
       <c r="H48" s="5">
-        <v>105</v>
+        <v>210</v>
       </c>
       <c r="I48" s="42">
         <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B48,Unitinfo!A:A,0))=1,50,5)</f>
@@ -9651,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="M48" s="5">
-        <v>667</v>
+        <v>334</v>
       </c>
       <c r="N48" s="5">
         <f t="shared" si="2"/>
@@ -9704,13 +9705,13 @@
         <v>28</v>
       </c>
       <c r="F49" s="5">
-        <v>550</v>
+        <v>1625</v>
       </c>
       <c r="G49" s="5">
         <v>20</v>
       </c>
       <c r="H49" s="5">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="I49" s="42">
         <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B49,Unitinfo!A:A,0))=1,50,5)</f>
@@ -9726,7 +9727,7 @@
         <v>0</v>
       </c>
       <c r="M49" s="5">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="N49" s="5">
         <f t="shared" si="2"/>
@@ -9779,13 +9780,13 @@
         <v>113</v>
       </c>
       <c r="F50" s="5">
-        <v>5100</v>
+        <v>10400</v>
       </c>
       <c r="G50" s="5">
         <v>10</v>
       </c>
       <c r="H50" s="5">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="I50" s="42">
         <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B50,Unitinfo!A:A,0))=1,50,5)</f>
@@ -9795,13 +9796,13 @@
         <v>1</v>
       </c>
       <c r="K50" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L50" s="5">
         <v>0</v>
       </c>
       <c r="M50" s="5">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="N50" s="5">
         <f t="shared" si="2"/>
@@ -9854,13 +9855,13 @@
         <v>113</v>
       </c>
       <c r="F51" s="5">
-        <v>5125</v>
+        <v>10500</v>
       </c>
       <c r="G51" s="5">
         <v>10</v>
       </c>
       <c r="H51" s="5">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="I51" s="42">
         <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B51,Unitinfo!A:A,0))=1,50,5)</f>
@@ -9870,13 +9871,13 @@
         <v>1</v>
       </c>
       <c r="K51" s="5">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="L51" s="5">
         <v>0</v>
       </c>
       <c r="M51" s="5">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="N51" s="5">
         <f t="shared" si="2"/>
@@ -9929,13 +9930,13 @@
         <v>150</v>
       </c>
       <c r="F52" s="5">
-        <v>7500</v>
+        <v>15250</v>
       </c>
       <c r="G52" s="5">
         <v>10</v>
       </c>
       <c r="H52" s="5">
-        <v>555</v>
+        <v>1110</v>
       </c>
       <c r="I52" s="42">
         <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B52,Unitinfo!A:A,0))=1,50,5)</f>
@@ -9945,13 +9946,13 @@
         <v>1</v>
       </c>
       <c r="K52" s="5">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="L52" s="5">
         <v>0</v>
       </c>
       <c r="M52" s="5">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="N52" s="5">
         <f t="shared" si="2"/>
@@ -10004,13 +10005,13 @@
         <v>150</v>
       </c>
       <c r="F53" s="5">
-        <v>6000</v>
+        <v>12500</v>
       </c>
       <c r="G53" s="5">
         <v>20</v>
       </c>
       <c r="H53" s="5">
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="I53" s="42">
         <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B53,Unitinfo!A:A,0))=1,50,5)</f>
@@ -10020,13 +10021,13 @@
         <v>1</v>
       </c>
       <c r="K53" s="5">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="L53" s="5">
         <v>0</v>
       </c>
       <c r="M53" s="5">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="N53" s="5">
         <f t="shared" ref="N53:N61" si="3">B53</f>

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigTable" sheetId="18" r:id="rId1"/>
@@ -6072,9 +6072,9 @@
   </sheetPr>
   <dimension ref="A1:W64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J42" sqref="J42"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10161,7 +10161,7 @@
         <v>10</v>
       </c>
       <c r="H55" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I55" s="42">
         <f>IF(INDEX(Unitinfo!D:D,MATCH(UnitGradeInfo!B55,Unitinfo!A:A,0))=1,50,5)</f>
@@ -10246,7 +10246,7 @@
         <v>1</v>
       </c>
       <c r="K56" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L56" s="5">
         <v>0</v>
@@ -10924,10 +10924,10 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11138,23 +11138,35 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="5">
-        <v>11004</v>
+        <v>11002</v>
       </c>
       <c r="B18" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C18" t="str">
         <f>"Projectile/"&amp;A18&amp;"_"&amp;INDEX(Unitinfo!B:B,MATCH(A18,Unitinfo!A:A,0))&amp;"_Bullet.prefab"</f>
+        <v>Projectile/11002_Indian_Catapult_Bullet.prefab</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="5">
+        <v>11004</v>
+      </c>
+      <c r="B19" s="5">
+        <v>5</v>
+      </c>
+      <c r="C19" t="str">
+        <f>"Projectile/"&amp;A19&amp;"_"&amp;INDEX(Unitinfo!B:B,MATCH(A19,Unitinfo!A:A,0))&amp;"_Bullet.prefab"</f>
         <v>Projectile/11004_Indian_Watchtower_Bullet.prefab</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ejup\Desktop\GameJam\ExcelToCSV\SrcFolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevD\TowerDefense\ExcelToCSV\SrcFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908661CC-4B77-4826-AF19-3CA08901195C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4"/>
+    <workbookView xWindow="32655" yWindow="3090" windowWidth="21870" windowHeight="12150" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigTable" sheetId="18" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <sheet name="GachaList" sheetId="28" r:id="rId9"/>
     <sheet name="reference" sheetId="31" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -41,12 +42,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ejup</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -95,12 +96,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ejup</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -141,12 +142,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ejup</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -930,10 +931,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>dropGoldCnt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>rewardId</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1447,11 +1444,15 @@
   <si>
     <t>Indian_Egg_2</t>
   </si>
+  <si>
+    <t>dropSoulCnt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="22">
     <font>
       <sz val="11"/>
@@ -2137,18 +2138,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2193,7 +2194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17.399999999999999">
+    <row r="4" spans="1:4" ht="16.5">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -2207,7 +2208,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17.399999999999999">
+    <row r="5" spans="1:4" ht="16.5">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -2221,7 +2222,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17.399999999999999">
+    <row r="6" spans="1:4" ht="16.5">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -2235,9 +2236,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="17.399999999999999">
+    <row r="7" spans="1:4" ht="16.5">
       <c r="A7" s="50" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>10</v>
@@ -2246,7 +2247,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -2257,44 +2258,44 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="45"/>
-    <col min="2" max="2" width="16.88671875" style="45" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" style="45" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="45"/>
+    <col min="1" max="1" width="8.85546875" style="45"/>
+    <col min="2" max="2" width="16.85546875" style="45" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="45" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="45"/>
     <col min="5" max="7" width="12" style="45" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="45"/>
+    <col min="8" max="16384" width="8.85546875" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.8" thickBot="1">
+    <row r="1" spans="1:7" ht="12.75" thickBot="1">
       <c r="A1" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="44" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="C1" s="44" t="s">
         <v>177</v>
       </c>
-      <c r="C1" s="44" t="s">
-        <v>178</v>
-      </c>
       <c r="E1" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="G1" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="G1" s="45" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="13.8" thickBot="1">
+    </row>
+    <row r="2" spans="1:7" ht="12.75" thickBot="1">
       <c r="A2" s="46">
         <v>1</v>
       </c>
@@ -2305,7 +2306,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="45" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F2" s="45">
         <v>3</v>
@@ -2314,7 +2315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13.8" thickBot="1">
+    <row r="3" spans="1:7" ht="12.75" thickBot="1">
       <c r="A3" s="46">
         <v>2</v>
       </c>
@@ -2325,7 +2326,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="45" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F3" s="45">
         <v>100</v>
@@ -2334,7 +2335,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13.8" thickBot="1">
+    <row r="4" spans="1:7" ht="12.75" thickBot="1">
       <c r="A4" s="46">
         <v>3</v>
       </c>
@@ -2345,7 +2346,7 @@
         <v>35</v>
       </c>
       <c r="E4" s="45" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F4" s="45">
         <v>0.2</v>
@@ -2354,7 +2355,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="13.8" thickBot="1">
+    <row r="5" spans="1:7" ht="12.75" thickBot="1">
       <c r="A5" s="46">
         <v>4</v>
       </c>
@@ -2365,7 +2366,7 @@
         <v>55</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F5" s="45">
         <v>1</v>
@@ -2376,7 +2377,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="E6" s="45" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F6" s="45">
         <v>25</v>
@@ -2387,7 +2388,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="E7" s="45" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F7" s="45">
         <v>5</v>
@@ -2398,7 +2399,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="E8" s="45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F8" s="45">
         <v>0.2</v>
@@ -2409,7 +2410,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="E9" s="45" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F9" s="45">
         <v>1</v>
@@ -2420,7 +2421,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="E10" s="45" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F10" s="45">
         <v>0.2</v>
@@ -2431,7 +2432,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="E11" s="45" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F11" s="45">
         <v>1</v>
@@ -2443,19 +2444,19 @@
     <row r="19" spans="1:6">
       <c r="A19" s="48"/>
       <c r="B19" s="45" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C19" s="48" t="s">
+        <v>180</v>
+      </c>
+      <c r="D19" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="D19" s="48" t="s">
-        <v>182</v>
-      </c>
       <c r="E19" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="F19" s="48" t="s">
         <v>195</v>
-      </c>
-      <c r="F19" s="48" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2738,19 +2739,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" customWidth="1"/>
-    <col min="5" max="5" width="25.109375" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2857,7 +2858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -2871,7 +2872,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -2885,7 +2886,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15">
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -2899,7 +2900,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15">
+    <row r="9" spans="1:7">
       <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
@@ -2913,7 +2914,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15">
+    <row r="10" spans="1:7">
       <c r="A10" s="8" t="s">
         <v>28</v>
       </c>
@@ -2941,7 +2942,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15">
+    <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
         <v>55</v>
       </c>
@@ -2960,16 +2961,16 @@
         <v>62</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="49" t="s">
         <v>212</v>
       </c>
-      <c r="C13" s="4">
-        <v>0</v>
-      </c>
-      <c r="D13" s="49" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15">
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
         <v>62</v>
       </c>
@@ -2983,62 +2984,62 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="17.399999999999999">
+    <row r="15" spans="1:7" ht="16.5">
       <c r="A15" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2</v>
+      </c>
+      <c r="D15" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="C15" s="4">
-        <v>2</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="17.399999999999999">
+    </row>
+    <row r="16" spans="1:7" ht="16.5">
       <c r="A16" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="26"/>
+    </row>
+    <row r="17" spans="1:4" ht="16.5">
+      <c r="A17" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C16" s="4">
-        <v>0</v>
-      </c>
-      <c r="D16" s="26"/>
-    </row>
-    <row r="17" spans="1:4" ht="17.399999999999999">
-      <c r="A17" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="26"/>
+    </row>
+    <row r="18" spans="1:4" ht="16.5">
+      <c r="A18" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C17" s="4">
-        <v>1</v>
-      </c>
-      <c r="D17" s="26"/>
-    </row>
-    <row r="18" spans="1:4" ht="17.399999999999999">
-      <c r="A18" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="4">
+        <v>2</v>
+      </c>
+      <c r="D18" s="26"/>
+    </row>
+    <row r="19" spans="1:4" ht="16.5">
+      <c r="A19" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="C18" s="4">
-        <v>2</v>
-      </c>
-      <c r="D18" s="26"/>
-    </row>
-    <row r="19" spans="1:4" ht="17.399999999999999">
-      <c r="A19" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="C19" s="4">
         <v>3</v>
@@ -3083,7 +3084,7 @@
       </c>
       <c r="D22" s="8"/>
     </row>
-    <row r="23" spans="1:4" ht="17.399999999999999">
+    <row r="23" spans="1:4" ht="16.5">
       <c r="A23" s="2" t="s">
         <v>103</v>
       </c>
@@ -3095,7 +3096,7 @@
       </c>
       <c r="D23" s="8"/>
     </row>
-    <row r="24" spans="1:4" ht="17.399999999999999">
+    <row r="24" spans="1:4" ht="16.5">
       <c r="A24" s="2" t="s">
         <v>103</v>
       </c>
@@ -3131,7 +3132,7 @@
       </c>
       <c r="D26" s="8"/>
     </row>
-    <row r="27" spans="1:4" ht="17.399999999999999">
+    <row r="27" spans="1:4" ht="16.5">
       <c r="A27" s="2" t="s">
         <v>103</v>
       </c>
@@ -3143,7 +3144,7 @@
       </c>
       <c r="D27" s="8"/>
     </row>
-    <row r="28" spans="1:4" ht="17.399999999999999">
+    <row r="28" spans="1:4" ht="16.5">
       <c r="A28" s="2" t="s">
         <v>103</v>
       </c>
@@ -3163,7 +3164,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
@@ -3173,22 +3174,22 @@
       <selection activeCell="F57" sqref="A57:F58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12" style="38" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" style="38" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" style="38" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" style="38" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="38" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" style="38" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="38" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" style="38" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" style="38" customWidth="1"/>
-    <col min="10" max="10" width="15.5546875" style="38" customWidth="1"/>
-    <col min="11" max="11" width="25.5546875" style="38" customWidth="1"/>
-    <col min="12" max="12" width="59.5546875" style="38" customWidth="1"/>
-    <col min="13" max="13" width="50.44140625" style="38" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="38"/>
+    <col min="2" max="2" width="24.5703125" style="38" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="38" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="38" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="38" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="38" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="38" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="38" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" style="38" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="38" customWidth="1"/>
+    <col min="11" max="11" width="25.5703125" style="38" customWidth="1"/>
+    <col min="12" max="12" width="59.5703125" style="38" customWidth="1"/>
+    <col min="13" max="13" width="50.42578125" style="38" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="35" customFormat="1">
@@ -3196,10 +3197,10 @@
         <v>42</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D1" s="34" t="s">
         <v>55</v>
@@ -3229,7 +3230,7 @@
         <v>47</v>
       </c>
       <c r="M1" s="34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -3237,10 +3238,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D2" s="36" t="s">
         <v>55</v>
@@ -3258,7 +3259,7 @@
         <v>70</v>
       </c>
       <c r="I2" s="37" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J2" s="37" t="s">
         <v>81</v>
@@ -3278,10 +3279,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D3" s="39" t="s">
         <v>2</v>
@@ -3319,7 +3320,7 @@
         <v>1001</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C4" s="41" t="str">
         <f>IF(D4=1,"(원거리)","(근거리)")&amp;B4</f>
@@ -3356,7 +3357,7 @@
         <v>Unit/Enemy/Chapter_1/1001_Indian_Archer.prefab</v>
       </c>
       <c r="M4" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -3364,7 +3365,7 @@
         <v>1002</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C5" s="41" t="str">
         <f t="shared" ref="C5:C61" si="0">IF(D5=1,"(원거리)","(근거리)")&amp;B5</f>
@@ -3401,7 +3402,7 @@
         <v>Unit/Enemy/Chapter_1/1002_Indian_Shield.prefab</v>
       </c>
       <c r="M5" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -3409,7 +3410,7 @@
         <v>1003</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C6" s="41" t="str">
         <f t="shared" si="0"/>
@@ -3446,7 +3447,7 @@
         <v>Unit/Enemy/Chapter_1/1003_Indian_Spear.prefab</v>
       </c>
       <c r="M6" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -3454,7 +3455,7 @@
         <v>1004</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C7" s="41" t="str">
         <f t="shared" si="0"/>
@@ -3491,7 +3492,7 @@
         <v>Unit/Enemy/Chapter_1/1004_Indian_Sword.prefab</v>
       </c>
       <c r="M7" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -3499,7 +3500,7 @@
         <v>1005</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C8" s="41" t="str">
         <f t="shared" si="0"/>
@@ -3536,7 +3537,7 @@
         <v>Unit/Enemy/Chapter_1/1005_Indian_Mask.prefab</v>
       </c>
       <c r="M8" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -3544,7 +3545,7 @@
         <v>1006</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C9" s="41" t="str">
         <f t="shared" si="0"/>
@@ -3581,7 +3582,7 @@
         <v>Unit/Enemy/Chapter_1/1006_Indian_Bear.prefab</v>
       </c>
       <c r="M9" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -3589,7 +3590,7 @@
         <v>1007</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C10" s="41" t="str">
         <f t="shared" si="0"/>
@@ -3626,7 +3627,7 @@
         <v>Unit/Enemy/Chapter_1/1007_Bear.prefab</v>
       </c>
       <c r="M10" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -3634,7 +3635,7 @@
         <v>1008</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C11" s="41" t="str">
         <f t="shared" si="0"/>
@@ -3671,7 +3672,7 @@
         <v>Unit/Enemy/Chapter_1/1008_Indian_Master.prefab</v>
       </c>
       <c r="M11" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -3679,7 +3680,7 @@
         <v>1009</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C12" s="41" t="str">
         <f t="shared" si="0"/>
@@ -3716,7 +3717,7 @@
         <v>Unit/Enemy/Chapter_1/1009_Corgi.prefab</v>
       </c>
       <c r="M12" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -3724,7 +3725,7 @@
         <v>1010</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C13" s="41" t="str">
         <f t="shared" si="0"/>
@@ -3761,7 +3762,7 @@
         <v>Unit/Enemy/Chapter_1/1010_Indian_Horse_Sword.prefab</v>
       </c>
       <c r="M13" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -3769,7 +3770,7 @@
         <v>1011</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C14" s="41" t="str">
         <f t="shared" si="0"/>
@@ -3806,7 +3807,7 @@
         <v>Unit/Enemy/Chapter_1/1011_Indian_Horse_Spear.prefab</v>
       </c>
       <c r="M14" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -3814,7 +3815,7 @@
         <v>1012</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C15" s="41" t="str">
         <f t="shared" si="0"/>
@@ -3851,7 +3852,7 @@
         <v>Unit/Enemy/Chapter_1/1012_Indian_Horse_Archer.prefab</v>
       </c>
       <c r="M15" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -3859,7 +3860,7 @@
         <v>1013</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C16" s="41" t="str">
         <f t="shared" si="0"/>
@@ -3896,7 +3897,7 @@
         <v>Unit/Enemy/Chapter_1/1013_Chicken_Black.prefab</v>
       </c>
       <c r="M16" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -3904,7 +3905,7 @@
         <v>1014</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C17" s="41" t="str">
         <f t="shared" si="0"/>
@@ -3941,7 +3942,7 @@
         <v>Unit/Enemy/Chapter_1/1014_Chicken_White.prefab</v>
       </c>
       <c r="M17" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -3949,7 +3950,7 @@
         <v>1015</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C18" s="41" t="str">
         <f t="shared" si="0"/>
@@ -3986,7 +3987,7 @@
         <v>Unit/Enemy/Chapter_1/1015_Indian_Elephant.prefab</v>
       </c>
       <c r="M18" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -3994,7 +3995,7 @@
         <v>1016</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C19" s="41" t="str">
         <f t="shared" si="0"/>
@@ -4031,7 +4032,7 @@
         <v>Unit/Enemy/Chapter_1/1016_Indian_Egg.prefab</v>
       </c>
       <c r="M19" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -4039,7 +4040,7 @@
         <v>1051</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C20" s="41" t="str">
         <f t="shared" si="0"/>
@@ -4076,7 +4077,7 @@
         <v>Unit/Enemy/Chapter_1/1051_Indian_Archer_2.prefab</v>
       </c>
       <c r="M20" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -4084,7 +4085,7 @@
         <v>1052</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C21" s="41" t="str">
         <f t="shared" si="0"/>
@@ -4121,7 +4122,7 @@
         <v>Unit/Enemy/Chapter_1/1052_Indian_Shield_2.prefab</v>
       </c>
       <c r="M21" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -4129,7 +4130,7 @@
         <v>1053</v>
       </c>
       <c r="B22" s="40" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C22" s="41" t="str">
         <f t="shared" si="0"/>
@@ -4166,7 +4167,7 @@
         <v>Unit/Enemy/Chapter_1/1053_Indian_Spear_2.prefab</v>
       </c>
       <c r="M22" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -4174,7 +4175,7 @@
         <v>1054</v>
       </c>
       <c r="B23" s="40" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C23" s="41" t="str">
         <f t="shared" si="0"/>
@@ -4211,7 +4212,7 @@
         <v>Unit/Enemy/Chapter_1/1054_Indian_Sword_2.prefab</v>
       </c>
       <c r="M23" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -4219,7 +4220,7 @@
         <v>1055</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C24" s="41" t="str">
         <f t="shared" si="0"/>
@@ -4256,7 +4257,7 @@
         <v>Unit/Enemy/Chapter_1/1055_Indian_Mask_2.prefab</v>
       </c>
       <c r="M24" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -4264,7 +4265,7 @@
         <v>1056</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C25" s="41" t="str">
         <f t="shared" si="0"/>
@@ -4301,7 +4302,7 @@
         <v>Unit/Enemy/Chapter_1/1056_Indian_Bear_2.prefab</v>
       </c>
       <c r="M25" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -4309,7 +4310,7 @@
         <v>1057</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C26" s="41" t="str">
         <f t="shared" si="0"/>
@@ -4346,7 +4347,7 @@
         <v>Unit/Enemy/Chapter_1/1057_Bear_2.prefab</v>
       </c>
       <c r="M26" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -4354,7 +4355,7 @@
         <v>1058</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C27" s="41" t="str">
         <f t="shared" si="0"/>
@@ -4391,7 +4392,7 @@
         <v>Unit/Enemy/Chapter_1/1058_Indian_Master_2.prefab</v>
       </c>
       <c r="M27" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -4399,7 +4400,7 @@
         <v>1059</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C28" s="41" t="str">
         <f t="shared" si="0"/>
@@ -4436,7 +4437,7 @@
         <v>Unit/Enemy/Chapter_1/1059_Corgi_2.prefab</v>
       </c>
       <c r="M28" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -4444,7 +4445,7 @@
         <v>1060</v>
       </c>
       <c r="B29" s="40" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C29" s="41" t="str">
         <f t="shared" si="0"/>
@@ -4481,7 +4482,7 @@
         <v>Unit/Enemy/Chapter_1/1060_Indian_Horse_Sword_2.prefab</v>
       </c>
       <c r="M29" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -4489,7 +4490,7 @@
         <v>1061</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C30" s="41" t="str">
         <f t="shared" si="0"/>
@@ -4526,7 +4527,7 @@
         <v>Unit/Enemy/Chapter_1/1061_Indian_Horse_Spear_2.prefab</v>
       </c>
       <c r="M30" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -4534,7 +4535,7 @@
         <v>1062</v>
       </c>
       <c r="B31" s="40" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C31" s="41" t="str">
         <f t="shared" si="0"/>
@@ -4571,7 +4572,7 @@
         <v>Unit/Enemy/Chapter_1/1062_Indian_Horse_Archer_2.prefab</v>
       </c>
       <c r="M31" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -4579,7 +4580,7 @@
         <v>1063</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C32" s="41" t="str">
         <f t="shared" si="0"/>
@@ -4616,7 +4617,7 @@
         <v>Unit/Enemy/Chapter_1/1063_Chicken_Black_2.prefab</v>
       </c>
       <c r="M32" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -4624,7 +4625,7 @@
         <v>1064</v>
       </c>
       <c r="B33" s="40" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C33" s="41" t="str">
         <f t="shared" si="0"/>
@@ -4661,7 +4662,7 @@
         <v>Unit/Enemy/Chapter_1/1064_Chicken_White_2.prefab</v>
       </c>
       <c r="M33" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -4669,7 +4670,7 @@
         <v>1065</v>
       </c>
       <c r="B34" s="40" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C34" s="41" t="str">
         <f t="shared" si="0"/>
@@ -4706,7 +4707,7 @@
         <v>Unit/Enemy/Chapter_1/1065_Indian_Elephant_2.prefab</v>
       </c>
       <c r="M34" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -4714,7 +4715,7 @@
         <v>1066</v>
       </c>
       <c r="B35" s="40" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C35" s="41" t="str">
         <f t="shared" si="0"/>
@@ -4751,7 +4752,7 @@
         <v>Unit/Enemy/Chapter_1/1066_Indian_Egg_2.prefab</v>
       </c>
       <c r="M35" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -4759,7 +4760,7 @@
         <v>2001</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C36" s="41" t="str">
         <f t="shared" si="0"/>
@@ -4796,7 +4797,7 @@
         <v>Unit/Hero/2001_Slime.prefab</v>
       </c>
       <c r="M36" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -4804,7 +4805,7 @@
         <v>2002</v>
       </c>
       <c r="B37" s="40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C37" s="41" t="str">
         <f t="shared" si="0"/>
@@ -4841,7 +4842,7 @@
         <v>Unit/Hero/2002_Slime_Archer.prefab</v>
       </c>
       <c r="M37" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -4849,7 +4850,7 @@
         <v>2003</v>
       </c>
       <c r="B38" s="40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C38" s="41" t="str">
         <f t="shared" si="0"/>
@@ -4886,7 +4887,7 @@
         <v>Unit/Hero/2003_Skeleton_Sword.prefab</v>
       </c>
       <c r="M38" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -4894,7 +4895,7 @@
         <v>2004</v>
       </c>
       <c r="B39" s="40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C39" s="41" t="str">
         <f t="shared" si="0"/>
@@ -4931,7 +4932,7 @@
         <v>Unit/Hero/2004_Skeleton_Archer.prefab</v>
       </c>
       <c r="M39" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -4939,7 +4940,7 @@
         <v>2005</v>
       </c>
       <c r="B40" s="40" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C40" s="41" t="str">
         <f t="shared" si="0"/>
@@ -4976,7 +4977,7 @@
         <v>Unit/Hero/2005_Skeleton_Witch.prefab</v>
       </c>
       <c r="M40" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -4984,7 +4985,7 @@
         <v>2006</v>
       </c>
       <c r="B41" s="40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C41" s="41" t="str">
         <f t="shared" si="0"/>
@@ -5021,7 +5022,7 @@
         <v>Unit/Hero/2006_Zombie_Hand.prefab</v>
       </c>
       <c r="M41" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -5029,7 +5030,7 @@
         <v>2007</v>
       </c>
       <c r="B42" s="40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C42" s="41" t="str">
         <f t="shared" si="0"/>
@@ -5066,7 +5067,7 @@
         <v>Unit/Hero/2007_Zombie_Shield.prefab</v>
       </c>
       <c r="M42" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -5074,7 +5075,7 @@
         <v>2008</v>
       </c>
       <c r="B43" s="40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C43" s="41" t="str">
         <f t="shared" si="0"/>
@@ -5111,7 +5112,7 @@
         <v>Unit/Hero/2008_Zombie_Sword.prefab</v>
       </c>
       <c r="M43" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -5119,7 +5120,7 @@
         <v>2009</v>
       </c>
       <c r="B44" s="40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C44" s="41" t="str">
         <f t="shared" si="0"/>
@@ -5156,7 +5157,7 @@
         <v>Unit/Hero/2009_Witch_Fire.prefab</v>
       </c>
       <c r="M44" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -5164,7 +5165,7 @@
         <v>2010</v>
       </c>
       <c r="B45" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C45" s="41" t="str">
         <f t="shared" si="0"/>
@@ -5201,7 +5202,7 @@
         <v>Unit/Hero/2010_Witch_Thunder.prefab</v>
       </c>
       <c r="M45" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -5209,7 +5210,7 @@
         <v>2011</v>
       </c>
       <c r="B46" s="40" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C46" s="41" t="str">
         <f t="shared" si="0"/>
@@ -5246,7 +5247,7 @@
         <v>Unit/Hero/2011_Witch_Poison.prefab</v>
       </c>
       <c r="M46" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -5254,7 +5255,7 @@
         <v>2012</v>
       </c>
       <c r="B47" s="40" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C47" s="41" t="str">
         <f t="shared" si="0"/>
@@ -5291,7 +5292,7 @@
         <v>Unit/Hero/2012_Goblin_Stone.prefab</v>
       </c>
       <c r="M47" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -5299,7 +5300,7 @@
         <v>2013</v>
       </c>
       <c r="B48" s="40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C48" s="41" t="str">
         <f t="shared" si="0"/>
@@ -5336,7 +5337,7 @@
         <v>Unit/Hero/2013_Goblin_Club.prefab</v>
       </c>
       <c r="M48" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -5344,7 +5345,7 @@
         <v>2014</v>
       </c>
       <c r="B49" s="40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C49" s="41" t="str">
         <f t="shared" si="0"/>
@@ -5381,7 +5382,7 @@
         <v>Unit/Hero/2014_Goblin_Baby.prefab</v>
       </c>
       <c r="M49" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -5389,7 +5390,7 @@
         <v>2015</v>
       </c>
       <c r="B50" s="40" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C50" s="41" t="str">
         <f t="shared" si="0"/>
@@ -5426,7 +5427,7 @@
         <v>Unit/Hero/2015_Orc_Stone.prefab</v>
       </c>
       <c r="M50" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -5434,7 +5435,7 @@
         <v>2016</v>
       </c>
       <c r="B51" s="40" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C51" s="41" t="str">
         <f t="shared" si="0"/>
@@ -5471,7 +5472,7 @@
         <v>Unit/Hero/2016_Orc_Club.prefab</v>
       </c>
       <c r="M51" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -5479,7 +5480,7 @@
         <v>2017</v>
       </c>
       <c r="B52" s="40" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C52" s="41" t="str">
         <f t="shared" si="0"/>
@@ -5516,7 +5517,7 @@
         <v>Unit/Hero/2017_Dragon.prefab</v>
       </c>
       <c r="M52" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -5524,7 +5525,7 @@
         <v>2018</v>
       </c>
       <c r="B53" s="40" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C53" s="38" t="str">
         <f t="shared" si="0"/>
@@ -5561,7 +5562,7 @@
         <v>Unit/Hero/2018_Dragon_Fire.prefab</v>
       </c>
       <c r="M53" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -5569,7 +5570,7 @@
         <v>11001</v>
       </c>
       <c r="B54" s="41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C54" s="41" t="str">
         <f t="shared" si="0"/>
@@ -5606,7 +5607,7 @@
         <v>Unit/Enemy/Chapter_1_Object/11001_Indian_Wagon.prefab</v>
       </c>
       <c r="M54" s="38" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -5614,7 +5615,7 @@
         <v>11002</v>
       </c>
       <c r="B55" s="41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C55" s="41" t="str">
         <f t="shared" si="0"/>
@@ -5651,7 +5652,7 @@
         <v>Unit/Enemy/Chapter_1_Object/11002_Indian_Catapult.prefab</v>
       </c>
       <c r="M55" s="38" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -5659,7 +5660,7 @@
         <v>11003</v>
       </c>
       <c r="B56" s="41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C56" s="41" t="str">
         <f t="shared" si="0"/>
@@ -5696,7 +5697,7 @@
         <v>Unit/Enemy/Chapter_1_Object/11003_Indian_Wall.prefab</v>
       </c>
       <c r="M56" s="38" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -5704,7 +5705,7 @@
         <v>11004</v>
       </c>
       <c r="B57" s="41" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C57" s="41" t="str">
         <f t="shared" si="0"/>
@@ -5741,7 +5742,7 @@
         <v>Unit/Enemy/Chapter_1_Object/11004_Indian_Watchtower.prefab</v>
       </c>
       <c r="M57" s="38" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -5749,7 +5750,7 @@
         <v>11005</v>
       </c>
       <c r="B58" s="41" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C58" s="41" t="str">
         <f t="shared" si="0"/>
@@ -5786,7 +5787,7 @@
         <v>Unit/Enemy/Chapter_1_Object/11005_Indian_Chicken_House.prefab</v>
       </c>
       <c r="M58" s="38" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -5794,7 +5795,7 @@
         <v>11006</v>
       </c>
       <c r="B59" s="41" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C59" s="41" t="str">
         <f t="shared" si="0"/>
@@ -5831,7 +5832,7 @@
         <v>Unit/Enemy/Chapter_1_Object/11006_Indian_Jar_1.prefab</v>
       </c>
       <c r="M59" s="38" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -5839,7 +5840,7 @@
         <v>11007</v>
       </c>
       <c r="B60" s="41" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C60" s="41" t="str">
         <f t="shared" si="0"/>
@@ -5876,7 +5877,7 @@
         <v>Unit/Enemy/Chapter_1_Object/11007_Indian_Jar_2.prefab</v>
       </c>
       <c r="M60" s="38" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -5884,7 +5885,7 @@
         <v>11008</v>
       </c>
       <c r="B61" s="41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C61" s="41" t="str">
         <f t="shared" si="0"/>
@@ -5921,7 +5922,7 @@
         <v>Unit/Enemy/Chapter_1_Object/11008_Indian_Straw.prefab</v>
       </c>
       <c r="M61" s="38" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -5929,7 +5930,7 @@
         <v>11009</v>
       </c>
       <c r="B62" s="38" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C62" s="41" t="str">
         <f t="shared" ref="C62" si="12">IF(D62=1,"(원거리)","(근거리)")&amp;B62</f>
@@ -5966,7 +5967,7 @@
         <v>Unit/Enemy/Chapter_1_Object/11009_Indian_Flag_Alter.prefab</v>
       </c>
       <c r="M62" s="38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -5974,7 +5975,7 @@
         <v>11010</v>
       </c>
       <c r="B63" s="38" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C63" s="41" t="str">
         <f t="shared" ref="C63:C64" si="16">IF(D63=1,"(원거리)","(근거리)")&amp;B63</f>
@@ -6011,7 +6012,7 @@
         <v>Unit/Enemy/Chapter_1_Object/11010_Indian_House.prefab</v>
       </c>
       <c r="M63" s="38" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -6019,7 +6020,7 @@
         <v>11011</v>
       </c>
       <c r="B64" s="38" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C64" s="41" t="str">
         <f t="shared" si="16"/>
@@ -6056,7 +6057,7 @@
         <v>Unit/Enemy/Chapter_1_Object/11011_Indian_Fire.prefab</v>
       </c>
       <c r="M64" s="38" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -6066,37 +6067,37 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
   <dimension ref="A1:W64"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K56" sqref="K56"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="15.5546875" customWidth="1"/>
-    <col min="3" max="3" width="23.5546875" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" customWidth="1"/>
-    <col min="9" max="10" width="15.5546875" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" customWidth="1"/>
-    <col min="12" max="12" width="18.109375" customWidth="1"/>
-    <col min="13" max="14" width="18.6640625" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.5546875" customWidth="1"/>
-    <col min="18" max="19" width="12.33203125" customWidth="1"/>
-    <col min="20" max="20" width="27.5546875" style="20" customWidth="1"/>
-    <col min="21" max="22" width="16.33203125" customWidth="1"/>
-    <col min="23" max="23" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="9" max="10" width="15.5703125" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" customWidth="1"/>
+    <col min="13" max="14" width="18.7109375" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.5703125" customWidth="1"/>
+    <col min="18" max="19" width="12.28515625" customWidth="1"/>
+    <col min="20" max="20" width="27.5703125" style="20" customWidth="1"/>
+    <col min="21" max="22" width="16.28515625" customWidth="1"/>
+    <col min="23" max="23" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="13" customFormat="1">
@@ -6107,7 +6108,7 @@
         <v>50</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>51</v>
@@ -6119,13 +6120,13 @@
         <v>52</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H1" s="31" t="s">
         <v>53</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J1" s="31" t="s">
         <v>54</v>
@@ -6134,7 +6135,7 @@
         <v>58</v>
       </c>
       <c r="L1" s="31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M1" s="31" t="s">
         <v>56</v>
@@ -6149,7 +6150,7 @@
         <v>59</v>
       </c>
       <c r="Q1" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R1" s="14" t="s">
         <v>85</v>
@@ -6167,7 +6168,7 @@
         <v>116</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>118</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -6178,7 +6179,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>1</v>
@@ -6249,7 +6250,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>2</v>
@@ -6365,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R4" s="5">
         <v>0</v>
@@ -6374,7 +6375,7 @@
         <v>1</v>
       </c>
       <c r="T4" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U4" s="5">
         <v>2</v>
@@ -6440,7 +6441,7 @@
         <v>0</v>
       </c>
       <c r="Q5" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R5" s="5">
         <v>0</v>
@@ -6449,7 +6450,7 @@
         <v>1</v>
       </c>
       <c r="T5" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U5" s="5">
         <v>2</v>
@@ -6515,7 +6516,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R6" s="5">
         <v>0</v>
@@ -6524,7 +6525,7 @@
         <v>1</v>
       </c>
       <c r="T6" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U6" s="5">
         <v>2</v>
@@ -6590,7 +6591,7 @@
         <v>0</v>
       </c>
       <c r="Q7" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R7" s="5">
         <v>0</v>
@@ -6599,7 +6600,7 @@
         <v>1</v>
       </c>
       <c r="T7" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U7" s="5">
         <v>2</v>
@@ -6665,7 +6666,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R8" s="5">
         <v>0</v>
@@ -6674,7 +6675,7 @@
         <v>1</v>
       </c>
       <c r="T8" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U8" s="5">
         <v>2</v>
@@ -6740,7 +6741,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R9" s="5">
         <v>0</v>
@@ -6749,7 +6750,7 @@
         <v>1</v>
       </c>
       <c r="T9" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U9" s="5">
         <v>2</v>
@@ -6815,7 +6816,7 @@
         <v>0</v>
       </c>
       <c r="Q10" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R10" s="5">
         <v>0</v>
@@ -6824,7 +6825,7 @@
         <v>1</v>
       </c>
       <c r="T10" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U10" s="5">
         <v>2</v>
@@ -6890,7 +6891,7 @@
         <v>0</v>
       </c>
       <c r="Q11" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R11" s="5">
         <v>0</v>
@@ -6899,7 +6900,7 @@
         <v>1</v>
       </c>
       <c r="T11" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U11" s="5">
         <v>2</v>
@@ -6965,7 +6966,7 @@
         <v>0</v>
       </c>
       <c r="Q12" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R12" s="5">
         <v>0</v>
@@ -6974,7 +6975,7 @@
         <v>1</v>
       </c>
       <c r="T12" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U12" s="5">
         <v>2</v>
@@ -7040,7 +7041,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R13" s="5">
         <v>0</v>
@@ -7049,7 +7050,7 @@
         <v>1</v>
       </c>
       <c r="T13" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U13" s="5">
         <v>2</v>
@@ -7115,7 +7116,7 @@
         <v>0</v>
       </c>
       <c r="Q14" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R14" s="5">
         <v>0</v>
@@ -7124,7 +7125,7 @@
         <v>1</v>
       </c>
       <c r="T14" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U14" s="5">
         <v>2</v>
@@ -7190,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R15" s="5">
         <v>0</v>
@@ -7199,7 +7200,7 @@
         <v>1</v>
       </c>
       <c r="T15" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U15" s="5">
         <v>2</v>
@@ -7265,7 +7266,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R16" s="5">
         <v>0</v>
@@ -7274,7 +7275,7 @@
         <v>1</v>
       </c>
       <c r="T16" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U16" s="5">
         <v>2</v>
@@ -7340,7 +7341,7 @@
         <v>0</v>
       </c>
       <c r="Q17" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R17" s="5">
         <v>0</v>
@@ -7349,7 +7350,7 @@
         <v>1</v>
       </c>
       <c r="T17" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U17" s="5">
         <v>2</v>
@@ -7415,7 +7416,7 @@
         <v>0</v>
       </c>
       <c r="Q18" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R18" s="5">
         <v>0</v>
@@ -7424,7 +7425,7 @@
         <v>1</v>
       </c>
       <c r="T18" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U18" s="5">
         <v>2</v>
@@ -7490,7 +7491,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R19" s="5">
         <v>0</v>
@@ -7499,7 +7500,7 @@
         <v>1</v>
       </c>
       <c r="T19" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U19" s="5">
         <v>2</v>
@@ -7565,7 +7566,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R20" s="5">
         <v>0</v>
@@ -7574,7 +7575,7 @@
         <v>1</v>
       </c>
       <c r="T20" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U20" s="5">
         <v>2</v>
@@ -7640,7 +7641,7 @@
         <v>0</v>
       </c>
       <c r="Q21" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R21" s="5">
         <v>0</v>
@@ -7649,7 +7650,7 @@
         <v>1</v>
       </c>
       <c r="T21" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U21" s="5">
         <v>2</v>
@@ -7715,7 +7716,7 @@
         <v>0</v>
       </c>
       <c r="Q22" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R22" s="5">
         <v>0</v>
@@ -7724,7 +7725,7 @@
         <v>1</v>
       </c>
       <c r="T22" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U22" s="5">
         <v>2</v>
@@ -7790,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="Q23" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R23" s="5">
         <v>0</v>
@@ -7799,7 +7800,7 @@
         <v>1</v>
       </c>
       <c r="T23" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U23" s="5">
         <v>2</v>
@@ -7865,7 +7866,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R24" s="5">
         <v>0</v>
@@ -7874,7 +7875,7 @@
         <v>1</v>
       </c>
       <c r="T24" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U24" s="5">
         <v>2</v>
@@ -7940,7 +7941,7 @@
         <v>0</v>
       </c>
       <c r="Q25" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R25" s="5">
         <v>0</v>
@@ -7949,7 +7950,7 @@
         <v>1</v>
       </c>
       <c r="T25" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U25" s="5">
         <v>2</v>
@@ -8015,7 +8016,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R26" s="5">
         <v>0</v>
@@ -8024,7 +8025,7 @@
         <v>1</v>
       </c>
       <c r="T26" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U26" s="5">
         <v>2</v>
@@ -8090,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R27" s="5">
         <v>0</v>
@@ -8099,7 +8100,7 @@
         <v>1</v>
       </c>
       <c r="T27" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U27" s="5">
         <v>2</v>
@@ -8165,7 +8166,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R28" s="5">
         <v>0</v>
@@ -8174,7 +8175,7 @@
         <v>1</v>
       </c>
       <c r="T28" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U28" s="5">
         <v>2</v>
@@ -8240,7 +8241,7 @@
         <v>0</v>
       </c>
       <c r="Q29" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R29" s="5">
         <v>0</v>
@@ -8249,7 +8250,7 @@
         <v>1</v>
       </c>
       <c r="T29" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U29" s="5">
         <v>2</v>
@@ -8315,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="Q30" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R30" s="5">
         <v>0</v>
@@ -8324,7 +8325,7 @@
         <v>1</v>
       </c>
       <c r="T30" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U30" s="5">
         <v>2</v>
@@ -8390,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="Q31" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R31" s="5">
         <v>0</v>
@@ -8399,7 +8400,7 @@
         <v>1</v>
       </c>
       <c r="T31" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U31" s="5">
         <v>2</v>
@@ -8465,7 +8466,7 @@
         <v>0</v>
       </c>
       <c r="Q32" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R32" s="5">
         <v>0</v>
@@ -8474,7 +8475,7 @@
         <v>1</v>
       </c>
       <c r="T32" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U32" s="5">
         <v>2</v>
@@ -8540,7 +8541,7 @@
         <v>0</v>
       </c>
       <c r="Q33" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R33" s="5">
         <v>0</v>
@@ -8549,7 +8550,7 @@
         <v>1</v>
       </c>
       <c r="T33" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U33" s="5">
         <v>2</v>
@@ -8615,7 +8616,7 @@
         <v>0</v>
       </c>
       <c r="Q34" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R34" s="5">
         <v>0</v>
@@ -8624,7 +8625,7 @@
         <v>1</v>
       </c>
       <c r="T34" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U34" s="5">
         <v>2</v>
@@ -8690,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="Q35" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R35" s="5">
         <v>0</v>
@@ -8699,7 +8700,7 @@
         <v>1</v>
       </c>
       <c r="T35" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U35" s="5">
         <v>2</v>
@@ -8765,7 +8766,7 @@
         <v>0</v>
       </c>
       <c r="Q36" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R36" s="5">
         <v>0</v>
@@ -8774,7 +8775,7 @@
         <v>3</v>
       </c>
       <c r="T36" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U36" s="5">
         <v>2</v>
@@ -8840,7 +8841,7 @@
         <v>0</v>
       </c>
       <c r="Q37" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R37" s="5">
         <v>0</v>
@@ -8849,7 +8850,7 @@
         <v>3</v>
       </c>
       <c r="T37" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U37" s="5">
         <v>2</v>
@@ -8915,7 +8916,7 @@
         <v>0</v>
       </c>
       <c r="Q38" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R38" s="5">
         <v>0</v>
@@ -8924,7 +8925,7 @@
         <v>3</v>
       </c>
       <c r="T38" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U38" s="5">
         <v>2</v>
@@ -8936,7 +8937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="15" thickBot="1">
+    <row r="39" spans="1:23" ht="15.75" thickBot="1">
       <c r="A39" s="5">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -8990,7 +8991,7 @@
         <v>0</v>
       </c>
       <c r="Q39" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R39" s="5">
         <v>0</v>
@@ -8999,7 +9000,7 @@
         <v>3</v>
       </c>
       <c r="T39" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U39" s="5">
         <v>2</v>
@@ -9011,7 +9012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="15" thickBot="1">
+    <row r="40" spans="1:23" ht="15.75" thickBot="1">
       <c r="A40" s="5">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -9065,7 +9066,7 @@
         <v>0</v>
       </c>
       <c r="Q40" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R40" s="5">
         <v>0</v>
@@ -9074,7 +9075,7 @@
         <v>3</v>
       </c>
       <c r="T40" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U40" s="5">
         <v>2</v>
@@ -9140,7 +9141,7 @@
         <v>0</v>
       </c>
       <c r="Q41" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R41" s="5">
         <v>0</v>
@@ -9149,7 +9150,7 @@
         <v>3</v>
       </c>
       <c r="T41" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U41" s="5">
         <v>2</v>
@@ -9161,7 +9162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="15" thickBot="1">
+    <row r="42" spans="1:23" ht="15.75" thickBot="1">
       <c r="A42" s="5">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -9215,7 +9216,7 @@
         <v>0</v>
       </c>
       <c r="Q42" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R42" s="5">
         <v>0</v>
@@ -9224,7 +9225,7 @@
         <v>3</v>
       </c>
       <c r="T42" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U42" s="5">
         <v>2</v>
@@ -9236,7 +9237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="15" thickBot="1">
+    <row r="43" spans="1:23" ht="15.75" thickBot="1">
       <c r="A43" s="5">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -9290,7 +9291,7 @@
         <v>0</v>
       </c>
       <c r="Q43" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R43" s="5">
         <v>0</v>
@@ -9299,7 +9300,7 @@
         <v>3</v>
       </c>
       <c r="T43" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U43" s="5">
         <v>2</v>
@@ -9311,7 +9312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="15" thickBot="1">
+    <row r="44" spans="1:23" ht="15.75" thickBot="1">
       <c r="A44" s="5">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -9365,17 +9366,17 @@
         <v>0</v>
       </c>
       <c r="Q44" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="R44" s="5">
+        <v>0</v>
+      </c>
+      <c r="S44" s="5">
+        <v>1</v>
+      </c>
+      <c r="T44" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="R44" s="5">
-        <v>0</v>
-      </c>
-      <c r="S44" s="5">
-        <v>1</v>
-      </c>
-      <c r="T44" s="19" t="s">
-        <v>123</v>
-      </c>
       <c r="U44" s="5">
         <v>2</v>
       </c>
@@ -9386,7 +9387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="15" thickBot="1">
+    <row r="45" spans="1:23" ht="15.75" thickBot="1">
       <c r="A45" s="5">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -9440,17 +9441,17 @@
         <v>0</v>
       </c>
       <c r="Q45" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="R45" s="5">
+        <v>0</v>
+      </c>
+      <c r="S45" s="5">
+        <v>1</v>
+      </c>
+      <c r="T45" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="R45" s="5">
-        <v>0</v>
-      </c>
-      <c r="S45" s="5">
-        <v>1</v>
-      </c>
-      <c r="T45" s="19" t="s">
-        <v>123</v>
-      </c>
       <c r="U45" s="5">
         <v>2</v>
       </c>
@@ -9461,7 +9462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="15" thickBot="1">
+    <row r="46" spans="1:23" ht="15.75" thickBot="1">
       <c r="A46" s="5">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -9515,17 +9516,17 @@
         <v>0</v>
       </c>
       <c r="Q46" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="R46" s="5">
+        <v>0</v>
+      </c>
+      <c r="S46" s="5">
+        <v>1</v>
+      </c>
+      <c r="T46" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="R46" s="5">
-        <v>0</v>
-      </c>
-      <c r="S46" s="5">
-        <v>1</v>
-      </c>
-      <c r="T46" s="19" t="s">
-        <v>123</v>
-      </c>
       <c r="U46" s="5">
         <v>2</v>
       </c>
@@ -9536,7 +9537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="15" thickBot="1">
+    <row r="47" spans="1:23" ht="15.75" thickBot="1">
       <c r="A47" s="5">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -9590,7 +9591,7 @@
         <v>0</v>
       </c>
       <c r="Q47" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R47" s="5">
         <v>0</v>
@@ -9599,7 +9600,7 @@
         <v>3</v>
       </c>
       <c r="T47" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U47" s="5">
         <v>2</v>
@@ -9611,7 +9612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="15" thickBot="1">
+    <row r="48" spans="1:23" ht="15.75" thickBot="1">
       <c r="A48" s="5">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -9665,7 +9666,7 @@
         <v>0</v>
       </c>
       <c r="Q48" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R48" s="5">
         <v>0</v>
@@ -9674,7 +9675,7 @@
         <v>3</v>
       </c>
       <c r="T48" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U48" s="5">
         <v>2</v>
@@ -9686,7 +9687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="15" thickBot="1">
+    <row r="49" spans="1:23" ht="15.75" thickBot="1">
       <c r="A49" s="5">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -9740,7 +9741,7 @@
         <v>0</v>
       </c>
       <c r="Q49" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R49" s="5">
         <v>0</v>
@@ -9749,7 +9750,7 @@
         <v>4</v>
       </c>
       <c r="T49" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U49" s="5">
         <v>2</v>
@@ -9761,7 +9762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="15" thickBot="1">
+    <row r="50" spans="1:23" ht="15.75" thickBot="1">
       <c r="A50" s="5">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -9815,17 +9816,17 @@
         <v>0</v>
       </c>
       <c r="Q50" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="R50" s="5">
+        <v>0</v>
+      </c>
+      <c r="S50" s="5">
+        <v>1</v>
+      </c>
+      <c r="T50" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="R50" s="5">
-        <v>0</v>
-      </c>
-      <c r="S50" s="5">
-        <v>1</v>
-      </c>
-      <c r="T50" s="19" t="s">
-        <v>123</v>
-      </c>
       <c r="U50" s="5">
         <v>2</v>
       </c>
@@ -9836,7 +9837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="15" thickBot="1">
+    <row r="51" spans="1:23" ht="15.75" thickBot="1">
       <c r="A51" s="5">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -9890,17 +9891,17 @@
         <v>0</v>
       </c>
       <c r="Q51" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="R51" s="5">
+        <v>0</v>
+      </c>
+      <c r="S51" s="5">
+        <v>1</v>
+      </c>
+      <c r="T51" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="R51" s="5">
-        <v>0</v>
-      </c>
-      <c r="S51" s="5">
-        <v>1</v>
-      </c>
-      <c r="T51" s="19" t="s">
-        <v>123</v>
-      </c>
       <c r="U51" s="5">
         <v>2</v>
       </c>
@@ -9911,7 +9912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="15" thickBot="1">
+    <row r="52" spans="1:23" ht="15.75" thickBot="1">
       <c r="A52" s="5">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -9965,17 +9966,17 @@
         <v>0</v>
       </c>
       <c r="Q52" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="R52" s="5">
+        <v>0</v>
+      </c>
+      <c r="S52" s="5">
+        <v>1</v>
+      </c>
+      <c r="T52" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="R52" s="5">
-        <v>0</v>
-      </c>
-      <c r="S52" s="5">
-        <v>1</v>
-      </c>
-      <c r="T52" s="19" t="s">
-        <v>123</v>
-      </c>
       <c r="U52" s="5">
         <v>2</v>
       </c>
@@ -9986,7 +9987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="15" thickBot="1">
+    <row r="53" spans="1:23" ht="15.75" thickBot="1">
       <c r="A53" s="5">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -10040,17 +10041,17 @@
         <v>0</v>
       </c>
       <c r="Q53" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="R53" s="5">
+        <v>0</v>
+      </c>
+      <c r="S53" s="5">
+        <v>1</v>
+      </c>
+      <c r="T53" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="R53" s="5">
-        <v>0</v>
-      </c>
-      <c r="S53" s="5">
-        <v>1</v>
-      </c>
-      <c r="T53" s="19" t="s">
-        <v>123</v>
-      </c>
       <c r="U53" s="5">
         <v>2</v>
       </c>
@@ -10061,7 +10062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="16.2" thickBot="1">
+    <row r="54" spans="1:23" ht="15.75" thickBot="1">
       <c r="A54" s="5">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -10115,17 +10116,17 @@
         <v>0</v>
       </c>
       <c r="Q54" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="R54" s="5">
+        <v>0</v>
+      </c>
+      <c r="S54" s="5">
+        <v>1</v>
+      </c>
+      <c r="T54" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="R54" s="5">
-        <v>0</v>
-      </c>
-      <c r="S54" s="5">
-        <v>1</v>
-      </c>
-      <c r="T54" s="19" t="s">
-        <v>123</v>
-      </c>
       <c r="U54" s="5">
         <v>2</v>
       </c>
@@ -10136,7 +10137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="16.2" thickBot="1">
+    <row r="55" spans="1:23" ht="15.75" thickBot="1">
       <c r="A55" s="5">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -10190,17 +10191,17 @@
         <v>0</v>
       </c>
       <c r="Q55" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="R55" s="5">
+        <v>0</v>
+      </c>
+      <c r="S55" s="5">
+        <v>1</v>
+      </c>
+      <c r="T55" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="R55" s="5">
-        <v>0</v>
-      </c>
-      <c r="S55" s="5">
-        <v>1</v>
-      </c>
-      <c r="T55" s="19" t="s">
-        <v>123</v>
-      </c>
       <c r="U55" s="5">
         <v>2</v>
       </c>
@@ -10211,7 +10212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="16.2" thickBot="1">
+    <row r="56" spans="1:23" ht="15.75" thickBot="1">
       <c r="A56" s="5">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -10265,17 +10266,17 @@
         <v>0</v>
       </c>
       <c r="Q56" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="R56" s="5">
+        <v>0</v>
+      </c>
+      <c r="S56" s="5">
+        <v>1</v>
+      </c>
+      <c r="T56" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="R56" s="5">
-        <v>0</v>
-      </c>
-      <c r="S56" s="5">
-        <v>1</v>
-      </c>
-      <c r="T56" s="19" t="s">
-        <v>123</v>
-      </c>
       <c r="U56" s="5">
         <v>2</v>
       </c>
@@ -10286,7 +10287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="16.2" thickBot="1">
+    <row r="57" spans="1:23" ht="15.75" thickBot="1">
       <c r="A57" s="5">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -10340,17 +10341,17 @@
         <v>0</v>
       </c>
       <c r="Q57" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="R57" s="5">
+        <v>0</v>
+      </c>
+      <c r="S57" s="5">
+        <v>1</v>
+      </c>
+      <c r="T57" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="R57" s="5">
-        <v>0</v>
-      </c>
-      <c r="S57" s="5">
-        <v>1</v>
-      </c>
-      <c r="T57" s="19" t="s">
-        <v>123</v>
-      </c>
       <c r="U57" s="5">
         <v>2</v>
       </c>
@@ -10361,7 +10362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="16.2" thickBot="1">
+    <row r="58" spans="1:23" ht="15.75" thickBot="1">
       <c r="A58" s="5">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -10415,17 +10416,17 @@
         <v>0</v>
       </c>
       <c r="Q58" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="R58" s="5">
+        <v>0</v>
+      </c>
+      <c r="S58" s="5">
+        <v>1</v>
+      </c>
+      <c r="T58" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="R58" s="5">
-        <v>0</v>
-      </c>
-      <c r="S58" s="5">
-        <v>1</v>
-      </c>
-      <c r="T58" s="19" t="s">
-        <v>123</v>
-      </c>
       <c r="U58" s="5">
         <v>2</v>
       </c>
@@ -10436,7 +10437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="16.2" thickBot="1">
+    <row r="59" spans="1:23" ht="15.75" thickBot="1">
       <c r="A59" s="5">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -10490,17 +10491,17 @@
         <v>0</v>
       </c>
       <c r="Q59" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="R59" s="5">
+        <v>0</v>
+      </c>
+      <c r="S59" s="5">
+        <v>1</v>
+      </c>
+      <c r="T59" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="R59" s="5">
-        <v>0</v>
-      </c>
-      <c r="S59" s="5">
-        <v>1</v>
-      </c>
-      <c r="T59" s="19" t="s">
-        <v>123</v>
-      </c>
       <c r="U59" s="5">
         <v>2</v>
       </c>
@@ -10511,7 +10512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="16.2" thickBot="1">
+    <row r="60" spans="1:23" ht="15.75" thickBot="1">
       <c r="A60" s="5">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -10565,17 +10566,17 @@
         <v>0</v>
       </c>
       <c r="Q60" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="R60" s="5">
+        <v>0</v>
+      </c>
+      <c r="S60" s="5">
+        <v>1</v>
+      </c>
+      <c r="T60" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="R60" s="5">
-        <v>0</v>
-      </c>
-      <c r="S60" s="5">
-        <v>1</v>
-      </c>
-      <c r="T60" s="19" t="s">
-        <v>123</v>
-      </c>
       <c r="U60" s="5">
         <v>2</v>
       </c>
@@ -10586,7 +10587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="16.2" thickBot="1">
+    <row r="61" spans="1:23" ht="15.75" thickBot="1">
       <c r="A61" s="5">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -10640,17 +10641,17 @@
         <v>0</v>
       </c>
       <c r="Q61" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="R61" s="5">
+        <v>0</v>
+      </c>
+      <c r="S61" s="5">
+        <v>1</v>
+      </c>
+      <c r="T61" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="R61" s="5">
-        <v>0</v>
-      </c>
-      <c r="S61" s="5">
-        <v>1</v>
-      </c>
-      <c r="T61" s="19" t="s">
-        <v>123</v>
-      </c>
       <c r="U61" s="5">
         <v>2</v>
       </c>
@@ -10661,7 +10662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="16.2" thickBot="1">
+    <row r="62" spans="1:23" ht="15.75" thickBot="1">
       <c r="A62" s="5">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -10715,17 +10716,17 @@
         <v>0</v>
       </c>
       <c r="Q62" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="R62" s="5">
+        <v>0</v>
+      </c>
+      <c r="S62" s="5">
+        <v>1</v>
+      </c>
+      <c r="T62" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="R62" s="5">
-        <v>0</v>
-      </c>
-      <c r="S62" s="5">
-        <v>1</v>
-      </c>
-      <c r="T62" s="19" t="s">
-        <v>123</v>
-      </c>
       <c r="U62" s="5">
         <v>2</v>
       </c>
@@ -10736,7 +10737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="16.2" thickBot="1">
+    <row r="63" spans="1:23" ht="15.75" thickBot="1">
       <c r="A63" s="5">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -10790,17 +10791,17 @@
         <v>0</v>
       </c>
       <c r="Q63" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="R63" s="5">
+        <v>0</v>
+      </c>
+      <c r="S63" s="5">
+        <v>1</v>
+      </c>
+      <c r="T63" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="R63" s="5">
-        <v>0</v>
-      </c>
-      <c r="S63" s="5">
-        <v>1</v>
-      </c>
-      <c r="T63" s="19" t="s">
-        <v>123</v>
-      </c>
       <c r="U63" s="5">
         <v>2</v>
       </c>
@@ -10811,7 +10812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="16.2" thickBot="1">
+    <row r="64" spans="1:23" ht="15.75" thickBot="1">
       <c r="A64" s="5">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -10865,16 +10866,16 @@
         <v>0</v>
       </c>
       <c r="Q64" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="R64" s="5">
+        <v>0</v>
+      </c>
+      <c r="S64" s="5">
+        <v>1</v>
+      </c>
+      <c r="T64" s="19" t="s">
         <v>122</v>
-      </c>
-      <c r="R64" s="5">
-        <v>0</v>
-      </c>
-      <c r="S64" s="5">
-        <v>1</v>
-      </c>
-      <c r="T64" s="19" t="s">
-        <v>123</v>
       </c>
       <c r="U64" s="5">
         <v>2</v>
@@ -10920,19 +10921,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="59.5546875" customWidth="1"/>
+    <col min="3" max="3" width="59.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -11176,18 +11177,18 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -11232,7 +11233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17.399999999999999">
+    <row r="4" spans="1:4" ht="16.5">
       <c r="A4" s="24" t="s">
         <v>16</v>
       </c>
@@ -11246,7 +11247,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17.399999999999999">
+    <row r="5" spans="1:4" ht="16.5">
       <c r="A5" s="23" t="s">
         <v>17</v>
       </c>
@@ -11260,7 +11261,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17.399999999999999">
+    <row r="6" spans="1:4" ht="16.5">
       <c r="A6" s="23" t="s">
         <v>18</v>
       </c>
@@ -11274,7 +11275,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="17.399999999999999">
+    <row r="7" spans="1:4" ht="16.5">
       <c r="A7" s="23" t="s">
         <v>100</v>
       </c>
@@ -11290,58 +11291,58 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B8" s="51" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -11352,7 +11353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
@@ -11362,13 +11363,13 @@
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="15.5546875" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -11445,13 +11446,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F4" s="9">
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17.399999999999999">
+    <row r="5" spans="1:6" ht="16.5">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -11465,13 +11466,13 @@
         <v>1</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F5" s="9">
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17.399999999999999">
+    <row r="6" spans="1:6" ht="16.5">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -11485,13 +11486,13 @@
         <v>2</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F6" s="9">
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17.399999999999999">
+    <row r="7" spans="1:6" ht="16.5">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -11505,13 +11506,13 @@
         <v>3</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F7" s="9">
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17.399999999999999">
+    <row r="8" spans="1:6" ht="16.5">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -11525,13 +11526,13 @@
         <v>4</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F8" s="9">
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="17.399999999999999">
+    <row r="9" spans="1:6" ht="16.5">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -11545,13 +11546,13 @@
         <v>5</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F9" s="9">
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17.399999999999999">
+    <row r="10" spans="1:6" ht="16.5">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -11565,13 +11566,13 @@
         <v>6</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F10" s="9">
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="17.399999999999999">
+    <row r="11" spans="1:6" ht="16.5">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -11585,13 +11586,13 @@
         <v>7</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F11" s="9">
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="17.399999999999999">
+    <row r="12" spans="1:6" ht="16.5">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -11605,13 +11606,13 @@
         <v>8</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F12" s="9">
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="17.399999999999999">
+    <row r="13" spans="1:6" ht="16.5">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -11625,13 +11626,13 @@
         <v>9</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F13" s="9">
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="17.399999999999999">
+    <row r="14" spans="1:6" ht="16.5">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -11645,13 +11646,13 @@
         <v>10</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F14" s="9">
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="17.399999999999999">
+    <row r="15" spans="1:6" ht="16.5">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -11665,13 +11666,13 @@
         <v>11</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F15" s="9">
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="17.399999999999999">
+    <row r="16" spans="1:6" ht="16.5">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -11685,13 +11686,13 @@
         <v>12</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F16" s="9">
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="17.399999999999999">
+    <row r="17" spans="1:6" ht="16.5">
       <c r="A17" s="5">
         <v>14</v>
       </c>
@@ -11705,13 +11706,13 @@
         <v>13</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F17" s="9">
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="17.399999999999999">
+    <row r="18" spans="1:6" ht="16.5">
       <c r="A18" s="5">
         <v>15</v>
       </c>
@@ -11725,13 +11726,13 @@
         <v>14</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F18" s="9">
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="17.399999999999999">
+    <row r="19" spans="1:6" ht="16.5">
       <c r="A19" s="5">
         <v>16</v>
       </c>
@@ -11745,13 +11746,13 @@
         <v>15</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F19" s="9">
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="17.399999999999999">
+    <row r="20" spans="1:6" ht="16.5">
       <c r="A20" s="5">
         <v>17</v>
       </c>
@@ -11765,13 +11766,13 @@
         <v>16</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F20" s="9">
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="17.399999999999999">
+    <row r="21" spans="1:6" ht="16.5">
       <c r="A21" s="5">
         <v>18</v>
       </c>
@@ -11785,13 +11786,13 @@
         <v>17</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F21" s="9">
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="17.399999999999999">
+    <row r="22" spans="1:6" ht="16.5">
       <c r="A22" s="5">
         <v>19</v>
       </c>
@@ -11805,13 +11806,13 @@
         <v>18</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F22" s="9">
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="17.399999999999999">
+    <row r="23" spans="1:6" ht="16.5">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -11825,7 +11826,7 @@
         <v>19</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F23" s="9">
         <v>120</v>
@@ -11854,17 +11855,17 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="5" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="4" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -11872,7 +11873,7 @@
         <v>42</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>67</v>
@@ -11881,7 +11882,7 @@
         <v>65</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F1" s="14" t="s">
         <v>66</v>
@@ -11898,7 +11899,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>1</v>
@@ -12063,17 +12064,17 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="2" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevD\TowerDefense\ExcelToCSV\SrcFolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ejup\Desktop\GameJam\ExcelToCSV\SrcFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908661CC-4B77-4826-AF19-3CA08901195C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32655" yWindow="3090" windowWidth="21870" windowHeight="12150" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32652" yWindow="3096" windowWidth="21876" windowHeight="12156" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigTable" sheetId="18" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <sheet name="GachaList" sheetId="28" r:id="rId9"/>
     <sheet name="reference" sheetId="31" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -42,12 +41,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ejup</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -96,12 +95,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ejup</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -142,12 +141,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ejup</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -188,7 +187,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="266">
   <si>
     <t>type</t>
   </si>
@@ -1448,11 +1447,17 @@
     <t>dropSoulCnt</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>goldProductAmount</t>
+  </si>
+  <si>
+    <t>goldProductTerm</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="22">
     <font>
       <sz val="11"/>
@@ -2138,18 +2143,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2194,7 +2199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5">
+    <row r="4" spans="1:4" ht="17.399999999999999">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -2208,7 +2213,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5">
+    <row r="5" spans="1:4" ht="17.399999999999999">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -2222,7 +2227,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5">
+    <row r="6" spans="1:4" ht="17.399999999999999">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -2236,7 +2241,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5">
+    <row r="7" spans="1:4" ht="17.399999999999999">
       <c r="A7" s="50" t="s">
         <v>215</v>
       </c>
@@ -2258,24 +2263,24 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="45"/>
-    <col min="2" max="2" width="16.85546875" style="45" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="45" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="45"/>
+    <col min="1" max="1" width="8.88671875" style="45"/>
+    <col min="2" max="2" width="16.88671875" style="45" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" style="45" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="45"/>
     <col min="5" max="7" width="12" style="45" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="45"/>
+    <col min="8" max="16384" width="8.88671875" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.75" thickBot="1">
+    <row r="1" spans="1:7" ht="13.8" thickBot="1">
       <c r="A1" s="43" t="s">
         <v>175</v>
       </c>
@@ -2295,7 +2300,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="12.75" thickBot="1">
+    <row r="2" spans="1:7" ht="13.8" thickBot="1">
       <c r="A2" s="46">
         <v>1</v>
       </c>
@@ -2315,7 +2320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="12.75" thickBot="1">
+    <row r="3" spans="1:7" ht="13.8" thickBot="1">
       <c r="A3" s="46">
         <v>2</v>
       </c>
@@ -2335,7 +2340,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="12.75" thickBot="1">
+    <row r="4" spans="1:7" ht="13.8" thickBot="1">
       <c r="A4" s="46">
         <v>3</v>
       </c>
@@ -2355,7 +2360,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="12.75" thickBot="1">
+    <row r="5" spans="1:7" ht="13.8" thickBot="1">
       <c r="A5" s="46">
         <v>4</v>
       </c>
@@ -2739,19 +2744,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" customWidth="1"/>
+    <col min="5" max="5" width="25.109375" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2858,7 +2863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="15">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -2872,7 +2877,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="15">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -2886,7 +2891,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="15">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -2900,7 +2905,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="15">
       <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
@@ -2914,7 +2919,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="15">
       <c r="A10" s="8" t="s">
         <v>28</v>
       </c>
@@ -2942,7 +2947,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="15">
       <c r="A12" s="2" t="s">
         <v>55</v>
       </c>
@@ -2970,7 +2975,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="15">
       <c r="A14" s="2" t="s">
         <v>62</v>
       </c>
@@ -2984,7 +2989,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.5">
+    <row r="15" spans="1:7" ht="17.399999999999999">
       <c r="A15" s="2" t="s">
         <v>62</v>
       </c>
@@ -2998,7 +3003,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16.5">
+    <row r="16" spans="1:7" ht="17.399999999999999">
       <c r="A16" s="2" t="s">
         <v>217</v>
       </c>
@@ -3010,7 +3015,7 @@
       </c>
       <c r="D16" s="26"/>
     </row>
-    <row r="17" spans="1:4" ht="16.5">
+    <row r="17" spans="1:4" ht="17.399999999999999">
       <c r="A17" s="2" t="s">
         <v>217</v>
       </c>
@@ -3022,7 +3027,7 @@
       </c>
       <c r="D17" s="26"/>
     </row>
-    <row r="18" spans="1:4" ht="16.5">
+    <row r="18" spans="1:4" ht="17.399999999999999">
       <c r="A18" s="2" t="s">
         <v>217</v>
       </c>
@@ -3034,7 +3039,7 @@
       </c>
       <c r="D18" s="26"/>
     </row>
-    <row r="19" spans="1:4" ht="16.5">
+    <row r="19" spans="1:4" ht="17.399999999999999">
       <c r="A19" s="2" t="s">
         <v>217</v>
       </c>
@@ -3084,7 +3089,7 @@
       </c>
       <c r="D22" s="8"/>
     </row>
-    <row r="23" spans="1:4" ht="16.5">
+    <row r="23" spans="1:4" ht="17.399999999999999">
       <c r="A23" s="2" t="s">
         <v>103</v>
       </c>
@@ -3096,7 +3101,7 @@
       </c>
       <c r="D23" s="8"/>
     </row>
-    <row r="24" spans="1:4" ht="16.5">
+    <row r="24" spans="1:4" ht="17.399999999999999">
       <c r="A24" s="2" t="s">
         <v>103</v>
       </c>
@@ -3132,7 +3137,7 @@
       </c>
       <c r="D26" s="8"/>
     </row>
-    <row r="27" spans="1:4" ht="16.5">
+    <row r="27" spans="1:4" ht="17.399999999999999">
       <c r="A27" s="2" t="s">
         <v>103</v>
       </c>
@@ -3144,7 +3149,7 @@
       </c>
       <c r="D27" s="8"/>
     </row>
-    <row r="28" spans="1:4" ht="16.5">
+    <row r="28" spans="1:4" ht="17.399999999999999">
       <c r="A28" s="2" t="s">
         <v>103</v>
       </c>
@@ -3164,7 +3169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
@@ -3174,22 +3179,22 @@
       <selection activeCell="F57" sqref="A57:F58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="12" style="38" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="38" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="38" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="38" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="38" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="38" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="38" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="38" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="38" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" style="38" customWidth="1"/>
-    <col min="11" max="11" width="25.5703125" style="38" customWidth="1"/>
-    <col min="12" max="12" width="59.5703125" style="38" customWidth="1"/>
-    <col min="13" max="13" width="50.42578125" style="38" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="38"/>
+    <col min="2" max="2" width="24.5546875" style="38" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" style="38" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" style="38" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="38" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" style="38" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="38" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" style="38" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" style="38" customWidth="1"/>
+    <col min="10" max="10" width="15.5546875" style="38" customWidth="1"/>
+    <col min="11" max="11" width="25.5546875" style="38" customWidth="1"/>
+    <col min="12" max="12" width="59.5546875" style="38" customWidth="1"/>
+    <col min="13" max="13" width="50.44140625" style="38" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="35" customFormat="1">
@@ -6067,37 +6072,37 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
   <dimension ref="A1:W64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" customWidth="1"/>
-    <col min="9" max="10" width="15.5703125" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" customWidth="1"/>
-    <col min="13" max="14" width="18.7109375" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.5703125" customWidth="1"/>
-    <col min="18" max="19" width="12.28515625" customWidth="1"/>
-    <col min="20" max="20" width="27.5703125" style="20" customWidth="1"/>
-    <col min="21" max="22" width="16.28515625" customWidth="1"/>
-    <col min="23" max="23" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+    <col min="9" max="10" width="15.5546875" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" customWidth="1"/>
+    <col min="12" max="12" width="18.109375" customWidth="1"/>
+    <col min="13" max="14" width="18.6640625" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.5546875" customWidth="1"/>
+    <col min="18" max="19" width="12.33203125" customWidth="1"/>
+    <col min="20" max="20" width="27.5546875" style="20" customWidth="1"/>
+    <col min="21" max="22" width="16.33203125" customWidth="1"/>
+    <col min="23" max="23" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="13" customFormat="1">
@@ -8937,7 +8942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="15.75" thickBot="1">
+    <row r="39" spans="1:23" ht="15" thickBot="1">
       <c r="A39" s="5">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -9012,7 +9017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="15.75" thickBot="1">
+    <row r="40" spans="1:23" ht="15" thickBot="1">
       <c r="A40" s="5">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -9162,7 +9167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="15.75" thickBot="1">
+    <row r="42" spans="1:23" ht="15" thickBot="1">
       <c r="A42" s="5">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -9237,7 +9242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="15.75" thickBot="1">
+    <row r="43" spans="1:23" ht="15" thickBot="1">
       <c r="A43" s="5">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -9312,7 +9317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="15.75" thickBot="1">
+    <row r="44" spans="1:23" ht="15" thickBot="1">
       <c r="A44" s="5">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -9387,7 +9392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="15.75" thickBot="1">
+    <row r="45" spans="1:23" ht="15" thickBot="1">
       <c r="A45" s="5">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -9462,7 +9467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="15.75" thickBot="1">
+    <row r="46" spans="1:23" ht="15" thickBot="1">
       <c r="A46" s="5">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -9537,7 +9542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="15.75" thickBot="1">
+    <row r="47" spans="1:23" ht="15" thickBot="1">
       <c r="A47" s="5">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -9612,7 +9617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="15.75" thickBot="1">
+    <row r="48" spans="1:23" ht="15" thickBot="1">
       <c r="A48" s="5">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -9687,7 +9692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="15.75" thickBot="1">
+    <row r="49" spans="1:23" ht="15" thickBot="1">
       <c r="A49" s="5">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -9762,7 +9767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="15.75" thickBot="1">
+    <row r="50" spans="1:23" ht="15" thickBot="1">
       <c r="A50" s="5">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -9837,7 +9842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="15.75" thickBot="1">
+    <row r="51" spans="1:23" ht="15" thickBot="1">
       <c r="A51" s="5">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -9912,7 +9917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="15.75" thickBot="1">
+    <row r="52" spans="1:23" ht="15" thickBot="1">
       <c r="A52" s="5">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -9987,7 +9992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="15.75" thickBot="1">
+    <row r="53" spans="1:23" ht="15" thickBot="1">
       <c r="A53" s="5">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -10062,7 +10067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="15.75" thickBot="1">
+    <row r="54" spans="1:23" ht="16.2" thickBot="1">
       <c r="A54" s="5">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -10137,7 +10142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="15.75" thickBot="1">
+    <row r="55" spans="1:23" ht="16.2" thickBot="1">
       <c r="A55" s="5">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -10212,7 +10217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="15.75" thickBot="1">
+    <row r="56" spans="1:23" ht="16.2" thickBot="1">
       <c r="A56" s="5">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -10287,7 +10292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="15.75" thickBot="1">
+    <row r="57" spans="1:23" ht="16.2" thickBot="1">
       <c r="A57" s="5">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -10362,7 +10367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="15.75" thickBot="1">
+    <row r="58" spans="1:23" ht="16.2" thickBot="1">
       <c r="A58" s="5">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -10437,7 +10442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="15.75" thickBot="1">
+    <row r="59" spans="1:23" ht="16.2" thickBot="1">
       <c r="A59" s="5">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -10512,7 +10517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="15.75" thickBot="1">
+    <row r="60" spans="1:23" ht="16.2" thickBot="1">
       <c r="A60" s="5">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -10587,7 +10592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="15.75" thickBot="1">
+    <row r="61" spans="1:23" ht="16.2" thickBot="1">
       <c r="A61" s="5">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -10662,7 +10667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="15.75" thickBot="1">
+    <row r="62" spans="1:23" ht="16.2" thickBot="1">
       <c r="A62" s="5">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -10737,7 +10742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="15.75" thickBot="1">
+    <row r="63" spans="1:23" ht="16.2" thickBot="1">
       <c r="A63" s="5">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -10812,7 +10817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="15.75" thickBot="1">
+    <row r="64" spans="1:23" ht="16.2" thickBot="1">
       <c r="A64" s="5">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -10921,7 +10926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
@@ -10931,9 +10936,9 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="59.5703125" customWidth="1"/>
+    <col min="3" max="3" width="59.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -11177,18 +11182,18 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -11233,7 +11238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5">
+    <row r="4" spans="1:4" ht="17.399999999999999">
       <c r="A4" s="24" t="s">
         <v>16</v>
       </c>
@@ -11247,7 +11252,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5">
+    <row r="5" spans="1:4" ht="17.399999999999999">
       <c r="A5" s="23" t="s">
         <v>17</v>
       </c>
@@ -11261,7 +11266,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5">
+    <row r="6" spans="1:4" ht="17.399999999999999">
       <c r="A6" s="23" t="s">
         <v>18</v>
       </c>
@@ -11275,7 +11280,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5">
+    <row r="7" spans="1:4" ht="17.399999999999999">
       <c r="A7" s="23" t="s">
         <v>100</v>
       </c>
@@ -11353,26 +11358,27 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="14" t="s">
         <v>42</v>
       </c>
@@ -11391,8 +11397,14 @@
       <c r="F1" s="14" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -11411,8 +11423,14 @@
       <c r="F2" s="16" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
@@ -11431,8 +11449,14 @@
       <c r="F3" s="18" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -11451,8 +11475,14 @@
       <c r="F4" s="9">
         <v>120</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.5">
+      <c r="G4" s="9">
+        <v>5</v>
+      </c>
+      <c r="H4" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17.399999999999999">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -11471,8 +11501,14 @@
       <c r="F5" s="9">
         <v>120</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.5">
+      <c r="G5" s="9">
+        <v>5</v>
+      </c>
+      <c r="H5" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17.399999999999999">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -11491,8 +11527,14 @@
       <c r="F6" s="9">
         <v>120</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="16.5">
+      <c r="G6" s="9">
+        <v>5</v>
+      </c>
+      <c r="H6" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17.399999999999999">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -11511,8 +11553,14 @@
       <c r="F7" s="9">
         <v>120</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="16.5">
+      <c r="G7" s="9">
+        <v>5</v>
+      </c>
+      <c r="H7" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17.399999999999999">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -11531,8 +11579,14 @@
       <c r="F8" s="9">
         <v>120</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="16.5">
+      <c r="G8" s="9">
+        <v>5</v>
+      </c>
+      <c r="H8" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17.399999999999999">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -11551,8 +11605,14 @@
       <c r="F9" s="9">
         <v>120</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="16.5">
+      <c r="G9" s="9">
+        <v>5</v>
+      </c>
+      <c r="H9" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17.399999999999999">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -11571,8 +11631,14 @@
       <c r="F10" s="9">
         <v>120</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="16.5">
+      <c r="G10" s="9">
+        <v>5</v>
+      </c>
+      <c r="H10" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17.399999999999999">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -11591,8 +11657,14 @@
       <c r="F11" s="9">
         <v>120</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="16.5">
+      <c r="G11" s="9">
+        <v>5</v>
+      </c>
+      <c r="H11" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17.399999999999999">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -11611,8 +11683,14 @@
       <c r="F12" s="9">
         <v>120</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="16.5">
+      <c r="G12" s="9">
+        <v>5</v>
+      </c>
+      <c r="H12" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17.399999999999999">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -11631,8 +11709,14 @@
       <c r="F13" s="9">
         <v>120</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="16.5">
+      <c r="G13" s="9">
+        <v>5</v>
+      </c>
+      <c r="H13" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17.399999999999999">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -11651,8 +11735,14 @@
       <c r="F14" s="9">
         <v>120</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="16.5">
+      <c r="G14" s="9">
+        <v>5</v>
+      </c>
+      <c r="H14" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17.399999999999999">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -11671,8 +11761,14 @@
       <c r="F15" s="9">
         <v>120</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="16.5">
+      <c r="G15" s="9">
+        <v>5</v>
+      </c>
+      <c r="H15" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="17.399999999999999">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -11691,8 +11787,14 @@
       <c r="F16" s="9">
         <v>120</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="16.5">
+      <c r="G16" s="9">
+        <v>5</v>
+      </c>
+      <c r="H16" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17.399999999999999">
       <c r="A17" s="5">
         <v>14</v>
       </c>
@@ -11711,8 +11813,14 @@
       <c r="F17" s="9">
         <v>120</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="16.5">
+      <c r="G17" s="9">
+        <v>5</v>
+      </c>
+      <c r="H17" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="17.399999999999999">
       <c r="A18" s="5">
         <v>15</v>
       </c>
@@ -11731,8 +11839,14 @@
       <c r="F18" s="9">
         <v>120</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="16.5">
+      <c r="G18" s="9">
+        <v>5</v>
+      </c>
+      <c r="H18" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="17.399999999999999">
       <c r="A19" s="5">
         <v>16</v>
       </c>
@@ -11751,8 +11865,14 @@
       <c r="F19" s="9">
         <v>120</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="16.5">
+      <c r="G19" s="9">
+        <v>5</v>
+      </c>
+      <c r="H19" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="17.399999999999999">
       <c r="A20" s="5">
         <v>17</v>
       </c>
@@ -11771,8 +11891,14 @@
       <c r="F20" s="9">
         <v>120</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="16.5">
+      <c r="G20" s="9">
+        <v>5</v>
+      </c>
+      <c r="H20" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="17.399999999999999">
       <c r="A21" s="5">
         <v>18</v>
       </c>
@@ -11791,8 +11917,14 @@
       <c r="F21" s="9">
         <v>120</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="16.5">
+      <c r="G21" s="9">
+        <v>5</v>
+      </c>
+      <c r="H21" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="17.399999999999999">
       <c r="A22" s="5">
         <v>19</v>
       </c>
@@ -11811,8 +11943,14 @@
       <c r="F22" s="9">
         <v>120</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="16.5">
+      <c r="G22" s="9">
+        <v>5</v>
+      </c>
+      <c r="H22" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="17.399999999999999">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -11831,20 +11969,26 @@
       <c r="F23" s="9">
         <v>120</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" s="9">
+        <v>5</v>
+      </c>
+      <c r="H23" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="5"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:8">
       <c r="A25" s="5"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:8">
       <c r="A26" s="5"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:8">
       <c r="A27" s="5"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:8">
       <c r="A28" s="5"/>
     </row>
   </sheetData>
@@ -11855,17 +11999,17 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="4" max="5" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -12064,17 +12208,17 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="2" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSV/SrcFolder/테이블_0323_v22.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ejup\Desktop\GameJam\ExcelToCSV\SrcFolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevD\TowerDefense\ExcelToCSV\SrcFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FFA820-F0D2-4AA5-87BA-99929CD7B1BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32652" yWindow="3096" windowWidth="21876" windowHeight="12156" activeTab="6"/>
+    <workbookView xWindow="29235" yWindow="2070" windowWidth="21870" windowHeight="13920" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigTable" sheetId="18" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <sheet name="GachaList" sheetId="28" r:id="rId9"/>
     <sheet name="reference" sheetId="31" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -41,12 +42,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ejup</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -95,12 +96,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ejup</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -141,12 +142,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ejup</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -187,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="268">
   <si>
     <t>type</t>
   </si>
@@ -1453,11 +1454,19 @@
   <si>
     <t>goldProductTerm</t>
   </si>
+  <si>
+    <t>stage_wave</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage/StageWave.prefab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="22">
     <font>
       <sz val="11"/>
@@ -2143,18 +2152,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2199,7 +2208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17.399999999999999">
+    <row r="4" spans="1:4" ht="16.5">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -2213,7 +2222,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17.399999999999999">
+    <row r="5" spans="1:4" ht="16.5">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -2227,7 +2236,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17.399999999999999">
+    <row r="6" spans="1:4" ht="16.5">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -2241,7 +2250,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="17.399999999999999">
+    <row r="7" spans="1:4" ht="16.5">
       <c r="A7" s="50" t="s">
         <v>215</v>
       </c>
@@ -2263,24 +2272,24 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc=